--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>Data</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
   </si>
   <si>
     <t>UF</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4000,6 +4003,92 @@
         <v>12</v>
       </c>
     </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <v>311</v>
+      </c>
+      <c r="F41">
+        <v>332</v>
+      </c>
+      <c r="G41">
+        <v>730</v>
+      </c>
+      <c r="H41">
+        <v>454</v>
+      </c>
+      <c r="I41">
+        <v>153</v>
+      </c>
+      <c r="J41">
+        <v>103</v>
+      </c>
+      <c r="K41">
+        <v>88</v>
+      </c>
+      <c r="L41">
+        <v>56</v>
+      </c>
+      <c r="M41">
+        <v>62</v>
+      </c>
+      <c r="N41">
+        <v>430</v>
+      </c>
+      <c r="O41">
+        <v>80</v>
+      </c>
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41">
+        <v>395</v>
+      </c>
+      <c r="R41">
+        <v>176</v>
+      </c>
+      <c r="S41">
+        <v>22</v>
+      </c>
+      <c r="T41">
+        <v>1246</v>
+      </c>
+      <c r="U41">
+        <v>212</v>
+      </c>
+      <c r="V41">
+        <v>410</v>
+      </c>
+      <c r="W41">
+        <v>11</v>
+      </c>
+      <c r="X41">
+        <v>37</v>
+      </c>
+      <c r="Y41">
+        <v>334</v>
+      </c>
+      <c r="Z41">
+        <v>4466</v>
+      </c>
+      <c r="AA41">
+        <v>27</v>
+      </c>
+      <c r="AB41">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4007,7 +4096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB40"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7450,6 +7539,92 @@
         <v>2</v>
       </c>
       <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>14</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>58</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41">
+        <v>6</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>260</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
         <v>0</v>
       </c>
     </row>
@@ -7468,10 +7643,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
   </si>
   <si>
     <t>UF</t>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4089,6 +4092,92 @@
         <v>14</v>
       </c>
     </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>417</v>
+      </c>
+      <c r="F42">
+        <v>401</v>
+      </c>
+      <c r="G42">
+        <v>823</v>
+      </c>
+      <c r="H42">
+        <v>468</v>
+      </c>
+      <c r="I42">
+        <v>166</v>
+      </c>
+      <c r="J42">
+        <v>115</v>
+      </c>
+      <c r="K42">
+        <v>96</v>
+      </c>
+      <c r="L42">
+        <v>60</v>
+      </c>
+      <c r="M42">
+        <v>65</v>
+      </c>
+      <c r="N42">
+        <v>498</v>
+      </c>
+      <c r="O42">
+        <v>86</v>
+      </c>
+      <c r="P42">
+        <v>34</v>
+      </c>
+      <c r="Q42">
+        <v>438</v>
+      </c>
+      <c r="R42">
+        <v>201</v>
+      </c>
+      <c r="S42">
+        <v>23</v>
+      </c>
+      <c r="T42">
+        <v>1394</v>
+      </c>
+      <c r="U42">
+        <v>242</v>
+      </c>
+      <c r="V42">
+        <v>418</v>
+      </c>
+      <c r="W42">
+        <v>12</v>
+      </c>
+      <c r="X42">
+        <v>42</v>
+      </c>
+      <c r="Y42">
+        <v>357</v>
+      </c>
+      <c r="Z42">
+        <v>4620</v>
+      </c>
+      <c r="AA42">
+        <v>32</v>
+      </c>
+      <c r="AB42">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4096,7 +4185,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7625,6 +7714,92 @@
         <v>2</v>
       </c>
       <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>21</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>64</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>10</v>
+      </c>
+      <c r="Z42">
+        <v>275</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
         <v>0</v>
       </c>
     </row>
@@ -7643,10 +7818,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
   </si>
   <si>
     <t>UF</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4178,6 +4181,92 @@
         <v>17</v>
       </c>
     </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>532</v>
+      </c>
+      <c r="F43">
+        <v>431</v>
+      </c>
+      <c r="G43">
+        <v>1013</v>
+      </c>
+      <c r="H43">
+        <v>473</v>
+      </c>
+      <c r="I43">
+        <v>194</v>
+      </c>
+      <c r="J43">
+        <v>119</v>
+      </c>
+      <c r="K43">
+        <v>133</v>
+      </c>
+      <c r="L43">
+        <v>76</v>
+      </c>
+      <c r="M43">
+        <v>66</v>
+      </c>
+      <c r="N43">
+        <v>525</v>
+      </c>
+      <c r="O43">
+        <v>102</v>
+      </c>
+      <c r="P43">
+        <v>35</v>
+      </c>
+      <c r="Q43">
+        <v>458</v>
+      </c>
+      <c r="R43">
+        <v>223</v>
+      </c>
+      <c r="S43">
+        <v>23</v>
+      </c>
+      <c r="T43">
+        <v>1461</v>
+      </c>
+      <c r="U43">
+        <v>246</v>
+      </c>
+      <c r="V43">
+        <v>481</v>
+      </c>
+      <c r="W43">
+        <v>14</v>
+      </c>
+      <c r="X43">
+        <v>42</v>
+      </c>
+      <c r="Y43">
+        <v>379</v>
+      </c>
+      <c r="Z43">
+        <v>4866</v>
+      </c>
+      <c r="AA43">
+        <v>32</v>
+      </c>
+      <c r="AB43">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4185,7 +4274,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB42"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7800,6 +7889,92 @@
         <v>3</v>
       </c>
       <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>29</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>9</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>11</v>
+      </c>
+      <c r="R43">
+        <v>30</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <v>71</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>7</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>304</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
         <v>0</v>
       </c>
     </row>
@@ -7818,10 +7993,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
   <si>
     <t>Data</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
   </si>
   <si>
     <t>UF</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4267,6 +4270,92 @@
         <v>17</v>
       </c>
     </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>636</v>
+      </c>
+      <c r="F44">
+        <v>456</v>
+      </c>
+      <c r="G44">
+        <v>1051</v>
+      </c>
+      <c r="H44">
+        <v>492</v>
+      </c>
+      <c r="I44">
+        <v>209</v>
+      </c>
+      <c r="J44">
+        <v>133</v>
+      </c>
+      <c r="K44">
+        <v>172</v>
+      </c>
+      <c r="L44">
+        <v>78</v>
+      </c>
+      <c r="M44">
+        <v>80</v>
+      </c>
+      <c r="N44">
+        <v>559</v>
+      </c>
+      <c r="O44">
+        <v>138</v>
+      </c>
+      <c r="P44">
+        <v>36</v>
+      </c>
+      <c r="Q44">
+        <v>503</v>
+      </c>
+      <c r="R44">
+        <v>352</v>
+      </c>
+      <c r="S44">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <v>1688</v>
+      </c>
+      <c r="U44">
+        <v>254</v>
+      </c>
+      <c r="V44">
+        <v>508</v>
+      </c>
+      <c r="W44">
+        <v>18</v>
+      </c>
+      <c r="X44">
+        <v>42</v>
+      </c>
+      <c r="Y44">
+        <v>417</v>
+      </c>
+      <c r="Z44">
+        <v>5682</v>
+      </c>
+      <c r="AA44">
+        <v>36</v>
+      </c>
+      <c r="AB44">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4274,7 +4363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7975,6 +8064,92 @@
         <v>4</v>
       </c>
       <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>31</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>11</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>15</v>
+      </c>
+      <c r="R44">
+        <v>34</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>89</v>
+      </c>
+      <c r="U44">
+        <v>8</v>
+      </c>
+      <c r="V44">
+        <v>8</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>11</v>
+      </c>
+      <c r="Z44">
+        <v>371</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
         <v>0</v>
       </c>
     </row>
@@ -7993,10 +8168,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
   <si>
     <t>Data</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
   </si>
   <si>
     <t>UF</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4356,6 +4359,92 @@
         <v>19</v>
       </c>
     </row>
+    <row r="45" spans="1:28">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>54</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>107</v>
+      </c>
+      <c r="E45">
+        <v>804</v>
+      </c>
+      <c r="F45">
+        <v>497</v>
+      </c>
+      <c r="G45">
+        <v>1291</v>
+      </c>
+      <c r="H45">
+        <v>509</v>
+      </c>
+      <c r="I45">
+        <v>227</v>
+      </c>
+      <c r="J45">
+        <v>158</v>
+      </c>
+      <c r="K45">
+        <v>230</v>
+      </c>
+      <c r="L45">
+        <v>90</v>
+      </c>
+      <c r="M45">
+        <v>85</v>
+      </c>
+      <c r="N45">
+        <v>614</v>
+      </c>
+      <c r="O45">
+        <v>167</v>
+      </c>
+      <c r="P45">
+        <v>41</v>
+      </c>
+      <c r="Q45">
+        <v>539</v>
+      </c>
+      <c r="R45">
+        <v>401</v>
+      </c>
+      <c r="S45">
+        <v>31</v>
+      </c>
+      <c r="T45">
+        <v>1938</v>
+      </c>
+      <c r="U45">
+        <v>261</v>
+      </c>
+      <c r="V45">
+        <v>555</v>
+      </c>
+      <c r="W45">
+        <v>18</v>
+      </c>
+      <c r="X45">
+        <v>49</v>
+      </c>
+      <c r="Y45">
+        <v>457</v>
+      </c>
+      <c r="Z45">
+        <v>6708</v>
+      </c>
+      <c r="AA45">
+        <v>36</v>
+      </c>
+      <c r="AB45">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4363,7 +4452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8150,6 +8239,92 @@
         <v>4</v>
       </c>
       <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>14</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>17</v>
+      </c>
+      <c r="R45">
+        <v>46</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>106</v>
+      </c>
+      <c r="U45">
+        <v>11</v>
+      </c>
+      <c r="V45">
+        <v>9</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>15</v>
+      </c>
+      <c r="Z45">
+        <v>428</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45">
         <v>0</v>
       </c>
     </row>
@@ -8168,10 +8343,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
   </si>
   <si>
     <t>UF</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4445,6 +4448,92 @@
         <v>23</v>
       </c>
     </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>128</v>
+      </c>
+      <c r="E46">
+        <v>899</v>
+      </c>
+      <c r="F46">
+        <v>559</v>
+      </c>
+      <c r="G46">
+        <v>1425</v>
+      </c>
+      <c r="H46">
+        <v>527</v>
+      </c>
+      <c r="I46">
+        <v>273</v>
+      </c>
+      <c r="J46">
+        <v>179</v>
+      </c>
+      <c r="K46">
+        <v>273</v>
+      </c>
+      <c r="L46">
+        <v>108</v>
+      </c>
+      <c r="M46">
+        <v>89</v>
+      </c>
+      <c r="N46">
+        <v>655</v>
+      </c>
+      <c r="O46">
+        <v>168</v>
+      </c>
+      <c r="P46">
+        <v>55</v>
+      </c>
+      <c r="Q46">
+        <v>609</v>
+      </c>
+      <c r="R46">
+        <v>555</v>
+      </c>
+      <c r="S46">
+        <v>38</v>
+      </c>
+      <c r="T46">
+        <v>2216</v>
+      </c>
+      <c r="U46">
+        <v>261</v>
+      </c>
+      <c r="V46">
+        <v>618</v>
+      </c>
+      <c r="W46">
+        <v>28</v>
+      </c>
+      <c r="X46">
+        <v>52</v>
+      </c>
+      <c r="Y46">
+        <v>501</v>
+      </c>
+      <c r="Z46">
+        <v>7480</v>
+      </c>
+      <c r="AA46">
+        <v>39</v>
+      </c>
+      <c r="AB46">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4452,7 +4541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8325,6 +8414,92 @@
         <v>4</v>
       </c>
       <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>55</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+      <c r="Q46">
+        <v>22</v>
+      </c>
+      <c r="R46">
+        <v>56</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>122</v>
+      </c>
+      <c r="U46">
+        <v>11</v>
+      </c>
+      <c r="V46">
+        <v>12</v>
+      </c>
+      <c r="W46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>496</v>
+      </c>
+      <c r="AA46">
+        <v>4</v>
+      </c>
+      <c r="AB46">
         <v>0</v>
       </c>
     </row>
@@ -8343,10 +8518,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
   <si>
     <t>Data</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
   </si>
   <si>
     <t>UF</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4534,6 +4537,92 @@
         <v>23</v>
       </c>
     </row>
+    <row r="47" spans="1:28">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>166</v>
+      </c>
+      <c r="E47">
+        <v>981</v>
+      </c>
+      <c r="F47">
+        <v>604</v>
+      </c>
+      <c r="G47">
+        <v>1478</v>
+      </c>
+      <c r="H47">
+        <v>555</v>
+      </c>
+      <c r="I47">
+        <v>300</v>
+      </c>
+      <c r="J47">
+        <v>191</v>
+      </c>
+      <c r="K47">
+        <v>293</v>
+      </c>
+      <c r="L47">
+        <v>112</v>
+      </c>
+      <c r="M47">
+        <v>97</v>
+      </c>
+      <c r="N47">
+        <v>698</v>
+      </c>
+      <c r="O47">
+        <v>170</v>
+      </c>
+      <c r="P47">
+        <v>79</v>
+      </c>
+      <c r="Q47">
+        <v>643</v>
+      </c>
+      <c r="R47">
+        <v>684</v>
+      </c>
+      <c r="S47">
+        <v>40</v>
+      </c>
+      <c r="T47">
+        <v>2464</v>
+      </c>
+      <c r="U47">
+        <v>263</v>
+      </c>
+      <c r="V47">
+        <v>636</v>
+      </c>
+      <c r="W47">
+        <v>32</v>
+      </c>
+      <c r="X47">
+        <v>63</v>
+      </c>
+      <c r="Y47">
+        <v>693</v>
+      </c>
+      <c r="Z47">
+        <v>8216</v>
+      </c>
+      <c r="AA47">
+        <v>42</v>
+      </c>
+      <c r="AB47">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4541,7 +4630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8500,6 +8589,92 @@
         <v>4</v>
       </c>
       <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>58</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>16</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>17</v>
+      </c>
+      <c r="O47">
+        <v>9</v>
+      </c>
+      <c r="P47">
+        <v>11</v>
+      </c>
+      <c r="Q47">
+        <v>25</v>
+      </c>
+      <c r="R47">
+        <v>65</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>147</v>
+      </c>
+      <c r="U47">
+        <v>11</v>
+      </c>
+      <c r="V47">
+        <v>14</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>18</v>
+      </c>
+      <c r="Z47">
+        <v>540</v>
+      </c>
+      <c r="AA47">
+        <v>4</v>
+      </c>
+      <c r="AB47">
         <v>0</v>
       </c>
     </row>
@@ -8518,10 +8693,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>Data</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
   </si>
   <si>
     <t>UF</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4623,6 +4629,178 @@
         <v>23</v>
       </c>
     </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>193</v>
+      </c>
+      <c r="E48">
+        <v>1050</v>
+      </c>
+      <c r="F48">
+        <v>635</v>
+      </c>
+      <c r="G48">
+        <v>1582</v>
+      </c>
+      <c r="H48">
+        <v>579</v>
+      </c>
+      <c r="I48">
+        <v>349</v>
+      </c>
+      <c r="J48">
+        <v>209</v>
+      </c>
+      <c r="K48">
+        <v>344</v>
+      </c>
+      <c r="L48">
+        <v>121</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>750</v>
+      </c>
+      <c r="O48">
+        <v>217</v>
+      </c>
+      <c r="P48">
+        <v>85</v>
+      </c>
+      <c r="Q48">
+        <v>676</v>
+      </c>
+      <c r="R48">
+        <v>816</v>
+      </c>
+      <c r="S48">
+        <v>41</v>
+      </c>
+      <c r="T48">
+        <v>2607</v>
+      </c>
+      <c r="U48">
+        <v>289</v>
+      </c>
+      <c r="V48">
+        <v>640</v>
+      </c>
+      <c r="W48">
+        <v>33</v>
+      </c>
+      <c r="X48">
+        <v>75</v>
+      </c>
+      <c r="Y48">
+        <v>732</v>
+      </c>
+      <c r="Z48">
+        <v>8419</v>
+      </c>
+      <c r="AA48">
+        <v>42</v>
+      </c>
+      <c r="AB48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>230</v>
+      </c>
+      <c r="E49">
+        <v>1206</v>
+      </c>
+      <c r="F49">
+        <v>673</v>
+      </c>
+      <c r="G49">
+        <v>1676</v>
+      </c>
+      <c r="H49">
+        <v>614</v>
+      </c>
+      <c r="I49">
+        <v>383</v>
+      </c>
+      <c r="J49">
+        <v>229</v>
+      </c>
+      <c r="K49">
+        <v>398</v>
+      </c>
+      <c r="L49">
+        <v>123</v>
+      </c>
+      <c r="M49">
+        <v>101</v>
+      </c>
+      <c r="N49">
+        <v>806</v>
+      </c>
+      <c r="O49">
+        <v>246</v>
+      </c>
+      <c r="P49">
+        <v>101</v>
+      </c>
+      <c r="Q49">
+        <v>738</v>
+      </c>
+      <c r="R49">
+        <v>960</v>
+      </c>
+      <c r="S49">
+        <v>44</v>
+      </c>
+      <c r="T49">
+        <v>2855</v>
+      </c>
+      <c r="U49">
+        <v>302</v>
+      </c>
+      <c r="V49">
+        <v>653</v>
+      </c>
+      <c r="W49">
+        <v>35</v>
+      </c>
+      <c r="X49">
+        <v>79</v>
+      </c>
+      <c r="Y49">
+        <v>768</v>
+      </c>
+      <c r="Z49">
+        <v>8755</v>
+      </c>
+      <c r="AA49">
+        <v>44</v>
+      </c>
+      <c r="AB49">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4630,7 +4808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8675,6 +8853,178 @@
         <v>4</v>
       </c>
       <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="F48">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>67</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>21</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>10</v>
+      </c>
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>26</v>
+      </c>
+      <c r="R48">
+        <v>72</v>
+      </c>
+      <c r="S48">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>155</v>
+      </c>
+      <c r="U48">
+        <v>13</v>
+      </c>
+      <c r="V48">
+        <v>15</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Y48">
+        <v>21</v>
+      </c>
+      <c r="Z48">
+        <v>560</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>62</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>74</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+      <c r="K49">
+        <v>24</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>20</v>
+      </c>
+      <c r="O49">
+        <v>13</v>
+      </c>
+      <c r="P49">
+        <v>13</v>
+      </c>
+      <c r="Q49">
+        <v>30</v>
+      </c>
+      <c r="R49">
+        <v>85</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="T49">
+        <v>170</v>
+      </c>
+      <c r="U49">
+        <v>15</v>
+      </c>
+      <c r="V49">
+        <v>16</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>24</v>
+      </c>
+      <c r="Z49">
+        <v>588</v>
+      </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
+      <c r="AB49">
         <v>0</v>
       </c>
     </row>
@@ -8693,10 +9043,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>Data</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
   </si>
   <si>
     <t>UF</t>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4801,6 +4804,92 @@
         <v>25</v>
       </c>
     </row>
+    <row r="50" spans="1:28">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>242</v>
+      </c>
+      <c r="E50">
+        <v>1275</v>
+      </c>
+      <c r="F50">
+        <v>723</v>
+      </c>
+      <c r="G50">
+        <v>1800</v>
+      </c>
+      <c r="H50">
+        <v>638</v>
+      </c>
+      <c r="I50">
+        <v>430</v>
+      </c>
+      <c r="J50">
+        <v>233</v>
+      </c>
+      <c r="K50">
+        <v>445</v>
+      </c>
+      <c r="L50">
+        <v>134</v>
+      </c>
+      <c r="M50">
+        <v>113</v>
+      </c>
+      <c r="N50">
+        <v>815</v>
+      </c>
+      <c r="O50">
+        <v>270</v>
+      </c>
+      <c r="P50">
+        <v>111</v>
+      </c>
+      <c r="Q50">
+        <v>756</v>
+      </c>
+      <c r="R50">
+        <v>1154</v>
+      </c>
+      <c r="S50">
+        <v>50</v>
+      </c>
+      <c r="T50">
+        <v>3231</v>
+      </c>
+      <c r="U50">
+        <v>339</v>
+      </c>
+      <c r="V50">
+        <v>664</v>
+      </c>
+      <c r="W50">
+        <v>42</v>
+      </c>
+      <c r="X50">
+        <v>83</v>
+      </c>
+      <c r="Y50">
+        <v>777</v>
+      </c>
+      <c r="Z50">
+        <v>8895</v>
+      </c>
+      <c r="AA50">
+        <v>44</v>
+      </c>
+      <c r="AB50">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4808,7 +4897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9025,6 +9114,92 @@
         <v>4</v>
       </c>
       <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>71</v>
+      </c>
+      <c r="F50">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>91</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>27</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>23</v>
+      </c>
+      <c r="O50">
+        <v>15</v>
+      </c>
+      <c r="P50">
+        <v>13</v>
+      </c>
+      <c r="Q50">
+        <v>31</v>
+      </c>
+      <c r="R50">
+        <v>102</v>
+      </c>
+      <c r="S50">
+        <v>8</v>
+      </c>
+      <c r="T50">
+        <v>188</v>
+      </c>
+      <c r="U50">
+        <v>17</v>
+      </c>
+      <c r="V50">
+        <v>16</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>24</v>
+      </c>
+      <c r="Z50">
+        <v>608</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
         <v>0</v>
       </c>
     </row>
@@ -9043,10 +9218,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
   <si>
     <t>Data</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
   </si>
   <si>
     <t>UF</t>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4890,6 +4893,92 @@
         <v>26</v>
       </c>
     </row>
+    <row r="51" spans="1:28">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>307</v>
+      </c>
+      <c r="E51">
+        <v>1484</v>
+      </c>
+      <c r="F51">
+        <v>759</v>
+      </c>
+      <c r="G51">
+        <v>2005</v>
+      </c>
+      <c r="H51">
+        <v>651</v>
+      </c>
+      <c r="I51">
+        <v>463</v>
+      </c>
+      <c r="J51">
+        <v>284</v>
+      </c>
+      <c r="K51">
+        <v>478</v>
+      </c>
+      <c r="L51">
+        <v>138</v>
+      </c>
+      <c r="M51">
+        <v>115</v>
+      </c>
+      <c r="N51">
+        <v>884</v>
+      </c>
+      <c r="O51">
+        <v>323</v>
+      </c>
+      <c r="P51">
+        <v>136</v>
+      </c>
+      <c r="Q51">
+        <v>791</v>
+      </c>
+      <c r="R51">
+        <v>1284</v>
+      </c>
+      <c r="S51">
+        <v>58</v>
+      </c>
+      <c r="T51">
+        <v>3410</v>
+      </c>
+      <c r="U51">
+        <v>376</v>
+      </c>
+      <c r="V51">
+        <v>700</v>
+      </c>
+      <c r="W51">
+        <v>64</v>
+      </c>
+      <c r="X51">
+        <v>113</v>
+      </c>
+      <c r="Y51">
+        <v>826</v>
+      </c>
+      <c r="Z51">
+        <v>9371</v>
+      </c>
+      <c r="AA51">
+        <v>45</v>
+      </c>
+      <c r="AB51">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4897,7 +4986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9200,6 +9289,92 @@
         <v>4</v>
       </c>
       <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>107</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>32</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>27</v>
+      </c>
+      <c r="O51">
+        <v>19</v>
+      </c>
+      <c r="P51">
+        <v>16</v>
+      </c>
+      <c r="Q51">
+        <v>36</v>
+      </c>
+      <c r="R51">
+        <v>115</v>
+      </c>
+      <c r="S51">
+        <v>8</v>
+      </c>
+      <c r="T51">
+        <v>224</v>
+      </c>
+      <c r="U51">
+        <v>18</v>
+      </c>
+      <c r="V51">
+        <v>18</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>26</v>
+      </c>
+      <c r="Z51">
+        <v>695</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
         <v>0</v>
       </c>
     </row>
@@ -9218,10 +9393,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>Data</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
   </si>
   <si>
     <t>UF</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB51"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4979,6 +4982,92 @@
         <v>26</v>
       </c>
     </row>
+    <row r="52" spans="1:28">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <v>334</v>
+      </c>
+      <c r="E52">
+        <v>1554</v>
+      </c>
+      <c r="F52">
+        <v>807</v>
+      </c>
+      <c r="G52">
+        <v>2157</v>
+      </c>
+      <c r="H52">
+        <v>682</v>
+      </c>
+      <c r="I52">
+        <v>557</v>
+      </c>
+      <c r="J52">
+        <v>304</v>
+      </c>
+      <c r="K52">
+        <v>630</v>
+      </c>
+      <c r="L52">
+        <v>151</v>
+      </c>
+      <c r="M52">
+        <v>121</v>
+      </c>
+      <c r="N52">
+        <v>903</v>
+      </c>
+      <c r="O52">
+        <v>384</v>
+      </c>
+      <c r="P52">
+        <v>136</v>
+      </c>
+      <c r="Q52">
+        <v>803</v>
+      </c>
+      <c r="R52">
+        <v>1484</v>
+      </c>
+      <c r="S52">
+        <v>75</v>
+      </c>
+      <c r="T52">
+        <v>3743</v>
+      </c>
+      <c r="U52">
+        <v>399</v>
+      </c>
+      <c r="V52">
+        <v>747</v>
+      </c>
+      <c r="W52">
+        <v>69</v>
+      </c>
+      <c r="X52">
+        <v>114</v>
+      </c>
+      <c r="Y52">
+        <v>826</v>
+      </c>
+      <c r="Z52">
+        <v>11043</v>
+      </c>
+      <c r="AA52">
+        <v>46</v>
+      </c>
+      <c r="AB52">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4986,7 +5075,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB51"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9375,6 +9464,92 @@
         <v>4</v>
       </c>
       <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>106</v>
+      </c>
+      <c r="F52">
+        <v>27</v>
+      </c>
+      <c r="G52">
+        <v>116</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>18</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52">
+        <v>34</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>30</v>
+      </c>
+      <c r="O52">
+        <v>21</v>
+      </c>
+      <c r="P52">
+        <v>16</v>
+      </c>
+      <c r="Q52">
+        <v>38</v>
+      </c>
+      <c r="R52">
+        <v>143</v>
+      </c>
+      <c r="S52">
+        <v>8</v>
+      </c>
+      <c r="T52">
+        <v>265</v>
+      </c>
+      <c r="U52">
+        <v>19</v>
+      </c>
+      <c r="V52">
+        <v>19</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <v>3</v>
+      </c>
+      <c r="Y52">
+        <v>26</v>
+      </c>
+      <c r="Z52">
+        <v>778</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
         <v>0</v>
       </c>
     </row>
@@ -9393,10 +9568,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>Data</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
   </si>
   <si>
     <t>UF</t>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5068,6 +5071,92 @@
         <v>26</v>
       </c>
     </row>
+    <row r="53" spans="1:28">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>89</v>
+      </c>
+      <c r="D53">
+        <v>362</v>
+      </c>
+      <c r="E53">
+        <v>1719</v>
+      </c>
+      <c r="F53">
+        <v>951</v>
+      </c>
+      <c r="G53">
+        <v>2386</v>
+      </c>
+      <c r="H53">
+        <v>716</v>
+      </c>
+      <c r="I53">
+        <v>754</v>
+      </c>
+      <c r="J53">
+        <v>318</v>
+      </c>
+      <c r="K53">
+        <v>695</v>
+      </c>
+      <c r="L53">
+        <v>156</v>
+      </c>
+      <c r="M53">
+        <v>131</v>
+      </c>
+      <c r="N53">
+        <v>958</v>
+      </c>
+      <c r="O53">
+        <v>438</v>
+      </c>
+      <c r="P53">
+        <v>165</v>
+      </c>
+      <c r="Q53">
+        <v>832</v>
+      </c>
+      <c r="R53">
+        <v>1683</v>
+      </c>
+      <c r="S53">
+        <v>91</v>
+      </c>
+      <c r="T53">
+        <v>3944</v>
+      </c>
+      <c r="U53">
+        <v>400</v>
+      </c>
+      <c r="V53">
+        <v>780</v>
+      </c>
+      <c r="W53">
+        <v>76</v>
+      </c>
+      <c r="X53">
+        <v>142</v>
+      </c>
+      <c r="Y53">
+        <v>884</v>
+      </c>
+      <c r="Z53">
+        <v>11568</v>
+      </c>
+      <c r="AA53">
+        <v>48</v>
+      </c>
+      <c r="AB53">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5075,7 +5164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9551,6 +9640,92 @@
       </c>
       <c r="AB52">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>124</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>124</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>22</v>
+      </c>
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53">
+        <v>37</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>33</v>
+      </c>
+      <c r="O53">
+        <v>24</v>
+      </c>
+      <c r="P53">
+        <v>24</v>
+      </c>
+      <c r="Q53">
+        <v>41</v>
+      </c>
+      <c r="R53">
+        <v>160</v>
+      </c>
+      <c r="S53">
+        <v>8</v>
+      </c>
+      <c r="T53">
+        <v>300</v>
+      </c>
+      <c r="U53">
+        <v>20</v>
+      </c>
+      <c r="V53">
+        <v>19</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>29</v>
+      </c>
+      <c r="Z53">
+        <v>853</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AB53">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9568,10 +9743,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
   <si>
     <t>Data</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
   </si>
   <si>
     <t>UF</t>
@@ -593,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5157,6 +5166,264 @@
         <v>29</v>
       </c>
     </row>
+    <row r="54" spans="1:28">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>135</v>
+      </c>
+      <c r="C54">
+        <v>110</v>
+      </c>
+      <c r="D54">
+        <v>370</v>
+      </c>
+      <c r="E54">
+        <v>1809</v>
+      </c>
+      <c r="F54">
+        <v>1059</v>
+      </c>
+      <c r="G54">
+        <v>2684</v>
+      </c>
+      <c r="H54">
+        <v>746</v>
+      </c>
+      <c r="I54">
+        <v>856</v>
+      </c>
+      <c r="J54">
+        <v>335</v>
+      </c>
+      <c r="K54">
+        <v>797</v>
+      </c>
+      <c r="L54">
+        <v>162</v>
+      </c>
+      <c r="M54">
+        <v>143</v>
+      </c>
+      <c r="N54">
+        <v>1021</v>
+      </c>
+      <c r="O54">
+        <v>557</v>
+      </c>
+      <c r="P54">
+        <v>195</v>
+      </c>
+      <c r="Q54">
+        <v>874</v>
+      </c>
+      <c r="R54">
+        <v>2006</v>
+      </c>
+      <c r="S54">
+        <v>102</v>
+      </c>
+      <c r="T54">
+        <v>4349</v>
+      </c>
+      <c r="U54">
+        <v>463</v>
+      </c>
+      <c r="V54">
+        <v>802</v>
+      </c>
+      <c r="W54">
+        <v>92</v>
+      </c>
+      <c r="X54">
+        <v>164</v>
+      </c>
+      <c r="Y54">
+        <v>926</v>
+      </c>
+      <c r="Z54">
+        <v>12841</v>
+      </c>
+      <c r="AA54">
+        <v>53</v>
+      </c>
+      <c r="AB54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>142</v>
+      </c>
+      <c r="C55">
+        <v>132</v>
+      </c>
+      <c r="D55">
+        <v>393</v>
+      </c>
+      <c r="E55">
+        <v>1897</v>
+      </c>
+      <c r="F55">
+        <v>1193</v>
+      </c>
+      <c r="G55">
+        <v>3034</v>
+      </c>
+      <c r="H55">
+        <v>762</v>
+      </c>
+      <c r="I55">
+        <v>952</v>
+      </c>
+      <c r="J55">
+        <v>378</v>
+      </c>
+      <c r="K55">
+        <v>1040</v>
+      </c>
+      <c r="L55">
+        <v>171</v>
+      </c>
+      <c r="M55">
+        <v>161</v>
+      </c>
+      <c r="N55">
+        <v>1077</v>
+      </c>
+      <c r="O55">
+        <v>640</v>
+      </c>
+      <c r="P55">
+        <v>205</v>
+      </c>
+      <c r="Q55">
+        <v>945</v>
+      </c>
+      <c r="R55">
+        <v>2193</v>
+      </c>
+      <c r="S55">
+        <v>123</v>
+      </c>
+      <c r="T55">
+        <v>4543</v>
+      </c>
+      <c r="U55">
+        <v>516</v>
+      </c>
+      <c r="V55">
+        <v>831</v>
+      </c>
+      <c r="W55">
+        <v>110</v>
+      </c>
+      <c r="X55">
+        <v>201</v>
+      </c>
+      <c r="Y55">
+        <v>962</v>
+      </c>
+      <c r="Z55">
+        <v>13894</v>
+      </c>
+      <c r="AA55">
+        <v>71</v>
+      </c>
+      <c r="AB55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>163</v>
+      </c>
+      <c r="C56">
+        <v>159</v>
+      </c>
+      <c r="D56">
+        <v>416</v>
+      </c>
+      <c r="E56">
+        <v>2044</v>
+      </c>
+      <c r="F56">
+        <v>1230</v>
+      </c>
+      <c r="G56">
+        <v>3252</v>
+      </c>
+      <c r="H56">
+        <v>827</v>
+      </c>
+      <c r="I56">
+        <v>1099</v>
+      </c>
+      <c r="J56">
+        <v>393</v>
+      </c>
+      <c r="K56">
+        <v>1205</v>
+      </c>
+      <c r="L56">
+        <v>174</v>
+      </c>
+      <c r="M56">
+        <v>168</v>
+      </c>
+      <c r="N56">
+        <v>1154</v>
+      </c>
+      <c r="O56">
+        <v>685</v>
+      </c>
+      <c r="P56">
+        <v>236</v>
+      </c>
+      <c r="Q56">
+        <v>987</v>
+      </c>
+      <c r="R56">
+        <v>2459</v>
+      </c>
+      <c r="S56">
+        <v>145</v>
+      </c>
+      <c r="T56">
+        <v>4765</v>
+      </c>
+      <c r="U56">
+        <v>531</v>
+      </c>
+      <c r="V56">
+        <v>854</v>
+      </c>
+      <c r="W56">
+        <v>128</v>
+      </c>
+      <c r="X56">
+        <v>222</v>
+      </c>
+      <c r="Y56">
+        <v>975</v>
+      </c>
+      <c r="Z56">
+        <v>14267</v>
+      </c>
+      <c r="AA56">
+        <v>83</v>
+      </c>
+      <c r="AB56">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5164,7 +5431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB53"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9725,6 +9992,264 @@
         <v>4</v>
       </c>
       <c r="AB53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>145</v>
+      </c>
+      <c r="F54">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>149</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <v>16</v>
+      </c>
+      <c r="K54">
+        <v>40</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>35</v>
+      </c>
+      <c r="O54">
+        <v>26</v>
+      </c>
+      <c r="P54">
+        <v>26</v>
+      </c>
+      <c r="Q54">
+        <v>42</v>
+      </c>
+      <c r="R54">
+        <v>186</v>
+      </c>
+      <c r="S54">
+        <v>8</v>
+      </c>
+      <c r="T54">
+        <v>341</v>
+      </c>
+      <c r="U54">
+        <v>23</v>
+      </c>
+      <c r="V54">
+        <v>22</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54">
+        <v>3</v>
+      </c>
+      <c r="Y54">
+        <v>30</v>
+      </c>
+      <c r="Z54">
+        <v>928</v>
+      </c>
+      <c r="AA54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>161</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+      <c r="G55">
+        <v>176</v>
+      </c>
+      <c r="H55">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <v>28</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>44</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>39</v>
+      </c>
+      <c r="O55">
+        <v>33</v>
+      </c>
+      <c r="P55">
+        <v>26</v>
+      </c>
+      <c r="Q55">
+        <v>46</v>
+      </c>
+      <c r="R55">
+        <v>205</v>
+      </c>
+      <c r="S55">
+        <v>9</v>
+      </c>
+      <c r="T55">
+        <v>387</v>
+      </c>
+      <c r="U55">
+        <v>24</v>
+      </c>
+      <c r="V55">
+        <v>24</v>
+      </c>
+      <c r="W55">
+        <v>3</v>
+      </c>
+      <c r="X55">
+        <v>3</v>
+      </c>
+      <c r="Y55">
+        <v>31</v>
+      </c>
+      <c r="Z55">
+        <v>991</v>
+      </c>
+      <c r="AA55">
+        <v>5</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>182</v>
+      </c>
+      <c r="F56">
+        <v>45</v>
+      </c>
+      <c r="G56">
+        <v>186</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>39</v>
+      </c>
+      <c r="O56">
+        <v>34</v>
+      </c>
+      <c r="P56">
+        <v>29</v>
+      </c>
+      <c r="Q56">
+        <v>48</v>
+      </c>
+      <c r="R56">
+        <v>216</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>402</v>
+      </c>
+      <c r="U56">
+        <v>25</v>
+      </c>
+      <c r="V56">
+        <v>24</v>
+      </c>
+      <c r="W56">
+        <v>4</v>
+      </c>
+      <c r="X56">
+        <v>3</v>
+      </c>
+      <c r="Y56">
+        <v>32</v>
+      </c>
+      <c r="Z56">
+        <v>1015</v>
+      </c>
+      <c r="AA56">
+        <v>5</v>
+      </c>
+      <c r="AB56">
         <v>1</v>
       </c>
     </row>
@@ -9743,10 +10268,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>Data</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
   </si>
   <si>
     <t>UF</t>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5424,6 +5427,92 @@
         <v>33</v>
       </c>
     </row>
+    <row r="57" spans="1:28">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>176</v>
+      </c>
+      <c r="C57">
+        <v>171</v>
+      </c>
+      <c r="D57">
+        <v>433</v>
+      </c>
+      <c r="E57">
+        <v>2160</v>
+      </c>
+      <c r="F57">
+        <v>1341</v>
+      </c>
+      <c r="G57">
+        <v>3482</v>
+      </c>
+      <c r="H57">
+        <v>872</v>
+      </c>
+      <c r="I57">
+        <v>1168</v>
+      </c>
+      <c r="J57">
+        <v>403</v>
+      </c>
+      <c r="K57">
+        <v>1320</v>
+      </c>
+      <c r="L57">
+        <v>181</v>
+      </c>
+      <c r="M57">
+        <v>171</v>
+      </c>
+      <c r="N57">
+        <v>1189</v>
+      </c>
+      <c r="O57">
+        <v>902</v>
+      </c>
+      <c r="P57">
+        <v>245</v>
+      </c>
+      <c r="Q57">
+        <v>1007</v>
+      </c>
+      <c r="R57">
+        <v>2690</v>
+      </c>
+      <c r="S57">
+        <v>158</v>
+      </c>
+      <c r="T57">
+        <v>4899</v>
+      </c>
+      <c r="U57">
+        <v>595</v>
+      </c>
+      <c r="V57">
+        <v>889</v>
+      </c>
+      <c r="W57">
+        <v>160</v>
+      </c>
+      <c r="X57">
+        <v>244</v>
+      </c>
+      <c r="Y57">
+        <v>1025</v>
+      </c>
+      <c r="Z57">
+        <v>14580</v>
+      </c>
+      <c r="AA57">
+        <v>86</v>
+      </c>
+      <c r="AB57">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5431,7 +5520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10250,6 +10339,92 @@
         <v>5</v>
       </c>
       <c r="AB56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>185</v>
+      </c>
+      <c r="F57">
+        <v>46</v>
+      </c>
+      <c r="G57">
+        <v>198</v>
+      </c>
+      <c r="H57">
+        <v>24</v>
+      </c>
+      <c r="I57">
+        <v>33</v>
+      </c>
+      <c r="J57">
+        <v>19</v>
+      </c>
+      <c r="K57">
+        <v>54</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>41</v>
+      </c>
+      <c r="O57">
+        <v>35</v>
+      </c>
+      <c r="P57">
+        <v>32</v>
+      </c>
+      <c r="Q57">
+        <v>51</v>
+      </c>
+      <c r="R57">
+        <v>234</v>
+      </c>
+      <c r="S57">
+        <v>12</v>
+      </c>
+      <c r="T57">
+        <v>422</v>
+      </c>
+      <c r="U57">
+        <v>27</v>
+      </c>
+      <c r="V57">
+        <v>27</v>
+      </c>
+      <c r="W57">
+        <v>4</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>35</v>
+      </c>
+      <c r="Z57">
+        <v>1307</v>
+      </c>
+      <c r="AA57">
+        <v>5</v>
+      </c>
+      <c r="AB57">
         <v>1</v>
       </c>
     </row>
@@ -10268,10 +10443,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -10419,7 +10419,7 @@
         <v>35</v>
       </c>
       <c r="Z57">
-        <v>1307</v>
+        <v>1037</v>
       </c>
       <c r="AA57">
         <v>5</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
   <si>
     <t>Data</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
   </si>
   <si>
     <t>UF</t>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5513,6 +5516,92 @@
         <v>34</v>
       </c>
     </row>
+    <row r="58" spans="1:28">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>195</v>
+      </c>
+      <c r="C58">
+        <v>210</v>
+      </c>
+      <c r="D58">
+        <v>457</v>
+      </c>
+      <c r="E58">
+        <v>2270</v>
+      </c>
+      <c r="F58">
+        <v>1489</v>
+      </c>
+      <c r="G58">
+        <v>3716</v>
+      </c>
+      <c r="H58">
+        <v>881</v>
+      </c>
+      <c r="I58">
+        <v>1212</v>
+      </c>
+      <c r="J58">
+        <v>421</v>
+      </c>
+      <c r="K58">
+        <v>1396</v>
+      </c>
+      <c r="L58">
+        <v>181</v>
+      </c>
+      <c r="M58">
+        <v>173</v>
+      </c>
+      <c r="N58">
+        <v>1230</v>
+      </c>
+      <c r="O58">
+        <v>1026</v>
+      </c>
+      <c r="P58">
+        <v>263</v>
+      </c>
+      <c r="Q58">
+        <v>1024</v>
+      </c>
+      <c r="R58">
+        <v>2908</v>
+      </c>
+      <c r="S58">
+        <v>186</v>
+      </c>
+      <c r="T58">
+        <v>5306</v>
+      </c>
+      <c r="U58">
+        <v>608</v>
+      </c>
+      <c r="V58">
+        <v>904</v>
+      </c>
+      <c r="W58">
+        <v>199</v>
+      </c>
+      <c r="X58">
+        <v>247</v>
+      </c>
+      <c r="Y58">
+        <v>1063</v>
+      </c>
+      <c r="Z58">
+        <v>15385</v>
+      </c>
+      <c r="AA58">
+        <v>92</v>
+      </c>
+      <c r="AB58">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5520,7 +5609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10425,6 +10514,92 @@
         <v>5</v>
       </c>
       <c r="AB57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>193</v>
+      </c>
+      <c r="F58">
+        <v>47</v>
+      </c>
+      <c r="G58">
+        <v>215</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <v>34</v>
+      </c>
+      <c r="J58">
+        <v>19</v>
+      </c>
+      <c r="K58">
+        <v>60</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>44</v>
+      </c>
+      <c r="O58">
+        <v>38</v>
+      </c>
+      <c r="P58">
+        <v>33</v>
+      </c>
+      <c r="Q58">
+        <v>51</v>
+      </c>
+      <c r="R58">
+        <v>260</v>
+      </c>
+      <c r="S58">
+        <v>14</v>
+      </c>
+      <c r="T58">
+        <v>461</v>
+      </c>
+      <c r="U58">
+        <v>28</v>
+      </c>
+      <c r="V58">
+        <v>27</v>
+      </c>
+      <c r="W58">
+        <v>4</v>
+      </c>
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <v>35</v>
+      </c>
+      <c r="Z58">
+        <v>1093</v>
+      </c>
+      <c r="AA58">
+        <v>5</v>
+      </c>
+      <c r="AB58">
         <v>1</v>
       </c>
     </row>
@@ -10443,10 +10618,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>Data</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
   </si>
   <si>
     <t>UF</t>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5602,6 +5605,92 @@
         <v>37</v>
       </c>
     </row>
+    <row r="59" spans="1:28">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>214</v>
+      </c>
+      <c r="C59">
+        <v>243</v>
+      </c>
+      <c r="D59">
+        <v>479</v>
+      </c>
+      <c r="E59">
+        <v>2479</v>
+      </c>
+      <c r="F59">
+        <v>1644</v>
+      </c>
+      <c r="G59">
+        <v>3910</v>
+      </c>
+      <c r="H59">
+        <v>946</v>
+      </c>
+      <c r="I59">
+        <v>1313</v>
+      </c>
+      <c r="J59">
+        <v>438</v>
+      </c>
+      <c r="K59">
+        <v>1604</v>
+      </c>
+      <c r="L59">
+        <v>183</v>
+      </c>
+      <c r="M59">
+        <v>175</v>
+      </c>
+      <c r="N59">
+        <v>1283</v>
+      </c>
+      <c r="O59">
+        <v>1195</v>
+      </c>
+      <c r="P59">
+        <v>301</v>
+      </c>
+      <c r="Q59">
+        <v>1063</v>
+      </c>
+      <c r="R59">
+        <v>3298</v>
+      </c>
+      <c r="S59">
+        <v>206</v>
+      </c>
+      <c r="T59">
+        <v>5552</v>
+      </c>
+      <c r="U59">
+        <v>646</v>
+      </c>
+      <c r="V59">
+        <v>923</v>
+      </c>
+      <c r="W59">
+        <v>223</v>
+      </c>
+      <c r="X59">
+        <v>280</v>
+      </c>
+      <c r="Y59">
+        <v>1091</v>
+      </c>
+      <c r="Z59">
+        <v>15914</v>
+      </c>
+      <c r="AA59">
+        <v>117</v>
+      </c>
+      <c r="AB59">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5609,7 +5698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10600,6 +10689,92 @@
         <v>5</v>
       </c>
       <c r="AB58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>207</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>233</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>34</v>
+      </c>
+      <c r="J59">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>66</v>
+      </c>
+      <c r="L59">
+        <v>6</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>47</v>
+      </c>
+      <c r="O59">
+        <v>43</v>
+      </c>
+      <c r="P59">
+        <v>39</v>
+      </c>
+      <c r="Q59">
+        <v>57</v>
+      </c>
+      <c r="R59">
+        <v>282</v>
+      </c>
+      <c r="S59">
+        <v>15</v>
+      </c>
+      <c r="T59">
+        <v>490</v>
+      </c>
+      <c r="U59">
+        <v>29</v>
+      </c>
+      <c r="V59">
+        <v>27</v>
+      </c>
+      <c r="W59">
+        <v>5</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>37</v>
+      </c>
+      <c r="Z59">
+        <v>1134</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
         <v>1</v>
       </c>
     </row>
@@ -10618,10 +10793,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
   <si>
     <t>Data</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
   </si>
   <si>
     <t>UF</t>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5691,6 +5694,92 @@
         <v>37</v>
       </c>
     </row>
+    <row r="60" spans="1:28">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>227</v>
+      </c>
+      <c r="C60">
+        <v>324</v>
+      </c>
+      <c r="D60">
+        <v>548</v>
+      </c>
+      <c r="E60">
+        <v>2888</v>
+      </c>
+      <c r="F60">
+        <v>1789</v>
+      </c>
+      <c r="G60">
+        <v>4598</v>
+      </c>
+      <c r="H60">
+        <v>963</v>
+      </c>
+      <c r="I60">
+        <v>1363</v>
+      </c>
+      <c r="J60">
+        <v>453</v>
+      </c>
+      <c r="K60">
+        <v>1757</v>
+      </c>
+      <c r="L60">
+        <v>221</v>
+      </c>
+      <c r="M60">
+        <v>186</v>
+      </c>
+      <c r="N60">
+        <v>1308</v>
+      </c>
+      <c r="O60">
+        <v>1267</v>
+      </c>
+      <c r="P60">
+        <v>345</v>
+      </c>
+      <c r="Q60">
+        <v>1082</v>
+      </c>
+      <c r="R60">
+        <v>3519</v>
+      </c>
+      <c r="S60">
+        <v>217</v>
+      </c>
+      <c r="T60">
+        <v>6172</v>
+      </c>
+      <c r="U60">
+        <v>708</v>
+      </c>
+      <c r="V60">
+        <v>994</v>
+      </c>
+      <c r="W60">
+        <v>250</v>
+      </c>
+      <c r="X60">
+        <v>297</v>
+      </c>
+      <c r="Y60">
+        <v>1115</v>
+      </c>
+      <c r="Z60">
+        <v>16740</v>
+      </c>
+      <c r="AA60">
+        <v>124</v>
+      </c>
+      <c r="AB60">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5698,7 +5787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10776,6 +10865,92 @@
       </c>
       <c r="AB59">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>234</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>266</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>42</v>
+      </c>
+      <c r="J60">
+        <v>23</v>
+      </c>
+      <c r="K60">
+        <v>76</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+      <c r="N60">
+        <v>51</v>
+      </c>
+      <c r="O60">
+        <v>53</v>
+      </c>
+      <c r="P60">
+        <v>40</v>
+      </c>
+      <c r="Q60">
+        <v>60</v>
+      </c>
+      <c r="R60">
+        <v>312</v>
+      </c>
+      <c r="S60">
+        <v>15</v>
+      </c>
+      <c r="T60">
+        <v>530</v>
+      </c>
+      <c r="U60">
+        <v>34</v>
+      </c>
+      <c r="V60">
+        <v>29</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+      <c r="X60">
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <v>39</v>
+      </c>
+      <c r="Z60">
+        <v>1345</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10793,10 +10968,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>Data</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
   </si>
   <si>
     <t>UF</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5780,6 +5783,92 @@
         <v>37</v>
       </c>
     </row>
+    <row r="61" spans="1:28">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>234</v>
+      </c>
+      <c r="C61">
+        <v>413</v>
+      </c>
+      <c r="D61">
+        <v>633</v>
+      </c>
+      <c r="E61">
+        <v>3194</v>
+      </c>
+      <c r="F61">
+        <v>1962</v>
+      </c>
+      <c r="G61">
+        <v>4800</v>
+      </c>
+      <c r="H61">
+        <v>989</v>
+      </c>
+      <c r="I61">
+        <v>1381</v>
+      </c>
+      <c r="J61">
+        <v>486</v>
+      </c>
+      <c r="K61">
+        <v>1951</v>
+      </c>
+      <c r="L61">
+        <v>240</v>
+      </c>
+      <c r="M61">
+        <v>213</v>
+      </c>
+      <c r="N61">
+        <v>1419</v>
+      </c>
+      <c r="O61">
+        <v>1446</v>
+      </c>
+      <c r="P61">
+        <v>386</v>
+      </c>
+      <c r="Q61">
+        <v>1119</v>
+      </c>
+      <c r="R61">
+        <v>3999</v>
+      </c>
+      <c r="S61">
+        <v>256</v>
+      </c>
+      <c r="T61">
+        <v>6282</v>
+      </c>
+      <c r="U61">
+        <v>754</v>
+      </c>
+      <c r="V61">
+        <v>1061</v>
+      </c>
+      <c r="W61">
+        <v>290</v>
+      </c>
+      <c r="X61">
+        <v>304</v>
+      </c>
+      <c r="Y61">
+        <v>1170</v>
+      </c>
+      <c r="Z61">
+        <v>17826</v>
+      </c>
+      <c r="AA61">
+        <v>144</v>
+      </c>
+      <c r="AB61">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5787,7 +5876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10950,6 +11039,92 @@
         <v>8</v>
       </c>
       <c r="AB60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
+      </c>
+      <c r="F61">
+        <v>64</v>
+      </c>
+      <c r="G61">
+        <v>284</v>
+      </c>
+      <c r="H61">
+        <v>26</v>
+      </c>
+      <c r="I61">
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61">
+        <v>88</v>
+      </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
+      <c r="M61">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>54</v>
+      </c>
+      <c r="O61">
+        <v>75</v>
+      </c>
+      <c r="P61">
+        <v>44</v>
+      </c>
+      <c r="Q61">
+        <v>64</v>
+      </c>
+      <c r="R61">
+        <v>352</v>
+      </c>
+      <c r="S61">
+        <v>16</v>
+      </c>
+      <c r="T61">
+        <v>570</v>
+      </c>
+      <c r="U61">
+        <v>38</v>
+      </c>
+      <c r="V61">
+        <v>31</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+      <c r="X61">
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <v>42</v>
+      </c>
+      <c r="Z61">
+        <v>1512</v>
+      </c>
+      <c r="AA61">
+        <v>8</v>
+      </c>
+      <c r="AB61">
         <v>2</v>
       </c>
     </row>
@@ -10968,10 +11143,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>Data</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
   </si>
   <si>
     <t>UF</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5869,6 +5872,92 @@
         <v>43</v>
       </c>
     </row>
+    <row r="62" spans="1:28">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>258</v>
+      </c>
+      <c r="C62">
+        <v>501</v>
+      </c>
+      <c r="D62">
+        <v>685</v>
+      </c>
+      <c r="E62">
+        <v>3635</v>
+      </c>
+      <c r="F62">
+        <v>2081</v>
+      </c>
+      <c r="G62">
+        <v>5421</v>
+      </c>
+      <c r="H62">
+        <v>1013</v>
+      </c>
+      <c r="I62">
+        <v>1595</v>
+      </c>
+      <c r="J62">
+        <v>506</v>
+      </c>
+      <c r="K62">
+        <v>2105</v>
+      </c>
+      <c r="L62">
+        <v>247</v>
+      </c>
+      <c r="M62">
+        <v>217</v>
+      </c>
+      <c r="N62">
+        <v>1481</v>
+      </c>
+      <c r="O62">
+        <v>1579</v>
+      </c>
+      <c r="P62">
+        <v>447</v>
+      </c>
+      <c r="Q62">
+        <v>1140</v>
+      </c>
+      <c r="R62">
+        <v>4507</v>
+      </c>
+      <c r="S62">
+        <v>297</v>
+      </c>
+      <c r="T62">
+        <v>6828</v>
+      </c>
+      <c r="U62">
+        <v>781</v>
+      </c>
+      <c r="V62">
+        <v>1096</v>
+      </c>
+      <c r="W62">
+        <v>328</v>
+      </c>
+      <c r="X62">
+        <v>345</v>
+      </c>
+      <c r="Y62">
+        <v>1209</v>
+      </c>
+      <c r="Z62">
+        <v>20004</v>
+      </c>
+      <c r="AA62">
+        <v>153</v>
+      </c>
+      <c r="AB62">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5876,7 +5965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11125,6 +11214,92 @@
         <v>8</v>
       </c>
       <c r="AB61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>287</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62">
+        <v>310</v>
+      </c>
+      <c r="H62">
+        <v>26</v>
+      </c>
+      <c r="I62">
+        <v>47</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>9</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+      <c r="N62">
+        <v>58</v>
+      </c>
+      <c r="O62">
+        <v>86</v>
+      </c>
+      <c r="P62">
+        <v>46</v>
+      </c>
+      <c r="Q62">
+        <v>69</v>
+      </c>
+      <c r="R62">
+        <v>381</v>
+      </c>
+      <c r="S62">
+        <v>17</v>
+      </c>
+      <c r="T62">
+        <v>615</v>
+      </c>
+      <c r="U62">
+        <v>40</v>
+      </c>
+      <c r="V62">
+        <v>34</v>
+      </c>
+      <c r="W62">
+        <v>7</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>42</v>
+      </c>
+      <c r="Z62">
+        <v>1667</v>
+      </c>
+      <c r="AA62">
+        <v>9</v>
+      </c>
+      <c r="AB62">
         <v>2</v>
       </c>
     </row>
@@ -11143,10 +11318,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Data</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
   </si>
   <si>
     <t>UF</t>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5958,6 +5961,92 @@
         <v>50</v>
       </c>
     </row>
+    <row r="63" spans="1:28">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>279</v>
+      </c>
+      <c r="C63">
+        <v>554</v>
+      </c>
+      <c r="D63">
+        <v>798</v>
+      </c>
+      <c r="E63">
+        <v>3833</v>
+      </c>
+      <c r="F63">
+        <v>2209</v>
+      </c>
+      <c r="G63">
+        <v>5833</v>
+      </c>
+      <c r="H63">
+        <v>1066</v>
+      </c>
+      <c r="I63">
+        <v>1703</v>
+      </c>
+      <c r="J63">
+        <v>573</v>
+      </c>
+      <c r="K63">
+        <v>2223</v>
+      </c>
+      <c r="L63">
+        <v>250</v>
+      </c>
+      <c r="M63">
+        <v>217</v>
+      </c>
+      <c r="N63">
+        <v>1548</v>
+      </c>
+      <c r="O63">
+        <v>1867</v>
+      </c>
+      <c r="P63">
+        <v>447</v>
+      </c>
+      <c r="Q63">
+        <v>1140</v>
+      </c>
+      <c r="R63">
+        <v>4898</v>
+      </c>
+      <c r="S63">
+        <v>297</v>
+      </c>
+      <c r="T63">
+        <v>6828</v>
+      </c>
+      <c r="U63">
+        <v>825</v>
+      </c>
+      <c r="V63">
+        <v>1096</v>
+      </c>
+      <c r="W63">
+        <v>328</v>
+      </c>
+      <c r="X63">
+        <v>345</v>
+      </c>
+      <c r="Y63">
+        <v>1209</v>
+      </c>
+      <c r="Z63">
+        <v>20004</v>
+      </c>
+      <c r="AA63">
+        <v>153</v>
+      </c>
+      <c r="AB63">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5965,7 +6054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11300,6 +11389,92 @@
         <v>9</v>
       </c>
       <c r="AB62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>304</v>
+      </c>
+      <c r="F63">
+        <v>73</v>
+      </c>
+      <c r="G63">
+        <v>327</v>
+      </c>
+      <c r="H63">
+        <v>27</v>
+      </c>
+      <c r="I63">
+        <v>51</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>112</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>7</v>
+      </c>
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63">
+        <v>46</v>
+      </c>
+      <c r="Q63">
+        <v>69</v>
+      </c>
+      <c r="R63">
+        <v>415</v>
+      </c>
+      <c r="S63">
+        <v>17</v>
+      </c>
+      <c r="T63">
+        <v>615</v>
+      </c>
+      <c r="U63">
+        <v>44</v>
+      </c>
+      <c r="V63">
+        <v>34</v>
+      </c>
+      <c r="W63">
+        <v>7</v>
+      </c>
+      <c r="X63">
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <v>42</v>
+      </c>
+      <c r="Z63">
+        <v>1667</v>
+      </c>
+      <c r="AA63">
+        <v>9</v>
+      </c>
+      <c r="AB63">
         <v>2</v>
       </c>
     </row>
@@ -11318,10 +11493,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
   <si>
     <t>Data</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
   </si>
   <si>
     <t>UF</t>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6047,6 +6050,92 @@
         <v>50</v>
       </c>
     </row>
+    <row r="64" spans="1:28">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>279</v>
+      </c>
+      <c r="C64">
+        <v>643</v>
+      </c>
+      <c r="D64">
+        <v>842</v>
+      </c>
+      <c r="E64">
+        <v>3928</v>
+      </c>
+      <c r="F64">
+        <v>2354</v>
+      </c>
+      <c r="G64">
+        <v>6726</v>
+      </c>
+      <c r="H64">
+        <v>1146</v>
+      </c>
+      <c r="I64">
+        <v>1796</v>
+      </c>
+      <c r="J64">
+        <v>616</v>
+      </c>
+      <c r="K64">
+        <v>2410</v>
+      </c>
+      <c r="L64">
+        <v>257</v>
+      </c>
+      <c r="M64">
+        <v>238</v>
+      </c>
+      <c r="N64">
+        <v>1586</v>
+      </c>
+      <c r="O64">
+        <v>2128</v>
+      </c>
+      <c r="P64">
+        <v>543</v>
+      </c>
+      <c r="Q64">
+        <v>1186</v>
+      </c>
+      <c r="R64">
+        <v>5358</v>
+      </c>
+      <c r="S64">
+        <v>364</v>
+      </c>
+      <c r="T64">
+        <v>7944</v>
+      </c>
+      <c r="U64">
+        <v>832</v>
+      </c>
+      <c r="V64">
+        <v>1228</v>
+      </c>
+      <c r="W64">
+        <v>393</v>
+      </c>
+      <c r="X64">
+        <v>407</v>
+      </c>
+      <c r="Y64">
+        <v>1337</v>
+      </c>
+      <c r="Z64">
+        <v>21696</v>
+      </c>
+      <c r="AA64">
+        <v>197</v>
+      </c>
+      <c r="AB64">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6054,7 +6143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11475,6 +11564,92 @@
         <v>9</v>
       </c>
       <c r="AB63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>34</v>
+      </c>
+      <c r="D64">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>320</v>
+      </c>
+      <c r="F64">
+        <v>76</v>
+      </c>
+      <c r="G64">
+        <v>390</v>
+      </c>
+      <c r="H64">
+        <v>27</v>
+      </c>
+      <c r="I64">
+        <v>57</v>
+      </c>
+      <c r="J64">
+        <v>26</v>
+      </c>
+      <c r="K64">
+        <v>125</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>9</v>
+      </c>
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>114</v>
+      </c>
+      <c r="P64">
+        <v>50</v>
+      </c>
+      <c r="Q64">
+        <v>75</v>
+      </c>
+      <c r="R64">
+        <v>450</v>
+      </c>
+      <c r="S64">
+        <v>20</v>
+      </c>
+      <c r="T64">
+        <v>677</v>
+      </c>
+      <c r="U64">
+        <v>45</v>
+      </c>
+      <c r="V64">
+        <v>42</v>
+      </c>
+      <c r="W64">
+        <v>10</v>
+      </c>
+      <c r="X64">
+        <v>4</v>
+      </c>
+      <c r="Y64">
+        <v>43</v>
+      </c>
+      <c r="Z64">
+        <v>1825</v>
+      </c>
+      <c r="AA64">
+        <v>10</v>
+      </c>
+      <c r="AB64">
         <v>2</v>
       </c>
     </row>
@@ -11493,10 +11668,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -6041,7 +6041,7 @@
         <v>1209</v>
       </c>
       <c r="Z63">
-        <v>20004</v>
+        <v>20715</v>
       </c>
       <c r="AA63">
         <v>153</v>
@@ -11558,7 +11558,7 @@
         <v>42</v>
       </c>
       <c r="Z63">
-        <v>1667</v>
+        <v>1700</v>
       </c>
       <c r="AA63">
         <v>9</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
   <si>
     <t>Data</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
   </si>
   <si>
     <t>UF</t>
@@ -626,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6047,7 +6053,7 @@
         <v>153</v>
       </c>
       <c r="AB63">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -6134,6 +6140,178 @@
       </c>
       <c r="AB64">
         <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65">
+        <v>311</v>
+      </c>
+      <c r="C65">
+        <v>777</v>
+      </c>
+      <c r="D65">
+        <v>918</v>
+      </c>
+      <c r="E65">
+        <v>4337</v>
+      </c>
+      <c r="F65">
+        <v>2540</v>
+      </c>
+      <c r="G65">
+        <v>6918</v>
+      </c>
+      <c r="H65">
+        <v>1213</v>
+      </c>
+      <c r="I65">
+        <v>1874</v>
+      </c>
+      <c r="J65">
+        <v>661</v>
+      </c>
+      <c r="K65">
+        <v>2528</v>
+      </c>
+      <c r="L65">
+        <v>261</v>
+      </c>
+      <c r="M65">
+        <v>240</v>
+      </c>
+      <c r="N65">
+        <v>1649</v>
+      </c>
+      <c r="O65">
+        <v>2262</v>
+      </c>
+      <c r="P65">
+        <v>633</v>
+      </c>
+      <c r="Q65">
+        <v>1271</v>
+      </c>
+      <c r="R65">
+        <v>5724</v>
+      </c>
+      <c r="S65">
+        <v>408</v>
+      </c>
+      <c r="T65">
+        <v>8504</v>
+      </c>
+      <c r="U65">
+        <v>857</v>
+      </c>
+      <c r="V65">
+        <v>1286</v>
+      </c>
+      <c r="W65">
+        <v>413</v>
+      </c>
+      <c r="X65">
+        <v>425</v>
+      </c>
+      <c r="Y65">
+        <v>1476</v>
+      </c>
+      <c r="Z65">
+        <v>24041</v>
+      </c>
+      <c r="AA65">
+        <v>280</v>
+      </c>
+      <c r="AB65">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>354</v>
+      </c>
+      <c r="C66">
+        <v>957</v>
+      </c>
+      <c r="D66">
+        <v>1016</v>
+      </c>
+      <c r="E66">
+        <v>4801</v>
+      </c>
+      <c r="F66">
+        <v>2646</v>
+      </c>
+      <c r="G66">
+        <v>7267</v>
+      </c>
+      <c r="H66">
+        <v>1275</v>
+      </c>
+      <c r="I66">
+        <v>2107</v>
+      </c>
+      <c r="J66">
+        <v>705</v>
+      </c>
+      <c r="K66">
+        <v>2804</v>
+      </c>
+      <c r="L66">
+        <v>292</v>
+      </c>
+      <c r="M66">
+        <v>249</v>
+      </c>
+      <c r="N66">
+        <v>1758</v>
+      </c>
+      <c r="O66">
+        <v>2422</v>
+      </c>
+      <c r="P66">
+        <v>699</v>
+      </c>
+      <c r="Q66">
+        <v>1348</v>
+      </c>
+      <c r="R66">
+        <v>6194</v>
+      </c>
+      <c r="S66">
+        <v>454</v>
+      </c>
+      <c r="T66">
+        <v>8869</v>
+      </c>
+      <c r="U66">
+        <v>1086</v>
+      </c>
+      <c r="V66">
+        <v>1368</v>
+      </c>
+      <c r="W66">
+        <v>433</v>
+      </c>
+      <c r="X66">
+        <v>452</v>
+      </c>
+      <c r="Y66">
+        <v>1995</v>
+      </c>
+      <c r="Z66">
+        <v>26158</v>
+      </c>
+      <c r="AA66">
+        <v>337</v>
+      </c>
+      <c r="AB66">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +6321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11651,6 +11829,178 @@
       </c>
       <c r="AB64">
         <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>36</v>
+      </c>
+      <c r="D65">
+        <v>28</v>
+      </c>
+      <c r="E65">
+        <v>351</v>
+      </c>
+      <c r="F65">
+        <v>86</v>
+      </c>
+      <c r="G65">
+        <v>403</v>
+      </c>
+      <c r="H65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>27</v>
+      </c>
+      <c r="K65">
+        <v>145</v>
+      </c>
+      <c r="L65">
+        <v>11</v>
+      </c>
+      <c r="M65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>71</v>
+      </c>
+      <c r="O65">
+        <v>129</v>
+      </c>
+      <c r="P65">
+        <v>53</v>
+      </c>
+      <c r="Q65">
+        <v>77</v>
+      </c>
+      <c r="R65">
+        <v>508</v>
+      </c>
+      <c r="S65">
+        <v>21</v>
+      </c>
+      <c r="T65">
+        <v>738</v>
+      </c>
+      <c r="U65">
+        <v>48</v>
+      </c>
+      <c r="V65">
+        <v>45</v>
+      </c>
+      <c r="W65">
+        <v>11</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>44</v>
+      </c>
+      <c r="Z65">
+        <v>2049</v>
+      </c>
+      <c r="AA65">
+        <v>11</v>
+      </c>
+      <c r="AB65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>41</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>380</v>
+      </c>
+      <c r="F66">
+        <v>96</v>
+      </c>
+      <c r="G66">
+        <v>441</v>
+      </c>
+      <c r="H66">
+        <v>28</v>
+      </c>
+      <c r="I66">
+        <v>76</v>
+      </c>
+      <c r="J66">
+        <v>27</v>
+      </c>
+      <c r="K66">
+        <v>166</v>
+      </c>
+      <c r="L66">
+        <v>11</v>
+      </c>
+      <c r="M66">
+        <v>9</v>
+      </c>
+      <c r="N66">
+        <v>80</v>
+      </c>
+      <c r="O66">
+        <v>137</v>
+      </c>
+      <c r="P66">
+        <v>58</v>
+      </c>
+      <c r="Q66">
+        <v>82</v>
+      </c>
+      <c r="R66">
+        <v>538</v>
+      </c>
+      <c r="S66">
+        <v>24</v>
+      </c>
+      <c r="T66">
+        <v>794</v>
+      </c>
+      <c r="U66">
+        <v>53</v>
+      </c>
+      <c r="V66">
+        <v>50</v>
+      </c>
+      <c r="W66">
+        <v>15</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>44</v>
+      </c>
+      <c r="Z66">
+        <v>2247</v>
+      </c>
+      <c r="AA66">
+        <v>12</v>
+      </c>
+      <c r="AB66">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11668,10 +12018,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
   <si>
     <t>Data</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
   </si>
   <si>
     <t>UF</t>
@@ -632,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6314,6 +6320,178 @@
         <v>116</v>
       </c>
     </row>
+    <row r="67" spans="1:28">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <v>404</v>
+      </c>
+      <c r="C67">
+        <v>1044</v>
+      </c>
+      <c r="D67">
+        <v>1080</v>
+      </c>
+      <c r="E67">
+        <v>5254</v>
+      </c>
+      <c r="F67">
+        <v>2851</v>
+      </c>
+      <c r="G67">
+        <v>7606</v>
+      </c>
+      <c r="H67">
+        <v>1356</v>
+      </c>
+      <c r="I67">
+        <v>2465</v>
+      </c>
+      <c r="J67">
+        <v>781</v>
+      </c>
+      <c r="K67">
+        <v>3190</v>
+      </c>
+      <c r="L67">
+        <v>297</v>
+      </c>
+      <c r="M67">
+        <v>255</v>
+      </c>
+      <c r="N67">
+        <v>1827</v>
+      </c>
+      <c r="O67">
+        <v>2876</v>
+      </c>
+      <c r="P67">
+        <v>814</v>
+      </c>
+      <c r="Q67">
+        <v>1407</v>
+      </c>
+      <c r="R67">
+        <v>6876</v>
+      </c>
+      <c r="S67">
+        <v>513</v>
+      </c>
+      <c r="T67">
+        <v>9453</v>
+      </c>
+      <c r="U67">
+        <v>1177</v>
+      </c>
+      <c r="V67">
+        <v>1466</v>
+      </c>
+      <c r="W67">
+        <v>502</v>
+      </c>
+      <c r="X67">
+        <v>519</v>
+      </c>
+      <c r="Y67">
+        <v>2085</v>
+      </c>
+      <c r="Z67">
+        <v>28698</v>
+      </c>
+      <c r="AA67">
+        <v>447</v>
+      </c>
+      <c r="AB67">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>486</v>
+      </c>
+      <c r="C68">
+        <v>1226</v>
+      </c>
+      <c r="D68">
+        <v>1121</v>
+      </c>
+      <c r="E68">
+        <v>5723</v>
+      </c>
+      <c r="F68">
+        <v>3085</v>
+      </c>
+      <c r="G68">
+        <v>7879</v>
+      </c>
+      <c r="H68">
+        <v>1466</v>
+      </c>
+      <c r="I68">
+        <v>2662</v>
+      </c>
+      <c r="J68">
+        <v>808</v>
+      </c>
+      <c r="K68">
+        <v>3506</v>
+      </c>
+      <c r="L68">
+        <v>320</v>
+      </c>
+      <c r="M68">
+        <v>261</v>
+      </c>
+      <c r="N68">
+        <v>1935</v>
+      </c>
+      <c r="O68">
+        <v>3176</v>
+      </c>
+      <c r="P68">
+        <v>926</v>
+      </c>
+      <c r="Q68">
+        <v>1447</v>
+      </c>
+      <c r="R68">
+        <v>7334</v>
+      </c>
+      <c r="S68">
+        <v>600</v>
+      </c>
+      <c r="T68">
+        <v>10166</v>
+      </c>
+      <c r="U68">
+        <v>1297</v>
+      </c>
+      <c r="V68">
+        <v>1529</v>
+      </c>
+      <c r="W68">
+        <v>585</v>
+      </c>
+      <c r="X68">
+        <v>602</v>
+      </c>
+      <c r="Y68">
+        <v>2394</v>
+      </c>
+      <c r="Z68">
+        <v>30374</v>
+      </c>
+      <c r="AA68">
+        <v>517</v>
+      </c>
+      <c r="AB68">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6321,7 +6499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12000,6 +12178,178 @@
         <v>12</v>
       </c>
       <c r="AB66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>47</v>
+      </c>
+      <c r="D67">
+        <v>34</v>
+      </c>
+      <c r="E67">
+        <v>425</v>
+      </c>
+      <c r="F67">
+        <v>104</v>
+      </c>
+      <c r="G67">
+        <v>482</v>
+      </c>
+      <c r="H67">
+        <v>30</v>
+      </c>
+      <c r="I67">
+        <v>83</v>
+      </c>
+      <c r="J67">
+        <v>29</v>
+      </c>
+      <c r="K67">
+        <v>184</v>
+      </c>
+      <c r="L67">
+        <v>11</v>
+      </c>
+      <c r="M67">
+        <v>9</v>
+      </c>
+      <c r="N67">
+        <v>82</v>
+      </c>
+      <c r="O67">
+        <v>208</v>
+      </c>
+      <c r="P67">
+        <v>62</v>
+      </c>
+      <c r="Q67">
+        <v>83</v>
+      </c>
+      <c r="R67">
+        <v>565</v>
+      </c>
+      <c r="S67">
+        <v>24</v>
+      </c>
+      <c r="T67">
+        <v>854</v>
+      </c>
+      <c r="U67">
+        <v>56</v>
+      </c>
+      <c r="V67">
+        <v>51</v>
+      </c>
+      <c r="W67">
+        <v>16</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>46</v>
+      </c>
+      <c r="Z67">
+        <v>2375</v>
+      </c>
+      <c r="AA67">
+        <v>12</v>
+      </c>
+      <c r="AB67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>53</v>
+      </c>
+      <c r="D68">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>476</v>
+      </c>
+      <c r="F68">
+        <v>117</v>
+      </c>
+      <c r="G68">
+        <v>505</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>96</v>
+      </c>
+      <c r="J68">
+        <v>29</v>
+      </c>
+      <c r="K68">
+        <v>204</v>
+      </c>
+      <c r="L68">
+        <v>11</v>
+      </c>
+      <c r="M68">
+        <v>9</v>
+      </c>
+      <c r="N68">
+        <v>88</v>
+      </c>
+      <c r="O68">
+        <v>235</v>
+      </c>
+      <c r="P68">
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <v>89</v>
+      </c>
+      <c r="R68">
+        <v>603</v>
+      </c>
+      <c r="S68">
+        <v>24</v>
+      </c>
+      <c r="T68">
+        <v>921</v>
+      </c>
+      <c r="U68">
+        <v>56</v>
+      </c>
+      <c r="V68">
+        <v>58</v>
+      </c>
+      <c r="W68">
+        <v>18</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>48</v>
+      </c>
+      <c r="Z68">
+        <v>2511</v>
+      </c>
+      <c r="AA68">
+        <v>14</v>
+      </c>
+      <c r="AB68">
         <v>3</v>
       </c>
     </row>
@@ -12018,10 +12368,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
   <si>
     <t>Data</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
   </si>
   <si>
     <t>UF</t>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6492,6 +6495,92 @@
         <v>164</v>
       </c>
     </row>
+    <row r="69" spans="1:28">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>553</v>
+      </c>
+      <c r="C69">
+        <v>1372</v>
+      </c>
+      <c r="D69">
+        <v>1187</v>
+      </c>
+      <c r="E69">
+        <v>6062</v>
+      </c>
+      <c r="F69">
+        <v>3315</v>
+      </c>
+      <c r="G69">
+        <v>8309</v>
+      </c>
+      <c r="H69">
+        <v>1566</v>
+      </c>
+      <c r="I69">
+        <v>2985</v>
+      </c>
+      <c r="J69">
+        <v>825</v>
+      </c>
+      <c r="K69">
+        <v>3805</v>
+      </c>
+      <c r="L69">
+        <v>331</v>
+      </c>
+      <c r="M69">
+        <v>266</v>
+      </c>
+      <c r="N69">
+        <v>2023</v>
+      </c>
+      <c r="O69">
+        <v>3460</v>
+      </c>
+      <c r="P69">
+        <v>1034</v>
+      </c>
+      <c r="Q69">
+        <v>1492</v>
+      </c>
+      <c r="R69">
+        <v>8145</v>
+      </c>
+      <c r="S69">
+        <v>665</v>
+      </c>
+      <c r="T69">
+        <v>10546</v>
+      </c>
+      <c r="U69">
+        <v>1366</v>
+      </c>
+      <c r="V69">
+        <v>1619</v>
+      </c>
+      <c r="W69">
+        <v>653</v>
+      </c>
+      <c r="X69">
+        <v>668</v>
+      </c>
+      <c r="Y69">
+        <v>2346</v>
+      </c>
+      <c r="Z69">
+        <v>31174</v>
+      </c>
+      <c r="AA69">
+        <v>601</v>
+      </c>
+      <c r="AB69">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6499,7 +6588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12351,6 +12440,92 @@
       </c>
       <c r="AB68">
         <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>501</v>
+      </c>
+      <c r="F69">
+        <v>123</v>
+      </c>
+      <c r="G69">
+        <v>638</v>
+      </c>
+      <c r="H69">
+        <v>31</v>
+      </c>
+      <c r="I69">
+        <v>103</v>
+      </c>
+      <c r="J69">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>224</v>
+      </c>
+      <c r="L69">
+        <v>12</v>
+      </c>
+      <c r="M69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>88</v>
+      </c>
+      <c r="O69">
+        <v>273</v>
+      </c>
+      <c r="P69">
+        <v>74</v>
+      </c>
+      <c r="Q69">
+        <v>90</v>
+      </c>
+      <c r="R69">
+        <v>628</v>
+      </c>
+      <c r="S69">
+        <v>26</v>
+      </c>
+      <c r="T69">
+        <v>971</v>
+      </c>
+      <c r="U69">
+        <v>59</v>
+      </c>
+      <c r="V69">
+        <v>62</v>
+      </c>
+      <c r="W69">
+        <v>23</v>
+      </c>
+      <c r="X69">
+        <v>9</v>
+      </c>
+      <c r="Y69">
+        <v>52</v>
+      </c>
+      <c r="Z69">
+        <v>2586</v>
+      </c>
+      <c r="AA69">
+        <v>14</v>
+      </c>
+      <c r="AB69">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12368,10 +12543,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="99">
   <si>
     <t>Data</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
   </si>
   <si>
     <t>UF</t>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6581,6 +6584,92 @@
         <v>191</v>
       </c>
     </row>
+    <row r="70" spans="1:28">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>657</v>
+      </c>
+      <c r="C70">
+        <v>1441</v>
+      </c>
+      <c r="D70">
+        <v>1482</v>
+      </c>
+      <c r="E70">
+        <v>6683</v>
+      </c>
+      <c r="F70">
+        <v>3495</v>
+      </c>
+      <c r="G70">
+        <v>8370</v>
+      </c>
+      <c r="H70">
+        <v>1649</v>
+      </c>
+      <c r="I70">
+        <v>3086</v>
+      </c>
+      <c r="J70">
+        <v>850</v>
+      </c>
+      <c r="K70">
+        <v>4040</v>
+      </c>
+      <c r="L70">
+        <v>337</v>
+      </c>
+      <c r="M70">
+        <v>272</v>
+      </c>
+      <c r="N70">
+        <v>2118</v>
+      </c>
+      <c r="O70">
+        <v>3863</v>
+      </c>
+      <c r="P70">
+        <v>1169</v>
+      </c>
+      <c r="Q70">
+        <v>1514</v>
+      </c>
+      <c r="R70">
+        <v>8643</v>
+      </c>
+      <c r="S70">
+        <v>742</v>
+      </c>
+      <c r="T70">
+        <v>11139</v>
+      </c>
+      <c r="U70">
+        <v>1392</v>
+      </c>
+      <c r="V70">
+        <v>1666</v>
+      </c>
+      <c r="W70">
+        <v>705</v>
+      </c>
+      <c r="X70">
+        <v>740</v>
+      </c>
+      <c r="Y70">
+        <v>2346</v>
+      </c>
+      <c r="Z70">
+        <v>31772</v>
+      </c>
+      <c r="AA70">
+        <v>730</v>
+      </c>
+      <c r="AB70">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6588,7 +6677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12525,6 +12614,92 @@
         <v>14</v>
       </c>
       <c r="AB69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>43</v>
+      </c>
+      <c r="E70">
+        <v>548</v>
+      </c>
+      <c r="F70">
+        <v>123</v>
+      </c>
+      <c r="G70">
+        <v>663</v>
+      </c>
+      <c r="H70">
+        <v>33</v>
+      </c>
+      <c r="I70">
+        <v>114</v>
+      </c>
+      <c r="J70">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>237</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>89</v>
+      </c>
+      <c r="O70">
+        <v>309</v>
+      </c>
+      <c r="P70">
+        <v>76</v>
+      </c>
+      <c r="Q70">
+        <v>93</v>
+      </c>
+      <c r="R70">
+        <v>652</v>
+      </c>
+      <c r="S70">
+        <v>28</v>
+      </c>
+      <c r="T70">
+        <v>1019</v>
+      </c>
+      <c r="U70">
+        <v>61</v>
+      </c>
+      <c r="V70">
+        <v>65</v>
+      </c>
+      <c r="W70">
+        <v>24</v>
+      </c>
+      <c r="X70">
+        <v>11</v>
+      </c>
+      <c r="Y70">
+        <v>52</v>
+      </c>
+      <c r="Z70">
+        <v>2627</v>
+      </c>
+      <c r="AA70">
+        <v>14</v>
+      </c>
+      <c r="AB70">
         <v>4</v>
       </c>
     </row>
@@ -12543,10 +12718,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>Data</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
   </si>
   <si>
     <t>UF</t>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6670,6 +6673,92 @@
         <v>246</v>
       </c>
     </row>
+    <row r="71" spans="1:28">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71">
+        <v>733</v>
+      </c>
+      <c r="C71">
+        <v>1538</v>
+      </c>
+      <c r="D71">
+        <v>1733</v>
+      </c>
+      <c r="E71">
+        <v>7313</v>
+      </c>
+      <c r="F71">
+        <v>3708</v>
+      </c>
+      <c r="G71">
+        <v>8501</v>
+      </c>
+      <c r="H71">
+        <v>1768</v>
+      </c>
+      <c r="I71">
+        <v>3162</v>
+      </c>
+      <c r="J71">
+        <v>861</v>
+      </c>
+      <c r="K71">
+        <v>4227</v>
+      </c>
+      <c r="L71">
+        <v>344</v>
+      </c>
+      <c r="M71">
+        <v>274</v>
+      </c>
+      <c r="N71">
+        <v>2347</v>
+      </c>
+      <c r="O71">
+        <v>4125</v>
+      </c>
+      <c r="P71">
+        <v>1219</v>
+      </c>
+      <c r="Q71">
+        <v>1562</v>
+      </c>
+      <c r="R71">
+        <v>8863</v>
+      </c>
+      <c r="S71">
+        <v>784</v>
+      </c>
+      <c r="T71">
+        <v>11721</v>
+      </c>
+      <c r="U71">
+        <v>1421</v>
+      </c>
+      <c r="V71">
+        <v>1711</v>
+      </c>
+      <c r="W71">
+        <v>756</v>
+      </c>
+      <c r="X71">
+        <v>806</v>
+      </c>
+      <c r="Y71">
+        <v>2519</v>
+      </c>
+      <c r="Z71">
+        <v>32187</v>
+      </c>
+      <c r="AA71">
+        <v>772</v>
+      </c>
+      <c r="AB71">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6677,7 +6766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12701,6 +12790,92 @@
       </c>
       <c r="AB70">
         <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>49</v>
+      </c>
+      <c r="E71">
+        <v>585</v>
+      </c>
+      <c r="F71">
+        <v>134</v>
+      </c>
+      <c r="G71">
+        <v>691</v>
+      </c>
+      <c r="H71">
+        <v>33</v>
+      </c>
+      <c r="I71">
+        <v>116</v>
+      </c>
+      <c r="J71">
+        <v>30</v>
+      </c>
+      <c r="K71">
+        <v>249</v>
+      </c>
+      <c r="L71">
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <v>10</v>
+      </c>
+      <c r="N71">
+        <v>90</v>
+      </c>
+      <c r="O71">
+        <v>330</v>
+      </c>
+      <c r="P71">
+        <v>79</v>
+      </c>
+      <c r="Q71">
+        <v>94</v>
+      </c>
+      <c r="R71">
+        <v>691</v>
+      </c>
+      <c r="S71">
+        <v>28</v>
+      </c>
+      <c r="T71">
+        <v>1065</v>
+      </c>
+      <c r="U71">
+        <v>62</v>
+      </c>
+      <c r="V71">
+        <v>74</v>
+      </c>
+      <c r="W71">
+        <v>25</v>
+      </c>
+      <c r="X71">
+        <v>11</v>
+      </c>
+      <c r="Y71">
+        <v>52</v>
+      </c>
+      <c r="Z71">
+        <v>2654</v>
+      </c>
+      <c r="AA71">
+        <v>17</v>
+      </c>
+      <c r="AB71">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12718,10 +12893,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>Data</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
   </si>
   <si>
     <t>UF</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6759,6 +6762,92 @@
         <v>267</v>
       </c>
     </row>
+    <row r="72" spans="1:28">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>817</v>
+      </c>
+      <c r="C72">
+        <v>1606</v>
+      </c>
+      <c r="D72">
+        <v>1931</v>
+      </c>
+      <c r="E72">
+        <v>8109</v>
+      </c>
+      <c r="F72">
+        <v>4040</v>
+      </c>
+      <c r="G72">
+        <v>11470</v>
+      </c>
+      <c r="H72">
+        <v>1818</v>
+      </c>
+      <c r="I72">
+        <v>3402</v>
+      </c>
+      <c r="J72">
+        <v>922</v>
+      </c>
+      <c r="K72">
+        <v>4530</v>
+      </c>
+      <c r="L72">
+        <v>365</v>
+      </c>
+      <c r="M72">
+        <v>283</v>
+      </c>
+      <c r="N72">
+        <v>2452</v>
+      </c>
+      <c r="O72">
+        <v>4472</v>
+      </c>
+      <c r="P72">
+        <v>1361</v>
+      </c>
+      <c r="Q72">
+        <v>1588</v>
+      </c>
+      <c r="R72">
+        <v>9325</v>
+      </c>
+      <c r="S72">
+        <v>875</v>
+      </c>
+      <c r="T72">
+        <v>12391</v>
+      </c>
+      <c r="U72">
+        <v>1536</v>
+      </c>
+      <c r="V72">
+        <v>1815</v>
+      </c>
+      <c r="W72">
+        <v>861</v>
+      </c>
+      <c r="X72">
+        <v>869</v>
+      </c>
+      <c r="Y72">
+        <v>2623</v>
+      </c>
+      <c r="Z72">
+        <v>34053</v>
+      </c>
+      <c r="AA72">
+        <v>898</v>
+      </c>
+      <c r="AB72">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6766,7 +6855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12876,6 +12965,92 @@
       </c>
       <c r="AB71">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>29</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <v>649</v>
+      </c>
+      <c r="F72">
+        <v>146</v>
+      </c>
+      <c r="G72">
+        <v>795</v>
+      </c>
+      <c r="H72">
+        <v>33</v>
+      </c>
+      <c r="I72">
+        <v>133</v>
+      </c>
+      <c r="J72">
+        <v>38</v>
+      </c>
+      <c r="K72">
+        <v>271</v>
+      </c>
+      <c r="L72">
+        <v>13</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>94</v>
+      </c>
+      <c r="O72">
+        <v>369</v>
+      </c>
+      <c r="P72">
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <v>99</v>
+      </c>
+      <c r="R72">
+        <v>749</v>
+      </c>
+      <c r="S72">
+        <v>29</v>
+      </c>
+      <c r="T72">
+        <v>1123</v>
+      </c>
+      <c r="U72">
+        <v>68</v>
+      </c>
+      <c r="V72">
+        <v>79</v>
+      </c>
+      <c r="W72">
+        <v>29</v>
+      </c>
+      <c r="X72">
+        <v>11</v>
+      </c>
+      <c r="Y72">
+        <v>55</v>
+      </c>
+      <c r="Z72">
+        <v>2851</v>
+      </c>
+      <c r="AA72">
+        <v>21</v>
+      </c>
+      <c r="AB72">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12893,10 +13068,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>Data</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
   </si>
   <si>
     <t>UF</t>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6848,6 +6851,92 @@
         <v>303</v>
       </c>
     </row>
+    <row r="73" spans="1:28">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73">
+        <v>943</v>
+      </c>
+      <c r="C73">
+        <v>1703</v>
+      </c>
+      <c r="D73">
+        <v>2046</v>
+      </c>
+      <c r="E73">
+        <v>9243</v>
+      </c>
+      <c r="F73">
+        <v>4301</v>
+      </c>
+      <c r="G73">
+        <v>12304</v>
+      </c>
+      <c r="H73">
+        <v>1906</v>
+      </c>
+      <c r="I73">
+        <v>3568</v>
+      </c>
+      <c r="J73">
+        <v>1024</v>
+      </c>
+      <c r="K73">
+        <v>5028</v>
+      </c>
+      <c r="L73">
+        <v>379</v>
+      </c>
+      <c r="M73">
+        <v>288</v>
+      </c>
+      <c r="N73">
+        <v>2605</v>
+      </c>
+      <c r="O73">
+        <v>5017</v>
+      </c>
+      <c r="P73">
+        <v>1493</v>
+      </c>
+      <c r="Q73">
+        <v>1627</v>
+      </c>
+      <c r="R73">
+        <v>9881</v>
+      </c>
+      <c r="S73">
+        <v>949</v>
+      </c>
+      <c r="T73">
+        <v>13295</v>
+      </c>
+      <c r="U73">
+        <v>1574</v>
+      </c>
+      <c r="V73">
+        <v>2050</v>
+      </c>
+      <c r="W73">
+        <v>943</v>
+      </c>
+      <c r="X73">
+        <v>932</v>
+      </c>
+      <c r="Y73">
+        <v>2917</v>
+      </c>
+      <c r="Z73">
+        <v>37853</v>
+      </c>
+      <c r="AA73">
+        <v>998</v>
+      </c>
+      <c r="AB73">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6855,7 +6944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13051,6 +13140,92 @@
       </c>
       <c r="AB72">
         <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>89</v>
+      </c>
+      <c r="D73">
+        <v>56</v>
+      </c>
+      <c r="E73">
+        <v>751</v>
+      </c>
+      <c r="F73">
+        <v>160</v>
+      </c>
+      <c r="G73">
+        <v>848</v>
+      </c>
+      <c r="H73">
+        <v>34</v>
+      </c>
+      <c r="I73">
+        <v>145</v>
+      </c>
+      <c r="J73">
+        <v>45</v>
+      </c>
+      <c r="K73">
+        <v>291</v>
+      </c>
+      <c r="L73">
+        <v>13</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>97</v>
+      </c>
+      <c r="O73">
+        <v>392</v>
+      </c>
+      <c r="P73">
+        <v>92</v>
+      </c>
+      <c r="Q73">
+        <v>101</v>
+      </c>
+      <c r="R73">
+        <v>803</v>
+      </c>
+      <c r="S73">
+        <v>30</v>
+      </c>
+      <c r="T73">
+        <v>1205</v>
+      </c>
+      <c r="U73">
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <v>87</v>
+      </c>
+      <c r="W73">
+        <v>33</v>
+      </c>
+      <c r="X73">
+        <v>13</v>
+      </c>
+      <c r="Y73">
+        <v>59</v>
+      </c>
+      <c r="Z73">
+        <v>3045</v>
+      </c>
+      <c r="AA73">
+        <v>23</v>
+      </c>
+      <c r="AB73">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -13068,10 +13243,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="130">
   <si>
     <t>Data</t>
   </si>
@@ -396,6 +396,12 @@
     <t>2020-05-06</t>
   </si>
   <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -731,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9251,6 +9257,178 @@
         <v>351</v>
       </c>
     </row>
+    <row r="100" spans="1:28">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100">
+        <v>1014</v>
+      </c>
+      <c r="C100">
+        <v>1867</v>
+      </c>
+      <c r="D100">
+        <v>2199</v>
+      </c>
+      <c r="E100">
+        <v>10099</v>
+      </c>
+      <c r="F100">
+        <v>4528</v>
+      </c>
+      <c r="G100">
+        <v>13888</v>
+      </c>
+      <c r="H100">
+        <v>2258</v>
+      </c>
+      <c r="I100">
+        <v>3838</v>
+      </c>
+      <c r="J100">
+        <v>1027</v>
+      </c>
+      <c r="K100">
+        <v>5389</v>
+      </c>
+      <c r="L100">
+        <v>417</v>
+      </c>
+      <c r="M100">
+        <v>311</v>
+      </c>
+      <c r="N100">
+        <v>2770</v>
+      </c>
+      <c r="O100">
+        <v>5524</v>
+      </c>
+      <c r="P100">
+        <v>1657</v>
+      </c>
+      <c r="Q100">
+        <v>1656</v>
+      </c>
+      <c r="R100">
+        <v>10824</v>
+      </c>
+      <c r="S100">
+        <v>1051</v>
+      </c>
+      <c r="T100">
+        <v>14156</v>
+      </c>
+      <c r="U100">
+        <v>1739</v>
+      </c>
+      <c r="V100">
+        <v>2129</v>
+      </c>
+      <c r="W100">
+        <v>1098</v>
+      </c>
+      <c r="X100">
+        <v>1020</v>
+      </c>
+      <c r="Y100">
+        <v>3082</v>
+      </c>
+      <c r="Z100">
+        <v>39928</v>
+      </c>
+      <c r="AA100">
+        <v>1214</v>
+      </c>
+      <c r="AB100">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101">
+        <v>1177</v>
+      </c>
+      <c r="C101">
+        <v>2033</v>
+      </c>
+      <c r="D101">
+        <v>2322</v>
+      </c>
+      <c r="E101">
+        <v>10727</v>
+      </c>
+      <c r="F101">
+        <v>4818</v>
+      </c>
+      <c r="G101">
+        <v>14956</v>
+      </c>
+      <c r="H101">
+        <v>2442</v>
+      </c>
+      <c r="I101">
+        <v>4242</v>
+      </c>
+      <c r="J101">
+        <v>1053</v>
+      </c>
+      <c r="K101">
+        <v>5909</v>
+      </c>
+      <c r="L101">
+        <v>457</v>
+      </c>
+      <c r="M101">
+        <v>326</v>
+      </c>
+      <c r="N101">
+        <v>2943</v>
+      </c>
+      <c r="O101">
+        <v>6141</v>
+      </c>
+      <c r="P101">
+        <v>2031</v>
+      </c>
+      <c r="Q101">
+        <v>1711</v>
+      </c>
+      <c r="R101">
+        <v>11587</v>
+      </c>
+      <c r="S101">
+        <v>1131</v>
+      </c>
+      <c r="T101">
+        <v>15741</v>
+      </c>
+      <c r="U101">
+        <v>1821</v>
+      </c>
+      <c r="V101">
+        <v>2447</v>
+      </c>
+      <c r="W101">
+        <v>1222</v>
+      </c>
+      <c r="X101">
+        <v>1124</v>
+      </c>
+      <c r="Y101">
+        <v>3082</v>
+      </c>
+      <c r="Z101">
+        <v>41830</v>
+      </c>
+      <c r="AA101">
+        <v>1438</v>
+      </c>
+      <c r="AB101">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9258,7 +9436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17775,6 +17953,178 @@
         <v>23</v>
       </c>
       <c r="AB99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>61</v>
+      </c>
+      <c r="E100">
+        <v>806</v>
+      </c>
+      <c r="F100">
+        <v>165</v>
+      </c>
+      <c r="G100">
+        <v>903</v>
+      </c>
+      <c r="H100">
+        <v>35</v>
+      </c>
+      <c r="I100">
+        <v>155</v>
+      </c>
+      <c r="J100">
+        <v>44</v>
+      </c>
+      <c r="K100">
+        <v>305</v>
+      </c>
+      <c r="L100">
+        <v>13</v>
+      </c>
+      <c r="M100">
+        <v>10</v>
+      </c>
+      <c r="N100">
+        <v>106</v>
+      </c>
+      <c r="O100">
+        <v>410</v>
+      </c>
+      <c r="P100">
+        <v>101</v>
+      </c>
+      <c r="Q100">
+        <v>104</v>
+      </c>
+      <c r="R100">
+        <v>845</v>
+      </c>
+      <c r="S100">
+        <v>35</v>
+      </c>
+      <c r="T100">
+        <v>1394</v>
+      </c>
+      <c r="U100">
+        <v>76</v>
+      </c>
+      <c r="V100">
+        <v>90</v>
+      </c>
+      <c r="W100">
+        <v>37</v>
+      </c>
+      <c r="X100">
+        <v>14</v>
+      </c>
+      <c r="Y100">
+        <v>63</v>
+      </c>
+      <c r="Z100">
+        <v>3206</v>
+      </c>
+      <c r="AA100">
+        <v>25</v>
+      </c>
+      <c r="AB100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101">
+        <v>38</v>
+      </c>
+      <c r="C101">
+        <v>108</v>
+      </c>
+      <c r="D101">
+        <v>66</v>
+      </c>
+      <c r="E101">
+        <v>874</v>
+      </c>
+      <c r="F101">
+        <v>183</v>
+      </c>
+      <c r="G101">
+        <v>966</v>
+      </c>
+      <c r="H101">
+        <v>37</v>
+      </c>
+      <c r="I101">
+        <v>165</v>
+      </c>
+      <c r="J101">
+        <v>49</v>
+      </c>
+      <c r="K101">
+        <v>330</v>
+      </c>
+      <c r="L101">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>11</v>
+      </c>
+      <c r="N101">
+        <v>111</v>
+      </c>
+      <c r="O101">
+        <v>515</v>
+      </c>
+      <c r="P101">
+        <v>114</v>
+      </c>
+      <c r="Q101">
+        <v>106</v>
+      </c>
+      <c r="R101">
+        <v>927</v>
+      </c>
+      <c r="S101">
+        <v>37</v>
+      </c>
+      <c r="T101">
+        <v>1503</v>
+      </c>
+      <c r="U101">
+        <v>81</v>
+      </c>
+      <c r="V101">
+        <v>91</v>
+      </c>
+      <c r="W101">
+        <v>39</v>
+      </c>
+      <c r="X101">
+        <v>16</v>
+      </c>
+      <c r="Y101">
+        <v>63</v>
+      </c>
+      <c r="Z101">
+        <v>3416</v>
+      </c>
+      <c r="AA101">
+        <v>28</v>
+      </c>
+      <c r="AB101">
         <v>9</v>
       </c>
     </row>
@@ -17793,10 +18143,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="131">
   <si>
     <t>Data</t>
   </si>
@@ -402,6 +402,9 @@
     <t>2020-05-08</t>
   </si>
   <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9429,6 +9432,92 @@
         <v>423</v>
       </c>
     </row>
+    <row r="102" spans="1:28">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102">
+        <v>1335</v>
+      </c>
+      <c r="C102">
+        <v>2172</v>
+      </c>
+      <c r="D102">
+        <v>2493</v>
+      </c>
+      <c r="E102">
+        <v>11925</v>
+      </c>
+      <c r="F102">
+        <v>5174</v>
+      </c>
+      <c r="G102">
+        <v>15879</v>
+      </c>
+      <c r="H102">
+        <v>2576</v>
+      </c>
+      <c r="I102">
+        <v>4412</v>
+      </c>
+      <c r="J102">
+        <v>1069</v>
+      </c>
+      <c r="K102">
+        <v>6765</v>
+      </c>
+      <c r="L102">
+        <v>502</v>
+      </c>
+      <c r="M102">
+        <v>346</v>
+      </c>
+      <c r="N102">
+        <v>3123</v>
+      </c>
+      <c r="O102">
+        <v>6775</v>
+      </c>
+      <c r="P102">
+        <v>2156</v>
+      </c>
+      <c r="Q102">
+        <v>1785</v>
+      </c>
+      <c r="R102">
+        <v>12470</v>
+      </c>
+      <c r="S102">
+        <v>1233</v>
+      </c>
+      <c r="T102">
+        <v>16929</v>
+      </c>
+      <c r="U102">
+        <v>1919</v>
+      </c>
+      <c r="V102">
+        <v>2493</v>
+      </c>
+      <c r="W102">
+        <v>1263</v>
+      </c>
+      <c r="X102">
+        <v>1202</v>
+      </c>
+      <c r="Y102">
+        <v>3372</v>
+      </c>
+      <c r="Z102">
+        <v>44411</v>
+      </c>
+      <c r="AA102">
+        <v>1588</v>
+      </c>
+      <c r="AB102">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9436,7 +9525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18125,6 +18214,92 @@
         <v>28</v>
       </c>
       <c r="AB101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102">
+        <v>39</v>
+      </c>
+      <c r="C102">
+        <v>114</v>
+      </c>
+      <c r="D102">
+        <v>69</v>
+      </c>
+      <c r="E102">
+        <v>962</v>
+      </c>
+      <c r="F102">
+        <v>196</v>
+      </c>
+      <c r="G102">
+        <v>1062</v>
+      </c>
+      <c r="H102">
+        <v>39</v>
+      </c>
+      <c r="I102">
+        <v>172</v>
+      </c>
+      <c r="J102">
+        <v>47</v>
+      </c>
+      <c r="K102">
+        <v>355</v>
+      </c>
+      <c r="L102">
+        <v>16</v>
+      </c>
+      <c r="M102">
+        <v>11</v>
+      </c>
+      <c r="N102">
+        <v>118</v>
+      </c>
+      <c r="O102">
+        <v>578</v>
+      </c>
+      <c r="P102">
+        <v>124</v>
+      </c>
+      <c r="Q102">
+        <v>107</v>
+      </c>
+      <c r="R102">
+        <v>972</v>
+      </c>
+      <c r="S102">
+        <v>38</v>
+      </c>
+      <c r="T102">
+        <v>1653</v>
+      </c>
+      <c r="U102">
+        <v>87</v>
+      </c>
+      <c r="V102">
+        <v>95</v>
+      </c>
+      <c r="W102">
+        <v>41</v>
+      </c>
+      <c r="X102">
+        <v>18</v>
+      </c>
+      <c r="Y102">
+        <v>64</v>
+      </c>
+      <c r="Z102">
+        <v>3608</v>
+      </c>
+      <c r="AA102">
+        <v>33</v>
+      </c>
+      <c r="AB102">
         <v>9</v>
       </c>
     </row>
@@ -18143,10 +18318,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
   <si>
     <t>Data</t>
   </si>
@@ -405,6 +405,9 @@
     <t>2020-05-09</t>
   </si>
   <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9518,6 +9521,92 @@
         <v>572</v>
       </c>
     </row>
+    <row r="103" spans="1:28">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103">
+        <v>1447</v>
+      </c>
+      <c r="C103">
+        <v>2258</v>
+      </c>
+      <c r="D103">
+        <v>2613</v>
+      </c>
+      <c r="E103">
+        <v>12599</v>
+      </c>
+      <c r="F103">
+        <v>5558</v>
+      </c>
+      <c r="G103">
+        <v>16692</v>
+      </c>
+      <c r="H103">
+        <v>2682</v>
+      </c>
+      <c r="I103">
+        <v>4599</v>
+      </c>
+      <c r="J103">
+        <v>1093</v>
+      </c>
+      <c r="K103">
+        <v>7599</v>
+      </c>
+      <c r="L103">
+        <v>519</v>
+      </c>
+      <c r="M103">
+        <v>362</v>
+      </c>
+      <c r="N103">
+        <v>3237</v>
+      </c>
+      <c r="O103">
+        <v>7256</v>
+      </c>
+      <c r="P103">
+        <v>2341</v>
+      </c>
+      <c r="Q103">
+        <v>1835</v>
+      </c>
+      <c r="R103">
+        <v>13275</v>
+      </c>
+      <c r="S103">
+        <v>1278</v>
+      </c>
+      <c r="T103">
+        <v>17062</v>
+      </c>
+      <c r="U103">
+        <v>1928</v>
+      </c>
+      <c r="V103">
+        <v>2542</v>
+      </c>
+      <c r="W103">
+        <v>1302</v>
+      </c>
+      <c r="X103">
+        <v>1290</v>
+      </c>
+      <c r="Y103">
+        <v>3429</v>
+      </c>
+      <c r="Z103">
+        <v>45444</v>
+      </c>
+      <c r="AA103">
+        <v>1771</v>
+      </c>
+      <c r="AB103">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9525,7 +9614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18301,6 +18390,92 @@
       </c>
       <c r="AB102">
         <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103">
+        <v>41</v>
+      </c>
+      <c r="C103">
+        <v>126</v>
+      </c>
+      <c r="D103">
+        <v>72</v>
+      </c>
+      <c r="E103">
+        <v>1004</v>
+      </c>
+      <c r="F103">
+        <v>202</v>
+      </c>
+      <c r="G103">
+        <v>1114</v>
+      </c>
+      <c r="H103">
+        <v>42</v>
+      </c>
+      <c r="I103">
+        <v>181</v>
+      </c>
+      <c r="J103">
+        <v>47</v>
+      </c>
+      <c r="K103">
+        <v>379</v>
+      </c>
+      <c r="L103">
+        <v>18</v>
+      </c>
+      <c r="M103">
+        <v>11</v>
+      </c>
+      <c r="N103">
+        <v>119</v>
+      </c>
+      <c r="O103">
+        <v>652</v>
+      </c>
+      <c r="P103">
+        <v>135</v>
+      </c>
+      <c r="Q103">
+        <v>109</v>
+      </c>
+      <c r="R103">
+        <v>1047</v>
+      </c>
+      <c r="S103">
+        <v>42</v>
+      </c>
+      <c r="T103">
+        <v>1714</v>
+      </c>
+      <c r="U103">
+        <v>88</v>
+      </c>
+      <c r="V103">
+        <v>97</v>
+      </c>
+      <c r="W103">
+        <v>43</v>
+      </c>
+      <c r="X103">
+        <v>21</v>
+      </c>
+      <c r="Y103">
+        <v>65</v>
+      </c>
+      <c r="Z103">
+        <v>3709</v>
+      </c>
+      <c r="AA103">
+        <v>34</v>
+      </c>
+      <c r="AB103">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -18318,10 +18493,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="133">
   <si>
     <t>Data</t>
   </si>
@@ -408,6 +408,9 @@
     <t>2020-05-10</t>
   </si>
   <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9607,6 +9610,92 @@
         <v>688</v>
       </c>
     </row>
+    <row r="104" spans="1:28">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104">
+        <v>1460</v>
+      </c>
+      <c r="C104">
+        <v>2343</v>
+      </c>
+      <c r="D104">
+        <v>2671</v>
+      </c>
+      <c r="E104">
+        <v>12919</v>
+      </c>
+      <c r="F104">
+        <v>5808</v>
+      </c>
+      <c r="G104">
+        <v>17599</v>
+      </c>
+      <c r="H104">
+        <v>2783</v>
+      </c>
+      <c r="I104">
+        <v>4819</v>
+      </c>
+      <c r="J104">
+        <v>1100</v>
+      </c>
+      <c r="K104">
+        <v>8144</v>
+      </c>
+      <c r="L104">
+        <v>541</v>
+      </c>
+      <c r="M104">
+        <v>385</v>
+      </c>
+      <c r="N104">
+        <v>3320</v>
+      </c>
+      <c r="O104">
+        <v>7563</v>
+      </c>
+      <c r="P104">
+        <v>2525</v>
+      </c>
+      <c r="Q104">
+        <v>1849</v>
+      </c>
+      <c r="R104">
+        <v>13768</v>
+      </c>
+      <c r="S104">
+        <v>1332</v>
+      </c>
+      <c r="T104">
+        <v>17939</v>
+      </c>
+      <c r="U104">
+        <v>1989</v>
+      </c>
+      <c r="V104">
+        <v>2576</v>
+      </c>
+      <c r="W104">
+        <v>1989</v>
+      </c>
+      <c r="X104">
+        <v>1295</v>
+      </c>
+      <c r="Y104">
+        <v>3529</v>
+      </c>
+      <c r="Z104">
+        <v>46131</v>
+      </c>
+      <c r="AA104">
+        <v>1800</v>
+      </c>
+      <c r="AB104">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9614,7 +9703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18476,6 +18565,92 @@
       </c>
       <c r="AB103">
         <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104">
+        <v>45</v>
+      </c>
+      <c r="C104">
+        <v>138</v>
+      </c>
+      <c r="D104">
+        <v>73</v>
+      </c>
+      <c r="E104">
+        <v>1035</v>
+      </c>
+      <c r="F104">
+        <v>211</v>
+      </c>
+      <c r="G104">
+        <v>1189</v>
+      </c>
+      <c r="H104">
+        <v>44</v>
+      </c>
+      <c r="I104">
+        <v>196</v>
+      </c>
+      <c r="J104">
+        <v>49</v>
+      </c>
+      <c r="K104">
+        <v>399</v>
+      </c>
+      <c r="L104">
+        <v>19</v>
+      </c>
+      <c r="M104">
+        <v>11</v>
+      </c>
+      <c r="N104">
+        <v>121</v>
+      </c>
+      <c r="O104">
+        <v>708</v>
+      </c>
+      <c r="P104">
+        <v>139</v>
+      </c>
+      <c r="Q104">
+        <v>111</v>
+      </c>
+      <c r="R104">
+        <v>1087</v>
+      </c>
+      <c r="S104">
+        <v>45</v>
+      </c>
+      <c r="T104">
+        <v>1770</v>
+      </c>
+      <c r="U104">
+        <v>92</v>
+      </c>
+      <c r="V104">
+        <v>105</v>
+      </c>
+      <c r="W104">
+        <v>92</v>
+      </c>
+      <c r="X104">
+        <v>24</v>
+      </c>
+      <c r="Y104">
+        <v>69</v>
+      </c>
+      <c r="Z104">
+        <v>3743</v>
+      </c>
+      <c r="AA104">
+        <v>37</v>
+      </c>
+      <c r="AB104">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -18493,10 +18668,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
   <si>
     <t>Data</t>
   </si>
@@ -411,6 +411,9 @@
     <t>2020-05-11</t>
   </si>
   <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9696,6 +9699,92 @@
         <v>747</v>
       </c>
     </row>
+    <row r="105" spans="1:28">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105">
+        <v>1590</v>
+      </c>
+      <c r="C105">
+        <v>2580</v>
+      </c>
+      <c r="D105">
+        <v>2910</v>
+      </c>
+      <c r="E105">
+        <v>14168</v>
+      </c>
+      <c r="F105">
+        <v>6204</v>
+      </c>
+      <c r="G105">
+        <v>18412</v>
+      </c>
+      <c r="H105">
+        <v>2979</v>
+      </c>
+      <c r="I105">
+        <v>5087</v>
+      </c>
+      <c r="J105">
+        <v>1115</v>
+      </c>
+      <c r="K105">
+        <v>8526</v>
+      </c>
+      <c r="L105">
+        <v>591</v>
+      </c>
+      <c r="M105">
+        <v>405</v>
+      </c>
+      <c r="N105">
+        <v>3435</v>
+      </c>
+      <c r="O105">
+        <v>8616</v>
+      </c>
+      <c r="P105">
+        <v>2777</v>
+      </c>
+      <c r="Q105">
+        <v>1906</v>
+      </c>
+      <c r="R105">
+        <v>14309</v>
+      </c>
+      <c r="S105">
+        <v>1443</v>
+      </c>
+      <c r="T105">
+        <v>18486</v>
+      </c>
+      <c r="U105">
+        <v>2033</v>
+      </c>
+      <c r="V105">
+        <v>2917</v>
+      </c>
+      <c r="W105">
+        <v>2033</v>
+      </c>
+      <c r="X105">
+        <v>1328</v>
+      </c>
+      <c r="Y105">
+        <v>3733</v>
+      </c>
+      <c r="Z105">
+        <v>47719</v>
+      </c>
+      <c r="AA105">
+        <v>2032</v>
+      </c>
+      <c r="AB105">
+        <v>828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9703,7 +9792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18651,6 +18740,92 @@
       </c>
       <c r="AB104">
         <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>150</v>
+      </c>
+      <c r="D105">
+        <v>86</v>
+      </c>
+      <c r="E105">
+        <v>1098</v>
+      </c>
+      <c r="F105">
+        <v>225</v>
+      </c>
+      <c r="G105">
+        <v>1280</v>
+      </c>
+      <c r="H105">
+        <v>46</v>
+      </c>
+      <c r="I105">
+        <v>212</v>
+      </c>
+      <c r="J105">
+        <v>52</v>
+      </c>
+      <c r="K105">
+        <v>423</v>
+      </c>
+      <c r="L105">
+        <v>19</v>
+      </c>
+      <c r="M105">
+        <v>12</v>
+      </c>
+      <c r="N105">
+        <v>127</v>
+      </c>
+      <c r="O105">
+        <v>864</v>
+      </c>
+      <c r="P105">
+        <v>154</v>
+      </c>
+      <c r="Q105">
+        <v>113</v>
+      </c>
+      <c r="R105">
+        <v>1157</v>
+      </c>
+      <c r="S105">
+        <v>49</v>
+      </c>
+      <c r="T105">
+        <v>1928</v>
+      </c>
+      <c r="U105">
+        <v>93</v>
+      </c>
+      <c r="V105">
+        <v>111</v>
+      </c>
+      <c r="W105">
+        <v>93</v>
+      </c>
+      <c r="X105">
+        <v>27</v>
+      </c>
+      <c r="Y105">
+        <v>73</v>
+      </c>
+      <c r="Z105">
+        <v>3949</v>
+      </c>
+      <c r="AA105">
+        <v>37</v>
+      </c>
+      <c r="AB105">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -18668,10 +18843,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
   <si>
     <t>Data</t>
   </si>
@@ -414,6 +414,9 @@
     <t>2020-05-12</t>
   </si>
   <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9785,6 +9788,92 @@
         <v>828</v>
       </c>
     </row>
+    <row r="106" spans="1:28">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106">
+        <v>1694</v>
+      </c>
+      <c r="C106">
+        <v>2761</v>
+      </c>
+      <c r="D106">
+        <v>3005</v>
+      </c>
+      <c r="E106">
+        <v>15816</v>
+      </c>
+      <c r="F106">
+        <v>6547</v>
+      </c>
+      <c r="G106">
+        <v>19156</v>
+      </c>
+      <c r="H106">
+        <v>3192</v>
+      </c>
+      <c r="I106">
+        <v>5401</v>
+      </c>
+      <c r="J106">
+        <v>1134</v>
+      </c>
+      <c r="K106">
+        <v>9112</v>
+      </c>
+      <c r="L106">
+        <v>661</v>
+      </c>
+      <c r="M106">
+        <v>430</v>
+      </c>
+      <c r="N106">
+        <v>3733</v>
+      </c>
+      <c r="O106">
+        <v>9618</v>
+      </c>
+      <c r="P106">
+        <v>3045</v>
+      </c>
+      <c r="Q106">
+        <v>1996</v>
+      </c>
+      <c r="R106">
+        <v>14901</v>
+      </c>
+      <c r="S106">
+        <v>1612</v>
+      </c>
+      <c r="T106">
+        <v>18728</v>
+      </c>
+      <c r="U106">
+        <v>2367</v>
+      </c>
+      <c r="V106">
+        <v>2917</v>
+      </c>
+      <c r="W106">
+        <v>2367</v>
+      </c>
+      <c r="X106">
+        <v>1411</v>
+      </c>
+      <c r="Y106">
+        <v>3828</v>
+      </c>
+      <c r="Z106">
+        <v>51097</v>
+      </c>
+      <c r="AA106">
+        <v>2268</v>
+      </c>
+      <c r="AB106">
+        <v>932</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9792,7 +9881,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18826,6 +18915,92 @@
       </c>
       <c r="AB105">
         <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106">
+        <v>52</v>
+      </c>
+      <c r="C106">
+        <v>164</v>
+      </c>
+      <c r="D106">
+        <v>94</v>
+      </c>
+      <c r="E106">
+        <v>1160</v>
+      </c>
+      <c r="F106">
+        <v>236</v>
+      </c>
+      <c r="G106">
+        <v>1389</v>
+      </c>
+      <c r="H106">
+        <v>48</v>
+      </c>
+      <c r="I106">
+        <v>233</v>
+      </c>
+      <c r="J106">
+        <v>61</v>
+      </c>
+      <c r="K106">
+        <v>444</v>
+      </c>
+      <c r="L106">
+        <v>20</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>135</v>
+      </c>
+      <c r="O106">
+        <v>946</v>
+      </c>
+      <c r="P106">
+        <v>157</v>
+      </c>
+      <c r="Q106">
+        <v>117</v>
+      </c>
+      <c r="R106">
+        <v>1224</v>
+      </c>
+      <c r="S106">
+        <v>57</v>
+      </c>
+      <c r="T106">
+        <v>2050</v>
+      </c>
+      <c r="U106">
+        <v>105</v>
+      </c>
+      <c r="V106">
+        <v>111</v>
+      </c>
+      <c r="W106">
+        <v>105</v>
+      </c>
+      <c r="X106">
+        <v>29</v>
+      </c>
+      <c r="Y106">
+        <v>73</v>
+      </c>
+      <c r="Z106">
+        <v>4118</v>
+      </c>
+      <c r="AA106">
+        <v>42</v>
+      </c>
+      <c r="AB106">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -18843,10 +19018,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="136">
   <si>
     <t>Data</t>
   </si>
@@ -417,6 +417,9 @@
     <t>2020-05-13</t>
   </si>
   <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9874,6 +9877,92 @@
         <v>932</v>
       </c>
     </row>
+    <row r="107" spans="1:28">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>1740</v>
+      </c>
+      <c r="C107">
+        <v>2972</v>
+      </c>
+      <c r="D107">
+        <v>3428</v>
+      </c>
+      <c r="E107">
+        <v>17181</v>
+      </c>
+      <c r="F107">
+        <v>6955</v>
+      </c>
+      <c r="G107">
+        <v>21077</v>
+      </c>
+      <c r="H107">
+        <v>3416</v>
+      </c>
+      <c r="I107">
+        <v>5813</v>
+      </c>
+      <c r="J107">
+        <v>1423</v>
+      </c>
+      <c r="K107">
+        <v>9801</v>
+      </c>
+      <c r="L107">
+        <v>719</v>
+      </c>
+      <c r="M107">
+        <v>452</v>
+      </c>
+      <c r="N107">
+        <v>3950</v>
+      </c>
+      <c r="O107">
+        <v>10867</v>
+      </c>
+      <c r="P107">
+        <v>3361</v>
+      </c>
+      <c r="Q107">
+        <v>2063</v>
+      </c>
+      <c r="R107">
+        <v>15588</v>
+      </c>
+      <c r="S107">
+        <v>1784</v>
+      </c>
+      <c r="T107">
+        <v>19467</v>
+      </c>
+      <c r="U107">
+        <v>2537</v>
+      </c>
+      <c r="V107">
+        <v>2997</v>
+      </c>
+      <c r="W107">
+        <v>2537</v>
+      </c>
+      <c r="X107">
+        <v>1500</v>
+      </c>
+      <c r="Y107">
+        <v>4332</v>
+      </c>
+      <c r="Z107">
+        <v>54286</v>
+      </c>
+      <c r="AA107">
+        <v>2494</v>
+      </c>
+      <c r="AB107">
+        <v>1029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9881,7 +9970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19001,6 +19090,92 @@
       </c>
       <c r="AB106">
         <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>177</v>
+      </c>
+      <c r="D107">
+        <v>101</v>
+      </c>
+      <c r="E107">
+        <v>1235</v>
+      </c>
+      <c r="F107">
+        <v>262</v>
+      </c>
+      <c r="G107">
+        <v>1413</v>
+      </c>
+      <c r="H107">
+        <v>51</v>
+      </c>
+      <c r="I107">
+        <v>249</v>
+      </c>
+      <c r="J107">
+        <v>64</v>
+      </c>
+      <c r="K107">
+        <v>470</v>
+      </c>
+      <c r="L107">
+        <v>23</v>
+      </c>
+      <c r="M107">
+        <v>14</v>
+      </c>
+      <c r="N107">
+        <v>139</v>
+      </c>
+      <c r="O107">
+        <v>1063</v>
+      </c>
+      <c r="P107">
+        <v>160</v>
+      </c>
+      <c r="Q107">
+        <v>119</v>
+      </c>
+      <c r="R107">
+        <v>1298</v>
+      </c>
+      <c r="S107">
+        <v>60</v>
+      </c>
+      <c r="T107">
+        <v>2247</v>
+      </c>
+      <c r="U107">
+        <v>117</v>
+      </c>
+      <c r="V107">
+        <v>120</v>
+      </c>
+      <c r="W107">
+        <v>117</v>
+      </c>
+      <c r="X107">
+        <v>37</v>
+      </c>
+      <c r="Y107">
+        <v>78</v>
+      </c>
+      <c r="Z107">
+        <v>4315</v>
+      </c>
+      <c r="AA107">
+        <v>47</v>
+      </c>
+      <c r="AB107">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -19018,10 +19193,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>Data</t>
   </si>
@@ -420,6 +420,9 @@
     <t>2020-05-14</t>
   </si>
   <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9963,6 +9966,92 @@
         <v>1029</v>
       </c>
     </row>
+    <row r="108" spans="1:28">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108">
+        <v>1785</v>
+      </c>
+      <c r="C108">
+        <v>3212</v>
+      </c>
+      <c r="D108">
+        <v>3630</v>
+      </c>
+      <c r="E108">
+        <v>18392</v>
+      </c>
+      <c r="F108">
+        <v>8128</v>
+      </c>
+      <c r="G108">
+        <v>22490</v>
+      </c>
+      <c r="H108">
+        <v>3787</v>
+      </c>
+      <c r="I108">
+        <v>6198</v>
+      </c>
+      <c r="J108">
+        <v>1572</v>
+      </c>
+      <c r="K108">
+        <v>10739</v>
+      </c>
+      <c r="L108">
+        <v>779</v>
+      </c>
+      <c r="M108">
+        <v>479</v>
+      </c>
+      <c r="N108">
+        <v>4196</v>
+      </c>
+      <c r="O108">
+        <v>12109</v>
+      </c>
+      <c r="P108">
+        <v>3739</v>
+      </c>
+      <c r="Q108">
+        <v>2139</v>
+      </c>
+      <c r="R108">
+        <v>16209</v>
+      </c>
+      <c r="S108">
+        <v>1905</v>
+      </c>
+      <c r="T108">
+        <v>19987</v>
+      </c>
+      <c r="U108">
+        <v>2786</v>
+      </c>
+      <c r="V108">
+        <v>3597</v>
+      </c>
+      <c r="W108">
+        <v>2786</v>
+      </c>
+      <c r="X108">
+        <v>1589</v>
+      </c>
+      <c r="Y108">
+        <v>4562</v>
+      </c>
+      <c r="Z108">
+        <v>58378</v>
+      </c>
+      <c r="AA108">
+        <v>2868</v>
+      </c>
+      <c r="AB108">
+        <v>1179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9970,7 +10059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19176,6 +19265,92 @@
       </c>
       <c r="AB107">
         <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108">
+        <v>57</v>
+      </c>
+      <c r="C108">
+        <v>187</v>
+      </c>
+      <c r="D108">
+        <v>103</v>
+      </c>
+      <c r="E108">
+        <v>1331</v>
+      </c>
+      <c r="F108">
+        <v>281</v>
+      </c>
+      <c r="G108">
+        <v>1476</v>
+      </c>
+      <c r="H108">
+        <v>55</v>
+      </c>
+      <c r="I108">
+        <v>260</v>
+      </c>
+      <c r="J108">
+        <v>67</v>
+      </c>
+      <c r="K108">
+        <v>496</v>
+      </c>
+      <c r="L108">
+        <v>26</v>
+      </c>
+      <c r="M108">
+        <v>14</v>
+      </c>
+      <c r="N108">
+        <v>146</v>
+      </c>
+      <c r="O108">
+        <v>1145</v>
+      </c>
+      <c r="P108">
+        <v>170</v>
+      </c>
+      <c r="Q108">
+        <v>120</v>
+      </c>
+      <c r="R108">
+        <v>1381</v>
+      </c>
+      <c r="S108">
+        <v>60</v>
+      </c>
+      <c r="T108">
+        <v>2438</v>
+      </c>
+      <c r="U108">
+        <v>122</v>
+      </c>
+      <c r="V108">
+        <v>126</v>
+      </c>
+      <c r="W108">
+        <v>122</v>
+      </c>
+      <c r="X108">
+        <v>40</v>
+      </c>
+      <c r="Y108">
+        <v>79</v>
+      </c>
+      <c r="Z108">
+        <v>4501</v>
+      </c>
+      <c r="AA108">
+        <v>50</v>
+      </c>
+      <c r="AB108">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -19193,10 +19368,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="138">
   <si>
     <t>Data</t>
   </si>
@@ -423,6 +423,9 @@
     <t>2020-05-15</t>
   </si>
   <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -758,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10052,6 +10055,92 @@
         <v>1179</v>
       </c>
     </row>
+    <row r="109" spans="1:28">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109">
+        <v>1867</v>
+      </c>
+      <c r="C109">
+        <v>3593</v>
+      </c>
+      <c r="D109">
+        <v>3834</v>
+      </c>
+      <c r="E109">
+        <v>19677</v>
+      </c>
+      <c r="F109">
+        <v>8314</v>
+      </c>
+      <c r="G109">
+        <v>23795</v>
+      </c>
+      <c r="H109">
+        <v>4140</v>
+      </c>
+      <c r="I109">
+        <v>6595</v>
+      </c>
+      <c r="J109">
+        <v>1640</v>
+      </c>
+      <c r="K109">
+        <v>11592</v>
+      </c>
+      <c r="L109">
+        <v>851</v>
+      </c>
+      <c r="M109">
+        <v>508</v>
+      </c>
+      <c r="N109">
+        <v>4474</v>
+      </c>
+      <c r="O109">
+        <v>13184</v>
+      </c>
+      <c r="P109">
+        <v>4063</v>
+      </c>
+      <c r="Q109">
+        <v>2242</v>
+      </c>
+      <c r="R109">
+        <v>18488</v>
+      </c>
+      <c r="S109">
+        <v>2085</v>
+      </c>
+      <c r="T109">
+        <v>21601</v>
+      </c>
+      <c r="U109">
+        <v>3004</v>
+      </c>
+      <c r="V109">
+        <v>3695</v>
+      </c>
+      <c r="W109">
+        <v>3004</v>
+      </c>
+      <c r="X109">
+        <v>1706</v>
+      </c>
+      <c r="Y109">
+        <v>4678</v>
+      </c>
+      <c r="Z109">
+        <v>61183</v>
+      </c>
+      <c r="AA109">
+        <v>3135</v>
+      </c>
+      <c r="AB109">
+        <v>1279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10059,7 +10148,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19351,6 +19440,92 @@
       </c>
       <c r="AB108">
         <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109">
+        <v>59</v>
+      </c>
+      <c r="C109">
+        <v>199</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <v>1375</v>
+      </c>
+      <c r="F109">
+        <v>286</v>
+      </c>
+      <c r="G109">
+        <v>1614</v>
+      </c>
+      <c r="H109">
+        <v>56</v>
+      </c>
+      <c r="I109">
+        <v>271</v>
+      </c>
+      <c r="J109">
+        <v>69</v>
+      </c>
+      <c r="K109">
+        <v>524</v>
+      </c>
+      <c r="L109">
+        <v>27</v>
+      </c>
+      <c r="M109">
+        <v>15</v>
+      </c>
+      <c r="N109">
+        <v>150</v>
+      </c>
+      <c r="O109">
+        <v>1199</v>
+      </c>
+      <c r="P109">
+        <v>183</v>
+      </c>
+      <c r="Q109">
+        <v>123</v>
+      </c>
+      <c r="R109">
+        <v>1461</v>
+      </c>
+      <c r="S109">
+        <v>65</v>
+      </c>
+      <c r="T109">
+        <v>2614</v>
+      </c>
+      <c r="U109">
+        <v>136</v>
+      </c>
+      <c r="V109">
+        <v>132</v>
+      </c>
+      <c r="W109">
+        <v>136</v>
+      </c>
+      <c r="X109">
+        <v>49</v>
+      </c>
+      <c r="Y109">
+        <v>81</v>
+      </c>
+      <c r="Z109">
+        <v>4688</v>
+      </c>
+      <c r="AA109">
+        <v>53</v>
+      </c>
+      <c r="AB109">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -19368,10 +19543,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>Data</t>
   </si>
@@ -426,6 +426,9 @@
     <t>2020-05-16</t>
   </si>
   <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB109"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10141,6 +10144,92 @@
         <v>1279</v>
       </c>
     </row>
+    <row r="110" spans="1:28">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110">
+        <v>1997</v>
+      </c>
+      <c r="C110">
+        <v>3816</v>
+      </c>
+      <c r="D110">
+        <v>3952</v>
+      </c>
+      <c r="E110">
+        <v>20328</v>
+      </c>
+      <c r="F110">
+        <v>8443</v>
+      </c>
+      <c r="G110">
+        <v>24255</v>
+      </c>
+      <c r="H110">
+        <v>4368</v>
+      </c>
+      <c r="I110">
+        <v>6744</v>
+      </c>
+      <c r="J110">
+        <v>1692</v>
+      </c>
+      <c r="K110">
+        <v>12492</v>
+      </c>
+      <c r="L110">
+        <v>901</v>
+      </c>
+      <c r="M110">
+        <v>570</v>
+      </c>
+      <c r="N110">
+        <v>4611</v>
+      </c>
+      <c r="O110">
+        <v>13864</v>
+      </c>
+      <c r="P110">
+        <v>4347</v>
+      </c>
+      <c r="Q110">
+        <v>2286</v>
+      </c>
+      <c r="R110">
+        <v>19452</v>
+      </c>
+      <c r="S110">
+        <v>2252</v>
+      </c>
+      <c r="T110">
+        <v>22238</v>
+      </c>
+      <c r="U110">
+        <v>3137</v>
+      </c>
+      <c r="V110">
+        <v>3735</v>
+      </c>
+      <c r="W110">
+        <v>3137</v>
+      </c>
+      <c r="X110">
+        <v>1791</v>
+      </c>
+      <c r="Y110">
+        <v>4776</v>
+      </c>
+      <c r="Z110">
+        <v>62345</v>
+      </c>
+      <c r="AA110">
+        <v>3343</v>
+      </c>
+      <c r="AB110">
+        <v>1382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10148,7 +10237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB109"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19526,6 +19615,92 @@
       </c>
       <c r="AB109">
         <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110">
+        <v>60</v>
+      </c>
+      <c r="C110">
+        <v>210</v>
+      </c>
+      <c r="D110">
+        <v>119</v>
+      </c>
+      <c r="E110">
+        <v>1413</v>
+      </c>
+      <c r="F110">
+        <v>295</v>
+      </c>
+      <c r="G110">
+        <v>1641</v>
+      </c>
+      <c r="H110">
+        <v>59</v>
+      </c>
+      <c r="I110">
+        <v>285</v>
+      </c>
+      <c r="J110">
+        <v>70</v>
+      </c>
+      <c r="K110">
+        <v>549</v>
+      </c>
+      <c r="L110">
+        <v>27</v>
+      </c>
+      <c r="M110">
+        <v>15</v>
+      </c>
+      <c r="N110">
+        <v>156</v>
+      </c>
+      <c r="O110">
+        <v>1239</v>
+      </c>
+      <c r="P110">
+        <v>194</v>
+      </c>
+      <c r="Q110">
+        <v>124</v>
+      </c>
+      <c r="R110">
+        <v>1516</v>
+      </c>
+      <c r="S110">
+        <v>72</v>
+      </c>
+      <c r="T110">
+        <v>2715</v>
+      </c>
+      <c r="U110">
+        <v>139</v>
+      </c>
+      <c r="V110">
+        <v>142</v>
+      </c>
+      <c r="W110">
+        <v>139</v>
+      </c>
+      <c r="X110">
+        <v>51</v>
+      </c>
+      <c r="Y110">
+        <v>83</v>
+      </c>
+      <c r="Z110">
+        <v>4782</v>
+      </c>
+      <c r="AA110">
+        <v>57</v>
+      </c>
+      <c r="AB110">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -19543,10 +19718,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="140">
   <si>
     <t>Data</t>
   </si>
@@ -429,6 +429,9 @@
     <t>2020-05-17</t>
   </si>
   <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -764,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10230,6 +10233,92 @@
         <v>1382</v>
       </c>
     </row>
+    <row r="111" spans="1:28">
+      <c r="A111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111">
+        <v>2234</v>
+      </c>
+      <c r="C111">
+        <v>4031</v>
+      </c>
+      <c r="D111">
+        <v>4023</v>
+      </c>
+      <c r="E111">
+        <v>20913</v>
+      </c>
+      <c r="F111">
+        <v>8581</v>
+      </c>
+      <c r="G111">
+        <v>26363</v>
+      </c>
+      <c r="H111">
+        <v>4619</v>
+      </c>
+      <c r="I111">
+        <v>7157</v>
+      </c>
+      <c r="J111">
+        <v>1749</v>
+      </c>
+      <c r="K111">
+        <v>13238</v>
+      </c>
+      <c r="L111">
+        <v>937</v>
+      </c>
+      <c r="M111">
+        <v>613</v>
+      </c>
+      <c r="N111">
+        <v>4695</v>
+      </c>
+      <c r="O111">
+        <v>14734</v>
+      </c>
+      <c r="P111">
+        <v>4786</v>
+      </c>
+      <c r="Q111">
+        <v>2360</v>
+      </c>
+      <c r="R111">
+        <v>20094</v>
+      </c>
+      <c r="S111">
+        <v>2287</v>
+      </c>
+      <c r="T111">
+        <v>26665</v>
+      </c>
+      <c r="U111">
+        <v>3184</v>
+      </c>
+      <c r="V111">
+        <v>3735</v>
+      </c>
+      <c r="W111">
+        <v>3184</v>
+      </c>
+      <c r="X111">
+        <v>1876</v>
+      </c>
+      <c r="Y111">
+        <v>5175</v>
+      </c>
+      <c r="Z111">
+        <v>63066</v>
+      </c>
+      <c r="AA111">
+        <v>3566</v>
+      </c>
+      <c r="AB111">
+        <v>1496</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10237,7 +10326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19701,6 +19790,92 @@
       </c>
       <c r="AB110">
         <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111">
+        <v>67</v>
+      </c>
+      <c r="C111">
+        <v>221</v>
+      </c>
+      <c r="D111">
+        <v>127</v>
+      </c>
+      <c r="E111">
+        <v>1433</v>
+      </c>
+      <c r="F111">
+        <v>312</v>
+      </c>
+      <c r="G111">
+        <v>1748</v>
+      </c>
+      <c r="H111">
+        <v>66</v>
+      </c>
+      <c r="I111">
+        <v>302</v>
+      </c>
+      <c r="J111">
+        <v>73</v>
+      </c>
+      <c r="K111">
+        <v>576</v>
+      </c>
+      <c r="L111">
+        <v>29</v>
+      </c>
+      <c r="M111">
+        <v>16</v>
+      </c>
+      <c r="N111">
+        <v>161</v>
+      </c>
+      <c r="O111">
+        <v>1329</v>
+      </c>
+      <c r="P111">
+        <v>207</v>
+      </c>
+      <c r="Q111">
+        <v>127</v>
+      </c>
+      <c r="R111">
+        <v>1640</v>
+      </c>
+      <c r="S111">
+        <v>80</v>
+      </c>
+      <c r="T111">
+        <v>2852</v>
+      </c>
+      <c r="U111">
+        <v>146</v>
+      </c>
+      <c r="V111">
+        <v>144</v>
+      </c>
+      <c r="W111">
+        <v>146</v>
+      </c>
+      <c r="X111">
+        <v>60</v>
+      </c>
+      <c r="Y111">
+        <v>85</v>
+      </c>
+      <c r="Z111">
+        <v>4823</v>
+      </c>
+      <c r="AA111">
+        <v>59</v>
+      </c>
+      <c r="AB111">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -19718,10 +19893,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
   <si>
     <t>Data</t>
   </si>
@@ -432,6 +432,9 @@
     <t>2020-05-18</t>
   </si>
   <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -767,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10319,6 +10322,92 @@
         <v>1496</v>
       </c>
     </row>
+    <row r="112" spans="1:28">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112">
+        <v>2482</v>
+      </c>
+      <c r="C112">
+        <v>4316</v>
+      </c>
+      <c r="D112">
+        <v>4310</v>
+      </c>
+      <c r="E112">
+        <v>22132</v>
+      </c>
+      <c r="F112">
+        <v>11013</v>
+      </c>
+      <c r="G112">
+        <v>28112</v>
+      </c>
+      <c r="H112">
+        <v>4853</v>
+      </c>
+      <c r="I112">
+        <v>7693</v>
+      </c>
+      <c r="J112">
+        <v>1846</v>
+      </c>
+      <c r="K112">
+        <v>14198</v>
+      </c>
+      <c r="L112">
+        <v>995</v>
+      </c>
+      <c r="M112">
+        <v>642</v>
+      </c>
+      <c r="N112">
+        <v>4977</v>
+      </c>
+      <c r="O112">
+        <v>16295</v>
+      </c>
+      <c r="P112">
+        <v>5300</v>
+      </c>
+      <c r="Q112">
+        <v>2481</v>
+      </c>
+      <c r="R112">
+        <v>21242</v>
+      </c>
+      <c r="S112">
+        <v>2440</v>
+      </c>
+      <c r="T112">
+        <v>27805</v>
+      </c>
+      <c r="U112">
+        <v>3483</v>
+      </c>
+      <c r="V112">
+        <v>3750</v>
+      </c>
+      <c r="W112">
+        <v>3483</v>
+      </c>
+      <c r="X112">
+        <v>1985</v>
+      </c>
+      <c r="Y112">
+        <v>5413</v>
+      </c>
+      <c r="Z112">
+        <v>65995</v>
+      </c>
+      <c r="AA112">
+        <v>3967</v>
+      </c>
+      <c r="AB112">
+        <v>1646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10326,7 +10415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19876,6 +19965,92 @@
       </c>
       <c r="AB111">
         <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112">
+        <v>72</v>
+      </c>
+      <c r="C112">
+        <v>231</v>
+      </c>
+      <c r="D112">
+        <v>136</v>
+      </c>
+      <c r="E112">
+        <v>1491</v>
+      </c>
+      <c r="F112">
+        <v>326</v>
+      </c>
+      <c r="G112">
+        <v>1856</v>
+      </c>
+      <c r="H112">
+        <v>72</v>
+      </c>
+      <c r="I112">
+        <v>325</v>
+      </c>
+      <c r="J112">
+        <v>73</v>
+      </c>
+      <c r="K112">
+        <v>604</v>
+      </c>
+      <c r="L112">
+        <v>32</v>
+      </c>
+      <c r="M112">
+        <v>16</v>
+      </c>
+      <c r="N112">
+        <v>167</v>
+      </c>
+      <c r="O112">
+        <v>1519</v>
+      </c>
+      <c r="P112">
+        <v>219</v>
+      </c>
+      <c r="Q112">
+        <v>129</v>
+      </c>
+      <c r="R112">
+        <v>1741</v>
+      </c>
+      <c r="S112">
+        <v>85</v>
+      </c>
+      <c r="T112">
+        <v>3079</v>
+      </c>
+      <c r="U112">
+        <v>160</v>
+      </c>
+      <c r="V112">
+        <v>151</v>
+      </c>
+      <c r="W112">
+        <v>160</v>
+      </c>
+      <c r="X112">
+        <v>61</v>
+      </c>
+      <c r="Y112">
+        <v>91</v>
+      </c>
+      <c r="Z112">
+        <v>5147</v>
+      </c>
+      <c r="AA112">
+        <v>63</v>
+      </c>
+      <c r="AB112">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -19893,10 +20068,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="142">
   <si>
     <t>Data</t>
   </si>
@@ -435,6 +435,9 @@
     <t>2020-05-19</t>
   </si>
   <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10408,6 +10411,92 @@
         <v>1646</v>
       </c>
     </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113">
+        <v>2817</v>
+      </c>
+      <c r="C113">
+        <v>4437</v>
+      </c>
+      <c r="D113">
+        <v>4549</v>
+      </c>
+      <c r="E113">
+        <v>23704</v>
+      </c>
+      <c r="F113">
+        <v>11197</v>
+      </c>
+      <c r="G113">
+        <v>30560</v>
+      </c>
+      <c r="H113">
+        <v>5161</v>
+      </c>
+      <c r="I113">
+        <v>8092</v>
+      </c>
+      <c r="J113">
+        <v>1978</v>
+      </c>
+      <c r="K113">
+        <v>15114</v>
+      </c>
+      <c r="L113">
+        <v>1054</v>
+      </c>
+      <c r="M113">
+        <v>693</v>
+      </c>
+      <c r="N113">
+        <v>5286</v>
+      </c>
+      <c r="O113">
+        <v>18135</v>
+      </c>
+      <c r="P113">
+        <v>5838</v>
+      </c>
+      <c r="Q113">
+        <v>2616</v>
+      </c>
+      <c r="R113">
+        <v>22560</v>
+      </c>
+      <c r="S113">
+        <v>2637</v>
+      </c>
+      <c r="T113">
+        <v>30372</v>
+      </c>
+      <c r="U113">
+        <v>3796</v>
+      </c>
+      <c r="V113">
+        <v>4973</v>
+      </c>
+      <c r="W113">
+        <v>3796</v>
+      </c>
+      <c r="X113">
+        <v>2067</v>
+      </c>
+      <c r="Y113">
+        <v>5499</v>
+      </c>
+      <c r="Z113">
+        <v>69859</v>
+      </c>
+      <c r="AA113">
+        <v>4277</v>
+      </c>
+      <c r="AB113">
+        <v>1809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10415,7 +10504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20051,6 +20140,92 @@
       </c>
       <c r="AB112">
         <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113">
+        <v>76</v>
+      </c>
+      <c r="C113">
+        <v>251</v>
+      </c>
+      <c r="D113">
+        <v>142</v>
+      </c>
+      <c r="E113">
+        <v>1561</v>
+      </c>
+      <c r="F113">
+        <v>362</v>
+      </c>
+      <c r="G113">
+        <v>1900</v>
+      </c>
+      <c r="H113">
+        <v>77</v>
+      </c>
+      <c r="I113">
+        <v>341</v>
+      </c>
+      <c r="J113">
+        <v>78</v>
+      </c>
+      <c r="K113">
+        <v>634</v>
+      </c>
+      <c r="L113">
+        <v>32</v>
+      </c>
+      <c r="M113">
+        <v>17</v>
+      </c>
+      <c r="N113">
+        <v>177</v>
+      </c>
+      <c r="O113">
+        <v>1633</v>
+      </c>
+      <c r="P113">
+        <v>230</v>
+      </c>
+      <c r="Q113">
+        <v>137</v>
+      </c>
+      <c r="R113">
+        <v>1834</v>
+      </c>
+      <c r="S113">
+        <v>87</v>
+      </c>
+      <c r="T113">
+        <v>3237</v>
+      </c>
+      <c r="U113">
+        <v>170</v>
+      </c>
+      <c r="V113">
+        <v>161</v>
+      </c>
+      <c r="W113">
+        <v>170</v>
+      </c>
+      <c r="X113">
+        <v>64</v>
+      </c>
+      <c r="Y113">
+        <v>94</v>
+      </c>
+      <c r="Z113">
+        <v>5363</v>
+      </c>
+      <c r="AA113">
+        <v>69</v>
+      </c>
+      <c r="AB113">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -20068,10 +20243,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
   <si>
     <t>Data</t>
   </si>
@@ -438,6 +438,9 @@
     <t>2020-05-20</t>
   </si>
   <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10497,6 +10500,92 @@
         <v>1809</v>
       </c>
     </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114">
+        <v>3103</v>
+      </c>
+      <c r="C114">
+        <v>4916</v>
+      </c>
+      <c r="D114">
+        <v>5188</v>
+      </c>
+      <c r="E114">
+        <v>25367</v>
+      </c>
+      <c r="F114">
+        <v>11941</v>
+      </c>
+      <c r="G114">
+        <v>31413</v>
+      </c>
+      <c r="H114">
+        <v>5542</v>
+      </c>
+      <c r="I114">
+        <v>8878</v>
+      </c>
+      <c r="J114">
+        <v>2114</v>
+      </c>
+      <c r="K114">
+        <v>16058</v>
+      </c>
+      <c r="L114">
+        <v>1172</v>
+      </c>
+      <c r="M114">
+        <v>746</v>
+      </c>
+      <c r="N114">
+        <v>5596</v>
+      </c>
+      <c r="O114">
+        <v>19756</v>
+      </c>
+      <c r="P114">
+        <v>6238</v>
+      </c>
+      <c r="Q114">
+        <v>2810</v>
+      </c>
+      <c r="R114">
+        <v>23911</v>
+      </c>
+      <c r="S114">
+        <v>2852</v>
+      </c>
+      <c r="T114">
+        <v>32089</v>
+      </c>
+      <c r="U114">
+        <v>4060</v>
+      </c>
+      <c r="V114">
+        <v>5473</v>
+      </c>
+      <c r="W114">
+        <v>4060</v>
+      </c>
+      <c r="X114">
+        <v>2146</v>
+      </c>
+      <c r="Y114">
+        <v>5610</v>
+      </c>
+      <c r="Z114">
+        <v>73739</v>
+      </c>
+      <c r="AA114">
+        <v>4734</v>
+      </c>
+      <c r="AB114">
+        <v>1976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10504,7 +10593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20226,6 +20315,92 @@
       </c>
       <c r="AB113">
         <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114">
+        <v>78</v>
+      </c>
+      <c r="C114">
+        <v>262</v>
+      </c>
+      <c r="D114">
+        <v>151</v>
+      </c>
+      <c r="E114">
+        <v>1620</v>
+      </c>
+      <c r="F114">
+        <v>376</v>
+      </c>
+      <c r="G114">
+        <v>2161</v>
+      </c>
+      <c r="H114">
+        <v>84</v>
+      </c>
+      <c r="I114">
+        <v>363</v>
+      </c>
+      <c r="J114">
+        <v>85</v>
+      </c>
+      <c r="K114">
+        <v>663</v>
+      </c>
+      <c r="L114">
+        <v>34</v>
+      </c>
+      <c r="M114">
+        <v>17</v>
+      </c>
+      <c r="N114">
+        <v>191</v>
+      </c>
+      <c r="O114">
+        <v>1852</v>
+      </c>
+      <c r="P114">
+        <v>245</v>
+      </c>
+      <c r="Q114">
+        <v>141</v>
+      </c>
+      <c r="R114">
+        <v>1925</v>
+      </c>
+      <c r="S114">
+        <v>91</v>
+      </c>
+      <c r="T114">
+        <v>3412</v>
+      </c>
+      <c r="U114">
+        <v>178</v>
+      </c>
+      <c r="V114">
+        <v>166</v>
+      </c>
+      <c r="W114">
+        <v>178</v>
+      </c>
+      <c r="X114">
+        <v>72</v>
+      </c>
+      <c r="Y114">
+        <v>98</v>
+      </c>
+      <c r="Z114">
+        <v>5558</v>
+      </c>
+      <c r="AA114">
+        <v>76</v>
+      </c>
+      <c r="AB114">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -20243,10 +20418,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="144">
   <si>
     <t>Data</t>
   </si>
@@ -441,6 +441,9 @@
     <t>2020-05-21</t>
   </si>
   <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10586,6 +10589,92 @@
         <v>1976</v>
       </c>
     </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115">
+        <v>3343</v>
+      </c>
+      <c r="C115">
+        <v>5302</v>
+      </c>
+      <c r="D115">
+        <v>5655</v>
+      </c>
+      <c r="E115">
+        <v>27038</v>
+      </c>
+      <c r="F115">
+        <v>12557</v>
+      </c>
+      <c r="G115">
+        <v>34573</v>
+      </c>
+      <c r="H115">
+        <v>5948</v>
+      </c>
+      <c r="I115">
+        <v>9520</v>
+      </c>
+      <c r="J115">
+        <v>2304</v>
+      </c>
+      <c r="K115">
+        <v>17212</v>
+      </c>
+      <c r="L115">
+        <v>1220</v>
+      </c>
+      <c r="M115">
+        <v>805</v>
+      </c>
+      <c r="N115">
+        <v>5995</v>
+      </c>
+      <c r="O115">
+        <v>21469</v>
+      </c>
+      <c r="P115">
+        <v>6882</v>
+      </c>
+      <c r="Q115">
+        <v>2939</v>
+      </c>
+      <c r="R115">
+        <v>25760</v>
+      </c>
+      <c r="S115">
+        <v>3074</v>
+      </c>
+      <c r="T115">
+        <v>33589</v>
+      </c>
+      <c r="U115">
+        <v>4251</v>
+      </c>
+      <c r="V115">
+        <v>5918</v>
+      </c>
+      <c r="W115">
+        <v>4251</v>
+      </c>
+      <c r="X115">
+        <v>2306</v>
+      </c>
+      <c r="Y115">
+        <v>6458</v>
+      </c>
+      <c r="Z115">
+        <v>76871</v>
+      </c>
+      <c r="AA115">
+        <v>4922</v>
+      </c>
+      <c r="AB115">
+        <v>2205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10593,7 +10682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20401,6 +20490,92 @@
       </c>
       <c r="AB114">
         <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115">
+        <v>80</v>
+      </c>
+      <c r="C115">
+        <v>280</v>
+      </c>
+      <c r="D115">
+        <v>157</v>
+      </c>
+      <c r="E115">
+        <v>1669</v>
+      </c>
+      <c r="F115">
+        <v>399</v>
+      </c>
+      <c r="G115">
+        <v>2251</v>
+      </c>
+      <c r="H115">
+        <v>90</v>
+      </c>
+      <c r="I115">
+        <v>397</v>
+      </c>
+      <c r="J115">
+        <v>93</v>
+      </c>
+      <c r="K115">
+        <v>693</v>
+      </c>
+      <c r="L115">
+        <v>37</v>
+      </c>
+      <c r="M115">
+        <v>17</v>
+      </c>
+      <c r="N115">
+        <v>201</v>
+      </c>
+      <c r="O115">
+        <v>1937</v>
+      </c>
+      <c r="P115">
+        <v>248</v>
+      </c>
+      <c r="Q115">
+        <v>146</v>
+      </c>
+      <c r="R115">
+        <v>2057</v>
+      </c>
+      <c r="S115">
+        <v>93</v>
+      </c>
+      <c r="T115">
+        <v>3657</v>
+      </c>
+      <c r="U115">
+        <v>181</v>
+      </c>
+      <c r="V115">
+        <v>172</v>
+      </c>
+      <c r="W115">
+        <v>181</v>
+      </c>
+      <c r="X115">
+        <v>83</v>
+      </c>
+      <c r="Y115">
+        <v>100</v>
+      </c>
+      <c r="Z115">
+        <v>5773</v>
+      </c>
+      <c r="AA115">
+        <v>82</v>
+      </c>
+      <c r="AB115">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -20418,10 +20593,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="145">
   <si>
     <t>Data</t>
   </si>
@@ -444,6 +444,9 @@
     <t>2020-05-22</t>
   </si>
   <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10675,6 +10678,92 @@
         <v>2205</v>
       </c>
     </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116">
+        <v>3867</v>
+      </c>
+      <c r="C116">
+        <v>5630</v>
+      </c>
+      <c r="D116">
+        <v>6091</v>
+      </c>
+      <c r="E116">
+        <v>28802</v>
+      </c>
+      <c r="F116">
+        <v>13000</v>
+      </c>
+      <c r="G116">
+        <v>35122</v>
+      </c>
+      <c r="H116">
+        <v>6251</v>
+      </c>
+      <c r="I116">
+        <v>9918</v>
+      </c>
+      <c r="J116">
+        <v>2377</v>
+      </c>
+      <c r="K116">
+        <v>18767</v>
+      </c>
+      <c r="L116">
+        <v>1352</v>
+      </c>
+      <c r="M116">
+        <v>858</v>
+      </c>
+      <c r="N116">
+        <v>6338</v>
+      </c>
+      <c r="O116">
+        <v>22697</v>
+      </c>
+      <c r="P116">
+        <v>7508</v>
+      </c>
+      <c r="Q116">
+        <v>3099</v>
+      </c>
+      <c r="R116">
+        <v>26786</v>
+      </c>
+      <c r="S116">
+        <v>3258</v>
+      </c>
+      <c r="T116">
+        <v>34533</v>
+      </c>
+      <c r="U116">
+        <v>4599</v>
+      </c>
+      <c r="V116">
+        <v>6336</v>
+      </c>
+      <c r="W116">
+        <v>4599</v>
+      </c>
+      <c r="X116">
+        <v>2374</v>
+      </c>
+      <c r="Y116">
+        <v>6607</v>
+      </c>
+      <c r="Z116">
+        <v>80558</v>
+      </c>
+      <c r="AA116">
+        <v>5131</v>
+      </c>
+      <c r="AB116">
+        <v>2430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10682,7 +10771,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20576,6 +20665,92 @@
       </c>
       <c r="AB115">
         <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116">
+        <v>87</v>
+      </c>
+      <c r="C116">
+        <v>301</v>
+      </c>
+      <c r="D116">
+        <v>162</v>
+      </c>
+      <c r="E116">
+        <v>1744</v>
+      </c>
+      <c r="F116">
+        <v>413</v>
+      </c>
+      <c r="G116">
+        <v>2308</v>
+      </c>
+      <c r="H116">
+        <v>95</v>
+      </c>
+      <c r="I116">
+        <v>417</v>
+      </c>
+      <c r="J116">
+        <v>95</v>
+      </c>
+      <c r="K116">
+        <v>722</v>
+      </c>
+      <c r="L116">
+        <v>37</v>
+      </c>
+      <c r="M116">
+        <v>17</v>
+      </c>
+      <c r="N116">
+        <v>217</v>
+      </c>
+      <c r="O116">
+        <v>2001</v>
+      </c>
+      <c r="P116">
+        <v>258</v>
+      </c>
+      <c r="Q116">
+        <v>150</v>
+      </c>
+      <c r="R116">
+        <v>2144</v>
+      </c>
+      <c r="S116">
+        <v>99</v>
+      </c>
+      <c r="T116">
+        <v>3905</v>
+      </c>
+      <c r="U116">
+        <v>184</v>
+      </c>
+      <c r="V116">
+        <v>176</v>
+      </c>
+      <c r="W116">
+        <v>184</v>
+      </c>
+      <c r="X116">
+        <v>81</v>
+      </c>
+      <c r="Y116">
+        <v>103</v>
+      </c>
+      <c r="Z116">
+        <v>6045</v>
+      </c>
+      <c r="AA116">
+        <v>86</v>
+      </c>
+      <c r="AB116">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -20593,10 +20768,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="146">
   <si>
     <t>Data</t>
   </si>
@@ -447,6 +447,9 @@
     <t>2020-05-23</t>
   </si>
   <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -782,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10764,6 +10767,92 @@
         <v>2430</v>
       </c>
     </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117">
+        <v>4160</v>
+      </c>
+      <c r="C117">
+        <v>6214</v>
+      </c>
+      <c r="D117">
+        <v>6353</v>
+      </c>
+      <c r="E117">
+        <v>29867</v>
+      </c>
+      <c r="F117">
+        <v>13899</v>
+      </c>
+      <c r="G117">
+        <v>35595</v>
+      </c>
+      <c r="H117">
+        <v>6638</v>
+      </c>
+      <c r="I117">
+        <v>10007</v>
+      </c>
+      <c r="J117">
+        <v>2443</v>
+      </c>
+      <c r="K117">
+        <v>21191</v>
+      </c>
+      <c r="L117">
+        <v>1462</v>
+      </c>
+      <c r="M117">
+        <v>924</v>
+      </c>
+      <c r="N117">
+        <v>6668</v>
+      </c>
+      <c r="O117">
+        <v>24125</v>
+      </c>
+      <c r="P117">
+        <v>7823</v>
+      </c>
+      <c r="Q117">
+        <v>3212</v>
+      </c>
+      <c r="R117">
+        <v>27759</v>
+      </c>
+      <c r="S117">
+        <v>3390</v>
+      </c>
+      <c r="T117">
+        <v>37912</v>
+      </c>
+      <c r="U117">
+        <v>4697</v>
+      </c>
+      <c r="V117">
+        <v>6470</v>
+      </c>
+      <c r="W117">
+        <v>4697</v>
+      </c>
+      <c r="X117">
+        <v>2439</v>
+      </c>
+      <c r="Y117">
+        <v>6696</v>
+      </c>
+      <c r="Z117">
+        <v>82161</v>
+      </c>
+      <c r="AA117">
+        <v>5314</v>
+      </c>
+      <c r="AB117">
+        <v>2591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10771,7 +10860,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20751,6 +20840,92 @@
       </c>
       <c r="AB116">
         <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117">
+        <v>92</v>
+      </c>
+      <c r="C117">
+        <v>316</v>
+      </c>
+      <c r="D117">
+        <v>163</v>
+      </c>
+      <c r="E117">
+        <v>1758</v>
+      </c>
+      <c r="F117">
+        <v>460</v>
+      </c>
+      <c r="G117">
+        <v>2324</v>
+      </c>
+      <c r="H117">
+        <v>104</v>
+      </c>
+      <c r="I117">
+        <v>446</v>
+      </c>
+      <c r="J117">
+        <v>95</v>
+      </c>
+      <c r="K117">
+        <v>754</v>
+      </c>
+      <c r="L117">
+        <v>40</v>
+      </c>
+      <c r="M117">
+        <v>17</v>
+      </c>
+      <c r="N117">
+        <v>226</v>
+      </c>
+      <c r="O117">
+        <v>2148</v>
+      </c>
+      <c r="P117">
+        <v>272</v>
+      </c>
+      <c r="Q117">
+        <v>153</v>
+      </c>
+      <c r="R117">
+        <v>2200</v>
+      </c>
+      <c r="S117">
+        <v>107</v>
+      </c>
+      <c r="T117">
+        <v>3993</v>
+      </c>
+      <c r="U117">
+        <v>200</v>
+      </c>
+      <c r="V117">
+        <v>180</v>
+      </c>
+      <c r="W117">
+        <v>200</v>
+      </c>
+      <c r="X117">
+        <v>84</v>
+      </c>
+      <c r="Y117">
+        <v>105</v>
+      </c>
+      <c r="Z117">
+        <v>6163</v>
+      </c>
+      <c r="AA117">
+        <v>93</v>
+      </c>
+      <c r="AB117">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -20768,10 +20943,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
   <si>
     <t>Data</t>
   </si>
@@ -450,6 +450,12 @@
     <t>2020-05-24</t>
   </si>
   <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -785,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10853,6 +10859,178 @@
         <v>2591</v>
       </c>
     </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118">
+        <v>4501</v>
+      </c>
+      <c r="C118">
+        <v>6682</v>
+      </c>
+      <c r="D118">
+        <v>6584</v>
+      </c>
+      <c r="E118">
+        <v>30282</v>
+      </c>
+      <c r="F118">
+        <v>14204</v>
+      </c>
+      <c r="G118">
+        <v>36185</v>
+      </c>
+      <c r="H118">
+        <v>6930</v>
+      </c>
+      <c r="I118">
+        <v>10365</v>
+      </c>
+      <c r="J118">
+        <v>2512</v>
+      </c>
+      <c r="K118">
+        <v>22786</v>
+      </c>
+      <c r="L118">
+        <v>1500</v>
+      </c>
+      <c r="M118">
+        <v>1023</v>
+      </c>
+      <c r="N118">
+        <v>6962</v>
+      </c>
+      <c r="O118">
+        <v>26077</v>
+      </c>
+      <c r="P118">
+        <v>8016</v>
+      </c>
+      <c r="Q118">
+        <v>3331</v>
+      </c>
+      <c r="R118">
+        <v>28366</v>
+      </c>
+      <c r="S118">
+        <v>3550</v>
+      </c>
+      <c r="T118">
+        <v>39298</v>
+      </c>
+      <c r="U118">
+        <v>4759</v>
+      </c>
+      <c r="V118">
+        <v>6559</v>
+      </c>
+      <c r="W118">
+        <v>4759</v>
+      </c>
+      <c r="X118">
+        <v>2514</v>
+      </c>
+      <c r="Y118">
+        <v>6875</v>
+      </c>
+      <c r="Z118">
+        <v>83625</v>
+      </c>
+      <c r="AA118">
+        <v>5448</v>
+      </c>
+      <c r="AB118">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119">
+        <v>4781</v>
+      </c>
+      <c r="C119">
+        <v>7058</v>
+      </c>
+      <c r="D119">
+        <v>6967</v>
+      </c>
+      <c r="E119">
+        <v>31949</v>
+      </c>
+      <c r="F119">
+        <v>14566</v>
+      </c>
+      <c r="G119">
+        <v>37021</v>
+      </c>
+      <c r="H119">
+        <v>7210</v>
+      </c>
+      <c r="I119">
+        <v>10889</v>
+      </c>
+      <c r="J119">
+        <v>2671</v>
+      </c>
+      <c r="K119">
+        <v>24278</v>
+      </c>
+      <c r="L119">
+        <v>1628</v>
+      </c>
+      <c r="M119">
+        <v>1100</v>
+      </c>
+      <c r="N119">
+        <v>7516</v>
+      </c>
+      <c r="O119">
+        <v>28600</v>
+      </c>
+      <c r="P119">
+        <v>8919</v>
+      </c>
+      <c r="Q119">
+        <v>3512</v>
+      </c>
+      <c r="R119">
+        <v>28854</v>
+      </c>
+      <c r="S119">
+        <v>3720</v>
+      </c>
+      <c r="T119">
+        <v>40024</v>
+      </c>
+      <c r="U119">
+        <v>5472</v>
+      </c>
+      <c r="V119">
+        <v>6785</v>
+      </c>
+      <c r="W119">
+        <v>5472</v>
+      </c>
+      <c r="X119">
+        <v>2583</v>
+      </c>
+      <c r="Y119">
+        <v>7016</v>
+      </c>
+      <c r="Z119">
+        <v>86017</v>
+      </c>
+      <c r="AA119">
+        <v>5735</v>
+      </c>
+      <c r="AB119">
+        <v>2858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10860,7 +11038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20926,6 +21104,178 @@
       </c>
       <c r="AB117">
         <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118">
+        <v>97</v>
+      </c>
+      <c r="C118">
+        <v>337</v>
+      </c>
+      <c r="D118">
+        <v>168</v>
+      </c>
+      <c r="E118">
+        <v>1781</v>
+      </c>
+      <c r="F118">
+        <v>477</v>
+      </c>
+      <c r="G118">
+        <v>2493</v>
+      </c>
+      <c r="H118">
+        <v>114</v>
+      </c>
+      <c r="I118">
+        <v>465</v>
+      </c>
+      <c r="J118">
+        <v>96</v>
+      </c>
+      <c r="K118">
+        <v>784</v>
+      </c>
+      <c r="L118">
+        <v>41</v>
+      </c>
+      <c r="M118">
+        <v>17</v>
+      </c>
+      <c r="N118">
+        <v>230</v>
+      </c>
+      <c r="O118">
+        <v>2372</v>
+      </c>
+      <c r="P118">
+        <v>279</v>
+      </c>
+      <c r="Q118">
+        <v>156</v>
+      </c>
+      <c r="R118">
+        <v>2248</v>
+      </c>
+      <c r="S118">
+        <v>110</v>
+      </c>
+      <c r="T118">
+        <v>4105</v>
+      </c>
+      <c r="U118">
+        <v>209</v>
+      </c>
+      <c r="V118">
+        <v>197</v>
+      </c>
+      <c r="W118">
+        <v>209</v>
+      </c>
+      <c r="X118">
+        <v>86</v>
+      </c>
+      <c r="Y118">
+        <v>109</v>
+      </c>
+      <c r="Z118">
+        <v>6220</v>
+      </c>
+      <c r="AA118">
+        <v>103</v>
+      </c>
+      <c r="AB118">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119">
+        <v>105</v>
+      </c>
+      <c r="C119">
+        <v>354</v>
+      </c>
+      <c r="D119">
+        <v>173</v>
+      </c>
+      <c r="E119">
+        <v>1852</v>
+      </c>
+      <c r="F119">
+        <v>495</v>
+      </c>
+      <c r="G119">
+        <v>2603</v>
+      </c>
+      <c r="H119">
+        <v>124</v>
+      </c>
+      <c r="I119">
+        <v>487</v>
+      </c>
+      <c r="J119">
+        <v>104</v>
+      </c>
+      <c r="K119">
+        <v>817</v>
+      </c>
+      <c r="L119">
+        <v>43</v>
+      </c>
+      <c r="M119">
+        <v>17</v>
+      </c>
+      <c r="N119">
+        <v>234</v>
+      </c>
+      <c r="O119">
+        <v>2469</v>
+      </c>
+      <c r="P119">
+        <v>286</v>
+      </c>
+      <c r="Q119">
+        <v>159</v>
+      </c>
+      <c r="R119">
+        <v>2328</v>
+      </c>
+      <c r="S119">
+        <v>119</v>
+      </c>
+      <c r="T119">
+        <v>4361</v>
+      </c>
+      <c r="U119">
+        <v>220</v>
+      </c>
+      <c r="V119">
+        <v>203</v>
+      </c>
+      <c r="W119">
+        <v>220</v>
+      </c>
+      <c r="X119">
+        <v>102</v>
+      </c>
+      <c r="Y119">
+        <v>121</v>
+      </c>
+      <c r="Z119">
+        <v>6423</v>
+      </c>
+      <c r="AA119">
+        <v>116</v>
+      </c>
+      <c r="AB119">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -20943,10 +21293,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="149">
   <si>
     <t>Data</t>
   </si>
@@ -456,6 +456,9 @@
     <t>2020-05-26</t>
   </si>
   <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11031,6 +11034,92 @@
         <v>2858</v>
       </c>
     </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120">
+        <v>5251</v>
+      </c>
+      <c r="C120">
+        <v>7580</v>
+      </c>
+      <c r="D120">
+        <v>7619</v>
+      </c>
+      <c r="E120">
+        <v>33508</v>
+      </c>
+      <c r="F120">
+        <v>15070</v>
+      </c>
+      <c r="G120">
+        <v>37275</v>
+      </c>
+      <c r="H120">
+        <v>7761</v>
+      </c>
+      <c r="I120">
+        <v>11484</v>
+      </c>
+      <c r="J120">
+        <v>2843</v>
+      </c>
+      <c r="K120">
+        <v>26145</v>
+      </c>
+      <c r="L120">
+        <v>1839</v>
+      </c>
+      <c r="M120">
+        <v>1186</v>
+      </c>
+      <c r="N120">
+        <v>8011</v>
+      </c>
+      <c r="O120">
+        <v>31033</v>
+      </c>
+      <c r="P120">
+        <v>10209</v>
+      </c>
+      <c r="Q120">
+        <v>3712</v>
+      </c>
+      <c r="R120">
+        <v>29919</v>
+      </c>
+      <c r="S120">
+        <v>3966</v>
+      </c>
+      <c r="T120">
+        <v>42398</v>
+      </c>
+      <c r="U120">
+        <v>5630</v>
+      </c>
+      <c r="V120">
+        <v>7048</v>
+      </c>
+      <c r="W120">
+        <v>5630</v>
+      </c>
+      <c r="X120">
+        <v>2682</v>
+      </c>
+      <c r="Y120">
+        <v>7372</v>
+      </c>
+      <c r="Z120">
+        <v>89483</v>
+      </c>
+      <c r="AA120">
+        <v>5912</v>
+      </c>
+      <c r="AB120">
+        <v>3023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11038,7 +11127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21276,6 +21365,92 @@
       </c>
       <c r="AB119">
         <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120">
+        <v>113</v>
+      </c>
+      <c r="C120">
+        <v>368</v>
+      </c>
+      <c r="D120">
+        <v>183</v>
+      </c>
+      <c r="E120">
+        <v>1891</v>
+      </c>
+      <c r="F120">
+        <v>531</v>
+      </c>
+      <c r="G120">
+        <v>2671</v>
+      </c>
+      <c r="H120">
+        <v>133</v>
+      </c>
+      <c r="I120">
+        <v>511</v>
+      </c>
+      <c r="J120">
+        <v>108</v>
+      </c>
+      <c r="K120">
+        <v>853</v>
+      </c>
+      <c r="L120">
+        <v>46</v>
+      </c>
+      <c r="M120">
+        <v>18</v>
+      </c>
+      <c r="N120">
+        <v>240</v>
+      </c>
+      <c r="O120">
+        <v>2545</v>
+      </c>
+      <c r="P120">
+        <v>298</v>
+      </c>
+      <c r="Q120">
+        <v>162</v>
+      </c>
+      <c r="R120">
+        <v>2468</v>
+      </c>
+      <c r="S120">
+        <v>134</v>
+      </c>
+      <c r="T120">
+        <v>4605</v>
+      </c>
+      <c r="U120">
+        <v>242</v>
+      </c>
+      <c r="V120">
+        <v>209</v>
+      </c>
+      <c r="W120">
+        <v>242</v>
+      </c>
+      <c r="X120">
+        <v>102</v>
+      </c>
+      <c r="Y120">
+        <v>126</v>
+      </c>
+      <c r="Z120">
+        <v>6712</v>
+      </c>
+      <c r="AA120">
+        <v>127</v>
+      </c>
+      <c r="AB120">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -21293,10 +21468,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t>Data</t>
   </si>
@@ -459,6 +459,9 @@
     <t>2020-05-27</t>
   </si>
   <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -794,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11120,6 +11123,92 @@
         <v>3023</v>
       </c>
     </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>5600</v>
+      </c>
+      <c r="C121">
+        <v>8055</v>
+      </c>
+      <c r="D121">
+        <v>8152</v>
+      </c>
+      <c r="E121">
+        <v>36146</v>
+      </c>
+      <c r="F121">
+        <v>15963</v>
+      </c>
+      <c r="G121">
+        <v>37821</v>
+      </c>
+      <c r="H121">
+        <v>8300</v>
+      </c>
+      <c r="I121">
+        <v>12203</v>
+      </c>
+      <c r="J121">
+        <v>3090</v>
+      </c>
+      <c r="K121">
+        <v>27979</v>
+      </c>
+      <c r="L121">
+        <v>1951</v>
+      </c>
+      <c r="M121">
+        <v>1262</v>
+      </c>
+      <c r="N121">
+        <v>8686</v>
+      </c>
+      <c r="O121">
+        <v>33699</v>
+      </c>
+      <c r="P121">
+        <v>11132</v>
+      </c>
+      <c r="Q121">
+        <v>3984</v>
+      </c>
+      <c r="R121">
+        <v>30713</v>
+      </c>
+      <c r="S121">
+        <v>4243</v>
+      </c>
+      <c r="T121">
+        <v>44886</v>
+      </c>
+      <c r="U121">
+        <v>5630</v>
+      </c>
+      <c r="V121">
+        <v>8234</v>
+      </c>
+      <c r="W121">
+        <v>5630</v>
+      </c>
+      <c r="X121">
+        <v>2959</v>
+      </c>
+      <c r="Y121">
+        <v>8000</v>
+      </c>
+      <c r="Z121">
+        <v>95865</v>
+      </c>
+      <c r="AA121">
+        <v>6156</v>
+      </c>
+      <c r="AB121">
+        <v>3277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11127,7 +11216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21451,6 +21540,92 @@
       </c>
       <c r="AB120">
         <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>385</v>
+      </c>
+      <c r="D121">
+        <v>198</v>
+      </c>
+      <c r="E121">
+        <v>1964</v>
+      </c>
+      <c r="F121">
+        <v>570</v>
+      </c>
+      <c r="G121">
+        <v>2733</v>
+      </c>
+      <c r="H121">
+        <v>142</v>
+      </c>
+      <c r="I121">
+        <v>538</v>
+      </c>
+      <c r="J121">
+        <v>115</v>
+      </c>
+      <c r="K121">
+        <v>887</v>
+      </c>
+      <c r="L121">
+        <v>51</v>
+      </c>
+      <c r="M121">
+        <v>18</v>
+      </c>
+      <c r="N121">
+        <v>255</v>
+      </c>
+      <c r="O121">
+        <v>2704</v>
+      </c>
+      <c r="P121">
+        <v>318</v>
+      </c>
+      <c r="Q121">
+        <v>169</v>
+      </c>
+      <c r="R121">
+        <v>2566</v>
+      </c>
+      <c r="S121">
+        <v>138</v>
+      </c>
+      <c r="T121">
+        <v>4856</v>
+      </c>
+      <c r="U121">
+        <v>254</v>
+      </c>
+      <c r="V121">
+        <v>213</v>
+      </c>
+      <c r="W121">
+        <v>254</v>
+      </c>
+      <c r="X121">
+        <v>102</v>
+      </c>
+      <c r="Y121">
+        <v>131</v>
+      </c>
+      <c r="Z121">
+        <v>6980</v>
+      </c>
+      <c r="AA121">
+        <v>135</v>
+      </c>
+      <c r="AB121">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -21468,10 +21643,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
   <si>
     <t>Data</t>
   </si>
@@ -462,6 +462,9 @@
     <t>2020-05-28</t>
   </si>
   <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -797,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11209,6 +11212,92 @@
         <v>3277</v>
       </c>
     </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122">
+        <v>5841</v>
+      </c>
+      <c r="C122">
+        <v>8618</v>
+      </c>
+      <c r="D122">
+        <v>8469</v>
+      </c>
+      <c r="E122">
+        <v>38909</v>
+      </c>
+      <c r="F122">
+        <v>16917</v>
+      </c>
+      <c r="G122">
+        <v>38395</v>
+      </c>
+      <c r="H122">
+        <v>8722</v>
+      </c>
+      <c r="I122">
+        <v>12903</v>
+      </c>
+      <c r="J122">
+        <v>3319</v>
+      </c>
+      <c r="K122">
+        <v>30482</v>
+      </c>
+      <c r="L122">
+        <v>2103</v>
+      </c>
+      <c r="M122">
+        <v>1356</v>
+      </c>
+      <c r="N122">
+        <v>9232</v>
+      </c>
+      <c r="O122">
+        <v>36486</v>
+      </c>
+      <c r="P122">
+        <v>12011</v>
+      </c>
+      <c r="Q122">
+        <v>4236</v>
+      </c>
+      <c r="R122">
+        <v>32255</v>
+      </c>
+      <c r="S122">
+        <v>4503</v>
+      </c>
+      <c r="T122">
+        <v>47953</v>
+      </c>
+      <c r="U122">
+        <v>6463</v>
+      </c>
+      <c r="V122">
+        <v>8234</v>
+      </c>
+      <c r="W122">
+        <v>6463</v>
+      </c>
+      <c r="X122">
+        <v>3098</v>
+      </c>
+      <c r="Y122">
+        <v>8530</v>
+      </c>
+      <c r="Z122">
+        <v>101556</v>
+      </c>
+      <c r="AA122">
+        <v>6462</v>
+      </c>
+      <c r="AB122">
+        <v>3611</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11216,7 +11305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21626,6 +21715,92 @@
       </c>
       <c r="AB121">
         <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122">
+        <v>135</v>
+      </c>
+      <c r="C122">
+        <v>406</v>
+      </c>
+      <c r="D122">
+        <v>207</v>
+      </c>
+      <c r="E122">
+        <v>2011</v>
+      </c>
+      <c r="F122">
+        <v>609</v>
+      </c>
+      <c r="G122">
+        <v>2859</v>
+      </c>
+      <c r="H122">
+        <v>154</v>
+      </c>
+      <c r="I122">
+        <v>560</v>
+      </c>
+      <c r="J122">
+        <v>119</v>
+      </c>
+      <c r="K122">
+        <v>911</v>
+      </c>
+      <c r="L122">
+        <v>56</v>
+      </c>
+      <c r="M122">
+        <v>18</v>
+      </c>
+      <c r="N122">
+        <v>257</v>
+      </c>
+      <c r="O122">
+        <v>2827</v>
+      </c>
+      <c r="P122">
+        <v>327</v>
+      </c>
+      <c r="Q122">
+        <v>173</v>
+      </c>
+      <c r="R122">
+        <v>2669</v>
+      </c>
+      <c r="S122">
+        <v>146</v>
+      </c>
+      <c r="T122">
+        <v>5079</v>
+      </c>
+      <c r="U122">
+        <v>268</v>
+      </c>
+      <c r="V122">
+        <v>213</v>
+      </c>
+      <c r="W122">
+        <v>268</v>
+      </c>
+      <c r="X122">
+        <v>108</v>
+      </c>
+      <c r="Y122">
+        <v>134</v>
+      </c>
+      <c r="Z122">
+        <v>7275</v>
+      </c>
+      <c r="AA122">
+        <v>142</v>
+      </c>
+      <c r="AB122">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -21643,10 +21818,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
   <si>
     <t>Data</t>
   </si>
@@ -465,6 +465,9 @@
     <t>2020-05-29</t>
   </si>
   <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -800,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11298,6 +11301,92 @@
         <v>3611</v>
       </c>
     </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123">
+        <v>6072</v>
+      </c>
+      <c r="C123">
+        <v>9223</v>
+      </c>
+      <c r="D123">
+        <v>9313</v>
+      </c>
+      <c r="E123">
+        <v>40560</v>
+      </c>
+      <c r="F123">
+        <v>17626</v>
+      </c>
+      <c r="G123">
+        <v>46506</v>
+      </c>
+      <c r="H123">
+        <v>9474</v>
+      </c>
+      <c r="I123">
+        <v>13437</v>
+      </c>
+      <c r="J123">
+        <v>3585</v>
+      </c>
+      <c r="K123">
+        <v>32620</v>
+      </c>
+      <c r="L123">
+        <v>2361</v>
+      </c>
+      <c r="M123">
+        <v>1418</v>
+      </c>
+      <c r="N123">
+        <v>9630</v>
+      </c>
+      <c r="O123">
+        <v>37296</v>
+      </c>
+      <c r="P123">
+        <v>12862</v>
+      </c>
+      <c r="Q123">
+        <v>4473</v>
+      </c>
+      <c r="R123">
+        <v>33427</v>
+      </c>
+      <c r="S123">
+        <v>4745</v>
+      </c>
+      <c r="T123">
+        <v>52420</v>
+      </c>
+      <c r="U123">
+        <v>7402</v>
+      </c>
+      <c r="V123">
+        <v>9242</v>
+      </c>
+      <c r="W123">
+        <v>7402</v>
+      </c>
+      <c r="X123">
+        <v>3299</v>
+      </c>
+      <c r="Y123">
+        <v>8778</v>
+      </c>
+      <c r="Z123">
+        <v>107142</v>
+      </c>
+      <c r="AA123">
+        <v>6805</v>
+      </c>
+      <c r="AB123">
+        <v>3981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11305,7 +11394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21801,6 +21890,92 @@
       </c>
       <c r="AB122">
         <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123">
+        <v>142</v>
+      </c>
+      <c r="C123">
+        <v>424</v>
+      </c>
+      <c r="D123">
+        <v>215</v>
+      </c>
+      <c r="E123">
+        <v>2047</v>
+      </c>
+      <c r="F123">
+        <v>638</v>
+      </c>
+      <c r="G123">
+        <v>2956</v>
+      </c>
+      <c r="H123">
+        <v>162</v>
+      </c>
+      <c r="I123">
+        <v>583</v>
+      </c>
+      <c r="J123">
+        <v>122</v>
+      </c>
+      <c r="K123">
+        <v>932</v>
+      </c>
+      <c r="L123">
+        <v>57</v>
+      </c>
+      <c r="M123">
+        <v>19</v>
+      </c>
+      <c r="N123">
+        <v>263</v>
+      </c>
+      <c r="O123">
+        <v>2900</v>
+      </c>
+      <c r="P123">
+        <v>347</v>
+      </c>
+      <c r="Q123">
+        <v>181</v>
+      </c>
+      <c r="R123">
+        <v>2740</v>
+      </c>
+      <c r="S123">
+        <v>157</v>
+      </c>
+      <c r="T123">
+        <v>5277</v>
+      </c>
+      <c r="U123">
+        <v>305</v>
+      </c>
+      <c r="V123">
+        <v>218</v>
+      </c>
+      <c r="W123">
+        <v>305</v>
+      </c>
+      <c r="X123">
+        <v>110</v>
+      </c>
+      <c r="Y123">
+        <v>136</v>
+      </c>
+      <c r="Z123">
+        <v>7532</v>
+      </c>
+      <c r="AA123">
+        <v>149</v>
+      </c>
+      <c r="AB123">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -21818,10 +21993,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="154">
   <si>
     <t>Data</t>
   </si>
@@ -468,6 +468,12 @@
     <t>2020-05-30</t>
   </si>
   <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -803,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB123"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11387,6 +11393,178 @@
         <v>3981</v>
       </c>
     </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124">
+        <v>6219</v>
+      </c>
+      <c r="C124">
+        <v>10288</v>
+      </c>
+      <c r="D124">
+        <v>9602</v>
+      </c>
+      <c r="E124">
+        <v>41378</v>
+      </c>
+      <c r="F124">
+        <v>18392</v>
+      </c>
+      <c r="G124">
+        <v>48489</v>
+      </c>
+      <c r="H124">
+        <v>9780</v>
+      </c>
+      <c r="I124">
+        <v>13690</v>
+      </c>
+      <c r="J124">
+        <v>3702</v>
+      </c>
+      <c r="K124">
+        <v>34639</v>
+      </c>
+      <c r="L124">
+        <v>2429</v>
+      </c>
+      <c r="M124">
+        <v>1489</v>
+      </c>
+      <c r="N124">
+        <v>10464</v>
+      </c>
+      <c r="O124">
+        <v>37961</v>
+      </c>
+      <c r="P124">
+        <v>13162</v>
+      </c>
+      <c r="Q124">
+        <v>4687</v>
+      </c>
+      <c r="R124">
+        <v>34450</v>
+      </c>
+      <c r="S124">
+        <v>4931</v>
+      </c>
+      <c r="T124">
+        <v>53388</v>
+      </c>
+      <c r="U124">
+        <v>8051</v>
+      </c>
+      <c r="V124">
+        <v>9332</v>
+      </c>
+      <c r="W124">
+        <v>8051</v>
+      </c>
+      <c r="X124">
+        <v>3474</v>
+      </c>
+      <c r="Y124">
+        <v>9037</v>
+      </c>
+      <c r="Z124">
+        <v>109698</v>
+      </c>
+      <c r="AA124">
+        <v>6999</v>
+      </c>
+      <c r="AB124">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125">
+        <v>6326</v>
+      </c>
+      <c r="C125">
+        <v>10837</v>
+      </c>
+      <c r="D125">
+        <v>9890</v>
+      </c>
+      <c r="E125">
+        <v>41774</v>
+      </c>
+      <c r="F125">
+        <v>18898</v>
+      </c>
+      <c r="G125">
+        <v>50504</v>
+      </c>
+      <c r="H125">
+        <v>10510</v>
+      </c>
+      <c r="I125">
+        <v>14069</v>
+      </c>
+      <c r="J125">
+        <v>3906</v>
+      </c>
+      <c r="K125">
+        <v>35297</v>
+      </c>
+      <c r="L125">
+        <v>2541</v>
+      </c>
+      <c r="M125">
+        <v>1568</v>
+      </c>
+      <c r="N125">
+        <v>10670</v>
+      </c>
+      <c r="O125">
+        <v>38046</v>
+      </c>
+      <c r="P125">
+        <v>13695</v>
+      </c>
+      <c r="Q125">
+        <v>4835</v>
+      </c>
+      <c r="R125">
+        <v>34900</v>
+      </c>
+      <c r="S125">
+        <v>5119</v>
+      </c>
+      <c r="T125">
+        <v>54530</v>
+      </c>
+      <c r="U125">
+        <v>7964</v>
+      </c>
+      <c r="V125">
+        <v>9332</v>
+      </c>
+      <c r="W125">
+        <v>7964</v>
+      </c>
+      <c r="X125">
+        <v>3692</v>
+      </c>
+      <c r="Y125">
+        <v>9498</v>
+      </c>
+      <c r="Z125">
+        <v>111296</v>
+      </c>
+      <c r="AA125">
+        <v>7233</v>
+      </c>
+      <c r="AB125">
+        <v>4345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11394,7 +11572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB123"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21976,6 +22154,178 @@
       </c>
       <c r="AB123">
         <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124">
+        <v>148</v>
+      </c>
+      <c r="C124">
+        <v>443</v>
+      </c>
+      <c r="D124">
+        <v>222</v>
+      </c>
+      <c r="E124">
+        <v>2052</v>
+      </c>
+      <c r="F124">
+        <v>667</v>
+      </c>
+      <c r="G124">
+        <v>3010</v>
+      </c>
+      <c r="H124">
+        <v>170</v>
+      </c>
+      <c r="I124">
+        <v>604</v>
+      </c>
+      <c r="J124">
+        <v>124</v>
+      </c>
+      <c r="K124">
+        <v>955</v>
+      </c>
+      <c r="L124">
+        <v>61</v>
+      </c>
+      <c r="M124">
+        <v>20</v>
+      </c>
+      <c r="N124">
+        <v>271</v>
+      </c>
+      <c r="O124">
+        <v>2923</v>
+      </c>
+      <c r="P124">
+        <v>360</v>
+      </c>
+      <c r="Q124">
+        <v>182</v>
+      </c>
+      <c r="R124">
+        <v>2807</v>
+      </c>
+      <c r="S124">
+        <v>161</v>
+      </c>
+      <c r="T124">
+        <v>5344</v>
+      </c>
+      <c r="U124">
+        <v>305</v>
+      </c>
+      <c r="V124">
+        <v>224</v>
+      </c>
+      <c r="W124">
+        <v>305</v>
+      </c>
+      <c r="X124">
+        <v>116</v>
+      </c>
+      <c r="Y124">
+        <v>143</v>
+      </c>
+      <c r="Z124">
+        <v>7615</v>
+      </c>
+      <c r="AA124">
+        <v>158</v>
+      </c>
+      <c r="AB124">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125">
+        <v>161</v>
+      </c>
+      <c r="C125">
+        <v>461</v>
+      </c>
+      <c r="D125">
+        <v>228</v>
+      </c>
+      <c r="E125">
+        <v>2071</v>
+      </c>
+      <c r="F125">
+        <v>701</v>
+      </c>
+      <c r="G125">
+        <v>3188</v>
+      </c>
+      <c r="H125">
+        <v>171</v>
+      </c>
+      <c r="I125">
+        <v>614</v>
+      </c>
+      <c r="J125">
+        <v>127</v>
+      </c>
+      <c r="K125">
+        <v>976</v>
+      </c>
+      <c r="L125">
+        <v>66</v>
+      </c>
+      <c r="M125">
+        <v>20</v>
+      </c>
+      <c r="N125">
+        <v>278</v>
+      </c>
+      <c r="O125">
+        <v>2925</v>
+      </c>
+      <c r="P125">
+        <v>370</v>
+      </c>
+      <c r="Q125">
+        <v>190</v>
+      </c>
+      <c r="R125">
+        <v>2875</v>
+      </c>
+      <c r="S125">
+        <v>168</v>
+      </c>
+      <c r="T125">
+        <v>5462</v>
+      </c>
+      <c r="U125">
+        <v>323</v>
+      </c>
+      <c r="V125">
+        <v>232</v>
+      </c>
+      <c r="W125">
+        <v>323</v>
+      </c>
+      <c r="X125">
+        <v>116</v>
+      </c>
+      <c r="Y125">
+        <v>146</v>
+      </c>
+      <c r="Z125">
+        <v>7667</v>
+      </c>
+      <c r="AA125">
+        <v>166</v>
+      </c>
+      <c r="AB125">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -21993,10 +22343,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
   <si>
     <t>Data</t>
   </si>
@@ -474,6 +474,9 @@
     <t>2020-06-01</t>
   </si>
   <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -809,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB125"/>
+  <dimension ref="A1:AB126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11565,6 +11568,92 @@
         <v>4345</v>
       </c>
     </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126">
+        <v>6465</v>
+      </c>
+      <c r="C126">
+        <v>11559</v>
+      </c>
+      <c r="D126">
+        <v>10511</v>
+      </c>
+      <c r="E126">
+        <v>43195</v>
+      </c>
+      <c r="F126">
+        <v>21430</v>
+      </c>
+      <c r="G126">
+        <v>53073</v>
+      </c>
+      <c r="H126">
+        <v>11256</v>
+      </c>
+      <c r="I126">
+        <v>15151</v>
+      </c>
+      <c r="J126">
+        <v>4377</v>
+      </c>
+      <c r="K126">
+        <v>36625</v>
+      </c>
+      <c r="L126">
+        <v>2709</v>
+      </c>
+      <c r="M126">
+        <v>1646</v>
+      </c>
+      <c r="N126">
+        <v>10939</v>
+      </c>
+      <c r="O126">
+        <v>41207</v>
+      </c>
+      <c r="P126">
+        <v>14859</v>
+      </c>
+      <c r="Q126">
+        <v>5163</v>
+      </c>
+      <c r="R126">
+        <v>35508</v>
+      </c>
+      <c r="S126">
+        <v>5506</v>
+      </c>
+      <c r="T126">
+        <v>56732</v>
+      </c>
+      <c r="U126">
+        <v>8233</v>
+      </c>
+      <c r="V126">
+        <v>9919</v>
+      </c>
+      <c r="W126">
+        <v>8233</v>
+      </c>
+      <c r="X126">
+        <v>3850</v>
+      </c>
+      <c r="Y126">
+        <v>9660</v>
+      </c>
+      <c r="Z126">
+        <v>118295</v>
+      </c>
+      <c r="AA126">
+        <v>7555</v>
+      </c>
+      <c r="AB126">
+        <v>4483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11572,7 +11661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB125"/>
+  <dimension ref="A1:AB126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22326,6 +22415,92 @@
       </c>
       <c r="AB125">
         <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126">
+        <v>165</v>
+      </c>
+      <c r="C126">
+        <v>482</v>
+      </c>
+      <c r="D126">
+        <v>237</v>
+      </c>
+      <c r="E126">
+        <v>2102</v>
+      </c>
+      <c r="F126">
+        <v>736</v>
+      </c>
+      <c r="G126">
+        <v>3421</v>
+      </c>
+      <c r="H126">
+        <v>177</v>
+      </c>
+      <c r="I126">
+        <v>664</v>
+      </c>
+      <c r="J126">
+        <v>151</v>
+      </c>
+      <c r="K126">
+        <v>997</v>
+      </c>
+      <c r="L126">
+        <v>70</v>
+      </c>
+      <c r="M126">
+        <v>20</v>
+      </c>
+      <c r="N126">
+        <v>289</v>
+      </c>
+      <c r="O126">
+        <v>3040</v>
+      </c>
+      <c r="P126">
+        <v>379</v>
+      </c>
+      <c r="Q126">
+        <v>199</v>
+      </c>
+      <c r="R126">
+        <v>2933</v>
+      </c>
+      <c r="S126">
+        <v>180</v>
+      </c>
+      <c r="T126">
+        <v>5686</v>
+      </c>
+      <c r="U126">
+        <v>341</v>
+      </c>
+      <c r="V126">
+        <v>245</v>
+      </c>
+      <c r="W126">
+        <v>341</v>
+      </c>
+      <c r="X126">
+        <v>120</v>
+      </c>
+      <c r="Y126">
+        <v>148</v>
+      </c>
+      <c r="Z126">
+        <v>7994</v>
+      </c>
+      <c r="AA126">
+        <v>172</v>
+      </c>
+      <c r="AB126">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -22343,10 +22518,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="156">
   <si>
     <t>Data</t>
   </si>
@@ -477,6 +477,9 @@
     <t>2020-06-02</t>
   </si>
   <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -812,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB126"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11654,6 +11657,92 @@
         <v>4483</v>
       </c>
     </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127">
+        <v>6679</v>
+      </c>
+      <c r="C127">
+        <v>12407</v>
+      </c>
+      <c r="D127">
+        <v>11107</v>
+      </c>
+      <c r="E127">
+        <v>44347</v>
+      </c>
+      <c r="F127">
+        <v>22451</v>
+      </c>
+      <c r="G127">
+        <v>56056</v>
+      </c>
+      <c r="H127">
+        <v>12020</v>
+      </c>
+      <c r="I127">
+        <v>16121</v>
+      </c>
+      <c r="J127">
+        <v>4570</v>
+      </c>
+      <c r="K127">
+        <v>38174</v>
+      </c>
+      <c r="L127">
+        <v>2848</v>
+      </c>
+      <c r="M127">
+        <v>1802</v>
+      </c>
+      <c r="N127">
+        <v>12010</v>
+      </c>
+      <c r="O127">
+        <v>44774</v>
+      </c>
+      <c r="P127">
+        <v>16018</v>
+      </c>
+      <c r="Q127">
+        <v>5494</v>
+      </c>
+      <c r="R127">
+        <v>36463</v>
+      </c>
+      <c r="S127">
+        <v>5828</v>
+      </c>
+      <c r="T127">
+        <v>59240</v>
+      </c>
+      <c r="U127">
+        <v>9149</v>
+      </c>
+      <c r="V127">
+        <v>10398</v>
+      </c>
+      <c r="W127">
+        <v>9149</v>
+      </c>
+      <c r="X127">
+        <v>4143</v>
+      </c>
+      <c r="Y127">
+        <v>10034</v>
+      </c>
+      <c r="Z127">
+        <v>123483</v>
+      </c>
+      <c r="AA127">
+        <v>7989</v>
+      </c>
+      <c r="AB127">
+        <v>4698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11661,7 +11750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB126"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22501,6 +22590,92 @@
       </c>
       <c r="AB126">
         <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127">
+        <v>171</v>
+      </c>
+      <c r="C127">
+        <v>506</v>
+      </c>
+      <c r="D127">
+        <v>247</v>
+      </c>
+      <c r="E127">
+        <v>2138</v>
+      </c>
+      <c r="F127">
+        <v>762</v>
+      </c>
+      <c r="G127">
+        <v>3605</v>
+      </c>
+      <c r="H127">
+        <v>191</v>
+      </c>
+      <c r="I127">
+        <v>698</v>
+      </c>
+      <c r="J127">
+        <v>155</v>
+      </c>
+      <c r="K127">
+        <v>1028</v>
+      </c>
+      <c r="L127">
+        <v>76</v>
+      </c>
+      <c r="M127">
+        <v>20</v>
+      </c>
+      <c r="N127">
+        <v>306</v>
+      </c>
+      <c r="O127">
+        <v>3193</v>
+      </c>
+      <c r="P127">
+        <v>414</v>
+      </c>
+      <c r="Q127">
+        <v>205</v>
+      </c>
+      <c r="R127">
+        <v>3012</v>
+      </c>
+      <c r="S127">
+        <v>192</v>
+      </c>
+      <c r="T127">
+        <v>6010</v>
+      </c>
+      <c r="U127">
+        <v>367</v>
+      </c>
+      <c r="V127">
+        <v>258</v>
+      </c>
+      <c r="W127">
+        <v>367</v>
+      </c>
+      <c r="X127">
+        <v>124</v>
+      </c>
+      <c r="Y127">
+        <v>152</v>
+      </c>
+      <c r="Z127">
+        <v>8276</v>
+      </c>
+      <c r="AA127">
+        <v>180</v>
+      </c>
+      <c r="AB127">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -22518,10 +22693,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
   <si>
     <t>Data</t>
   </si>
@@ -480,6 +480,9 @@
     <t>2020-06-03</t>
   </si>
   <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11743,6 +11746,92 @@
         <v>4698</v>
       </c>
     </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128">
+        <v>7021</v>
+      </c>
+      <c r="C128">
+        <v>13097</v>
+      </c>
+      <c r="D128">
+        <v>11551</v>
+      </c>
+      <c r="E128">
+        <v>46473</v>
+      </c>
+      <c r="F128">
+        <v>23463</v>
+      </c>
+      <c r="G128">
+        <v>59795</v>
+      </c>
+      <c r="H128">
+        <v>12923</v>
+      </c>
+      <c r="I128">
+        <v>16894</v>
+      </c>
+      <c r="J128">
+        <v>4944</v>
+      </c>
+      <c r="K128">
+        <v>40629</v>
+      </c>
+      <c r="L128">
+        <v>3194</v>
+      </c>
+      <c r="M128">
+        <v>1925</v>
+      </c>
+      <c r="N128">
+        <v>13034</v>
+      </c>
+      <c r="O128">
+        <v>48049</v>
+      </c>
+      <c r="P128">
+        <v>17579</v>
+      </c>
+      <c r="Q128">
+        <v>5820</v>
+      </c>
+      <c r="R128">
+        <v>37507</v>
+      </c>
+      <c r="S128">
+        <v>6064</v>
+      </c>
+      <c r="T128">
+        <v>60932</v>
+      </c>
+      <c r="U128">
+        <v>9282</v>
+      </c>
+      <c r="V128">
+        <v>11010</v>
+      </c>
+      <c r="W128">
+        <v>9282</v>
+      </c>
+      <c r="X128">
+        <v>4483</v>
+      </c>
+      <c r="Y128">
+        <v>10532</v>
+      </c>
+      <c r="Z128">
+        <v>129200</v>
+      </c>
+      <c r="AA128">
+        <v>8200</v>
+      </c>
+      <c r="AB128">
+        <v>4881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11750,7 +11839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22676,6 +22765,92 @@
       </c>
       <c r="AB127">
         <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128">
+        <v>181</v>
+      </c>
+      <c r="C128">
+        <v>531</v>
+      </c>
+      <c r="D128">
+        <v>254</v>
+      </c>
+      <c r="E128">
+        <v>2183</v>
+      </c>
+      <c r="F128">
+        <v>790</v>
+      </c>
+      <c r="G128">
+        <v>3813</v>
+      </c>
+      <c r="H128">
+        <v>196</v>
+      </c>
+      <c r="I128">
+        <v>737</v>
+      </c>
+      <c r="J128">
+        <v>164</v>
+      </c>
+      <c r="K128">
+        <v>1062</v>
+      </c>
+      <c r="L128">
+        <v>82</v>
+      </c>
+      <c r="M128">
+        <v>20</v>
+      </c>
+      <c r="N128">
+        <v>323</v>
+      </c>
+      <c r="O128">
+        <v>3416</v>
+      </c>
+      <c r="P128">
+        <v>438</v>
+      </c>
+      <c r="Q128">
+        <v>215</v>
+      </c>
+      <c r="R128">
+        <v>3134</v>
+      </c>
+      <c r="S128">
+        <v>202</v>
+      </c>
+      <c r="T128">
+        <v>6327</v>
+      </c>
+      <c r="U128">
+        <v>378</v>
+      </c>
+      <c r="V128">
+        <v>265</v>
+      </c>
+      <c r="W128">
+        <v>378</v>
+      </c>
+      <c r="X128">
+        <v>127</v>
+      </c>
+      <c r="Y128">
+        <v>156</v>
+      </c>
+      <c r="Z128">
+        <v>8560</v>
+      </c>
+      <c r="AA128">
+        <v>186</v>
+      </c>
+      <c r="AB128">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -22693,10 +22868,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
   </si>
   <si>
     <t>UF</t>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8150,7 +8153,7 @@
         <v>3593</v>
       </c>
       <c r="AA102">
-        <v>6459</v>
+        <v>6862</v>
       </c>
       <c r="AB102">
         <v>5238</v>
@@ -8206,7 +8209,7 @@
         <v>48785</v>
       </c>
       <c r="Q103">
-        <v>2132</v>
+        <v>2253</v>
       </c>
       <c r="R103">
         <v>8972</v>
@@ -8221,10 +8224,10 @@
         <v>53860</v>
       </c>
       <c r="V103">
-        <v>5505</v>
+        <v>5644</v>
       </c>
       <c r="W103">
-        <v>7105</v>
+        <v>7478</v>
       </c>
       <c r="X103">
         <v>12773</v>
@@ -8236,10 +8239,96 @@
         <v>3788</v>
       </c>
       <c r="AA103">
-        <v>7720</v>
+        <v>7701</v>
       </c>
       <c r="AB103">
         <v>5238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>143073</v>
+      </c>
+      <c r="C104">
+        <v>19619</v>
+      </c>
+      <c r="D104">
+        <v>67756</v>
+      </c>
+      <c r="E104">
+        <v>28250</v>
+      </c>
+      <c r="F104">
+        <v>16623</v>
+      </c>
+      <c r="G104">
+        <v>15706</v>
+      </c>
+      <c r="H104">
+        <v>15703</v>
+      </c>
+      <c r="I104">
+        <v>12135</v>
+      </c>
+      <c r="J104">
+        <v>5857</v>
+      </c>
+      <c r="K104">
+        <v>20310</v>
+      </c>
+      <c r="L104">
+        <v>40242</v>
+      </c>
+      <c r="M104">
+        <v>6897</v>
+      </c>
+      <c r="N104">
+        <v>9449</v>
+      </c>
+      <c r="O104">
+        <v>11565</v>
+      </c>
+      <c r="P104">
+        <v>49269</v>
+      </c>
+      <c r="Q104">
+        <v>2253</v>
+      </c>
+      <c r="R104">
+        <v>9290</v>
+      </c>
+      <c r="S104">
+        <v>64271</v>
+      </c>
+      <c r="T104">
+        <v>7983</v>
+      </c>
+      <c r="U104">
+        <v>54271</v>
+      </c>
+      <c r="V104">
+        <v>5644</v>
+      </c>
+      <c r="W104">
+        <v>7621</v>
+      </c>
+      <c r="X104">
+        <v>13045</v>
+      </c>
+      <c r="Y104">
+        <v>48537</v>
+      </c>
+      <c r="Z104">
+        <v>4033</v>
+      </c>
+      <c r="AA104">
+        <v>8110</v>
+      </c>
+      <c r="AB104">
+        <v>5529</v>
       </c>
     </row>
   </sheetData>
@@ -8249,7 +8338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15656,7 +15745,7 @@
         <v>91</v>
       </c>
       <c r="AA102">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="AB102">
         <v>139</v>
@@ -15727,10 +15816,10 @@
         <v>3665</v>
       </c>
       <c r="V103">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="W103">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="X103">
         <v>269</v>
@@ -15746,6 +15835,92 @@
       </c>
       <c r="AB103">
         <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9145</v>
+      </c>
+      <c r="C104">
+        <v>832</v>
+      </c>
+      <c r="D104">
+        <v>6707</v>
+      </c>
+      <c r="E104">
+        <v>879</v>
+      </c>
+      <c r="F104">
+        <v>214</v>
+      </c>
+      <c r="G104">
+        <v>601</v>
+      </c>
+      <c r="H104">
+        <v>376</v>
+      </c>
+      <c r="I104">
+        <v>286</v>
+      </c>
+      <c r="J104">
+        <v>173</v>
+      </c>
+      <c r="K104">
+        <v>484</v>
+      </c>
+      <c r="L104">
+        <v>3305</v>
+      </c>
+      <c r="M104">
+        <v>237</v>
+      </c>
+      <c r="N104">
+        <v>410</v>
+      </c>
+      <c r="O104">
+        <v>171</v>
+      </c>
+      <c r="P104">
+        <v>2250</v>
+      </c>
+      <c r="Q104">
+        <v>21</v>
+      </c>
+      <c r="R104">
+        <v>217</v>
+      </c>
+      <c r="S104">
+        <v>3982</v>
+      </c>
+      <c r="T104">
+        <v>207</v>
+      </c>
+      <c r="U104">
+        <v>3678</v>
+      </c>
+      <c r="V104">
+        <v>99</v>
+      </c>
+      <c r="W104">
+        <v>254</v>
+      </c>
+      <c r="X104">
+        <v>272</v>
+      </c>
+      <c r="Y104">
+        <v>1208</v>
+      </c>
+      <c r="Z104">
+        <v>113</v>
+      </c>
+      <c r="AA104">
+        <v>235</v>
+      </c>
+      <c r="AB104">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -15763,15 +15938,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -15779,7 +15954,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -15787,7 +15962,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -15795,7 +15970,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -15803,7 +15978,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -15811,7 +15986,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -15819,7 +15994,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -15827,7 +16002,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -15835,7 +16010,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -15843,7 +16018,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -15851,7 +16026,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -15859,7 +16034,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -15867,7 +16042,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -15875,7 +16050,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -15883,7 +16058,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -15891,7 +16066,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -15899,7 +16074,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -15907,7 +16082,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -15915,7 +16090,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -15923,7 +16098,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -15931,7 +16106,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -15939,7 +16114,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -15947,7 +16122,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -15955,7 +16130,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -15963,7 +16138,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -15971,7 +16146,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -15979,7 +16154,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
   </si>
   <si>
     <t>UF</t>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8111,7 +8114,7 @@
         <v>38511</v>
       </c>
       <c r="M102">
-        <v>5895</v>
+        <v>6434</v>
       </c>
       <c r="N102">
         <v>9449</v>
@@ -8188,7 +8191,7 @@
         <v>12037</v>
       </c>
       <c r="J103">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="K103">
         <v>19787</v>
@@ -8242,7 +8245,7 @@
         <v>7701</v>
       </c>
       <c r="AB103">
-        <v>5238</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -8277,10 +8280,10 @@
         <v>5857</v>
       </c>
       <c r="K104">
-        <v>20310</v>
+        <v>20951</v>
       </c>
       <c r="L104">
-        <v>40242</v>
+        <v>40705</v>
       </c>
       <c r="M104">
         <v>6897</v>
@@ -8295,7 +8298,7 @@
         <v>49269</v>
       </c>
       <c r="Q104">
-        <v>2253</v>
+        <v>2324</v>
       </c>
       <c r="R104">
         <v>9290</v>
@@ -8328,7 +8331,93 @@
         <v>8110</v>
       </c>
       <c r="AB104">
-        <v>5529</v>
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>144593</v>
+      </c>
+      <c r="C105">
+        <v>20659</v>
+      </c>
+      <c r="D105">
+        <v>69499</v>
+      </c>
+      <c r="E105">
+        <v>28715</v>
+      </c>
+      <c r="F105">
+        <v>16948</v>
+      </c>
+      <c r="G105">
+        <v>16339</v>
+      </c>
+      <c r="H105">
+        <v>15883</v>
+      </c>
+      <c r="I105">
+        <v>12250</v>
+      </c>
+      <c r="J105">
+        <v>6302</v>
+      </c>
+      <c r="K105">
+        <v>20951</v>
+      </c>
+      <c r="L105">
+        <v>40705</v>
+      </c>
+      <c r="M105">
+        <v>7031</v>
+      </c>
+      <c r="N105">
+        <v>9449</v>
+      </c>
+      <c r="O105">
+        <v>11742</v>
+      </c>
+      <c r="P105">
+        <v>49817</v>
+      </c>
+      <c r="Q105">
+        <v>2324</v>
+      </c>
+      <c r="R105">
+        <v>9290</v>
+      </c>
+      <c r="S105">
+        <v>66218</v>
+      </c>
+      <c r="T105">
+        <v>8127</v>
+      </c>
+      <c r="U105">
+        <v>56032</v>
+      </c>
+      <c r="V105">
+        <v>5807</v>
+      </c>
+      <c r="W105">
+        <v>7927</v>
+      </c>
+      <c r="X105">
+        <v>13294</v>
+      </c>
+      <c r="Y105">
+        <v>49371</v>
+      </c>
+      <c r="Z105">
+        <v>4243</v>
+      </c>
+      <c r="AA105">
+        <v>8626</v>
+      </c>
+      <c r="AB105">
+        <v>5768</v>
       </c>
     </row>
   </sheetData>
@@ -8338,7 +8427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15703,7 +15792,7 @@
         <v>3205</v>
       </c>
       <c r="M102">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="N102">
         <v>410</v>
@@ -15834,7 +15923,7 @@
         <v>228</v>
       </c>
       <c r="AB103">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -15869,10 +15958,10 @@
         <v>173</v>
       </c>
       <c r="K104">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="L104">
-        <v>3305</v>
+        <v>3350</v>
       </c>
       <c r="M104">
         <v>237</v>
@@ -15887,7 +15976,7 @@
         <v>2250</v>
       </c>
       <c r="Q104">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R104">
         <v>217</v>
@@ -15920,7 +16009,93 @@
         <v>235</v>
       </c>
       <c r="AB104">
-        <v>142</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>9188</v>
+      </c>
+      <c r="C105">
+        <v>871</v>
+      </c>
+      <c r="D105">
+        <v>6781</v>
+      </c>
+      <c r="E105">
+        <v>910</v>
+      </c>
+      <c r="F105">
+        <v>226</v>
+      </c>
+      <c r="G105">
+        <v>622</v>
+      </c>
+      <c r="H105">
+        <v>380</v>
+      </c>
+      <c r="I105">
+        <v>291</v>
+      </c>
+      <c r="J105">
+        <v>173</v>
+      </c>
+      <c r="K105">
+        <v>507</v>
+      </c>
+      <c r="L105">
+        <v>3350</v>
+      </c>
+      <c r="M105">
+        <v>243</v>
+      </c>
+      <c r="N105">
+        <v>410</v>
+      </c>
+      <c r="O105">
+        <v>177</v>
+      </c>
+      <c r="P105">
+        <v>2271</v>
+      </c>
+      <c r="Q105">
+        <v>22</v>
+      </c>
+      <c r="R105">
+        <v>217</v>
+      </c>
+      <c r="S105">
+        <v>4192</v>
+      </c>
+      <c r="T105">
+        <v>211</v>
+      </c>
+      <c r="U105">
+        <v>3772</v>
+      </c>
+      <c r="V105">
+        <v>108</v>
+      </c>
+      <c r="W105">
+        <v>265</v>
+      </c>
+      <c r="X105">
+        <v>278</v>
+      </c>
+      <c r="Y105">
+        <v>1247</v>
+      </c>
+      <c r="Z105">
+        <v>126</v>
+      </c>
+      <c r="AA105">
+        <v>245</v>
+      </c>
+      <c r="AB105">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -15938,15 +16113,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -15954,7 +16129,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -15962,7 +16137,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -15970,7 +16145,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -15978,7 +16153,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -15986,7 +16161,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -15994,7 +16169,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -16002,7 +16177,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -16010,7 +16185,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -16018,7 +16193,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -16026,7 +16201,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -16034,7 +16209,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -16042,7 +16217,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -16050,7 +16225,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -16058,7 +16233,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -16066,7 +16241,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -16074,7 +16249,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -16082,7 +16257,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -16090,7 +16265,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -16098,7 +16273,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -16106,7 +16281,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -16114,7 +16289,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -16122,7 +16297,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -16130,7 +16305,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -16138,7 +16313,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -16146,7 +16321,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -16154,7 +16329,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
   </si>
   <si>
     <t>UF</t>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8191,7 +8194,7 @@
         <v>12037</v>
       </c>
       <c r="J103">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="K103">
         <v>19787</v>
@@ -8200,7 +8203,7 @@
         <v>39361</v>
       </c>
       <c r="M103">
-        <v>6604</v>
+        <v>6693</v>
       </c>
       <c r="N103">
         <v>9449</v>
@@ -8268,7 +8271,7 @@
         <v>16623</v>
       </c>
       <c r="G104">
-        <v>15706</v>
+        <v>16339</v>
       </c>
       <c r="H104">
         <v>15703</v>
@@ -8283,13 +8286,13 @@
         <v>20951</v>
       </c>
       <c r="L104">
-        <v>40705</v>
+        <v>40242</v>
       </c>
       <c r="M104">
         <v>6897</v>
       </c>
       <c r="N104">
-        <v>9449</v>
+        <v>10888</v>
       </c>
       <c r="O104">
         <v>11565</v>
@@ -8375,7 +8378,7 @@
         <v>7031</v>
       </c>
       <c r="N105">
-        <v>9449</v>
+        <v>11027</v>
       </c>
       <c r="O105">
         <v>11742</v>
@@ -8384,10 +8387,10 @@
         <v>49817</v>
       </c>
       <c r="Q105">
-        <v>2324</v>
+        <v>2455</v>
       </c>
       <c r="R105">
-        <v>9290</v>
+        <v>9727</v>
       </c>
       <c r="S105">
         <v>66218</v>
@@ -8396,10 +8399,10 @@
         <v>8127</v>
       </c>
       <c r="U105">
-        <v>56032</v>
+        <v>57570</v>
       </c>
       <c r="V105">
-        <v>5807</v>
+        <v>6052</v>
       </c>
       <c r="W105">
         <v>7927</v>
@@ -8417,7 +8420,93 @@
         <v>8626</v>
       </c>
       <c r="AB105">
-        <v>5768</v>
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>150138</v>
+      </c>
+      <c r="C106">
+        <v>21964</v>
+      </c>
+      <c r="D106">
+        <v>72979</v>
+      </c>
+      <c r="E106">
+        <v>30481</v>
+      </c>
+      <c r="F106">
+        <v>18090</v>
+      </c>
+      <c r="G106">
+        <v>17193</v>
+      </c>
+      <c r="H106">
+        <v>16102</v>
+      </c>
+      <c r="I106">
+        <v>12802</v>
+      </c>
+      <c r="J106">
+        <v>6936</v>
+      </c>
+      <c r="K106">
+        <v>22452</v>
+      </c>
+      <c r="L106">
+        <v>41010</v>
+      </c>
+      <c r="M106">
+        <v>7314</v>
+      </c>
+      <c r="N106">
+        <v>11027</v>
+      </c>
+      <c r="O106">
+        <v>12192</v>
+      </c>
+      <c r="P106">
+        <v>51234</v>
+      </c>
+      <c r="Q106">
+        <v>2455</v>
+      </c>
+      <c r="R106">
+        <v>9727</v>
+      </c>
+      <c r="S106">
+        <v>69023</v>
+      </c>
+      <c r="T106">
+        <v>8457</v>
+      </c>
+      <c r="U106">
+        <v>60636</v>
+      </c>
+      <c r="V106">
+        <v>6052</v>
+      </c>
+      <c r="W106">
+        <v>8359</v>
+      </c>
+      <c r="X106">
+        <v>13771</v>
+      </c>
+      <c r="Y106">
+        <v>52069</v>
+      </c>
+      <c r="Z106">
+        <v>4243</v>
+      </c>
+      <c r="AA106">
+        <v>8626</v>
+      </c>
+      <c r="AB106">
+        <v>6056</v>
       </c>
     </row>
   </sheetData>
@@ -8427,7 +8516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15878,7 +15967,7 @@
         <v>3270</v>
       </c>
       <c r="M103">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N103">
         <v>410</v>
@@ -15946,7 +16035,7 @@
         <v>214</v>
       </c>
       <c r="G104">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="H104">
         <v>376</v>
@@ -15961,13 +16050,13 @@
         <v>507</v>
       </c>
       <c r="L104">
-        <v>3350</v>
+        <v>3305</v>
       </c>
       <c r="M104">
         <v>237</v>
       </c>
       <c r="N104">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="O104">
         <v>171</v>
@@ -16053,7 +16142,7 @@
         <v>243</v>
       </c>
       <c r="N105">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="O105">
         <v>177</v>
@@ -16065,7 +16154,7 @@
         <v>22</v>
       </c>
       <c r="R105">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="S105">
         <v>4192</v>
@@ -16074,10 +16163,10 @@
         <v>211</v>
       </c>
       <c r="U105">
-        <v>3772</v>
+        <v>3835</v>
       </c>
       <c r="V105">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="W105">
         <v>265</v>
@@ -16095,7 +16184,93 @@
         <v>245</v>
       </c>
       <c r="AB105">
-        <v>145</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>9522</v>
+      </c>
+      <c r="C106">
+        <v>904</v>
+      </c>
+      <c r="D106">
+        <v>6928</v>
+      </c>
+      <c r="E106">
+        <v>937</v>
+      </c>
+      <c r="F106">
+        <v>236</v>
+      </c>
+      <c r="G106">
+        <v>640</v>
+      </c>
+      <c r="H106">
+        <v>399</v>
+      </c>
+      <c r="I106">
+        <v>302</v>
+      </c>
+      <c r="J106">
+        <v>184</v>
+      </c>
+      <c r="K106">
+        <v>534</v>
+      </c>
+      <c r="L106">
+        <v>3453</v>
+      </c>
+      <c r="M106">
+        <v>253</v>
+      </c>
+      <c r="N106">
+        <v>459</v>
+      </c>
+      <c r="O106">
+        <v>179</v>
+      </c>
+      <c r="P106">
+        <v>2315</v>
+      </c>
+      <c r="Q106">
+        <v>22</v>
+      </c>
+      <c r="R106">
+        <v>234</v>
+      </c>
+      <c r="S106">
+        <v>4359</v>
+      </c>
+      <c r="T106">
+        <v>223</v>
+      </c>
+      <c r="U106">
+        <v>3898</v>
+      </c>
+      <c r="V106">
+        <v>114</v>
+      </c>
+      <c r="W106">
+        <v>283</v>
+      </c>
+      <c r="X106">
+        <v>285</v>
+      </c>
+      <c r="Y106">
+        <v>1285</v>
+      </c>
+      <c r="Z106">
+        <v>126</v>
+      </c>
+      <c r="AA106">
+        <v>245</v>
+      </c>
+      <c r="AB106">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -16113,15 +16288,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -16129,7 +16304,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -16137,7 +16312,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -16145,7 +16320,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -16153,7 +16328,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -16161,7 +16336,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -16169,7 +16344,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -16177,7 +16352,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -16185,7 +16360,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -16193,7 +16368,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -16201,7 +16376,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -16209,7 +16384,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -16217,7 +16392,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -16225,7 +16400,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -16233,7 +16408,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -16241,7 +16416,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -16249,7 +16424,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -16257,7 +16432,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -16265,7 +16440,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -16273,7 +16448,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -16281,7 +16456,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -16289,7 +16464,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -16297,7 +16472,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -16305,7 +16480,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -16313,7 +16488,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -16321,7 +16496,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -16329,7 +16504,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
   </si>
   <si>
     <t>UF</t>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8289,7 +8292,7 @@
         <v>40242</v>
       </c>
       <c r="M104">
-        <v>6897</v>
+        <v>6987</v>
       </c>
       <c r="N104">
         <v>10888</v>
@@ -8375,7 +8378,7 @@
         <v>40705</v>
       </c>
       <c r="M105">
-        <v>7031</v>
+        <v>7121</v>
       </c>
       <c r="N105">
         <v>11027</v>
@@ -8461,10 +8464,10 @@
         <v>41010</v>
       </c>
       <c r="M106">
-        <v>7314</v>
+        <v>7410</v>
       </c>
       <c r="N106">
-        <v>11027</v>
+        <v>11568</v>
       </c>
       <c r="O106">
         <v>12192</v>
@@ -8473,10 +8476,10 @@
         <v>51234</v>
       </c>
       <c r="Q106">
-        <v>2455</v>
+        <v>2597</v>
       </c>
       <c r="R106">
-        <v>9727</v>
+        <v>10126</v>
       </c>
       <c r="S106">
         <v>69023</v>
@@ -8488,7 +8491,7 @@
         <v>60636</v>
       </c>
       <c r="V106">
-        <v>6052</v>
+        <v>6257</v>
       </c>
       <c r="W106">
         <v>8359</v>
@@ -8500,13 +8503,99 @@
         <v>52069</v>
       </c>
       <c r="Z106">
-        <v>4243</v>
+        <v>4504</v>
       </c>
       <c r="AA106">
-        <v>8626</v>
+        <v>9220</v>
       </c>
       <c r="AB106">
-        <v>6056</v>
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>156316</v>
+      </c>
+      <c r="C107">
+        <v>23391</v>
+      </c>
+      <c r="D107">
+        <v>74373</v>
+      </c>
+      <c r="E107">
+        <v>32685</v>
+      </c>
+      <c r="F107">
+        <v>19433</v>
+      </c>
+      <c r="G107">
+        <v>18176</v>
+      </c>
+      <c r="H107">
+        <v>17501</v>
+      </c>
+      <c r="I107">
+        <v>13619</v>
+      </c>
+      <c r="J107">
+        <v>7380</v>
+      </c>
+      <c r="K107">
+        <v>24032</v>
+      </c>
+      <c r="L107">
+        <v>41935</v>
+      </c>
+      <c r="M107">
+        <v>7934</v>
+      </c>
+      <c r="N107">
+        <v>11568</v>
+      </c>
+      <c r="O107">
+        <v>12594</v>
+      </c>
+      <c r="P107">
+        <v>52849</v>
+      </c>
+      <c r="Q107">
+        <v>2597</v>
+      </c>
+      <c r="R107">
+        <v>10616</v>
+      </c>
+      <c r="S107">
+        <v>71947</v>
+      </c>
+      <c r="T107">
+        <v>8746</v>
+      </c>
+      <c r="U107">
+        <v>63405</v>
+      </c>
+      <c r="V107">
+        <v>6257</v>
+      </c>
+      <c r="W107">
+        <v>8823</v>
+      </c>
+      <c r="X107">
+        <v>14623</v>
+      </c>
+      <c r="Y107">
+        <v>53508</v>
+      </c>
+      <c r="Z107">
+        <v>4762</v>
+      </c>
+      <c r="AA107">
+        <v>9850</v>
+      </c>
+      <c r="AB107">
+        <v>6347</v>
       </c>
     </row>
   </sheetData>
@@ -8516,7 +8605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16053,7 +16142,7 @@
         <v>3305</v>
       </c>
       <c r="M104">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N104">
         <v>431</v>
@@ -16139,7 +16228,7 @@
         <v>3350</v>
       </c>
       <c r="M105">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N105">
         <v>459</v>
@@ -16225,10 +16314,10 @@
         <v>3453</v>
       </c>
       <c r="M106">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="N106">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="O106">
         <v>179</v>
@@ -16237,10 +16326,10 @@
         <v>2315</v>
       </c>
       <c r="Q106">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R106">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="S106">
         <v>4359</v>
@@ -16252,7 +16341,7 @@
         <v>3898</v>
       </c>
       <c r="V106">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="W106">
         <v>283</v>
@@ -16264,13 +16353,99 @@
         <v>1285</v>
       </c>
       <c r="Z106">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="AA106">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AB106">
-        <v>168</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>9862</v>
+      </c>
+      <c r="C107">
+        <v>937</v>
+      </c>
+      <c r="D107">
+        <v>7138</v>
+      </c>
+      <c r="E107">
+        <v>975</v>
+      </c>
+      <c r="F107">
+        <v>256</v>
+      </c>
+      <c r="G107">
+        <v>660</v>
+      </c>
+      <c r="H107">
+        <v>409</v>
+      </c>
+      <c r="I107">
+        <v>316</v>
+      </c>
+      <c r="J107">
+        <v>189</v>
+      </c>
+      <c r="K107">
+        <v>559</v>
+      </c>
+      <c r="L107">
+        <v>3531</v>
+      </c>
+      <c r="M107">
+        <v>282</v>
+      </c>
+      <c r="N107">
+        <v>487</v>
+      </c>
+      <c r="O107">
+        <v>184</v>
+      </c>
+      <c r="P107">
+        <v>2363</v>
+      </c>
+      <c r="Q107">
+        <v>24</v>
+      </c>
+      <c r="R107">
+        <v>264</v>
+      </c>
+      <c r="S107">
+        <v>4519</v>
+      </c>
+      <c r="T107">
+        <v>237</v>
+      </c>
+      <c r="U107">
+        <v>3980</v>
+      </c>
+      <c r="V107">
+        <v>120</v>
+      </c>
+      <c r="W107">
+        <v>299</v>
+      </c>
+      <c r="X107">
+        <v>289</v>
+      </c>
+      <c r="Y107">
+        <v>1322</v>
+      </c>
+      <c r="Z107">
+        <v>153</v>
+      </c>
+      <c r="AA107">
+        <v>267</v>
+      </c>
+      <c r="AB107">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -16288,15 +16463,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -16304,7 +16479,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -16312,7 +16487,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -16320,7 +16495,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -16328,7 +16503,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -16336,7 +16511,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -16344,7 +16519,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -16352,7 +16527,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -16360,7 +16535,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -16368,7 +16543,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -16376,7 +16551,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -16384,7 +16559,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -16392,7 +16567,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -16400,7 +16575,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -16408,7 +16583,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -16416,7 +16591,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -16424,7 +16599,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -16432,7 +16607,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -16440,7 +16615,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -16448,7 +16623,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -16456,7 +16631,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -16464,7 +16639,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -16472,7 +16647,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -16480,7 +16655,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -16488,7 +16663,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -16496,7 +16671,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -16504,7 +16679,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
   </si>
   <si>
     <t>UF</t>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8553,7 +8556,7 @@
         <v>7934</v>
       </c>
       <c r="N107">
-        <v>11568</v>
+        <v>13234</v>
       </c>
       <c r="O107">
         <v>12594</v>
@@ -8562,10 +8565,10 @@
         <v>52849</v>
       </c>
       <c r="Q107">
-        <v>2597</v>
+        <v>2853</v>
       </c>
       <c r="R107">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="S107">
         <v>71947</v>
@@ -8577,7 +8580,7 @@
         <v>63405</v>
       </c>
       <c r="V107">
-        <v>6257</v>
+        <v>6529</v>
       </c>
       <c r="W107">
         <v>8823</v>
@@ -8595,7 +8598,93 @@
         <v>9850</v>
       </c>
       <c r="AB107">
-        <v>6347</v>
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>162520</v>
+      </c>
+      <c r="C108">
+        <v>24428</v>
+      </c>
+      <c r="D108">
+        <v>75775</v>
+      </c>
+      <c r="E108">
+        <v>33891</v>
+      </c>
+      <c r="F108">
+        <v>20507</v>
+      </c>
+      <c r="G108">
+        <v>19200</v>
+      </c>
+      <c r="H108">
+        <v>18448</v>
+      </c>
+      <c r="I108">
+        <v>14168</v>
+      </c>
+      <c r="J108">
+        <v>7774</v>
+      </c>
+      <c r="K108">
+        <v>25370</v>
+      </c>
+      <c r="L108">
+        <v>42994</v>
+      </c>
+      <c r="M108">
+        <v>8457</v>
+      </c>
+      <c r="N108">
+        <v>13234</v>
+      </c>
+      <c r="O108">
+        <v>12953</v>
+      </c>
+      <c r="P108">
+        <v>53989</v>
+      </c>
+      <c r="Q108">
+        <v>2853</v>
+      </c>
+      <c r="R108">
+        <v>10615</v>
+      </c>
+      <c r="S108">
+        <v>74692</v>
+      </c>
+      <c r="T108">
+        <v>9091</v>
+      </c>
+      <c r="U108">
+        <v>65151</v>
+      </c>
+      <c r="V108">
+        <v>6529</v>
+      </c>
+      <c r="W108">
+        <v>9337</v>
+      </c>
+      <c r="X108">
+        <v>15166</v>
+      </c>
+      <c r="Y108">
+        <v>55680</v>
+      </c>
+      <c r="Z108">
+        <v>5086</v>
+      </c>
+      <c r="AA108">
+        <v>10547</v>
+      </c>
+      <c r="AB108">
+        <v>6594</v>
       </c>
     </row>
   </sheetData>
@@ -8605,7 +8694,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16403,7 +16492,7 @@
         <v>282</v>
       </c>
       <c r="N107">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="O107">
         <v>184</v>
@@ -16412,7 +16501,7 @@
         <v>2363</v>
       </c>
       <c r="Q107">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R107">
         <v>264</v>
@@ -16427,7 +16516,7 @@
         <v>3980</v>
       </c>
       <c r="V107">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="W107">
         <v>299</v>
@@ -16445,7 +16534,93 @@
         <v>267</v>
       </c>
       <c r="AB107">
-        <v>182</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>10145</v>
+      </c>
+      <c r="C108">
+        <v>966</v>
+      </c>
+      <c r="D108">
+        <v>7363</v>
+      </c>
+      <c r="E108">
+        <v>1013</v>
+      </c>
+      <c r="F108">
+        <v>274</v>
+      </c>
+      <c r="G108">
+        <v>681</v>
+      </c>
+      <c r="H108">
+        <v>431</v>
+      </c>
+      <c r="I108">
+        <v>323</v>
+      </c>
+      <c r="J108">
+        <v>194</v>
+      </c>
+      <c r="K108">
+        <v>570</v>
+      </c>
+      <c r="L108">
+        <v>3633</v>
+      </c>
+      <c r="M108">
+        <v>280</v>
+      </c>
+      <c r="N108">
+        <v>496</v>
+      </c>
+      <c r="O108">
+        <v>186</v>
+      </c>
+      <c r="P108">
+        <v>2400</v>
+      </c>
+      <c r="Q108">
+        <v>25</v>
+      </c>
+      <c r="R108">
+        <v>264</v>
+      </c>
+      <c r="S108">
+        <v>4708</v>
+      </c>
+      <c r="T108">
+        <v>245</v>
+      </c>
+      <c r="U108">
+        <v>4090</v>
+      </c>
+      <c r="V108">
+        <v>124</v>
+      </c>
+      <c r="W108">
+        <v>317</v>
+      </c>
+      <c r="X108">
+        <v>303</v>
+      </c>
+      <c r="Y108">
+        <v>1360</v>
+      </c>
+      <c r="Z108">
+        <v>163</v>
+      </c>
+      <c r="AA108">
+        <v>293</v>
+      </c>
+      <c r="AB108">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -16463,15 +16638,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -16479,7 +16654,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -16487,7 +16662,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -16495,7 +16670,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -16503,7 +16678,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -16511,7 +16686,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -16519,7 +16694,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -16527,7 +16702,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -16535,7 +16710,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -16543,7 +16718,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -16551,7 +16726,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -16559,7 +16734,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -16567,7 +16742,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -16575,7 +16750,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -16583,7 +16758,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -16591,7 +16766,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -16599,7 +16774,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -16607,7 +16782,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -16615,7 +16790,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -16623,7 +16798,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -16631,7 +16806,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -16639,7 +16814,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -16647,7 +16822,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -16655,7 +16830,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -16663,7 +16838,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -16671,7 +16846,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -16679,7 +16854,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
   </si>
   <si>
     <t>UF</t>
@@ -758,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8191,7 +8200,7 @@
         <v>15850</v>
       </c>
       <c r="G103">
-        <v>14818</v>
+        <v>15706</v>
       </c>
       <c r="H103">
         <v>14939</v>
@@ -8289,7 +8298,7 @@
         <v>5857</v>
       </c>
       <c r="K104">
-        <v>20951</v>
+        <v>20310</v>
       </c>
       <c r="L104">
         <v>40242</v>
@@ -8639,10 +8648,10 @@
         <v>42994</v>
       </c>
       <c r="M108">
-        <v>8457</v>
+        <v>8569</v>
       </c>
       <c r="N108">
-        <v>13234</v>
+        <v>13544</v>
       </c>
       <c r="O108">
         <v>12953</v>
@@ -8651,10 +8660,10 @@
         <v>53989</v>
       </c>
       <c r="Q108">
-        <v>2853</v>
+        <v>3001</v>
       </c>
       <c r="R108">
-        <v>10615</v>
+        <v>11056</v>
       </c>
       <c r="S108">
         <v>74692</v>
@@ -8666,7 +8675,7 @@
         <v>65151</v>
       </c>
       <c r="V108">
-        <v>6529</v>
+        <v>6744</v>
       </c>
       <c r="W108">
         <v>9337</v>
@@ -8684,7 +8693,265 @@
         <v>10547</v>
       </c>
       <c r="AB108">
-        <v>6594</v>
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>167900</v>
+      </c>
+      <c r="C109">
+        <v>25502</v>
+      </c>
+      <c r="D109">
+        <v>77784</v>
+      </c>
+      <c r="E109">
+        <v>34665</v>
+      </c>
+      <c r="F109">
+        <v>21396</v>
+      </c>
+      <c r="G109">
+        <v>20031</v>
+      </c>
+      <c r="H109">
+        <v>20106</v>
+      </c>
+      <c r="I109">
+        <v>14384</v>
+      </c>
+      <c r="J109">
+        <v>7926</v>
+      </c>
+      <c r="K109">
+        <v>26556</v>
+      </c>
+      <c r="L109">
+        <v>43872</v>
+      </c>
+      <c r="M109">
+        <v>8818</v>
+      </c>
+      <c r="N109">
+        <v>13789</v>
+      </c>
+      <c r="O109">
+        <v>13165</v>
+      </c>
+      <c r="P109">
+        <v>55111</v>
+      </c>
+      <c r="Q109">
+        <v>3235</v>
+      </c>
+      <c r="R109">
+        <v>11534</v>
+      </c>
+      <c r="S109">
+        <v>75784</v>
+      </c>
+      <c r="T109">
+        <v>9295</v>
+      </c>
+      <c r="U109">
+        <v>66328</v>
+      </c>
+      <c r="V109">
+        <v>6931</v>
+      </c>
+      <c r="W109">
+        <v>9825</v>
+      </c>
+      <c r="X109">
+        <v>15683</v>
+      </c>
+      <c r="Y109">
+        <v>57605</v>
+      </c>
+      <c r="Z109">
+        <v>5390</v>
+      </c>
+      <c r="AA109">
+        <v>11224</v>
+      </c>
+      <c r="AB109">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>172875</v>
+      </c>
+      <c r="C110">
+        <v>26011</v>
+      </c>
+      <c r="D110">
+        <v>78836</v>
+      </c>
+      <c r="E110">
+        <v>35788</v>
+      </c>
+      <c r="F110">
+        <v>21959</v>
+      </c>
+      <c r="G110">
+        <v>20887</v>
+      </c>
+      <c r="H110">
+        <v>20614</v>
+      </c>
+      <c r="I110">
+        <v>14627</v>
+      </c>
+      <c r="J110">
+        <v>7941</v>
+      </c>
+      <c r="K110">
+        <v>27454</v>
+      </c>
+      <c r="L110">
+        <v>44671</v>
+      </c>
+      <c r="M110">
+        <v>9353</v>
+      </c>
+      <c r="N110">
+        <v>14171</v>
+      </c>
+      <c r="O110">
+        <v>13296</v>
+      </c>
+      <c r="P110">
+        <v>56026</v>
+      </c>
+      <c r="Q110">
+        <v>3433</v>
+      </c>
+      <c r="R110">
+        <v>12866</v>
+      </c>
+      <c r="S110">
+        <v>76429</v>
+      </c>
+      <c r="T110">
+        <v>9534</v>
+      </c>
+      <c r="U110">
+        <v>68456</v>
+      </c>
+      <c r="V110">
+        <v>6972</v>
+      </c>
+      <c r="W110">
+        <v>10153</v>
+      </c>
+      <c r="X110">
+        <v>16322</v>
+      </c>
+      <c r="Y110">
+        <v>58859</v>
+      </c>
+      <c r="Z110">
+        <v>5739</v>
+      </c>
+      <c r="AA110">
+        <v>11632</v>
+      </c>
+      <c r="AB110">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>178202</v>
+      </c>
+      <c r="C111">
+        <v>26469</v>
+      </c>
+      <c r="D111">
+        <v>79572</v>
+      </c>
+      <c r="E111">
+        <v>36401</v>
+      </c>
+      <c r="F111">
+        <v>22871</v>
+      </c>
+      <c r="G111">
+        <v>22199</v>
+      </c>
+      <c r="H111">
+        <v>21381</v>
+      </c>
+      <c r="I111">
+        <v>14661</v>
+      </c>
+      <c r="J111">
+        <v>7960</v>
+      </c>
+      <c r="K111">
+        <v>28013</v>
+      </c>
+      <c r="L111">
+        <v>45261</v>
+      </c>
+      <c r="M111">
+        <v>9706</v>
+      </c>
+      <c r="N111">
+        <v>14171</v>
+      </c>
+      <c r="O111">
+        <v>13360</v>
+      </c>
+      <c r="P111">
+        <v>56506</v>
+      </c>
+      <c r="Q111">
+        <v>3433</v>
+      </c>
+      <c r="R111">
+        <v>13968</v>
+      </c>
+      <c r="S111">
+        <v>76833</v>
+      </c>
+      <c r="T111">
+        <v>9642</v>
+      </c>
+      <c r="U111">
+        <v>69224</v>
+      </c>
+      <c r="V111">
+        <v>6972</v>
+      </c>
+      <c r="W111">
+        <v>10357</v>
+      </c>
+      <c r="X111">
+        <v>16512</v>
+      </c>
+      <c r="Y111">
+        <v>59850</v>
+      </c>
+      <c r="Z111">
+        <v>6108</v>
+      </c>
+      <c r="AA111">
+        <v>11865</v>
+      </c>
+      <c r="AB111">
+        <v>6875</v>
       </c>
     </row>
   </sheetData>
@@ -8694,7 +8961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16127,7 +16394,7 @@
         <v>208</v>
       </c>
       <c r="G103">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="H103">
         <v>368</v>
@@ -16225,7 +16492,7 @@
         <v>173</v>
       </c>
       <c r="K104">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="L104">
         <v>3305</v>
@@ -16575,10 +16842,10 @@
         <v>3633</v>
       </c>
       <c r="M108">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N108">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="O108">
         <v>186</v>
@@ -16587,10 +16854,10 @@
         <v>2400</v>
       </c>
       <c r="Q108">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R108">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="S108">
         <v>4708</v>
@@ -16602,7 +16869,7 @@
         <v>4090</v>
       </c>
       <c r="V108">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="W108">
         <v>317</v>
@@ -16620,7 +16887,265 @@
         <v>293</v>
       </c>
       <c r="AB108">
-        <v>188</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>10368</v>
+      </c>
+      <c r="C109">
+        <v>999</v>
+      </c>
+      <c r="D109">
+        <v>7417</v>
+      </c>
+      <c r="E109">
+        <v>1039</v>
+      </c>
+      <c r="F109">
+        <v>282</v>
+      </c>
+      <c r="G109">
+        <v>701</v>
+      </c>
+      <c r="H109">
+        <v>446</v>
+      </c>
+      <c r="I109">
+        <v>337</v>
+      </c>
+      <c r="J109">
+        <v>206</v>
+      </c>
+      <c r="K109">
+        <v>610</v>
+      </c>
+      <c r="L109">
+        <v>3694</v>
+      </c>
+      <c r="M109">
+        <v>302</v>
+      </c>
+      <c r="N109">
+        <v>533</v>
+      </c>
+      <c r="O109">
+        <v>191</v>
+      </c>
+      <c r="P109">
+        <v>2429</v>
+      </c>
+      <c r="Q109">
+        <v>28</v>
+      </c>
+      <c r="R109">
+        <v>305</v>
+      </c>
+      <c r="S109">
+        <v>4812</v>
+      </c>
+      <c r="T109">
+        <v>254</v>
+      </c>
+      <c r="U109">
+        <v>4132</v>
+      </c>
+      <c r="V109">
+        <v>130</v>
+      </c>
+      <c r="W109">
+        <v>335</v>
+      </c>
+      <c r="X109">
+        <v>312</v>
+      </c>
+      <c r="Y109">
+        <v>1399</v>
+      </c>
+      <c r="Z109">
+        <v>181</v>
+      </c>
+      <c r="AA109">
+        <v>296</v>
+      </c>
+      <c r="AB109">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>10581</v>
+      </c>
+      <c r="C110">
+        <v>1028</v>
+      </c>
+      <c r="D110">
+        <v>7592</v>
+      </c>
+      <c r="E110">
+        <v>1069</v>
+      </c>
+      <c r="F110">
+        <v>293</v>
+      </c>
+      <c r="G110">
+        <v>723</v>
+      </c>
+      <c r="H110">
+        <v>454</v>
+      </c>
+      <c r="I110">
+        <v>344</v>
+      </c>
+      <c r="J110">
+        <v>211</v>
+      </c>
+      <c r="K110">
+        <v>623</v>
+      </c>
+      <c r="L110">
+        <v>3784</v>
+      </c>
+      <c r="M110">
+        <v>320</v>
+      </c>
+      <c r="N110">
+        <v>534</v>
+      </c>
+      <c r="O110">
+        <v>193</v>
+      </c>
+      <c r="P110">
+        <v>2465</v>
+      </c>
+      <c r="Q110">
+        <v>31</v>
+      </c>
+      <c r="R110">
+        <v>316</v>
+      </c>
+      <c r="S110">
+        <v>4829</v>
+      </c>
+      <c r="T110">
+        <v>256</v>
+      </c>
+      <c r="U110">
+        <v>4191</v>
+      </c>
+      <c r="V110">
+        <v>132</v>
+      </c>
+      <c r="W110">
+        <v>360</v>
+      </c>
+      <c r="X110">
+        <v>319</v>
+      </c>
+      <c r="Y110">
+        <v>1436</v>
+      </c>
+      <c r="Z110">
+        <v>199</v>
+      </c>
+      <c r="AA110">
+        <v>309</v>
+      </c>
+      <c r="AB110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>10694</v>
+      </c>
+      <c r="C111">
+        <v>1055</v>
+      </c>
+      <c r="D111">
+        <v>7672</v>
+      </c>
+      <c r="E111">
+        <v>1105</v>
+      </c>
+      <c r="F111">
+        <v>304</v>
+      </c>
+      <c r="G111">
+        <v>744</v>
+      </c>
+      <c r="H111">
+        <v>475</v>
+      </c>
+      <c r="I111">
+        <v>350</v>
+      </c>
+      <c r="J111">
+        <v>216</v>
+      </c>
+      <c r="K111">
+        <v>633</v>
+      </c>
+      <c r="L111">
+        <v>3855</v>
+      </c>
+      <c r="M111">
+        <v>334</v>
+      </c>
+      <c r="N111">
+        <v>534</v>
+      </c>
+      <c r="O111">
+        <v>195</v>
+      </c>
+      <c r="P111">
+        <v>2492</v>
+      </c>
+      <c r="Q111">
+        <v>31</v>
+      </c>
+      <c r="R111">
+        <v>330</v>
+      </c>
+      <c r="S111">
+        <v>4885</v>
+      </c>
+      <c r="T111">
+        <v>259</v>
+      </c>
+      <c r="U111">
+        <v>4201</v>
+      </c>
+      <c r="V111">
+        <v>132</v>
+      </c>
+      <c r="W111">
+        <v>374</v>
+      </c>
+      <c r="X111">
+        <v>324</v>
+      </c>
+      <c r="Y111">
+        <v>1467</v>
+      </c>
+      <c r="Z111">
+        <v>213</v>
+      </c>
+      <c r="AA111">
+        <v>324</v>
+      </c>
+      <c r="AB111">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -16638,15 +17163,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -16654,7 +17179,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -16662,7 +17187,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -16670,7 +17195,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -16678,7 +17203,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -16686,7 +17211,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -16694,7 +17219,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -16702,7 +17227,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -16710,7 +17235,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -16718,7 +17243,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -16726,7 +17251,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -16734,7 +17259,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -16742,7 +17267,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -16750,7 +17275,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -16758,7 +17283,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -16766,7 +17291,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -16774,7 +17299,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -16782,7 +17307,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -16790,7 +17315,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -16798,7 +17323,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -16806,7 +17331,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -16814,7 +17339,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -16822,7 +17347,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -16830,7 +17355,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -16838,7 +17363,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -16846,7 +17371,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -16854,7 +17379,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="141">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
   </si>
   <si>
     <t>UF</t>
@@ -767,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8909,7 +8912,7 @@
         <v>9706</v>
       </c>
       <c r="N111">
-        <v>14171</v>
+        <v>14214</v>
       </c>
       <c r="O111">
         <v>13360</v>
@@ -8918,7 +8921,7 @@
         <v>56506</v>
       </c>
       <c r="Q111">
-        <v>3433</v>
+        <v>3551</v>
       </c>
       <c r="R111">
         <v>13968</v>
@@ -8933,7 +8936,7 @@
         <v>69224</v>
       </c>
       <c r="V111">
-        <v>6972</v>
+        <v>7137</v>
       </c>
       <c r="W111">
         <v>10357</v>
@@ -8951,7 +8954,93 @@
         <v>11865</v>
       </c>
       <c r="AB111">
-        <v>6875</v>
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>181460</v>
+      </c>
+      <c r="C112">
+        <v>27652</v>
+      </c>
+      <c r="D112">
+        <v>80946</v>
+      </c>
+      <c r="E112">
+        <v>37620</v>
+      </c>
+      <c r="F112">
+        <v>23683</v>
+      </c>
+      <c r="G112">
+        <v>22926</v>
+      </c>
+      <c r="H112">
+        <v>21728</v>
+      </c>
+      <c r="I112">
+        <v>15438</v>
+      </c>
+      <c r="J112">
+        <v>10441</v>
+      </c>
+      <c r="K112">
+        <v>28668</v>
+      </c>
+      <c r="L112">
+        <v>45507</v>
+      </c>
+      <c r="M112">
+        <v>9839</v>
+      </c>
+      <c r="N112">
+        <v>14214</v>
+      </c>
+      <c r="O112">
+        <v>13960</v>
+      </c>
+      <c r="P112">
+        <v>56777</v>
+      </c>
+      <c r="Q112">
+        <v>3551</v>
+      </c>
+      <c r="R112">
+        <v>15675</v>
+      </c>
+      <c r="S112">
+        <v>79853</v>
+      </c>
+      <c r="T112">
+        <v>9771</v>
+      </c>
+      <c r="U112">
+        <v>71243</v>
+      </c>
+      <c r="V112">
+        <v>7137</v>
+      </c>
+      <c r="W112">
+        <v>10881</v>
+      </c>
+      <c r="X112">
+        <v>16813</v>
+      </c>
+      <c r="Y112">
+        <v>60592</v>
+      </c>
+      <c r="Z112">
+        <v>6185</v>
+      </c>
+      <c r="AA112">
+        <v>12180</v>
+      </c>
+      <c r="AB112">
+        <v>6881</v>
       </c>
     </row>
   </sheetData>
@@ -8961,7 +9050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17103,7 +17192,7 @@
         <v>334</v>
       </c>
       <c r="N111">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O111">
         <v>195</v>
@@ -17112,7 +17201,7 @@
         <v>2492</v>
       </c>
       <c r="Q111">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R111">
         <v>330</v>
@@ -17127,7 +17216,7 @@
         <v>4201</v>
       </c>
       <c r="V111">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="W111">
         <v>374</v>
@@ -17145,7 +17234,93 @@
         <v>324</v>
       </c>
       <c r="AB111">
-        <v>200</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>10767</v>
+      </c>
+      <c r="C112">
+        <v>1087</v>
+      </c>
+      <c r="D112">
+        <v>7728</v>
+      </c>
+      <c r="E112">
+        <v>1145</v>
+      </c>
+      <c r="F112">
+        <v>319</v>
+      </c>
+      <c r="G112">
+        <v>768</v>
+      </c>
+      <c r="H112">
+        <v>481</v>
+      </c>
+      <c r="I112">
+        <v>360</v>
+      </c>
+      <c r="J112">
+        <v>238</v>
+      </c>
+      <c r="K112">
+        <v>656</v>
+      </c>
+      <c r="L112">
+        <v>3886</v>
+      </c>
+      <c r="M112">
+        <v>342</v>
+      </c>
+      <c r="N112">
+        <v>553</v>
+      </c>
+      <c r="O112">
+        <v>199</v>
+      </c>
+      <c r="P112">
+        <v>2512</v>
+      </c>
+      <c r="Q112">
+        <v>33</v>
+      </c>
+      <c r="R112">
+        <v>352</v>
+      </c>
+      <c r="S112">
+        <v>5041</v>
+      </c>
+      <c r="T112">
+        <v>265</v>
+      </c>
+      <c r="U112">
+        <v>4291</v>
+      </c>
+      <c r="V112">
+        <v>136</v>
+      </c>
+      <c r="W112">
+        <v>393</v>
+      </c>
+      <c r="X112">
+        <v>329</v>
+      </c>
+      <c r="Y112">
+        <v>1499</v>
+      </c>
+      <c r="Z112">
+        <v>216</v>
+      </c>
+      <c r="AA112">
+        <v>332</v>
+      </c>
+      <c r="AB112">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -17163,15 +17338,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -17179,7 +17354,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -17187,7 +17362,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -17195,7 +17370,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -17203,7 +17378,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -17211,7 +17386,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -17219,7 +17394,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -17227,7 +17402,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -17235,7 +17410,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -17243,7 +17418,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -17251,7 +17426,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -17259,7 +17434,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -17267,7 +17442,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -17275,7 +17450,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -17283,7 +17458,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -17291,7 +17466,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -17299,7 +17474,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -17307,7 +17482,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -17315,7 +17490,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -17323,7 +17498,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -17331,7 +17506,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -17339,7 +17514,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -17347,7 +17522,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -17355,7 +17530,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -17363,7 +17538,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -17371,7 +17546,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -17379,7 +17554,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="143">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
   </si>
   <si>
     <t>UF</t>
@@ -770,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6697,7 +6703,7 @@
         <v>2482</v>
       </c>
       <c r="U85">
-        <v>15467</v>
+        <v>17177</v>
       </c>
       <c r="V85">
         <v>1809</v>
@@ -8073,7 +8079,7 @@
         <v>7021</v>
       </c>
       <c r="U101">
-        <v>46473</v>
+        <v>49473</v>
       </c>
       <c r="V101">
         <v>4698</v>
@@ -8159,7 +8165,7 @@
         <v>7284</v>
       </c>
       <c r="U102">
-        <v>46473</v>
+        <v>53860</v>
       </c>
       <c r="V102">
         <v>5505</v>
@@ -8974,7 +8980,7 @@
         <v>37620</v>
       </c>
       <c r="F112">
-        <v>23683</v>
+        <v>23684</v>
       </c>
       <c r="G112">
         <v>22926</v>
@@ -8998,7 +9004,7 @@
         <v>9839</v>
       </c>
       <c r="N112">
-        <v>14214</v>
+        <v>15212</v>
       </c>
       <c r="O112">
         <v>13960</v>
@@ -9007,7 +9013,7 @@
         <v>56777</v>
       </c>
       <c r="Q112">
-        <v>3551</v>
+        <v>3785</v>
       </c>
       <c r="R112">
         <v>15675</v>
@@ -9022,7 +9028,7 @@
         <v>71243</v>
       </c>
       <c r="V112">
-        <v>7137</v>
+        <v>7309</v>
       </c>
       <c r="W112">
         <v>10881</v>
@@ -9034,13 +9040,185 @@
         <v>60592</v>
       </c>
       <c r="Z112">
-        <v>6185</v>
+        <v>6390</v>
       </c>
       <c r="AA112">
         <v>12180</v>
       </c>
       <c r="AB112">
-        <v>6881</v>
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>190285</v>
+      </c>
+      <c r="C113">
+        <v>29030</v>
+      </c>
+      <c r="D113">
+        <v>83343</v>
+      </c>
+      <c r="E113">
+        <v>39206</v>
+      </c>
+      <c r="F113">
+        <v>25397</v>
+      </c>
+      <c r="G113">
+        <v>23632</v>
+      </c>
+      <c r="H113">
+        <v>22024</v>
+      </c>
+      <c r="I113">
+        <v>16471</v>
+      </c>
+      <c r="J113">
+        <v>11836</v>
+      </c>
+      <c r="K113">
+        <v>30128</v>
+      </c>
+      <c r="L113">
+        <v>46427</v>
+      </c>
+      <c r="M113">
+        <v>10690</v>
+      </c>
+      <c r="N113">
+        <v>15212</v>
+      </c>
+      <c r="O113">
+        <v>14402</v>
+      </c>
+      <c r="P113">
+        <v>58018</v>
+      </c>
+      <c r="Q113">
+        <v>4164</v>
+      </c>
+      <c r="R113">
+        <v>16310</v>
+      </c>
+      <c r="S113">
+        <v>82169</v>
+      </c>
+      <c r="T113">
+        <v>10003</v>
+      </c>
+      <c r="U113">
+        <v>74192</v>
+      </c>
+      <c r="V113">
+        <v>7573</v>
+      </c>
+      <c r="W113">
+        <v>11559</v>
+      </c>
+      <c r="X113">
+        <v>18024</v>
+      </c>
+      <c r="Y113">
+        <v>62711</v>
+      </c>
+      <c r="Z113">
+        <v>6877</v>
+      </c>
+      <c r="AA113">
+        <v>13010</v>
+      </c>
+      <c r="AB113">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>191517</v>
+      </c>
+      <c r="C114">
+        <v>30508</v>
+      </c>
+      <c r="D114">
+        <v>86963</v>
+      </c>
+      <c r="E114">
+        <v>40926</v>
+      </c>
+      <c r="F114">
+        <v>27140</v>
+      </c>
+      <c r="G114">
+        <v>24867</v>
+      </c>
+      <c r="H114">
+        <v>23347</v>
+      </c>
+      <c r="I114">
+        <v>17128</v>
+      </c>
+      <c r="J114">
+        <v>12750</v>
+      </c>
+      <c r="K114">
+        <v>31712</v>
+      </c>
+      <c r="L114">
+        <v>47446</v>
+      </c>
+      <c r="M114">
+        <v>11225</v>
+      </c>
+      <c r="N114">
+        <v>15212</v>
+      </c>
+      <c r="O114">
+        <v>15015</v>
+      </c>
+      <c r="P114">
+        <v>59547</v>
+      </c>
+      <c r="Q114">
+        <v>4164</v>
+      </c>
+      <c r="R114">
+        <v>16807</v>
+      </c>
+      <c r="S114">
+        <v>85606</v>
+      </c>
+      <c r="T114">
+        <v>10339</v>
+      </c>
+      <c r="U114">
+        <v>76623</v>
+      </c>
+      <c r="V114">
+        <v>7573</v>
+      </c>
+      <c r="W114">
+        <v>12099</v>
+      </c>
+      <c r="X114">
+        <v>18618</v>
+      </c>
+      <c r="Y114">
+        <v>64735</v>
+      </c>
+      <c r="Z114">
+        <v>7124</v>
+      </c>
+      <c r="AA114">
+        <v>13567</v>
+      </c>
+      <c r="AB114">
+        <v>7150</v>
       </c>
     </row>
   </sheetData>
@@ -9050,7 +9228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB112"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14977,7 +15155,7 @@
         <v>73</v>
       </c>
       <c r="U85">
-        <v>1392</v>
+        <v>1554</v>
       </c>
       <c r="V85">
         <v>42</v>
@@ -16353,7 +16531,7 @@
         <v>181</v>
       </c>
       <c r="U101">
-        <v>3245</v>
+        <v>3492</v>
       </c>
       <c r="V101">
         <v>82</v>
@@ -16439,7 +16617,7 @@
         <v>190</v>
       </c>
       <c r="U102">
-        <v>3245</v>
+        <v>3665</v>
       </c>
       <c r="V102">
         <v>96</v>
@@ -17278,7 +17456,7 @@
         <v>342</v>
       </c>
       <c r="N112">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="O112">
         <v>199</v>
@@ -17287,7 +17465,7 @@
         <v>2512</v>
       </c>
       <c r="Q112">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R112">
         <v>352</v>
@@ -17302,7 +17480,7 @@
         <v>4291</v>
       </c>
       <c r="V112">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="W112">
         <v>393</v>
@@ -17314,13 +17492,185 @@
         <v>1499</v>
       </c>
       <c r="Z112">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AA112">
         <v>332</v>
       </c>
       <c r="AB112">
-        <v>203</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>11132</v>
+      </c>
+      <c r="C113">
+        <v>1132</v>
+      </c>
+      <c r="D113">
+        <v>7967</v>
+      </c>
+      <c r="E113">
+        <v>1181</v>
+      </c>
+      <c r="F113">
+        <v>348</v>
+      </c>
+      <c r="G113">
+        <v>793</v>
+      </c>
+      <c r="H113">
+        <v>502</v>
+      </c>
+      <c r="I113">
+        <v>374</v>
+      </c>
+      <c r="J113">
+        <v>249</v>
+      </c>
+      <c r="K113">
+        <v>671</v>
+      </c>
+      <c r="L113">
+        <v>3959</v>
+      </c>
+      <c r="M113">
+        <v>372</v>
+      </c>
+      <c r="N113">
+        <v>585</v>
+      </c>
+      <c r="O113">
+        <v>212</v>
+      </c>
+      <c r="P113">
+        <v>2550</v>
+      </c>
+      <c r="Q113">
+        <v>36</v>
+      </c>
+      <c r="R113">
+        <v>364</v>
+      </c>
+      <c r="S113">
+        <v>5192</v>
+      </c>
+      <c r="T113">
+        <v>271</v>
+      </c>
+      <c r="U113">
+        <v>4350</v>
+      </c>
+      <c r="V113">
+        <v>149</v>
+      </c>
+      <c r="W113">
+        <v>398</v>
+      </c>
+      <c r="X113">
+        <v>337</v>
+      </c>
+      <c r="Y113">
+        <v>1537</v>
+      </c>
+      <c r="Z113">
+        <v>250</v>
+      </c>
+      <c r="AA113">
+        <v>346</v>
+      </c>
+      <c r="AB113">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>11521</v>
+      </c>
+      <c r="C114">
+        <v>1179</v>
+      </c>
+      <c r="D114">
+        <v>8138</v>
+      </c>
+      <c r="E114">
+        <v>1222</v>
+      </c>
+      <c r="F114">
+        <v>365</v>
+      </c>
+      <c r="G114">
+        <v>811</v>
+      </c>
+      <c r="H114">
+        <v>537</v>
+      </c>
+      <c r="I114">
+        <v>387</v>
+      </c>
+      <c r="J114">
+        <v>255</v>
+      </c>
+      <c r="K114">
+        <v>696</v>
+      </c>
+      <c r="L114">
+        <v>4009</v>
+      </c>
+      <c r="M114">
+        <v>394</v>
+      </c>
+      <c r="N114">
+        <v>585</v>
+      </c>
+      <c r="O114">
+        <v>216</v>
+      </c>
+      <c r="P114">
+        <v>2579</v>
+      </c>
+      <c r="Q114">
+        <v>36</v>
+      </c>
+      <c r="R114">
+        <v>383</v>
+      </c>
+      <c r="S114">
+        <v>5307</v>
+      </c>
+      <c r="T114">
+        <v>281</v>
+      </c>
+      <c r="U114">
+        <v>4395</v>
+      </c>
+      <c r="V114">
+        <v>149</v>
+      </c>
+      <c r="W114">
+        <v>421</v>
+      </c>
+      <c r="X114">
+        <v>338</v>
+      </c>
+      <c r="Y114">
+        <v>1570</v>
+      </c>
+      <c r="Z114">
+        <v>266</v>
+      </c>
+      <c r="AA114">
+        <v>361</v>
+      </c>
+      <c r="AB114">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -17338,15 +17688,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -17354,7 +17704,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -17362,7 +17712,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -17370,7 +17720,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -17378,7 +17728,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -17386,7 +17736,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -17394,7 +17744,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -17402,7 +17752,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -17410,7 +17760,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -17418,7 +17768,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -17426,7 +17776,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -17434,7 +17784,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -17442,7 +17792,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -17450,7 +17800,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -17458,7 +17808,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -17466,7 +17816,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -17474,7 +17824,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -17482,7 +17832,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -17490,7 +17840,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -17498,7 +17848,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -17506,7 +17856,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -17514,7 +17864,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -17522,7 +17872,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -17530,7 +17880,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -17538,7 +17888,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -17546,7 +17896,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -17554,7 +17904,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="144">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
   </si>
   <si>
     <t>UF</t>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8073,7 +8076,7 @@
         <v>8200</v>
       </c>
       <c r="S101">
-        <v>56056</v>
+        <v>59795</v>
       </c>
       <c r="T101">
         <v>7021</v>
@@ -9066,7 +9069,7 @@
         <v>39206</v>
       </c>
       <c r="F113">
-        <v>25397</v>
+        <v>25380</v>
       </c>
       <c r="G113">
         <v>23632</v>
@@ -9090,7 +9093,7 @@
         <v>10690</v>
       </c>
       <c r="N113">
-        <v>15212</v>
+        <v>15690</v>
       </c>
       <c r="O113">
         <v>14402</v>
@@ -9164,7 +9167,7 @@
         <v>17128</v>
       </c>
       <c r="J114">
-        <v>12750</v>
+        <v>12776</v>
       </c>
       <c r="K114">
         <v>31712</v>
@@ -9176,7 +9179,7 @@
         <v>11225</v>
       </c>
       <c r="N114">
-        <v>15212</v>
+        <v>15889</v>
       </c>
       <c r="O114">
         <v>15015</v>
@@ -9185,7 +9188,7 @@
         <v>59547</v>
       </c>
       <c r="Q114">
-        <v>4164</v>
+        <v>4274</v>
       </c>
       <c r="R114">
         <v>16807</v>
@@ -9200,7 +9203,7 @@
         <v>76623</v>
       </c>
       <c r="V114">
-        <v>7573</v>
+        <v>7774</v>
       </c>
       <c r="W114">
         <v>12099</v>
@@ -9212,13 +9215,99 @@
         <v>64735</v>
       </c>
       <c r="Z114">
-        <v>7124</v>
+        <v>7361</v>
       </c>
       <c r="AA114">
         <v>13567</v>
       </c>
       <c r="AB114">
-        <v>7150</v>
+        <v>7421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>192628</v>
+      </c>
+      <c r="C115">
+        <v>31772</v>
+      </c>
+      <c r="D115">
+        <v>87317</v>
+      </c>
+      <c r="E115">
+        <v>41577</v>
+      </c>
+      <c r="F115">
+        <v>28521</v>
+      </c>
+      <c r="G115">
+        <v>25633</v>
+      </c>
+      <c r="H115">
+        <v>24906</v>
+      </c>
+      <c r="I115">
+        <v>17822</v>
+      </c>
+      <c r="J115">
+        <v>13665</v>
+      </c>
+      <c r="K115">
+        <v>31760</v>
+      </c>
+      <c r="L115">
+        <v>48626</v>
+      </c>
+      <c r="M115">
+        <v>12059</v>
+      </c>
+      <c r="N115">
+        <v>15889</v>
+      </c>
+      <c r="O115">
+        <v>15573</v>
+      </c>
+      <c r="P115">
+        <v>60736</v>
+      </c>
+      <c r="Q115">
+        <v>4274</v>
+      </c>
+      <c r="R115">
+        <v>17338</v>
+      </c>
+      <c r="S115">
+        <v>88132</v>
+      </c>
+      <c r="T115">
+        <v>10664</v>
+      </c>
+      <c r="U115">
+        <v>80072</v>
+      </c>
+      <c r="V115">
+        <v>7774</v>
+      </c>
+      <c r="W115">
+        <v>12567</v>
+      </c>
+      <c r="X115">
+        <v>19387</v>
+      </c>
+      <c r="Y115">
+        <v>66091</v>
+      </c>
+      <c r="Z115">
+        <v>7361</v>
+      </c>
+      <c r="AA115">
+        <v>13804</v>
+      </c>
+      <c r="AB115">
+        <v>7421</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16525,7 +16614,7 @@
         <v>186</v>
       </c>
       <c r="S101">
-        <v>3605</v>
+        <v>3813</v>
       </c>
       <c r="T101">
         <v>181</v>
@@ -17542,7 +17631,7 @@
         <v>372</v>
       </c>
       <c r="N113">
-        <v>585</v>
+        <v>626</v>
       </c>
       <c r="O113">
         <v>212</v>
@@ -17628,7 +17717,7 @@
         <v>394</v>
       </c>
       <c r="N114">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="O114">
         <v>216</v>
@@ -17637,7 +17726,7 @@
         <v>2579</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R114">
         <v>383</v>
@@ -17652,7 +17741,7 @@
         <v>4395</v>
       </c>
       <c r="V114">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="W114">
         <v>421</v>
@@ -17664,13 +17753,99 @@
         <v>1570</v>
       </c>
       <c r="Z114">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AA114">
         <v>361</v>
       </c>
       <c r="AB114">
-        <v>224</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>11846</v>
+      </c>
+      <c r="C115">
+        <v>1223</v>
+      </c>
+      <c r="D115">
+        <v>8412</v>
+      </c>
+      <c r="E115">
+        <v>1263</v>
+      </c>
+      <c r="F115">
+        <v>379</v>
+      </c>
+      <c r="G115">
+        <v>831</v>
+      </c>
+      <c r="H115">
+        <v>570</v>
+      </c>
+      <c r="I115">
+        <v>406</v>
+      </c>
+      <c r="J115">
+        <v>275</v>
+      </c>
+      <c r="K115">
+        <v>709</v>
+      </c>
+      <c r="L115">
+        <v>4057</v>
+      </c>
+      <c r="M115">
+        <v>415</v>
+      </c>
+      <c r="N115">
+        <v>655</v>
+      </c>
+      <c r="O115">
+        <v>222</v>
+      </c>
+      <c r="P115">
+        <v>2605</v>
+      </c>
+      <c r="Q115">
+        <v>39</v>
+      </c>
+      <c r="R115">
+        <v>400</v>
+      </c>
+      <c r="S115">
+        <v>5393</v>
+      </c>
+      <c r="T115">
+        <v>287</v>
+      </c>
+      <c r="U115">
+        <v>4469</v>
+      </c>
+      <c r="V115">
+        <v>152</v>
+      </c>
+      <c r="W115">
+        <v>435</v>
+      </c>
+      <c r="X115">
+        <v>342</v>
+      </c>
+      <c r="Y115">
+        <v>1607</v>
+      </c>
+      <c r="Z115">
+        <v>272</v>
+      </c>
+      <c r="AA115">
+        <v>374</v>
+      </c>
+      <c r="AB115">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -17688,15 +17863,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -17704,7 +17879,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -17712,7 +17887,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -17720,7 +17895,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -17728,7 +17903,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -17736,7 +17911,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -17744,7 +17919,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -17752,7 +17927,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -17760,7 +17935,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -17768,7 +17943,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -17776,7 +17951,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -17784,7 +17959,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -17792,7 +17967,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -17800,7 +17975,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -17808,7 +17983,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -17816,7 +17991,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -17824,7 +17999,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -17832,7 +18007,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -17840,7 +18015,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -17848,7 +18023,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -17856,7 +18031,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -17864,7 +18039,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -17872,7 +18047,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -17880,7 +18055,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -17888,7 +18063,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -17896,7 +18071,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -17904,7 +18079,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
   </si>
   <si>
     <t>UF</t>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9265,7 +9268,7 @@
         <v>12059</v>
       </c>
       <c r="N115">
-        <v>15889</v>
+        <v>16039</v>
       </c>
       <c r="O115">
         <v>15573</v>
@@ -9274,7 +9277,7 @@
         <v>60736</v>
       </c>
       <c r="Q115">
-        <v>4274</v>
+        <v>4666</v>
       </c>
       <c r="R115">
         <v>17338</v>
@@ -9289,7 +9292,7 @@
         <v>80072</v>
       </c>
       <c r="V115">
-        <v>7774</v>
+        <v>7956</v>
       </c>
       <c r="W115">
         <v>12567</v>
@@ -9301,13 +9304,99 @@
         <v>66091</v>
       </c>
       <c r="Z115">
-        <v>7361</v>
+        <v>8166</v>
       </c>
       <c r="AA115">
         <v>13804</v>
       </c>
       <c r="AB115">
-        <v>7421</v>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>211658</v>
+      </c>
+      <c r="C116">
+        <v>33232</v>
+      </c>
+      <c r="D116">
+        <v>93378</v>
+      </c>
+      <c r="E116">
+        <v>43922</v>
+      </c>
+      <c r="F116">
+        <v>30902</v>
+      </c>
+      <c r="G116">
+        <v>26906</v>
+      </c>
+      <c r="H116">
+        <v>26052</v>
+      </c>
+      <c r="I116">
+        <v>18587</v>
+      </c>
+      <c r="J116">
+        <v>14540</v>
+      </c>
+      <c r="K116">
+        <v>35093</v>
+      </c>
+      <c r="L116">
+        <v>49720</v>
+      </c>
+      <c r="M116">
+        <v>12932</v>
+      </c>
+      <c r="N116">
+        <v>16039</v>
+      </c>
+      <c r="O116">
+        <v>16332</v>
+      </c>
+      <c r="P116">
+        <v>61683</v>
+      </c>
+      <c r="Q116">
+        <v>4666</v>
+      </c>
+      <c r="R116">
+        <v>17808</v>
+      </c>
+      <c r="S116">
+        <v>90441</v>
+      </c>
+      <c r="T116">
+        <v>10987</v>
+      </c>
+      <c r="U116">
+        <v>82881</v>
+      </c>
+      <c r="V116">
+        <v>7956</v>
+      </c>
+      <c r="W116">
+        <v>13813</v>
+      </c>
+      <c r="X116">
+        <v>19922</v>
+      </c>
+      <c r="Y116">
+        <v>68500</v>
+      </c>
+      <c r="Z116">
+        <v>8353</v>
+      </c>
+      <c r="AA116">
+        <v>14353</v>
+      </c>
+      <c r="AB116">
+        <v>7650</v>
       </c>
     </row>
   </sheetData>
@@ -9317,7 +9406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17803,7 +17892,7 @@
         <v>415</v>
       </c>
       <c r="N115">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="O115">
         <v>222</v>
@@ -17812,7 +17901,7 @@
         <v>2605</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R115">
         <v>400</v>
@@ -17827,7 +17916,7 @@
         <v>4469</v>
       </c>
       <c r="V115">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="W115">
         <v>435</v>
@@ -17839,13 +17928,99 @@
         <v>1607</v>
       </c>
       <c r="Z115">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AA115">
         <v>374</v>
       </c>
       <c r="AB115">
-        <v>231</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>12232</v>
+      </c>
+      <c r="C116">
+        <v>1267</v>
+      </c>
+      <c r="D116">
+        <v>8595</v>
+      </c>
+      <c r="E116">
+        <v>1305</v>
+      </c>
+      <c r="F116">
+        <v>397</v>
+      </c>
+      <c r="G116">
+        <v>848</v>
+      </c>
+      <c r="H116">
+        <v>600</v>
+      </c>
+      <c r="I116">
+        <v>423</v>
+      </c>
+      <c r="J116">
+        <v>289</v>
+      </c>
+      <c r="K116">
+        <v>724</v>
+      </c>
+      <c r="L116">
+        <v>4102</v>
+      </c>
+      <c r="M116">
+        <v>428</v>
+      </c>
+      <c r="N116">
+        <v>693</v>
+      </c>
+      <c r="O116">
+        <v>234</v>
+      </c>
+      <c r="P116">
+        <v>2624</v>
+      </c>
+      <c r="Q116">
+        <v>40</v>
+      </c>
+      <c r="R116">
+        <v>426</v>
+      </c>
+      <c r="S116">
+        <v>5497</v>
+      </c>
+      <c r="T116">
+        <v>292</v>
+      </c>
+      <c r="U116">
+        <v>4519</v>
+      </c>
+      <c r="V116">
+        <v>159</v>
+      </c>
+      <c r="W116">
+        <v>459</v>
+      </c>
+      <c r="X116">
+        <v>348</v>
+      </c>
+      <c r="Y116">
+        <v>1645</v>
+      </c>
+      <c r="Z116">
+        <v>309</v>
+      </c>
+      <c r="AA116">
+        <v>391</v>
+      </c>
+      <c r="AB116">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -17863,15 +18038,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -17879,7 +18054,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -17887,7 +18062,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -17895,7 +18070,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -17903,7 +18078,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -17911,7 +18086,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -17919,7 +18094,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -17927,7 +18102,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -17935,7 +18110,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -17943,7 +18118,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -17951,7 +18126,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -17959,7 +18134,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -17967,7 +18142,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -17975,7 +18150,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -17983,7 +18158,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -17991,7 +18166,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -17999,7 +18174,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -18007,7 +18182,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -18015,7 +18190,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -18023,7 +18198,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -18031,7 +18206,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -18039,7 +18214,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -18047,7 +18222,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -18055,7 +18230,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -18063,7 +18238,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -18071,7 +18246,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -18079,7 +18254,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="146">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
   </si>
   <si>
     <t>UF</t>
@@ -782,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9345,7 +9348,7 @@
         <v>14540</v>
       </c>
       <c r="K116">
-        <v>35093</v>
+        <v>31760</v>
       </c>
       <c r="L116">
         <v>49720</v>
@@ -9354,7 +9357,7 @@
         <v>12932</v>
       </c>
       <c r="N116">
-        <v>16039</v>
+        <v>19206</v>
       </c>
       <c r="O116">
         <v>16332</v>
@@ -9363,7 +9366,7 @@
         <v>61683</v>
       </c>
       <c r="Q116">
-        <v>4666</v>
+        <v>4990</v>
       </c>
       <c r="R116">
         <v>17808</v>
@@ -9378,7 +9381,7 @@
         <v>82881</v>
       </c>
       <c r="V116">
-        <v>7956</v>
+        <v>8203</v>
       </c>
       <c r="W116">
         <v>13813</v>
@@ -9390,13 +9393,99 @@
         <v>68500</v>
       </c>
       <c r="Z116">
-        <v>8353</v>
+        <v>8725</v>
       </c>
       <c r="AA116">
         <v>14353</v>
       </c>
       <c r="AB116">
-        <v>7650</v>
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>215793</v>
+      </c>
+      <c r="C117">
+        <v>34238</v>
+      </c>
+      <c r="D117">
+        <v>95537</v>
+      </c>
+      <c r="E117">
+        <v>45304</v>
+      </c>
+      <c r="F117">
+        <v>32235</v>
+      </c>
+      <c r="G117">
+        <v>27698</v>
+      </c>
+      <c r="H117">
+        <v>27305</v>
+      </c>
+      <c r="I117">
+        <v>19138</v>
+      </c>
+      <c r="J117">
+        <v>15418</v>
+      </c>
+      <c r="K117">
+        <v>36521</v>
+      </c>
+      <c r="L117">
+        <v>51118</v>
+      </c>
+      <c r="M117">
+        <v>13821</v>
+      </c>
+      <c r="N117">
+        <v>19206</v>
+      </c>
+      <c r="O117">
+        <v>17108</v>
+      </c>
+      <c r="P117">
+        <v>62902</v>
+      </c>
+      <c r="Q117">
+        <v>4990</v>
+      </c>
+      <c r="R117">
+        <v>18449</v>
+      </c>
+      <c r="S117">
+        <v>92397</v>
+      </c>
+      <c r="T117">
+        <v>11263</v>
+      </c>
+      <c r="U117">
+        <v>84654</v>
+      </c>
+      <c r="V117">
+        <v>8203</v>
+      </c>
+      <c r="W117">
+        <v>14264</v>
+      </c>
+      <c r="X117">
+        <v>21574</v>
+      </c>
+      <c r="Y117">
+        <v>69673</v>
+      </c>
+      <c r="Z117">
+        <v>9262</v>
+      </c>
+      <c r="AA117">
+        <v>14952</v>
+      </c>
+      <c r="AB117">
+        <v>8037</v>
       </c>
     </row>
   </sheetData>
@@ -9406,7 +9495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17848,7 +17937,7 @@
         <v>361</v>
       </c>
       <c r="AB114">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -17954,7 +18043,7 @@
         <v>1305</v>
       </c>
       <c r="F116">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G116">
         <v>848</v>
@@ -17969,7 +18058,7 @@
         <v>289</v>
       </c>
       <c r="K116">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="L116">
         <v>4102</v>
@@ -17978,7 +18067,7 @@
         <v>428</v>
       </c>
       <c r="N116">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="O116">
         <v>234</v>
@@ -17987,7 +18076,7 @@
         <v>2624</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R116">
         <v>426</v>
@@ -18002,7 +18091,7 @@
         <v>4519</v>
       </c>
       <c r="V116">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="W116">
         <v>459</v>
@@ -18014,13 +18103,99 @@
         <v>1645</v>
       </c>
       <c r="Z116">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="AA116">
         <v>391</v>
       </c>
       <c r="AB116">
-        <v>239</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>12494</v>
+      </c>
+      <c r="C117">
+        <v>1297</v>
+      </c>
+      <c r="D117">
+        <v>8824</v>
+      </c>
+      <c r="E117">
+        <v>1350</v>
+      </c>
+      <c r="F117">
+        <v>405</v>
+      </c>
+      <c r="G117">
+        <v>866</v>
+      </c>
+      <c r="H117">
+        <v>636</v>
+      </c>
+      <c r="I117">
+        <v>430</v>
+      </c>
+      <c r="J117">
+        <v>295</v>
+      </c>
+      <c r="K117">
+        <v>743</v>
+      </c>
+      <c r="L117">
+        <v>4148</v>
+      </c>
+      <c r="M117">
+        <v>437</v>
+      </c>
+      <c r="N117">
+        <v>697</v>
+      </c>
+      <c r="O117">
+        <v>237</v>
+      </c>
+      <c r="P117">
+        <v>2650</v>
+      </c>
+      <c r="Q117">
+        <v>43</v>
+      </c>
+      <c r="R117">
+        <v>448</v>
+      </c>
+      <c r="S117">
+        <v>5520</v>
+      </c>
+      <c r="T117">
+        <v>297</v>
+      </c>
+      <c r="U117">
+        <v>4583</v>
+      </c>
+      <c r="V117">
+        <v>167</v>
+      </c>
+      <c r="W117">
+        <v>485</v>
+      </c>
+      <c r="X117">
+        <v>353</v>
+      </c>
+      <c r="Y117">
+        <v>1684</v>
+      </c>
+      <c r="Z117">
+        <v>341</v>
+      </c>
+      <c r="AA117">
+        <v>409</v>
+      </c>
+      <c r="AB117">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -18038,15 +18213,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -18054,7 +18229,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -18062,7 +18237,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -18070,7 +18245,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -18078,7 +18253,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -18086,7 +18261,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -18094,7 +18269,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -18102,7 +18277,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -18110,7 +18285,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -18118,7 +18293,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -18126,7 +18301,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -18134,7 +18309,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -18142,7 +18317,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -18150,7 +18325,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -18158,7 +18333,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -18166,7 +18341,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -18174,7 +18349,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -18182,7 +18357,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -18190,7 +18365,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -18198,7 +18373,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -18206,7 +18381,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -18214,7 +18389,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -18222,7 +18397,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -18230,7 +18405,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -18238,7 +18413,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -18246,7 +18421,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -18254,7 +18429,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="147">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
   </si>
   <si>
     <t>UF</t>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9431,7 +9434,7 @@
         <v>19138</v>
       </c>
       <c r="J117">
-        <v>15418</v>
+        <v>15450</v>
       </c>
       <c r="K117">
         <v>36521</v>
@@ -9443,7 +9446,7 @@
         <v>13821</v>
       </c>
       <c r="N117">
-        <v>19206</v>
+        <v>19290</v>
       </c>
       <c r="O117">
         <v>17108</v>
@@ -9452,7 +9455,7 @@
         <v>62902</v>
       </c>
       <c r="Q117">
-        <v>4990</v>
+        <v>5237</v>
       </c>
       <c r="R117">
         <v>18449</v>
@@ -9467,7 +9470,7 @@
         <v>84654</v>
       </c>
       <c r="V117">
-        <v>8203</v>
+        <v>8354</v>
       </c>
       <c r="W117">
         <v>14264</v>
@@ -9485,7 +9488,93 @@
         <v>14952</v>
       </c>
       <c r="AB117">
-        <v>8037</v>
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>219185</v>
+      </c>
+      <c r="C118">
+        <v>34866</v>
+      </c>
+      <c r="D118">
+        <v>96133</v>
+      </c>
+      <c r="E118">
+        <v>46279</v>
+      </c>
+      <c r="F118">
+        <v>33227</v>
+      </c>
+      <c r="G118">
+        <v>28657</v>
+      </c>
+      <c r="H118">
+        <v>27641</v>
+      </c>
+      <c r="I118">
+        <v>19348</v>
+      </c>
+      <c r="J118">
+        <v>15904</v>
+      </c>
+      <c r="K118">
+        <v>36784</v>
+      </c>
+      <c r="L118">
+        <v>52113</v>
+      </c>
+      <c r="M118">
+        <v>14501</v>
+      </c>
+      <c r="N118">
+        <v>19290</v>
+      </c>
+      <c r="O118">
+        <v>17582</v>
+      </c>
+      <c r="P118">
+        <v>63410</v>
+      </c>
+      <c r="Q118">
+        <v>5237</v>
+      </c>
+      <c r="R118">
+        <v>18985</v>
+      </c>
+      <c r="S118">
+        <v>92866</v>
+      </c>
+      <c r="T118">
+        <v>11381</v>
+      </c>
+      <c r="U118">
+        <v>86020</v>
+      </c>
+      <c r="V118">
+        <v>8354</v>
+      </c>
+      <c r="W118">
+        <v>14476</v>
+      </c>
+      <c r="X118">
+        <v>21840</v>
+      </c>
+      <c r="Y118">
+        <v>70059</v>
+      </c>
+      <c r="Z118">
+        <v>9776</v>
+      </c>
+      <c r="AA118">
+        <v>15181</v>
+      </c>
+      <c r="AB118">
+        <v>8120</v>
       </c>
     </row>
   </sheetData>
@@ -9495,7 +9584,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18162,7 +18251,7 @@
         <v>2650</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R117">
         <v>448</v>
@@ -18177,7 +18266,7 @@
         <v>4583</v>
       </c>
       <c r="V117">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="W117">
         <v>485</v>
@@ -18195,7 +18284,93 @@
         <v>409</v>
       </c>
       <c r="AB117">
-        <v>245</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>12588</v>
+      </c>
+      <c r="C118">
+        <v>1328</v>
+      </c>
+      <c r="D118">
+        <v>8875</v>
+      </c>
+      <c r="E118">
+        <v>1391</v>
+      </c>
+      <c r="F118">
+        <v>423</v>
+      </c>
+      <c r="G118">
+        <v>884</v>
+      </c>
+      <c r="H118">
+        <v>661</v>
+      </c>
+      <c r="I118">
+        <v>434</v>
+      </c>
+      <c r="J118">
+        <v>306</v>
+      </c>
+      <c r="K118">
+        <v>766</v>
+      </c>
+      <c r="L118">
+        <v>4234</v>
+      </c>
+      <c r="M118">
+        <v>451</v>
+      </c>
+      <c r="N118">
+        <v>697</v>
+      </c>
+      <c r="O118">
+        <v>246</v>
+      </c>
+      <c r="P118">
+        <v>2657</v>
+      </c>
+      <c r="Q118">
+        <v>45</v>
+      </c>
+      <c r="R118">
+        <v>462</v>
+      </c>
+      <c r="S118">
+        <v>5523</v>
+      </c>
+      <c r="T118">
+        <v>300</v>
+      </c>
+      <c r="U118">
+        <v>4605</v>
+      </c>
+      <c r="V118">
+        <v>175</v>
+      </c>
+      <c r="W118">
+        <v>502</v>
+      </c>
+      <c r="X118">
+        <v>359</v>
+      </c>
+      <c r="Y118">
+        <v>1721</v>
+      </c>
+      <c r="Z118">
+        <v>370</v>
+      </c>
+      <c r="AA118">
+        <v>417</v>
+      </c>
+      <c r="AB118">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -18213,15 +18388,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -18229,7 +18404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -18237,7 +18412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -18245,7 +18420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -18253,7 +18428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -18261,7 +18436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -18269,7 +18444,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -18277,7 +18452,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -18285,7 +18460,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -18293,7 +18468,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -18301,7 +18476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -18309,7 +18484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -18317,7 +18492,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -18325,7 +18500,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -18333,7 +18508,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -18341,7 +18516,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -18349,7 +18524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -18357,7 +18532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -18365,7 +18540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -18373,7 +18548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -18381,7 +18556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -18389,7 +18564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -18397,7 +18572,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -18405,7 +18580,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -18413,7 +18588,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -18421,7 +18596,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -18429,7 +18604,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
   </si>
   <si>
     <t>UF</t>
@@ -788,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8221,7 +8239,7 @@
         <v>15850</v>
       </c>
       <c r="G103">
-        <v>15706</v>
+        <v>14818</v>
       </c>
       <c r="H103">
         <v>14939</v>
@@ -8307,7 +8325,7 @@
         <v>16623</v>
       </c>
       <c r="G104">
-        <v>16339</v>
+        <v>15706</v>
       </c>
       <c r="H104">
         <v>15703</v>
@@ -9155,7 +9173,7 @@
         <v>191517</v>
       </c>
       <c r="C114">
-        <v>30508</v>
+        <v>30507</v>
       </c>
       <c r="D114">
         <v>86963</v>
@@ -9351,7 +9369,7 @@
         <v>14540</v>
       </c>
       <c r="K116">
-        <v>31760</v>
+        <v>35093</v>
       </c>
       <c r="L116">
         <v>49720</v>
@@ -9422,7 +9440,7 @@
         <v>45304</v>
       </c>
       <c r="F117">
-        <v>32235</v>
+        <v>32238</v>
       </c>
       <c r="G117">
         <v>27698</v>
@@ -9532,7 +9550,7 @@
         <v>14501</v>
       </c>
       <c r="N118">
-        <v>19290</v>
+        <v>19957</v>
       </c>
       <c r="O118">
         <v>17582</v>
@@ -9541,7 +9559,7 @@
         <v>63410</v>
       </c>
       <c r="Q118">
-        <v>5237</v>
+        <v>5391</v>
       </c>
       <c r="R118">
         <v>18985</v>
@@ -9556,7 +9574,7 @@
         <v>86020</v>
       </c>
       <c r="V118">
-        <v>8354</v>
+        <v>8477</v>
       </c>
       <c r="W118">
         <v>14476</v>
@@ -9574,7 +9592,523 @@
         <v>15181</v>
       </c>
       <c r="AB118">
-        <v>8120</v>
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>221973</v>
+      </c>
+      <c r="C119">
+        <v>36147</v>
+      </c>
+      <c r="D119">
+        <v>97572</v>
+      </c>
+      <c r="E119">
+        <v>47086</v>
+      </c>
+      <c r="F119">
+        <v>34148</v>
+      </c>
+      <c r="G119">
+        <v>29395</v>
+      </c>
+      <c r="H119">
+        <v>28918</v>
+      </c>
+      <c r="I119">
+        <v>19710</v>
+      </c>
+      <c r="J119">
+        <v>17085</v>
+      </c>
+      <c r="K119">
+        <v>37253</v>
+      </c>
+      <c r="L119">
+        <v>52494</v>
+      </c>
+      <c r="M119">
+        <v>15124</v>
+      </c>
+      <c r="N119">
+        <v>20075</v>
+      </c>
+      <c r="O119">
+        <v>17937</v>
+      </c>
+      <c r="P119">
+        <v>63731</v>
+      </c>
+      <c r="Q119">
+        <v>5784</v>
+      </c>
+      <c r="R119">
+        <v>19384</v>
+      </c>
+      <c r="S119">
+        <v>94708</v>
+      </c>
+      <c r="T119">
+        <v>11539</v>
+      </c>
+      <c r="U119">
+        <v>88636</v>
+      </c>
+      <c r="V119">
+        <v>8766</v>
+      </c>
+      <c r="W119">
+        <v>15269</v>
+      </c>
+      <c r="X119">
+        <v>24862</v>
+      </c>
+      <c r="Y119">
+        <v>70689</v>
+      </c>
+      <c r="Z119">
+        <v>10270</v>
+      </c>
+      <c r="AA119">
+        <v>15827</v>
+      </c>
+      <c r="AB119">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>229475</v>
+      </c>
+      <c r="C120">
+        <v>36827</v>
+      </c>
+      <c r="D120">
+        <v>100869</v>
+      </c>
+      <c r="E120">
+        <v>49084</v>
+      </c>
+      <c r="F120">
+        <v>35368</v>
+      </c>
+      <c r="G120">
+        <v>30246</v>
+      </c>
+      <c r="H120">
+        <v>29897</v>
+      </c>
+      <c r="I120">
+        <v>20864</v>
+      </c>
+      <c r="J120">
+        <v>18014</v>
+      </c>
+      <c r="K120">
+        <v>38999</v>
+      </c>
+      <c r="L120">
+        <v>52831</v>
+      </c>
+      <c r="M120">
+        <v>15853</v>
+      </c>
+      <c r="N120">
+        <v>21844</v>
+      </c>
+      <c r="O120">
+        <v>19244</v>
+      </c>
+      <c r="P120">
+        <v>65073</v>
+      </c>
+      <c r="Q120">
+        <v>6201</v>
+      </c>
+      <c r="R120">
+        <v>19883</v>
+      </c>
+      <c r="S120">
+        <v>98055</v>
+      </c>
+      <c r="T120">
+        <v>11810</v>
+      </c>
+      <c r="U120">
+        <v>91708</v>
+      </c>
+      <c r="V120">
+        <v>9098</v>
+      </c>
+      <c r="W120">
+        <v>16227</v>
+      </c>
+      <c r="X120">
+        <v>26437</v>
+      </c>
+      <c r="Y120">
+        <v>72021</v>
+      </c>
+      <c r="Z120">
+        <v>11017</v>
+      </c>
+      <c r="AA120">
+        <v>16499</v>
+      </c>
+      <c r="AB120">
+        <v>10803</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>238822</v>
+      </c>
+      <c r="C121">
+        <v>38483</v>
+      </c>
+      <c r="D121">
+        <v>103493</v>
+      </c>
+      <c r="E121">
+        <v>51931</v>
+      </c>
+      <c r="F121">
+        <v>37254</v>
+      </c>
+      <c r="G121">
+        <v>31230</v>
+      </c>
+      <c r="H121">
+        <v>31343</v>
+      </c>
+      <c r="I121">
+        <v>22009</v>
+      </c>
+      <c r="J121">
+        <v>19280</v>
+      </c>
+      <c r="K121">
+        <v>39912</v>
+      </c>
+      <c r="L121">
+        <v>54022</v>
+      </c>
+      <c r="M121">
+        <v>16963</v>
+      </c>
+      <c r="N121">
+        <v>22738</v>
+      </c>
+      <c r="O121">
+        <v>20921</v>
+      </c>
+      <c r="P121">
+        <v>66764</v>
+      </c>
+      <c r="Q121">
+        <v>6523</v>
+      </c>
+      <c r="R121">
+        <v>20353</v>
+      </c>
+      <c r="S121">
+        <v>99578</v>
+      </c>
+      <c r="T121">
+        <v>12022</v>
+      </c>
+      <c r="U121">
+        <v>94036</v>
+      </c>
+      <c r="V121">
+        <v>9425</v>
+      </c>
+      <c r="W121">
+        <v>17080</v>
+      </c>
+      <c r="X121">
+        <v>26919</v>
+      </c>
+      <c r="Y121">
+        <v>73314</v>
+      </c>
+      <c r="Z121">
+        <v>11571</v>
+      </c>
+      <c r="AA121">
+        <v>17424</v>
+      </c>
+      <c r="AB121">
+        <v>11872</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>248587</v>
+      </c>
+      <c r="C122">
+        <v>40406</v>
+      </c>
+      <c r="D122">
+        <v>105897</v>
+      </c>
+      <c r="E122">
+        <v>54291</v>
+      </c>
+      <c r="F122">
+        <v>38871</v>
+      </c>
+      <c r="G122">
+        <v>32065</v>
+      </c>
+      <c r="H122">
+        <v>32769</v>
+      </c>
+      <c r="I122">
+        <v>23060</v>
+      </c>
+      <c r="J122">
+        <v>20377</v>
+      </c>
+      <c r="K122">
+        <v>40824</v>
+      </c>
+      <c r="L122">
+        <v>55136</v>
+      </c>
+      <c r="M122">
+        <v>17822</v>
+      </c>
+      <c r="N122">
+        <v>23806</v>
+      </c>
+      <c r="O122">
+        <v>21951</v>
+      </c>
+      <c r="P122">
+        <v>67267</v>
+      </c>
+      <c r="Q122">
+        <v>6913</v>
+      </c>
+      <c r="R122">
+        <v>21081</v>
+      </c>
+      <c r="S122">
+        <v>103118</v>
+      </c>
+      <c r="T122">
+        <v>12304</v>
+      </c>
+      <c r="U122">
+        <v>96472</v>
+      </c>
+      <c r="V122">
+        <v>9681</v>
+      </c>
+      <c r="W122">
+        <v>18023</v>
+      </c>
+      <c r="X122">
+        <v>27415</v>
+      </c>
+      <c r="Y122">
+        <v>74925</v>
+      </c>
+      <c r="Z122">
+        <v>12601</v>
+      </c>
+      <c r="AA122">
+        <v>17424</v>
+      </c>
+      <c r="AB122">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>258508</v>
+      </c>
+      <c r="C123">
+        <v>41652</v>
+      </c>
+      <c r="D123">
+        <v>108497</v>
+      </c>
+      <c r="E123">
+        <v>56422</v>
+      </c>
+      <c r="F123">
+        <v>41326</v>
+      </c>
+      <c r="G123">
+        <v>32864</v>
+      </c>
+      <c r="H123">
+        <v>38891</v>
+      </c>
+      <c r="I123">
+        <v>24114</v>
+      </c>
+      <c r="J123">
+        <v>21441</v>
+      </c>
+      <c r="K123">
+        <v>42832</v>
+      </c>
+      <c r="L123">
+        <v>55804</v>
+      </c>
+      <c r="M123">
+        <v>18672</v>
+      </c>
+      <c r="N123">
+        <v>24253</v>
+      </c>
+      <c r="O123">
+        <v>22947</v>
+      </c>
+      <c r="P123">
+        <v>68220</v>
+      </c>
+      <c r="Q123">
+        <v>7307</v>
+      </c>
+      <c r="R123">
+        <v>21908</v>
+      </c>
+      <c r="S123">
+        <v>105270</v>
+      </c>
+      <c r="T123">
+        <v>12644</v>
+      </c>
+      <c r="U123">
+        <v>99313</v>
+      </c>
+      <c r="V123">
+        <v>9966</v>
+      </c>
+      <c r="W123">
+        <v>18665</v>
+      </c>
+      <c r="X123">
+        <v>27662</v>
+      </c>
+      <c r="Y123">
+        <v>76698</v>
+      </c>
+      <c r="Z123">
+        <v>13406</v>
+      </c>
+      <c r="AA123">
+        <v>19271</v>
+      </c>
+      <c r="AB123">
+        <v>13078</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>265581</v>
+      </c>
+      <c r="C124">
+        <v>41652</v>
+      </c>
+      <c r="D124">
+        <v>108803</v>
+      </c>
+      <c r="E124">
+        <v>65244</v>
+      </c>
+      <c r="F124">
+        <v>42766</v>
+      </c>
+      <c r="G124">
+        <v>33521</v>
+      </c>
+      <c r="H124">
+        <v>40966</v>
+      </c>
+      <c r="I124">
+        <v>25000</v>
+      </c>
+      <c r="J124">
+        <v>21865</v>
+      </c>
+      <c r="K124">
+        <v>44242</v>
+      </c>
+      <c r="L124">
+        <v>57089</v>
+      </c>
+      <c r="M124">
+        <v>19819</v>
+      </c>
+      <c r="N124">
+        <v>24253</v>
+      </c>
+      <c r="O124">
+        <v>23808</v>
+      </c>
+      <c r="P124">
+        <v>69022</v>
+      </c>
+      <c r="Q124">
+        <v>7307</v>
+      </c>
+      <c r="R124">
+        <v>23319</v>
+      </c>
+      <c r="S124">
+        <v>107064</v>
+      </c>
+      <c r="T124">
+        <v>12913</v>
+      </c>
+      <c r="U124">
+        <v>100443</v>
+      </c>
+      <c r="V124">
+        <v>9966</v>
+      </c>
+      <c r="W124">
+        <v>19158</v>
+      </c>
+      <c r="X124">
+        <v>27901</v>
+      </c>
+      <c r="Y124">
+        <v>78115</v>
+      </c>
+      <c r="Z124">
+        <v>13805</v>
+      </c>
+      <c r="AA124">
+        <v>19271</v>
+      </c>
+      <c r="AB124">
+        <v>13078</v>
       </c>
     </row>
   </sheetData>
@@ -9584,7 +10118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17017,7 +17551,7 @@
         <v>208</v>
       </c>
       <c r="G103">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="H103">
         <v>368</v>
@@ -17103,7 +17637,7 @@
         <v>214</v>
       </c>
       <c r="G104">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="H104">
         <v>376</v>
@@ -17507,7 +18041,7 @@
         <v>163</v>
       </c>
       <c r="AA108">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB108">
         <v>192</v>
@@ -18147,7 +18681,7 @@
         <v>289</v>
       </c>
       <c r="K116">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="L116">
         <v>4102</v>
@@ -18328,7 +18862,7 @@
         <v>451</v>
       </c>
       <c r="N118">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="O118">
         <v>246</v>
@@ -18337,7 +18871,7 @@
         <v>2657</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R118">
         <v>462</v>
@@ -18352,7 +18886,7 @@
         <v>4605</v>
       </c>
       <c r="V118">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W118">
         <v>502</v>
@@ -18371,6 +18905,522 @@
       </c>
       <c r="AB118">
         <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>12634</v>
+      </c>
+      <c r="C119">
+        <v>1387</v>
+      </c>
+      <c r="D119">
+        <v>8933</v>
+      </c>
+      <c r="E119">
+        <v>1441</v>
+      </c>
+      <c r="F119">
+        <v>449</v>
+      </c>
+      <c r="G119">
+        <v>903</v>
+      </c>
+      <c r="H119">
+        <v>688</v>
+      </c>
+      <c r="I119">
+        <v>458</v>
+      </c>
+      <c r="J119">
+        <v>324</v>
+      </c>
+      <c r="K119">
+        <v>784</v>
+      </c>
+      <c r="L119">
+        <v>4252</v>
+      </c>
+      <c r="M119">
+        <v>469</v>
+      </c>
+      <c r="N119">
+        <v>750</v>
+      </c>
+      <c r="O119">
+        <v>256</v>
+      </c>
+      <c r="P119">
+        <v>2671</v>
+      </c>
+      <c r="Q119">
+        <v>55</v>
+      </c>
+      <c r="R119">
+        <v>491</v>
+      </c>
+      <c r="S119">
+        <v>5618</v>
+      </c>
+      <c r="T119">
+        <v>305</v>
+      </c>
+      <c r="U119">
+        <v>4672</v>
+      </c>
+      <c r="V119">
+        <v>179</v>
+      </c>
+      <c r="W119">
+        <v>517</v>
+      </c>
+      <c r="X119">
+        <v>372</v>
+      </c>
+      <c r="Y119">
+        <v>1760</v>
+      </c>
+      <c r="Z119">
+        <v>394</v>
+      </c>
+      <c r="AA119">
+        <v>432</v>
+      </c>
+      <c r="AB119">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>13068</v>
+      </c>
+      <c r="C120">
+        <v>1425</v>
+      </c>
+      <c r="D120">
+        <v>9153</v>
+      </c>
+      <c r="E120">
+        <v>1491</v>
+      </c>
+      <c r="F120">
+        <v>475</v>
+      </c>
+      <c r="G120">
+        <v>920</v>
+      </c>
+      <c r="H120">
+        <v>720</v>
+      </c>
+      <c r="I120">
+        <v>477</v>
+      </c>
+      <c r="J120">
+        <v>355</v>
+      </c>
+      <c r="K120">
+        <v>807</v>
+      </c>
+      <c r="L120">
+        <v>4339</v>
+      </c>
+      <c r="M120">
+        <v>498</v>
+      </c>
+      <c r="N120">
+        <v>814</v>
+      </c>
+      <c r="O120">
+        <v>263</v>
+      </c>
+      <c r="P120">
+        <v>2686</v>
+      </c>
+      <c r="Q120">
+        <v>56</v>
+      </c>
+      <c r="R120">
+        <v>511</v>
+      </c>
+      <c r="S120">
+        <v>5728</v>
+      </c>
+      <c r="T120">
+        <v>321</v>
+      </c>
+      <c r="U120">
+        <v>4726</v>
+      </c>
+      <c r="V120">
+        <v>181</v>
+      </c>
+      <c r="W120">
+        <v>534</v>
+      </c>
+      <c r="X120">
+        <v>380</v>
+      </c>
+      <c r="Y120">
+        <v>1797</v>
+      </c>
+      <c r="Z120">
+        <v>423</v>
+      </c>
+      <c r="AA120">
+        <v>444</v>
+      </c>
+      <c r="AB120">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>13352</v>
+      </c>
+      <c r="C121">
+        <v>1463</v>
+      </c>
+      <c r="D121">
+        <v>9295</v>
+      </c>
+      <c r="E121">
+        <v>1541</v>
+      </c>
+      <c r="F121">
+        <v>495</v>
+      </c>
+      <c r="G121">
+        <v>938</v>
+      </c>
+      <c r="H121">
+        <v>771</v>
+      </c>
+      <c r="I121">
+        <v>500</v>
+      </c>
+      <c r="J121">
+        <v>375</v>
+      </c>
+      <c r="K121">
+        <v>828</v>
+      </c>
+      <c r="L121">
+        <v>4425</v>
+      </c>
+      <c r="M121">
+        <v>521</v>
+      </c>
+      <c r="N121">
+        <v>865</v>
+      </c>
+      <c r="O121">
+        <v>279</v>
+      </c>
+      <c r="P121">
+        <v>2710</v>
+      </c>
+      <c r="Q121">
+        <v>61</v>
+      </c>
+      <c r="R121">
+        <v>524</v>
+      </c>
+      <c r="S121">
+        <v>5815</v>
+      </c>
+      <c r="T121">
+        <v>326</v>
+      </c>
+      <c r="U121">
+        <v>4748</v>
+      </c>
+      <c r="V121">
+        <v>183</v>
+      </c>
+      <c r="W121">
+        <v>546</v>
+      </c>
+      <c r="X121">
+        <v>387</v>
+      </c>
+      <c r="Y121">
+        <v>1836</v>
+      </c>
+      <c r="Z121">
+        <v>445</v>
+      </c>
+      <c r="AA121">
+        <v>455</v>
+      </c>
+      <c r="AB121">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>13759</v>
+      </c>
+      <c r="C122">
+        <v>1490</v>
+      </c>
+      <c r="D122">
+        <v>9450</v>
+      </c>
+      <c r="E122">
+        <v>1601</v>
+      </c>
+      <c r="F122">
+        <v>509</v>
+      </c>
+      <c r="G122">
+        <v>958</v>
+      </c>
+      <c r="H122">
+        <v>806</v>
+      </c>
+      <c r="I122">
+        <v>500</v>
+      </c>
+      <c r="J122">
+        <v>384</v>
+      </c>
+      <c r="K122">
+        <v>842</v>
+      </c>
+      <c r="L122">
+        <v>4488</v>
+      </c>
+      <c r="M122">
+        <v>539</v>
+      </c>
+      <c r="N122">
+        <v>896</v>
+      </c>
+      <c r="O122">
+        <v>289</v>
+      </c>
+      <c r="P122">
+        <v>2731</v>
+      </c>
+      <c r="Q122">
+        <v>65</v>
+      </c>
+      <c r="R122">
+        <v>554</v>
+      </c>
+      <c r="S122">
+        <v>5895</v>
+      </c>
+      <c r="T122">
+        <v>335</v>
+      </c>
+      <c r="U122">
+        <v>4803</v>
+      </c>
+      <c r="V122">
+        <v>186</v>
+      </c>
+      <c r="W122">
+        <v>574</v>
+      </c>
+      <c r="X122">
+        <v>394</v>
+      </c>
+      <c r="Y122">
+        <v>1871</v>
+      </c>
+      <c r="Z122">
+        <v>476</v>
+      </c>
+      <c r="AA122">
+        <v>455</v>
+      </c>
+      <c r="AB122">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>13966</v>
+      </c>
+      <c r="C123">
+        <v>1507</v>
+      </c>
+      <c r="D123">
+        <v>9587</v>
+      </c>
+      <c r="E123">
+        <v>1642</v>
+      </c>
+      <c r="F123">
+        <v>532</v>
+      </c>
+      <c r="G123">
+        <v>975</v>
+      </c>
+      <c r="H123">
+        <v>833</v>
+      </c>
+      <c r="I123">
+        <v>540</v>
+      </c>
+      <c r="J123">
+        <v>425</v>
+      </c>
+      <c r="K123">
+        <v>864</v>
+      </c>
+      <c r="L123">
+        <v>4610</v>
+      </c>
+      <c r="M123">
+        <v>564</v>
+      </c>
+      <c r="N123">
+        <v>909</v>
+      </c>
+      <c r="O123">
+        <v>298</v>
+      </c>
+      <c r="P123">
+        <v>2739</v>
+      </c>
+      <c r="Q123">
+        <v>68</v>
+      </c>
+      <c r="R123">
+        <v>579</v>
+      </c>
+      <c r="S123">
+        <v>5962</v>
+      </c>
+      <c r="T123">
+        <v>343</v>
+      </c>
+      <c r="U123">
+        <v>4834</v>
+      </c>
+      <c r="V123">
+        <v>191</v>
+      </c>
+      <c r="W123">
+        <v>592</v>
+      </c>
+      <c r="X123">
+        <v>401</v>
+      </c>
+      <c r="Y123">
+        <v>1906</v>
+      </c>
+      <c r="Z123">
+        <v>504</v>
+      </c>
+      <c r="AA123">
+        <v>476</v>
+      </c>
+      <c r="AB123">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>14263</v>
+      </c>
+      <c r="C124">
+        <v>1507</v>
+      </c>
+      <c r="D124">
+        <v>9789</v>
+      </c>
+      <c r="E124">
+        <v>1697</v>
+      </c>
+      <c r="F124">
+        <v>537</v>
+      </c>
+      <c r="G124">
+        <v>993</v>
+      </c>
+      <c r="H124">
+        <v>882</v>
+      </c>
+      <c r="I124">
+        <v>554</v>
+      </c>
+      <c r="J124">
+        <v>434</v>
+      </c>
+      <c r="K124">
+        <v>896</v>
+      </c>
+      <c r="L124">
+        <v>4708</v>
+      </c>
+      <c r="M124">
+        <v>575</v>
+      </c>
+      <c r="N124">
+        <v>909</v>
+      </c>
+      <c r="O124">
+        <v>304</v>
+      </c>
+      <c r="P124">
+        <v>2772</v>
+      </c>
+      <c r="Q124">
+        <v>68</v>
+      </c>
+      <c r="R124">
+        <v>605</v>
+      </c>
+      <c r="S124">
+        <v>5987</v>
+      </c>
+      <c r="T124">
+        <v>351</v>
+      </c>
+      <c r="U124">
+        <v>4845</v>
+      </c>
+      <c r="V124">
+        <v>191</v>
+      </c>
+      <c r="W124">
+        <v>615</v>
+      </c>
+      <c r="X124">
+        <v>406</v>
+      </c>
+      <c r="Y124">
+        <v>1943</v>
+      </c>
+      <c r="Z124">
+        <v>527</v>
+      </c>
+      <c r="AA124">
+        <v>476</v>
+      </c>
+      <c r="AB124">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -18388,15 +19438,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -18404,7 +19454,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -18412,7 +19462,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -18420,7 +19470,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -18428,7 +19478,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -18436,7 +19486,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -18444,7 +19494,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -18452,7 +19502,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -18460,7 +19510,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -18468,7 +19518,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -18476,7 +19526,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -18484,7 +19534,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -18492,7 +19542,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -18500,7 +19550,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -18508,7 +19558,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -18516,7 +19566,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -18524,7 +19574,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -18532,7 +19582,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -18540,7 +19590,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -18548,7 +19598,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -18556,7 +19606,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -18564,7 +19614,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -18572,7 +19622,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -18580,7 +19630,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -18588,7 +19638,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -18596,7 +19646,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -18604,7 +19654,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
   </si>
   <si>
     <t>UF</t>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB124"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10066,7 +10069,7 @@
         <v>19819</v>
       </c>
       <c r="N124">
-        <v>24253</v>
+        <v>24301</v>
       </c>
       <c r="O124">
         <v>23808</v>
@@ -10075,7 +10078,7 @@
         <v>69022</v>
       </c>
       <c r="Q124">
-        <v>7307</v>
+        <v>7527</v>
       </c>
       <c r="R124">
         <v>23319</v>
@@ -10090,7 +10093,7 @@
         <v>100443</v>
       </c>
       <c r="V124">
-        <v>9966</v>
+        <v>10228</v>
       </c>
       <c r="W124">
         <v>19158</v>
@@ -10102,13 +10105,99 @@
         <v>78115</v>
       </c>
       <c r="Z124">
-        <v>13805</v>
+        <v>14128</v>
       </c>
       <c r="AA124">
         <v>19271</v>
       </c>
       <c r="AB124">
-        <v>13078</v>
+        <v>14341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>271737</v>
+      </c>
+      <c r="C125">
+        <v>43683</v>
+      </c>
+      <c r="D125">
+        <v>111298</v>
+      </c>
+      <c r="E125">
+        <v>68495</v>
+      </c>
+      <c r="F125">
+        <v>44905</v>
+      </c>
+      <c r="G125">
+        <v>34312</v>
+      </c>
+      <c r="H125">
+        <v>42741</v>
+      </c>
+      <c r="I125">
+        <v>25243</v>
+      </c>
+      <c r="J125">
+        <v>22165</v>
+      </c>
+      <c r="K125">
+        <v>44679</v>
+      </c>
+      <c r="L125">
+        <v>58107</v>
+      </c>
+      <c r="M125">
+        <v>20742</v>
+      </c>
+      <c r="N125">
+        <v>24301</v>
+      </c>
+      <c r="O125">
+        <v>24364</v>
+      </c>
+      <c r="P125">
+        <v>69649</v>
+      </c>
+      <c r="Q125">
+        <v>7527</v>
+      </c>
+      <c r="R125">
+        <v>24421</v>
+      </c>
+      <c r="S125">
+        <v>107593</v>
+      </c>
+      <c r="T125">
+        <v>13058</v>
+      </c>
+      <c r="U125">
+        <v>101207</v>
+      </c>
+      <c r="V125">
+        <v>10228</v>
+      </c>
+      <c r="W125">
+        <v>19753</v>
+      </c>
+      <c r="X125">
+        <v>27985</v>
+      </c>
+      <c r="Y125">
+        <v>78512</v>
+      </c>
+      <c r="Z125">
+        <v>14654</v>
+      </c>
+      <c r="AA125">
+        <v>19820</v>
+      </c>
+      <c r="AB125">
+        <v>14341</v>
       </c>
     </row>
   </sheetData>
@@ -10118,7 +10207,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB124"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19378,7 +19467,7 @@
         <v>575</v>
       </c>
       <c r="N124">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="O124">
         <v>304</v>
@@ -19387,7 +19476,7 @@
         <v>2772</v>
       </c>
       <c r="Q124">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="R124">
         <v>605</v>
@@ -19402,7 +19491,7 @@
         <v>4845</v>
       </c>
       <c r="V124">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W124">
         <v>615</v>
@@ -19414,12 +19503,98 @@
         <v>1943</v>
       </c>
       <c r="Z124">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AA124">
         <v>476</v>
       </c>
       <c r="AB124">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>14338</v>
+      </c>
+      <c r="C125">
+        <v>1566</v>
+      </c>
+      <c r="D125">
+        <v>9819</v>
+      </c>
+      <c r="E125">
+        <v>1748</v>
+      </c>
+      <c r="F125">
+        <v>548</v>
+      </c>
+      <c r="G125">
+        <v>1012</v>
+      </c>
+      <c r="H125">
+        <v>899</v>
+      </c>
+      <c r="I125">
+        <v>559</v>
+      </c>
+      <c r="J125">
+        <v>436</v>
+      </c>
+      <c r="K125">
+        <v>911</v>
+      </c>
+      <c r="L125">
+        <v>4751</v>
+      </c>
+      <c r="M125">
+        <v>599</v>
+      </c>
+      <c r="N125">
+        <v>937</v>
+      </c>
+      <c r="O125">
+        <v>312</v>
+      </c>
+      <c r="P125">
+        <v>2782</v>
+      </c>
+      <c r="Q125">
+        <v>72</v>
+      </c>
+      <c r="R125">
+        <v>620</v>
+      </c>
+      <c r="S125">
+        <v>5995</v>
+      </c>
+      <c r="T125">
+        <v>353</v>
+      </c>
+      <c r="U125">
+        <v>4870</v>
+      </c>
+      <c r="V125">
+        <v>192</v>
+      </c>
+      <c r="W125">
+        <v>643</v>
+      </c>
+      <c r="X125">
+        <v>407</v>
+      </c>
+      <c r="Y125">
+        <v>1982</v>
+      </c>
+      <c r="Z125">
+        <v>556</v>
+      </c>
+      <c r="AA125">
+        <v>486</v>
+      </c>
+      <c r="AB125">
         <v>281</v>
       </c>
     </row>
@@ -19438,15 +19613,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -19454,7 +19629,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -19462,7 +19637,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -19470,7 +19645,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -19478,7 +19653,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -19486,7 +19661,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -19494,7 +19669,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -19502,7 +19677,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -19510,7 +19685,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -19518,7 +19693,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -19526,7 +19701,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -19534,7 +19709,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -19542,7 +19717,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -19550,7 +19725,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -19558,7 +19733,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -19566,7 +19741,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -19574,7 +19749,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -19582,7 +19757,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -19590,7 +19765,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -19598,7 +19773,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -19606,7 +19781,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -19614,7 +19789,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -19622,7 +19797,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -19630,7 +19805,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -19638,7 +19813,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -19646,7 +19821,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -19654,7 +19829,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="156">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
   </si>
   <si>
     <t>UF</t>
@@ -809,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB125"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10108,7 +10114,7 @@
         <v>14128</v>
       </c>
       <c r="AA124">
-        <v>19271</v>
+        <v>19735</v>
       </c>
       <c r="AB124">
         <v>14341</v>
@@ -10155,7 +10161,7 @@
         <v>20742</v>
       </c>
       <c r="N125">
-        <v>24301</v>
+        <v>28970</v>
       </c>
       <c r="O125">
         <v>24364</v>
@@ -10164,7 +10170,7 @@
         <v>69649</v>
       </c>
       <c r="Q125">
-        <v>7527</v>
+        <v>7676</v>
       </c>
       <c r="R125">
         <v>24421</v>
@@ -10179,7 +10185,7 @@
         <v>101207</v>
       </c>
       <c r="V125">
-        <v>10228</v>
+        <v>10359</v>
       </c>
       <c r="W125">
         <v>19753</v>
@@ -10197,7 +10203,179 @@
         <v>19820</v>
       </c>
       <c r="AB125">
-        <v>14341</v>
+        <v>14459</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>275145</v>
+      </c>
+      <c r="C126">
+        <v>45097</v>
+      </c>
+      <c r="D126">
+        <v>111883</v>
+      </c>
+      <c r="E126">
+        <v>69467</v>
+      </c>
+      <c r="F126">
+        <v>47071</v>
+      </c>
+      <c r="G126">
+        <v>35116</v>
+      </c>
+      <c r="H126">
+        <v>43864</v>
+      </c>
+      <c r="I126">
+        <v>25659</v>
+      </c>
+      <c r="J126">
+        <v>23379</v>
+      </c>
+      <c r="K126">
+        <v>45057</v>
+      </c>
+      <c r="L126">
+        <v>58476</v>
+      </c>
+      <c r="M126">
+        <v>21326</v>
+      </c>
+      <c r="N126">
+        <v>30287</v>
+      </c>
+      <c r="O126">
+        <v>25056</v>
+      </c>
+      <c r="P126">
+        <v>69893</v>
+      </c>
+      <c r="Q126">
+        <v>7965</v>
+      </c>
+      <c r="R126">
+        <v>24817</v>
+      </c>
+      <c r="S126">
+        <v>108225</v>
+      </c>
+      <c r="T126">
+        <v>13146</v>
+      </c>
+      <c r="U126">
+        <v>103206</v>
+      </c>
+      <c r="V126">
+        <v>10764</v>
+      </c>
+      <c r="W126">
+        <v>20422</v>
+      </c>
+      <c r="X126">
+        <v>28253</v>
+      </c>
+      <c r="Y126">
+        <v>78969</v>
+      </c>
+      <c r="Z126">
+        <v>15328</v>
+      </c>
+      <c r="AA126">
+        <v>20406</v>
+      </c>
+      <c r="AB126">
+        <v>14641</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>281380</v>
+      </c>
+      <c r="C127">
+        <v>46893</v>
+      </c>
+      <c r="D127">
+        <v>112611</v>
+      </c>
+      <c r="E127">
+        <v>73307</v>
+      </c>
+      <c r="F127">
+        <v>49217</v>
+      </c>
+      <c r="G127">
+        <v>35962</v>
+      </c>
+      <c r="H127">
+        <v>45001</v>
+      </c>
+      <c r="I127">
+        <v>26941</v>
+      </c>
+      <c r="J127">
+        <v>24910</v>
+      </c>
+      <c r="K127">
+        <v>46957</v>
+      </c>
+      <c r="L127">
+        <v>58858</v>
+      </c>
+      <c r="M127">
+        <v>22877</v>
+      </c>
+      <c r="N127">
+        <v>30287</v>
+      </c>
+      <c r="O127">
+        <v>26354</v>
+      </c>
+      <c r="P127">
+        <v>70823</v>
+      </c>
+      <c r="Q127">
+        <v>7965</v>
+      </c>
+      <c r="R127">
+        <v>25411</v>
+      </c>
+      <c r="S127">
+        <v>110483</v>
+      </c>
+      <c r="T127">
+        <v>13253</v>
+      </c>
+      <c r="U127">
+        <v>105853</v>
+      </c>
+      <c r="V127">
+        <v>10764</v>
+      </c>
+      <c r="W127">
+        <v>20422</v>
+      </c>
+      <c r="X127">
+        <v>28492</v>
+      </c>
+      <c r="Y127">
+        <v>80451</v>
+      </c>
+      <c r="Z127">
+        <v>15636</v>
+      </c>
+      <c r="AA127">
+        <v>21251</v>
+      </c>
+      <c r="AB127">
+        <v>14641</v>
       </c>
     </row>
   </sheetData>
@@ -10207,7 +10385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB125"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19506,7 +19684,7 @@
         <v>533</v>
       </c>
       <c r="AA124">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AB124">
         <v>281</v>
@@ -19553,7 +19731,7 @@
         <v>599</v>
       </c>
       <c r="N125">
-        <v>937</v>
+        <v>994</v>
       </c>
       <c r="O125">
         <v>312</v>
@@ -19562,7 +19740,7 @@
         <v>2782</v>
       </c>
       <c r="Q125">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R125">
         <v>620</v>
@@ -19577,7 +19755,7 @@
         <v>4870</v>
       </c>
       <c r="V125">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="W125">
         <v>643</v>
@@ -19596,6 +19774,178 @@
       </c>
       <c r="AB125">
         <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>14398</v>
+      </c>
+      <c r="C126">
+        <v>1620</v>
+      </c>
+      <c r="D126">
+        <v>9848</v>
+      </c>
+      <c r="E126">
+        <v>1800</v>
+      </c>
+      <c r="F126">
+        <v>559</v>
+      </c>
+      <c r="G126">
+        <v>1032</v>
+      </c>
+      <c r="H126">
+        <v>940</v>
+      </c>
+      <c r="I126">
+        <v>582</v>
+      </c>
+      <c r="J126">
+        <v>467</v>
+      </c>
+      <c r="K126">
+        <v>931</v>
+      </c>
+      <c r="L126">
+        <v>4782</v>
+      </c>
+      <c r="M126">
+        <v>613</v>
+      </c>
+      <c r="N126">
+        <v>1034</v>
+      </c>
+      <c r="O126">
+        <v>324</v>
+      </c>
+      <c r="P126">
+        <v>2792</v>
+      </c>
+      <c r="Q126">
+        <v>76</v>
+      </c>
+      <c r="R126">
+        <v>653</v>
+      </c>
+      <c r="S126">
+        <v>6076</v>
+      </c>
+      <c r="T126">
+        <v>361</v>
+      </c>
+      <c r="U126">
+        <v>4920</v>
+      </c>
+      <c r="V126">
+        <v>200</v>
+      </c>
+      <c r="W126">
+        <v>663</v>
+      </c>
+      <c r="X126">
+        <v>413</v>
+      </c>
+      <c r="Y126">
+        <v>2012</v>
+      </c>
+      <c r="Z126">
+        <v>590</v>
+      </c>
+      <c r="AA126">
+        <v>499</v>
+      </c>
+      <c r="AB126">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>14763</v>
+      </c>
+      <c r="C127">
+        <v>1647</v>
+      </c>
+      <c r="D127">
+        <v>10080</v>
+      </c>
+      <c r="E127">
+        <v>1853</v>
+      </c>
+      <c r="F127">
+        <v>587</v>
+      </c>
+      <c r="G127">
+        <v>1052</v>
+      </c>
+      <c r="H127">
+        <v>965</v>
+      </c>
+      <c r="I127">
+        <v>614</v>
+      </c>
+      <c r="J127">
+        <v>491</v>
+      </c>
+      <c r="K127">
+        <v>977</v>
+      </c>
+      <c r="L127">
+        <v>4829</v>
+      </c>
+      <c r="M127">
+        <v>649</v>
+      </c>
+      <c r="N127">
+        <v>1034</v>
+      </c>
+      <c r="O127">
+        <v>341</v>
+      </c>
+      <c r="P127">
+        <v>2823</v>
+      </c>
+      <c r="Q127">
+        <v>76</v>
+      </c>
+      <c r="R127">
+        <v>676</v>
+      </c>
+      <c r="S127">
+        <v>6146</v>
+      </c>
+      <c r="T127">
+        <v>365</v>
+      </c>
+      <c r="U127">
+        <v>4960</v>
+      </c>
+      <c r="V127">
+        <v>200</v>
+      </c>
+      <c r="W127">
+        <v>663</v>
+      </c>
+      <c r="X127">
+        <v>417</v>
+      </c>
+      <c r="Y127">
+        <v>2048</v>
+      </c>
+      <c r="Z127">
+        <v>593</v>
+      </c>
+      <c r="AA127">
+        <v>518</v>
+      </c>
+      <c r="AB127">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -19613,15 +19963,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -19629,7 +19979,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -19637,7 +19987,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -19645,7 +19995,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -19653,7 +20003,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -19661,7 +20011,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -19669,7 +20019,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -19677,7 +20027,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -19685,7 +20035,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -19693,7 +20043,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -19701,7 +20051,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -19709,7 +20059,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -19717,7 +20067,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -19725,7 +20075,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -19733,7 +20083,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -19741,7 +20091,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -19749,7 +20099,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -19757,7 +20107,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -19765,7 +20115,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -19773,7 +20123,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -19781,7 +20131,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -19789,7 +20139,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -19797,7 +20147,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -19805,7 +20155,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -19813,7 +20163,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -19821,7 +20171,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -19829,7 +20179,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="157">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
   </si>
   <si>
     <t>UF</t>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9292,7 +9295,7 @@
         <v>13665</v>
       </c>
       <c r="K115">
-        <v>31760</v>
+        <v>33382</v>
       </c>
       <c r="L115">
         <v>48626</v>
@@ -10247,7 +10250,7 @@
         <v>21326</v>
       </c>
       <c r="N126">
-        <v>30287</v>
+        <v>30352</v>
       </c>
       <c r="O126">
         <v>25056</v>
@@ -10309,7 +10312,7 @@
         <v>73307</v>
       </c>
       <c r="F127">
-        <v>49217</v>
+        <v>49218</v>
       </c>
       <c r="G127">
         <v>35962</v>
@@ -10333,7 +10336,7 @@
         <v>22877</v>
       </c>
       <c r="N127">
-        <v>30287</v>
+        <v>31899</v>
       </c>
       <c r="O127">
         <v>26354</v>
@@ -10342,7 +10345,7 @@
         <v>70823</v>
       </c>
       <c r="Q127">
-        <v>7965</v>
+        <v>8676</v>
       </c>
       <c r="R127">
         <v>25411</v>
@@ -10357,10 +10360,10 @@
         <v>105853</v>
       </c>
       <c r="V127">
-        <v>10764</v>
+        <v>11222</v>
       </c>
       <c r="W127">
-        <v>20422</v>
+        <v>22059</v>
       </c>
       <c r="X127">
         <v>28492</v>
@@ -10369,13 +10372,99 @@
         <v>80451</v>
       </c>
       <c r="Z127">
-        <v>15636</v>
+        <v>16304</v>
       </c>
       <c r="AA127">
         <v>21251</v>
       </c>
       <c r="AB127">
-        <v>14641</v>
+        <v>15153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>289935</v>
+      </c>
+      <c r="C128">
+        <v>48821</v>
+      </c>
+      <c r="D128">
+        <v>115278</v>
+      </c>
+      <c r="E128">
+        <v>76485</v>
+      </c>
+      <c r="F128">
+        <v>50676</v>
+      </c>
+      <c r="G128">
+        <v>36819</v>
+      </c>
+      <c r="H128">
+        <v>47584</v>
+      </c>
+      <c r="I128">
+        <v>28171</v>
+      </c>
+      <c r="J128">
+        <v>26169</v>
+      </c>
+      <c r="K128">
+        <v>48175</v>
+      </c>
+      <c r="L128">
+        <v>59705</v>
+      </c>
+      <c r="M128">
+        <v>24225</v>
+      </c>
+      <c r="N128">
+        <v>31899</v>
+      </c>
+      <c r="O128">
+        <v>27279</v>
+      </c>
+      <c r="P128">
+        <v>72284</v>
+      </c>
+      <c r="Q128">
+        <v>8676</v>
+      </c>
+      <c r="R128">
+        <v>25915</v>
+      </c>
+      <c r="S128">
+        <v>114038</v>
+      </c>
+      <c r="T128">
+        <v>13715</v>
+      </c>
+      <c r="U128">
+        <v>108067</v>
+      </c>
+      <c r="V128">
+        <v>11222</v>
+      </c>
+      <c r="W128">
+        <v>23307</v>
+      </c>
+      <c r="X128">
+        <v>28927</v>
+      </c>
+      <c r="Y128">
+        <v>83256</v>
+      </c>
+      <c r="Z128">
+        <v>16621</v>
+      </c>
+      <c r="AA128">
+        <v>21462</v>
+      </c>
+      <c r="AB128">
+        <v>15153</v>
       </c>
     </row>
   </sheetData>
@@ -10385,7 +10474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB127"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19817,7 +19906,7 @@
         <v>613</v>
       </c>
       <c r="N126">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="O126">
         <v>324</v>
@@ -19903,7 +19992,7 @@
         <v>649</v>
       </c>
       <c r="N127">
-        <v>1034</v>
+        <v>1067</v>
       </c>
       <c r="O127">
         <v>341</v>
@@ -19912,7 +20001,7 @@
         <v>2823</v>
       </c>
       <c r="Q127">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="R127">
         <v>676</v>
@@ -19927,10 +20016,10 @@
         <v>4960</v>
       </c>
       <c r="V127">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="W127">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="X127">
         <v>417</v>
@@ -19939,13 +20028,99 @@
         <v>2048</v>
       </c>
       <c r="Z127">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="AA127">
         <v>518</v>
       </c>
       <c r="AB127">
-        <v>283</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>15030</v>
+      </c>
+      <c r="C128">
+        <v>1692</v>
+      </c>
+      <c r="D128">
+        <v>10198</v>
+      </c>
+      <c r="E128">
+        <v>1902</v>
+      </c>
+      <c r="F128">
+        <v>620</v>
+      </c>
+      <c r="G128">
+        <v>1072</v>
+      </c>
+      <c r="H128">
+        <v>1007</v>
+      </c>
+      <c r="I128">
+        <v>636</v>
+      </c>
+      <c r="J128">
+        <v>521</v>
+      </c>
+      <c r="K128">
+        <v>1002</v>
+      </c>
+      <c r="L128">
+        <v>4894</v>
+      </c>
+      <c r="M128">
+        <v>663</v>
+      </c>
+      <c r="N128">
+        <v>1067</v>
+      </c>
+      <c r="O128">
+        <v>347</v>
+      </c>
+      <c r="P128">
+        <v>2843</v>
+      </c>
+      <c r="Q128">
+        <v>89</v>
+      </c>
+      <c r="R128">
+        <v>702</v>
+      </c>
+      <c r="S128">
+        <v>6203</v>
+      </c>
+      <c r="T128">
+        <v>370</v>
+      </c>
+      <c r="U128">
+        <v>5004</v>
+      </c>
+      <c r="V128">
+        <v>204</v>
+      </c>
+      <c r="W128">
+        <v>697</v>
+      </c>
+      <c r="X128">
+        <v>420</v>
+      </c>
+      <c r="Y128">
+        <v>2081</v>
+      </c>
+      <c r="Z128">
+        <v>634</v>
+      </c>
+      <c r="AA128">
+        <v>520</v>
+      </c>
+      <c r="AB128">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -19963,15 +20138,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -19979,7 +20154,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -19987,7 +20162,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -19995,7 +20170,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -20003,7 +20178,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -20011,7 +20186,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -20019,7 +20194,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -20027,7 +20202,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -20035,7 +20210,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -20043,7 +20218,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -20051,7 +20226,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -20059,7 +20234,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -20067,7 +20242,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -20075,7 +20250,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -20083,7 +20258,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -20091,7 +20266,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -20099,7 +20274,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -20107,7 +20282,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -20115,7 +20290,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -20123,7 +20298,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -20131,7 +20306,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -20139,7 +20314,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -20147,7 +20322,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -20155,7 +20330,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -20163,7 +20338,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -20171,7 +20346,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -20179,7 +20354,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
   </si>
   <si>
     <t>UF</t>
@@ -818,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB128"/>
+  <dimension ref="A1:AB132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10164,7 +10176,7 @@
         <v>20742</v>
       </c>
       <c r="N125">
-        <v>28970</v>
+        <v>29784</v>
       </c>
       <c r="O125">
         <v>24364</v>
@@ -10336,7 +10348,7 @@
         <v>22877</v>
       </c>
       <c r="N127">
-        <v>31899</v>
+        <v>31964</v>
       </c>
       <c r="O127">
         <v>26354</v>
@@ -10410,7 +10422,7 @@
         <v>28171</v>
       </c>
       <c r="J128">
-        <v>26169</v>
+        <v>26145</v>
       </c>
       <c r="K128">
         <v>48175</v>
@@ -10422,7 +10434,7 @@
         <v>24225</v>
       </c>
       <c r="N128">
-        <v>31899</v>
+        <v>32962</v>
       </c>
       <c r="O128">
         <v>27279</v>
@@ -10431,10 +10443,10 @@
         <v>72284</v>
       </c>
       <c r="Q128">
-        <v>8676</v>
+        <v>9062</v>
       </c>
       <c r="R128">
-        <v>25915</v>
+        <v>26612</v>
       </c>
       <c r="S128">
         <v>114038</v>
@@ -10446,7 +10458,7 @@
         <v>108067</v>
       </c>
       <c r="V128">
-        <v>11222</v>
+        <v>11454</v>
       </c>
       <c r="W128">
         <v>23307</v>
@@ -10458,13 +10470,357 @@
         <v>83256</v>
       </c>
       <c r="Z128">
-        <v>16621</v>
+        <v>17401</v>
       </c>
       <c r="AA128">
-        <v>21462</v>
+        <v>21523</v>
       </c>
       <c r="AB128">
-        <v>15153</v>
+        <v>17583</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>302179</v>
+      </c>
+      <c r="C129">
+        <v>50242</v>
+      </c>
+      <c r="D129">
+        <v>116823</v>
+      </c>
+      <c r="E129">
+        <v>79349</v>
+      </c>
+      <c r="F129">
+        <v>52281</v>
+      </c>
+      <c r="G129">
+        <v>37328</v>
+      </c>
+      <c r="H129">
+        <v>50707</v>
+      </c>
+      <c r="I129">
+        <v>29195</v>
+      </c>
+      <c r="J129">
+        <v>26318</v>
+      </c>
+      <c r="K129">
+        <v>49536</v>
+      </c>
+      <c r="L129">
+        <v>61119</v>
+      </c>
+      <c r="M129">
+        <v>26304</v>
+      </c>
+      <c r="N129">
+        <v>33487</v>
+      </c>
+      <c r="O129">
+        <v>28575</v>
+      </c>
+      <c r="P129">
+        <v>73530</v>
+      </c>
+      <c r="Q129">
+        <v>9388</v>
+      </c>
+      <c r="R129">
+        <v>26612</v>
+      </c>
+      <c r="S129">
+        <v>116519</v>
+      </c>
+      <c r="T129">
+        <v>14048</v>
+      </c>
+      <c r="U129">
+        <v>110411</v>
+      </c>
+      <c r="V129">
+        <v>11736</v>
+      </c>
+      <c r="W129">
+        <v>24376</v>
+      </c>
+      <c r="X129">
+        <v>29153</v>
+      </c>
+      <c r="Y129">
+        <v>86025</v>
+      </c>
+      <c r="Z129">
+        <v>18356</v>
+      </c>
+      <c r="AA129">
+        <v>21970</v>
+      </c>
+      <c r="AB129">
+        <v>18323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>310517</v>
+      </c>
+      <c r="C130">
+        <v>51689</v>
+      </c>
+      <c r="D130">
+        <v>118956</v>
+      </c>
+      <c r="E130">
+        <v>82314</v>
+      </c>
+      <c r="F130">
+        <v>53996</v>
+      </c>
+      <c r="G130">
+        <v>38404</v>
+      </c>
+      <c r="H130">
+        <v>53351</v>
+      </c>
+      <c r="I130">
+        <v>30371</v>
+      </c>
+      <c r="J130">
+        <v>27502</v>
+      </c>
+      <c r="K130">
+        <v>50765</v>
+      </c>
+      <c r="L130">
+        <v>62362</v>
+      </c>
+      <c r="M130">
+        <v>28166</v>
+      </c>
+      <c r="N130">
+        <v>33910</v>
+      </c>
+      <c r="O130">
+        <v>30261</v>
+      </c>
+      <c r="P130">
+        <v>74537</v>
+      </c>
+      <c r="Q130">
+        <v>9910</v>
+      </c>
+      <c r="R130">
+        <v>28186</v>
+      </c>
+      <c r="S130">
+        <v>118311</v>
+      </c>
+      <c r="T130">
+        <v>14112</v>
+      </c>
+      <c r="U130">
+        <v>112531</v>
+      </c>
+      <c r="V130">
+        <v>12282</v>
+      </c>
+      <c r="W130">
+        <v>25561</v>
+      </c>
+      <c r="X130">
+        <v>29574</v>
+      </c>
+      <c r="Y130">
+        <v>88214</v>
+      </c>
+      <c r="Z130">
+        <v>19540</v>
+      </c>
+      <c r="AA130">
+        <v>22241</v>
+      </c>
+      <c r="AB130">
+        <v>18769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>312530</v>
+      </c>
+      <c r="C131">
+        <v>52824</v>
+      </c>
+      <c r="D131">
+        <v>120428</v>
+      </c>
+      <c r="E131">
+        <v>85485</v>
+      </c>
+      <c r="F131">
+        <v>55760</v>
+      </c>
+      <c r="G131">
+        <v>39255</v>
+      </c>
+      <c r="H131">
+        <v>55958</v>
+      </c>
+      <c r="I131">
+        <v>31619</v>
+      </c>
+      <c r="J131">
+        <v>28526</v>
+      </c>
+      <c r="K131">
+        <v>52306</v>
+      </c>
+      <c r="L131">
+        <v>63457</v>
+      </c>
+      <c r="M131">
+        <v>30570</v>
+      </c>
+      <c r="N131">
+        <v>34645</v>
+      </c>
+      <c r="O131">
+        <v>31931</v>
+      </c>
+      <c r="P131">
+        <v>75945</v>
+      </c>
+      <c r="Q131">
+        <v>10089</v>
+      </c>
+      <c r="R131">
+        <v>29761</v>
+      </c>
+      <c r="S131">
+        <v>121464</v>
+      </c>
+      <c r="T131">
+        <v>14487</v>
+      </c>
+      <c r="U131">
+        <v>113811</v>
+      </c>
+      <c r="V131">
+        <v>12475</v>
+      </c>
+      <c r="W131">
+        <v>26079</v>
+      </c>
+      <c r="X131">
+        <v>29809</v>
+      </c>
+      <c r="Y131">
+        <v>89057</v>
+      </c>
+      <c r="Z131">
+        <v>20333</v>
+      </c>
+      <c r="AA131">
+        <v>22957</v>
+      </c>
+      <c r="AB131">
+        <v>18922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>320179</v>
+      </c>
+      <c r="C132">
+        <v>53393</v>
+      </c>
+      <c r="D132">
+        <v>121292</v>
+      </c>
+      <c r="E132">
+        <v>87048</v>
+      </c>
+      <c r="F132">
+        <v>57854</v>
+      </c>
+      <c r="G132">
+        <v>39935</v>
+      </c>
+      <c r="H132">
+        <v>58283</v>
+      </c>
+      <c r="I132">
+        <v>31955</v>
+      </c>
+      <c r="J132">
+        <v>28526</v>
+      </c>
+      <c r="K132">
+        <v>52728</v>
+      </c>
+      <c r="L132">
+        <v>65129</v>
+      </c>
+      <c r="M132">
+        <v>31459</v>
+      </c>
+      <c r="N132">
+        <v>34645</v>
+      </c>
+      <c r="O132">
+        <v>32969</v>
+      </c>
+      <c r="P132">
+        <v>76014</v>
+      </c>
+      <c r="Q132">
+        <v>10089</v>
+      </c>
+      <c r="R132">
+        <v>30217</v>
+      </c>
+      <c r="S132">
+        <v>121986</v>
+      </c>
+      <c r="T132">
+        <v>14622</v>
+      </c>
+      <c r="U132">
+        <v>114535</v>
+      </c>
+      <c r="V132">
+        <v>12475</v>
+      </c>
+      <c r="W132">
+        <v>26511</v>
+      </c>
+      <c r="X132">
+        <v>29883</v>
+      </c>
+      <c r="Y132">
+        <v>89714</v>
+      </c>
+      <c r="Z132">
+        <v>21081</v>
+      </c>
+      <c r="AA132">
+        <v>23479</v>
+      </c>
+      <c r="AB132">
+        <v>18922</v>
       </c>
     </row>
   </sheetData>
@@ -10474,7 +10830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB128"/>
+  <dimension ref="A1:AB132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19820,7 +20176,7 @@
         <v>599</v>
       </c>
       <c r="N125">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="O125">
         <v>312</v>
@@ -19992,7 +20348,7 @@
         <v>649</v>
       </c>
       <c r="N127">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="O127">
         <v>341</v>
@@ -20078,7 +20434,7 @@
         <v>663</v>
       </c>
       <c r="N128">
-        <v>1067</v>
+        <v>1108</v>
       </c>
       <c r="O128">
         <v>347</v>
@@ -20087,10 +20443,10 @@
         <v>2843</v>
       </c>
       <c r="Q128">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R128">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="S128">
         <v>6203</v>
@@ -20102,7 +20458,7 @@
         <v>5004</v>
       </c>
       <c r="V128">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="W128">
         <v>697</v>
@@ -20114,13 +20470,357 @@
         <v>2081</v>
       </c>
       <c r="Z128">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="AA128">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AB128">
-        <v>314</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>15351</v>
+      </c>
+      <c r="C129">
+        <v>1727</v>
+      </c>
+      <c r="D129">
+        <v>10332</v>
+      </c>
+      <c r="E129">
+        <v>1947</v>
+      </c>
+      <c r="F129">
+        <v>631</v>
+      </c>
+      <c r="G129">
+        <v>1091</v>
+      </c>
+      <c r="H129">
+        <v>1059</v>
+      </c>
+      <c r="I129">
+        <v>663</v>
+      </c>
+      <c r="J129">
+        <v>572</v>
+      </c>
+      <c r="K129">
+        <v>1044</v>
+      </c>
+      <c r="L129">
+        <v>4968</v>
+      </c>
+      <c r="M129">
+        <v>706</v>
+      </c>
+      <c r="N129">
+        <v>1177</v>
+      </c>
+      <c r="O129">
+        <v>362</v>
+      </c>
+      <c r="P129">
+        <v>2862</v>
+      </c>
+      <c r="Q129">
+        <v>107</v>
+      </c>
+      <c r="R129">
+        <v>725</v>
+      </c>
+      <c r="S129">
+        <v>6307</v>
+      </c>
+      <c r="T129">
+        <v>378</v>
+      </c>
+      <c r="U129">
+        <v>5050</v>
+      </c>
+      <c r="V129">
+        <v>211</v>
+      </c>
+      <c r="W129">
+        <v>726</v>
+      </c>
+      <c r="X129">
+        <v>427</v>
+      </c>
+      <c r="Y129">
+        <v>2119</v>
+      </c>
+      <c r="Z129">
+        <v>706</v>
+      </c>
+      <c r="AA129">
+        <v>530</v>
+      </c>
+      <c r="AB129">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>15694</v>
+      </c>
+      <c r="C130">
+        <v>1758</v>
+      </c>
+      <c r="D130">
+        <v>10500</v>
+      </c>
+      <c r="E130">
+        <v>2001</v>
+      </c>
+      <c r="F130">
+        <v>643</v>
+      </c>
+      <c r="G130">
+        <v>1113</v>
+      </c>
+      <c r="H130">
+        <v>1110</v>
+      </c>
+      <c r="I130">
+        <v>690</v>
+      </c>
+      <c r="J130">
+        <v>602</v>
+      </c>
+      <c r="K130">
+        <v>1062</v>
+      </c>
+      <c r="L130">
+        <v>5068</v>
+      </c>
+      <c r="M130">
+        <v>728</v>
+      </c>
+      <c r="N130">
+        <v>1200</v>
+      </c>
+      <c r="O130">
+        <v>376</v>
+      </c>
+      <c r="P130">
+        <v>2887</v>
+      </c>
+      <c r="Q130">
+        <v>114</v>
+      </c>
+      <c r="R130">
+        <v>764</v>
+      </c>
+      <c r="S130">
+        <v>6373</v>
+      </c>
+      <c r="T130">
+        <v>387</v>
+      </c>
+      <c r="U130">
+        <v>5069</v>
+      </c>
+      <c r="V130">
+        <v>215</v>
+      </c>
+      <c r="W130">
+        <v>762</v>
+      </c>
+      <c r="X130">
+        <v>438</v>
+      </c>
+      <c r="Y130">
+        <v>2153</v>
+      </c>
+      <c r="Z130">
+        <v>741</v>
+      </c>
+      <c r="AA130">
+        <v>533</v>
+      </c>
+      <c r="AB130">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>15996</v>
+      </c>
+      <c r="C131">
+        <v>1781</v>
+      </c>
+      <c r="D131">
+        <v>10624</v>
+      </c>
+      <c r="E131">
+        <v>2050</v>
+      </c>
+      <c r="F131">
+        <v>671</v>
+      </c>
+      <c r="G131">
+        <v>1134</v>
+      </c>
+      <c r="H131">
+        <v>1183</v>
+      </c>
+      <c r="I131">
+        <v>715</v>
+      </c>
+      <c r="J131">
+        <v>621</v>
+      </c>
+      <c r="K131">
+        <v>1082</v>
+      </c>
+      <c r="L131">
+        <v>5116</v>
+      </c>
+      <c r="M131">
+        <v>763</v>
+      </c>
+      <c r="N131">
+        <v>1213</v>
+      </c>
+      <c r="O131">
+        <v>383</v>
+      </c>
+      <c r="P131">
+        <v>2918</v>
+      </c>
+      <c r="Q131">
+        <v>117</v>
+      </c>
+      <c r="R131">
+        <v>783</v>
+      </c>
+      <c r="S131">
+        <v>6441</v>
+      </c>
+      <c r="T131">
+        <v>391</v>
+      </c>
+      <c r="U131">
+        <v>5096</v>
+      </c>
+      <c r="V131">
+        <v>220</v>
+      </c>
+      <c r="W131">
+        <v>784</v>
+      </c>
+      <c r="X131">
+        <v>441</v>
+      </c>
+      <c r="Y131">
+        <v>2185</v>
+      </c>
+      <c r="Z131">
+        <v>786</v>
+      </c>
+      <c r="AA131">
+        <v>548</v>
+      </c>
+      <c r="AB131">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>16078</v>
+      </c>
+      <c r="C132">
+        <v>1803</v>
+      </c>
+      <c r="D132">
+        <v>10667</v>
+      </c>
+      <c r="E132">
+        <v>2107</v>
+      </c>
+      <c r="F132">
+        <v>699</v>
+      </c>
+      <c r="G132">
+        <v>1153</v>
+      </c>
+      <c r="H132">
+        <v>1201</v>
+      </c>
+      <c r="I132">
+        <v>727</v>
+      </c>
+      <c r="J132">
+        <v>621</v>
+      </c>
+      <c r="K132">
+        <v>1099</v>
+      </c>
+      <c r="L132">
+        <v>5143</v>
+      </c>
+      <c r="M132">
+        <v>795</v>
+      </c>
+      <c r="N132">
+        <v>1213</v>
+      </c>
+      <c r="O132">
+        <v>393</v>
+      </c>
+      <c r="P132">
+        <v>2929</v>
+      </c>
+      <c r="Q132">
+        <v>117</v>
+      </c>
+      <c r="R132">
+        <v>798</v>
+      </c>
+      <c r="S132">
+        <v>6441</v>
+      </c>
+      <c r="T132">
+        <v>391</v>
+      </c>
+      <c r="U132">
+        <v>5105</v>
+      </c>
+      <c r="V132">
+        <v>220</v>
+      </c>
+      <c r="W132">
+        <v>809</v>
+      </c>
+      <c r="X132">
+        <v>442</v>
+      </c>
+      <c r="Y132">
+        <v>2219</v>
+      </c>
+      <c r="Z132">
+        <v>821</v>
+      </c>
+      <c r="AA132">
+        <v>555</v>
+      </c>
+      <c r="AB132">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -20138,15 +20838,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -20154,7 +20854,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -20162,7 +20862,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -20170,7 +20870,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -20178,7 +20878,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -20186,7 +20886,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -20194,7 +20894,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -20202,7 +20902,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -20210,7 +20910,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -20218,7 +20918,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -20226,7 +20926,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -20234,7 +20934,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -20242,7 +20942,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -20250,7 +20950,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -20258,7 +20958,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -20266,7 +20966,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -20274,7 +20974,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -20282,7 +20982,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -20290,7 +20990,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -20298,7 +20998,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -20306,7 +21006,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -20314,7 +21014,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -20322,7 +21022,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -20330,7 +21030,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -20338,7 +21038,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -20346,7 +21046,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -20354,7 +21054,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>UF</t>
@@ -830,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB132"/>
+  <dimension ref="A1:AB133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10606,7 +10609,7 @@
         <v>28166</v>
       </c>
       <c r="N130">
-        <v>33910</v>
+        <v>34322</v>
       </c>
       <c r="O130">
         <v>30261</v>
@@ -10698,7 +10701,7 @@
         <v>31931</v>
       </c>
       <c r="P131">
-        <v>75945</v>
+        <v>75502</v>
       </c>
       <c r="Q131">
         <v>10089</v>
@@ -10716,7 +10719,7 @@
         <v>113811</v>
       </c>
       <c r="V131">
-        <v>12475</v>
+        <v>12476</v>
       </c>
       <c r="W131">
         <v>26079</v>
@@ -10778,7 +10781,7 @@
         <v>31459</v>
       </c>
       <c r="N132">
-        <v>34645</v>
+        <v>35056</v>
       </c>
       <c r="O132">
         <v>32969</v>
@@ -10787,7 +10790,7 @@
         <v>76014</v>
       </c>
       <c r="Q132">
-        <v>10089</v>
+        <v>10253</v>
       </c>
       <c r="R132">
         <v>30217</v>
@@ -10802,7 +10805,7 @@
         <v>114535</v>
       </c>
       <c r="V132">
-        <v>12475</v>
+        <v>12640</v>
       </c>
       <c r="W132">
         <v>26511</v>
@@ -10820,7 +10823,93 @@
         <v>23479</v>
       </c>
       <c r="AB132">
-        <v>18922</v>
+        <v>18948</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>323070</v>
+      </c>
+      <c r="C133">
+        <v>54547</v>
+      </c>
+      <c r="D133">
+        <v>121879</v>
+      </c>
+      <c r="E133">
+        <v>88279</v>
+      </c>
+      <c r="F133">
+        <v>60383</v>
+      </c>
+      <c r="G133">
+        <v>40569</v>
+      </c>
+      <c r="H133">
+        <v>59626</v>
+      </c>
+      <c r="I133">
+        <v>32401</v>
+      </c>
+      <c r="J133">
+        <v>30187</v>
+      </c>
+      <c r="K133">
+        <v>53151</v>
+      </c>
+      <c r="L133">
+        <v>65642</v>
+      </c>
+      <c r="M133">
+        <v>32769</v>
+      </c>
+      <c r="N133">
+        <v>35056</v>
+      </c>
+      <c r="O133">
+        <v>33822</v>
+      </c>
+      <c r="P133">
+        <v>76427</v>
+      </c>
+      <c r="Q133">
+        <v>10253</v>
+      </c>
+      <c r="R133">
+        <v>30718</v>
+      </c>
+      <c r="S133">
+        <v>123394</v>
+      </c>
+      <c r="T133">
+        <v>14688</v>
+      </c>
+      <c r="U133">
+        <v>116152</v>
+      </c>
+      <c r="V133">
+        <v>12640</v>
+      </c>
+      <c r="W133">
+        <v>27514</v>
+      </c>
+      <c r="X133">
+        <v>30004</v>
+      </c>
+      <c r="Y133">
+        <v>90251</v>
+      </c>
+      <c r="Z133">
+        <v>22078</v>
+      </c>
+      <c r="AA133">
+        <v>23920</v>
+      </c>
+      <c r="AB133">
+        <v>18948</v>
       </c>
     </row>
   </sheetData>
@@ -10830,7 +10919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB132"/>
+  <dimension ref="A1:AB133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18753,7 +18842,7 @@
         <v>163</v>
       </c>
       <c r="AA108">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB108">
         <v>192</v>
@@ -20603,10 +20692,10 @@
         <v>5068</v>
       </c>
       <c r="M130">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N130">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="O130">
         <v>376</v>
@@ -20778,7 +20867,7 @@
         <v>795</v>
       </c>
       <c r="N132">
-        <v>1213</v>
+        <v>1254</v>
       </c>
       <c r="O132">
         <v>393</v>
@@ -20787,13 +20876,13 @@
         <v>2929</v>
       </c>
       <c r="Q132">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R132">
         <v>798</v>
       </c>
       <c r="S132">
-        <v>6441</v>
+        <v>6439</v>
       </c>
       <c r="T132">
         <v>391</v>
@@ -20802,7 +20891,7 @@
         <v>5105</v>
       </c>
       <c r="V132">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="W132">
         <v>809</v>
@@ -20820,7 +20909,93 @@
         <v>555</v>
       </c>
       <c r="AB132">
-        <v>368</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>16134</v>
+      </c>
+      <c r="C133">
+        <v>1836</v>
+      </c>
+      <c r="D133">
+        <v>10698</v>
+      </c>
+      <c r="E133">
+        <v>2168</v>
+      </c>
+      <c r="F133">
+        <v>726</v>
+      </c>
+      <c r="G133">
+        <v>1172</v>
+      </c>
+      <c r="H133">
+        <v>1230</v>
+      </c>
+      <c r="I133">
+        <v>759</v>
+      </c>
+      <c r="J133">
+        <v>654</v>
+      </c>
+      <c r="K133">
+        <v>1118</v>
+      </c>
+      <c r="L133">
+        <v>5163</v>
+      </c>
+      <c r="M133">
+        <v>820</v>
+      </c>
+      <c r="N133">
+        <v>1254</v>
+      </c>
+      <c r="O133">
+        <v>406</v>
+      </c>
+      <c r="P133">
+        <v>2938</v>
+      </c>
+      <c r="Q133">
+        <v>122</v>
+      </c>
+      <c r="R133">
+        <v>826</v>
+      </c>
+      <c r="S133">
+        <v>6504</v>
+      </c>
+      <c r="T133">
+        <v>394</v>
+      </c>
+      <c r="U133">
+        <v>5128</v>
+      </c>
+      <c r="V133">
+        <v>224</v>
+      </c>
+      <c r="W133">
+        <v>834</v>
+      </c>
+      <c r="X133">
+        <v>449</v>
+      </c>
+      <c r="Y133">
+        <v>2250</v>
+      </c>
+      <c r="Z133">
+        <v>857</v>
+      </c>
+      <c r="AA133">
+        <v>558</v>
+      </c>
+      <c r="AB133">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -20838,15 +21013,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -20854,7 +21029,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -20862,7 +21037,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -20870,7 +21045,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -20878,7 +21053,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -20886,7 +21061,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -20894,7 +21069,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -20902,7 +21077,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -20910,7 +21085,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -20918,7 +21093,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -20926,7 +21101,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -20934,7 +21109,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -20942,7 +21117,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -20950,7 +21125,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -20958,7 +21133,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -20966,7 +21141,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -20974,7 +21149,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -20982,7 +21157,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -20990,7 +21165,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -20998,7 +21173,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -21006,7 +21181,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -21014,7 +21189,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -21022,7 +21197,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -21030,7 +21205,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -21038,7 +21213,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -21046,7 +21221,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -21054,7 +21229,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
   </si>
   <si>
     <t>UF</t>
@@ -833,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB133"/>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10867,7 +10870,7 @@
         <v>32769</v>
       </c>
       <c r="N133">
-        <v>35056</v>
+        <v>35809</v>
       </c>
       <c r="O133">
         <v>33822</v>
@@ -10876,7 +10879,7 @@
         <v>76427</v>
       </c>
       <c r="Q133">
-        <v>10253</v>
+        <v>10687</v>
       </c>
       <c r="R133">
         <v>30718</v>
@@ -10891,7 +10894,7 @@
         <v>116152</v>
       </c>
       <c r="V133">
-        <v>12640</v>
+        <v>13004</v>
       </c>
       <c r="W133">
         <v>27514</v>
@@ -10909,7 +10912,93 @@
         <v>23920</v>
       </c>
       <c r="AB133">
-        <v>18948</v>
+        <v>19088</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>332708</v>
+      </c>
+      <c r="C134">
+        <v>56703</v>
+      </c>
+      <c r="D134">
+        <v>124086</v>
+      </c>
+      <c r="E134">
+        <v>91954</v>
+      </c>
+      <c r="F134">
+        <v>62694</v>
+      </c>
+      <c r="G134">
+        <v>41524</v>
+      </c>
+      <c r="H134">
+        <v>60897</v>
+      </c>
+      <c r="I134">
+        <v>33800</v>
+      </c>
+      <c r="J134">
+        <v>32001</v>
+      </c>
+      <c r="K134">
+        <v>54802</v>
+      </c>
+      <c r="L134">
+        <v>66151</v>
+      </c>
+      <c r="M134">
+        <v>34308</v>
+      </c>
+      <c r="N134">
+        <v>35809</v>
+      </c>
+      <c r="O134">
+        <v>35343</v>
+      </c>
+      <c r="P134">
+        <v>79167</v>
+      </c>
+      <c r="Q134">
+        <v>10687</v>
+      </c>
+      <c r="R134">
+        <v>31640</v>
+      </c>
+      <c r="S134">
+        <v>126142</v>
+      </c>
+      <c r="T134">
+        <v>14941</v>
+      </c>
+      <c r="U134">
+        <v>118744</v>
+      </c>
+      <c r="V134">
+        <v>13004</v>
+      </c>
+      <c r="W134">
+        <v>28411</v>
+      </c>
+      <c r="X134">
+        <v>30294</v>
+      </c>
+      <c r="Y134">
+        <v>92088</v>
+      </c>
+      <c r="Z134">
+        <v>23506</v>
+      </c>
+      <c r="AA134">
+        <v>24563</v>
+      </c>
+      <c r="AB134">
+        <v>19088</v>
       </c>
     </row>
   </sheetData>
@@ -10919,7 +11008,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB133"/>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20953,7 +21042,7 @@
         <v>820</v>
       </c>
       <c r="N133">
-        <v>1254</v>
+        <v>1289</v>
       </c>
       <c r="O133">
         <v>406</v>
@@ -20962,7 +21051,7 @@
         <v>2938</v>
       </c>
       <c r="Q133">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R133">
         <v>826</v>
@@ -20977,7 +21066,7 @@
         <v>5128</v>
       </c>
       <c r="V133">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="W133">
         <v>834</v>
@@ -20995,7 +21084,93 @@
         <v>558</v>
       </c>
       <c r="AB133">
-        <v>371</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>16475</v>
+      </c>
+      <c r="C134">
+        <v>1879</v>
+      </c>
+      <c r="D134">
+        <v>10881</v>
+      </c>
+      <c r="E134">
+        <v>2216</v>
+      </c>
+      <c r="F134">
+        <v>767</v>
+      </c>
+      <c r="G134">
+        <v>1192</v>
+      </c>
+      <c r="H134">
+        <v>1282</v>
+      </c>
+      <c r="I134">
+        <v>793</v>
+      </c>
+      <c r="J134">
+        <v>726</v>
+      </c>
+      <c r="K134">
+        <v>1145</v>
+      </c>
+      <c r="L134">
+        <v>5234</v>
+      </c>
+      <c r="M134">
+        <v>851</v>
+      </c>
+      <c r="N134">
+        <v>1289</v>
+      </c>
+      <c r="O134">
+        <v>420</v>
+      </c>
+      <c r="P134">
+        <v>2952</v>
+      </c>
+      <c r="Q134">
+        <v>128</v>
+      </c>
+      <c r="R134">
+        <v>851</v>
+      </c>
+      <c r="S134">
+        <v>6563</v>
+      </c>
+      <c r="T134">
+        <v>399</v>
+      </c>
+      <c r="U134">
+        <v>5169</v>
+      </c>
+      <c r="V134">
+        <v>228</v>
+      </c>
+      <c r="W134">
+        <v>858</v>
+      </c>
+      <c r="X134">
+        <v>455</v>
+      </c>
+      <c r="Y134">
+        <v>2286</v>
+      </c>
+      <c r="Z134">
+        <v>896</v>
+      </c>
+      <c r="AA134">
+        <v>577</v>
+      </c>
+      <c r="AB134">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -21013,15 +21188,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -21029,7 +21204,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -21037,7 +21212,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -21045,7 +21220,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -21053,7 +21228,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -21061,7 +21236,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -21069,7 +21244,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -21077,7 +21252,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -21085,7 +21260,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -21093,7 +21268,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -21101,7 +21276,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -21109,7 +21284,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -21117,7 +21292,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -21125,7 +21300,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -21133,7 +21308,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -21141,7 +21316,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -21149,7 +21324,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -21157,7 +21332,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -21165,7 +21340,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -21173,7 +21348,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -21181,7 +21356,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -21189,7 +21364,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -21197,7 +21372,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -21205,7 +21380,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -21213,7 +21388,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -21221,7 +21396,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -21229,7 +21404,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
   </si>
   <si>
     <t>UF</t>
@@ -836,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB134"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10870,7 +10876,7 @@
         <v>32769</v>
       </c>
       <c r="N133">
-        <v>35809</v>
+        <v>35897</v>
       </c>
       <c r="O133">
         <v>33822</v>
@@ -10956,7 +10962,7 @@
         <v>34308</v>
       </c>
       <c r="N134">
-        <v>35809</v>
+        <v>36587</v>
       </c>
       <c r="O134">
         <v>35343</v>
@@ -10965,7 +10971,7 @@
         <v>79167</v>
       </c>
       <c r="Q134">
-        <v>10687</v>
+        <v>11063</v>
       </c>
       <c r="R134">
         <v>31640</v>
@@ -10980,7 +10986,7 @@
         <v>118744</v>
       </c>
       <c r="V134">
-        <v>13004</v>
+        <v>13440</v>
       </c>
       <c r="W134">
         <v>28411</v>
@@ -10998,7 +11004,179 @@
         <v>24563</v>
       </c>
       <c r="AB134">
-        <v>19088</v>
+        <v>19284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>341365</v>
+      </c>
+      <c r="C135">
+        <v>58841</v>
+      </c>
+      <c r="D135">
+        <v>126329</v>
+      </c>
+      <c r="E135">
+        <v>95536</v>
+      </c>
+      <c r="F135">
+        <v>64314</v>
+      </c>
+      <c r="G135">
+        <v>42322</v>
+      </c>
+      <c r="H135">
+        <v>64035</v>
+      </c>
+      <c r="I135">
+        <v>35557</v>
+      </c>
+      <c r="J135">
+        <v>33367</v>
+      </c>
+      <c r="K135">
+        <v>56344</v>
+      </c>
+      <c r="L135">
+        <v>67604</v>
+      </c>
+      <c r="M135">
+        <v>35715</v>
+      </c>
+      <c r="N135">
+        <v>37137</v>
+      </c>
+      <c r="O135">
+        <v>36810</v>
+      </c>
+      <c r="P135">
+        <v>80082</v>
+      </c>
+      <c r="Q135">
+        <v>11671</v>
+      </c>
+      <c r="R135">
+        <v>32490</v>
+      </c>
+      <c r="S135">
+        <v>129598</v>
+      </c>
+      <c r="T135">
+        <v>15167</v>
+      </c>
+      <c r="U135">
+        <v>120731</v>
+      </c>
+      <c r="V135">
+        <v>13845</v>
+      </c>
+      <c r="W135">
+        <v>29745</v>
+      </c>
+      <c r="X135">
+        <v>30524</v>
+      </c>
+      <c r="Y135">
+        <v>92939</v>
+      </c>
+      <c r="Z135">
+        <v>24804</v>
+      </c>
+      <c r="AA135">
+        <v>25067</v>
+      </c>
+      <c r="AB135">
+        <v>20154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>349715</v>
+      </c>
+      <c r="C136">
+        <v>60009</v>
+      </c>
+      <c r="D136">
+        <v>128324</v>
+      </c>
+      <c r="E136">
+        <v>98319</v>
+      </c>
+      <c r="F136">
+        <v>65677</v>
+      </c>
+      <c r="G136">
+        <v>43191</v>
+      </c>
+      <c r="H136">
+        <v>66864</v>
+      </c>
+      <c r="I136">
+        <v>36434</v>
+      </c>
+      <c r="J136">
+        <v>34627</v>
+      </c>
+      <c r="K136">
+        <v>57614</v>
+      </c>
+      <c r="L136">
+        <v>68767</v>
+      </c>
+      <c r="M136">
+        <v>37424</v>
+      </c>
+      <c r="N136">
+        <v>37137</v>
+      </c>
+      <c r="O136">
+        <v>38408</v>
+      </c>
+      <c r="P136">
+        <v>81318</v>
+      </c>
+      <c r="Q136">
+        <v>11671</v>
+      </c>
+      <c r="R136">
+        <v>33416</v>
+      </c>
+      <c r="S136">
+        <v>131324</v>
+      </c>
+      <c r="T136">
+        <v>15465</v>
+      </c>
+      <c r="U136">
+        <v>122674</v>
+      </c>
+      <c r="V136">
+        <v>13845</v>
+      </c>
+      <c r="W136">
+        <v>31269</v>
+      </c>
+      <c r="X136">
+        <v>30763</v>
+      </c>
+      <c r="Y136">
+        <v>95323</v>
+      </c>
+      <c r="Z136">
+        <v>25264</v>
+      </c>
+      <c r="AA136">
+        <v>25402</v>
+      </c>
+      <c r="AB136">
+        <v>20154</v>
       </c>
     </row>
   </sheetData>
@@ -11008,7 +11186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB134"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21042,7 +21220,7 @@
         <v>820</v>
       </c>
       <c r="N133">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="O133">
         <v>406</v>
@@ -21128,7 +21306,7 @@
         <v>851</v>
       </c>
       <c r="N134">
-        <v>1289</v>
+        <v>1332</v>
       </c>
       <c r="O134">
         <v>420</v>
@@ -21137,7 +21315,7 @@
         <v>2952</v>
       </c>
       <c r="Q134">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R134">
         <v>851</v>
@@ -21152,7 +21330,7 @@
         <v>5169</v>
       </c>
       <c r="V134">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W134">
         <v>858</v>
@@ -21170,7 +21348,179 @@
         <v>577</v>
       </c>
       <c r="AB134">
-        <v>376</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>16788</v>
+      </c>
+      <c r="C135">
+        <v>1912</v>
+      </c>
+      <c r="D135">
+        <v>10970</v>
+      </c>
+      <c r="E135">
+        <v>2277</v>
+      </c>
+      <c r="F135">
+        <v>801</v>
+      </c>
+      <c r="G135">
+        <v>1213</v>
+      </c>
+      <c r="H135">
+        <v>1355</v>
+      </c>
+      <c r="I135">
+        <v>825</v>
+      </c>
+      <c r="J135">
+        <v>748</v>
+      </c>
+      <c r="K135">
+        <v>1171</v>
+      </c>
+      <c r="L135">
+        <v>5323</v>
+      </c>
+      <c r="M135">
+        <v>895</v>
+      </c>
+      <c r="N135">
+        <v>1351</v>
+      </c>
+      <c r="O135">
+        <v>432</v>
+      </c>
+      <c r="P135">
+        <v>2967</v>
+      </c>
+      <c r="Q135">
+        <v>136</v>
+      </c>
+      <c r="R135">
+        <v>875</v>
+      </c>
+      <c r="S135">
+        <v>6678</v>
+      </c>
+      <c r="T135">
+        <v>404</v>
+      </c>
+      <c r="U135">
+        <v>5196</v>
+      </c>
+      <c r="V135">
+        <v>240</v>
+      </c>
+      <c r="W135">
+        <v>884</v>
+      </c>
+      <c r="X135">
+        <v>462</v>
+      </c>
+      <c r="Y135">
+        <v>2324</v>
+      </c>
+      <c r="Z135">
+        <v>921</v>
+      </c>
+      <c r="AA135">
+        <v>585</v>
+      </c>
+      <c r="AB135">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>17118</v>
+      </c>
+      <c r="C136">
+        <v>1929</v>
+      </c>
+      <c r="D136">
+        <v>11115</v>
+      </c>
+      <c r="E136">
+        <v>2328</v>
+      </c>
+      <c r="F136">
+        <v>823</v>
+      </c>
+      <c r="G136">
+        <v>1230</v>
+      </c>
+      <c r="H136">
+        <v>1445</v>
+      </c>
+      <c r="I136">
+        <v>870</v>
+      </c>
+      <c r="J136">
+        <v>795</v>
+      </c>
+      <c r="K136">
+        <v>1196</v>
+      </c>
+      <c r="L136">
+        <v>5409</v>
+      </c>
+      <c r="M136">
+        <v>931</v>
+      </c>
+      <c r="N136">
+        <v>1351</v>
+      </c>
+      <c r="O136">
+        <v>447</v>
+      </c>
+      <c r="P136">
+        <v>2985</v>
+      </c>
+      <c r="Q136">
+        <v>136</v>
+      </c>
+      <c r="R136">
+        <v>901</v>
+      </c>
+      <c r="S136">
+        <v>6774</v>
+      </c>
+      <c r="T136">
+        <v>411</v>
+      </c>
+      <c r="U136">
+        <v>5224</v>
+      </c>
+      <c r="V136">
+        <v>240</v>
+      </c>
+      <c r="W136">
+        <v>896</v>
+      </c>
+      <c r="X136">
+        <v>467</v>
+      </c>
+      <c r="Y136">
+        <v>2357</v>
+      </c>
+      <c r="Z136">
+        <v>928</v>
+      </c>
+      <c r="AA136">
+        <v>589</v>
+      </c>
+      <c r="AB136">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -21188,15 +21538,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -21204,7 +21554,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -21212,7 +21562,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -21220,7 +21570,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -21228,7 +21578,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -21236,7 +21586,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -21244,7 +21594,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -21252,7 +21602,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -21260,7 +21610,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -21268,7 +21618,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -21276,7 +21626,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -21284,7 +21634,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -21292,7 +21642,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -21300,7 +21650,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -21308,7 +21658,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -21316,7 +21666,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -21324,7 +21674,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -21332,7 +21682,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -21340,7 +21690,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -21348,7 +21698,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -21356,7 +21706,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -21364,7 +21714,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -21372,7 +21722,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -21380,7 +21730,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -21388,7 +21738,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -21396,7 +21746,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -21404,7 +21754,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="169">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
   </si>
   <si>
     <t>UF</t>
@@ -842,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB136"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9334,7 +9346,7 @@
         <v>15573</v>
       </c>
       <c r="P115">
-        <v>60736</v>
+        <v>60336</v>
       </c>
       <c r="Q115">
         <v>4666</v>
@@ -9420,7 +9432,7 @@
         <v>16332</v>
       </c>
       <c r="P116">
-        <v>61683</v>
+        <v>61341</v>
       </c>
       <c r="Q116">
         <v>4990</v>
@@ -9506,7 +9518,7 @@
         <v>17108</v>
       </c>
       <c r="P117">
-        <v>62902</v>
+        <v>62579</v>
       </c>
       <c r="Q117">
         <v>5237</v>
@@ -9592,7 +9604,7 @@
         <v>17582</v>
       </c>
       <c r="P118">
-        <v>63410</v>
+        <v>63090</v>
       </c>
       <c r="Q118">
         <v>5391</v>
@@ -9678,7 +9690,7 @@
         <v>17937</v>
       </c>
       <c r="P119">
-        <v>63731</v>
+        <v>63425</v>
       </c>
       <c r="Q119">
         <v>5784</v>
@@ -9764,7 +9776,7 @@
         <v>19244</v>
       </c>
       <c r="P120">
-        <v>65073</v>
+        <v>64808</v>
       </c>
       <c r="Q120">
         <v>6201</v>
@@ -9850,7 +9862,7 @@
         <v>20921</v>
       </c>
       <c r="P121">
-        <v>66764</v>
+        <v>66506</v>
       </c>
       <c r="Q121">
         <v>6523</v>
@@ -11134,7 +11146,7 @@
         <v>37424</v>
       </c>
       <c r="N136">
-        <v>37137</v>
+        <v>38342</v>
       </c>
       <c r="O136">
         <v>38408</v>
@@ -11143,7 +11155,7 @@
         <v>81318</v>
       </c>
       <c r="Q136">
-        <v>11671</v>
+        <v>12261</v>
       </c>
       <c r="R136">
         <v>33416</v>
@@ -11158,7 +11170,7 @@
         <v>122674</v>
       </c>
       <c r="V136">
-        <v>13845</v>
+        <v>14509</v>
       </c>
       <c r="W136">
         <v>31269</v>
@@ -11170,13 +11182,357 @@
         <v>95323</v>
       </c>
       <c r="Z136">
-        <v>25264</v>
+        <v>26396</v>
       </c>
       <c r="AA136">
         <v>25402</v>
       </c>
       <c r="AB136">
-        <v>20154</v>
+        <v>21220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>359110</v>
+      </c>
+      <c r="C137">
+        <v>61361</v>
+      </c>
+      <c r="D137">
+        <v>129443</v>
+      </c>
+      <c r="E137">
+        <v>101186</v>
+      </c>
+      <c r="F137">
+        <v>67297</v>
+      </c>
+      <c r="G137">
+        <v>43959</v>
+      </c>
+      <c r="H137">
+        <v>70086</v>
+      </c>
+      <c r="I137">
+        <v>37490</v>
+      </c>
+      <c r="J137">
+        <v>35706</v>
+      </c>
+      <c r="K137">
+        <v>59118</v>
+      </c>
+      <c r="L137">
+        <v>70100</v>
+      </c>
+      <c r="M137">
+        <v>39512</v>
+      </c>
+      <c r="N137">
+        <v>38704</v>
+      </c>
+      <c r="O137">
+        <v>40106</v>
+      </c>
+      <c r="P137">
+        <v>82507</v>
+      </c>
+      <c r="Q137">
+        <v>12969</v>
+      </c>
+      <c r="R137">
+        <v>34713</v>
+      </c>
+      <c r="S137">
+        <v>134610</v>
+      </c>
+      <c r="T137">
+        <v>15768</v>
+      </c>
+      <c r="U137">
+        <v>124934</v>
+      </c>
+      <c r="V137">
+        <v>14939</v>
+      </c>
+      <c r="W137">
+        <v>32465</v>
+      </c>
+      <c r="X137">
+        <v>31080</v>
+      </c>
+      <c r="Y137">
+        <v>96718</v>
+      </c>
+      <c r="Z137">
+        <v>27636</v>
+      </c>
+      <c r="AA137">
+        <v>26000</v>
+      </c>
+      <c r="AB137">
+        <v>21849</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>366890</v>
+      </c>
+      <c r="C138">
+        <v>62393</v>
+      </c>
+      <c r="D138">
+        <v>129675</v>
+      </c>
+      <c r="E138">
+        <v>104188</v>
+      </c>
+      <c r="F138">
+        <v>68406</v>
+      </c>
+      <c r="G138">
+        <v>44633</v>
+      </c>
+      <c r="H138">
+        <v>73813</v>
+      </c>
+      <c r="I138">
+        <v>38720</v>
+      </c>
+      <c r="J138">
+        <v>36273</v>
+      </c>
+      <c r="K138">
+        <v>60421</v>
+      </c>
+      <c r="L138">
+        <v>71370</v>
+      </c>
+      <c r="M138">
+        <v>40797</v>
+      </c>
+      <c r="N138">
+        <v>39421</v>
+      </c>
+      <c r="O138">
+        <v>42026</v>
+      </c>
+      <c r="P138">
+        <v>83230</v>
+      </c>
+      <c r="Q138">
+        <v>13197</v>
+      </c>
+      <c r="R138">
+        <v>36046</v>
+      </c>
+      <c r="S138">
+        <v>136001</v>
+      </c>
+      <c r="T138">
+        <v>16080</v>
+      </c>
+      <c r="U138">
+        <v>125714</v>
+      </c>
+      <c r="V138">
+        <v>15132</v>
+      </c>
+      <c r="W138">
+        <v>32963</v>
+      </c>
+      <c r="X138">
+        <v>31279</v>
+      </c>
+      <c r="Y138">
+        <v>98398</v>
+      </c>
+      <c r="Z138">
+        <v>27636</v>
+      </c>
+      <c r="AA138">
+        <v>26496</v>
+      </c>
+      <c r="AB138">
+        <v>22225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>371997</v>
+      </c>
+      <c r="C139">
+        <v>62873</v>
+      </c>
+      <c r="D139">
+        <v>129684</v>
+      </c>
+      <c r="E139">
+        <v>105763</v>
+      </c>
+      <c r="F139">
+        <v>70712</v>
+      </c>
+      <c r="G139">
+        <v>45330</v>
+      </c>
+      <c r="H139">
+        <v>75851</v>
+      </c>
+      <c r="I139">
+        <v>39240</v>
+      </c>
+      <c r="J139">
+        <v>36556</v>
+      </c>
+      <c r="K139">
+        <v>60784</v>
+      </c>
+      <c r="L139">
+        <v>72470</v>
+      </c>
+      <c r="M139">
+        <v>42537</v>
+      </c>
+      <c r="N139">
+        <v>39598</v>
+      </c>
+      <c r="O139">
+        <v>43031</v>
+      </c>
+      <c r="P139">
+        <v>83526</v>
+      </c>
+      <c r="Q139">
+        <v>13461</v>
+      </c>
+      <c r="R139">
+        <v>37631</v>
+      </c>
+      <c r="S139">
+        <v>136790</v>
+      </c>
+      <c r="T139">
+        <v>16190</v>
+      </c>
+      <c r="U139">
+        <v>126509</v>
+      </c>
+      <c r="V139">
+        <v>15307</v>
+      </c>
+      <c r="W139">
+        <v>33359</v>
+      </c>
+      <c r="X139">
+        <v>31364</v>
+      </c>
+      <c r="Y139">
+        <v>98952</v>
+      </c>
+      <c r="Z139">
+        <v>28791</v>
+      </c>
+      <c r="AA139">
+        <v>26728</v>
+      </c>
+      <c r="AB139">
+        <v>22627</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>374607</v>
+      </c>
+      <c r="C140">
+        <v>63881</v>
+      </c>
+      <c r="D140">
+        <v>132044</v>
+      </c>
+      <c r="E140">
+        <v>106891</v>
+      </c>
+      <c r="F140">
+        <v>72284</v>
+      </c>
+      <c r="G140">
+        <v>46296</v>
+      </c>
+      <c r="H140">
+        <v>76822</v>
+      </c>
+      <c r="I140">
+        <v>39656</v>
+      </c>
+      <c r="J140">
+        <v>37333</v>
+      </c>
+      <c r="K140">
+        <v>61108</v>
+      </c>
+      <c r="L140">
+        <v>72901</v>
+      </c>
+      <c r="M140">
+        <v>43582</v>
+      </c>
+      <c r="N140">
+        <v>39598</v>
+      </c>
+      <c r="O140">
+        <v>43815</v>
+      </c>
+      <c r="P140">
+        <v>84412</v>
+      </c>
+      <c r="Q140">
+        <v>13461</v>
+      </c>
+      <c r="R140">
+        <v>38221</v>
+      </c>
+      <c r="S140">
+        <v>137234</v>
+      </c>
+      <c r="T140">
+        <v>16260</v>
+      </c>
+      <c r="U140">
+        <v>128570</v>
+      </c>
+      <c r="V140">
+        <v>15307</v>
+      </c>
+      <c r="W140">
+        <v>34156</v>
+      </c>
+      <c r="X140">
+        <v>31552</v>
+      </c>
+      <c r="Y140">
+        <v>99830</v>
+      </c>
+      <c r="Z140">
+        <v>28792</v>
+      </c>
+      <c r="AA140">
+        <v>27050</v>
+      </c>
+      <c r="AB140">
+        <v>22627</v>
       </c>
     </row>
   </sheetData>
@@ -11186,7 +11542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB136"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21478,7 +21834,7 @@
         <v>931</v>
       </c>
       <c r="N136">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="O136">
         <v>447</v>
@@ -21487,7 +21843,7 @@
         <v>2985</v>
       </c>
       <c r="Q136">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="R136">
         <v>901</v>
@@ -21502,7 +21858,7 @@
         <v>5224</v>
       </c>
       <c r="V136">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="W136">
         <v>896</v>
@@ -21514,13 +21870,357 @@
         <v>2357</v>
       </c>
       <c r="Z136">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="AA136">
         <v>589</v>
       </c>
       <c r="AB136">
         <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>17442</v>
+      </c>
+      <c r="C137">
+        <v>1967</v>
+      </c>
+      <c r="D137">
+        <v>11280</v>
+      </c>
+      <c r="E137">
+        <v>2383</v>
+      </c>
+      <c r="F137">
+        <v>856</v>
+      </c>
+      <c r="G137">
+        <v>1246</v>
+      </c>
+      <c r="H137">
+        <v>1504</v>
+      </c>
+      <c r="I137">
+        <v>919</v>
+      </c>
+      <c r="J137">
+        <v>835</v>
+      </c>
+      <c r="K137">
+        <v>1229</v>
+      </c>
+      <c r="L137">
+        <v>5482</v>
+      </c>
+      <c r="M137">
+        <v>978</v>
+      </c>
+      <c r="N137">
+        <v>1386</v>
+      </c>
+      <c r="O137">
+        <v>459</v>
+      </c>
+      <c r="P137">
+        <v>3008</v>
+      </c>
+      <c r="Q137">
+        <v>153</v>
+      </c>
+      <c r="R137">
+        <v>931</v>
+      </c>
+      <c r="S137">
+        <v>6842</v>
+      </c>
+      <c r="T137">
+        <v>417</v>
+      </c>
+      <c r="U137">
+        <v>5274</v>
+      </c>
+      <c r="V137">
+        <v>251</v>
+      </c>
+      <c r="W137">
+        <v>914</v>
+      </c>
+      <c r="X137">
+        <v>470</v>
+      </c>
+      <c r="Y137">
+        <v>2392</v>
+      </c>
+      <c r="Z137">
+        <v>1026</v>
+      </c>
+      <c r="AA137">
+        <v>606</v>
+      </c>
+      <c r="AB137">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>17702</v>
+      </c>
+      <c r="C138">
+        <v>1995</v>
+      </c>
+      <c r="D138">
+        <v>11406</v>
+      </c>
+      <c r="E138">
+        <v>2436</v>
+      </c>
+      <c r="F138">
+        <v>871</v>
+      </c>
+      <c r="G138">
+        <v>1264</v>
+      </c>
+      <c r="H138">
+        <v>1550</v>
+      </c>
+      <c r="I138">
+        <v>943</v>
+      </c>
+      <c r="J138">
+        <v>847</v>
+      </c>
+      <c r="K138">
+        <v>1250</v>
+      </c>
+      <c r="L138">
+        <v>5556</v>
+      </c>
+      <c r="M138">
+        <v>1016</v>
+      </c>
+      <c r="N138">
+        <v>1394</v>
+      </c>
+      <c r="O138">
+        <v>485</v>
+      </c>
+      <c r="P138">
+        <v>3023</v>
+      </c>
+      <c r="Q138">
+        <v>161</v>
+      </c>
+      <c r="R138">
+        <v>954</v>
+      </c>
+      <c r="S138">
+        <v>6867</v>
+      </c>
+      <c r="T138">
+        <v>419</v>
+      </c>
+      <c r="U138">
+        <v>5289</v>
+      </c>
+      <c r="V138">
+        <v>255</v>
+      </c>
+      <c r="W138">
+        <v>936</v>
+      </c>
+      <c r="X138">
+        <v>473</v>
+      </c>
+      <c r="Y138">
+        <v>2426</v>
+      </c>
+      <c r="Z138">
+        <v>1029</v>
+      </c>
+      <c r="AA138">
+        <v>617</v>
+      </c>
+      <c r="AB138">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>17848</v>
+      </c>
+      <c r="C139">
+        <v>2010</v>
+      </c>
+      <c r="D139">
+        <v>11415</v>
+      </c>
+      <c r="E139">
+        <v>2483</v>
+      </c>
+      <c r="F139">
+        <v>902</v>
+      </c>
+      <c r="G139">
+        <v>1281</v>
+      </c>
+      <c r="H139">
+        <v>1576</v>
+      </c>
+      <c r="I139">
+        <v>962</v>
+      </c>
+      <c r="J139">
+        <v>851</v>
+      </c>
+      <c r="K139">
+        <v>1284</v>
+      </c>
+      <c r="L139">
+        <v>5595</v>
+      </c>
+      <c r="M139">
+        <v>1045</v>
+      </c>
+      <c r="N139">
+        <v>1399</v>
+      </c>
+      <c r="O139">
+        <v>497</v>
+      </c>
+      <c r="P139">
+        <v>3039</v>
+      </c>
+      <c r="Q139">
+        <v>167</v>
+      </c>
+      <c r="R139">
+        <v>984</v>
+      </c>
+      <c r="S139">
+        <v>6869</v>
+      </c>
+      <c r="T139">
+        <v>426</v>
+      </c>
+      <c r="U139">
+        <v>5293</v>
+      </c>
+      <c r="V139">
+        <v>259</v>
+      </c>
+      <c r="W139">
+        <v>960</v>
+      </c>
+      <c r="X139">
+        <v>474</v>
+      </c>
+      <c r="Y139">
+        <v>2463</v>
+      </c>
+      <c r="Z139">
+        <v>1077</v>
+      </c>
+      <c r="AA139">
+        <v>628</v>
+      </c>
+      <c r="AB139">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>17907</v>
+      </c>
+      <c r="C140">
+        <v>2040</v>
+      </c>
+      <c r="D140">
+        <v>11474</v>
+      </c>
+      <c r="E140">
+        <v>2535</v>
+      </c>
+      <c r="F140">
+        <v>930</v>
+      </c>
+      <c r="G140">
+        <v>1297</v>
+      </c>
+      <c r="H140">
+        <v>1615</v>
+      </c>
+      <c r="I140">
+        <v>995</v>
+      </c>
+      <c r="J140">
+        <v>880</v>
+      </c>
+      <c r="K140">
+        <v>1302</v>
+      </c>
+      <c r="L140">
+        <v>5652</v>
+      </c>
+      <c r="M140">
+        <v>1089</v>
+      </c>
+      <c r="N140">
+        <v>1399</v>
+      </c>
+      <c r="O140">
+        <v>517</v>
+      </c>
+      <c r="P140">
+        <v>3048</v>
+      </c>
+      <c r="Q140">
+        <v>167</v>
+      </c>
+      <c r="R140">
+        <v>1012</v>
+      </c>
+      <c r="S140">
+        <v>6975</v>
+      </c>
+      <c r="T140">
+        <v>430</v>
+      </c>
+      <c r="U140">
+        <v>5318</v>
+      </c>
+      <c r="V140">
+        <v>259</v>
+      </c>
+      <c r="W140">
+        <v>992</v>
+      </c>
+      <c r="X140">
+        <v>478</v>
+      </c>
+      <c r="Y140">
+        <v>2501</v>
+      </c>
+      <c r="Z140">
+        <v>1085</v>
+      </c>
+      <c r="AA140">
+        <v>647</v>
+      </c>
+      <c r="AB140">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -21538,15 +22238,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -21554,7 +22254,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -21562,7 +22262,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -21570,7 +22270,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -21578,7 +22278,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -21586,7 +22286,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -21594,7 +22294,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -21602,7 +22302,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -21610,7 +22310,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -21618,7 +22318,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -21626,7 +22326,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -21634,7 +22334,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -21642,7 +22342,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -21650,7 +22350,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -21658,7 +22358,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -21666,7 +22366,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -21674,7 +22374,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -21682,7 +22382,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -21690,7 +22390,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -21698,7 +22398,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -21706,7 +22406,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -21714,7 +22414,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -21722,7 +22422,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -21730,7 +22430,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -21738,7 +22438,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -21746,7 +22446,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -21754,7 +22454,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -438,6 +438,15 @@
     <t>2020-07-13</t>
   </si>
   <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -854,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11404,7 +11413,7 @@
         <v>42537</v>
       </c>
       <c r="N139">
-        <v>39598</v>
+        <v>39908</v>
       </c>
       <c r="O139">
         <v>43031</v>
@@ -11490,7 +11499,7 @@
         <v>43582</v>
       </c>
       <c r="N140">
-        <v>39598</v>
+        <v>40455</v>
       </c>
       <c r="O140">
         <v>43815</v>
@@ -11499,7 +11508,7 @@
         <v>84412</v>
       </c>
       <c r="Q140">
-        <v>13461</v>
+        <v>13934</v>
       </c>
       <c r="R140">
         <v>38221</v>
@@ -11514,7 +11523,7 @@
         <v>128570</v>
       </c>
       <c r="V140">
-        <v>15307</v>
+        <v>15723</v>
       </c>
       <c r="W140">
         <v>34156</v>
@@ -11526,13 +11535,271 @@
         <v>99830</v>
       </c>
       <c r="Z140">
-        <v>28792</v>
+        <v>29279</v>
       </c>
       <c r="AA140">
         <v>27050</v>
       </c>
       <c r="AB140">
-        <v>22627</v>
+        <v>22968</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>386607</v>
+      </c>
+      <c r="C141">
+        <v>65213</v>
+      </c>
+      <c r="D141">
+        <v>132822</v>
+      </c>
+      <c r="E141">
+        <v>110029</v>
+      </c>
+      <c r="F141">
+        <v>73654</v>
+      </c>
+      <c r="G141">
+        <v>47005</v>
+      </c>
+      <c r="H141">
+        <v>78643</v>
+      </c>
+      <c r="I141">
+        <v>40993</v>
+      </c>
+      <c r="J141">
+        <v>38299</v>
+      </c>
+      <c r="K141">
+        <v>62462</v>
+      </c>
+      <c r="L141">
+        <v>73576</v>
+      </c>
+      <c r="M141">
+        <v>45363</v>
+      </c>
+      <c r="N141">
+        <v>40767</v>
+      </c>
+      <c r="O141">
+        <v>46050</v>
+      </c>
+      <c r="P141">
+        <v>85800</v>
+      </c>
+      <c r="Q141">
+        <v>14631</v>
+      </c>
+      <c r="R141">
+        <v>39167</v>
+      </c>
+      <c r="S141">
+        <v>139437</v>
+      </c>
+      <c r="T141">
+        <v>16479</v>
+      </c>
+      <c r="U141">
+        <v>130834</v>
+      </c>
+      <c r="V141">
+        <v>16031</v>
+      </c>
+      <c r="W141">
+        <v>35445</v>
+      </c>
+      <c r="X141">
+        <v>31885</v>
+      </c>
+      <c r="Y141">
+        <v>101467</v>
+      </c>
+      <c r="Z141">
+        <v>29279</v>
+      </c>
+      <c r="AA141">
+        <v>27528</v>
+      </c>
+      <c r="AB141">
+        <v>23681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>393176</v>
+      </c>
+      <c r="C142">
+        <v>66352</v>
+      </c>
+      <c r="D142">
+        <v>134449</v>
+      </c>
+      <c r="E142">
+        <v>112993</v>
+      </c>
+      <c r="F142">
+        <v>75379</v>
+      </c>
+      <c r="G142">
+        <v>47864</v>
+      </c>
+      <c r="H142">
+        <v>82010</v>
+      </c>
+      <c r="I142">
+        <v>42239</v>
+      </c>
+      <c r="J142">
+        <v>39474</v>
+      </c>
+      <c r="K142">
+        <v>63939</v>
+      </c>
+      <c r="L142">
+        <v>74960</v>
+      </c>
+      <c r="M142">
+        <v>47124</v>
+      </c>
+      <c r="N142">
+        <v>40976</v>
+      </c>
+      <c r="O142">
+        <v>47976</v>
+      </c>
+      <c r="P142">
+        <v>86944</v>
+      </c>
+      <c r="Q142">
+        <v>15330</v>
+      </c>
+      <c r="R142">
+        <v>40139</v>
+      </c>
+      <c r="S142">
+        <v>141832</v>
+      </c>
+      <c r="T142">
+        <v>16672</v>
+      </c>
+      <c r="U142">
+        <v>133039</v>
+      </c>
+      <c r="V142">
+        <v>16672</v>
+      </c>
+      <c r="W142">
+        <v>36542</v>
+      </c>
+      <c r="X142">
+        <v>32408</v>
+      </c>
+      <c r="Y142">
+        <v>102469</v>
+      </c>
+      <c r="Z142">
+        <v>30536</v>
+      </c>
+      <c r="AA142">
+        <v>27917</v>
+      </c>
+      <c r="AB142">
+        <v>23681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>402048</v>
+      </c>
+      <c r="C143">
+        <v>68118</v>
+      </c>
+      <c r="D143">
+        <v>134573</v>
+      </c>
+      <c r="E143">
+        <v>116373</v>
+      </c>
+      <c r="F143">
+        <v>77620</v>
+      </c>
+      <c r="G143">
+        <v>48734</v>
+      </c>
+      <c r="H143">
+        <v>84470</v>
+      </c>
+      <c r="I143">
+        <v>45344</v>
+      </c>
+      <c r="J143">
+        <v>40544</v>
+      </c>
+      <c r="K143">
+        <v>65423</v>
+      </c>
+      <c r="L143">
+        <v>76091</v>
+      </c>
+      <c r="M143">
+        <v>49405</v>
+      </c>
+      <c r="N143">
+        <v>40976</v>
+      </c>
+      <c r="O143">
+        <v>49781</v>
+      </c>
+      <c r="P143">
+        <v>88025</v>
+      </c>
+      <c r="Q143">
+        <v>15330</v>
+      </c>
+      <c r="R143">
+        <v>41226</v>
+      </c>
+      <c r="S143">
+        <v>144058</v>
+      </c>
+      <c r="T143">
+        <v>16865</v>
+      </c>
+      <c r="U143">
+        <v>135164</v>
+      </c>
+      <c r="V143">
+        <v>16672</v>
+      </c>
+      <c r="W143">
+        <v>36542</v>
+      </c>
+      <c r="X143">
+        <v>33004</v>
+      </c>
+      <c r="Y143">
+        <v>104126</v>
+      </c>
+      <c r="Z143">
+        <v>31717</v>
+      </c>
+      <c r="AA143">
+        <v>28654</v>
+      </c>
+      <c r="AB143">
+        <v>24397</v>
       </c>
     </row>
   </sheetData>
@@ -11542,7 +11809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22092,7 +22359,7 @@
         <v>1045</v>
       </c>
       <c r="N139">
-        <v>1399</v>
+        <v>1410</v>
       </c>
       <c r="O139">
         <v>497</v>
@@ -22178,7 +22445,7 @@
         <v>1089</v>
       </c>
       <c r="N140">
-        <v>1399</v>
+        <v>1449</v>
       </c>
       <c r="O140">
         <v>517</v>
@@ -22187,7 +22454,7 @@
         <v>3048</v>
       </c>
       <c r="Q140">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="R140">
         <v>1012</v>
@@ -22202,7 +22469,7 @@
         <v>5318</v>
       </c>
       <c r="V140">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="W140">
         <v>992</v>
@@ -22214,13 +22481,271 @@
         <v>2501</v>
       </c>
       <c r="Z140">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="AA140">
         <v>647</v>
       </c>
       <c r="AB140">
-        <v>397</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>18324</v>
+      </c>
+      <c r="C141">
+        <v>2082</v>
+      </c>
+      <c r="D141">
+        <v>11624</v>
+      </c>
+      <c r="E141">
+        <v>2584</v>
+      </c>
+      <c r="F141">
+        <v>960</v>
+      </c>
+      <c r="G141">
+        <v>1314</v>
+      </c>
+      <c r="H141">
+        <v>1688</v>
+      </c>
+      <c r="I141">
+        <v>1060</v>
+      </c>
+      <c r="J141">
+        <v>910</v>
+      </c>
+      <c r="K141">
+        <v>1342</v>
+      </c>
+      <c r="L141">
+        <v>5715</v>
+      </c>
+      <c r="M141">
+        <v>1146</v>
+      </c>
+      <c r="N141">
+        <v>1479</v>
+      </c>
+      <c r="O141">
+        <v>534</v>
+      </c>
+      <c r="P141">
+        <v>3064</v>
+      </c>
+      <c r="Q141">
+        <v>183</v>
+      </c>
+      <c r="R141">
+        <v>1033</v>
+      </c>
+      <c r="S141">
+        <v>6977</v>
+      </c>
+      <c r="T141">
+        <v>436</v>
+      </c>
+      <c r="U141">
+        <v>5337</v>
+      </c>
+      <c r="V141">
+        <v>271</v>
+      </c>
+      <c r="W141">
+        <v>1019</v>
+      </c>
+      <c r="X141">
+        <v>483</v>
+      </c>
+      <c r="Y141">
+        <v>2536</v>
+      </c>
+      <c r="Z141">
+        <v>1105</v>
+      </c>
+      <c r="AA141">
+        <v>663</v>
+      </c>
+      <c r="AB141">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>18640</v>
+      </c>
+      <c r="C142">
+        <v>2096</v>
+      </c>
+      <c r="D142">
+        <v>11757</v>
+      </c>
+      <c r="E142">
+        <v>2638</v>
+      </c>
+      <c r="F142">
+        <v>1001</v>
+      </c>
+      <c r="G142">
+        <v>1331</v>
+      </c>
+      <c r="H142">
+        <v>1752</v>
+      </c>
+      <c r="I142">
+        <v>1101</v>
+      </c>
+      <c r="J142">
+        <v>959</v>
+      </c>
+      <c r="K142">
+        <v>1383</v>
+      </c>
+      <c r="L142">
+        <v>5772</v>
+      </c>
+      <c r="M142">
+        <v>1200</v>
+      </c>
+      <c r="N142">
+        <v>1498</v>
+      </c>
+      <c r="O142">
+        <v>569</v>
+      </c>
+      <c r="P142">
+        <v>3080</v>
+      </c>
+      <c r="Q142">
+        <v>191</v>
+      </c>
+      <c r="R142">
+        <v>1054</v>
+      </c>
+      <c r="S142">
+        <v>7081</v>
+      </c>
+      <c r="T142">
+        <v>446</v>
+      </c>
+      <c r="U142">
+        <v>5385</v>
+      </c>
+      <c r="V142">
+        <v>278</v>
+      </c>
+      <c r="W142">
+        <v>1043</v>
+      </c>
+      <c r="X142">
+        <v>488</v>
+      </c>
+      <c r="Y142">
+        <v>2572</v>
+      </c>
+      <c r="Z142">
+        <v>1197</v>
+      </c>
+      <c r="AA142">
+        <v>667</v>
+      </c>
+      <c r="AB142">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>19038</v>
+      </c>
+      <c r="C143">
+        <v>2136</v>
+      </c>
+      <c r="D143">
+        <v>11849</v>
+      </c>
+      <c r="E143">
+        <v>2693</v>
+      </c>
+      <c r="F143">
+        <v>1037</v>
+      </c>
+      <c r="G143">
+        <v>1348</v>
+      </c>
+      <c r="H143">
+        <v>1834</v>
+      </c>
+      <c r="I143">
+        <v>1141</v>
+      </c>
+      <c r="J143">
+        <v>1018</v>
+      </c>
+      <c r="K143">
+        <v>1418</v>
+      </c>
+      <c r="L143">
+        <v>5836</v>
+      </c>
+      <c r="M143">
+        <v>1246</v>
+      </c>
+      <c r="N143">
+        <v>1498</v>
+      </c>
+      <c r="O143">
+        <v>588</v>
+      </c>
+      <c r="P143">
+        <v>3094</v>
+      </c>
+      <c r="Q143">
+        <v>191</v>
+      </c>
+      <c r="R143">
+        <v>1071</v>
+      </c>
+      <c r="S143">
+        <v>7139</v>
+      </c>
+      <c r="T143">
+        <v>447</v>
+      </c>
+      <c r="U143">
+        <v>5448</v>
+      </c>
+      <c r="V143">
+        <v>278</v>
+      </c>
+      <c r="W143">
+        <v>1065</v>
+      </c>
+      <c r="X143">
+        <v>493</v>
+      </c>
+      <c r="Y143">
+        <v>2608</v>
+      </c>
+      <c r="Z143">
+        <v>1235</v>
+      </c>
+      <c r="AA143">
+        <v>677</v>
+      </c>
+      <c r="AB143">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -22238,15 +22763,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -22254,7 +22779,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -22262,7 +22787,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -22270,7 +22795,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -22278,7 +22803,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -22286,7 +22811,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -22294,7 +22819,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -22302,7 +22827,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -22310,7 +22835,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -22318,7 +22843,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -22326,7 +22851,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -22334,7 +22859,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -22342,7 +22867,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -22350,7 +22875,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -22358,7 +22883,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -22366,7 +22891,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -22374,7 +22899,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -22382,7 +22907,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -22390,7 +22915,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -22398,7 +22923,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -22406,7 +22931,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -22414,7 +22939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -22422,7 +22947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -22430,7 +22955,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -22438,7 +22963,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -22446,7 +22971,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -22454,7 +22979,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -447,6 +447,9 @@
     <t>2020-07-16</t>
   </si>
   <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11671,7 +11674,7 @@
         <v>47124</v>
       </c>
       <c r="N142">
-        <v>40976</v>
+        <v>41096</v>
       </c>
       <c r="O142">
         <v>47976</v>
@@ -11713,7 +11716,7 @@
         <v>27917</v>
       </c>
       <c r="AB142">
-        <v>23681</v>
+        <v>24397</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -11733,7 +11736,7 @@
         <v>116373</v>
       </c>
       <c r="F143">
-        <v>77620</v>
+        <v>77621</v>
       </c>
       <c r="G143">
         <v>48734</v>
@@ -11757,7 +11760,7 @@
         <v>49405</v>
       </c>
       <c r="N143">
-        <v>40976</v>
+        <v>41424</v>
       </c>
       <c r="O143">
         <v>49781</v>
@@ -11766,7 +11769,7 @@
         <v>88025</v>
       </c>
       <c r="Q143">
-        <v>15330</v>
+        <v>15805</v>
       </c>
       <c r="R143">
         <v>41226</v>
@@ -11781,10 +11784,10 @@
         <v>135164</v>
       </c>
       <c r="V143">
-        <v>16672</v>
+        <v>16954</v>
       </c>
       <c r="W143">
-        <v>36542</v>
+        <v>37057</v>
       </c>
       <c r="X143">
         <v>33004</v>
@@ -11799,7 +11802,93 @@
         <v>28654</v>
       </c>
       <c r="AB143">
-        <v>24397</v>
+        <v>25007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>407415</v>
+      </c>
+      <c r="C144">
+        <v>69463</v>
+      </c>
+      <c r="D144">
+        <v>135230</v>
+      </c>
+      <c r="E144">
+        <v>118657</v>
+      </c>
+      <c r="F144">
+        <v>79400</v>
+      </c>
+      <c r="G144">
+        <v>49253</v>
+      </c>
+      <c r="H144">
+        <v>87271</v>
+      </c>
+      <c r="I144">
+        <v>46710</v>
+      </c>
+      <c r="J144">
+        <v>40802</v>
+      </c>
+      <c r="K144">
+        <v>66347</v>
+      </c>
+      <c r="L144">
+        <v>77423</v>
+      </c>
+      <c r="M144">
+        <v>51321</v>
+      </c>
+      <c r="N144">
+        <v>41424</v>
+      </c>
+      <c r="O144">
+        <v>51549</v>
+      </c>
+      <c r="P144">
+        <v>88822</v>
+      </c>
+      <c r="Q144">
+        <v>15805</v>
+      </c>
+      <c r="R144">
+        <v>41888</v>
+      </c>
+      <c r="S144">
+        <v>146064</v>
+      </c>
+      <c r="T144">
+        <v>16965</v>
+      </c>
+      <c r="U144">
+        <v>136947</v>
+      </c>
+      <c r="V144">
+        <v>16954</v>
+      </c>
+      <c r="W144">
+        <v>38568</v>
+      </c>
+      <c r="X144">
+        <v>33436</v>
+      </c>
+      <c r="Y144">
+        <v>105183</v>
+      </c>
+      <c r="Z144">
+        <v>32971</v>
+      </c>
+      <c r="AA144">
+        <v>29117</v>
+      </c>
+      <c r="AB144">
+        <v>25007</v>
       </c>
     </row>
   </sheetData>
@@ -11809,7 +11898,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22617,7 +22706,7 @@
         <v>1200</v>
       </c>
       <c r="N142">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="O142">
         <v>569</v>
@@ -22659,7 +22748,7 @@
         <v>667</v>
       </c>
       <c r="AB142">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -22703,7 +22792,7 @@
         <v>1246</v>
       </c>
       <c r="N143">
-        <v>1498</v>
+        <v>1532</v>
       </c>
       <c r="O143">
         <v>588</v>
@@ -22712,7 +22801,7 @@
         <v>3094</v>
       </c>
       <c r="Q143">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="R143">
         <v>1071</v>
@@ -22727,7 +22816,7 @@
         <v>5448</v>
       </c>
       <c r="V143">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="W143">
         <v>1065</v>
@@ -22745,7 +22834,93 @@
         <v>677</v>
       </c>
       <c r="AB143">
-        <v>415</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>19377</v>
+      </c>
+      <c r="C144">
+        <v>2174</v>
+      </c>
+      <c r="D144">
+        <v>11919</v>
+      </c>
+      <c r="E144">
+        <v>2738</v>
+      </c>
+      <c r="F144">
+        <v>1060</v>
+      </c>
+      <c r="G144">
+        <v>1365</v>
+      </c>
+      <c r="H144">
+        <v>1904</v>
+      </c>
+      <c r="I144">
+        <v>1174</v>
+      </c>
+      <c r="J144">
+        <v>1079</v>
+      </c>
+      <c r="K144">
+        <v>1446</v>
+      </c>
+      <c r="L144">
+        <v>5869</v>
+      </c>
+      <c r="M144">
+        <v>1292</v>
+      </c>
+      <c r="N144">
+        <v>1532</v>
+      </c>
+      <c r="O144">
+        <v>646</v>
+      </c>
+      <c r="P144">
+        <v>3118</v>
+      </c>
+      <c r="Q144">
+        <v>203</v>
+      </c>
+      <c r="R144">
+        <v>1088</v>
+      </c>
+      <c r="S144">
+        <v>7166</v>
+      </c>
+      <c r="T144">
+        <v>452</v>
+      </c>
+      <c r="U144">
+        <v>5478</v>
+      </c>
+      <c r="V144">
+        <v>283</v>
+      </c>
+      <c r="W144">
+        <v>1083</v>
+      </c>
+      <c r="X144">
+        <v>499</v>
+      </c>
+      <c r="Y144">
+        <v>2640</v>
+      </c>
+      <c r="Z144">
+        <v>1268</v>
+      </c>
+      <c r="AA144">
+        <v>686</v>
+      </c>
+      <c r="AB144">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -22763,15 +22938,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -22779,7 +22954,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -22787,7 +22962,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -22795,7 +22970,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -22803,7 +22978,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -22811,7 +22986,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -22819,7 +22994,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -22827,7 +23002,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -22835,7 +23010,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -22843,7 +23018,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -22851,7 +23026,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -22859,7 +23034,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -22867,7 +23042,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -22875,7 +23050,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -22883,7 +23058,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -22891,7 +23066,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -22899,7 +23074,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -22907,7 +23082,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -22915,7 +23090,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -22923,7 +23098,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -22931,7 +23106,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -22939,7 +23114,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -22947,7 +23122,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -22955,7 +23130,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -22963,7 +23138,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -22971,7 +23146,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -22979,7 +23154,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -450,6 +450,15 @@
     <t>2020-07-17</t>
   </si>
   <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -866,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11834,7 +11843,7 @@
         <v>46710</v>
       </c>
       <c r="J144">
-        <v>40802</v>
+        <v>40718</v>
       </c>
       <c r="K144">
         <v>66347</v>
@@ -11846,7 +11855,7 @@
         <v>51321</v>
       </c>
       <c r="N144">
-        <v>41424</v>
+        <v>43432</v>
       </c>
       <c r="O144">
         <v>51549</v>
@@ -11855,7 +11864,7 @@
         <v>88822</v>
       </c>
       <c r="Q144">
-        <v>15805</v>
+        <v>16006</v>
       </c>
       <c r="R144">
         <v>41888</v>
@@ -11870,7 +11879,7 @@
         <v>136947</v>
       </c>
       <c r="V144">
-        <v>16954</v>
+        <v>17209</v>
       </c>
       <c r="W144">
         <v>38568</v>
@@ -11888,7 +11897,265 @@
         <v>29117</v>
       </c>
       <c r="AB144">
-        <v>25007</v>
+        <v>25373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>412027</v>
+      </c>
+      <c r="C145">
+        <v>70131</v>
+      </c>
+      <c r="D145">
+        <v>135230</v>
+      </c>
+      <c r="E145">
+        <v>120238</v>
+      </c>
+      <c r="F145">
+        <v>81163</v>
+      </c>
+      <c r="G145">
+        <v>49583</v>
+      </c>
+      <c r="H145">
+        <v>90875</v>
+      </c>
+      <c r="I145">
+        <v>46847</v>
+      </c>
+      <c r="J145">
+        <v>40768</v>
+      </c>
+      <c r="K145">
+        <v>66971</v>
+      </c>
+      <c r="L145">
+        <v>78509</v>
+      </c>
+      <c r="M145">
+        <v>53553</v>
+      </c>
+      <c r="N145">
+        <v>43766</v>
+      </c>
+      <c r="O145">
+        <v>52531</v>
+      </c>
+      <c r="P145">
+        <v>90534</v>
+      </c>
+      <c r="Q145">
+        <v>16403</v>
+      </c>
+      <c r="R145">
+        <v>43072</v>
+      </c>
+      <c r="S145">
+        <v>146972</v>
+      </c>
+      <c r="T145">
+        <v>17202</v>
+      </c>
+      <c r="U145">
+        <v>137484</v>
+      </c>
+      <c r="V145">
+        <v>17773</v>
+      </c>
+      <c r="W145">
+        <v>39296</v>
+      </c>
+      <c r="X145">
+        <v>33585</v>
+      </c>
+      <c r="Y145">
+        <v>106092</v>
+      </c>
+      <c r="Z145">
+        <v>32766</v>
+      </c>
+      <c r="AA145">
+        <v>29117</v>
+      </c>
+      <c r="AB145">
+        <v>25467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>415049</v>
+      </c>
+      <c r="C146">
+        <v>70609</v>
+      </c>
+      <c r="D146">
+        <v>138524</v>
+      </c>
+      <c r="E146">
+        <v>122169</v>
+      </c>
+      <c r="F146">
+        <v>82412</v>
+      </c>
+      <c r="G146">
+        <v>50079</v>
+      </c>
+      <c r="H146">
+        <v>92972</v>
+      </c>
+      <c r="I146">
+        <v>47113</v>
+      </c>
+      <c r="J146">
+        <v>40782</v>
+      </c>
+      <c r="K146">
+        <v>67382</v>
+      </c>
+      <c r="L146">
+        <v>79452</v>
+      </c>
+      <c r="M146">
+        <v>54629</v>
+      </c>
+      <c r="N146">
+        <v>44083</v>
+      </c>
+      <c r="O146">
+        <v>53336</v>
+      </c>
+      <c r="P146">
+        <v>90913</v>
+      </c>
+      <c r="Q146">
+        <v>16637</v>
+      </c>
+      <c r="R146">
+        <v>45243</v>
+      </c>
+      <c r="S146">
+        <v>147378</v>
+      </c>
+      <c r="T146">
+        <v>17295</v>
+      </c>
+      <c r="U146">
+        <v>138396</v>
+      </c>
+      <c r="V146">
+        <v>17898</v>
+      </c>
+      <c r="W146">
+        <v>39606</v>
+      </c>
+      <c r="X146">
+        <v>33705</v>
+      </c>
+      <c r="Y146">
+        <v>106325</v>
+      </c>
+      <c r="Z146">
+        <v>34604</v>
+      </c>
+      <c r="AA146">
+        <v>29117</v>
+      </c>
+      <c r="AB146">
+        <v>25686</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>416434</v>
+      </c>
+      <c r="C147">
+        <v>71703</v>
+      </c>
+      <c r="D147">
+        <v>141005</v>
+      </c>
+      <c r="E147">
+        <v>123292</v>
+      </c>
+      <c r="F147">
+        <v>84287</v>
+      </c>
+      <c r="G147">
+        <v>50307</v>
+      </c>
+      <c r="H147">
+        <v>94132</v>
+      </c>
+      <c r="I147">
+        <v>47449</v>
+      </c>
+      <c r="J147">
+        <v>41433</v>
+      </c>
+      <c r="K147">
+        <v>67680</v>
+      </c>
+      <c r="L147">
+        <v>80115</v>
+      </c>
+      <c r="M147">
+        <v>55909</v>
+      </c>
+      <c r="N147">
+        <v>44083</v>
+      </c>
+      <c r="O147">
+        <v>54414</v>
+      </c>
+      <c r="P147">
+        <v>91389</v>
+      </c>
+      <c r="Q147">
+        <v>16637</v>
+      </c>
+      <c r="R147">
+        <v>46059</v>
+      </c>
+      <c r="S147">
+        <v>147818</v>
+      </c>
+      <c r="T147">
+        <v>17462</v>
+      </c>
+      <c r="U147">
+        <v>140393</v>
+      </c>
+      <c r="V147">
+        <v>17898</v>
+      </c>
+      <c r="W147">
+        <v>40276</v>
+      </c>
+      <c r="X147">
+        <v>34145</v>
+      </c>
+      <c r="Y147">
+        <v>106906</v>
+      </c>
+      <c r="Z147">
+        <v>35673</v>
+      </c>
+      <c r="AA147">
+        <v>29801</v>
+      </c>
+      <c r="AB147">
+        <v>25686</v>
       </c>
     </row>
   </sheetData>
@@ -11898,7 +12165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22866,7 +23133,7 @@
         <v>1174</v>
       </c>
       <c r="J144">
-        <v>1079</v>
+        <v>1051</v>
       </c>
       <c r="K144">
         <v>1446</v>
@@ -22878,7 +23145,7 @@
         <v>1292</v>
       </c>
       <c r="N144">
-        <v>1532</v>
+        <v>1572</v>
       </c>
       <c r="O144">
         <v>646</v>
@@ -22887,7 +23154,7 @@
         <v>3118</v>
       </c>
       <c r="Q144">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="R144">
         <v>1088</v>
@@ -22902,7 +23169,7 @@
         <v>5478</v>
       </c>
       <c r="V144">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="W144">
         <v>1083</v>
@@ -22920,7 +23187,265 @@
         <v>686</v>
       </c>
       <c r="AB144">
-        <v>425</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>19647</v>
+      </c>
+      <c r="C145">
+        <v>2202</v>
+      </c>
+      <c r="D145">
+        <v>11919</v>
+      </c>
+      <c r="E145">
+        <v>2793</v>
+      </c>
+      <c r="F145">
+        <v>1075</v>
+      </c>
+      <c r="G145">
+        <v>1381</v>
+      </c>
+      <c r="H145">
+        <v>1964</v>
+      </c>
+      <c r="I145">
+        <v>1229</v>
+      </c>
+      <c r="J145">
+        <v>1086</v>
+      </c>
+      <c r="K145">
+        <v>1477</v>
+      </c>
+      <c r="L145">
+        <v>5928</v>
+      </c>
+      <c r="M145">
+        <v>1308</v>
+      </c>
+      <c r="N145">
+        <v>1577</v>
+      </c>
+      <c r="O145">
+        <v>662</v>
+      </c>
+      <c r="P145">
+        <v>3129</v>
+      </c>
+      <c r="Q145">
+        <v>222</v>
+      </c>
+      <c r="R145">
+        <v>1111</v>
+      </c>
+      <c r="S145">
+        <v>7178</v>
+      </c>
+      <c r="T145">
+        <v>457</v>
+      </c>
+      <c r="U145">
+        <v>5523</v>
+      </c>
+      <c r="V145">
+        <v>294</v>
+      </c>
+      <c r="W145">
+        <v>1100</v>
+      </c>
+      <c r="X145">
+        <v>505</v>
+      </c>
+      <c r="Y145">
+        <v>2676</v>
+      </c>
+      <c r="Z145">
+        <v>1312</v>
+      </c>
+      <c r="AA145">
+        <v>686</v>
+      </c>
+      <c r="AB145">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>19732</v>
+      </c>
+      <c r="C146">
+        <v>2222</v>
+      </c>
+      <c r="D146">
+        <v>12114</v>
+      </c>
+      <c r="E146">
+        <v>2840</v>
+      </c>
+      <c r="F146">
+        <v>1085</v>
+      </c>
+      <c r="G146">
+        <v>1397</v>
+      </c>
+      <c r="H146">
+        <v>1982</v>
+      </c>
+      <c r="I146">
+        <v>1252</v>
+      </c>
+      <c r="J146">
+        <v>1106</v>
+      </c>
+      <c r="K146">
+        <v>1486</v>
+      </c>
+      <c r="L146">
+        <v>5984</v>
+      </c>
+      <c r="M146">
+        <v>1327</v>
+      </c>
+      <c r="N146">
+        <v>1590</v>
+      </c>
+      <c r="O146">
+        <v>685</v>
+      </c>
+      <c r="P146">
+        <v>3149</v>
+      </c>
+      <c r="Q146">
+        <v>228</v>
+      </c>
+      <c r="R146">
+        <v>1125</v>
+      </c>
+      <c r="S146">
+        <v>7179</v>
+      </c>
+      <c r="T146">
+        <v>460</v>
+      </c>
+      <c r="U146">
+        <v>5538</v>
+      </c>
+      <c r="V146">
+        <v>299</v>
+      </c>
+      <c r="W146">
+        <v>1118</v>
+      </c>
+      <c r="X146">
+        <v>507</v>
+      </c>
+      <c r="Y146">
+        <v>2708</v>
+      </c>
+      <c r="Z146">
+        <v>1348</v>
+      </c>
+      <c r="AA146">
+        <v>686</v>
+      </c>
+      <c r="AB146">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>19788</v>
+      </c>
+      <c r="C147">
+        <v>2256</v>
+      </c>
+      <c r="D147">
+        <v>12161</v>
+      </c>
+      <c r="E147">
+        <v>2891</v>
+      </c>
+      <c r="F147">
+        <v>1112</v>
+      </c>
+      <c r="G147">
+        <v>1413</v>
+      </c>
+      <c r="H147">
+        <v>2004</v>
+      </c>
+      <c r="I147">
+        <v>1285</v>
+      </c>
+      <c r="J147">
+        <v>1145</v>
+      </c>
+      <c r="K147">
+        <v>1517</v>
+      </c>
+      <c r="L147">
+        <v>6036</v>
+      </c>
+      <c r="M147">
+        <v>1357</v>
+      </c>
+      <c r="N147">
+        <v>1590</v>
+      </c>
+      <c r="O147">
+        <v>694</v>
+      </c>
+      <c r="P147">
+        <v>3146</v>
+      </c>
+      <c r="Q147">
+        <v>228</v>
+      </c>
+      <c r="R147">
+        <v>1156</v>
+      </c>
+      <c r="S147">
+        <v>7256</v>
+      </c>
+      <c r="T147">
+        <v>465</v>
+      </c>
+      <c r="U147">
+        <v>5554</v>
+      </c>
+      <c r="V147">
+        <v>299</v>
+      </c>
+      <c r="W147">
+        <v>1140</v>
+      </c>
+      <c r="X147">
+        <v>515</v>
+      </c>
+      <c r="Y147">
+        <v>2740</v>
+      </c>
+      <c r="Z147">
+        <v>1386</v>
+      </c>
+      <c r="AA147">
+        <v>710</v>
+      </c>
+      <c r="AB147">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -22938,15 +23463,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -22954,7 +23479,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -22962,7 +23487,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -22970,7 +23495,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -22978,7 +23503,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -22986,7 +23511,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -22994,7 +23519,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -23002,7 +23527,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -23010,7 +23535,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -23018,7 +23543,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -23026,7 +23551,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -23034,7 +23559,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -23042,7 +23567,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -23050,7 +23575,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -23058,7 +23583,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -23066,7 +23591,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -23074,7 +23599,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -23082,7 +23607,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -23090,7 +23615,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -23098,7 +23623,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -23106,7 +23631,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -23114,7 +23639,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -23122,7 +23647,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -23130,7 +23655,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -23138,7 +23663,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -23146,7 +23671,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -23154,7 +23679,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -459,6 +459,15 @@
     <t>2020-07-20</t>
   </si>
   <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -875,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11855,7 +11864,7 @@
         <v>51321</v>
       </c>
       <c r="N144">
-        <v>43432</v>
+        <v>43573</v>
       </c>
       <c r="O144">
         <v>51549</v>
@@ -12113,7 +12122,7 @@
         <v>55909</v>
       </c>
       <c r="N147">
-        <v>44083</v>
+        <v>44340</v>
       </c>
       <c r="O147">
         <v>54414</v>
@@ -12122,7 +12131,7 @@
         <v>91389</v>
       </c>
       <c r="Q147">
-        <v>16637</v>
+        <v>17386</v>
       </c>
       <c r="R147">
         <v>46059</v>
@@ -12137,7 +12146,7 @@
         <v>140393</v>
       </c>
       <c r="V147">
-        <v>17898</v>
+        <v>18354</v>
       </c>
       <c r="W147">
         <v>40276</v>
@@ -12155,7 +12164,265 @@
         <v>29801</v>
       </c>
       <c r="AB147">
-        <v>25686</v>
+        <v>25985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>422669</v>
+      </c>
+      <c r="C148">
+        <v>72605</v>
+      </c>
+      <c r="D148">
+        <v>145121</v>
+      </c>
+      <c r="E148">
+        <v>126844</v>
+      </c>
+      <c r="F148">
+        <v>86076</v>
+      </c>
+      <c r="G148">
+        <v>50951</v>
+      </c>
+      <c r="H148">
+        <v>95566</v>
+      </c>
+      <c r="I148">
+        <v>49840</v>
+      </c>
+      <c r="J148">
+        <v>45254</v>
+      </c>
+      <c r="K148">
+        <v>68844</v>
+      </c>
+      <c r="L148">
+        <v>80441</v>
+      </c>
+      <c r="M148">
+        <v>57538</v>
+      </c>
+      <c r="N148">
+        <v>45313</v>
+      </c>
+      <c r="O148">
+        <v>56475</v>
+      </c>
+      <c r="P148">
+        <v>92164</v>
+      </c>
+      <c r="Q148">
+        <v>18889</v>
+      </c>
+      <c r="R148">
+        <v>47110</v>
+      </c>
+      <c r="S148">
+        <v>151072</v>
+      </c>
+      <c r="T148">
+        <v>17700</v>
+      </c>
+      <c r="U148">
+        <v>142358</v>
+      </c>
+      <c r="V148">
+        <v>18850</v>
+      </c>
+      <c r="W148">
+        <v>41815</v>
+      </c>
+      <c r="X148">
+        <v>34405</v>
+      </c>
+      <c r="Y148">
+        <v>108154</v>
+      </c>
+      <c r="Z148">
+        <v>37429</v>
+      </c>
+      <c r="AA148">
+        <v>30642</v>
+      </c>
+      <c r="AB148">
+        <v>26954</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>439446</v>
+      </c>
+      <c r="C149">
+        <v>73755</v>
+      </c>
+      <c r="D149">
+        <v>148623</v>
+      </c>
+      <c r="E149">
+        <v>133245</v>
+      </c>
+      <c r="F149">
+        <v>87801</v>
+      </c>
+      <c r="G149">
+        <v>51680</v>
+      </c>
+      <c r="H149">
+        <v>98741</v>
+      </c>
+      <c r="I149">
+        <v>53073</v>
+      </c>
+      <c r="J149">
+        <v>48682</v>
+      </c>
+      <c r="K149">
+        <v>70972</v>
+      </c>
+      <c r="L149">
+        <v>81382</v>
+      </c>
+      <c r="M149">
+        <v>59927</v>
+      </c>
+      <c r="N149">
+        <v>46187</v>
+      </c>
+      <c r="O149">
+        <v>59556</v>
+      </c>
+      <c r="P149">
+        <v>92721</v>
+      </c>
+      <c r="Q149">
+        <v>19671</v>
+      </c>
+      <c r="R149">
+        <v>48140</v>
+      </c>
+      <c r="S149">
+        <v>154381</v>
+      </c>
+      <c r="T149">
+        <v>17979</v>
+      </c>
+      <c r="U149">
+        <v>144467</v>
+      </c>
+      <c r="V149">
+        <v>19423</v>
+      </c>
+      <c r="W149">
+        <v>43179</v>
+      </c>
+      <c r="X149">
+        <v>34660</v>
+      </c>
+      <c r="Y149">
+        <v>109731</v>
+      </c>
+      <c r="Z149">
+        <v>38931</v>
+      </c>
+      <c r="AA149">
+        <v>32944</v>
+      </c>
+      <c r="AB149">
+        <v>27932</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>452007</v>
+      </c>
+      <c r="C150">
+        <v>74610</v>
+      </c>
+      <c r="D150">
+        <v>151549</v>
+      </c>
+      <c r="E150">
+        <v>138358</v>
+      </c>
+      <c r="F150">
+        <v>88000</v>
+      </c>
+      <c r="G150">
+        <v>52529</v>
+      </c>
+      <c r="H150">
+        <v>102568</v>
+      </c>
+      <c r="I150">
+        <v>54841</v>
+      </c>
+      <c r="J150">
+        <v>51423</v>
+      </c>
+      <c r="K150">
+        <v>73104</v>
+      </c>
+      <c r="L150">
+        <v>83240</v>
+      </c>
+      <c r="M150">
+        <v>62004</v>
+      </c>
+      <c r="N150">
+        <v>46187</v>
+      </c>
+      <c r="O150">
+        <v>62282</v>
+      </c>
+      <c r="P150">
+        <v>94219</v>
+      </c>
+      <c r="Q150">
+        <v>19671</v>
+      </c>
+      <c r="R150">
+        <v>49397</v>
+      </c>
+      <c r="S150">
+        <v>156265</v>
+      </c>
+      <c r="T150">
+        <v>18157</v>
+      </c>
+      <c r="U150">
+        <v>146252</v>
+      </c>
+      <c r="V150">
+        <v>19423</v>
+      </c>
+      <c r="W150">
+        <v>43179</v>
+      </c>
+      <c r="X150">
+        <v>34838</v>
+      </c>
+      <c r="Y150">
+        <v>111488</v>
+      </c>
+      <c r="Z150">
+        <v>41016</v>
+      </c>
+      <c r="AA150">
+        <v>34080</v>
+      </c>
+      <c r="AB150">
+        <v>27932</v>
       </c>
     </row>
   </sheetData>
@@ -12165,7 +12432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23145,7 +23412,7 @@
         <v>1292</v>
       </c>
       <c r="N144">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="O144">
         <v>646</v>
@@ -23403,7 +23670,7 @@
         <v>1357</v>
       </c>
       <c r="N147">
-        <v>1590</v>
+        <v>1628</v>
       </c>
       <c r="O147">
         <v>694</v>
@@ -23412,7 +23679,7 @@
         <v>3146</v>
       </c>
       <c r="Q147">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="R147">
         <v>1156</v>
@@ -23427,7 +23694,7 @@
         <v>5554</v>
       </c>
       <c r="V147">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="W147">
         <v>1140</v>
@@ -23445,7 +23712,265 @@
         <v>710</v>
       </c>
       <c r="AB147">
-        <v>431</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>20171</v>
+      </c>
+      <c r="C148">
+        <v>2280</v>
+      </c>
+      <c r="D148">
+        <v>12293</v>
+      </c>
+      <c r="E148">
+        <v>2936</v>
+      </c>
+      <c r="F148">
+        <v>1158</v>
+      </c>
+      <c r="G148">
+        <v>1428</v>
+      </c>
+      <c r="H148">
+        <v>2071</v>
+      </c>
+      <c r="I148">
+        <v>1349</v>
+      </c>
+      <c r="J148">
+        <v>1178</v>
+      </c>
+      <c r="K148">
+        <v>1558</v>
+      </c>
+      <c r="L148">
+        <v>6089</v>
+      </c>
+      <c r="M148">
+        <v>1415</v>
+      </c>
+      <c r="N148">
+        <v>1642</v>
+      </c>
+      <c r="O148">
+        <v>738</v>
+      </c>
+      <c r="P148">
+        <v>3169</v>
+      </c>
+      <c r="Q148">
+        <v>257</v>
+      </c>
+      <c r="R148">
+        <v>1182</v>
+      </c>
+      <c r="S148">
+        <v>7305</v>
+      </c>
+      <c r="T148">
+        <v>469</v>
+      </c>
+      <c r="U148">
+        <v>5581</v>
+      </c>
+      <c r="V148">
+        <v>315</v>
+      </c>
+      <c r="W148">
+        <v>1158</v>
+      </c>
+      <c r="X148">
+        <v>533</v>
+      </c>
+      <c r="Y148">
+        <v>2778</v>
+      </c>
+      <c r="Z148">
+        <v>1432</v>
+      </c>
+      <c r="AA148">
+        <v>727</v>
+      </c>
+      <c r="AB148">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>20532</v>
+      </c>
+      <c r="C149">
+        <v>2308</v>
+      </c>
+      <c r="D149">
+        <v>12443</v>
+      </c>
+      <c r="E149">
+        <v>2988</v>
+      </c>
+      <c r="F149">
+        <v>1176</v>
+      </c>
+      <c r="G149">
+        <v>1443</v>
+      </c>
+      <c r="H149">
+        <v>2166</v>
+      </c>
+      <c r="I149">
+        <v>1397</v>
+      </c>
+      <c r="J149">
+        <v>1237</v>
+      </c>
+      <c r="K149">
+        <v>1581</v>
+      </c>
+      <c r="L149">
+        <v>6152</v>
+      </c>
+      <c r="M149">
+        <v>1486</v>
+      </c>
+      <c r="N149">
+        <v>1656</v>
+      </c>
+      <c r="O149">
+        <v>765</v>
+      </c>
+      <c r="P149">
+        <v>3183</v>
+      </c>
+      <c r="Q149">
+        <v>266</v>
+      </c>
+      <c r="R149">
+        <v>1211</v>
+      </c>
+      <c r="S149">
+        <v>7329</v>
+      </c>
+      <c r="T149">
+        <v>470</v>
+      </c>
+      <c r="U149">
+        <v>5616</v>
+      </c>
+      <c r="V149">
+        <v>326</v>
+      </c>
+      <c r="W149">
+        <v>1184</v>
+      </c>
+      <c r="X149">
+        <v>544</v>
+      </c>
+      <c r="Y149">
+        <v>2810</v>
+      </c>
+      <c r="Z149">
+        <v>1474</v>
+      </c>
+      <c r="AA149">
+        <v>758</v>
+      </c>
+      <c r="AB149">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>20894</v>
+      </c>
+      <c r="C150">
+        <v>2341</v>
+      </c>
+      <c r="D150">
+        <v>12535</v>
+      </c>
+      <c r="E150">
+        <v>3044</v>
+      </c>
+      <c r="F150">
+        <v>1194</v>
+      </c>
+      <c r="G150">
+        <v>1457</v>
+      </c>
+      <c r="H150">
+        <v>2238</v>
+      </c>
+      <c r="I150">
+        <v>1456</v>
+      </c>
+      <c r="J150">
+        <v>1295</v>
+      </c>
+      <c r="K150">
+        <v>1618</v>
+      </c>
+      <c r="L150">
+        <v>6211</v>
+      </c>
+      <c r="M150">
+        <v>1545</v>
+      </c>
+      <c r="N150">
+        <v>1656</v>
+      </c>
+      <c r="O150">
+        <v>812</v>
+      </c>
+      <c r="P150">
+        <v>3193</v>
+      </c>
+      <c r="Q150">
+        <v>266</v>
+      </c>
+      <c r="R150">
+        <v>1247</v>
+      </c>
+      <c r="S150">
+        <v>7411</v>
+      </c>
+      <c r="T150">
+        <v>474</v>
+      </c>
+      <c r="U150">
+        <v>5646</v>
+      </c>
+      <c r="V150">
+        <v>326</v>
+      </c>
+      <c r="W150">
+        <v>1215</v>
+      </c>
+      <c r="X150">
+        <v>548</v>
+      </c>
+      <c r="Y150">
+        <v>2840</v>
+      </c>
+      <c r="Z150">
+        <v>1498</v>
+      </c>
+      <c r="AA150">
+        <v>784</v>
+      </c>
+      <c r="AB150">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -23463,15 +23988,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -23479,7 +24004,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -23487,7 +24012,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -23495,7 +24020,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -23503,7 +24028,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -23511,7 +24036,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -23519,7 +24044,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -23527,7 +24052,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -23535,7 +24060,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -23543,7 +24068,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -23551,7 +24076,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -23559,7 +24084,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -23567,7 +24092,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -23575,7 +24100,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -23583,7 +24108,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -23591,7 +24116,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -23599,7 +24124,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -23607,7 +24132,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -23615,7 +24140,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -23623,7 +24148,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -23631,7 +24156,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -23639,7 +24164,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -23647,7 +24172,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -23655,7 +24180,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -23663,7 +24188,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -23671,7 +24196,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -23679,7 +24204,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="182">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -468,6 +468,15 @@
     <t>2020-07-23</t>
   </si>
   <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -884,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12356,7 +12365,7 @@
         <v>138358</v>
       </c>
       <c r="F150">
-        <v>88000</v>
+        <v>90023</v>
       </c>
       <c r="G150">
         <v>52529</v>
@@ -12380,7 +12389,7 @@
         <v>62004</v>
       </c>
       <c r="N150">
-        <v>46187</v>
+        <v>46814</v>
       </c>
       <c r="O150">
         <v>62282</v>
@@ -12389,7 +12398,7 @@
         <v>94219</v>
       </c>
       <c r="Q150">
-        <v>19671</v>
+        <v>20303</v>
       </c>
       <c r="R150">
         <v>49397</v>
@@ -12404,10 +12413,10 @@
         <v>146252</v>
       </c>
       <c r="V150">
-        <v>19423</v>
+        <v>19965</v>
       </c>
       <c r="W150">
-        <v>43179</v>
+        <v>44349</v>
       </c>
       <c r="X150">
         <v>34838</v>
@@ -12422,7 +12431,265 @@
         <v>34080</v>
       </c>
       <c r="AB150">
-        <v>27932</v>
+        <v>28874</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>463218</v>
+      </c>
+      <c r="C151">
+        <v>75854</v>
+      </c>
+      <c r="D151">
+        <v>154879</v>
+      </c>
+      <c r="E151">
+        <v>142767</v>
+      </c>
+      <c r="F151">
+        <v>92414</v>
+      </c>
+      <c r="G151">
+        <v>53713</v>
+      </c>
+      <c r="H151">
+        <v>106812</v>
+      </c>
+      <c r="I151">
+        <v>57007</v>
+      </c>
+      <c r="J151">
+        <v>54154</v>
+      </c>
+      <c r="K151">
+        <v>74550</v>
+      </c>
+      <c r="L151">
+        <v>85042</v>
+      </c>
+      <c r="M151">
+        <v>64259</v>
+      </c>
+      <c r="N151">
+        <v>47061</v>
+      </c>
+      <c r="O151">
+        <v>65017</v>
+      </c>
+      <c r="P151">
+        <v>95424</v>
+      </c>
+      <c r="Q151">
+        <v>21015</v>
+      </c>
+      <c r="R151">
+        <v>51132</v>
+      </c>
+      <c r="S151">
+        <v>159953</v>
+      </c>
+      <c r="T151">
+        <v>18393</v>
+      </c>
+      <c r="U151">
+        <v>147923</v>
+      </c>
+      <c r="V151">
+        <v>20920</v>
+      </c>
+      <c r="W151">
+        <v>45389</v>
+      </c>
+      <c r="X151">
+        <v>35026</v>
+      </c>
+      <c r="Y151">
+        <v>112683</v>
+      </c>
+      <c r="Z151">
+        <v>42586</v>
+      </c>
+      <c r="AA151">
+        <v>34873</v>
+      </c>
+      <c r="AB151">
+        <v>29394</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>479481</v>
+      </c>
+      <c r="C152">
+        <v>76598</v>
+      </c>
+      <c r="D152">
+        <v>156293</v>
+      </c>
+      <c r="E152">
+        <v>146399</v>
+      </c>
+      <c r="F152">
+        <v>94187</v>
+      </c>
+      <c r="G152">
+        <v>54730</v>
+      </c>
+      <c r="H152">
+        <v>110093</v>
+      </c>
+      <c r="I152">
+        <v>59118</v>
+      </c>
+      <c r="J152">
+        <v>55567</v>
+      </c>
+      <c r="K152">
+        <v>75723</v>
+      </c>
+      <c r="L152">
+        <v>86752</v>
+      </c>
+      <c r="M152">
+        <v>65593</v>
+      </c>
+      <c r="N152">
+        <v>47099</v>
+      </c>
+      <c r="O152">
+        <v>67333</v>
+      </c>
+      <c r="P152">
+        <v>96094</v>
+      </c>
+      <c r="Q152">
+        <v>21514</v>
+      </c>
+      <c r="R152">
+        <v>52264</v>
+      </c>
+      <c r="S152">
+        <v>161844</v>
+      </c>
+      <c r="T152">
+        <v>18657</v>
+      </c>
+      <c r="U152">
+        <v>148463</v>
+      </c>
+      <c r="V152">
+        <v>21767</v>
+      </c>
+      <c r="W152">
+        <v>46044</v>
+      </c>
+      <c r="X152">
+        <v>35162</v>
+      </c>
+      <c r="Y152">
+        <v>113563</v>
+      </c>
+      <c r="Z152">
+        <v>43253</v>
+      </c>
+      <c r="AA152">
+        <v>35573</v>
+      </c>
+      <c r="AB152">
+        <v>29829</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>483982</v>
+      </c>
+      <c r="C153">
+        <v>77201</v>
+      </c>
+      <c r="D153">
+        <v>156325</v>
+      </c>
+      <c r="E153">
+        <v>148179</v>
+      </c>
+      <c r="F153">
+        <v>96332</v>
+      </c>
+      <c r="G153">
+        <v>55376</v>
+      </c>
+      <c r="H153">
+        <v>112571</v>
+      </c>
+      <c r="I153">
+        <v>59779</v>
+      </c>
+      <c r="J153">
+        <v>56250</v>
+      </c>
+      <c r="K153">
+        <v>76153</v>
+      </c>
+      <c r="L153">
+        <v>88466</v>
+      </c>
+      <c r="M153">
+        <v>67220</v>
+      </c>
+      <c r="N153">
+        <v>47099</v>
+      </c>
+      <c r="O153">
+        <v>68730</v>
+      </c>
+      <c r="P153">
+        <v>96463</v>
+      </c>
+      <c r="Q153">
+        <v>21514</v>
+      </c>
+      <c r="R153">
+        <v>52603</v>
+      </c>
+      <c r="S153">
+        <v>162086</v>
+      </c>
+      <c r="T153">
+        <v>18745</v>
+      </c>
+      <c r="U153">
+        <v>148823</v>
+      </c>
+      <c r="V153">
+        <v>21767</v>
+      </c>
+      <c r="W153">
+        <v>46584</v>
+      </c>
+      <c r="X153">
+        <v>35220</v>
+      </c>
+      <c r="Y153">
+        <v>113891</v>
+      </c>
+      <c r="Z153">
+        <v>43637</v>
+      </c>
+      <c r="AA153">
+        <v>35810</v>
+      </c>
+      <c r="AB153">
+        <v>29829</v>
       </c>
     </row>
   </sheetData>
@@ -12432,7 +12699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23904,7 +24171,7 @@
         <v>3044</v>
       </c>
       <c r="F150">
-        <v>1194</v>
+        <v>1218</v>
       </c>
       <c r="G150">
         <v>1457</v>
@@ -23928,7 +24195,7 @@
         <v>1545</v>
       </c>
       <c r="N150">
-        <v>1656</v>
+        <v>1672</v>
       </c>
       <c r="O150">
         <v>812</v>
@@ -23937,7 +24204,7 @@
         <v>3193</v>
       </c>
       <c r="Q150">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="R150">
         <v>1247</v>
@@ -23952,7 +24219,7 @@
         <v>5646</v>
       </c>
       <c r="V150">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="W150">
         <v>1215</v>
@@ -23970,7 +24237,265 @@
         <v>784</v>
       </c>
       <c r="AB150">
-        <v>458</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>21206</v>
+      </c>
+      <c r="C151">
+        <v>2373</v>
+      </c>
+      <c r="D151">
+        <v>12654</v>
+      </c>
+      <c r="E151">
+        <v>3096</v>
+      </c>
+      <c r="F151">
+        <v>1244</v>
+      </c>
+      <c r="G151">
+        <v>1471</v>
+      </c>
+      <c r="H151">
+        <v>2315</v>
+      </c>
+      <c r="I151">
+        <v>1494</v>
+      </c>
+      <c r="J151">
+        <v>1353</v>
+      </c>
+      <c r="K151">
+        <v>1653</v>
+      </c>
+      <c r="L151">
+        <v>6237</v>
+      </c>
+      <c r="M151">
+        <v>1598</v>
+      </c>
+      <c r="N151">
+        <v>1678</v>
+      </c>
+      <c r="O151">
+        <v>844</v>
+      </c>
+      <c r="P151">
+        <v>3199</v>
+      </c>
+      <c r="Q151">
+        <v>292</v>
+      </c>
+      <c r="R151">
+        <v>1284</v>
+      </c>
+      <c r="S151">
+        <v>7456</v>
+      </c>
+      <c r="T151">
+        <v>480</v>
+      </c>
+      <c r="U151">
+        <v>5689</v>
+      </c>
+      <c r="V151">
+        <v>340</v>
+      </c>
+      <c r="W151">
+        <v>1228</v>
+      </c>
+      <c r="X151">
+        <v>552</v>
+      </c>
+      <c r="Y151">
+        <v>2871</v>
+      </c>
+      <c r="Z151">
+        <v>1556</v>
+      </c>
+      <c r="AA151">
+        <v>801</v>
+      </c>
+      <c r="AB151">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>21517</v>
+      </c>
+      <c r="C152">
+        <v>2386</v>
+      </c>
+      <c r="D152">
+        <v>12808</v>
+      </c>
+      <c r="E152">
+        <v>3140</v>
+      </c>
+      <c r="F152">
+        <v>1275</v>
+      </c>
+      <c r="G152">
+        <v>1486</v>
+      </c>
+      <c r="H152">
+        <v>2404</v>
+      </c>
+      <c r="I152">
+        <v>1554</v>
+      </c>
+      <c r="J152">
+        <v>1380</v>
+      </c>
+      <c r="K152">
+        <v>1675</v>
+      </c>
+      <c r="L152">
+        <v>6299</v>
+      </c>
+      <c r="M152">
+        <v>1653</v>
+      </c>
+      <c r="N152">
+        <v>1678</v>
+      </c>
+      <c r="O152">
+        <v>880</v>
+      </c>
+      <c r="P152">
+        <v>3210</v>
+      </c>
+      <c r="Q152">
+        <v>305</v>
+      </c>
+      <c r="R152">
+        <v>1303</v>
+      </c>
+      <c r="S152">
+        <v>7480</v>
+      </c>
+      <c r="T152">
+        <v>483</v>
+      </c>
+      <c r="U152">
+        <v>5716</v>
+      </c>
+      <c r="V152">
+        <v>346</v>
+      </c>
+      <c r="W152">
+        <v>1243</v>
+      </c>
+      <c r="X152">
+        <v>554</v>
+      </c>
+      <c r="Y152">
+        <v>2898</v>
+      </c>
+      <c r="Z152">
+        <v>1580</v>
+      </c>
+      <c r="AA152">
+        <v>810</v>
+      </c>
+      <c r="AB152">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>21606</v>
+      </c>
+      <c r="C153">
+        <v>2411</v>
+      </c>
+      <c r="D153">
+        <v>12835</v>
+      </c>
+      <c r="E153">
+        <v>3182</v>
+      </c>
+      <c r="F153">
+        <v>1308</v>
+      </c>
+      <c r="G153">
+        <v>1500</v>
+      </c>
+      <c r="H153">
+        <v>2429</v>
+      </c>
+      <c r="I153">
+        <v>1571</v>
+      </c>
+      <c r="J153">
+        <v>1395</v>
+      </c>
+      <c r="K153">
+        <v>1698</v>
+      </c>
+      <c r="L153">
+        <v>6352</v>
+      </c>
+      <c r="M153">
+        <v>1671</v>
+      </c>
+      <c r="N153">
+        <v>1678</v>
+      </c>
+      <c r="O153">
+        <v>907</v>
+      </c>
+      <c r="P153">
+        <v>3217</v>
+      </c>
+      <c r="Q153">
+        <v>305</v>
+      </c>
+      <c r="R153">
+        <v>1314</v>
+      </c>
+      <c r="S153">
+        <v>7494</v>
+      </c>
+      <c r="T153">
+        <v>486</v>
+      </c>
+      <c r="U153">
+        <v>5729</v>
+      </c>
+      <c r="V153">
+        <v>346</v>
+      </c>
+      <c r="W153">
+        <v>1259</v>
+      </c>
+      <c r="X153">
+        <v>554</v>
+      </c>
+      <c r="Y153">
+        <v>2923</v>
+      </c>
+      <c r="Z153">
+        <v>1616</v>
+      </c>
+      <c r="AA153">
+        <v>814</v>
+      </c>
+      <c r="AB153">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -23988,15 +24513,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -24004,7 +24529,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -24012,7 +24537,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -24020,7 +24545,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -24028,7 +24553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -24036,7 +24561,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -24044,7 +24569,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -24052,7 +24577,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -24060,7 +24585,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -24068,7 +24593,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -24076,7 +24601,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -24084,7 +24609,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -24092,7 +24617,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -24100,7 +24625,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -24108,7 +24633,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -24116,7 +24641,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -24124,7 +24649,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -24132,7 +24657,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -24140,7 +24665,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -24148,7 +24673,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -24156,7 +24681,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -24164,7 +24689,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -24172,7 +24697,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -24180,7 +24705,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -24188,7 +24713,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -24196,7 +24721,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -24204,7 +24729,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="184">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -477,6 +477,12 @@
     <t>2020-07-26</t>
   </si>
   <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -893,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12647,7 +12653,7 @@
         <v>67220</v>
       </c>
       <c r="N153">
-        <v>47099</v>
+        <v>47430</v>
       </c>
       <c r="O153">
         <v>68730</v>
@@ -12656,7 +12662,7 @@
         <v>96463</v>
       </c>
       <c r="Q153">
-        <v>21514</v>
+        <v>21802</v>
       </c>
       <c r="R153">
         <v>52603</v>
@@ -12671,7 +12677,7 @@
         <v>148823</v>
       </c>
       <c r="V153">
-        <v>21767</v>
+        <v>22106</v>
       </c>
       <c r="W153">
         <v>46584</v>
@@ -12689,7 +12695,179 @@
         <v>35810</v>
       </c>
       <c r="AB153">
-        <v>29829</v>
+        <v>29902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>487654</v>
+      </c>
+      <c r="C154">
+        <v>78180</v>
+      </c>
+      <c r="D154">
+        <v>157834</v>
+      </c>
+      <c r="E154">
+        <v>149109</v>
+      </c>
+      <c r="F154">
+        <v>98480</v>
+      </c>
+      <c r="G154">
+        <v>56204</v>
+      </c>
+      <c r="H154">
+        <v>113718</v>
+      </c>
+      <c r="I154">
+        <v>60044</v>
+      </c>
+      <c r="J154">
+        <v>59043</v>
+      </c>
+      <c r="K154">
+        <v>76693</v>
+      </c>
+      <c r="L154">
+        <v>89132</v>
+      </c>
+      <c r="M154">
+        <v>68001</v>
+      </c>
+      <c r="N154">
+        <v>48515</v>
+      </c>
+      <c r="O154">
+        <v>70138</v>
+      </c>
+      <c r="P154">
+        <v>97079</v>
+      </c>
+      <c r="Q154">
+        <v>22443</v>
+      </c>
+      <c r="R154">
+        <v>53612</v>
+      </c>
+      <c r="S154">
+        <v>162429</v>
+      </c>
+      <c r="T154">
+        <v>18783</v>
+      </c>
+      <c r="U154">
+        <v>150616</v>
+      </c>
+      <c r="V154">
+        <v>22851</v>
+      </c>
+      <c r="W154">
+        <v>47551</v>
+      </c>
+      <c r="X154">
+        <v>35364</v>
+      </c>
+      <c r="Y154">
+        <v>114585</v>
+      </c>
+      <c r="Z154">
+        <v>45155</v>
+      </c>
+      <c r="AA154">
+        <v>36148</v>
+      </c>
+      <c r="AB154">
+        <v>30316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>487654</v>
+      </c>
+      <c r="C155">
+        <v>79468</v>
+      </c>
+      <c r="D155">
+        <v>159639</v>
+      </c>
+      <c r="E155">
+        <v>153313</v>
+      </c>
+      <c r="F155">
+        <v>100726</v>
+      </c>
+      <c r="G155">
+        <v>57142</v>
+      </c>
+      <c r="H155">
+        <v>116645</v>
+      </c>
+      <c r="I155">
+        <v>62347</v>
+      </c>
+      <c r="J155">
+        <v>61613</v>
+      </c>
+      <c r="K155">
+        <v>78175</v>
+      </c>
+      <c r="L155">
+        <v>89678</v>
+      </c>
+      <c r="M155">
+        <v>69392</v>
+      </c>
+      <c r="N155">
+        <v>48515</v>
+      </c>
+      <c r="O155">
+        <v>73771</v>
+      </c>
+      <c r="P155">
+        <v>98118</v>
+      </c>
+      <c r="Q155">
+        <v>22443</v>
+      </c>
+      <c r="R155">
+        <v>55009</v>
+      </c>
+      <c r="S155">
+        <v>165703</v>
+      </c>
+      <c r="T155">
+        <v>19132</v>
+      </c>
+      <c r="U155">
+        <v>150185</v>
+      </c>
+      <c r="V155">
+        <v>22851</v>
+      </c>
+      <c r="W155">
+        <v>47551</v>
+      </c>
+      <c r="X155">
+        <v>35697</v>
+      </c>
+      <c r="Y155">
+        <v>115988</v>
+      </c>
+      <c r="Z155">
+        <v>47045</v>
+      </c>
+      <c r="AA155">
+        <v>36849</v>
+      </c>
+      <c r="AB155">
+        <v>30316</v>
       </c>
     </row>
   </sheetData>
@@ -12699,7 +12877,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24453,7 +24631,7 @@
         <v>1671</v>
       </c>
       <c r="N153">
-        <v>1678</v>
+        <v>1703</v>
       </c>
       <c r="O153">
         <v>907</v>
@@ -24462,7 +24640,7 @@
         <v>3217</v>
       </c>
       <c r="Q153">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="R153">
         <v>1314</v>
@@ -24477,7 +24655,7 @@
         <v>5729</v>
       </c>
       <c r="V153">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="W153">
         <v>1259</v>
@@ -24495,7 +24673,179 @@
         <v>814</v>
       </c>
       <c r="AB153">
-        <v>473</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>21676</v>
+      </c>
+      <c r="C154">
+        <v>2437</v>
+      </c>
+      <c r="D154">
+        <v>12876</v>
+      </c>
+      <c r="E154">
+        <v>3227</v>
+      </c>
+      <c r="F154">
+        <v>1339</v>
+      </c>
+      <c r="G154">
+        <v>1514</v>
+      </c>
+      <c r="H154">
+        <v>2461</v>
+      </c>
+      <c r="I154">
+        <v>1611</v>
+      </c>
+      <c r="J154">
+        <v>1457</v>
+      </c>
+      <c r="K154">
+        <v>1727</v>
+      </c>
+      <c r="L154">
+        <v>6376</v>
+      </c>
+      <c r="M154">
+        <v>1703</v>
+      </c>
+      <c r="N154">
+        <v>1720</v>
+      </c>
+      <c r="O154">
+        <v>924</v>
+      </c>
+      <c r="P154">
+        <v>3224</v>
+      </c>
+      <c r="Q154">
+        <v>328</v>
+      </c>
+      <c r="R154">
+        <v>1340</v>
+      </c>
+      <c r="S154">
+        <v>7509</v>
+      </c>
+      <c r="T154">
+        <v>493</v>
+      </c>
+      <c r="U154">
+        <v>5753</v>
+      </c>
+      <c r="V154">
+        <v>357</v>
+      </c>
+      <c r="W154">
+        <v>1278</v>
+      </c>
+      <c r="X154">
+        <v>556</v>
+      </c>
+      <c r="Y154">
+        <v>2943</v>
+      </c>
+      <c r="Z154">
+        <v>1664</v>
+      </c>
+      <c r="AA154">
+        <v>830</v>
+      </c>
+      <c r="AB154">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>21676</v>
+      </c>
+      <c r="C155">
+        <v>2462</v>
+      </c>
+      <c r="D155">
+        <v>13033</v>
+      </c>
+      <c r="E155">
+        <v>3270</v>
+      </c>
+      <c r="F155">
+        <v>1391</v>
+      </c>
+      <c r="G155">
+        <v>1527</v>
+      </c>
+      <c r="H155">
+        <v>2551</v>
+      </c>
+      <c r="I155">
+        <v>1680</v>
+      </c>
+      <c r="J155">
+        <v>1501</v>
+      </c>
+      <c r="K155">
+        <v>1745</v>
+      </c>
+      <c r="L155">
+        <v>6421</v>
+      </c>
+      <c r="M155">
+        <v>1743</v>
+      </c>
+      <c r="N155">
+        <v>1720</v>
+      </c>
+      <c r="O155">
+        <v>960</v>
+      </c>
+      <c r="P155">
+        <v>3236</v>
+      </c>
+      <c r="Q155">
+        <v>328</v>
+      </c>
+      <c r="R155">
+        <v>1359</v>
+      </c>
+      <c r="S155">
+        <v>7616</v>
+      </c>
+      <c r="T155">
+        <v>500</v>
+      </c>
+      <c r="U155">
+        <v>5716</v>
+      </c>
+      <c r="V155">
+        <v>357</v>
+      </c>
+      <c r="W155">
+        <v>1292</v>
+      </c>
+      <c r="X155">
+        <v>558</v>
+      </c>
+      <c r="Y155">
+        <v>2959</v>
+      </c>
+      <c r="Z155">
+        <v>1700</v>
+      </c>
+      <c r="AA155">
+        <v>840</v>
+      </c>
+      <c r="AB155">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -24513,15 +24863,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -24529,7 +24879,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -24537,7 +24887,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -24545,7 +24895,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -24553,7 +24903,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -24561,7 +24911,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -24569,7 +24919,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -24577,7 +24927,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -24585,7 +24935,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -24593,7 +24943,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -24601,7 +24951,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -24609,7 +24959,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -24617,7 +24967,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -24625,7 +24975,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -24633,7 +24983,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -24641,7 +24991,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -24649,7 +24999,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -24657,7 +25007,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -24665,7 +25015,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -24673,7 +25023,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -24681,7 +25031,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -24689,7 +25039,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -24697,7 +25047,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -24705,7 +25055,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -24713,7 +25063,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -24721,7 +25071,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -24729,7 +25079,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="187">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -483,6 +483,15 @@
     <t>2020-07-28</t>
   </si>
   <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -899,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12789,7 +12798,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>487654</v>
+        <v>500301</v>
       </c>
       <c r="C155">
         <v>79468</v>
@@ -12825,7 +12834,7 @@
         <v>69392</v>
       </c>
       <c r="N155">
-        <v>48515</v>
+        <v>49194</v>
       </c>
       <c r="O155">
         <v>73771</v>
@@ -12834,7 +12843,7 @@
         <v>98118</v>
       </c>
       <c r="Q155">
-        <v>22443</v>
+        <v>23411</v>
       </c>
       <c r="R155">
         <v>55009</v>
@@ -12846,13 +12855,13 @@
         <v>19132</v>
       </c>
       <c r="U155">
-        <v>150185</v>
+        <v>151849</v>
       </c>
       <c r="V155">
-        <v>22851</v>
+        <v>23517</v>
       </c>
       <c r="W155">
-        <v>47551</v>
+        <v>48962</v>
       </c>
       <c r="X155">
         <v>35697</v>
@@ -12867,7 +12876,265 @@
         <v>36849</v>
       </c>
       <c r="AB155">
-        <v>30316</v>
+        <v>30996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>514197</v>
+      </c>
+      <c r="C156">
+        <v>80647</v>
+      </c>
+      <c r="D156">
+        <v>161647</v>
+      </c>
+      <c r="E156">
+        <v>157334</v>
+      </c>
+      <c r="F156">
+        <v>102342</v>
+      </c>
+      <c r="G156">
+        <v>58124</v>
+      </c>
+      <c r="H156">
+        <v>119394</v>
+      </c>
+      <c r="I156">
+        <v>64496</v>
+      </c>
+      <c r="J156">
+        <v>64250</v>
+      </c>
+      <c r="K156">
+        <v>79898</v>
+      </c>
+      <c r="L156">
+        <v>91536</v>
+      </c>
+      <c r="M156">
+        <v>70920</v>
+      </c>
+      <c r="N156">
+        <v>49812</v>
+      </c>
+      <c r="O156">
+        <v>77001</v>
+      </c>
+      <c r="P156">
+        <v>99093</v>
+      </c>
+      <c r="Q156">
+        <v>24287</v>
+      </c>
+      <c r="R156">
+        <v>56214</v>
+      </c>
+      <c r="S156">
+        <v>169138</v>
+      </c>
+      <c r="T156">
+        <v>19366</v>
+      </c>
+      <c r="U156">
+        <v>153350</v>
+      </c>
+      <c r="V156">
+        <v>24278</v>
+      </c>
+      <c r="W156">
+        <v>50198</v>
+      </c>
+      <c r="X156">
+        <v>35973</v>
+      </c>
+      <c r="Y156">
+        <v>117694</v>
+      </c>
+      <c r="Z156">
+        <v>48854</v>
+      </c>
+      <c r="AA156">
+        <v>37634</v>
+      </c>
+      <c r="AB156">
+        <v>31455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>529006</v>
+      </c>
+      <c r="C157">
+        <v>81886</v>
+      </c>
+      <c r="D157">
+        <v>163642</v>
+      </c>
+      <c r="E157">
+        <v>161630</v>
+      </c>
+      <c r="F157">
+        <v>104446</v>
+      </c>
+      <c r="G157">
+        <v>58979</v>
+      </c>
+      <c r="H157">
+        <v>123415</v>
+      </c>
+      <c r="I157">
+        <v>66473</v>
+      </c>
+      <c r="J157">
+        <v>66899</v>
+      </c>
+      <c r="K157">
+        <v>81108</v>
+      </c>
+      <c r="L157">
+        <v>93373</v>
+      </c>
+      <c r="M157">
+        <v>73488</v>
+      </c>
+      <c r="N157">
+        <v>50563</v>
+      </c>
+      <c r="O157">
+        <v>80904</v>
+      </c>
+      <c r="P157">
+        <v>100140</v>
+      </c>
+      <c r="Q157">
+        <v>24936</v>
+      </c>
+      <c r="R157">
+        <v>57684</v>
+      </c>
+      <c r="S157">
+        <v>171565</v>
+      </c>
+      <c r="T157">
+        <v>19573</v>
+      </c>
+      <c r="U157">
+        <v>154685</v>
+      </c>
+      <c r="V157">
+        <v>24824</v>
+      </c>
+      <c r="W157">
+        <v>51477</v>
+      </c>
+      <c r="X157">
+        <v>36272</v>
+      </c>
+      <c r="Y157">
+        <v>119262</v>
+      </c>
+      <c r="Z157">
+        <v>50538</v>
+      </c>
+      <c r="AA157">
+        <v>38407</v>
+      </c>
+      <c r="AB157">
+        <v>32016</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>542304</v>
+      </c>
+      <c r="C158">
+        <v>83292</v>
+      </c>
+      <c r="D158">
+        <v>165495</v>
+      </c>
+      <c r="E158">
+        <v>166154</v>
+      </c>
+      <c r="F158">
+        <v>106292</v>
+      </c>
+      <c r="G158">
+        <v>59725</v>
+      </c>
+      <c r="H158">
+        <v>127106</v>
+      </c>
+      <c r="I158">
+        <v>66692</v>
+      </c>
+      <c r="J158">
+        <v>69249</v>
+      </c>
+      <c r="K158">
+        <v>82794</v>
+      </c>
+      <c r="L158">
+        <v>95005</v>
+      </c>
+      <c r="M158">
+        <v>76112</v>
+      </c>
+      <c r="N158">
+        <v>50563</v>
+      </c>
+      <c r="O158">
+        <v>84073</v>
+      </c>
+      <c r="P158">
+        <v>100940</v>
+      </c>
+      <c r="Q158">
+        <v>24936</v>
+      </c>
+      <c r="R158">
+        <v>58713</v>
+      </c>
+      <c r="S158">
+        <v>174662</v>
+      </c>
+      <c r="T158">
+        <v>19625</v>
+      </c>
+      <c r="U158">
+        <v>156053</v>
+      </c>
+      <c r="V158">
+        <v>24824</v>
+      </c>
+      <c r="W158">
+        <v>52458</v>
+      </c>
+      <c r="X158">
+        <v>36468</v>
+      </c>
+      <c r="Y158">
+        <v>120661</v>
+      </c>
+      <c r="Z158">
+        <v>52078</v>
+      </c>
+      <c r="AA158">
+        <v>38992</v>
+      </c>
+      <c r="AB158">
+        <v>32016</v>
       </c>
     </row>
   </sheetData>
@@ -12877,7 +13144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24767,7 +25034,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>21676</v>
+        <v>22059</v>
       </c>
       <c r="C155">
         <v>2462</v>
@@ -24803,7 +25070,7 @@
         <v>1743</v>
       </c>
       <c r="N155">
-        <v>1720</v>
+        <v>1741</v>
       </c>
       <c r="O155">
         <v>960</v>
@@ -24812,7 +25079,7 @@
         <v>3236</v>
       </c>
       <c r="Q155">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="R155">
         <v>1359</v>
@@ -24824,10 +25091,10 @@
         <v>500</v>
       </c>
       <c r="U155">
-        <v>5716</v>
+        <v>5694</v>
       </c>
       <c r="V155">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="W155">
         <v>1292</v>
@@ -24845,7 +25112,265 @@
         <v>840</v>
       </c>
       <c r="AB155">
-        <v>479</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>22389</v>
+      </c>
+      <c r="C156">
+        <v>2490</v>
+      </c>
+      <c r="D156">
+        <v>13198</v>
+      </c>
+      <c r="E156">
+        <v>3321</v>
+      </c>
+      <c r="F156">
+        <v>1419</v>
+      </c>
+      <c r="G156">
+        <v>1540</v>
+      </c>
+      <c r="H156">
+        <v>2608</v>
+      </c>
+      <c r="I156">
+        <v>1750</v>
+      </c>
+      <c r="J156">
+        <v>1554</v>
+      </c>
+      <c r="K156">
+        <v>1766</v>
+      </c>
+      <c r="L156">
+        <v>6484</v>
+      </c>
+      <c r="M156">
+        <v>1814</v>
+      </c>
+      <c r="N156">
+        <v>1757</v>
+      </c>
+      <c r="O156">
+        <v>1002</v>
+      </c>
+      <c r="P156">
+        <v>3246</v>
+      </c>
+      <c r="Q156">
+        <v>357</v>
+      </c>
+      <c r="R156">
+        <v>1390</v>
+      </c>
+      <c r="S156">
+        <v>7648</v>
+      </c>
+      <c r="T156">
+        <v>510</v>
+      </c>
+      <c r="U156">
+        <v>5699</v>
+      </c>
+      <c r="V156">
+        <v>368</v>
+      </c>
+      <c r="W156">
+        <v>1304</v>
+      </c>
+      <c r="X156">
+        <v>559</v>
+      </c>
+      <c r="Y156">
+        <v>2978</v>
+      </c>
+      <c r="Z156">
+        <v>1752</v>
+      </c>
+      <c r="AA156">
+        <v>855</v>
+      </c>
+      <c r="AB156">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>22710</v>
+      </c>
+      <c r="C157">
+        <v>2514</v>
+      </c>
+      <c r="D157">
+        <v>13348</v>
+      </c>
+      <c r="E157">
+        <v>3391</v>
+      </c>
+      <c r="F157">
+        <v>1444</v>
+      </c>
+      <c r="G157">
+        <v>1554</v>
+      </c>
+      <c r="H157">
+        <v>2692</v>
+      </c>
+      <c r="I157">
+        <v>1825</v>
+      </c>
+      <c r="J157">
+        <v>1606</v>
+      </c>
+      <c r="K157">
+        <v>1785</v>
+      </c>
+      <c r="L157">
+        <v>6526</v>
+      </c>
+      <c r="M157">
+        <v>1861</v>
+      </c>
+      <c r="N157">
+        <v>1783</v>
+      </c>
+      <c r="O157">
+        <v>1043</v>
+      </c>
+      <c r="P157">
+        <v>3252</v>
+      </c>
+      <c r="Q157">
+        <v>376</v>
+      </c>
+      <c r="R157">
+        <v>1408</v>
+      </c>
+      <c r="S157">
+        <v>7664</v>
+      </c>
+      <c r="T157">
+        <v>521</v>
+      </c>
+      <c r="U157">
+        <v>5728</v>
+      </c>
+      <c r="V157">
+        <v>381</v>
+      </c>
+      <c r="W157">
+        <v>1329</v>
+      </c>
+      <c r="X157">
+        <v>561</v>
+      </c>
+      <c r="Y157">
+        <v>2996</v>
+      </c>
+      <c r="Z157">
+        <v>1794</v>
+      </c>
+      <c r="AA157">
+        <v>864</v>
+      </c>
+      <c r="AB157">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>22997</v>
+      </c>
+      <c r="C158">
+        <v>2544</v>
+      </c>
+      <c r="D158">
+        <v>13477</v>
+      </c>
+      <c r="E158">
+        <v>3463</v>
+      </c>
+      <c r="F158">
+        <v>1469</v>
+      </c>
+      <c r="G158">
+        <v>1567</v>
+      </c>
+      <c r="H158">
+        <v>2769</v>
+      </c>
+      <c r="I158">
+        <v>1876</v>
+      </c>
+      <c r="J158">
+        <v>1677</v>
+      </c>
+      <c r="K158">
+        <v>1811</v>
+      </c>
+      <c r="L158">
+        <v>6557</v>
+      </c>
+      <c r="M158">
+        <v>1920</v>
+      </c>
+      <c r="N158">
+        <v>1783</v>
+      </c>
+      <c r="O158">
+        <v>1102</v>
+      </c>
+      <c r="P158">
+        <v>3268</v>
+      </c>
+      <c r="Q158">
+        <v>376</v>
+      </c>
+      <c r="R158">
+        <v>1434</v>
+      </c>
+      <c r="S158">
+        <v>7692</v>
+      </c>
+      <c r="T158">
+        <v>531</v>
+      </c>
+      <c r="U158">
+        <v>5750</v>
+      </c>
+      <c r="V158">
+        <v>381</v>
+      </c>
+      <c r="W158">
+        <v>1354</v>
+      </c>
+      <c r="X158">
+        <v>565</v>
+      </c>
+      <c r="Y158">
+        <v>3013</v>
+      </c>
+      <c r="Z158">
+        <v>1842</v>
+      </c>
+      <c r="AA158">
+        <v>872</v>
+      </c>
+      <c r="AB158">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -24863,15 +25388,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -24879,7 +25404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -24887,7 +25412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -24895,7 +25420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -24903,7 +25428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -24911,7 +25436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -24919,7 +25444,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -24927,7 +25452,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -24935,7 +25460,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -24943,7 +25468,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -24951,7 +25476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -24959,7 +25484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -24967,7 +25492,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -24975,7 +25500,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -24983,7 +25508,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -24991,7 +25516,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -24999,7 +25524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -25007,7 +25532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -25015,7 +25540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -25023,7 +25548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -25031,7 +25556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -25039,7 +25564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -25047,7 +25572,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -25055,7 +25580,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -25063,7 +25588,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -25071,7 +25596,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -25079,7 +25604,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="190">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -492,6 +492,15 @@
     <t>2020-07-31</t>
   </si>
   <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -908,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB158"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12982,7 +12991,7 @@
         <v>161630</v>
       </c>
       <c r="F157">
-        <v>104446</v>
+        <v>104442</v>
       </c>
       <c r="G157">
         <v>58979</v>
@@ -13092,7 +13101,7 @@
         <v>76112</v>
       </c>
       <c r="N158">
-        <v>50563</v>
+        <v>51700</v>
       </c>
       <c r="O158">
         <v>84073</v>
@@ -13101,7 +13110,7 @@
         <v>100940</v>
       </c>
       <c r="Q158">
-        <v>24936</v>
+        <v>25739</v>
       </c>
       <c r="R158">
         <v>58713</v>
@@ -13116,7 +13125,7 @@
         <v>156053</v>
       </c>
       <c r="V158">
-        <v>24824</v>
+        <v>25346</v>
       </c>
       <c r="W158">
         <v>52458</v>
@@ -13134,7 +13143,265 @@
         <v>38992</v>
       </c>
       <c r="AB158">
-        <v>32016</v>
+        <v>32723</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>552318</v>
+      </c>
+      <c r="C159">
+        <v>83814</v>
+      </c>
+      <c r="D159">
+        <v>167213</v>
+      </c>
+      <c r="E159">
+        <v>168926</v>
+      </c>
+      <c r="F159">
+        <v>107922</v>
+      </c>
+      <c r="G159">
+        <v>60992</v>
+      </c>
+      <c r="H159">
+        <v>129985</v>
+      </c>
+      <c r="I159">
+        <v>70456</v>
+      </c>
+      <c r="J159">
+        <v>69820</v>
+      </c>
+      <c r="K159">
+        <v>83461</v>
+      </c>
+      <c r="L159">
+        <v>96746</v>
+      </c>
+      <c r="M159">
+        <v>77930</v>
+      </c>
+      <c r="N159">
+        <v>51988</v>
+      </c>
+      <c r="O159">
+        <v>86922</v>
+      </c>
+      <c r="P159">
+        <v>101777</v>
+      </c>
+      <c r="Q159">
+        <v>26003</v>
+      </c>
+      <c r="R159">
+        <v>59724</v>
+      </c>
+      <c r="S159">
+        <v>176371</v>
+      </c>
+      <c r="T159">
+        <v>19930</v>
+      </c>
+      <c r="U159">
+        <v>156285</v>
+      </c>
+      <c r="V159">
+        <v>26434</v>
+      </c>
+      <c r="W159">
+        <v>52993</v>
+      </c>
+      <c r="X159">
+        <v>36595</v>
+      </c>
+      <c r="Y159">
+        <v>121581</v>
+      </c>
+      <c r="Z159">
+        <v>53151</v>
+      </c>
+      <c r="AA159">
+        <v>39504</v>
+      </c>
+      <c r="AB159">
+        <v>33151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>558685</v>
+      </c>
+      <c r="C160">
+        <v>84255</v>
+      </c>
+      <c r="D160">
+        <v>167225</v>
+      </c>
+      <c r="E160">
+        <v>170476</v>
+      </c>
+      <c r="F160">
+        <v>110028</v>
+      </c>
+      <c r="G160">
+        <v>62240</v>
+      </c>
+      <c r="H160">
+        <v>132801</v>
+      </c>
+      <c r="I160">
+        <v>71040</v>
+      </c>
+      <c r="J160">
+        <v>70176</v>
+      </c>
+      <c r="K160">
+        <v>84008</v>
+      </c>
+      <c r="L160">
+        <v>97970</v>
+      </c>
+      <c r="M160">
+        <v>79605</v>
+      </c>
+      <c r="N160">
+        <v>52184</v>
+      </c>
+      <c r="O160">
+        <v>87982</v>
+      </c>
+      <c r="P160">
+        <v>102124</v>
+      </c>
+      <c r="Q160">
+        <v>26645</v>
+      </c>
+      <c r="R160">
+        <v>60035</v>
+      </c>
+      <c r="S160">
+        <v>176773</v>
+      </c>
+      <c r="T160">
+        <v>19966</v>
+      </c>
+      <c r="U160">
+        <v>156505</v>
+      </c>
+      <c r="V160">
+        <v>26998</v>
+      </c>
+      <c r="W160">
+        <v>53224</v>
+      </c>
+      <c r="X160">
+        <v>36639</v>
+      </c>
+      <c r="Y160">
+        <v>121953</v>
+      </c>
+      <c r="Z160">
+        <v>53440</v>
+      </c>
+      <c r="AA160">
+        <v>39893</v>
+      </c>
+      <c r="AB160">
+        <v>33188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>560218</v>
+      </c>
+      <c r="C161">
+        <v>85215</v>
+      </c>
+      <c r="D161">
+        <v>168064</v>
+      </c>
+      <c r="E161">
+        <v>171391</v>
+      </c>
+      <c r="F161">
+        <v>112044</v>
+      </c>
+      <c r="G161">
+        <v>62778</v>
+      </c>
+      <c r="H161">
+        <v>133743</v>
+      </c>
+      <c r="I161">
+        <v>71479</v>
+      </c>
+      <c r="J161">
+        <v>70252</v>
+      </c>
+      <c r="K161">
+        <v>84211</v>
+      </c>
+      <c r="L161">
+        <v>98401</v>
+      </c>
+      <c r="M161">
+        <v>80865</v>
+      </c>
+      <c r="N161">
+        <v>52184</v>
+      </c>
+      <c r="O161">
+        <v>88889</v>
+      </c>
+      <c r="P161">
+        <v>102386</v>
+      </c>
+      <c r="Q161">
+        <v>26645</v>
+      </c>
+      <c r="R161">
+        <v>60479</v>
+      </c>
+      <c r="S161">
+        <v>176972</v>
+      </c>
+      <c r="T161">
+        <v>20339</v>
+      </c>
+      <c r="U161">
+        <v>158277</v>
+      </c>
+      <c r="V161">
+        <v>26998</v>
+      </c>
+      <c r="W161">
+        <v>53224</v>
+      </c>
+      <c r="X161">
+        <v>36804</v>
+      </c>
+      <c r="Y161">
+        <v>122482</v>
+      </c>
+      <c r="Z161">
+        <v>55156</v>
+      </c>
+      <c r="AA161">
+        <v>40016</v>
+      </c>
+      <c r="AB161">
+        <v>33188</v>
       </c>
     </row>
   </sheetData>
@@ -13144,7 +13411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB158"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25328,7 +25595,7 @@
         <v>1920</v>
       </c>
       <c r="N158">
-        <v>1783</v>
+        <v>1885</v>
       </c>
       <c r="O158">
         <v>1102</v>
@@ -25337,7 +25604,7 @@
         <v>3268</v>
       </c>
       <c r="Q158">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="R158">
         <v>1434</v>
@@ -25352,7 +25619,7 @@
         <v>5750</v>
       </c>
       <c r="V158">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="W158">
         <v>1354</v>
@@ -25370,7 +25637,265 @@
         <v>872</v>
       </c>
       <c r="AB158">
-        <v>505</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>23236</v>
+      </c>
+      <c r="C159">
+        <v>2565</v>
+      </c>
+      <c r="D159">
+        <v>13556</v>
+      </c>
+      <c r="E159">
+        <v>3517</v>
+      </c>
+      <c r="F159">
+        <v>1490</v>
+      </c>
+      <c r="G159">
+        <v>1581</v>
+      </c>
+      <c r="H159">
+        <v>2861</v>
+      </c>
+      <c r="I159">
+        <v>1947</v>
+      </c>
+      <c r="J159">
+        <v>1691</v>
+      </c>
+      <c r="K159">
+        <v>1833</v>
+      </c>
+      <c r="L159">
+        <v>6597</v>
+      </c>
+      <c r="M159">
+        <v>1975</v>
+      </c>
+      <c r="N159">
+        <v>1889</v>
+      </c>
+      <c r="O159">
+        <v>1154</v>
+      </c>
+      <c r="P159">
+        <v>3278</v>
+      </c>
+      <c r="Q159">
+        <v>404</v>
+      </c>
+      <c r="R159">
+        <v>1448</v>
+      </c>
+      <c r="S159">
+        <v>7704</v>
+      </c>
+      <c r="T159">
+        <v>535</v>
+      </c>
+      <c r="U159">
+        <v>5773</v>
+      </c>
+      <c r="V159">
+        <v>395</v>
+      </c>
+      <c r="W159">
+        <v>1369</v>
+      </c>
+      <c r="X159">
+        <v>568</v>
+      </c>
+      <c r="Y159">
+        <v>3032</v>
+      </c>
+      <c r="Z159">
+        <v>1876</v>
+      </c>
+      <c r="AA159">
+        <v>881</v>
+      </c>
+      <c r="AB159">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>23317</v>
+      </c>
+      <c r="C160">
+        <v>2578</v>
+      </c>
+      <c r="D160">
+        <v>13572</v>
+      </c>
+      <c r="E160">
+        <v>3572</v>
+      </c>
+      <c r="F160">
+        <v>1523</v>
+      </c>
+      <c r="G160">
+        <v>1594</v>
+      </c>
+      <c r="H160">
+        <v>2891</v>
+      </c>
+      <c r="I160">
+        <v>1974</v>
+      </c>
+      <c r="J160">
+        <v>1701</v>
+      </c>
+      <c r="K160">
+        <v>1850</v>
+      </c>
+      <c r="L160">
+        <v>6634</v>
+      </c>
+      <c r="M160">
+        <v>2005</v>
+      </c>
+      <c r="N160">
+        <v>1900</v>
+      </c>
+      <c r="O160">
+        <v>1175</v>
+      </c>
+      <c r="P160">
+        <v>3283</v>
+      </c>
+      <c r="Q160">
+        <v>421</v>
+      </c>
+      <c r="R160">
+        <v>1465</v>
+      </c>
+      <c r="S160">
+        <v>7710</v>
+      </c>
+      <c r="T160">
+        <v>537</v>
+      </c>
+      <c r="U160">
+        <v>5784</v>
+      </c>
+      <c r="V160">
+        <v>402</v>
+      </c>
+      <c r="W160">
+        <v>1385</v>
+      </c>
+      <c r="X160">
+        <v>571</v>
+      </c>
+      <c r="Y160">
+        <v>3050</v>
+      </c>
+      <c r="Z160">
+        <v>1902</v>
+      </c>
+      <c r="AA160">
+        <v>884</v>
+      </c>
+      <c r="AB160">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>23365</v>
+      </c>
+      <c r="C161">
+        <v>2600</v>
+      </c>
+      <c r="D161">
+        <v>13604</v>
+      </c>
+      <c r="E161">
+        <v>3624</v>
+      </c>
+      <c r="F161">
+        <v>1546</v>
+      </c>
+      <c r="G161">
+        <v>1607</v>
+      </c>
+      <c r="H161">
+        <v>2894</v>
+      </c>
+      <c r="I161">
+        <v>2016</v>
+      </c>
+      <c r="J161">
+        <v>1716</v>
+      </c>
+      <c r="K161">
+        <v>1870</v>
+      </c>
+      <c r="L161">
+        <v>6669</v>
+      </c>
+      <c r="M161">
+        <v>2050</v>
+      </c>
+      <c r="N161">
+        <v>1900</v>
+      </c>
+      <c r="O161">
+        <v>1196</v>
+      </c>
+      <c r="P161">
+        <v>3288</v>
+      </c>
+      <c r="Q161">
+        <v>421</v>
+      </c>
+      <c r="R161">
+        <v>1489</v>
+      </c>
+      <c r="S161">
+        <v>7761</v>
+      </c>
+      <c r="T161">
+        <v>539</v>
+      </c>
+      <c r="U161">
+        <v>5799</v>
+      </c>
+      <c r="V161">
+        <v>402</v>
+      </c>
+      <c r="W161">
+        <v>1401</v>
+      </c>
+      <c r="X161">
+        <v>576</v>
+      </c>
+      <c r="Y161">
+        <v>3069</v>
+      </c>
+      <c r="Z161">
+        <v>1927</v>
+      </c>
+      <c r="AA161">
+        <v>888</v>
+      </c>
+      <c r="AB161">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -25388,15 +25913,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -25404,7 +25929,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -25412,7 +25937,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -25420,7 +25945,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -25428,7 +25953,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -25436,7 +25961,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -25444,7 +25969,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -25452,7 +25977,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -25460,7 +25985,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -25468,7 +25993,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -25476,7 +26001,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -25484,7 +26009,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -25492,7 +26017,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -25500,7 +26025,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -25508,7 +26033,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -25516,7 +26041,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -25524,7 +26049,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -25532,7 +26057,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -25540,7 +26065,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -25548,7 +26073,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -25556,7 +26081,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -25564,7 +26089,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -25572,7 +26097,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -25580,7 +26105,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -25588,7 +26113,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -25596,7 +26121,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -25604,7 +26129,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="192">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -501,6 +501,12 @@
     <t>2020-08-03</t>
   </si>
   <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -917,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB161"/>
+  <dimension ref="A1:AB163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13359,7 +13365,7 @@
         <v>80865</v>
       </c>
       <c r="N161">
-        <v>52184</v>
+        <v>52724</v>
       </c>
       <c r="O161">
         <v>88889</v>
@@ -13368,7 +13374,7 @@
         <v>102386</v>
       </c>
       <c r="Q161">
-        <v>26645</v>
+        <v>27678</v>
       </c>
       <c r="R161">
         <v>60479</v>
@@ -13383,10 +13389,10 @@
         <v>158277</v>
       </c>
       <c r="V161">
-        <v>26998</v>
+        <v>27664</v>
       </c>
       <c r="W161">
-        <v>53224</v>
+        <v>54443</v>
       </c>
       <c r="X161">
         <v>36804</v>
@@ -13401,7 +13407,179 @@
         <v>40016</v>
       </c>
       <c r="AB161">
-        <v>33188</v>
+        <v>33194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>575589</v>
+      </c>
+      <c r="C162">
+        <v>86209</v>
+      </c>
+      <c r="D162">
+        <v>168911</v>
+      </c>
+      <c r="E162">
+        <v>175389</v>
+      </c>
+      <c r="F162">
+        <v>113924</v>
+      </c>
+      <c r="G162">
+        <v>63351</v>
+      </c>
+      <c r="H162">
+        <v>135728</v>
+      </c>
+      <c r="I162">
+        <v>73618</v>
+      </c>
+      <c r="J162">
+        <v>75010</v>
+      </c>
+      <c r="K162">
+        <v>85760</v>
+      </c>
+      <c r="L162">
+        <v>98833</v>
+      </c>
+      <c r="M162">
+        <v>82718</v>
+      </c>
+      <c r="N162">
+        <v>53649</v>
+      </c>
+      <c r="O162">
+        <v>92157</v>
+      </c>
+      <c r="P162">
+        <v>103269</v>
+      </c>
+      <c r="Q162">
+        <v>28315</v>
+      </c>
+      <c r="R162">
+        <v>61069</v>
+      </c>
+      <c r="S162">
+        <v>179976</v>
+      </c>
+      <c r="T162">
+        <v>20710</v>
+      </c>
+      <c r="U162">
+        <v>160695</v>
+      </c>
+      <c r="V162">
+        <v>28312</v>
+      </c>
+      <c r="W162">
+        <v>55718</v>
+      </c>
+      <c r="X162">
+        <v>36999</v>
+      </c>
+      <c r="Y162">
+        <v>123887</v>
+      </c>
+      <c r="Z162">
+        <v>57115</v>
+      </c>
+      <c r="AA162">
+        <v>41239</v>
+      </c>
+      <c r="AB162">
+        <v>34296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>585265</v>
+      </c>
+      <c r="C163">
+        <v>87243</v>
+      </c>
+      <c r="D163">
+        <v>172679</v>
+      </c>
+      <c r="E163">
+        <v>179737</v>
+      </c>
+      <c r="F163">
+        <v>115966</v>
+      </c>
+      <c r="G163">
+        <v>64194</v>
+      </c>
+      <c r="H163">
+        <v>139661</v>
+      </c>
+      <c r="I163">
+        <v>76563</v>
+      </c>
+      <c r="J163">
+        <v>78403</v>
+      </c>
+      <c r="K163">
+        <v>87071</v>
+      </c>
+      <c r="L163">
+        <v>100321</v>
+      </c>
+      <c r="M163">
+        <v>85317</v>
+      </c>
+      <c r="N163">
+        <v>53649</v>
+      </c>
+      <c r="O163">
+        <v>95410</v>
+      </c>
+      <c r="P163">
+        <v>104250</v>
+      </c>
+      <c r="Q163">
+        <v>28315</v>
+      </c>
+      <c r="R163">
+        <v>61986</v>
+      </c>
+      <c r="S163">
+        <v>182453</v>
+      </c>
+      <c r="T163">
+        <v>21033</v>
+      </c>
+      <c r="U163">
+        <v>162822</v>
+      </c>
+      <c r="V163">
+        <v>28312</v>
+      </c>
+      <c r="W163">
+        <v>55718</v>
+      </c>
+      <c r="X163">
+        <v>37318</v>
+      </c>
+      <c r="Y163">
+        <v>125459</v>
+      </c>
+      <c r="Z163">
+        <v>58475</v>
+      </c>
+      <c r="AA163">
+        <v>42021</v>
+      </c>
+      <c r="AB163">
+        <v>34296</v>
       </c>
     </row>
   </sheetData>
@@ -13411,7 +13589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB161"/>
+  <dimension ref="A1:AB163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25853,7 +26031,7 @@
         <v>2050</v>
       </c>
       <c r="N161">
-        <v>1900</v>
+        <v>1932</v>
       </c>
       <c r="O161">
         <v>1196</v>
@@ -25862,7 +26040,7 @@
         <v>3288</v>
       </c>
       <c r="Q161">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="R161">
         <v>1489</v>
@@ -25877,7 +26055,7 @@
         <v>5799</v>
       </c>
       <c r="V161">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="W161">
         <v>1401</v>
@@ -25895,7 +26073,179 @@
         <v>888</v>
       </c>
       <c r="AB161">
-        <v>513</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>23702</v>
+      </c>
+      <c r="C162">
+        <v>2627</v>
+      </c>
+      <c r="D162">
+        <v>13715</v>
+      </c>
+      <c r="E162">
+        <v>3678</v>
+      </c>
+      <c r="F162">
+        <v>1572</v>
+      </c>
+      <c r="G162">
+        <v>1621</v>
+      </c>
+      <c r="H162">
+        <v>3043</v>
+      </c>
+      <c r="I162">
+        <v>2099</v>
+      </c>
+      <c r="J162">
+        <v>1817</v>
+      </c>
+      <c r="K162">
+        <v>1901</v>
+      </c>
+      <c r="L162">
+        <v>6717</v>
+      </c>
+      <c r="M162">
+        <v>2128</v>
+      </c>
+      <c r="N162">
+        <v>1939</v>
+      </c>
+      <c r="O162">
+        <v>1235</v>
+      </c>
+      <c r="P162">
+        <v>3299</v>
+      </c>
+      <c r="Q162">
+        <v>442</v>
+      </c>
+      <c r="R162">
+        <v>1509</v>
+      </c>
+      <c r="S162">
+        <v>7821</v>
+      </c>
+      <c r="T162">
+        <v>545</v>
+      </c>
+      <c r="U162">
+        <v>5818</v>
+      </c>
+      <c r="V162">
+        <v>415</v>
+      </c>
+      <c r="W162">
+        <v>1416</v>
+      </c>
+      <c r="X162">
+        <v>581</v>
+      </c>
+      <c r="Y162">
+        <v>3085</v>
+      </c>
+      <c r="Z162">
+        <v>1997</v>
+      </c>
+      <c r="AA162">
+        <v>898</v>
+      </c>
+      <c r="AB162">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>24109</v>
+      </c>
+      <c r="C163">
+        <v>2646</v>
+      </c>
+      <c r="D163">
+        <v>13855</v>
+      </c>
+      <c r="E163">
+        <v>3736</v>
+      </c>
+      <c r="F163">
+        <v>1605</v>
+      </c>
+      <c r="G163">
+        <v>1633</v>
+      </c>
+      <c r="H163">
+        <v>3195</v>
+      </c>
+      <c r="I163">
+        <v>2163</v>
+      </c>
+      <c r="J163">
+        <v>1888</v>
+      </c>
+      <c r="K163">
+        <v>1922</v>
+      </c>
+      <c r="L163">
+        <v>6758</v>
+      </c>
+      <c r="M163">
+        <v>2164</v>
+      </c>
+      <c r="N163">
+        <v>1939</v>
+      </c>
+      <c r="O163">
+        <v>1306</v>
+      </c>
+      <c r="P163">
+        <v>3317</v>
+      </c>
+      <c r="Q163">
+        <v>442</v>
+      </c>
+      <c r="R163">
+        <v>1525</v>
+      </c>
+      <c r="S163">
+        <v>7873</v>
+      </c>
+      <c r="T163">
+        <v>547</v>
+      </c>
+      <c r="U163">
+        <v>5835</v>
+      </c>
+      <c r="V163">
+        <v>415</v>
+      </c>
+      <c r="W163">
+        <v>1436</v>
+      </c>
+      <c r="X163">
+        <v>588</v>
+      </c>
+      <c r="Y163">
+        <v>3103</v>
+      </c>
+      <c r="Z163">
+        <v>2013</v>
+      </c>
+      <c r="AA163">
+        <v>918</v>
+      </c>
+      <c r="AB163">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -25913,15 +26263,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -25929,7 +26279,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -25937,7 +26287,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -25945,7 +26295,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -25953,7 +26303,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -25961,7 +26311,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -25969,7 +26319,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -25977,7 +26327,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -25985,7 +26335,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -25993,7 +26343,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -26001,7 +26351,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -26009,7 +26359,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -26017,7 +26367,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -26025,7 +26375,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -26033,7 +26383,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -26041,7 +26391,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -26049,7 +26399,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -26057,7 +26407,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -26065,7 +26415,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -26073,7 +26423,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -26081,7 +26431,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -26089,7 +26439,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -26097,7 +26447,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -26105,7 +26455,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -26113,7 +26463,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -26121,7 +26471,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -26129,7 +26479,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="195">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -507,6 +507,15 @@
     <t>2020-08-05</t>
   </si>
   <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -923,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB163"/>
+  <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11939,7 +11948,7 @@
         <v>105183</v>
       </c>
       <c r="Z144">
-        <v>32971</v>
+        <v>32321</v>
       </c>
       <c r="AA144">
         <v>29117</v>
@@ -12674,7 +12683,7 @@
         <v>88466</v>
       </c>
       <c r="M153">
-        <v>67220</v>
+        <v>65593</v>
       </c>
       <c r="N153">
         <v>47430</v>
@@ -12846,7 +12855,7 @@
         <v>89678</v>
       </c>
       <c r="M155">
-        <v>69392</v>
+        <v>69393</v>
       </c>
       <c r="N155">
         <v>49194</v>
@@ -13537,7 +13546,7 @@
         <v>85317</v>
       </c>
       <c r="N163">
-        <v>53649</v>
+        <v>54268</v>
       </c>
       <c r="O163">
         <v>95410</v>
@@ -13546,7 +13555,7 @@
         <v>104250</v>
       </c>
       <c r="Q163">
-        <v>28315</v>
+        <v>29101</v>
       </c>
       <c r="R163">
         <v>61986</v>
@@ -13561,10 +13570,10 @@
         <v>162822</v>
       </c>
       <c r="V163">
-        <v>28312</v>
+        <v>29539</v>
       </c>
       <c r="W163">
-        <v>55718</v>
+        <v>57100</v>
       </c>
       <c r="X163">
         <v>37318</v>
@@ -13579,7 +13588,265 @@
         <v>42021</v>
       </c>
       <c r="AB163">
-        <v>34296</v>
+        <v>34929</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>598670</v>
+      </c>
+      <c r="C164">
+        <v>88543</v>
+      </c>
+      <c r="D164">
+        <v>174064</v>
+      </c>
+      <c r="E164">
+        <v>183690</v>
+      </c>
+      <c r="F164">
+        <v>118000</v>
+      </c>
+      <c r="G164">
+        <v>65093</v>
+      </c>
+      <c r="H164">
+        <v>142828</v>
+      </c>
+      <c r="I164">
+        <v>78837</v>
+      </c>
+      <c r="J164">
+        <v>81719</v>
+      </c>
+      <c r="K164">
+        <v>87867</v>
+      </c>
+      <c r="L164">
+        <v>101395</v>
+      </c>
+      <c r="M164">
+        <v>87269</v>
+      </c>
+      <c r="N164">
+        <v>54881</v>
+      </c>
+      <c r="O164">
+        <v>98634</v>
+      </c>
+      <c r="P164">
+        <v>105054</v>
+      </c>
+      <c r="Q164">
+        <v>29988</v>
+      </c>
+      <c r="R164">
+        <v>63728</v>
+      </c>
+      <c r="S164">
+        <v>184100</v>
+      </c>
+      <c r="T164">
+        <v>21263</v>
+      </c>
+      <c r="U164">
+        <v>164759</v>
+      </c>
+      <c r="V164">
+        <v>30358</v>
+      </c>
+      <c r="W164">
+        <v>58390</v>
+      </c>
+      <c r="X164">
+        <v>37735</v>
+      </c>
+      <c r="Y164">
+        <v>127065</v>
+      </c>
+      <c r="Z164">
+        <v>60409</v>
+      </c>
+      <c r="AA164">
+        <v>42725</v>
+      </c>
+      <c r="AB164">
+        <v>35540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>608379</v>
+      </c>
+      <c r="C165">
+        <v>89923</v>
+      </c>
+      <c r="D165">
+        <v>175696</v>
+      </c>
+      <c r="E165">
+        <v>187892</v>
+      </c>
+      <c r="F165">
+        <v>119903</v>
+      </c>
+      <c r="G165">
+        <v>65916</v>
+      </c>
+      <c r="H165">
+        <v>147323</v>
+      </c>
+      <c r="I165">
+        <v>79026</v>
+      </c>
+      <c r="J165">
+        <v>84175</v>
+      </c>
+      <c r="K165">
+        <v>89117</v>
+      </c>
+      <c r="L165">
+        <v>102872</v>
+      </c>
+      <c r="M165">
+        <v>88899</v>
+      </c>
+      <c r="N165">
+        <v>55315</v>
+      </c>
+      <c r="O165">
+        <v>101582</v>
+      </c>
+      <c r="P165">
+        <v>105857</v>
+      </c>
+      <c r="Q165">
+        <v>30707</v>
+      </c>
+      <c r="R165">
+        <v>63728</v>
+      </c>
+      <c r="S165">
+        <v>186563</v>
+      </c>
+      <c r="T165">
+        <v>21376</v>
+      </c>
+      <c r="U165">
+        <v>167099</v>
+      </c>
+      <c r="V165">
+        <v>31103</v>
+      </c>
+      <c r="W165">
+        <v>59571</v>
+      </c>
+      <c r="X165">
+        <v>37964</v>
+      </c>
+      <c r="Y165">
+        <v>128846</v>
+      </c>
+      <c r="Z165">
+        <v>62348</v>
+      </c>
+      <c r="AA165">
+        <v>43390</v>
+      </c>
+      <c r="AB165">
+        <v>35933</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>621731</v>
+      </c>
+      <c r="C166">
+        <v>91146</v>
+      </c>
+      <c r="D166">
+        <v>178524</v>
+      </c>
+      <c r="E166">
+        <v>191401</v>
+      </c>
+      <c r="F166">
+        <v>121824</v>
+      </c>
+      <c r="G166">
+        <v>66748</v>
+      </c>
+      <c r="H166">
+        <v>150723</v>
+      </c>
+      <c r="I166">
+        <v>83595</v>
+      </c>
+      <c r="J166">
+        <v>84963</v>
+      </c>
+      <c r="K166">
+        <v>89893</v>
+      </c>
+      <c r="L166">
+        <v>104113</v>
+      </c>
+      <c r="M166">
+        <v>88899</v>
+      </c>
+      <c r="N166">
+        <v>55315</v>
+      </c>
+      <c r="O166">
+        <v>104749</v>
+      </c>
+      <c r="P166">
+        <v>106428</v>
+      </c>
+      <c r="Q166">
+        <v>30707</v>
+      </c>
+      <c r="R166">
+        <v>64271</v>
+      </c>
+      <c r="S166">
+        <v>188289</v>
+      </c>
+      <c r="T166">
+        <v>21498</v>
+      </c>
+      <c r="U166">
+        <v>167642</v>
+      </c>
+      <c r="V166">
+        <v>31103</v>
+      </c>
+      <c r="W166">
+        <v>59982</v>
+      </c>
+      <c r="X166">
+        <v>38139</v>
+      </c>
+      <c r="Y166">
+        <v>129700</v>
+      </c>
+      <c r="Z166">
+        <v>63336</v>
+      </c>
+      <c r="AA166">
+        <v>43866</v>
+      </c>
+      <c r="AB166">
+        <v>35933</v>
       </c>
     </row>
   </sheetData>
@@ -13589,7 +13856,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB163"/>
+  <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24605,7 +24872,7 @@
         <v>2640</v>
       </c>
       <c r="Z144">
-        <v>1268</v>
+        <v>1291</v>
       </c>
       <c r="AA144">
         <v>686</v>
@@ -26203,7 +26470,7 @@
         <v>2164</v>
       </c>
       <c r="N163">
-        <v>1939</v>
+        <v>1960</v>
       </c>
       <c r="O163">
         <v>1306</v>
@@ -26212,7 +26479,7 @@
         <v>3317</v>
       </c>
       <c r="Q163">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="R163">
         <v>1525</v>
@@ -26227,7 +26494,7 @@
         <v>5835</v>
       </c>
       <c r="V163">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="W163">
         <v>1436</v>
@@ -26245,7 +26512,265 @@
         <v>918</v>
       </c>
       <c r="AB163">
-        <v>532</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>24448</v>
+      </c>
+      <c r="C164">
+        <v>2666</v>
+      </c>
+      <c r="D164">
+        <v>13941</v>
+      </c>
+      <c r="E164">
+        <v>3789</v>
+      </c>
+      <c r="F164">
+        <v>1651</v>
+      </c>
+      <c r="G164">
+        <v>1643</v>
+      </c>
+      <c r="H164">
+        <v>3304</v>
+      </c>
+      <c r="I164">
+        <v>2231</v>
+      </c>
+      <c r="J164">
+        <v>1924</v>
+      </c>
+      <c r="K164">
+        <v>1945</v>
+      </c>
+      <c r="L164">
+        <v>6828</v>
+      </c>
+      <c r="M164">
+        <v>2224</v>
+      </c>
+      <c r="N164">
+        <v>1971</v>
+      </c>
+      <c r="O164">
+        <v>1357</v>
+      </c>
+      <c r="P164">
+        <v>3335</v>
+      </c>
+      <c r="Q164">
+        <v>481</v>
+      </c>
+      <c r="R164">
+        <v>1558</v>
+      </c>
+      <c r="S164">
+        <v>7921</v>
+      </c>
+      <c r="T164">
+        <v>552</v>
+      </c>
+      <c r="U164">
+        <v>5854</v>
+      </c>
+      <c r="V164">
+        <v>437</v>
+      </c>
+      <c r="W164">
+        <v>1452</v>
+      </c>
+      <c r="X164">
+        <v>594</v>
+      </c>
+      <c r="Y164">
+        <v>3120</v>
+      </c>
+      <c r="Z164">
+        <v>2051</v>
+      </c>
+      <c r="AA164">
+        <v>923</v>
+      </c>
+      <c r="AB164">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>24735</v>
+      </c>
+      <c r="C165">
+        <v>2698</v>
+      </c>
+      <c r="D165">
+        <v>14028</v>
+      </c>
+      <c r="E165">
+        <v>3843</v>
+      </c>
+      <c r="F165">
+        <v>1682</v>
+      </c>
+      <c r="G165">
+        <v>1654</v>
+      </c>
+      <c r="H165">
+        <v>3381</v>
+      </c>
+      <c r="I165">
+        <v>2282</v>
+      </c>
+      <c r="J165">
+        <v>1974</v>
+      </c>
+      <c r="K165">
+        <v>1965</v>
+      </c>
+      <c r="L165">
+        <v>6867</v>
+      </c>
+      <c r="M165">
+        <v>2270</v>
+      </c>
+      <c r="N165">
+        <v>1976</v>
+      </c>
+      <c r="O165">
+        <v>1400</v>
+      </c>
+      <c r="P165">
+        <v>3345</v>
+      </c>
+      <c r="Q165">
+        <v>492</v>
+      </c>
+      <c r="R165">
+        <v>1558</v>
+      </c>
+      <c r="S165">
+        <v>7946</v>
+      </c>
+      <c r="T165">
+        <v>556</v>
+      </c>
+      <c r="U165">
+        <v>5871</v>
+      </c>
+      <c r="V165">
+        <v>444</v>
+      </c>
+      <c r="W165">
+        <v>1469</v>
+      </c>
+      <c r="X165">
+        <v>599</v>
+      </c>
+      <c r="Y165">
+        <v>3138</v>
+      </c>
+      <c r="Z165">
+        <v>2101</v>
+      </c>
+      <c r="AA165">
+        <v>934</v>
+      </c>
+      <c r="AB165">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>25016</v>
+      </c>
+      <c r="C166">
+        <v>2720</v>
+      </c>
+      <c r="D166">
+        <v>14070</v>
+      </c>
+      <c r="E166">
+        <v>3899</v>
+      </c>
+      <c r="F166">
+        <v>1712</v>
+      </c>
+      <c r="G166">
+        <v>1665</v>
+      </c>
+      <c r="H166">
+        <v>3449</v>
+      </c>
+      <c r="I166">
+        <v>2346</v>
+      </c>
+      <c r="J166">
+        <v>2017</v>
+      </c>
+      <c r="K166">
+        <v>1983</v>
+      </c>
+      <c r="L166">
+        <v>6920</v>
+      </c>
+      <c r="M166">
+        <v>2270</v>
+      </c>
+      <c r="N166">
+        <v>1976</v>
+      </c>
+      <c r="O166">
+        <v>1419</v>
+      </c>
+      <c r="P166">
+        <v>3355</v>
+      </c>
+      <c r="Q166">
+        <v>492</v>
+      </c>
+      <c r="R166">
+        <v>1577</v>
+      </c>
+      <c r="S166">
+        <v>7954</v>
+      </c>
+      <c r="T166">
+        <v>559</v>
+      </c>
+      <c r="U166">
+        <v>5885</v>
+      </c>
+      <c r="V166">
+        <v>444</v>
+      </c>
+      <c r="W166">
+        <v>1480</v>
+      </c>
+      <c r="X166">
+        <v>601</v>
+      </c>
+      <c r="Y166">
+        <v>3154</v>
+      </c>
+      <c r="Z166">
+        <v>2125</v>
+      </c>
+      <c r="AA166">
+        <v>940</v>
+      </c>
+      <c r="AB166">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -26263,15 +26788,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -26279,7 +26804,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -26287,7 +26812,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -26295,7 +26820,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -26303,7 +26828,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -26311,7 +26836,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -26319,7 +26844,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -26327,7 +26852,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -26335,7 +26860,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -26343,7 +26868,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -26351,7 +26876,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -26359,7 +26884,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -26367,7 +26892,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -26375,7 +26900,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -26383,7 +26908,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -26391,7 +26916,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -26399,7 +26924,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -26407,7 +26932,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -26415,7 +26940,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -26423,7 +26948,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -26431,7 +26956,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -26439,7 +26964,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -26447,7 +26972,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -26455,7 +26980,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -26463,7 +26988,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -26471,7 +26996,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -26479,7 +27004,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="207">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -516,6 +516,42 @@
     <t>2020-08-08</t>
   </si>
   <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -932,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11432,7 +11468,7 @@
         <v>98398</v>
       </c>
       <c r="Z138">
-        <v>27636</v>
+        <v>28526</v>
       </c>
       <c r="AA138">
         <v>26496</v>
@@ -11690,7 +11726,7 @@
         <v>101467</v>
       </c>
       <c r="Z141">
-        <v>29279</v>
+        <v>29918</v>
       </c>
       <c r="AA141">
         <v>27528</v>
@@ -13715,7 +13751,7 @@
         <v>102872</v>
       </c>
       <c r="M165">
-        <v>88899</v>
+        <v>89966</v>
       </c>
       <c r="N165">
         <v>55315</v>
@@ -13801,7 +13837,7 @@
         <v>104113</v>
       </c>
       <c r="M166">
-        <v>88899</v>
+        <v>91127</v>
       </c>
       <c r="N166">
         <v>55315</v>
@@ -13813,7 +13849,7 @@
         <v>106428</v>
       </c>
       <c r="Q166">
-        <v>30707</v>
+        <v>31344</v>
       </c>
       <c r="R166">
         <v>64271</v>
@@ -13828,7 +13864,7 @@
         <v>167642</v>
       </c>
       <c r="V166">
-        <v>31103</v>
+        <v>31663</v>
       </c>
       <c r="W166">
         <v>59982</v>
@@ -13846,7 +13882,1039 @@
         <v>43866</v>
       </c>
       <c r="AB166">
-        <v>35933</v>
+        <v>36387</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>627126</v>
+      </c>
+      <c r="C167">
+        <v>91791</v>
+      </c>
+      <c r="D167">
+        <v>178850</v>
+      </c>
+      <c r="E167">
+        <v>193029</v>
+      </c>
+      <c r="F167">
+        <v>123057</v>
+      </c>
+      <c r="G167">
+        <v>67613</v>
+      </c>
+      <c r="H167">
+        <v>153927</v>
+      </c>
+      <c r="I167">
+        <v>83991</v>
+      </c>
+      <c r="J167">
+        <v>85154</v>
+      </c>
+      <c r="K167">
+        <v>90082</v>
+      </c>
+      <c r="L167">
+        <v>105381</v>
+      </c>
+      <c r="M167">
+        <v>92866</v>
+      </c>
+      <c r="N167">
+        <v>55617</v>
+      </c>
+      <c r="O167">
+        <v>105935</v>
+      </c>
+      <c r="P167">
+        <v>106950</v>
+      </c>
+      <c r="Q167">
+        <v>31739</v>
+      </c>
+      <c r="R167">
+        <v>64693</v>
+      </c>
+      <c r="S167">
+        <v>188638</v>
+      </c>
+      <c r="T167">
+        <v>21587</v>
+      </c>
+      <c r="U167">
+        <v>168151</v>
+      </c>
+      <c r="V167">
+        <v>32289</v>
+      </c>
+      <c r="W167">
+        <v>60178</v>
+      </c>
+      <c r="X167">
+        <v>38208</v>
+      </c>
+      <c r="Y167">
+        <v>130136</v>
+      </c>
+      <c r="Z167">
+        <v>63680</v>
+      </c>
+      <c r="AA167">
+        <v>44010</v>
+      </c>
+      <c r="AB167">
+        <v>36449</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>628415</v>
+      </c>
+      <c r="C168">
+        <v>93069</v>
+      </c>
+      <c r="D168">
+        <v>180016</v>
+      </c>
+      <c r="E168">
+        <v>194097</v>
+      </c>
+      <c r="F168">
+        <v>126069</v>
+      </c>
+      <c r="G168">
+        <v>68237</v>
+      </c>
+      <c r="H168">
+        <v>155075</v>
+      </c>
+      <c r="I168">
+        <v>84034</v>
+      </c>
+      <c r="J168">
+        <v>88573</v>
+      </c>
+      <c r="K168">
+        <v>90366</v>
+      </c>
+      <c r="L168">
+        <v>105381</v>
+      </c>
+      <c r="M168">
+        <v>94373</v>
+      </c>
+      <c r="N168">
+        <v>58132</v>
+      </c>
+      <c r="O168">
+        <v>106928</v>
+      </c>
+      <c r="P168">
+        <v>107197</v>
+      </c>
+      <c r="Q168">
+        <v>32562</v>
+      </c>
+      <c r="R168">
+        <v>64974</v>
+      </c>
+      <c r="S168">
+        <v>189023</v>
+      </c>
+      <c r="T168">
+        <v>21619</v>
+      </c>
+      <c r="U168">
+        <v>169613</v>
+      </c>
+      <c r="V168">
+        <v>33047</v>
+      </c>
+      <c r="W168">
+        <v>61144</v>
+      </c>
+      <c r="X168">
+        <v>38399</v>
+      </c>
+      <c r="Y168">
+        <v>130566</v>
+      </c>
+      <c r="Z168">
+        <v>65346</v>
+      </c>
+      <c r="AA168">
+        <v>44372</v>
+      </c>
+      <c r="AB168">
+        <v>37006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>639562</v>
+      </c>
+      <c r="C169">
+        <v>94478</v>
+      </c>
+      <c r="D169">
+        <v>182563</v>
+      </c>
+      <c r="E169">
+        <v>198767</v>
+      </c>
+      <c r="F169">
+        <v>127484</v>
+      </c>
+      <c r="G169">
+        <v>68935</v>
+      </c>
+      <c r="H169">
+        <v>156551</v>
+      </c>
+      <c r="I169">
+        <v>87415</v>
+      </c>
+      <c r="J169">
+        <v>91849</v>
+      </c>
+      <c r="K169">
+        <v>91819</v>
+      </c>
+      <c r="L169">
+        <v>105982</v>
+      </c>
+      <c r="M169">
+        <v>95943</v>
+      </c>
+      <c r="N169">
+        <v>56572</v>
+      </c>
+      <c r="O169">
+        <v>109522</v>
+      </c>
+      <c r="P169">
+        <v>108105</v>
+      </c>
+      <c r="Q169">
+        <v>33509</v>
+      </c>
+      <c r="R169">
+        <v>65455</v>
+      </c>
+      <c r="S169">
+        <v>191540</v>
+      </c>
+      <c r="T169">
+        <v>21757</v>
+      </c>
+      <c r="U169">
+        <v>171878</v>
+      </c>
+      <c r="V169">
+        <v>33766</v>
+      </c>
+      <c r="W169">
+        <v>62465</v>
+      </c>
+      <c r="X169">
+        <v>38636</v>
+      </c>
+      <c r="Y169">
+        <v>132060</v>
+      </c>
+      <c r="Z169">
+        <v>67144</v>
+      </c>
+      <c r="AA169">
+        <v>45468</v>
+      </c>
+      <c r="AB169">
+        <v>37579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>655181</v>
+      </c>
+      <c r="C170">
+        <v>95753</v>
+      </c>
+      <c r="D170">
+        <v>185610</v>
+      </c>
+      <c r="E170">
+        <v>203020</v>
+      </c>
+      <c r="F170">
+        <v>129184</v>
+      </c>
+      <c r="G170">
+        <v>69751</v>
+      </c>
+      <c r="H170">
+        <v>160485</v>
+      </c>
+      <c r="I170">
+        <v>90049</v>
+      </c>
+      <c r="J170">
+        <v>95177</v>
+      </c>
+      <c r="K170">
+        <v>92897</v>
+      </c>
+      <c r="L170">
+        <v>107375</v>
+      </c>
+      <c r="M170">
+        <v>97785</v>
+      </c>
+      <c r="N170">
+        <v>57272</v>
+      </c>
+      <c r="O170">
+        <v>112401</v>
+      </c>
+      <c r="P170">
+        <v>108920</v>
+      </c>
+      <c r="Q170">
+        <v>34559</v>
+      </c>
+      <c r="R170">
+        <v>65865</v>
+      </c>
+      <c r="S170">
+        <v>192652</v>
+      </c>
+      <c r="T170">
+        <v>21993</v>
+      </c>
+      <c r="U170">
+        <v>173625</v>
+      </c>
+      <c r="V170">
+        <v>34409</v>
+      </c>
+      <c r="W170">
+        <v>63662</v>
+      </c>
+      <c r="X170">
+        <v>38801</v>
+      </c>
+      <c r="Y170">
+        <v>133265</v>
+      </c>
+      <c r="Z170">
+        <v>69085</v>
+      </c>
+      <c r="AA170">
+        <v>46061</v>
+      </c>
+      <c r="AB170">
+        <v>38270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>674455</v>
+      </c>
+      <c r="C171">
+        <v>96949</v>
+      </c>
+      <c r="D171">
+        <v>188085</v>
+      </c>
+      <c r="E171">
+        <v>206955</v>
+      </c>
+      <c r="F171">
+        <v>131170</v>
+      </c>
+      <c r="G171">
+        <v>70629</v>
+      </c>
+      <c r="H171">
+        <v>164915</v>
+      </c>
+      <c r="I171">
+        <v>92560</v>
+      </c>
+      <c r="J171">
+        <v>98422</v>
+      </c>
+      <c r="K171">
+        <v>93794</v>
+      </c>
+      <c r="L171">
+        <v>108842</v>
+      </c>
+      <c r="M171">
+        <v>99667</v>
+      </c>
+      <c r="N171">
+        <v>57664</v>
+      </c>
+      <c r="O171">
+        <v>115032</v>
+      </c>
+      <c r="P171">
+        <v>109802</v>
+      </c>
+      <c r="Q171">
+        <v>35434</v>
+      </c>
+      <c r="R171">
+        <v>66810</v>
+      </c>
+      <c r="S171">
+        <v>195298</v>
+      </c>
+      <c r="T171">
+        <v>22242</v>
+      </c>
+      <c r="U171">
+        <v>175608</v>
+      </c>
+      <c r="V171">
+        <v>35403</v>
+      </c>
+      <c r="W171">
+        <v>64595</v>
+      </c>
+      <c r="X171">
+        <v>39015</v>
+      </c>
+      <c r="Y171">
+        <v>134193</v>
+      </c>
+      <c r="Z171">
+        <v>70708</v>
+      </c>
+      <c r="AA171">
+        <v>46676</v>
+      </c>
+      <c r="AB171">
+        <v>38897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>686122</v>
+      </c>
+      <c r="C172">
+        <v>98106</v>
+      </c>
+      <c r="D172">
+        <v>189891</v>
+      </c>
+      <c r="E172">
+        <v>210993</v>
+      </c>
+      <c r="F172">
+        <v>133166</v>
+      </c>
+      <c r="G172">
+        <v>71232</v>
+      </c>
+      <c r="H172">
+        <v>168428</v>
+      </c>
+      <c r="I172">
+        <v>95142</v>
+      </c>
+      <c r="J172">
+        <v>100897</v>
+      </c>
+      <c r="K172">
+        <v>94660</v>
+      </c>
+      <c r="L172">
+        <v>110409</v>
+      </c>
+      <c r="M172">
+        <v>101844</v>
+      </c>
+      <c r="N172">
+        <v>57860</v>
+      </c>
+      <c r="O172">
+        <v>118183</v>
+      </c>
+      <c r="P172">
+        <v>110777</v>
+      </c>
+      <c r="Q172">
+        <v>36542</v>
+      </c>
+      <c r="R172">
+        <v>67225</v>
+      </c>
+      <c r="S172">
+        <v>196667</v>
+      </c>
+      <c r="T172">
+        <v>22435</v>
+      </c>
+      <c r="U172">
+        <v>177010</v>
+      </c>
+      <c r="V172">
+        <v>36478</v>
+      </c>
+      <c r="W172">
+        <v>65638</v>
+      </c>
+      <c r="X172">
+        <v>39244</v>
+      </c>
+      <c r="Y172">
+        <v>135324</v>
+      </c>
+      <c r="Z172">
+        <v>72141</v>
+      </c>
+      <c r="AA172">
+        <v>47228</v>
+      </c>
+      <c r="AB172">
+        <v>39397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>697530</v>
+      </c>
+      <c r="C173">
+        <v>98765</v>
+      </c>
+      <c r="D173">
+        <v>190614</v>
+      </c>
+      <c r="E173">
+        <v>214379</v>
+      </c>
+      <c r="F173">
+        <v>135014</v>
+      </c>
+      <c r="G173">
+        <v>72076</v>
+      </c>
+      <c r="H173">
+        <v>171514</v>
+      </c>
+      <c r="I173">
+        <v>97445</v>
+      </c>
+      <c r="J173">
+        <v>101290</v>
+      </c>
+      <c r="K173">
+        <v>95588</v>
+      </c>
+      <c r="L173">
+        <v>111773</v>
+      </c>
+      <c r="M173">
+        <v>103771</v>
+      </c>
+      <c r="N173">
+        <v>57860</v>
+      </c>
+      <c r="O173">
+        <v>120001</v>
+      </c>
+      <c r="P173">
+        <v>111241</v>
+      </c>
+      <c r="Q173">
+        <v>36836</v>
+      </c>
+      <c r="R173">
+        <v>67701</v>
+      </c>
+      <c r="S173">
+        <v>197381</v>
+      </c>
+      <c r="T173">
+        <v>22516</v>
+      </c>
+      <c r="U173">
+        <v>177969</v>
+      </c>
+      <c r="V173">
+        <v>36989</v>
+      </c>
+      <c r="W173">
+        <v>66078</v>
+      </c>
+      <c r="X173">
+        <v>39431</v>
+      </c>
+      <c r="Y173">
+        <v>136280</v>
+      </c>
+      <c r="Z173">
+        <v>72791</v>
+      </c>
+      <c r="AA173">
+        <v>47652</v>
+      </c>
+      <c r="AB173">
+        <v>39623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>699493</v>
+      </c>
+      <c r="C174">
+        <v>99580</v>
+      </c>
+      <c r="D174">
+        <v>194279</v>
+      </c>
+      <c r="E174">
+        <v>216030</v>
+      </c>
+      <c r="F174">
+        <v>136467</v>
+      </c>
+      <c r="G174">
+        <v>72734</v>
+      </c>
+      <c r="H174">
+        <v>174402</v>
+      </c>
+      <c r="I174">
+        <v>97877</v>
+      </c>
+      <c r="J174">
+        <v>101919</v>
+      </c>
+      <c r="K174">
+        <v>96033</v>
+      </c>
+      <c r="L174">
+        <v>112958</v>
+      </c>
+      <c r="M174">
+        <v>105106</v>
+      </c>
+      <c r="N174">
+        <v>58095</v>
+      </c>
+      <c r="O174">
+        <v>120880</v>
+      </c>
+      <c r="P174">
+        <v>111912</v>
+      </c>
+      <c r="Q174">
+        <v>37425</v>
+      </c>
+      <c r="R174">
+        <v>67997</v>
+      </c>
+      <c r="S174">
+        <v>197691</v>
+      </c>
+      <c r="T174">
+        <v>22548</v>
+      </c>
+      <c r="U174">
+        <v>178375</v>
+      </c>
+      <c r="V174">
+        <v>37856</v>
+      </c>
+      <c r="W174">
+        <v>66315</v>
+      </c>
+      <c r="X174">
+        <v>39518</v>
+      </c>
+      <c r="Y174">
+        <v>136853</v>
+      </c>
+      <c r="Z174">
+        <v>73115</v>
+      </c>
+      <c r="AA174">
+        <v>47837</v>
+      </c>
+      <c r="AB174">
+        <v>39665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>702665</v>
+      </c>
+      <c r="C175">
+        <v>100859</v>
+      </c>
+      <c r="D175">
+        <v>194651</v>
+      </c>
+      <c r="E175">
+        <v>217115</v>
+      </c>
+      <c r="F175">
+        <v>138735</v>
+      </c>
+      <c r="G175">
+        <v>72938</v>
+      </c>
+      <c r="H175">
+        <v>175715</v>
+      </c>
+      <c r="I175">
+        <v>98007</v>
+      </c>
+      <c r="J175">
+        <v>104588</v>
+      </c>
+      <c r="K175">
+        <v>96223</v>
+      </c>
+      <c r="L175">
+        <v>113183</v>
+      </c>
+      <c r="M175">
+        <v>106379</v>
+      </c>
+      <c r="N175">
+        <v>58504</v>
+      </c>
+      <c r="O175">
+        <v>121666</v>
+      </c>
+      <c r="P175">
+        <v>112263</v>
+      </c>
+      <c r="Q175">
+        <v>38393</v>
+      </c>
+      <c r="R175">
+        <v>68313</v>
+      </c>
+      <c r="S175">
+        <v>198252</v>
+      </c>
+      <c r="T175">
+        <v>22605</v>
+      </c>
+      <c r="U175">
+        <v>180090</v>
+      </c>
+      <c r="V175">
+        <v>38845</v>
+      </c>
+      <c r="W175">
+        <v>67226</v>
+      </c>
+      <c r="X175">
+        <v>39703</v>
+      </c>
+      <c r="Y175">
+        <v>137408</v>
+      </c>
+      <c r="Z175">
+        <v>74770</v>
+      </c>
+      <c r="AA175">
+        <v>48232</v>
+      </c>
+      <c r="AB175">
+        <v>40183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>711530</v>
+      </c>
+      <c r="C176">
+        <v>101874</v>
+      </c>
+      <c r="D176">
+        <v>199480</v>
+      </c>
+      <c r="E176">
+        <v>221041</v>
+      </c>
+      <c r="F176">
+        <v>140170</v>
+      </c>
+      <c r="G176">
+        <v>73701</v>
+      </c>
+      <c r="H176">
+        <v>177787</v>
+      </c>
+      <c r="I176">
+        <v>101217</v>
+      </c>
+      <c r="J176">
+        <v>107910</v>
+      </c>
+      <c r="K176">
+        <v>97497</v>
+      </c>
+      <c r="L176">
+        <v>113788</v>
+      </c>
+      <c r="M176">
+        <v>108237</v>
+      </c>
+      <c r="N176">
+        <v>58864</v>
+      </c>
+      <c r="O176">
+        <v>124313</v>
+      </c>
+      <c r="P176">
+        <v>112881</v>
+      </c>
+      <c r="Q176">
+        <v>39381</v>
+      </c>
+      <c r="R176">
+        <v>68699</v>
+      </c>
+      <c r="S176">
+        <v>199828</v>
+      </c>
+      <c r="T176">
+        <v>22933</v>
+      </c>
+      <c r="U176">
+        <v>182231</v>
+      </c>
+      <c r="V176">
+        <v>39832</v>
+      </c>
+      <c r="W176">
+        <v>68475</v>
+      </c>
+      <c r="X176">
+        <v>39957</v>
+      </c>
+      <c r="Y176">
+        <v>139185</v>
+      </c>
+      <c r="Z176">
+        <v>76540</v>
+      </c>
+      <c r="AA176">
+        <v>48923</v>
+      </c>
+      <c r="AB176">
+        <v>40501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>721377</v>
+      </c>
+      <c r="C177">
+        <v>103090</v>
+      </c>
+      <c r="D177">
+        <v>202993</v>
+      </c>
+      <c r="E177">
+        <v>224659</v>
+      </c>
+      <c r="F177">
+        <v>141762</v>
+      </c>
+      <c r="G177">
+        <v>74140</v>
+      </c>
+      <c r="H177">
+        <v>181158</v>
+      </c>
+      <c r="I177">
+        <v>103891</v>
+      </c>
+      <c r="J177">
+        <v>110704</v>
+      </c>
+      <c r="K177">
+        <v>98494</v>
+      </c>
+      <c r="L177">
+        <v>115217</v>
+      </c>
+      <c r="M177">
+        <v>109896</v>
+      </c>
+      <c r="N177">
+        <v>59335</v>
+      </c>
+      <c r="O177">
+        <v>126850</v>
+      </c>
+      <c r="P177">
+        <v>113592</v>
+      </c>
+      <c r="Q177">
+        <v>40201</v>
+      </c>
+      <c r="R177">
+        <v>69067</v>
+      </c>
+      <c r="S177">
+        <v>201201</v>
+      </c>
+      <c r="T177">
+        <v>23146</v>
+      </c>
+      <c r="U177">
+        <v>184253</v>
+      </c>
+      <c r="V177">
+        <v>40786</v>
+      </c>
+      <c r="W177">
+        <v>69839</v>
+      </c>
+      <c r="X177">
+        <v>40211</v>
+      </c>
+      <c r="Y177">
+        <v>140571</v>
+      </c>
+      <c r="Z177">
+        <v>78235</v>
+      </c>
+      <c r="AA177">
+        <v>49721</v>
+      </c>
+      <c r="AB177">
+        <v>40989</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>730828</v>
+      </c>
+      <c r="C178">
+        <v>104169</v>
+      </c>
+      <c r="D178">
+        <v>205916</v>
+      </c>
+      <c r="E178">
+        <v>228596</v>
+      </c>
+      <c r="F178">
+        <v>143759</v>
+      </c>
+      <c r="G178">
+        <v>74622</v>
+      </c>
+      <c r="H178">
+        <v>185062</v>
+      </c>
+      <c r="I178">
+        <v>104068</v>
+      </c>
+      <c r="J178">
+        <v>111985</v>
+      </c>
+      <c r="K178">
+        <v>99445</v>
+      </c>
+      <c r="L178">
+        <v>116359</v>
+      </c>
+      <c r="M178">
+        <v>112245</v>
+      </c>
+      <c r="N178">
+        <v>59335</v>
+      </c>
+      <c r="O178">
+        <v>129072</v>
+      </c>
+      <c r="P178">
+        <v>114335</v>
+      </c>
+      <c r="Q178">
+        <v>40201</v>
+      </c>
+      <c r="R178">
+        <v>69502</v>
+      </c>
+      <c r="S178">
+        <v>202422</v>
+      </c>
+      <c r="T178">
+        <v>23322</v>
+      </c>
+      <c r="U178">
+        <v>186646</v>
+      </c>
+      <c r="V178">
+        <v>40786</v>
+      </c>
+      <c r="W178">
+        <v>70536</v>
+      </c>
+      <c r="X178">
+        <v>40603</v>
+      </c>
+      <c r="Y178">
+        <v>141860</v>
+      </c>
+      <c r="Z178">
+        <v>79715</v>
+      </c>
+      <c r="AA178">
+        <v>50147</v>
+      </c>
+      <c r="AB178">
+        <v>40989</v>
       </c>
     </row>
   </sheetData>
@@ -13856,7 +14924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24356,7 +25424,7 @@
         <v>2426</v>
       </c>
       <c r="Z138">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="AA138">
         <v>617</v>
@@ -24614,7 +25682,7 @@
         <v>2536</v>
       </c>
       <c r="Z141">
-        <v>1105</v>
+        <v>1157</v>
       </c>
       <c r="AA141">
         <v>663</v>
@@ -24700,7 +25768,7 @@
         <v>2572</v>
       </c>
       <c r="Z142">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AA142">
         <v>667</v>
@@ -26639,7 +27707,7 @@
         <v>6867</v>
       </c>
       <c r="M165">
-        <v>2270</v>
+        <v>2345</v>
       </c>
       <c r="N165">
         <v>1976</v>
@@ -26725,7 +27793,7 @@
         <v>6920</v>
       </c>
       <c r="M166">
-        <v>2270</v>
+        <v>2319</v>
       </c>
       <c r="N166">
         <v>1976</v>
@@ -26737,7 +27805,7 @@
         <v>3355</v>
       </c>
       <c r="Q166">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="R166">
         <v>1577</v>
@@ -26752,7 +27820,7 @@
         <v>5885</v>
       </c>
       <c r="V166">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="W166">
         <v>1480</v>
@@ -26771,6 +27839,1038 @@
       </c>
       <c r="AB166">
         <v>547</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>25114</v>
+      </c>
+      <c r="C167">
+        <v>2735</v>
+      </c>
+      <c r="D167">
+        <v>14080</v>
+      </c>
+      <c r="E167">
+        <v>3953</v>
+      </c>
+      <c r="F167">
+        <v>1731</v>
+      </c>
+      <c r="G167">
+        <v>1677</v>
+      </c>
+      <c r="H167">
+        <v>3537</v>
+      </c>
+      <c r="I167">
+        <v>2360</v>
+      </c>
+      <c r="J167">
+        <v>2020</v>
+      </c>
+      <c r="K167">
+        <v>2000</v>
+      </c>
+      <c r="L167">
+        <v>6970</v>
+      </c>
+      <c r="M167">
+        <v>2345</v>
+      </c>
+      <c r="N167">
+        <v>1983</v>
+      </c>
+      <c r="O167">
+        <v>1445</v>
+      </c>
+      <c r="P167">
+        <v>3359</v>
+      </c>
+      <c r="Q167">
+        <v>523</v>
+      </c>
+      <c r="R167">
+        <v>1589</v>
+      </c>
+      <c r="S167">
+        <v>7979</v>
+      </c>
+      <c r="T167">
+        <v>561</v>
+      </c>
+      <c r="U167">
+        <v>5893</v>
+      </c>
+      <c r="V167">
+        <v>461</v>
+      </c>
+      <c r="W167">
+        <v>1503</v>
+      </c>
+      <c r="X167">
+        <v>602</v>
+      </c>
+      <c r="Y167">
+        <v>3169</v>
+      </c>
+      <c r="Z167">
+        <v>2147</v>
+      </c>
+      <c r="AA167">
+        <v>943</v>
+      </c>
+      <c r="AB167">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>25151</v>
+      </c>
+      <c r="C168">
+        <v>2764</v>
+      </c>
+      <c r="D168">
+        <v>14108</v>
+      </c>
+      <c r="E168">
+        <v>4011</v>
+      </c>
+      <c r="F168">
+        <v>1762</v>
+      </c>
+      <c r="G168">
+        <v>1688</v>
+      </c>
+      <c r="H168">
+        <v>3597</v>
+      </c>
+      <c r="I168">
+        <v>2417</v>
+      </c>
+      <c r="J168">
+        <v>2072</v>
+      </c>
+      <c r="K168">
+        <v>2023</v>
+      </c>
+      <c r="L168">
+        <v>6970</v>
+      </c>
+      <c r="M168">
+        <v>2398</v>
+      </c>
+      <c r="N168">
+        <v>2019</v>
+      </c>
+      <c r="O168">
+        <v>1541</v>
+      </c>
+      <c r="P168">
+        <v>3384</v>
+      </c>
+      <c r="Q168">
+        <v>544</v>
+      </c>
+      <c r="R168">
+        <v>1614</v>
+      </c>
+      <c r="S168">
+        <v>7994</v>
+      </c>
+      <c r="T168">
+        <v>562</v>
+      </c>
+      <c r="U168">
+        <v>5901</v>
+      </c>
+      <c r="V168">
+        <v>474</v>
+      </c>
+      <c r="W168">
+        <v>1526</v>
+      </c>
+      <c r="X168">
+        <v>603</v>
+      </c>
+      <c r="Y168">
+        <v>3187</v>
+      </c>
+      <c r="Z168">
+        <v>2204</v>
+      </c>
+      <c r="AA168">
+        <v>944</v>
+      </c>
+      <c r="AB168">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>25571</v>
+      </c>
+      <c r="C169">
+        <v>2783</v>
+      </c>
+      <c r="D169">
+        <v>14212</v>
+      </c>
+      <c r="E169">
+        <v>4067</v>
+      </c>
+      <c r="F169">
+        <v>1815</v>
+      </c>
+      <c r="G169">
+        <v>1700</v>
+      </c>
+      <c r="H169">
+        <v>3613</v>
+      </c>
+      <c r="I169">
+        <v>2472</v>
+      </c>
+      <c r="J169">
+        <v>2122</v>
+      </c>
+      <c r="K169">
+        <v>2046</v>
+      </c>
+      <c r="L169">
+        <v>7008</v>
+      </c>
+      <c r="M169">
+        <v>2445</v>
+      </c>
+      <c r="N169">
+        <v>2019</v>
+      </c>
+      <c r="O169">
+        <v>1619</v>
+      </c>
+      <c r="P169">
+        <v>3405</v>
+      </c>
+      <c r="Q169">
+        <v>558</v>
+      </c>
+      <c r="R169">
+        <v>1633</v>
+      </c>
+      <c r="S169">
+        <v>8043</v>
+      </c>
+      <c r="T169">
+        <v>565</v>
+      </c>
+      <c r="U169">
+        <v>5909</v>
+      </c>
+      <c r="V169">
+        <v>482</v>
+      </c>
+      <c r="W169">
+        <v>1548</v>
+      </c>
+      <c r="X169">
+        <v>604</v>
+      </c>
+      <c r="Y169">
+        <v>3204</v>
+      </c>
+      <c r="Z169">
+        <v>2239</v>
+      </c>
+      <c r="AA169">
+        <v>966</v>
+      </c>
+      <c r="AB169">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>25869</v>
+      </c>
+      <c r="C170">
+        <v>2804</v>
+      </c>
+      <c r="D170">
+        <v>14295</v>
+      </c>
+      <c r="E170">
+        <v>4104</v>
+      </c>
+      <c r="F170">
+        <v>1870</v>
+      </c>
+      <c r="G170">
+        <v>1711</v>
+      </c>
+      <c r="H170">
+        <v>3783</v>
+      </c>
+      <c r="I170">
+        <v>2540</v>
+      </c>
+      <c r="J170">
+        <v>2182</v>
+      </c>
+      <c r="K170">
+        <v>2071</v>
+      </c>
+      <c r="L170">
+        <v>7049</v>
+      </c>
+      <c r="M170">
+        <v>2516</v>
+      </c>
+      <c r="N170">
+        <v>2042</v>
+      </c>
+      <c r="O170">
+        <v>1637</v>
+      </c>
+      <c r="P170">
+        <v>3417</v>
+      </c>
+      <c r="Q170">
+        <v>570</v>
+      </c>
+      <c r="R170">
+        <v>1653</v>
+      </c>
+      <c r="S170">
+        <v>8076</v>
+      </c>
+      <c r="T170">
+        <v>569</v>
+      </c>
+      <c r="U170">
+        <v>5917</v>
+      </c>
+      <c r="V170">
+        <v>493</v>
+      </c>
+      <c r="W170">
+        <v>1566</v>
+      </c>
+      <c r="X170">
+        <v>606</v>
+      </c>
+      <c r="Y170">
+        <v>3215</v>
+      </c>
+      <c r="Z170">
+        <v>2264</v>
+      </c>
+      <c r="AA170">
+        <v>981</v>
+      </c>
+      <c r="AB170">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>26324</v>
+      </c>
+      <c r="C171">
+        <v>2823</v>
+      </c>
+      <c r="D171">
+        <v>14412</v>
+      </c>
+      <c r="E171">
+        <v>4202</v>
+      </c>
+      <c r="F171">
+        <v>1905</v>
+      </c>
+      <c r="G171">
+        <v>1721</v>
+      </c>
+      <c r="H171">
+        <v>3846</v>
+      </c>
+      <c r="I171">
+        <v>2584</v>
+      </c>
+      <c r="J171">
+        <v>2238</v>
+      </c>
+      <c r="K171">
+        <v>2092</v>
+      </c>
+      <c r="L171">
+        <v>7084</v>
+      </c>
+      <c r="M171">
+        <v>2576</v>
+      </c>
+      <c r="N171">
+        <v>2047</v>
+      </c>
+      <c r="O171">
+        <v>1696</v>
+      </c>
+      <c r="P171">
+        <v>3435</v>
+      </c>
+      <c r="Q171">
+        <v>591</v>
+      </c>
+      <c r="R171">
+        <v>1670</v>
+      </c>
+      <c r="S171">
+        <v>8113</v>
+      </c>
+      <c r="T171">
+        <v>574</v>
+      </c>
+      <c r="U171">
+        <v>5924</v>
+      </c>
+      <c r="V171">
+        <v>500</v>
+      </c>
+      <c r="W171">
+        <v>1581</v>
+      </c>
+      <c r="X171">
+        <v>609</v>
+      </c>
+      <c r="Y171">
+        <v>3228</v>
+      </c>
+      <c r="Z171">
+        <v>2302</v>
+      </c>
+      <c r="AA171">
+        <v>993</v>
+      </c>
+      <c r="AB171">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>26613</v>
+      </c>
+      <c r="C172">
+        <v>2849</v>
+      </c>
+      <c r="D172">
+        <v>14507</v>
+      </c>
+      <c r="E172">
+        <v>4271</v>
+      </c>
+      <c r="F172">
+        <v>1935</v>
+      </c>
+      <c r="G172">
+        <v>1732</v>
+      </c>
+      <c r="H172">
+        <v>3943</v>
+      </c>
+      <c r="I172">
+        <v>2631</v>
+      </c>
+      <c r="J172">
+        <v>2286</v>
+      </c>
+      <c r="K172">
+        <v>2113</v>
+      </c>
+      <c r="L172">
+        <v>7111</v>
+      </c>
+      <c r="M172">
+        <v>2612</v>
+      </c>
+      <c r="N172">
+        <v>2068</v>
+      </c>
+      <c r="O172">
+        <v>1742</v>
+      </c>
+      <c r="P172">
+        <v>3455</v>
+      </c>
+      <c r="Q172">
+        <v>598</v>
+      </c>
+      <c r="R172">
+        <v>1684</v>
+      </c>
+      <c r="S172">
+        <v>8127</v>
+      </c>
+      <c r="T172">
+        <v>576</v>
+      </c>
+      <c r="U172">
+        <v>5932</v>
+      </c>
+      <c r="V172">
+        <v>506</v>
+      </c>
+      <c r="W172">
+        <v>1594</v>
+      </c>
+      <c r="X172">
+        <v>612</v>
+      </c>
+      <c r="Y172">
+        <v>3240</v>
+      </c>
+      <c r="Z172">
+        <v>2336</v>
+      </c>
+      <c r="AA172">
+        <v>1001</v>
+      </c>
+      <c r="AB172">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>26780</v>
+      </c>
+      <c r="C173">
+        <v>2863</v>
+      </c>
+      <c r="D173">
+        <v>14526</v>
+      </c>
+      <c r="E173">
+        <v>4338</v>
+      </c>
+      <c r="F173">
+        <v>1958</v>
+      </c>
+      <c r="G173">
+        <v>1742</v>
+      </c>
+      <c r="H173">
+        <v>4044</v>
+      </c>
+      <c r="I173">
+        <v>2647</v>
+      </c>
+      <c r="J173">
+        <v>2314</v>
+      </c>
+      <c r="K173">
+        <v>2138</v>
+      </c>
+      <c r="L173">
+        <v>7156</v>
+      </c>
+      <c r="M173">
+        <v>2665</v>
+      </c>
+      <c r="N173">
+        <v>2068</v>
+      </c>
+      <c r="O173">
+        <v>1767</v>
+      </c>
+      <c r="P173">
+        <v>3463</v>
+      </c>
+      <c r="Q173">
+        <v>626</v>
+      </c>
+      <c r="R173">
+        <v>1696</v>
+      </c>
+      <c r="S173">
+        <v>8129</v>
+      </c>
+      <c r="T173">
+        <v>576</v>
+      </c>
+      <c r="U173">
+        <v>5940</v>
+      </c>
+      <c r="V173">
+        <v>511</v>
+      </c>
+      <c r="W173">
+        <v>1608</v>
+      </c>
+      <c r="X173">
+        <v>613</v>
+      </c>
+      <c r="Y173">
+        <v>3253</v>
+      </c>
+      <c r="Z173">
+        <v>2363</v>
+      </c>
+      <c r="AA173">
+        <v>1012</v>
+      </c>
+      <c r="AB173">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>26852</v>
+      </c>
+      <c r="C174">
+        <v>2874</v>
+      </c>
+      <c r="D174">
+        <v>14562</v>
+      </c>
+      <c r="E174">
+        <v>4406</v>
+      </c>
+      <c r="F174">
+        <v>1976</v>
+      </c>
+      <c r="G174">
+        <v>1753</v>
+      </c>
+      <c r="H174">
+        <v>4132</v>
+      </c>
+      <c r="I174">
+        <v>2689</v>
+      </c>
+      <c r="J174">
+        <v>2330</v>
+      </c>
+      <c r="K174">
+        <v>2162</v>
+      </c>
+      <c r="L174">
+        <v>7188</v>
+      </c>
+      <c r="M174">
+        <v>2691</v>
+      </c>
+      <c r="N174">
+        <v>2087</v>
+      </c>
+      <c r="O174">
+        <v>1797</v>
+      </c>
+      <c r="P174">
+        <v>3483</v>
+      </c>
+      <c r="Q174">
+        <v>640</v>
+      </c>
+      <c r="R174">
+        <v>1705</v>
+      </c>
+      <c r="S174">
+        <v>8133</v>
+      </c>
+      <c r="T174">
+        <v>576</v>
+      </c>
+      <c r="U174">
+        <v>5945</v>
+      </c>
+      <c r="V174">
+        <v>516</v>
+      </c>
+      <c r="W174">
+        <v>1619</v>
+      </c>
+      <c r="X174">
+        <v>613</v>
+      </c>
+      <c r="Y174">
+        <v>3264</v>
+      </c>
+      <c r="Z174">
+        <v>2377</v>
+      </c>
+      <c r="AA174">
+        <v>1013</v>
+      </c>
+      <c r="AB174">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>26899</v>
+      </c>
+      <c r="C175">
+        <v>2907</v>
+      </c>
+      <c r="D175">
+        <v>14566</v>
+      </c>
+      <c r="E175">
+        <v>4475</v>
+      </c>
+      <c r="F175">
+        <v>2042</v>
+      </c>
+      <c r="G175">
+        <v>1763</v>
+      </c>
+      <c r="H175">
+        <v>4223</v>
+      </c>
+      <c r="I175">
+        <v>2744</v>
+      </c>
+      <c r="J175">
+        <v>2378</v>
+      </c>
+      <c r="K175">
+        <v>2183</v>
+      </c>
+      <c r="L175">
+        <v>7210</v>
+      </c>
+      <c r="M175">
+        <v>2733</v>
+      </c>
+      <c r="N175">
+        <v>2108</v>
+      </c>
+      <c r="O175">
+        <v>1839</v>
+      </c>
+      <c r="P175">
+        <v>3505</v>
+      </c>
+      <c r="Q175">
+        <v>657</v>
+      </c>
+      <c r="R175">
+        <v>1717</v>
+      </c>
+      <c r="S175">
+        <v>8172</v>
+      </c>
+      <c r="T175">
+        <v>582</v>
+      </c>
+      <c r="U175">
+        <v>5975</v>
+      </c>
+      <c r="V175">
+        <v>531</v>
+      </c>
+      <c r="W175">
+        <v>1637</v>
+      </c>
+      <c r="X175">
+        <v>617</v>
+      </c>
+      <c r="Y175">
+        <v>3277</v>
+      </c>
+      <c r="Z175">
+        <v>2416</v>
+      </c>
+      <c r="AA175">
+        <v>1017</v>
+      </c>
+      <c r="AB175">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>27315</v>
+      </c>
+      <c r="C176">
+        <v>2937</v>
+      </c>
+      <c r="D176">
+        <v>14728</v>
+      </c>
+      <c r="E176">
+        <v>4542</v>
+      </c>
+      <c r="F176">
+        <v>2097</v>
+      </c>
+      <c r="G176">
+        <v>1774</v>
+      </c>
+      <c r="H176">
+        <v>4306</v>
+      </c>
+      <c r="I176">
+        <v>2822</v>
+      </c>
+      <c r="J176">
+        <v>2464</v>
+      </c>
+      <c r="K176">
+        <v>2203</v>
+      </c>
+      <c r="L176">
+        <v>7252</v>
+      </c>
+      <c r="M176">
+        <v>2781</v>
+      </c>
+      <c r="N176">
+        <v>2132</v>
+      </c>
+      <c r="O176">
+        <v>1883</v>
+      </c>
+      <c r="P176">
+        <v>3524</v>
+      </c>
+      <c r="Q176">
+        <v>668</v>
+      </c>
+      <c r="R176">
+        <v>1729</v>
+      </c>
+      <c r="S176">
+        <v>8202</v>
+      </c>
+      <c r="T176">
+        <v>590</v>
+      </c>
+      <c r="U176">
+        <v>6015</v>
+      </c>
+      <c r="V176">
+        <v>536</v>
+      </c>
+      <c r="W176">
+        <v>1653</v>
+      </c>
+      <c r="X176">
+        <v>619</v>
+      </c>
+      <c r="Y176">
+        <v>3289</v>
+      </c>
+      <c r="Z176">
+        <v>2437</v>
+      </c>
+      <c r="AA176">
+        <v>1026</v>
+      </c>
+      <c r="AB176">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>27591</v>
+      </c>
+      <c r="C177">
+        <v>2963</v>
+      </c>
+      <c r="D177">
+        <v>14913</v>
+      </c>
+      <c r="E177">
+        <v>4611</v>
+      </c>
+      <c r="F177">
+        <v>2148</v>
+      </c>
+      <c r="G177">
+        <v>1784</v>
+      </c>
+      <c r="H177">
+        <v>4436</v>
+      </c>
+      <c r="I177">
+        <v>2881</v>
+      </c>
+      <c r="J177">
+        <v>2516</v>
+      </c>
+      <c r="K177">
+        <v>2223</v>
+      </c>
+      <c r="L177">
+        <v>7280</v>
+      </c>
+      <c r="M177">
+        <v>2808</v>
+      </c>
+      <c r="N177">
+        <v>2139</v>
+      </c>
+      <c r="O177">
+        <v>1918</v>
+      </c>
+      <c r="P177">
+        <v>3537</v>
+      </c>
+      <c r="Q177">
+        <v>686</v>
+      </c>
+      <c r="R177">
+        <v>1745</v>
+      </c>
+      <c r="S177">
+        <v>8241</v>
+      </c>
+      <c r="T177">
+        <v>591</v>
+      </c>
+      <c r="U177">
+        <v>6027</v>
+      </c>
+      <c r="V177">
+        <v>547</v>
+      </c>
+      <c r="W177">
+        <v>1660</v>
+      </c>
+      <c r="X177">
+        <v>622</v>
+      </c>
+      <c r="Y177">
+        <v>3302</v>
+      </c>
+      <c r="Z177">
+        <v>2481</v>
+      </c>
+      <c r="AA177">
+        <v>1037</v>
+      </c>
+      <c r="AB177">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>27905</v>
+      </c>
+      <c r="C178">
+        <v>2979</v>
+      </c>
+      <c r="D178">
+        <v>15074</v>
+      </c>
+      <c r="E178">
+        <v>4685</v>
+      </c>
+      <c r="F178">
+        <v>2200</v>
+      </c>
+      <c r="G178">
+        <v>1793</v>
+      </c>
+      <c r="H178">
+        <v>4543</v>
+      </c>
+      <c r="I178">
+        <v>2948</v>
+      </c>
+      <c r="J178">
+        <v>2625</v>
+      </c>
+      <c r="K178">
+        <v>2244</v>
+      </c>
+      <c r="L178">
+        <v>7303</v>
+      </c>
+      <c r="M178">
+        <v>2891</v>
+      </c>
+      <c r="N178">
+        <v>2139</v>
+      </c>
+      <c r="O178">
+        <v>1960</v>
+      </c>
+      <c r="P178">
+        <v>3551</v>
+      </c>
+      <c r="Q178">
+        <v>686</v>
+      </c>
+      <c r="R178">
+        <v>1757</v>
+      </c>
+      <c r="S178">
+        <v>8245</v>
+      </c>
+      <c r="T178">
+        <v>595</v>
+      </c>
+      <c r="U178">
+        <v>6037</v>
+      </c>
+      <c r="V178">
+        <v>547</v>
+      </c>
+      <c r="W178">
+        <v>1672</v>
+      </c>
+      <c r="X178">
+        <v>626</v>
+      </c>
+      <c r="Y178">
+        <v>3315</v>
+      </c>
+      <c r="Z178">
+        <v>2518</v>
+      </c>
+      <c r="AA178">
+        <v>1045</v>
+      </c>
+      <c r="AB178">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -26788,15 +28888,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -26804,7 +28904,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -26812,7 +28912,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -26820,7 +28920,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -26828,7 +28928,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -26836,7 +28936,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -26844,7 +28944,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -26852,7 +28952,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -26860,7 +28960,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -26868,7 +28968,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -26876,7 +28976,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -26884,7 +28984,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -26892,7 +28992,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -26900,7 +29000,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -26908,7 +29008,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -26916,7 +29016,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -26924,7 +29024,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -26932,7 +29032,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -26940,7 +29040,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -26948,7 +29048,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -26956,7 +29056,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -26964,7 +29064,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -26972,7 +29072,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -26980,7 +29080,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -26988,7 +29088,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -26996,7 +29096,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -27004,7 +29104,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="212">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -552,6 +552,21 @@
     <t>2020-08-20</t>
   </si>
   <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -968,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB178"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14098,7 +14113,7 @@
         <v>95943</v>
       </c>
       <c r="N169">
-        <v>56572</v>
+        <v>56770</v>
       </c>
       <c r="O169">
         <v>109522</v>
@@ -14395,7 +14410,7 @@
         <v>72141</v>
       </c>
       <c r="AA172">
-        <v>47228</v>
+        <v>47288</v>
       </c>
       <c r="AB172">
         <v>39397</v>
@@ -14872,7 +14887,7 @@
         <v>112245</v>
       </c>
       <c r="N178">
-        <v>59335</v>
+        <v>59388</v>
       </c>
       <c r="O178">
         <v>129072</v>
@@ -14881,7 +14896,7 @@
         <v>114335</v>
       </c>
       <c r="Q178">
-        <v>40201</v>
+        <v>40711</v>
       </c>
       <c r="R178">
         <v>69502</v>
@@ -14896,7 +14911,7 @@
         <v>186646</v>
       </c>
       <c r="V178">
-        <v>40786</v>
+        <v>41848</v>
       </c>
       <c r="W178">
         <v>70536</v>
@@ -14914,7 +14929,437 @@
         <v>50147</v>
       </c>
       <c r="AB178">
-        <v>40989</v>
+        <v>41191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>735960</v>
+      </c>
+      <c r="C179">
+        <v>104988</v>
+      </c>
+      <c r="D179">
+        <v>207036</v>
+      </c>
+      <c r="E179">
+        <v>229743</v>
+      </c>
+      <c r="F179">
+        <v>145452</v>
+      </c>
+      <c r="G179">
+        <v>74839</v>
+      </c>
+      <c r="H179">
+        <v>188623</v>
+      </c>
+      <c r="I179">
+        <v>104335</v>
+      </c>
+      <c r="J179">
+        <v>114705</v>
+      </c>
+      <c r="K179">
+        <v>100290</v>
+      </c>
+      <c r="L179">
+        <v>117431</v>
+      </c>
+      <c r="M179">
+        <v>114588</v>
+      </c>
+      <c r="N179">
+        <v>59590</v>
+      </c>
+      <c r="O179">
+        <v>130349</v>
+      </c>
+      <c r="P179">
+        <v>114792</v>
+      </c>
+      <c r="Q179">
+        <v>41888</v>
+      </c>
+      <c r="R179">
+        <v>69845</v>
+      </c>
+      <c r="S179">
+        <v>202999</v>
+      </c>
+      <c r="T179">
+        <v>23337</v>
+      </c>
+      <c r="U179">
+        <v>188644</v>
+      </c>
+      <c r="V179">
+        <v>42839</v>
+      </c>
+      <c r="W179">
+        <v>71510</v>
+      </c>
+      <c r="X179">
+        <v>40875</v>
+      </c>
+      <c r="Y179">
+        <v>143103</v>
+      </c>
+      <c r="Z179">
+        <v>80876</v>
+      </c>
+      <c r="AA179">
+        <v>50514</v>
+      </c>
+      <c r="AB179">
+        <v>41527</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>749244</v>
+      </c>
+      <c r="C180">
+        <v>105633</v>
+      </c>
+      <c r="D180">
+        <v>210464</v>
+      </c>
+      <c r="E180">
+        <v>234204</v>
+      </c>
+      <c r="F180">
+        <v>147127</v>
+      </c>
+      <c r="G180">
+        <v>75470</v>
+      </c>
+      <c r="H180">
+        <v>191507</v>
+      </c>
+      <c r="I180">
+        <v>108839</v>
+      </c>
+      <c r="J180">
+        <v>116058</v>
+      </c>
+      <c r="K180">
+        <v>100970</v>
+      </c>
+      <c r="L180">
+        <v>118027</v>
+      </c>
+      <c r="M180">
+        <v>116848</v>
+      </c>
+      <c r="N180">
+        <v>59590</v>
+      </c>
+      <c r="O180">
+        <v>132008</v>
+      </c>
+      <c r="P180">
+        <v>115369</v>
+      </c>
+      <c r="Q180">
+        <v>42498</v>
+      </c>
+      <c r="R180">
+        <v>70252</v>
+      </c>
+      <c r="S180">
+        <v>204931</v>
+      </c>
+      <c r="T180">
+        <v>23665</v>
+      </c>
+      <c r="U180">
+        <v>189289</v>
+      </c>
+      <c r="V180">
+        <v>43596</v>
+      </c>
+      <c r="W180">
+        <v>71899</v>
+      </c>
+      <c r="X180">
+        <v>41031</v>
+      </c>
+      <c r="Y180">
+        <v>143873</v>
+      </c>
+      <c r="Z180">
+        <v>81469</v>
+      </c>
+      <c r="AA180">
+        <v>50995</v>
+      </c>
+      <c r="AB180">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>754129</v>
+      </c>
+      <c r="C181">
+        <v>105888</v>
+      </c>
+      <c r="D181">
+        <v>210948</v>
+      </c>
+      <c r="E181">
+        <v>236050</v>
+      </c>
+      <c r="F181">
+        <v>148998</v>
+      </c>
+      <c r="G181">
+        <v>75857</v>
+      </c>
+      <c r="H181">
+        <v>194614</v>
+      </c>
+      <c r="I181">
+        <v>109873</v>
+      </c>
+      <c r="J181">
+        <v>116664</v>
+      </c>
+      <c r="K181">
+        <v>101132</v>
+      </c>
+      <c r="L181">
+        <v>119140</v>
+      </c>
+      <c r="M181">
+        <v>117959</v>
+      </c>
+      <c r="N181">
+        <v>59846</v>
+      </c>
+      <c r="O181">
+        <v>132492</v>
+      </c>
+      <c r="P181">
+        <v>115615</v>
+      </c>
+      <c r="Q181">
+        <v>43065</v>
+      </c>
+      <c r="R181">
+        <v>70472</v>
+      </c>
+      <c r="S181">
+        <v>205441</v>
+      </c>
+      <c r="T181">
+        <v>23719</v>
+      </c>
+      <c r="U181">
+        <v>189582</v>
+      </c>
+      <c r="V181">
+        <v>44273</v>
+      </c>
+      <c r="W181">
+        <v>72165</v>
+      </c>
+      <c r="X181">
+        <v>41120</v>
+      </c>
+      <c r="Y181">
+        <v>144400</v>
+      </c>
+      <c r="Z181">
+        <v>81822</v>
+      </c>
+      <c r="AA181">
+        <v>51421</v>
+      </c>
+      <c r="AB181">
+        <v>41770</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>756480</v>
+      </c>
+      <c r="C182">
+        <v>106494</v>
+      </c>
+      <c r="D182">
+        <v>211360</v>
+      </c>
+      <c r="E182">
+        <v>237208</v>
+      </c>
+      <c r="F182">
+        <v>150519</v>
+      </c>
+      <c r="G182">
+        <v>76495</v>
+      </c>
+      <c r="H182">
+        <v>195920</v>
+      </c>
+      <c r="I182">
+        <v>109953</v>
+      </c>
+      <c r="J182">
+        <v>120223</v>
+      </c>
+      <c r="K182">
+        <v>101303</v>
+      </c>
+      <c r="L182">
+        <v>119357</v>
+      </c>
+      <c r="M182">
+        <v>119004</v>
+      </c>
+      <c r="N182">
+        <v>60358</v>
+      </c>
+      <c r="O182">
+        <v>133533</v>
+      </c>
+      <c r="P182">
+        <v>115792</v>
+      </c>
+      <c r="Q182">
+        <v>44324</v>
+      </c>
+      <c r="R182">
+        <v>70606</v>
+      </c>
+      <c r="S182">
+        <v>205875</v>
+      </c>
+      <c r="T182">
+        <v>23729</v>
+      </c>
+      <c r="U182">
+        <v>191609</v>
+      </c>
+      <c r="V182">
+        <v>45400</v>
+      </c>
+      <c r="W182">
+        <v>72956</v>
+      </c>
+      <c r="X182">
+        <v>41254</v>
+      </c>
+      <c r="Y182">
+        <v>144895</v>
+      </c>
+      <c r="Z182">
+        <v>83490</v>
+      </c>
+      <c r="AA182">
+        <v>51791</v>
+      </c>
+      <c r="AB182">
+        <v>42044</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>765670</v>
+      </c>
+      <c r="C183">
+        <v>107191</v>
+      </c>
+      <c r="D183">
+        <v>214003</v>
+      </c>
+      <c r="E183">
+        <v>240939</v>
+      </c>
+      <c r="F183">
+        <v>153690</v>
+      </c>
+      <c r="G183">
+        <v>76894</v>
+      </c>
+      <c r="H183">
+        <v>198736</v>
+      </c>
+      <c r="I183">
+        <v>112763</v>
+      </c>
+      <c r="J183">
+        <v>123306</v>
+      </c>
+      <c r="K183">
+        <v>102208</v>
+      </c>
+      <c r="L183">
+        <v>119958</v>
+      </c>
+      <c r="M183">
+        <v>120537</v>
+      </c>
+      <c r="N183">
+        <v>60358</v>
+      </c>
+      <c r="O183">
+        <v>135690</v>
+      </c>
+      <c r="P183">
+        <v>116579</v>
+      </c>
+      <c r="Q183">
+        <v>44324</v>
+      </c>
+      <c r="R183">
+        <v>70926</v>
+      </c>
+      <c r="S183">
+        <v>207631</v>
+      </c>
+      <c r="T183">
+        <v>23936</v>
+      </c>
+      <c r="U183">
+        <v>193564</v>
+      </c>
+      <c r="V183">
+        <v>45400</v>
+      </c>
+      <c r="W183">
+        <v>74096</v>
+      </c>
+      <c r="X183">
+        <v>41553</v>
+      </c>
+      <c r="Y183">
+        <v>145921</v>
+      </c>
+      <c r="Z183">
+        <v>85253</v>
+      </c>
+      <c r="AA183">
+        <v>52514</v>
+      </c>
+      <c r="AB183">
+        <v>42044</v>
       </c>
     </row>
   </sheetData>
@@ -14924,7 +15369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB178"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28054,7 +28499,7 @@
         <v>2445</v>
       </c>
       <c r="N169">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O169">
         <v>1619</v>
@@ -28828,7 +29273,7 @@
         <v>2891</v>
       </c>
       <c r="N178">
-        <v>2139</v>
+        <v>2160</v>
       </c>
       <c r="O178">
         <v>1960</v>
@@ -28837,7 +29282,7 @@
         <v>3551</v>
       </c>
       <c r="Q178">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="R178">
         <v>1757</v>
@@ -28852,7 +29297,7 @@
         <v>6037</v>
       </c>
       <c r="V178">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="W178">
         <v>1672</v>
@@ -28871,6 +29316,436 @@
       </c>
       <c r="AB178">
         <v>576</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>28155</v>
+      </c>
+      <c r="C179">
+        <v>3002</v>
+      </c>
+      <c r="D179">
+        <v>15202</v>
+      </c>
+      <c r="E179">
+        <v>4757</v>
+      </c>
+      <c r="F179">
+        <v>2242</v>
+      </c>
+      <c r="G179">
+        <v>1802</v>
+      </c>
+      <c r="H179">
+        <v>4663</v>
+      </c>
+      <c r="I179">
+        <v>2993</v>
+      </c>
+      <c r="J179">
+        <v>2688</v>
+      </c>
+      <c r="K179">
+        <v>2268</v>
+      </c>
+      <c r="L179">
+        <v>7335</v>
+      </c>
+      <c r="M179">
+        <v>2928</v>
+      </c>
+      <c r="N179">
+        <v>2171</v>
+      </c>
+      <c r="O179">
+        <v>1995</v>
+      </c>
+      <c r="P179">
+        <v>3556</v>
+      </c>
+      <c r="Q179">
+        <v>722</v>
+      </c>
+      <c r="R179">
+        <v>1761</v>
+      </c>
+      <c r="S179">
+        <v>8268</v>
+      </c>
+      <c r="T179">
+        <v>598</v>
+      </c>
+      <c r="U179">
+        <v>6047</v>
+      </c>
+      <c r="V179">
+        <v>573</v>
+      </c>
+      <c r="W179">
+        <v>1701</v>
+      </c>
+      <c r="X179">
+        <v>627</v>
+      </c>
+      <c r="Y179">
+        <v>3328</v>
+      </c>
+      <c r="Z179">
+        <v>2540</v>
+      </c>
+      <c r="AA179">
+        <v>1050</v>
+      </c>
+      <c r="AB179">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>28392</v>
+      </c>
+      <c r="C180">
+        <v>3015</v>
+      </c>
+      <c r="D180">
+        <v>15267</v>
+      </c>
+      <c r="E180">
+        <v>4832</v>
+      </c>
+      <c r="F180">
+        <v>2257</v>
+      </c>
+      <c r="G180">
+        <v>1810</v>
+      </c>
+      <c r="H180">
+        <v>4737</v>
+      </c>
+      <c r="I180">
+        <v>3046</v>
+      </c>
+      <c r="J180">
+        <v>2735</v>
+      </c>
+      <c r="K180">
+        <v>2288</v>
+      </c>
+      <c r="L180">
+        <v>7364</v>
+      </c>
+      <c r="M180">
+        <v>2961</v>
+      </c>
+      <c r="N180">
+        <v>2171</v>
+      </c>
+      <c r="O180">
+        <v>2027</v>
+      </c>
+      <c r="P180">
+        <v>3557</v>
+      </c>
+      <c r="Q180">
+        <v>738</v>
+      </c>
+      <c r="R180">
+        <v>1771</v>
+      </c>
+      <c r="S180">
+        <v>8288</v>
+      </c>
+      <c r="T180">
+        <v>598</v>
+      </c>
+      <c r="U180">
+        <v>6057</v>
+      </c>
+      <c r="V180">
+        <v>585</v>
+      </c>
+      <c r="W180">
+        <v>1714</v>
+      </c>
+      <c r="X180">
+        <v>630</v>
+      </c>
+      <c r="Y180">
+        <v>3340</v>
+      </c>
+      <c r="Z180">
+        <v>2558</v>
+      </c>
+      <c r="AA180">
+        <v>1061</v>
+      </c>
+      <c r="AB180">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>28467</v>
+      </c>
+      <c r="C181">
+        <v>3026</v>
+      </c>
+      <c r="D181">
+        <v>15292</v>
+      </c>
+      <c r="E181">
+        <v>4905</v>
+      </c>
+      <c r="F181">
+        <v>2274</v>
+      </c>
+      <c r="G181">
+        <v>1818</v>
+      </c>
+      <c r="H181">
+        <v>4790</v>
+      </c>
+      <c r="I181">
+        <v>3062</v>
+      </c>
+      <c r="J181">
+        <v>2743</v>
+      </c>
+      <c r="K181">
+        <v>2308</v>
+      </c>
+      <c r="L181">
+        <v>7390</v>
+      </c>
+      <c r="M181">
+        <v>2977</v>
+      </c>
+      <c r="N181">
+        <v>2179</v>
+      </c>
+      <c r="O181">
+        <v>2042</v>
+      </c>
+      <c r="P181">
+        <v>3563</v>
+      </c>
+      <c r="Q181">
+        <v>749</v>
+      </c>
+      <c r="R181">
+        <v>1782</v>
+      </c>
+      <c r="S181">
+        <v>8289</v>
+      </c>
+      <c r="T181">
+        <v>600</v>
+      </c>
+      <c r="U181">
+        <v>6062</v>
+      </c>
+      <c r="V181">
+        <v>593</v>
+      </c>
+      <c r="W181">
+        <v>1724</v>
+      </c>
+      <c r="X181">
+        <v>631</v>
+      </c>
+      <c r="Y181">
+        <v>3352</v>
+      </c>
+      <c r="Z181">
+        <v>2572</v>
+      </c>
+      <c r="AA181">
+        <v>1065</v>
+      </c>
+      <c r="AB181">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>28505</v>
+      </c>
+      <c r="C182">
+        <v>3045</v>
+      </c>
+      <c r="D182">
+        <v>15392</v>
+      </c>
+      <c r="E182">
+        <v>4981</v>
+      </c>
+      <c r="F182">
+        <v>2316</v>
+      </c>
+      <c r="G182">
+        <v>1827</v>
+      </c>
+      <c r="H182">
+        <v>4805</v>
+      </c>
+      <c r="I182">
+        <v>3102</v>
+      </c>
+      <c r="J182">
+        <v>2804</v>
+      </c>
+      <c r="K182">
+        <v>2330</v>
+      </c>
+      <c r="L182">
+        <v>7399</v>
+      </c>
+      <c r="M182">
+        <v>3010</v>
+      </c>
+      <c r="N182">
+        <v>2198</v>
+      </c>
+      <c r="O182">
+        <v>2066</v>
+      </c>
+      <c r="P182">
+        <v>3572</v>
+      </c>
+      <c r="Q182">
+        <v>767</v>
+      </c>
+      <c r="R182">
+        <v>1793</v>
+      </c>
+      <c r="S182">
+        <v>8335</v>
+      </c>
+      <c r="T182">
+        <v>604</v>
+      </c>
+      <c r="U182">
+        <v>6078</v>
+      </c>
+      <c r="V182">
+        <v>610</v>
+      </c>
+      <c r="W182">
+        <v>1741</v>
+      </c>
+      <c r="X182">
+        <v>637</v>
+      </c>
+      <c r="Y182">
+        <v>3365</v>
+      </c>
+      <c r="Z182">
+        <v>2614</v>
+      </c>
+      <c r="AA182">
+        <v>1073</v>
+      </c>
+      <c r="AB182">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>28912</v>
+      </c>
+      <c r="C183">
+        <v>3068</v>
+      </c>
+      <c r="D183">
+        <v>15560</v>
+      </c>
+      <c r="E183">
+        <v>5051</v>
+      </c>
+      <c r="F183">
+        <v>2344</v>
+      </c>
+      <c r="G183">
+        <v>1836</v>
+      </c>
+      <c r="H183">
+        <v>4847</v>
+      </c>
+      <c r="I183">
+        <v>3161</v>
+      </c>
+      <c r="J183">
+        <v>2862</v>
+      </c>
+      <c r="K183">
+        <v>2350</v>
+      </c>
+      <c r="L183">
+        <v>7425</v>
+      </c>
+      <c r="M183">
+        <v>3062</v>
+      </c>
+      <c r="N183">
+        <v>2198</v>
+      </c>
+      <c r="O183">
+        <v>2116</v>
+      </c>
+      <c r="P183">
+        <v>3588</v>
+      </c>
+      <c r="Q183">
+        <v>767</v>
+      </c>
+      <c r="R183">
+        <v>1808</v>
+      </c>
+      <c r="S183">
+        <v>8346</v>
+      </c>
+      <c r="T183">
+        <v>607</v>
+      </c>
+      <c r="U183">
+        <v>6097</v>
+      </c>
+      <c r="V183">
+        <v>610</v>
+      </c>
+      <c r="W183">
+        <v>1754</v>
+      </c>
+      <c r="X183">
+        <v>642</v>
+      </c>
+      <c r="Y183">
+        <v>3377</v>
+      </c>
+      <c r="Z183">
+        <v>2653</v>
+      </c>
+      <c r="AA183">
+        <v>1087</v>
+      </c>
+      <c r="AB183">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -28888,15 +29763,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -28904,7 +29779,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -28912,7 +29787,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -28920,7 +29795,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -28928,7 +29803,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -28936,7 +29811,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -28944,7 +29819,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -28952,7 +29827,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -28960,7 +29835,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -28968,7 +29843,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -28976,7 +29851,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -28984,7 +29859,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -28992,7 +29867,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -29000,7 +29875,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -29008,7 +29883,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -29016,7 +29891,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -29024,7 +29899,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -29032,7 +29907,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -29040,7 +29915,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -29048,7 +29923,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -29056,7 +29931,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -29064,7 +29939,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -29072,7 +29947,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -29080,7 +29955,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -29088,7 +29963,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -29096,7 +29971,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -29104,7 +29979,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -567,6 +567,36 @@
     <t>2020-08-25</t>
   </si>
   <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -983,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14027,7 +14057,7 @@
         <v>94373</v>
       </c>
       <c r="N168">
-        <v>58132</v>
+        <v>56572</v>
       </c>
       <c r="O168">
         <v>106928</v>
@@ -15317,7 +15347,7 @@
         <v>120537</v>
       </c>
       <c r="N183">
-        <v>60358</v>
+        <v>60639</v>
       </c>
       <c r="O183">
         <v>135690</v>
@@ -15326,7 +15356,7 @@
         <v>116579</v>
       </c>
       <c r="Q183">
-        <v>44324</v>
+        <v>45359</v>
       </c>
       <c r="R183">
         <v>70926</v>
@@ -15341,7 +15371,7 @@
         <v>193564</v>
       </c>
       <c r="V183">
-        <v>45400</v>
+        <v>46364</v>
       </c>
       <c r="W183">
         <v>74096</v>
@@ -15359,7 +15389,867 @@
         <v>52514</v>
       </c>
       <c r="AB183">
-        <v>42044</v>
+        <v>42359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>776135</v>
+      </c>
+      <c r="C184">
+        <v>107909</v>
+      </c>
+      <c r="D184">
+        <v>216675</v>
+      </c>
+      <c r="E184">
+        <v>245021</v>
+      </c>
+      <c r="F184">
+        <v>155253</v>
+      </c>
+      <c r="G184">
+        <v>77317</v>
+      </c>
+      <c r="H184">
+        <v>201973</v>
+      </c>
+      <c r="I184">
+        <v>115984</v>
+      </c>
+      <c r="J184">
+        <v>126420</v>
+      </c>
+      <c r="K184">
+        <v>103213</v>
+      </c>
+      <c r="L184">
+        <v>121078</v>
+      </c>
+      <c r="M184">
+        <v>122241</v>
+      </c>
+      <c r="N184">
+        <v>61090</v>
+      </c>
+      <c r="O184">
+        <v>137560</v>
+      </c>
+      <c r="P184">
+        <v>117412</v>
+      </c>
+      <c r="Q184">
+        <v>46261</v>
+      </c>
+      <c r="R184">
+        <v>71222</v>
+      </c>
+      <c r="S184">
+        <v>209363</v>
+      </c>
+      <c r="T184">
+        <v>24119</v>
+      </c>
+      <c r="U184">
+        <v>195297</v>
+      </c>
+      <c r="V184">
+        <v>47558</v>
+      </c>
+      <c r="W184">
+        <v>75160</v>
+      </c>
+      <c r="X184">
+        <v>41981</v>
+      </c>
+      <c r="Y184">
+        <v>147676</v>
+      </c>
+      <c r="Z184">
+        <v>86704</v>
+      </c>
+      <c r="AA184">
+        <v>53119</v>
+      </c>
+      <c r="AB184">
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>784453</v>
+      </c>
+      <c r="C185">
+        <v>108662</v>
+      </c>
+      <c r="D185">
+        <v>219198</v>
+      </c>
+      <c r="E185">
+        <v>247853</v>
+      </c>
+      <c r="F185">
+        <v>156863</v>
+      </c>
+      <c r="G185">
+        <v>77755</v>
+      </c>
+      <c r="H185">
+        <v>205942</v>
+      </c>
+      <c r="I185">
+        <v>118315</v>
+      </c>
+      <c r="J185">
+        <v>128241</v>
+      </c>
+      <c r="K185">
+        <v>104096</v>
+      </c>
+      <c r="L185">
+        <v>122147</v>
+      </c>
+      <c r="M185">
+        <v>124074</v>
+      </c>
+      <c r="N185">
+        <v>61416</v>
+      </c>
+      <c r="O185">
+        <v>139638</v>
+      </c>
+      <c r="P185">
+        <v>118083</v>
+      </c>
+      <c r="Q185">
+        <v>47152</v>
+      </c>
+      <c r="R185">
+        <v>71599</v>
+      </c>
+      <c r="S185">
+        <v>211053</v>
+      </c>
+      <c r="T185">
+        <v>24269</v>
+      </c>
+      <c r="U185">
+        <v>196874</v>
+      </c>
+      <c r="V185">
+        <v>48580</v>
+      </c>
+      <c r="W185">
+        <v>76033</v>
+      </c>
+      <c r="X185">
+        <v>42285</v>
+      </c>
+      <c r="Y185">
+        <v>148923</v>
+      </c>
+      <c r="Z185">
+        <v>88385</v>
+      </c>
+      <c r="AA185">
+        <v>53805</v>
+      </c>
+      <c r="AB185">
+        <v>42997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>796209</v>
+      </c>
+      <c r="C186">
+        <v>109493</v>
+      </c>
+      <c r="D186">
+        <v>219198</v>
+      </c>
+      <c r="E186">
+        <v>250977</v>
+      </c>
+      <c r="F186">
+        <v>158180</v>
+      </c>
+      <c r="G186">
+        <v>78174</v>
+      </c>
+      <c r="H186">
+        <v>209465</v>
+      </c>
+      <c r="I186">
+        <v>120739</v>
+      </c>
+      <c r="J186">
+        <v>130208</v>
+      </c>
+      <c r="K186">
+        <v>104803</v>
+      </c>
+      <c r="L186">
+        <v>123146</v>
+      </c>
+      <c r="M186">
+        <v>126964</v>
+      </c>
+      <c r="N186">
+        <v>61704</v>
+      </c>
+      <c r="O186">
+        <v>141692</v>
+      </c>
+      <c r="P186">
+        <v>118844</v>
+      </c>
+      <c r="Q186">
+        <v>48023</v>
+      </c>
+      <c r="R186">
+        <v>72039</v>
+      </c>
+      <c r="S186">
+        <v>213238</v>
+      </c>
+      <c r="T186">
+        <v>24462</v>
+      </c>
+      <c r="U186">
+        <v>198246</v>
+      </c>
+      <c r="V186">
+        <v>49651</v>
+      </c>
+      <c r="W186">
+        <v>76916</v>
+      </c>
+      <c r="X186">
+        <v>42625</v>
+      </c>
+      <c r="Y186">
+        <v>150144</v>
+      </c>
+      <c r="Z186">
+        <v>90135</v>
+      </c>
+      <c r="AA186">
+        <v>54205</v>
+      </c>
+      <c r="AB186">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>801422</v>
+      </c>
+      <c r="C187">
+        <v>110025</v>
+      </c>
+      <c r="D187">
+        <v>222957</v>
+      </c>
+      <c r="E187">
+        <v>254790</v>
+      </c>
+      <c r="F187">
+        <v>159526</v>
+      </c>
+      <c r="G187">
+        <v>78483</v>
+      </c>
+      <c r="H187">
+        <v>212565</v>
+      </c>
+      <c r="I187">
+        <v>124416</v>
+      </c>
+      <c r="J187">
+        <v>130541</v>
+      </c>
+      <c r="K187">
+        <v>105531</v>
+      </c>
+      <c r="L187">
+        <v>124151</v>
+      </c>
+      <c r="M187">
+        <v>128967</v>
+      </c>
+      <c r="N187">
+        <v>61704</v>
+      </c>
+      <c r="O187">
+        <v>146404</v>
+      </c>
+      <c r="P187">
+        <v>119859</v>
+      </c>
+      <c r="Q187">
+        <v>48522</v>
+      </c>
+      <c r="R187">
+        <v>72280</v>
+      </c>
+      <c r="S187">
+        <v>214094</v>
+      </c>
+      <c r="T187">
+        <v>24601</v>
+      </c>
+      <c r="U187">
+        <v>199171</v>
+      </c>
+      <c r="V187">
+        <v>50373</v>
+      </c>
+      <c r="W187">
+        <v>77405</v>
+      </c>
+      <c r="X187">
+        <v>42771</v>
+      </c>
+      <c r="Y187">
+        <v>150895</v>
+      </c>
+      <c r="Z187">
+        <v>90651</v>
+      </c>
+      <c r="AA187">
+        <v>54496</v>
+      </c>
+      <c r="AB187">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>803404</v>
+      </c>
+      <c r="C188">
+        <v>110351</v>
+      </c>
+      <c r="D188">
+        <v>223302</v>
+      </c>
+      <c r="E188">
+        <v>256062</v>
+      </c>
+      <c r="F188">
+        <v>160796</v>
+      </c>
+      <c r="G188">
+        <v>78637</v>
+      </c>
+      <c r="H188">
+        <v>215050</v>
+      </c>
+      <c r="I188">
+        <v>124482</v>
+      </c>
+      <c r="J188">
+        <v>130977</v>
+      </c>
+      <c r="K188">
+        <v>105661</v>
+      </c>
+      <c r="L188">
+        <v>125094</v>
+      </c>
+      <c r="M188">
+        <v>130603</v>
+      </c>
+      <c r="N188">
+        <v>61961</v>
+      </c>
+      <c r="O188">
+        <v>146864</v>
+      </c>
+      <c r="P188">
+        <v>120060</v>
+      </c>
+      <c r="Q188">
+        <v>48937</v>
+      </c>
+      <c r="R188">
+        <v>72417</v>
+      </c>
+      <c r="S188">
+        <v>214457</v>
+      </c>
+      <c r="T188">
+        <v>24638</v>
+      </c>
+      <c r="U188">
+        <v>199556</v>
+      </c>
+      <c r="V188">
+        <v>50694</v>
+      </c>
+      <c r="W188">
+        <v>77405</v>
+      </c>
+      <c r="X188">
+        <v>42892</v>
+      </c>
+      <c r="Y188">
+        <v>151212</v>
+      </c>
+      <c r="Z188">
+        <v>90895</v>
+      </c>
+      <c r="AA188">
+        <v>54679</v>
+      </c>
+      <c r="AB188">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>804342</v>
+      </c>
+      <c r="C189">
+        <v>111263</v>
+      </c>
+      <c r="D189">
+        <v>223631</v>
+      </c>
+      <c r="E189">
+        <v>256727</v>
+      </c>
+      <c r="F189">
+        <v>162042</v>
+      </c>
+      <c r="G189">
+        <v>78804</v>
+      </c>
+      <c r="H189">
+        <v>216557</v>
+      </c>
+      <c r="I189">
+        <v>125813</v>
+      </c>
+      <c r="J189">
+        <v>133796</v>
+      </c>
+      <c r="K189">
+        <v>105778</v>
+      </c>
+      <c r="L189">
+        <v>125539</v>
+      </c>
+      <c r="M189">
+        <v>131906</v>
+      </c>
+      <c r="N189">
+        <v>62204</v>
+      </c>
+      <c r="O189">
+        <v>177777</v>
+      </c>
+      <c r="P189">
+        <v>120296</v>
+      </c>
+      <c r="Q189">
+        <v>49820</v>
+      </c>
+      <c r="R189">
+        <v>72528</v>
+      </c>
+      <c r="S189">
+        <v>214953</v>
+      </c>
+      <c r="T189">
+        <v>24647</v>
+      </c>
+      <c r="U189">
+        <v>200985</v>
+      </c>
+      <c r="V189">
+        <v>51629</v>
+      </c>
+      <c r="W189">
+        <v>77859</v>
+      </c>
+      <c r="X189">
+        <v>43193</v>
+      </c>
+      <c r="Y189">
+        <v>151615</v>
+      </c>
+      <c r="Z189">
+        <v>92265</v>
+      </c>
+      <c r="AA189">
+        <v>55153</v>
+      </c>
+      <c r="AB189">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>814375</v>
+      </c>
+      <c r="C190">
+        <v>112072</v>
+      </c>
+      <c r="D190">
+        <v>226800</v>
+      </c>
+      <c r="E190">
+        <v>259418</v>
+      </c>
+      <c r="F190">
+        <v>163498</v>
+      </c>
+      <c r="G190">
+        <v>79258</v>
+      </c>
+      <c r="H190">
+        <v>218781</v>
+      </c>
+      <c r="I190">
+        <v>127799</v>
+      </c>
+      <c r="J190">
+        <v>136741</v>
+      </c>
+      <c r="K190">
+        <v>106605</v>
+      </c>
+      <c r="L190">
+        <v>127287</v>
+      </c>
+      <c r="M190">
+        <v>133574</v>
+      </c>
+      <c r="N190">
+        <v>62645</v>
+      </c>
+      <c r="O190">
+        <v>180474</v>
+      </c>
+      <c r="P190">
+        <v>120919</v>
+      </c>
+      <c r="Q190">
+        <v>50645</v>
+      </c>
+      <c r="R190">
+        <v>72721</v>
+      </c>
+      <c r="S190">
+        <v>217295</v>
+      </c>
+      <c r="T190">
+        <v>24840</v>
+      </c>
+      <c r="U190">
+        <v>202436</v>
+      </c>
+      <c r="V190">
+        <v>52125</v>
+      </c>
+      <c r="W190">
+        <v>78922</v>
+      </c>
+      <c r="X190">
+        <v>43514</v>
+      </c>
+      <c r="Y190">
+        <v>152681</v>
+      </c>
+      <c r="Z190">
+        <v>93929</v>
+      </c>
+      <c r="AA190">
+        <v>55768</v>
+      </c>
+      <c r="AB190">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>826331</v>
+      </c>
+      <c r="C191">
+        <v>112827</v>
+      </c>
+      <c r="D191">
+        <v>228332</v>
+      </c>
+      <c r="E191">
+        <v>262299</v>
+      </c>
+      <c r="F191">
+        <v>164649</v>
+      </c>
+      <c r="G191">
+        <v>79550</v>
+      </c>
+      <c r="H191">
+        <v>222048</v>
+      </c>
+      <c r="I191">
+        <v>131461</v>
+      </c>
+      <c r="J191">
+        <v>140192</v>
+      </c>
+      <c r="K191">
+        <v>107384</v>
+      </c>
+      <c r="L191">
+        <v>128724</v>
+      </c>
+      <c r="M191">
+        <v>135609</v>
+      </c>
+      <c r="N191">
+        <v>63071</v>
+      </c>
+      <c r="O191">
+        <v>182522</v>
+      </c>
+      <c r="P191">
+        <v>121793</v>
+      </c>
+      <c r="Q191">
+        <v>51575</v>
+      </c>
+      <c r="R191">
+        <v>72931</v>
+      </c>
+      <c r="S191">
+        <v>218414</v>
+      </c>
+      <c r="T191">
+        <v>25027</v>
+      </c>
+      <c r="U191">
+        <v>203969</v>
+      </c>
+      <c r="V191">
+        <v>52938</v>
+      </c>
+      <c r="W191">
+        <v>79719</v>
+      </c>
+      <c r="X191">
+        <v>43800</v>
+      </c>
+      <c r="Y191">
+        <v>154468</v>
+      </c>
+      <c r="Z191">
+        <v>95233</v>
+      </c>
+      <c r="AA191">
+        <v>56411</v>
+      </c>
+      <c r="AB191">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>837978</v>
+      </c>
+      <c r="C192">
+        <v>113759</v>
+      </c>
+      <c r="D192">
+        <v>230271</v>
+      </c>
+      <c r="E192">
+        <v>265739</v>
+      </c>
+      <c r="F192">
+        <v>165903</v>
+      </c>
+      <c r="G192">
+        <v>79797</v>
+      </c>
+      <c r="H192">
+        <v>224987</v>
+      </c>
+      <c r="I192">
+        <v>134610</v>
+      </c>
+      <c r="J192">
+        <v>143793</v>
+      </c>
+      <c r="K192">
+        <v>108182</v>
+      </c>
+      <c r="L192">
+        <v>130199</v>
+      </c>
+      <c r="M192">
+        <v>137865</v>
+      </c>
+      <c r="N192">
+        <v>63507</v>
+      </c>
+      <c r="O192">
+        <v>184204</v>
+      </c>
+      <c r="P192">
+        <v>122520</v>
+      </c>
+      <c r="Q192">
+        <v>52406</v>
+      </c>
+      <c r="R192">
+        <v>73182</v>
+      </c>
+      <c r="S192">
+        <v>220040</v>
+      </c>
+      <c r="T192">
+        <v>25135</v>
+      </c>
+      <c r="U192">
+        <v>205291</v>
+      </c>
+      <c r="V192">
+        <v>54013</v>
+      </c>
+      <c r="W192">
+        <v>81626</v>
+      </c>
+      <c r="X192">
+        <v>44064</v>
+      </c>
+      <c r="Y192">
+        <v>155717</v>
+      </c>
+      <c r="Z192">
+        <v>96349</v>
+      </c>
+      <c r="AA192">
+        <v>56618</v>
+      </c>
+      <c r="AB192">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>845016</v>
+      </c>
+      <c r="C193">
+        <v>114700</v>
+      </c>
+      <c r="D193">
+        <v>232489</v>
+      </c>
+      <c r="E193">
+        <v>268137</v>
+      </c>
+      <c r="F193">
+        <v>167200</v>
+      </c>
+      <c r="G193">
+        <v>80103</v>
+      </c>
+      <c r="H193">
+        <v>228013</v>
+      </c>
+      <c r="I193">
+        <v>137217</v>
+      </c>
+      <c r="J193">
+        <v>146441</v>
+      </c>
+      <c r="K193">
+        <v>108925</v>
+      </c>
+      <c r="L193">
+        <v>131230</v>
+      </c>
+      <c r="M193">
+        <v>139780</v>
+      </c>
+      <c r="N193">
+        <v>63507</v>
+      </c>
+      <c r="O193">
+        <v>186596</v>
+      </c>
+      <c r="P193">
+        <v>123187</v>
+      </c>
+      <c r="Q193">
+        <v>52406</v>
+      </c>
+      <c r="R193">
+        <v>73383</v>
+      </c>
+      <c r="S193">
+        <v>221828</v>
+      </c>
+      <c r="T193">
+        <v>25249</v>
+      </c>
+      <c r="U193">
+        <v>206864</v>
+      </c>
+      <c r="V193">
+        <v>54013</v>
+      </c>
+      <c r="W193">
+        <v>81626</v>
+      </c>
+      <c r="X193">
+        <v>44454</v>
+      </c>
+      <c r="Y193">
+        <v>157052</v>
+      </c>
+      <c r="Z193">
+        <v>97550</v>
+      </c>
+      <c r="AA193">
+        <v>57353</v>
+      </c>
+      <c r="AB193">
+        <v>44665</v>
       </c>
     </row>
   </sheetData>
@@ -15369,7 +16259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29703,7 +30593,7 @@
         <v>3062</v>
       </c>
       <c r="N183">
-        <v>2198</v>
+        <v>2221</v>
       </c>
       <c r="O183">
         <v>2116</v>
@@ -29712,7 +30602,7 @@
         <v>3588</v>
       </c>
       <c r="Q183">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="R183">
         <v>1808</v>
@@ -29727,7 +30617,7 @@
         <v>6097</v>
       </c>
       <c r="V183">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="W183">
         <v>1754</v>
@@ -29746,6 +30636,866 @@
       </c>
       <c r="AB183">
         <v>582</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>29194</v>
+      </c>
+      <c r="C184">
+        <v>3086</v>
+      </c>
+      <c r="D184">
+        <v>15700</v>
+      </c>
+      <c r="E184">
+        <v>5116</v>
+      </c>
+      <c r="F184">
+        <v>2399</v>
+      </c>
+      <c r="G184">
+        <v>1844</v>
+      </c>
+      <c r="H184">
+        <v>4948</v>
+      </c>
+      <c r="I184">
+        <v>3235</v>
+      </c>
+      <c r="J184">
+        <v>2933</v>
+      </c>
+      <c r="K184">
+        <v>2371</v>
+      </c>
+      <c r="L184">
+        <v>7460</v>
+      </c>
+      <c r="M184">
+        <v>3102</v>
+      </c>
+      <c r="N184">
+        <v>2225</v>
+      </c>
+      <c r="O184">
+        <v>2142</v>
+      </c>
+      <c r="P184">
+        <v>3600</v>
+      </c>
+      <c r="Q184">
+        <v>800</v>
+      </c>
+      <c r="R184">
+        <v>1822</v>
+      </c>
+      <c r="S184">
+        <v>8362</v>
+      </c>
+      <c r="T184">
+        <v>607</v>
+      </c>
+      <c r="U184">
+        <v>6102</v>
+      </c>
+      <c r="V184">
+        <v>635</v>
+      </c>
+      <c r="W184">
+        <v>1765</v>
+      </c>
+      <c r="X184">
+        <v>647</v>
+      </c>
+      <c r="Y184">
+        <v>3390</v>
+      </c>
+      <c r="Z184">
+        <v>2668</v>
+      </c>
+      <c r="AA184">
+        <v>1100</v>
+      </c>
+      <c r="AB184">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>29415</v>
+      </c>
+      <c r="C185">
+        <v>3105</v>
+      </c>
+      <c r="D185">
+        <v>15859</v>
+      </c>
+      <c r="E185">
+        <v>5178</v>
+      </c>
+      <c r="F185">
+        <v>2425</v>
+      </c>
+      <c r="G185">
+        <v>1853</v>
+      </c>
+      <c r="H185">
+        <v>5049</v>
+      </c>
+      <c r="I185">
+        <v>3275</v>
+      </c>
+      <c r="J185">
+        <v>2987</v>
+      </c>
+      <c r="K185">
+        <v>2388</v>
+      </c>
+      <c r="L185">
+        <v>7480</v>
+      </c>
+      <c r="M185">
+        <v>3153</v>
+      </c>
+      <c r="N185">
+        <v>2240</v>
+      </c>
+      <c r="O185">
+        <v>2170</v>
+      </c>
+      <c r="P185">
+        <v>3616</v>
+      </c>
+      <c r="Q185">
+        <v>823</v>
+      </c>
+      <c r="R185">
+        <v>1830</v>
+      </c>
+      <c r="S185">
+        <v>8374</v>
+      </c>
+      <c r="T185">
+        <v>607</v>
+      </c>
+      <c r="U185">
+        <v>6106</v>
+      </c>
+      <c r="V185">
+        <v>649</v>
+      </c>
+      <c r="W185">
+        <v>1785</v>
+      </c>
+      <c r="X185">
+        <v>652</v>
+      </c>
+      <c r="Y185">
+        <v>3402</v>
+      </c>
+      <c r="Z185">
+        <v>2707</v>
+      </c>
+      <c r="AA185">
+        <v>1109</v>
+      </c>
+      <c r="AB185">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>29694</v>
+      </c>
+      <c r="C186">
+        <v>3117</v>
+      </c>
+      <c r="D186">
+        <v>15859</v>
+      </c>
+      <c r="E186">
+        <v>5243</v>
+      </c>
+      <c r="F186">
+        <v>2440</v>
+      </c>
+      <c r="G186">
+        <v>1861</v>
+      </c>
+      <c r="H186">
+        <v>5167</v>
+      </c>
+      <c r="I186">
+        <v>3323</v>
+      </c>
+      <c r="J186">
+        <v>3044</v>
+      </c>
+      <c r="K186">
+        <v>2404</v>
+      </c>
+      <c r="L186">
+        <v>7512</v>
+      </c>
+      <c r="M186">
+        <v>3194</v>
+      </c>
+      <c r="N186">
+        <v>2248</v>
+      </c>
+      <c r="O186">
+        <v>2193</v>
+      </c>
+      <c r="P186">
+        <v>3629</v>
+      </c>
+      <c r="Q186">
+        <v>840</v>
+      </c>
+      <c r="R186">
+        <v>1837</v>
+      </c>
+      <c r="S186">
+        <v>8380</v>
+      </c>
+      <c r="T186">
+        <v>608</v>
+      </c>
+      <c r="U186">
+        <v>6109</v>
+      </c>
+      <c r="V186">
+        <v>658</v>
+      </c>
+      <c r="W186">
+        <v>1804</v>
+      </c>
+      <c r="X186">
+        <v>657</v>
+      </c>
+      <c r="Y186">
+        <v>3412</v>
+      </c>
+      <c r="Z186">
+        <v>2739</v>
+      </c>
+      <c r="AA186">
+        <v>1114</v>
+      </c>
+      <c r="AB186">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>29944</v>
+      </c>
+      <c r="C187">
+        <v>3129</v>
+      </c>
+      <c r="D187">
+        <v>16016</v>
+      </c>
+      <c r="E187">
+        <v>5302</v>
+      </c>
+      <c r="F187">
+        <v>2450</v>
+      </c>
+      <c r="G187">
+        <v>1870</v>
+      </c>
+      <c r="H187">
+        <v>5270</v>
+      </c>
+      <c r="I187">
+        <v>3385</v>
+      </c>
+      <c r="J187">
+        <v>3066</v>
+      </c>
+      <c r="K187">
+        <v>2422</v>
+      </c>
+      <c r="L187">
+        <v>7547</v>
+      </c>
+      <c r="M187">
+        <v>3234</v>
+      </c>
+      <c r="N187">
+        <v>2248</v>
+      </c>
+      <c r="O187">
+        <v>2218</v>
+      </c>
+      <c r="P187">
+        <v>3634</v>
+      </c>
+      <c r="Q187">
+        <v>851</v>
+      </c>
+      <c r="R187">
+        <v>1839</v>
+      </c>
+      <c r="S187">
+        <v>8382</v>
+      </c>
+      <c r="T187">
+        <v>608</v>
+      </c>
+      <c r="U187">
+        <v>6115</v>
+      </c>
+      <c r="V187">
+        <v>664</v>
+      </c>
+      <c r="W187">
+        <v>1825</v>
+      </c>
+      <c r="X187">
+        <v>659</v>
+      </c>
+      <c r="Y187">
+        <v>3424</v>
+      </c>
+      <c r="Z187">
+        <v>2756</v>
+      </c>
+      <c r="AA187">
+        <v>1125</v>
+      </c>
+      <c r="AB187">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>29978</v>
+      </c>
+      <c r="C188">
+        <v>3135</v>
+      </c>
+      <c r="D188">
+        <v>16027</v>
+      </c>
+      <c r="E188">
+        <v>5344</v>
+      </c>
+      <c r="F188">
+        <v>2469</v>
+      </c>
+      <c r="G188">
+        <v>1878</v>
+      </c>
+      <c r="H188">
+        <v>5326</v>
+      </c>
+      <c r="I188">
+        <v>3395</v>
+      </c>
+      <c r="J188">
+        <v>3089</v>
+      </c>
+      <c r="K188">
+        <v>2435</v>
+      </c>
+      <c r="L188">
+        <v>7574</v>
+      </c>
+      <c r="M188">
+        <v>3251</v>
+      </c>
+      <c r="N188">
+        <v>2264</v>
+      </c>
+      <c r="O188">
+        <v>2235</v>
+      </c>
+      <c r="P188">
+        <v>3639</v>
+      </c>
+      <c r="Q188">
+        <v>862</v>
+      </c>
+      <c r="R188">
+        <v>1844</v>
+      </c>
+      <c r="S188">
+        <v>8384</v>
+      </c>
+      <c r="T188">
+        <v>609</v>
+      </c>
+      <c r="U188">
+        <v>6146</v>
+      </c>
+      <c r="V188">
+        <v>673</v>
+      </c>
+      <c r="W188">
+        <v>1825</v>
+      </c>
+      <c r="X188">
+        <v>660</v>
+      </c>
+      <c r="Y188">
+        <v>3436</v>
+      </c>
+      <c r="Z188">
+        <v>2777</v>
+      </c>
+      <c r="AA188">
+        <v>1129</v>
+      </c>
+      <c r="AB188">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>30014</v>
+      </c>
+      <c r="C189">
+        <v>3158</v>
+      </c>
+      <c r="D189">
+        <v>16065</v>
+      </c>
+      <c r="E189">
+        <v>5397</v>
+      </c>
+      <c r="F189">
+        <v>2521</v>
+      </c>
+      <c r="G189">
+        <v>1887</v>
+      </c>
+      <c r="H189">
+        <v>5335</v>
+      </c>
+      <c r="I189">
+        <v>3435</v>
+      </c>
+      <c r="J189">
+        <v>3159</v>
+      </c>
+      <c r="K189">
+        <v>2450</v>
+      </c>
+      <c r="L189">
+        <v>7593</v>
+      </c>
+      <c r="M189">
+        <v>3290</v>
+      </c>
+      <c r="N189">
+        <v>2273</v>
+      </c>
+      <c r="O189">
+        <v>2260</v>
+      </c>
+      <c r="P189">
+        <v>3649</v>
+      </c>
+      <c r="Q189">
+        <v>889</v>
+      </c>
+      <c r="R189">
+        <v>1857</v>
+      </c>
+      <c r="S189">
+        <v>8409</v>
+      </c>
+      <c r="T189">
+        <v>612</v>
+      </c>
+      <c r="U189">
+        <v>6176</v>
+      </c>
+      <c r="V189">
+        <v>687</v>
+      </c>
+      <c r="W189">
+        <v>1843</v>
+      </c>
+      <c r="X189">
+        <v>661</v>
+      </c>
+      <c r="Y189">
+        <v>3446</v>
+      </c>
+      <c r="Z189">
+        <v>2811</v>
+      </c>
+      <c r="AA189">
+        <v>1148</v>
+      </c>
+      <c r="AB189">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>30375</v>
+      </c>
+      <c r="C190">
+        <v>3184</v>
+      </c>
+      <c r="D190">
+        <v>16217</v>
+      </c>
+      <c r="E190">
+        <v>5448</v>
+      </c>
+      <c r="F190">
+        <v>2573</v>
+      </c>
+      <c r="G190">
+        <v>1895</v>
+      </c>
+      <c r="H190">
+        <v>5364</v>
+      </c>
+      <c r="I190">
+        <v>3501</v>
+      </c>
+      <c r="J190">
+        <v>3242</v>
+      </c>
+      <c r="K190">
+        <v>2465</v>
+      </c>
+      <c r="L190">
+        <v>7614</v>
+      </c>
+      <c r="M190">
+        <v>3345</v>
+      </c>
+      <c r="N190">
+        <v>2283</v>
+      </c>
+      <c r="O190">
+        <v>2301</v>
+      </c>
+      <c r="P190">
+        <v>3661</v>
+      </c>
+      <c r="Q190">
+        <v>903</v>
+      </c>
+      <c r="R190">
+        <v>1867</v>
+      </c>
+      <c r="S190">
+        <v>8459</v>
+      </c>
+      <c r="T190">
+        <v>616</v>
+      </c>
+      <c r="U190">
+        <v>6201</v>
+      </c>
+      <c r="V190">
+        <v>701</v>
+      </c>
+      <c r="W190">
+        <v>1846</v>
+      </c>
+      <c r="X190">
+        <v>663</v>
+      </c>
+      <c r="Y190">
+        <v>3457</v>
+      </c>
+      <c r="Z190">
+        <v>2837</v>
+      </c>
+      <c r="AA190">
+        <v>1155</v>
+      </c>
+      <c r="AB190">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>30673</v>
+      </c>
+      <c r="C191">
+        <v>3204</v>
+      </c>
+      <c r="D191">
+        <v>16315</v>
+      </c>
+      <c r="E191">
+        <v>5502</v>
+      </c>
+      <c r="F191">
+        <v>2609</v>
+      </c>
+      <c r="G191">
+        <v>1902</v>
+      </c>
+      <c r="H191">
+        <v>5505</v>
+      </c>
+      <c r="I191">
+        <v>3543</v>
+      </c>
+      <c r="J191">
+        <v>3323</v>
+      </c>
+      <c r="K191">
+        <v>2483</v>
+      </c>
+      <c r="L191">
+        <v>7656</v>
+      </c>
+      <c r="M191">
+        <v>3399</v>
+      </c>
+      <c r="N191">
+        <v>2286</v>
+      </c>
+      <c r="O191">
+        <v>2325</v>
+      </c>
+      <c r="P191">
+        <v>3798</v>
+      </c>
+      <c r="Q191">
+        <v>914</v>
+      </c>
+      <c r="R191">
+        <v>1873</v>
+      </c>
+      <c r="S191">
+        <v>8481</v>
+      </c>
+      <c r="T191">
+        <v>618</v>
+      </c>
+      <c r="U191">
+        <v>6215</v>
+      </c>
+      <c r="V191">
+        <v>712</v>
+      </c>
+      <c r="W191">
+        <v>1855</v>
+      </c>
+      <c r="X191">
+        <v>668</v>
+      </c>
+      <c r="Y191">
+        <v>3467</v>
+      </c>
+      <c r="Z191">
+        <v>2868</v>
+      </c>
+      <c r="AA191">
+        <v>1161</v>
+      </c>
+      <c r="AB191">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>30905</v>
+      </c>
+      <c r="C192">
+        <v>3221</v>
+      </c>
+      <c r="D192">
+        <v>16394</v>
+      </c>
+      <c r="E192">
+        <v>5549</v>
+      </c>
+      <c r="F192">
+        <v>2641</v>
+      </c>
+      <c r="G192">
+        <v>1910</v>
+      </c>
+      <c r="H192">
+        <v>5591</v>
+      </c>
+      <c r="I192">
+        <v>3590</v>
+      </c>
+      <c r="J192">
+        <v>3385</v>
+      </c>
+      <c r="K192">
+        <v>2501</v>
+      </c>
+      <c r="L192">
+        <v>7619</v>
+      </c>
+      <c r="M192">
+        <v>3449</v>
+      </c>
+      <c r="N192">
+        <v>2289</v>
+      </c>
+      <c r="O192">
+        <v>2352</v>
+      </c>
+      <c r="P192">
+        <v>3828</v>
+      </c>
+      <c r="Q192">
+        <v>939</v>
+      </c>
+      <c r="R192">
+        <v>1877</v>
+      </c>
+      <c r="S192">
+        <v>8532</v>
+      </c>
+      <c r="T192">
+        <v>622</v>
+      </c>
+      <c r="U192">
+        <v>6228</v>
+      </c>
+      <c r="V192">
+        <v>730</v>
+      </c>
+      <c r="W192">
+        <v>1884</v>
+      </c>
+      <c r="X192">
+        <v>669</v>
+      </c>
+      <c r="Y192">
+        <v>3478</v>
+      </c>
+      <c r="Z192">
+        <v>2893</v>
+      </c>
+      <c r="AA192">
+        <v>1165</v>
+      </c>
+      <c r="AB192">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>31091</v>
+      </c>
+      <c r="C193">
+        <v>3235</v>
+      </c>
+      <c r="D193">
+        <v>16467</v>
+      </c>
+      <c r="E193">
+        <v>5590</v>
+      </c>
+      <c r="F193">
+        <v>2681</v>
+      </c>
+      <c r="G193">
+        <v>1917</v>
+      </c>
+      <c r="H193">
+        <v>5708</v>
+      </c>
+      <c r="I193">
+        <v>3650</v>
+      </c>
+      <c r="J193">
+        <v>3440</v>
+      </c>
+      <c r="K193">
+        <v>2517</v>
+      </c>
+      <c r="L193">
+        <v>7645</v>
+      </c>
+      <c r="M193">
+        <v>3505</v>
+      </c>
+      <c r="N193">
+        <v>2289</v>
+      </c>
+      <c r="O193">
+        <v>2376</v>
+      </c>
+      <c r="P193">
+        <v>3834</v>
+      </c>
+      <c r="Q193">
+        <v>939</v>
+      </c>
+      <c r="R193">
+        <v>1880</v>
+      </c>
+      <c r="S193">
+        <v>8563</v>
+      </c>
+      <c r="T193">
+        <v>623</v>
+      </c>
+      <c r="U193">
+        <v>6240</v>
+      </c>
+      <c r="V193">
+        <v>730</v>
+      </c>
+      <c r="W193">
+        <v>1884</v>
+      </c>
+      <c r="X193">
+        <v>670</v>
+      </c>
+      <c r="Y193">
+        <v>3488</v>
+      </c>
+      <c r="Z193">
+        <v>2923</v>
+      </c>
+      <c r="AA193">
+        <v>1172</v>
+      </c>
+      <c r="AB193">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -29763,15 +31513,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -29779,7 +31529,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -29787,7 +31537,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -29795,7 +31545,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -29803,7 +31553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -29811,7 +31561,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -29819,7 +31569,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -29827,7 +31577,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -29835,7 +31585,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -29843,7 +31593,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -29851,7 +31601,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -29859,7 +31609,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -29867,7 +31617,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -29875,7 +31625,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -29883,7 +31633,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -29891,7 +31641,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -29899,7 +31649,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -29907,7 +31657,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -29915,7 +31665,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -29923,7 +31673,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -29931,7 +31681,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -29939,7 +31689,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -29947,7 +31697,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -29955,7 +31705,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -29963,7 +31713,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -29971,7 +31721,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -29979,7 +31729,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="233">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -597,6 +597,39 @@
     <t>2020-09-04</t>
   </si>
   <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1013,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16207,7 +16240,7 @@
         <v>139780</v>
       </c>
       <c r="N193">
-        <v>63507</v>
+        <v>63912</v>
       </c>
       <c r="O193">
         <v>186596</v>
@@ -16216,7 +16249,7 @@
         <v>123187</v>
       </c>
       <c r="Q193">
-        <v>52406</v>
+        <v>53328</v>
       </c>
       <c r="R193">
         <v>73383</v>
@@ -16231,7 +16264,7 @@
         <v>206864</v>
       </c>
       <c r="V193">
-        <v>54013</v>
+        <v>55075</v>
       </c>
       <c r="W193">
         <v>81626</v>
@@ -16246,10 +16279,956 @@
         <v>97550</v>
       </c>
       <c r="AA193">
-        <v>57353</v>
+        <v>57352</v>
       </c>
       <c r="AB193">
-        <v>44665</v>
+        <v>44975</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>853085</v>
+      </c>
+      <c r="C194">
+        <v>115172</v>
+      </c>
+      <c r="D194">
+        <v>232747</v>
+      </c>
+      <c r="E194">
+        <v>270177</v>
+      </c>
+      <c r="F194">
+        <v>168605</v>
+      </c>
+      <c r="G194">
+        <v>80462</v>
+      </c>
+      <c r="H194">
+        <v>231878</v>
+      </c>
+      <c r="I194">
+        <v>143485</v>
+      </c>
+      <c r="J194">
+        <v>147485</v>
+      </c>
+      <c r="K194">
+        <v>109530</v>
+      </c>
+      <c r="L194">
+        <v>131961</v>
+      </c>
+      <c r="M194">
+        <v>141648</v>
+      </c>
+      <c r="N194">
+        <v>63912</v>
+      </c>
+      <c r="O194">
+        <v>188361</v>
+      </c>
+      <c r="P194">
+        <v>123726</v>
+      </c>
+      <c r="Q194">
+        <v>53491</v>
+      </c>
+      <c r="R194">
+        <v>73631</v>
+      </c>
+      <c r="S194">
+        <v>222179</v>
+      </c>
+      <c r="T194">
+        <v>25408</v>
+      </c>
+      <c r="U194">
+        <v>207638</v>
+      </c>
+      <c r="V194">
+        <v>55513</v>
+      </c>
+      <c r="W194">
+        <v>82006</v>
+      </c>
+      <c r="X194">
+        <v>44682</v>
+      </c>
+      <c r="Y194">
+        <v>157844</v>
+      </c>
+      <c r="Z194">
+        <v>98188</v>
+      </c>
+      <c r="AA194">
+        <v>57865</v>
+      </c>
+      <c r="AB194">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>855722</v>
+      </c>
+      <c r="C195">
+        <v>115172</v>
+      </c>
+      <c r="D195">
+        <v>232818</v>
+      </c>
+      <c r="E195">
+        <v>271255</v>
+      </c>
+      <c r="F195">
+        <v>169617</v>
+      </c>
+      <c r="G195">
+        <v>80717</v>
+      </c>
+      <c r="H195">
+        <v>234804</v>
+      </c>
+      <c r="I195">
+        <v>143914</v>
+      </c>
+      <c r="J195">
+        <v>147717</v>
+      </c>
+      <c r="K195">
+        <v>109673</v>
+      </c>
+      <c r="L195">
+        <v>132152</v>
+      </c>
+      <c r="M195">
+        <v>143074</v>
+      </c>
+      <c r="N195">
+        <v>64029</v>
+      </c>
+      <c r="O195">
+        <v>189028</v>
+      </c>
+      <c r="P195">
+        <v>123811</v>
+      </c>
+      <c r="Q195">
+        <v>54125</v>
+      </c>
+      <c r="R195">
+        <v>73740</v>
+      </c>
+      <c r="S195">
+        <v>222412</v>
+      </c>
+      <c r="T195">
+        <v>25443</v>
+      </c>
+      <c r="U195">
+        <v>208259</v>
+      </c>
+      <c r="V195">
+        <v>55906</v>
+      </c>
+      <c r="W195">
+        <v>82282</v>
+      </c>
+      <c r="X195">
+        <v>44770</v>
+      </c>
+      <c r="Y195">
+        <v>158050</v>
+      </c>
+      <c r="Z195">
+        <v>98346</v>
+      </c>
+      <c r="AA195">
+        <v>58066</v>
+      </c>
+      <c r="AB195">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>857330</v>
+      </c>
+      <c r="C196">
+        <v>115793</v>
+      </c>
+      <c r="D196">
+        <v>233052</v>
+      </c>
+      <c r="E196">
+        <v>271963</v>
+      </c>
+      <c r="F196">
+        <v>170806</v>
+      </c>
+      <c r="G196">
+        <v>80786</v>
+      </c>
+      <c r="H196">
+        <v>236012</v>
+      </c>
+      <c r="I196">
+        <v>143952</v>
+      </c>
+      <c r="J196">
+        <v>147933</v>
+      </c>
+      <c r="K196">
+        <v>109706</v>
+      </c>
+      <c r="L196">
+        <v>132420</v>
+      </c>
+      <c r="M196">
+        <v>143853</v>
+      </c>
+      <c r="N196">
+        <v>64097</v>
+      </c>
+      <c r="O196">
+        <v>189477</v>
+      </c>
+      <c r="P196">
+        <v>123905</v>
+      </c>
+      <c r="Q196">
+        <v>54363</v>
+      </c>
+      <c r="R196">
+        <v>73846</v>
+      </c>
+      <c r="S196">
+        <v>222473</v>
+      </c>
+      <c r="T196">
+        <v>25469</v>
+      </c>
+      <c r="U196">
+        <v>208560</v>
+      </c>
+      <c r="V196">
+        <v>56223</v>
+      </c>
+      <c r="W196">
+        <v>82564</v>
+      </c>
+      <c r="X196">
+        <v>44863</v>
+      </c>
+      <c r="Y196">
+        <v>158310</v>
+      </c>
+      <c r="Z196">
+        <v>98709</v>
+      </c>
+      <c r="AA196">
+        <v>58237</v>
+      </c>
+      <c r="AB196">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>858783</v>
+      </c>
+      <c r="C197">
+        <v>116578</v>
+      </c>
+      <c r="D197">
+        <v>233373</v>
+      </c>
+      <c r="E197">
+        <v>272814</v>
+      </c>
+      <c r="F197">
+        <v>171739</v>
+      </c>
+      <c r="G197">
+        <v>80866</v>
+      </c>
+      <c r="H197">
+        <v>236663</v>
+      </c>
+      <c r="I197">
+        <v>144502</v>
+      </c>
+      <c r="J197">
+        <v>150865</v>
+      </c>
+      <c r="K197">
+        <v>109860</v>
+      </c>
+      <c r="L197">
+        <v>132590</v>
+      </c>
+      <c r="M197">
+        <v>145257</v>
+      </c>
+      <c r="N197">
+        <v>64354</v>
+      </c>
+      <c r="O197">
+        <v>190397</v>
+      </c>
+      <c r="P197">
+        <v>124223</v>
+      </c>
+      <c r="Q197">
+        <v>55345</v>
+      </c>
+      <c r="R197">
+        <v>73846</v>
+      </c>
+      <c r="S197">
+        <v>222884</v>
+      </c>
+      <c r="T197">
+        <v>25494</v>
+      </c>
+      <c r="U197">
+        <v>209808</v>
+      </c>
+      <c r="V197">
+        <v>56684</v>
+      </c>
+      <c r="W197">
+        <v>83502</v>
+      </c>
+      <c r="X197">
+        <v>44999</v>
+      </c>
+      <c r="Y197">
+        <v>159163</v>
+      </c>
+      <c r="Z197">
+        <v>100012</v>
+      </c>
+      <c r="AA197">
+        <v>58559</v>
+      </c>
+      <c r="AB197">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>866576</v>
+      </c>
+      <c r="C198">
+        <v>117270</v>
+      </c>
+      <c r="D198">
+        <v>233873</v>
+      </c>
+      <c r="E198">
+        <v>275088</v>
+      </c>
+      <c r="F198">
+        <v>172708</v>
+      </c>
+      <c r="G198">
+        <v>81042</v>
+      </c>
+      <c r="H198">
+        <v>238515</v>
+      </c>
+      <c r="I198">
+        <v>147576</v>
+      </c>
+      <c r="J198">
+        <v>154755</v>
+      </c>
+      <c r="K198">
+        <v>110727</v>
+      </c>
+      <c r="L198">
+        <v>133579</v>
+      </c>
+      <c r="M198">
+        <v>146333</v>
+      </c>
+      <c r="N198">
+        <v>64740</v>
+      </c>
+      <c r="O198">
+        <v>192982</v>
+      </c>
+      <c r="P198">
+        <v>124959</v>
+      </c>
+      <c r="Q198">
+        <v>56046</v>
+      </c>
+      <c r="R198">
+        <v>74121</v>
+      </c>
+      <c r="S198">
+        <v>223863</v>
+      </c>
+      <c r="T198">
+        <v>25668</v>
+      </c>
+      <c r="U198">
+        <v>211061</v>
+      </c>
+      <c r="V198">
+        <v>57899</v>
+      </c>
+      <c r="W198">
+        <v>84508</v>
+      </c>
+      <c r="X198">
+        <v>45251</v>
+      </c>
+      <c r="Y198">
+        <v>160239</v>
+      </c>
+      <c r="Z198">
+        <v>101397</v>
+      </c>
+      <c r="AA198">
+        <v>59196</v>
+      </c>
+      <c r="AB198">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>874754</v>
+      </c>
+      <c r="C199">
+        <v>118138</v>
+      </c>
+      <c r="D199">
+        <v>234813</v>
+      </c>
+      <c r="E199">
+        <v>277327</v>
+      </c>
+      <c r="F199">
+        <v>173631</v>
+      </c>
+      <c r="G199">
+        <v>81230</v>
+      </c>
+      <c r="H199">
+        <v>242533</v>
+      </c>
+      <c r="I199">
+        <v>151392</v>
+      </c>
+      <c r="J199">
+        <v>158548</v>
+      </c>
+      <c r="K199">
+        <v>111495</v>
+      </c>
+      <c r="L199">
+        <v>134619</v>
+      </c>
+      <c r="M199">
+        <v>148333</v>
+      </c>
+      <c r="N199">
+        <v>65099</v>
+      </c>
+      <c r="O199">
+        <v>194176</v>
+      </c>
+      <c r="P199">
+        <v>125660</v>
+      </c>
+      <c r="Q199">
+        <v>58304</v>
+      </c>
+      <c r="R199">
+        <v>74386</v>
+      </c>
+      <c r="S199">
+        <v>224847</v>
+      </c>
+      <c r="T199">
+        <v>25877</v>
+      </c>
+      <c r="U199">
+        <v>212428</v>
+      </c>
+      <c r="V199">
+        <v>58658</v>
+      </c>
+      <c r="W199">
+        <v>85225</v>
+      </c>
+      <c r="X199">
+        <v>45529</v>
+      </c>
+      <c r="Y199">
+        <v>160968</v>
+      </c>
+      <c r="Z199">
+        <v>102846</v>
+      </c>
+      <c r="AA199">
+        <v>59620</v>
+      </c>
+      <c r="AB199">
+        <v>46102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>882809</v>
+      </c>
+      <c r="C200">
+        <v>118814</v>
+      </c>
+      <c r="D200">
+        <v>240453</v>
+      </c>
+      <c r="E200">
+        <v>279509</v>
+      </c>
+      <c r="F200">
+        <v>174549</v>
+      </c>
+      <c r="G200">
+        <v>81440</v>
+      </c>
+      <c r="H200">
+        <v>246149</v>
+      </c>
+      <c r="I200">
+        <v>153475</v>
+      </c>
+      <c r="J200">
+        <v>162204</v>
+      </c>
+      <c r="K200">
+        <v>112018</v>
+      </c>
+      <c r="L200">
+        <v>135643</v>
+      </c>
+      <c r="M200">
+        <v>150668</v>
+      </c>
+      <c r="N200">
+        <v>65266</v>
+      </c>
+      <c r="O200">
+        <v>195701</v>
+      </c>
+      <c r="P200">
+        <v>126423</v>
+      </c>
+      <c r="Q200">
+        <v>58671</v>
+      </c>
+      <c r="R200">
+        <v>74645</v>
+      </c>
+      <c r="S200">
+        <v>226021</v>
+      </c>
+      <c r="T200">
+        <v>26004</v>
+      </c>
+      <c r="U200">
+        <v>213655</v>
+      </c>
+      <c r="V200">
+        <v>59395</v>
+      </c>
+      <c r="W200">
+        <v>86085</v>
+      </c>
+      <c r="X200">
+        <v>45665</v>
+      </c>
+      <c r="Y200">
+        <v>161994</v>
+      </c>
+      <c r="Z200">
+        <v>104529</v>
+      </c>
+      <c r="AA200">
+        <v>60038</v>
+      </c>
+      <c r="AB200">
+        <v>46348</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>890690</v>
+      </c>
+      <c r="C201">
+        <v>119354</v>
+      </c>
+      <c r="D201">
+        <v>240776</v>
+      </c>
+      <c r="E201">
+        <v>281665</v>
+      </c>
+      <c r="F201">
+        <v>175646</v>
+      </c>
+      <c r="G201">
+        <v>82028</v>
+      </c>
+      <c r="H201">
+        <v>250190</v>
+      </c>
+      <c r="I201">
+        <v>156264</v>
+      </c>
+      <c r="J201">
+        <v>162936</v>
+      </c>
+      <c r="K201">
+        <v>112706</v>
+      </c>
+      <c r="L201">
+        <v>136413</v>
+      </c>
+      <c r="M201">
+        <v>152913</v>
+      </c>
+      <c r="N201">
+        <v>65521</v>
+      </c>
+      <c r="O201">
+        <v>197064</v>
+      </c>
+      <c r="P201">
+        <v>126939</v>
+      </c>
+      <c r="Q201">
+        <v>59077</v>
+      </c>
+      <c r="R201">
+        <v>74765</v>
+      </c>
+      <c r="S201">
+        <v>227075</v>
+      </c>
+      <c r="T201">
+        <v>26148</v>
+      </c>
+      <c r="U201">
+        <v>214376</v>
+      </c>
+      <c r="V201">
+        <v>59722</v>
+      </c>
+      <c r="W201">
+        <v>86396</v>
+      </c>
+      <c r="X201">
+        <v>45789</v>
+      </c>
+      <c r="Y201">
+        <v>162476</v>
+      </c>
+      <c r="Z201">
+        <v>105202</v>
+      </c>
+      <c r="AA201">
+        <v>60362</v>
+      </c>
+      <c r="AB201">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>892257</v>
+      </c>
+      <c r="C202">
+        <v>119548</v>
+      </c>
+      <c r="D202">
+        <v>242491</v>
+      </c>
+      <c r="E202">
+        <v>282517</v>
+      </c>
+      <c r="F202">
+        <v>176837</v>
+      </c>
+      <c r="G202">
+        <v>82230</v>
+      </c>
+      <c r="H202">
+        <v>252263</v>
+      </c>
+      <c r="I202">
+        <v>156903</v>
+      </c>
+      <c r="J202">
+        <v>163535</v>
+      </c>
+      <c r="K202">
+        <v>112961</v>
+      </c>
+      <c r="L202">
+        <v>136672</v>
+      </c>
+      <c r="M202">
+        <v>154171</v>
+      </c>
+      <c r="N202">
+        <v>65584</v>
+      </c>
+      <c r="O202">
+        <v>197745</v>
+      </c>
+      <c r="P202">
+        <v>127132</v>
+      </c>
+      <c r="Q202">
+        <v>59408</v>
+      </c>
+      <c r="R202">
+        <v>74833</v>
+      </c>
+      <c r="S202">
+        <v>227449</v>
+      </c>
+      <c r="T202">
+        <v>26166</v>
+      </c>
+      <c r="U202">
+        <v>214806</v>
+      </c>
+      <c r="V202">
+        <v>60035</v>
+      </c>
+      <c r="W202">
+        <v>86538</v>
+      </c>
+      <c r="X202">
+        <v>45853</v>
+      </c>
+      <c r="Y202">
+        <v>162583</v>
+      </c>
+      <c r="Z202">
+        <v>105445</v>
+      </c>
+      <c r="AA202">
+        <v>60484</v>
+      </c>
+      <c r="AB202">
+        <v>46545</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>893349</v>
+      </c>
+      <c r="C203">
+        <v>120252</v>
+      </c>
+      <c r="D203">
+        <v>242811</v>
+      </c>
+      <c r="E203">
+        <v>283235</v>
+      </c>
+      <c r="F203">
+        <v>177921</v>
+      </c>
+      <c r="G203">
+        <v>82332</v>
+      </c>
+      <c r="H203">
+        <v>253997</v>
+      </c>
+      <c r="I203">
+        <v>157907</v>
+      </c>
+      <c r="J203">
+        <v>168026</v>
+      </c>
+      <c r="K203">
+        <v>113163</v>
+      </c>
+      <c r="L203">
+        <v>136853</v>
+      </c>
+      <c r="M203">
+        <v>154820</v>
+      </c>
+      <c r="N203">
+        <v>65873</v>
+      </c>
+      <c r="O203">
+        <v>198640</v>
+      </c>
+      <c r="P203">
+        <v>127407</v>
+      </c>
+      <c r="Q203">
+        <v>60297</v>
+      </c>
+      <c r="R203">
+        <v>75046</v>
+      </c>
+      <c r="S203">
+        <v>227799</v>
+      </c>
+      <c r="T203">
+        <v>26176</v>
+      </c>
+      <c r="U203">
+        <v>216318</v>
+      </c>
+      <c r="V203">
+        <v>60725</v>
+      </c>
+      <c r="W203">
+        <v>87213</v>
+      </c>
+      <c r="X203">
+        <v>45955</v>
+      </c>
+      <c r="Y203">
+        <v>162998</v>
+      </c>
+      <c r="Z203">
+        <v>106895</v>
+      </c>
+      <c r="AA203">
+        <v>60746</v>
+      </c>
+      <c r="AB203">
+        <v>46848</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>901271</v>
+      </c>
+      <c r="C204">
+        <v>120974</v>
+      </c>
+      <c r="D204">
+        <v>244418</v>
+      </c>
+      <c r="E204">
+        <v>285448</v>
+      </c>
+      <c r="F204">
+        <v>178747</v>
+      </c>
+      <c r="G204">
+        <v>82595</v>
+      </c>
+      <c r="H204">
+        <v>255606</v>
+      </c>
+      <c r="I204">
+        <v>160940</v>
+      </c>
+      <c r="J204">
+        <v>171120</v>
+      </c>
+      <c r="K204">
+        <v>113903</v>
+      </c>
+      <c r="L204">
+        <v>137869</v>
+      </c>
+      <c r="M204">
+        <v>155820</v>
+      </c>
+      <c r="N204">
+        <v>65873</v>
+      </c>
+      <c r="O204">
+        <v>200241</v>
+      </c>
+      <c r="P204">
+        <v>128150</v>
+      </c>
+      <c r="Q204">
+        <v>60297</v>
+      </c>
+      <c r="R204">
+        <v>75203</v>
+      </c>
+      <c r="S204">
+        <v>229250</v>
+      </c>
+      <c r="T204">
+        <v>26287</v>
+      </c>
+      <c r="U204">
+        <v>217500</v>
+      </c>
+      <c r="V204">
+        <v>60725</v>
+      </c>
+      <c r="W204">
+        <v>87959</v>
+      </c>
+      <c r="X204">
+        <v>46117</v>
+      </c>
+      <c r="Y204">
+        <v>163802</v>
+      </c>
+      <c r="Z204">
+        <v>108117</v>
+      </c>
+      <c r="AA204">
+        <v>61260</v>
+      </c>
+      <c r="AB204">
+        <v>46848</v>
       </c>
     </row>
   </sheetData>
@@ -16259,7 +17238,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31287,7 +32266,7 @@
         <v>2325</v>
       </c>
       <c r="P191">
-        <v>3798</v>
+        <v>3819</v>
       </c>
       <c r="Q191">
         <v>914</v>
@@ -31453,7 +32432,7 @@
         <v>3505</v>
       </c>
       <c r="N193">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="O193">
         <v>2376</v>
@@ -31462,7 +32441,7 @@
         <v>3834</v>
       </c>
       <c r="Q193">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="R193">
         <v>1880</v>
@@ -31477,7 +32456,7 @@
         <v>6240</v>
       </c>
       <c r="V193">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="W193">
         <v>1884</v>
@@ -31496,6 +32475,952 @@
       </c>
       <c r="AB193">
         <v>598</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>31313</v>
+      </c>
+      <c r="C194">
+        <v>3242</v>
+      </c>
+      <c r="D194">
+        <v>16526</v>
+      </c>
+      <c r="E194">
+        <v>5627</v>
+      </c>
+      <c r="F194">
+        <v>2700</v>
+      </c>
+      <c r="G194">
+        <v>1924</v>
+      </c>
+      <c r="H194">
+        <v>5708</v>
+      </c>
+      <c r="I194">
+        <v>3714</v>
+      </c>
+      <c r="J194">
+        <v>3450</v>
+      </c>
+      <c r="K194">
+        <v>2529</v>
+      </c>
+      <c r="L194">
+        <v>7670</v>
+      </c>
+      <c r="M194">
+        <v>3537</v>
+      </c>
+      <c r="N194">
+        <v>2293</v>
+      </c>
+      <c r="O194">
+        <v>2400</v>
+      </c>
+      <c r="P194">
+        <v>3841</v>
+      </c>
+      <c r="Q194">
+        <v>966</v>
+      </c>
+      <c r="R194">
+        <v>1885</v>
+      </c>
+      <c r="S194">
+        <v>8565</v>
+      </c>
+      <c r="T194">
+        <v>624</v>
+      </c>
+      <c r="U194">
+        <v>6249</v>
+      </c>
+      <c r="V194">
+        <v>748</v>
+      </c>
+      <c r="W194">
+        <v>1893</v>
+      </c>
+      <c r="X194">
+        <v>671</v>
+      </c>
+      <c r="Y194">
+        <v>3499</v>
+      </c>
+      <c r="Z194">
+        <v>2940</v>
+      </c>
+      <c r="AA194">
+        <v>1180</v>
+      </c>
+      <c r="AB194">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>31353</v>
+      </c>
+      <c r="C195">
+        <v>3242</v>
+      </c>
+      <c r="D195">
+        <v>16568</v>
+      </c>
+      <c r="E195">
+        <v>5658</v>
+      </c>
+      <c r="F195">
+        <v>2710</v>
+      </c>
+      <c r="G195">
+        <v>1930</v>
+      </c>
+      <c r="H195">
+        <v>5837</v>
+      </c>
+      <c r="I195">
+        <v>3739</v>
+      </c>
+      <c r="J195">
+        <v>3466</v>
+      </c>
+      <c r="K195">
+        <v>2543</v>
+      </c>
+      <c r="L195">
+        <v>7702</v>
+      </c>
+      <c r="M195">
+        <v>3551</v>
+      </c>
+      <c r="N195">
+        <v>2302</v>
+      </c>
+      <c r="O195">
+        <v>2405</v>
+      </c>
+      <c r="P195">
+        <v>3847</v>
+      </c>
+      <c r="Q195">
+        <v>970</v>
+      </c>
+      <c r="R195">
+        <v>1893</v>
+      </c>
+      <c r="S195">
+        <v>8566</v>
+      </c>
+      <c r="T195">
+        <v>624</v>
+      </c>
+      <c r="U195">
+        <v>6257</v>
+      </c>
+      <c r="V195">
+        <v>754</v>
+      </c>
+      <c r="W195">
+        <v>1901</v>
+      </c>
+      <c r="X195">
+        <v>672</v>
+      </c>
+      <c r="Y195">
+        <v>3508</v>
+      </c>
+      <c r="Z195">
+        <v>2955</v>
+      </c>
+      <c r="AA195">
+        <v>1185</v>
+      </c>
+      <c r="AB195">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>31377</v>
+      </c>
+      <c r="C196">
+        <v>3268</v>
+      </c>
+      <c r="D196">
+        <v>16593</v>
+      </c>
+      <c r="E196">
+        <v>5693</v>
+      </c>
+      <c r="F196">
+        <v>2720</v>
+      </c>
+      <c r="G196">
+        <v>1936</v>
+      </c>
+      <c r="H196">
+        <v>5851</v>
+      </c>
+      <c r="I196">
+        <v>3756</v>
+      </c>
+      <c r="J196">
+        <v>3481</v>
+      </c>
+      <c r="K196">
+        <v>2550</v>
+      </c>
+      <c r="L196">
+        <v>7721</v>
+      </c>
+      <c r="M196">
+        <v>3577</v>
+      </c>
+      <c r="N196">
+        <v>2304</v>
+      </c>
+      <c r="O196">
+        <v>2422</v>
+      </c>
+      <c r="P196">
+        <v>3849</v>
+      </c>
+      <c r="Q196">
+        <v>987</v>
+      </c>
+      <c r="R196">
+        <v>1898</v>
+      </c>
+      <c r="S196">
+        <v>8567</v>
+      </c>
+      <c r="T196">
+        <v>624</v>
+      </c>
+      <c r="U196">
+        <v>6269</v>
+      </c>
+      <c r="V196">
+        <v>758</v>
+      </c>
+      <c r="W196">
+        <v>1915</v>
+      </c>
+      <c r="X196">
+        <v>673</v>
+      </c>
+      <c r="Y196">
+        <v>3518</v>
+      </c>
+      <c r="Z196">
+        <v>2978</v>
+      </c>
+      <c r="AA196">
+        <v>1187</v>
+      </c>
+      <c r="AB196">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>31430</v>
+      </c>
+      <c r="C197">
+        <v>3286</v>
+      </c>
+      <c r="D197">
+        <v>16646</v>
+      </c>
+      <c r="E197">
+        <v>5734</v>
+      </c>
+      <c r="F197">
+        <v>2763</v>
+      </c>
+      <c r="G197">
+        <v>1943</v>
+      </c>
+      <c r="H197">
+        <v>5877</v>
+      </c>
+      <c r="I197">
+        <v>3800</v>
+      </c>
+      <c r="J197">
+        <v>3484</v>
+      </c>
+      <c r="K197">
+        <v>2563</v>
+      </c>
+      <c r="L197">
+        <v>7741</v>
+      </c>
+      <c r="M197">
+        <v>3615</v>
+      </c>
+      <c r="N197">
+        <v>2304</v>
+      </c>
+      <c r="O197">
+        <v>2442</v>
+      </c>
+      <c r="P197">
+        <v>3855</v>
+      </c>
+      <c r="Q197">
+        <v>1007</v>
+      </c>
+      <c r="R197">
+        <v>1898</v>
+      </c>
+      <c r="S197">
+        <v>8588</v>
+      </c>
+      <c r="T197">
+        <v>630</v>
+      </c>
+      <c r="U197">
+        <v>6280</v>
+      </c>
+      <c r="V197">
+        <v>762</v>
+      </c>
+      <c r="W197">
+        <v>1924</v>
+      </c>
+      <c r="X197">
+        <v>675</v>
+      </c>
+      <c r="Y197">
+        <v>3529</v>
+      </c>
+      <c r="Z197">
+        <v>3010</v>
+      </c>
+      <c r="AA197">
+        <v>1193</v>
+      </c>
+      <c r="AB197">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>31821</v>
+      </c>
+      <c r="C198">
+        <v>3298</v>
+      </c>
+      <c r="D198">
+        <v>16770</v>
+      </c>
+      <c r="E198">
+        <v>5774</v>
+      </c>
+      <c r="F198">
+        <v>2813</v>
+      </c>
+      <c r="G198">
+        <v>1949</v>
+      </c>
+      <c r="H198">
+        <v>5935</v>
+      </c>
+      <c r="I198">
+        <v>3882</v>
+      </c>
+      <c r="J198">
+        <v>3605</v>
+      </c>
+      <c r="K198">
+        <v>2578</v>
+      </c>
+      <c r="L198">
+        <v>7764</v>
+      </c>
+      <c r="M198">
+        <v>3660</v>
+      </c>
+      <c r="N198">
+        <v>2310</v>
+      </c>
+      <c r="O198">
+        <v>2460</v>
+      </c>
+      <c r="P198">
+        <v>3863</v>
+      </c>
+      <c r="Q198">
+        <v>1024</v>
+      </c>
+      <c r="R198">
+        <v>1920</v>
+      </c>
+      <c r="S198">
+        <v>8634</v>
+      </c>
+      <c r="T198">
+        <v>631</v>
+      </c>
+      <c r="U198">
+        <v>6289</v>
+      </c>
+      <c r="V198">
+        <v>773</v>
+      </c>
+      <c r="W198">
+        <v>1931</v>
+      </c>
+      <c r="X198">
+        <v>675</v>
+      </c>
+      <c r="Y198">
+        <v>3539</v>
+      </c>
+      <c r="Z198">
+        <v>3040</v>
+      </c>
+      <c r="AA198">
+        <v>1207</v>
+      </c>
+      <c r="AB198">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>32104</v>
+      </c>
+      <c r="C199">
+        <v>3314</v>
+      </c>
+      <c r="D199">
+        <v>16871</v>
+      </c>
+      <c r="E199">
+        <v>5818</v>
+      </c>
+      <c r="F199">
+        <v>2843</v>
+      </c>
+      <c r="G199">
+        <v>1957</v>
+      </c>
+      <c r="H199">
+        <v>6009</v>
+      </c>
+      <c r="I199">
+        <v>3929</v>
+      </c>
+      <c r="J199">
+        <v>3701</v>
+      </c>
+      <c r="K199">
+        <v>2590</v>
+      </c>
+      <c r="L199">
+        <v>7792</v>
+      </c>
+      <c r="M199">
+        <v>3710</v>
+      </c>
+      <c r="N199">
+        <v>2316</v>
+      </c>
+      <c r="O199">
+        <v>2483</v>
+      </c>
+      <c r="P199">
+        <v>3874</v>
+      </c>
+      <c r="Q199">
+        <v>1035</v>
+      </c>
+      <c r="R199">
+        <v>1933</v>
+      </c>
+      <c r="S199">
+        <v>8657</v>
+      </c>
+      <c r="T199">
+        <v>635</v>
+      </c>
+      <c r="U199">
+        <v>6299</v>
+      </c>
+      <c r="V199">
+        <v>784</v>
+      </c>
+      <c r="W199">
+        <v>1947</v>
+      </c>
+      <c r="X199">
+        <v>676</v>
+      </c>
+      <c r="Y199">
+        <v>3550</v>
+      </c>
+      <c r="Z199">
+        <v>3073</v>
+      </c>
+      <c r="AA199">
+        <v>1217</v>
+      </c>
+      <c r="AB199">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>32338</v>
+      </c>
+      <c r="C200">
+        <v>3332</v>
+      </c>
+      <c r="D200">
+        <v>16883</v>
+      </c>
+      <c r="E200">
+        <v>5866</v>
+      </c>
+      <c r="F200">
+        <v>2867</v>
+      </c>
+      <c r="G200">
+        <v>1965</v>
+      </c>
+      <c r="H200">
+        <v>6114</v>
+      </c>
+      <c r="I200">
+        <v>3997</v>
+      </c>
+      <c r="J200">
+        <v>3761</v>
+      </c>
+      <c r="K200">
+        <v>2604</v>
+      </c>
+      <c r="L200">
+        <v>7817</v>
+      </c>
+      <c r="M200">
+        <v>3781</v>
+      </c>
+      <c r="N200">
+        <v>2321</v>
+      </c>
+      <c r="O200">
+        <v>2497</v>
+      </c>
+      <c r="P200">
+        <v>3883</v>
+      </c>
+      <c r="Q200">
+        <v>1055</v>
+      </c>
+      <c r="R200">
+        <v>1939</v>
+      </c>
+      <c r="S200">
+        <v>8683</v>
+      </c>
+      <c r="T200">
+        <v>636</v>
+      </c>
+      <c r="U200">
+        <v>6307</v>
+      </c>
+      <c r="V200">
+        <v>799</v>
+      </c>
+      <c r="W200">
+        <v>1958</v>
+      </c>
+      <c r="X200">
+        <v>677</v>
+      </c>
+      <c r="Y200">
+        <v>3560</v>
+      </c>
+      <c r="Z200">
+        <v>3093</v>
+      </c>
+      <c r="AA200">
+        <v>1231</v>
+      </c>
+      <c r="AB200">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>32567</v>
+      </c>
+      <c r="C201">
+        <v>3338</v>
+      </c>
+      <c r="D201">
+        <v>16985</v>
+      </c>
+      <c r="E201">
+        <v>5912</v>
+      </c>
+      <c r="F201">
+        <v>2883</v>
+      </c>
+      <c r="G201">
+        <v>1972</v>
+      </c>
+      <c r="H201">
+        <v>6200</v>
+      </c>
+      <c r="I201">
+        <v>4039</v>
+      </c>
+      <c r="J201">
+        <v>3793</v>
+      </c>
+      <c r="K201">
+        <v>2616</v>
+      </c>
+      <c r="L201">
+        <v>7852</v>
+      </c>
+      <c r="M201">
+        <v>3801</v>
+      </c>
+      <c r="N201">
+        <v>2323</v>
+      </c>
+      <c r="O201">
+        <v>2515</v>
+      </c>
+      <c r="P201">
+        <v>3888</v>
+      </c>
+      <c r="Q201">
+        <v>1065</v>
+      </c>
+      <c r="R201">
+        <v>1945</v>
+      </c>
+      <c r="S201">
+        <v>8685</v>
+      </c>
+      <c r="T201">
+        <v>637</v>
+      </c>
+      <c r="U201">
+        <v>6344</v>
+      </c>
+      <c r="V201">
+        <v>806</v>
+      </c>
+      <c r="W201">
+        <v>1967</v>
+      </c>
+      <c r="X201">
+        <v>678</v>
+      </c>
+      <c r="Y201">
+        <v>3569</v>
+      </c>
+      <c r="Z201">
+        <v>3111</v>
+      </c>
+      <c r="AA201">
+        <v>1240</v>
+      </c>
+      <c r="AB201">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>32606</v>
+      </c>
+      <c r="C202">
+        <v>3346</v>
+      </c>
+      <c r="D202">
+        <v>16990</v>
+      </c>
+      <c r="E202">
+        <v>5961</v>
+      </c>
+      <c r="F202">
+        <v>2899</v>
+      </c>
+      <c r="G202">
+        <v>1979</v>
+      </c>
+      <c r="H202">
+        <v>6276</v>
+      </c>
+      <c r="I202">
+        <v>4055</v>
+      </c>
+      <c r="J202">
+        <v>3805</v>
+      </c>
+      <c r="K202">
+        <v>2627</v>
+      </c>
+      <c r="L202">
+        <v>7874</v>
+      </c>
+      <c r="M202">
+        <v>3823</v>
+      </c>
+      <c r="N202">
+        <v>2325</v>
+      </c>
+      <c r="O202">
+        <v>2529</v>
+      </c>
+      <c r="P202">
+        <v>3892</v>
+      </c>
+      <c r="Q202">
+        <v>1085</v>
+      </c>
+      <c r="R202">
+        <v>1949</v>
+      </c>
+      <c r="S202">
+        <v>8686</v>
+      </c>
+      <c r="T202">
+        <v>640</v>
+      </c>
+      <c r="U202">
+        <v>6368</v>
+      </c>
+      <c r="V202">
+        <v>814</v>
+      </c>
+      <c r="W202">
+        <v>1973</v>
+      </c>
+      <c r="X202">
+        <v>678</v>
+      </c>
+      <c r="Y202">
+        <v>3580</v>
+      </c>
+      <c r="Z202">
+        <v>3130</v>
+      </c>
+      <c r="AA202">
+        <v>1246</v>
+      </c>
+      <c r="AB202">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>32642</v>
+      </c>
+      <c r="C203">
+        <v>3359</v>
+      </c>
+      <c r="D203">
+        <v>17003</v>
+      </c>
+      <c r="E203">
+        <v>5999</v>
+      </c>
+      <c r="F203">
+        <v>2930</v>
+      </c>
+      <c r="G203">
+        <v>1985</v>
+      </c>
+      <c r="H203">
+        <v>6286</v>
+      </c>
+      <c r="I203">
+        <v>4080</v>
+      </c>
+      <c r="J203">
+        <v>3877</v>
+      </c>
+      <c r="K203">
+        <v>2639</v>
+      </c>
+      <c r="L203">
+        <v>7888</v>
+      </c>
+      <c r="M203">
+        <v>3853</v>
+      </c>
+      <c r="N203">
+        <v>2334</v>
+      </c>
+      <c r="O203">
+        <v>2543</v>
+      </c>
+      <c r="P203">
+        <v>3898</v>
+      </c>
+      <c r="Q203">
+        <v>1106</v>
+      </c>
+      <c r="R203">
+        <v>1956</v>
+      </c>
+      <c r="S203">
+        <v>8698</v>
+      </c>
+      <c r="T203">
+        <v>640</v>
+      </c>
+      <c r="U203">
+        <v>6387</v>
+      </c>
+      <c r="V203">
+        <v>822</v>
+      </c>
+      <c r="W203">
+        <v>1988</v>
+      </c>
+      <c r="X203">
+        <v>680</v>
+      </c>
+      <c r="Y203">
+        <v>3590</v>
+      </c>
+      <c r="Z203">
+        <v>3157</v>
+      </c>
+      <c r="AA203">
+        <v>1253</v>
+      </c>
+      <c r="AB203">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>32963</v>
+      </c>
+      <c r="C204">
+        <v>3376</v>
+      </c>
+      <c r="D204">
+        <v>17180</v>
+      </c>
+      <c r="E204">
+        <v>6040</v>
+      </c>
+      <c r="F204">
+        <v>2970</v>
+      </c>
+      <c r="G204">
+        <v>1991</v>
+      </c>
+      <c r="H204">
+        <v>6328</v>
+      </c>
+      <c r="I204">
+        <v>4174</v>
+      </c>
+      <c r="J204">
+        <v>3927</v>
+      </c>
+      <c r="K204">
+        <v>2649</v>
+      </c>
+      <c r="L204">
+        <v>7914</v>
+      </c>
+      <c r="M204">
+        <v>3918</v>
+      </c>
+      <c r="N204">
+        <v>2334</v>
+      </c>
+      <c r="O204">
+        <v>2569</v>
+      </c>
+      <c r="P204">
+        <v>3907</v>
+      </c>
+      <c r="Q204">
+        <v>1106</v>
+      </c>
+      <c r="R204">
+        <v>1962</v>
+      </c>
+      <c r="S204">
+        <v>8749</v>
+      </c>
+      <c r="T204">
+        <v>642</v>
+      </c>
+      <c r="U204">
+        <v>6405</v>
+      </c>
+      <c r="V204">
+        <v>822</v>
+      </c>
+      <c r="W204">
+        <v>1996</v>
+      </c>
+      <c r="X204">
+        <v>682</v>
+      </c>
+      <c r="Y204">
+        <v>3601</v>
+      </c>
+      <c r="Z204">
+        <v>3172</v>
+      </c>
+      <c r="AA204">
+        <v>1269</v>
+      </c>
+      <c r="AB204">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -31513,15 +33438,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -31529,7 +33454,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -31537,7 +33462,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -31545,7 +33470,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -31553,7 +33478,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -31561,7 +33486,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -31569,7 +33494,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -31577,7 +33502,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -31585,7 +33510,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -31593,7 +33518,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -31601,7 +33526,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -31609,7 +33534,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -31617,7 +33542,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -31625,7 +33550,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -31633,7 +33558,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -31641,7 +33566,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -31649,7 +33574,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -31657,7 +33582,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -31665,7 +33590,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -31673,7 +33598,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -31681,7 +33606,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -31689,7 +33614,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -31697,7 +33622,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -31705,7 +33630,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -31713,7 +33638,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -31721,7 +33646,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -31729,7 +33654,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="302">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -798,6 +798,45 @@
     <t>2020-11-10</t>
   </si>
   <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1214,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB260"/>
+  <dimension ref="A1:AB273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2761,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="W34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X34">
         <v>8</v>
@@ -7494,7 +7533,7 @@
         <v>3390</v>
       </c>
       <c r="X89">
-        <v>5655</v>
+        <v>6091</v>
       </c>
       <c r="Y89">
         <v>21191</v>
@@ -21829,7 +21868,7 @@
         <v>82719</v>
       </c>
       <c r="O256">
-        <v>268644</v>
+        <v>270795</v>
       </c>
       <c r="P256">
         <v>164070</v>
@@ -21995,7 +22034,7 @@
         <v>166333</v>
       </c>
       <c r="M258">
-        <v>221208</v>
+        <v>221268</v>
       </c>
       <c r="N258">
         <v>82939</v>
@@ -22134,7 +22173,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1125936</v>
+        <v>1147451</v>
       </c>
       <c r="C260">
         <v>164659</v>
@@ -22170,7 +22209,7 @@
         <v>223870</v>
       </c>
       <c r="N260">
-        <v>83220</v>
+        <v>83309</v>
       </c>
       <c r="O260">
         <v>280541</v>
@@ -22179,7 +22218,7 @@
         <v>166771</v>
       </c>
       <c r="Q260">
-        <v>85507</v>
+        <v>85990</v>
       </c>
       <c r="R260">
         <v>85574</v>
@@ -22194,7 +22233,7 @@
         <v>259189</v>
       </c>
       <c r="V260">
-        <v>77095</v>
+        <v>77306</v>
       </c>
       <c r="W260">
         <v>118349</v>
@@ -22212,7 +22251,1125 @@
         <v>73688</v>
       </c>
       <c r="AB260">
-        <v>59273</v>
+        <v>59586</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1150872</v>
+      </c>
+      <c r="C261">
+        <v>165688</v>
+      </c>
+      <c r="D261">
+        <v>320598</v>
+      </c>
+      <c r="E261">
+        <v>367669</v>
+      </c>
+      <c r="F261">
+        <v>217793</v>
+      </c>
+      <c r="G261">
+        <v>92040</v>
+      </c>
+      <c r="H261">
+        <v>374651</v>
+      </c>
+      <c r="I261">
+        <v>267750</v>
+      </c>
+      <c r="J261">
+        <v>265131</v>
+      </c>
+      <c r="K261">
+        <v>136637</v>
+      </c>
+      <c r="L261">
+        <v>168093</v>
+      </c>
+      <c r="M261">
+        <v>225624</v>
+      </c>
+      <c r="N261">
+        <v>83463</v>
+      </c>
+      <c r="O261">
+        <v>283252</v>
+      </c>
+      <c r="P261">
+        <v>167486</v>
+      </c>
+      <c r="Q261">
+        <v>86428</v>
+      </c>
+      <c r="R261">
+        <v>85643</v>
+      </c>
+      <c r="S261">
+        <v>279989</v>
+      </c>
+      <c r="T261">
+        <v>32113</v>
+      </c>
+      <c r="U261">
+        <v>260058</v>
+      </c>
+      <c r="V261">
+        <v>77528</v>
+      </c>
+      <c r="W261">
+        <v>118939</v>
+      </c>
+      <c r="X261">
+        <v>53790</v>
+      </c>
+      <c r="Y261">
+        <v>188677</v>
+      </c>
+      <c r="Z261">
+        <v>148623</v>
+      </c>
+      <c r="AA261">
+        <v>73990</v>
+      </c>
+      <c r="AB261">
+        <v>59946</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1156652</v>
+      </c>
+      <c r="C262">
+        <v>166999</v>
+      </c>
+      <c r="D262">
+        <v>322383</v>
+      </c>
+      <c r="E262">
+        <v>369259</v>
+      </c>
+      <c r="F262">
+        <v>218479</v>
+      </c>
+      <c r="G262">
+        <v>92166</v>
+      </c>
+      <c r="H262">
+        <v>376537</v>
+      </c>
+      <c r="I262">
+        <v>271340</v>
+      </c>
+      <c r="J262">
+        <v>266553</v>
+      </c>
+      <c r="K262">
+        <v>137474</v>
+      </c>
+      <c r="L262">
+        <v>168880</v>
+      </c>
+      <c r="M262">
+        <v>227823</v>
+      </c>
+      <c r="N262">
+        <v>83632</v>
+      </c>
+      <c r="O262">
+        <v>284982</v>
+      </c>
+      <c r="P262">
+        <v>168089</v>
+      </c>
+      <c r="Q262">
+        <v>87081</v>
+      </c>
+      <c r="R262">
+        <v>85804</v>
+      </c>
+      <c r="S262">
+        <v>282471</v>
+      </c>
+      <c r="T262">
+        <v>32515</v>
+      </c>
+      <c r="U262">
+        <v>261131</v>
+      </c>
+      <c r="V262">
+        <v>77788</v>
+      </c>
+      <c r="W262">
+        <v>119456</v>
+      </c>
+      <c r="X262">
+        <v>54056</v>
+      </c>
+      <c r="Y262">
+        <v>189048</v>
+      </c>
+      <c r="Z262">
+        <v>151391</v>
+      </c>
+      <c r="AA262">
+        <v>74248</v>
+      </c>
+      <c r="AB262">
+        <v>60156</v>
+      </c>
+    </row>
+    <row r="263" spans="1:28">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1162782</v>
+      </c>
+      <c r="C263">
+        <v>168358</v>
+      </c>
+      <c r="D263">
+        <v>323006</v>
+      </c>
+      <c r="E263">
+        <v>371378</v>
+      </c>
+      <c r="F263">
+        <v>219012</v>
+      </c>
+      <c r="G263">
+        <v>92328</v>
+      </c>
+      <c r="H263">
+        <v>379274</v>
+      </c>
+      <c r="I263">
+        <v>274411</v>
+      </c>
+      <c r="J263">
+        <v>267319</v>
+      </c>
+      <c r="K263">
+        <v>137942</v>
+      </c>
+      <c r="L263">
+        <v>169710</v>
+      </c>
+      <c r="M263">
+        <v>237736</v>
+      </c>
+      <c r="N263">
+        <v>83762</v>
+      </c>
+      <c r="O263">
+        <v>289787</v>
+      </c>
+      <c r="P263">
+        <v>168596</v>
+      </c>
+      <c r="Q263">
+        <v>87602</v>
+      </c>
+      <c r="R263">
+        <v>85893</v>
+      </c>
+      <c r="S263">
+        <v>283463</v>
+      </c>
+      <c r="T263">
+        <v>32661</v>
+      </c>
+      <c r="U263">
+        <v>261534</v>
+      </c>
+      <c r="V263">
+        <v>77972</v>
+      </c>
+      <c r="W263">
+        <v>119940</v>
+      </c>
+      <c r="X263">
+        <v>54417</v>
+      </c>
+      <c r="Y263">
+        <v>189321</v>
+      </c>
+      <c r="Z263">
+        <v>151893</v>
+      </c>
+      <c r="AA263">
+        <v>74598</v>
+      </c>
+      <c r="AB263">
+        <v>60416</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1167422</v>
+      </c>
+      <c r="C264">
+        <v>168839</v>
+      </c>
+      <c r="D264">
+        <v>326645</v>
+      </c>
+      <c r="E264">
+        <v>372727</v>
+      </c>
+      <c r="F264">
+        <v>219712</v>
+      </c>
+      <c r="G264">
+        <v>92480</v>
+      </c>
+      <c r="H264">
+        <v>381310</v>
+      </c>
+      <c r="I264">
+        <v>277519</v>
+      </c>
+      <c r="J264">
+        <v>267540</v>
+      </c>
+      <c r="K264">
+        <v>138464</v>
+      </c>
+      <c r="L264">
+        <v>170553</v>
+      </c>
+      <c r="M264">
+        <v>238314</v>
+      </c>
+      <c r="N264">
+        <v>83762</v>
+      </c>
+      <c r="O264">
+        <v>293802</v>
+      </c>
+      <c r="P264">
+        <v>169165</v>
+      </c>
+      <c r="Q264">
+        <v>87935</v>
+      </c>
+      <c r="R264">
+        <v>85980</v>
+      </c>
+      <c r="S264">
+        <v>284208</v>
+      </c>
+      <c r="T264">
+        <v>32991</v>
+      </c>
+      <c r="U264">
+        <v>261788</v>
+      </c>
+      <c r="V264">
+        <v>78077</v>
+      </c>
+      <c r="W264">
+        <v>120172</v>
+      </c>
+      <c r="X264">
+        <v>54838</v>
+      </c>
+      <c r="Y264">
+        <v>189501</v>
+      </c>
+      <c r="Z264">
+        <v>152129</v>
+      </c>
+      <c r="AA264">
+        <v>74981</v>
+      </c>
+      <c r="AB264">
+        <v>60535</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>1168640</v>
+      </c>
+      <c r="C265">
+        <v>169928</v>
+      </c>
+      <c r="D265">
+        <v>326956</v>
+      </c>
+      <c r="E265">
+        <v>374009</v>
+      </c>
+      <c r="F265">
+        <v>219992</v>
+      </c>
+      <c r="G265">
+        <v>92596</v>
+      </c>
+      <c r="H265">
+        <v>382882</v>
+      </c>
+      <c r="I265">
+        <v>278707</v>
+      </c>
+      <c r="J265">
+        <v>267772</v>
+      </c>
+      <c r="K265">
+        <v>138546</v>
+      </c>
+      <c r="L265">
+        <v>170860</v>
+      </c>
+      <c r="M265">
+        <v>239107</v>
+      </c>
+      <c r="N265">
+        <v>84021</v>
+      </c>
+      <c r="O265">
+        <v>295946</v>
+      </c>
+      <c r="P265">
+        <v>169333</v>
+      </c>
+      <c r="Q265">
+        <v>88111</v>
+      </c>
+      <c r="R265">
+        <v>86045</v>
+      </c>
+      <c r="S265">
+        <v>285666</v>
+      </c>
+      <c r="T265">
+        <v>33156</v>
+      </c>
+      <c r="U265">
+        <v>261899</v>
+      </c>
+      <c r="V265">
+        <v>78169</v>
+      </c>
+      <c r="W265">
+        <v>120266</v>
+      </c>
+      <c r="X265">
+        <v>54979</v>
+      </c>
+      <c r="Y265">
+        <v>189590</v>
+      </c>
+      <c r="Z265">
+        <v>152358</v>
+      </c>
+      <c r="AA265">
+        <v>75182</v>
+      </c>
+      <c r="AB265">
+        <v>60579</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>1169377</v>
+      </c>
+      <c r="C266">
+        <v>171237</v>
+      </c>
+      <c r="D266">
+        <v>327455</v>
+      </c>
+      <c r="E266">
+        <v>374721</v>
+      </c>
+      <c r="F266">
+        <v>220403</v>
+      </c>
+      <c r="G266">
+        <v>92642</v>
+      </c>
+      <c r="H266">
+        <v>383473</v>
+      </c>
+      <c r="I266">
+        <v>279872</v>
+      </c>
+      <c r="J266">
+        <v>268997</v>
+      </c>
+      <c r="K266">
+        <v>139168</v>
+      </c>
+      <c r="L266">
+        <v>171216</v>
+      </c>
+      <c r="M266">
+        <v>240783</v>
+      </c>
+      <c r="N266">
+        <v>84522</v>
+      </c>
+      <c r="O266">
+        <v>297400</v>
+      </c>
+      <c r="P266">
+        <v>169552</v>
+      </c>
+      <c r="Q266">
+        <v>88965</v>
+      </c>
+      <c r="R266">
+        <v>86146</v>
+      </c>
+      <c r="S266">
+        <v>286674</v>
+      </c>
+      <c r="T266">
+        <v>33295</v>
+      </c>
+      <c r="U266">
+        <v>262345</v>
+      </c>
+      <c r="V266">
+        <v>78364</v>
+      </c>
+      <c r="W266">
+        <v>120466</v>
+      </c>
+      <c r="X266">
+        <v>55156</v>
+      </c>
+      <c r="Y266">
+        <v>189705</v>
+      </c>
+      <c r="Z266">
+        <v>152847</v>
+      </c>
+      <c r="AA266">
+        <v>75468</v>
+      </c>
+      <c r="AB266">
+        <v>60790</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1178075</v>
+      </c>
+      <c r="C267">
+        <v>172924</v>
+      </c>
+      <c r="D267">
+        <v>330009</v>
+      </c>
+      <c r="E267">
+        <v>375374</v>
+      </c>
+      <c r="F267">
+        <v>221031</v>
+      </c>
+      <c r="G267">
+        <v>92815</v>
+      </c>
+      <c r="H267">
+        <v>385427</v>
+      </c>
+      <c r="I267">
+        <v>283351</v>
+      </c>
+      <c r="J267">
+        <v>269805</v>
+      </c>
+      <c r="K267">
+        <v>139776</v>
+      </c>
+      <c r="L267">
+        <v>171890</v>
+      </c>
+      <c r="M267">
+        <v>243115</v>
+      </c>
+      <c r="N267">
+        <v>84758</v>
+      </c>
+      <c r="O267">
+        <v>302578</v>
+      </c>
+      <c r="P267">
+        <v>170458</v>
+      </c>
+      <c r="Q267">
+        <v>89654</v>
+      </c>
+      <c r="R267">
+        <v>86273</v>
+      </c>
+      <c r="S267">
+        <v>287629</v>
+      </c>
+      <c r="T267">
+        <v>33475</v>
+      </c>
+      <c r="U267">
+        <v>263155</v>
+      </c>
+      <c r="V267">
+        <v>78618</v>
+      </c>
+      <c r="W267">
+        <v>120913</v>
+      </c>
+      <c r="X267">
+        <v>55382</v>
+      </c>
+      <c r="Y267">
+        <v>189936</v>
+      </c>
+      <c r="Z267">
+        <v>153455</v>
+      </c>
+      <c r="AA267">
+        <v>75652</v>
+      </c>
+      <c r="AB267">
+        <v>61001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>1184496</v>
+      </c>
+      <c r="C268">
+        <v>174238</v>
+      </c>
+      <c r="D268">
+        <v>332396</v>
+      </c>
+      <c r="E268">
+        <v>377445</v>
+      </c>
+      <c r="F268">
+        <v>221526</v>
+      </c>
+      <c r="G268">
+        <v>92951</v>
+      </c>
+      <c r="H268">
+        <v>387751</v>
+      </c>
+      <c r="I268">
+        <v>287204</v>
+      </c>
+      <c r="J268">
+        <v>270918</v>
+      </c>
+      <c r="K268">
+        <v>140355</v>
+      </c>
+      <c r="L268">
+        <v>172716</v>
+      </c>
+      <c r="M268">
+        <v>246169</v>
+      </c>
+      <c r="N268">
+        <v>84909</v>
+      </c>
+      <c r="O268">
+        <v>306788</v>
+      </c>
+      <c r="P268">
+        <v>171161</v>
+      </c>
+      <c r="Q268">
+        <v>90229</v>
+      </c>
+      <c r="R268">
+        <v>86361</v>
+      </c>
+      <c r="S268">
+        <v>288494</v>
+      </c>
+      <c r="T268">
+        <v>33725</v>
+      </c>
+      <c r="U268">
+        <v>263935</v>
+      </c>
+      <c r="V268">
+        <v>78878</v>
+      </c>
+      <c r="W268">
+        <v>121428</v>
+      </c>
+      <c r="X268">
+        <v>55652</v>
+      </c>
+      <c r="Y268">
+        <v>190321</v>
+      </c>
+      <c r="Z268">
+        <v>153971</v>
+      </c>
+      <c r="AA268">
+        <v>76019</v>
+      </c>
+      <c r="AB268">
+        <v>61245</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1191290</v>
+      </c>
+      <c r="C269">
+        <v>175300</v>
+      </c>
+      <c r="D269">
+        <v>334514</v>
+      </c>
+      <c r="E269">
+        <v>380294</v>
+      </c>
+      <c r="F269">
+        <v>222282</v>
+      </c>
+      <c r="G269">
+        <v>93123</v>
+      </c>
+      <c r="H269">
+        <v>390337</v>
+      </c>
+      <c r="I269">
+        <v>289923</v>
+      </c>
+      <c r="J269">
+        <v>272094</v>
+      </c>
+      <c r="K269">
+        <v>140982</v>
+      </c>
+      <c r="L269">
+        <v>173624</v>
+      </c>
+      <c r="M269">
+        <v>248853</v>
+      </c>
+      <c r="N269">
+        <v>85244</v>
+      </c>
+      <c r="O269">
+        <v>311393</v>
+      </c>
+      <c r="P269">
+        <v>172118</v>
+      </c>
+      <c r="Q269">
+        <v>90765</v>
+      </c>
+      <c r="R269">
+        <v>86612</v>
+      </c>
+      <c r="S269">
+        <v>289550</v>
+      </c>
+      <c r="T269">
+        <v>33976</v>
+      </c>
+      <c r="U269">
+        <v>264810</v>
+      </c>
+      <c r="V269">
+        <v>79158</v>
+      </c>
+      <c r="W269">
+        <v>122007</v>
+      </c>
+      <c r="X269">
+        <v>55885</v>
+      </c>
+      <c r="Y269">
+        <v>190641</v>
+      </c>
+      <c r="Z269">
+        <v>154438</v>
+      </c>
+      <c r="AA269">
+        <v>76377</v>
+      </c>
+      <c r="AB269">
+        <v>61553</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1200348</v>
+      </c>
+      <c r="C270">
+        <v>176903</v>
+      </c>
+      <c r="D270">
+        <v>336915</v>
+      </c>
+      <c r="E270">
+        <v>382164</v>
+      </c>
+      <c r="F270">
+        <v>222836</v>
+      </c>
+      <c r="G270">
+        <v>93245</v>
+      </c>
+      <c r="H270">
+        <v>393110</v>
+      </c>
+      <c r="I270">
+        <v>293221</v>
+      </c>
+      <c r="J270">
+        <v>272956</v>
+      </c>
+      <c r="K270">
+        <v>141615</v>
+      </c>
+      <c r="L270">
+        <v>174312</v>
+      </c>
+      <c r="M270">
+        <v>250898</v>
+      </c>
+      <c r="N270">
+        <v>86164</v>
+      </c>
+      <c r="O270">
+        <v>317502</v>
+      </c>
+      <c r="P270">
+        <v>172858</v>
+      </c>
+      <c r="Q270">
+        <v>91682</v>
+      </c>
+      <c r="R270">
+        <v>86847</v>
+      </c>
+      <c r="S270">
+        <v>290484</v>
+      </c>
+      <c r="T270">
+        <v>34246</v>
+      </c>
+      <c r="U270">
+        <v>265562</v>
+      </c>
+      <c r="V270">
+        <v>79420</v>
+      </c>
+      <c r="W270">
+        <v>122518</v>
+      </c>
+      <c r="X270">
+        <v>56085</v>
+      </c>
+      <c r="Y270">
+        <v>190953</v>
+      </c>
+      <c r="Z270">
+        <v>154596</v>
+      </c>
+      <c r="AA270">
+        <v>76729</v>
+      </c>
+      <c r="AB270">
+        <v>61744</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1205435</v>
+      </c>
+      <c r="C271">
+        <v>177486</v>
+      </c>
+      <c r="D271">
+        <v>337277</v>
+      </c>
+      <c r="E271">
+        <v>383945</v>
+      </c>
+      <c r="F271">
+        <v>223378</v>
+      </c>
+      <c r="G271">
+        <v>93359</v>
+      </c>
+      <c r="H271">
+        <v>395534</v>
+      </c>
+      <c r="I271">
+        <v>296904</v>
+      </c>
+      <c r="J271">
+        <v>273234</v>
+      </c>
+      <c r="K271">
+        <v>142265</v>
+      </c>
+      <c r="L271">
+        <v>175258</v>
+      </c>
+      <c r="M271">
+        <v>254487</v>
+      </c>
+      <c r="N271">
+        <v>86164</v>
+      </c>
+      <c r="O271">
+        <v>323390</v>
+      </c>
+      <c r="P271">
+        <v>173346</v>
+      </c>
+      <c r="Q271">
+        <v>92467</v>
+      </c>
+      <c r="R271">
+        <v>87089</v>
+      </c>
+      <c r="S271">
+        <v>291312</v>
+      </c>
+      <c r="T271">
+        <v>34435</v>
+      </c>
+      <c r="U271">
+        <v>266008</v>
+      </c>
+      <c r="V271">
+        <v>79514</v>
+      </c>
+      <c r="W271">
+        <v>122744</v>
+      </c>
+      <c r="X271">
+        <v>56236</v>
+      </c>
+      <c r="Y271">
+        <v>191127</v>
+      </c>
+      <c r="Z271">
+        <v>154839</v>
+      </c>
+      <c r="AA271">
+        <v>77064</v>
+      </c>
+      <c r="AB271">
+        <v>61838</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1209588</v>
+      </c>
+      <c r="C272">
+        <v>178159</v>
+      </c>
+      <c r="D272">
+        <v>338203</v>
+      </c>
+      <c r="E272">
+        <v>384903</v>
+      </c>
+      <c r="F272">
+        <v>223658</v>
+      </c>
+      <c r="G272">
+        <v>93440</v>
+      </c>
+      <c r="H272">
+        <v>396933</v>
+      </c>
+      <c r="I272">
+        <v>297827</v>
+      </c>
+      <c r="J272">
+        <v>273308</v>
+      </c>
+      <c r="K272">
+        <v>142457</v>
+      </c>
+      <c r="L272">
+        <v>175730</v>
+      </c>
+      <c r="M272">
+        <v>255698</v>
+      </c>
+      <c r="N272">
+        <v>87158</v>
+      </c>
+      <c r="O272">
+        <v>326208</v>
+      </c>
+      <c r="P272">
+        <v>173477</v>
+      </c>
+      <c r="Q272">
+        <v>92970</v>
+      </c>
+      <c r="R272">
+        <v>87248</v>
+      </c>
+      <c r="S272">
+        <v>291617</v>
+      </c>
+      <c r="T272">
+        <v>34626</v>
+      </c>
+      <c r="U272">
+        <v>266273</v>
+      </c>
+      <c r="V272">
+        <v>79612</v>
+      </c>
+      <c r="W272">
+        <v>122929</v>
+      </c>
+      <c r="X272">
+        <v>56548</v>
+      </c>
+      <c r="Y272">
+        <v>191204</v>
+      </c>
+      <c r="Z272">
+        <v>154924</v>
+      </c>
+      <c r="AA272">
+        <v>77348</v>
+      </c>
+      <c r="AB272">
+        <v>62015</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1210625</v>
+      </c>
+      <c r="C273">
+        <v>179517</v>
+      </c>
+      <c r="D273">
+        <v>338688</v>
+      </c>
+      <c r="E273">
+        <v>386321</v>
+      </c>
+      <c r="F273">
+        <v>224517</v>
+      </c>
+      <c r="G273">
+        <v>93569</v>
+      </c>
+      <c r="H273">
+        <v>398014</v>
+      </c>
+      <c r="I273">
+        <v>298670</v>
+      </c>
+      <c r="J273">
+        <v>274139</v>
+      </c>
+      <c r="K273">
+        <v>142588</v>
+      </c>
+      <c r="L273">
+        <v>176158</v>
+      </c>
+      <c r="M273">
+        <v>257438</v>
+      </c>
+      <c r="N273">
+        <v>87158</v>
+      </c>
+      <c r="O273">
+        <v>327961</v>
+      </c>
+      <c r="P273">
+        <v>173780</v>
+      </c>
+      <c r="Q273">
+        <v>92970</v>
+      </c>
+      <c r="R273">
+        <v>87477</v>
+      </c>
+      <c r="S273">
+        <v>293249</v>
+      </c>
+      <c r="T273">
+        <v>34849</v>
+      </c>
+      <c r="U273">
+        <v>266780</v>
+      </c>
+      <c r="V273">
+        <v>79612</v>
+      </c>
+      <c r="W273">
+        <v>123378</v>
+      </c>
+      <c r="X273">
+        <v>56922</v>
+      </c>
+      <c r="Y273">
+        <v>191366</v>
+      </c>
+      <c r="Z273">
+        <v>155452</v>
+      </c>
+      <c r="AA273">
+        <v>77615</v>
+      </c>
+      <c r="AB273">
+        <v>62015</v>
       </c>
     </row>
   </sheetData>
@@ -22222,7 +23379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB260"/>
+  <dimension ref="A1:AB273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23769,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -28502,7 +29659,7 @@
         <v>107</v>
       </c>
       <c r="X89">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Y89">
         <v>754</v>
@@ -42837,7 +43994,7 @@
         <v>2607</v>
       </c>
       <c r="O256">
-        <v>3173</v>
+        <v>3195</v>
       </c>
       <c r="P256">
         <v>4607</v>
@@ -43003,7 +44160,7 @@
         <v>8732</v>
       </c>
       <c r="M258">
-        <v>5392</v>
+        <v>5452</v>
       </c>
       <c r="N258">
         <v>2610</v>
@@ -43178,7 +44335,7 @@
         <v>5497</v>
       </c>
       <c r="N260">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="O260">
         <v>3243</v>
@@ -43187,7 +44344,7 @@
         <v>4650</v>
       </c>
       <c r="Q260">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="R260">
         <v>2246</v>
@@ -43202,7 +44359,7 @@
         <v>6802</v>
       </c>
       <c r="V260">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="W260">
         <v>2486</v>
@@ -43220,7 +44377,1125 @@
         <v>1482</v>
       </c>
       <c r="AB260">
-        <v>695</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>39907</v>
+      </c>
+      <c r="C261">
+        <v>3969</v>
+      </c>
+      <c r="D261">
+        <v>20970</v>
+      </c>
+      <c r="E261">
+        <v>7859</v>
+      </c>
+      <c r="F261">
+        <v>3788</v>
+      </c>
+      <c r="G261">
+        <v>2282</v>
+      </c>
+      <c r="H261">
+        <v>9204</v>
+      </c>
+      <c r="I261">
+        <v>6034</v>
+      </c>
+      <c r="J261">
+        <v>5900</v>
+      </c>
+      <c r="K261">
+        <v>3178</v>
+      </c>
+      <c r="L261">
+        <v>8773</v>
+      </c>
+      <c r="M261">
+        <v>5563</v>
+      </c>
+      <c r="N261">
+        <v>2622</v>
+      </c>
+      <c r="O261">
+        <v>3268</v>
+      </c>
+      <c r="P261">
+        <v>4655</v>
+      </c>
+      <c r="Q261">
+        <v>1674</v>
+      </c>
+      <c r="R261">
+        <v>2247</v>
+      </c>
+      <c r="S261">
+        <v>9418</v>
+      </c>
+      <c r="T261">
+        <v>705</v>
+      </c>
+      <c r="U261">
+        <v>6806</v>
+      </c>
+      <c r="V261">
+        <v>1125</v>
+      </c>
+      <c r="W261">
+        <v>2499</v>
+      </c>
+      <c r="X261">
+        <v>770</v>
+      </c>
+      <c r="Y261">
+        <v>4146</v>
+      </c>
+      <c r="Z261">
+        <v>3943</v>
+      </c>
+      <c r="AA261">
+        <v>1486</v>
+      </c>
+      <c r="AB261">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>40202</v>
+      </c>
+      <c r="C262">
+        <v>3982</v>
+      </c>
+      <c r="D262">
+        <v>21090</v>
+      </c>
+      <c r="E262">
+        <v>7882</v>
+      </c>
+      <c r="F262">
+        <v>3797</v>
+      </c>
+      <c r="G262">
+        <v>2285</v>
+      </c>
+      <c r="H262">
+        <v>9259</v>
+      </c>
+      <c r="I262">
+        <v>6125</v>
+      </c>
+      <c r="J262">
+        <v>5936</v>
+      </c>
+      <c r="K262">
+        <v>3187</v>
+      </c>
+      <c r="L262">
+        <v>8794</v>
+      </c>
+      <c r="M262">
+        <v>5610</v>
+      </c>
+      <c r="N262">
+        <v>2647</v>
+      </c>
+      <c r="O262">
+        <v>3282</v>
+      </c>
+      <c r="P262">
+        <v>4681</v>
+      </c>
+      <c r="Q262">
+        <v>1683</v>
+      </c>
+      <c r="R262">
+        <v>2250</v>
+      </c>
+      <c r="S262">
+        <v>9430</v>
+      </c>
+      <c r="T262">
+        <v>707</v>
+      </c>
+      <c r="U262">
+        <v>6808</v>
+      </c>
+      <c r="V262">
+        <v>1128</v>
+      </c>
+      <c r="W262">
+        <v>2516</v>
+      </c>
+      <c r="X262">
+        <v>771</v>
+      </c>
+      <c r="Y262">
+        <v>4154</v>
+      </c>
+      <c r="Z262">
+        <v>4026</v>
+      </c>
+      <c r="AA262">
+        <v>1492</v>
+      </c>
+      <c r="AB262">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="263" spans="1:28">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>40202</v>
+      </c>
+      <c r="C263">
+        <v>3993</v>
+      </c>
+      <c r="D263">
+        <v>21162</v>
+      </c>
+      <c r="E263">
+        <v>7902</v>
+      </c>
+      <c r="F263">
+        <v>3808</v>
+      </c>
+      <c r="G263">
+        <v>2288</v>
+      </c>
+      <c r="H263">
+        <v>9405</v>
+      </c>
+      <c r="I263">
+        <v>6168</v>
+      </c>
+      <c r="J263">
+        <v>6029</v>
+      </c>
+      <c r="K263">
+        <v>3193</v>
+      </c>
+      <c r="L263">
+        <v>8805</v>
+      </c>
+      <c r="M263">
+        <v>5688</v>
+      </c>
+      <c r="N263">
+        <v>2649</v>
+      </c>
+      <c r="O263">
+        <v>3298</v>
+      </c>
+      <c r="P263">
+        <v>4683</v>
+      </c>
+      <c r="Q263">
+        <v>1688</v>
+      </c>
+      <c r="R263">
+        <v>2254</v>
+      </c>
+      <c r="S263">
+        <v>9435</v>
+      </c>
+      <c r="T263">
+        <v>707</v>
+      </c>
+      <c r="U263">
+        <v>6817</v>
+      </c>
+      <c r="V263">
+        <v>1133</v>
+      </c>
+      <c r="W263">
+        <v>2523</v>
+      </c>
+      <c r="X263">
+        <v>774</v>
+      </c>
+      <c r="Y263">
+        <v>4162</v>
+      </c>
+      <c r="Z263">
+        <v>4036</v>
+      </c>
+      <c r="AA263">
+        <v>1497</v>
+      </c>
+      <c r="AB263">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>40549</v>
+      </c>
+      <c r="C264">
+        <v>3998</v>
+      </c>
+      <c r="D264">
+        <v>21284</v>
+      </c>
+      <c r="E264">
+        <v>7922</v>
+      </c>
+      <c r="F264">
+        <v>3813</v>
+      </c>
+      <c r="G264">
+        <v>2291</v>
+      </c>
+      <c r="H264">
+        <v>9504</v>
+      </c>
+      <c r="I264">
+        <v>6215</v>
+      </c>
+      <c r="J264">
+        <v>6030</v>
+      </c>
+      <c r="K264">
+        <v>3199</v>
+      </c>
+      <c r="L264">
+        <v>8815</v>
+      </c>
+      <c r="M264">
+        <v>5691</v>
+      </c>
+      <c r="N264">
+        <v>2649</v>
+      </c>
+      <c r="O264">
+        <v>3309</v>
+      </c>
+      <c r="P264">
+        <v>4693</v>
+      </c>
+      <c r="Q264">
+        <v>1690</v>
+      </c>
+      <c r="R264">
+        <v>2257</v>
+      </c>
+      <c r="S264">
+        <v>9439</v>
+      </c>
+      <c r="T264">
+        <v>708</v>
+      </c>
+      <c r="U264">
+        <v>6827</v>
+      </c>
+      <c r="V264">
+        <v>1137</v>
+      </c>
+      <c r="W264">
+        <v>2524</v>
+      </c>
+      <c r="X264">
+        <v>777</v>
+      </c>
+      <c r="Y264">
+        <v>4171</v>
+      </c>
+      <c r="Z264">
+        <v>4040</v>
+      </c>
+      <c r="AA264">
+        <v>1501</v>
+      </c>
+      <c r="AB264">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>40564</v>
+      </c>
+      <c r="C265">
+        <v>4009</v>
+      </c>
+      <c r="D265">
+        <v>21294</v>
+      </c>
+      <c r="E265">
+        <v>7943</v>
+      </c>
+      <c r="F265">
+        <v>3817</v>
+      </c>
+      <c r="G265">
+        <v>2295</v>
+      </c>
+      <c r="H265">
+        <v>9507</v>
+      </c>
+      <c r="I265">
+        <v>6219</v>
+      </c>
+      <c r="J265">
+        <v>6035</v>
+      </c>
+      <c r="K265">
+        <v>3204</v>
+      </c>
+      <c r="L265">
+        <v>8827</v>
+      </c>
+      <c r="M265">
+        <v>5697</v>
+      </c>
+      <c r="N265">
+        <v>2652</v>
+      </c>
+      <c r="O265">
+        <v>3318</v>
+      </c>
+      <c r="P265">
+        <v>4697</v>
+      </c>
+      <c r="Q265">
+        <v>1693</v>
+      </c>
+      <c r="R265">
+        <v>2259</v>
+      </c>
+      <c r="S265">
+        <v>9439</v>
+      </c>
+      <c r="T265">
+        <v>708</v>
+      </c>
+      <c r="U265">
+        <v>6832</v>
+      </c>
+      <c r="V265">
+        <v>1137</v>
+      </c>
+      <c r="W265">
+        <v>2530</v>
+      </c>
+      <c r="X265">
+        <v>777</v>
+      </c>
+      <c r="Y265">
+        <v>4178</v>
+      </c>
+      <c r="Z265">
+        <v>4041</v>
+      </c>
+      <c r="AA265">
+        <v>1501</v>
+      </c>
+      <c r="AB265">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>40576</v>
+      </c>
+      <c r="C266">
+        <v>4030</v>
+      </c>
+      <c r="D266">
+        <v>21301</v>
+      </c>
+      <c r="E266">
+        <v>7967</v>
+      </c>
+      <c r="F266">
+        <v>3825</v>
+      </c>
+      <c r="G266">
+        <v>2298</v>
+      </c>
+      <c r="H266">
+        <v>9517</v>
+      </c>
+      <c r="I266">
+        <v>6243</v>
+      </c>
+      <c r="J266">
+        <v>6060</v>
+      </c>
+      <c r="K266">
+        <v>3211</v>
+      </c>
+      <c r="L266">
+        <v>8838</v>
+      </c>
+      <c r="M266">
+        <v>5728</v>
+      </c>
+      <c r="N266">
+        <v>2652</v>
+      </c>
+      <c r="O266">
+        <v>3330</v>
+      </c>
+      <c r="P266">
+        <v>4699</v>
+      </c>
+      <c r="Q266">
+        <v>1697</v>
+      </c>
+      <c r="R266">
+        <v>2260</v>
+      </c>
+      <c r="S266">
+        <v>9443</v>
+      </c>
+      <c r="T266">
+        <v>708</v>
+      </c>
+      <c r="U266">
+        <v>6838</v>
+      </c>
+      <c r="V266">
+        <v>1141</v>
+      </c>
+      <c r="W266">
+        <v>2541</v>
+      </c>
+      <c r="X266">
+        <v>780</v>
+      </c>
+      <c r="Y266">
+        <v>4187</v>
+      </c>
+      <c r="Z266">
+        <v>4053</v>
+      </c>
+      <c r="AA266">
+        <v>1503</v>
+      </c>
+      <c r="AB266">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>40749</v>
+      </c>
+      <c r="C267">
+        <v>4037</v>
+      </c>
+      <c r="D267">
+        <v>21474</v>
+      </c>
+      <c r="E267">
+        <v>7989</v>
+      </c>
+      <c r="F267">
+        <v>3837</v>
+      </c>
+      <c r="G267">
+        <v>2301</v>
+      </c>
+      <c r="H267">
+        <v>9531</v>
+      </c>
+      <c r="I267">
+        <v>6314</v>
+      </c>
+      <c r="J267">
+        <v>6092</v>
+      </c>
+      <c r="K267">
+        <v>3216</v>
+      </c>
+      <c r="L267">
+        <v>8854</v>
+      </c>
+      <c r="M267">
+        <v>5758</v>
+      </c>
+      <c r="N267">
+        <v>2658</v>
+      </c>
+      <c r="O267">
+        <v>3370</v>
+      </c>
+      <c r="P267">
+        <v>4723</v>
+      </c>
+      <c r="Q267">
+        <v>1699</v>
+      </c>
+      <c r="R267">
+        <v>2263</v>
+      </c>
+      <c r="S267">
+        <v>9448</v>
+      </c>
+      <c r="T267">
+        <v>709</v>
+      </c>
+      <c r="U267">
+        <v>6844</v>
+      </c>
+      <c r="V267">
+        <v>1144</v>
+      </c>
+      <c r="W267">
+        <v>2554</v>
+      </c>
+      <c r="X267">
+        <v>782</v>
+      </c>
+      <c r="Y267">
+        <v>4195</v>
+      </c>
+      <c r="Z267">
+        <v>4056</v>
+      </c>
+      <c r="AA267">
+        <v>1508</v>
+      </c>
+      <c r="AB267">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>40927</v>
+      </c>
+      <c r="C268">
+        <v>4058</v>
+      </c>
+      <c r="D268">
+        <v>21698</v>
+      </c>
+      <c r="E268">
+        <v>8013</v>
+      </c>
+      <c r="F268">
+        <v>3845</v>
+      </c>
+      <c r="G268">
+        <v>2304</v>
+      </c>
+      <c r="H268">
+        <v>9605</v>
+      </c>
+      <c r="I268">
+        <v>6356</v>
+      </c>
+      <c r="J268">
+        <v>6130</v>
+      </c>
+      <c r="K268">
+        <v>3223</v>
+      </c>
+      <c r="L268">
+        <v>8873</v>
+      </c>
+      <c r="M268">
+        <v>5793</v>
+      </c>
+      <c r="N268">
+        <v>2661</v>
+      </c>
+      <c r="O268">
+        <v>3384</v>
+      </c>
+      <c r="P268">
+        <v>4728</v>
+      </c>
+      <c r="Q268">
+        <v>1705</v>
+      </c>
+      <c r="R268">
+        <v>2266</v>
+      </c>
+      <c r="S268">
+        <v>9466</v>
+      </c>
+      <c r="T268">
+        <v>709</v>
+      </c>
+      <c r="U268">
+        <v>6851</v>
+      </c>
+      <c r="V268">
+        <v>1146</v>
+      </c>
+      <c r="W268">
+        <v>2556</v>
+      </c>
+      <c r="X268">
+        <v>783</v>
+      </c>
+      <c r="Y268">
+        <v>4203</v>
+      </c>
+      <c r="Z268">
+        <v>4063</v>
+      </c>
+      <c r="AA268">
+        <v>1511</v>
+      </c>
+      <c r="AB268">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>41074</v>
+      </c>
+      <c r="C269">
+        <v>4082</v>
+      </c>
+      <c r="D269">
+        <v>21806</v>
+      </c>
+      <c r="E269">
+        <v>8038</v>
+      </c>
+      <c r="F269">
+        <v>3852</v>
+      </c>
+      <c r="G269">
+        <v>2308</v>
+      </c>
+      <c r="H269">
+        <v>9648</v>
+      </c>
+      <c r="I269">
+        <v>6410</v>
+      </c>
+      <c r="J269">
+        <v>6201</v>
+      </c>
+      <c r="K269">
+        <v>3232</v>
+      </c>
+      <c r="L269">
+        <v>8890</v>
+      </c>
+      <c r="M269">
+        <v>5827</v>
+      </c>
+      <c r="N269">
+        <v>2667</v>
+      </c>
+      <c r="O269">
+        <v>3405</v>
+      </c>
+      <c r="P269">
+        <v>4741</v>
+      </c>
+      <c r="Q269">
+        <v>1713</v>
+      </c>
+      <c r="R269">
+        <v>2270</v>
+      </c>
+      <c r="S269">
+        <v>9473</v>
+      </c>
+      <c r="T269">
+        <v>710</v>
+      </c>
+      <c r="U269">
+        <v>6855</v>
+      </c>
+      <c r="V269">
+        <v>1147</v>
+      </c>
+      <c r="W269">
+        <v>2568</v>
+      </c>
+      <c r="X269">
+        <v>785</v>
+      </c>
+      <c r="Y269">
+        <v>4210</v>
+      </c>
+      <c r="Z269">
+        <v>4073</v>
+      </c>
+      <c r="AA269">
+        <v>1513</v>
+      </c>
+      <c r="AB269">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>41179</v>
+      </c>
+      <c r="C270">
+        <v>4101</v>
+      </c>
+      <c r="D270">
+        <v>21938</v>
+      </c>
+      <c r="E270">
+        <v>8061</v>
+      </c>
+      <c r="F270">
+        <v>3857</v>
+      </c>
+      <c r="G270">
+        <v>2311</v>
+      </c>
+      <c r="H270">
+        <v>9688</v>
+      </c>
+      <c r="I270">
+        <v>6447</v>
+      </c>
+      <c r="J270">
+        <v>6224</v>
+      </c>
+      <c r="K270">
+        <v>3236</v>
+      </c>
+      <c r="L270">
+        <v>8899</v>
+      </c>
+      <c r="M270">
+        <v>5832</v>
+      </c>
+      <c r="N270">
+        <v>2668</v>
+      </c>
+      <c r="O270">
+        <v>3435</v>
+      </c>
+      <c r="P270">
+        <v>4761</v>
+      </c>
+      <c r="Q270">
+        <v>1718</v>
+      </c>
+      <c r="R270">
+        <v>2274</v>
+      </c>
+      <c r="S270">
+        <v>9487</v>
+      </c>
+      <c r="T270">
+        <v>711</v>
+      </c>
+      <c r="U270">
+        <v>6861</v>
+      </c>
+      <c r="V270">
+        <v>1148</v>
+      </c>
+      <c r="W270">
+        <v>2574</v>
+      </c>
+      <c r="X270">
+        <v>787</v>
+      </c>
+      <c r="Y270">
+        <v>4218</v>
+      </c>
+      <c r="Z270">
+        <v>4081</v>
+      </c>
+      <c r="AA270">
+        <v>1515</v>
+      </c>
+      <c r="AB270">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>41256</v>
+      </c>
+      <c r="C271">
+        <v>4114</v>
+      </c>
+      <c r="D271">
+        <v>21971</v>
+      </c>
+      <c r="E271">
+        <v>8081</v>
+      </c>
+      <c r="F271">
+        <v>3862</v>
+      </c>
+      <c r="G271">
+        <v>2314</v>
+      </c>
+      <c r="H271">
+        <v>9732</v>
+      </c>
+      <c r="I271">
+        <v>6487</v>
+      </c>
+      <c r="J271">
+        <v>6244</v>
+      </c>
+      <c r="K271">
+        <v>3244</v>
+      </c>
+      <c r="L271">
+        <v>8920</v>
+      </c>
+      <c r="M271">
+        <v>5846</v>
+      </c>
+      <c r="N271">
+        <v>2668</v>
+      </c>
+      <c r="O271">
+        <v>3459</v>
+      </c>
+      <c r="P271">
+        <v>4771</v>
+      </c>
+      <c r="Q271">
+        <v>1722</v>
+      </c>
+      <c r="R271">
+        <v>2274</v>
+      </c>
+      <c r="S271">
+        <v>9487</v>
+      </c>
+      <c r="T271">
+        <v>713</v>
+      </c>
+      <c r="U271">
+        <v>6865</v>
+      </c>
+      <c r="V271">
+        <v>1148</v>
+      </c>
+      <c r="W271">
+        <v>2579</v>
+      </c>
+      <c r="X271">
+        <v>789</v>
+      </c>
+      <c r="Y271">
+        <v>4224</v>
+      </c>
+      <c r="Z271">
+        <v>4082</v>
+      </c>
+      <c r="AA271">
+        <v>1516</v>
+      </c>
+      <c r="AB271">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>41267</v>
+      </c>
+      <c r="C272">
+        <v>4128</v>
+      </c>
+      <c r="D272">
+        <v>21974</v>
+      </c>
+      <c r="E272">
+        <v>8102</v>
+      </c>
+      <c r="F272">
+        <v>3867</v>
+      </c>
+      <c r="G272">
+        <v>2317</v>
+      </c>
+      <c r="H272">
+        <v>9777</v>
+      </c>
+      <c r="I272">
+        <v>6494</v>
+      </c>
+      <c r="J272">
+        <v>6245</v>
+      </c>
+      <c r="K272">
+        <v>3248</v>
+      </c>
+      <c r="L272">
+        <v>8923</v>
+      </c>
+      <c r="M272">
+        <v>5853</v>
+      </c>
+      <c r="N272">
+        <v>2670</v>
+      </c>
+      <c r="O272">
+        <v>3471</v>
+      </c>
+      <c r="P272">
+        <v>4779</v>
+      </c>
+      <c r="Q272">
+        <v>1727</v>
+      </c>
+      <c r="R272">
+        <v>2275</v>
+      </c>
+      <c r="S272">
+        <v>9485</v>
+      </c>
+      <c r="T272">
+        <v>713</v>
+      </c>
+      <c r="U272">
+        <v>6871</v>
+      </c>
+      <c r="V272">
+        <v>1148</v>
+      </c>
+      <c r="W272">
+        <v>2584</v>
+      </c>
+      <c r="X272">
+        <v>789</v>
+      </c>
+      <c r="Y272">
+        <v>4232</v>
+      </c>
+      <c r="Z272">
+        <v>4089</v>
+      </c>
+      <c r="AA272">
+        <v>1516</v>
+      </c>
+      <c r="AB272">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>41276</v>
+      </c>
+      <c r="C273">
+        <v>4149</v>
+      </c>
+      <c r="D273">
+        <v>22028</v>
+      </c>
+      <c r="E273">
+        <v>8123</v>
+      </c>
+      <c r="F273">
+        <v>3882</v>
+      </c>
+      <c r="G273">
+        <v>2321</v>
+      </c>
+      <c r="H273">
+        <v>9794</v>
+      </c>
+      <c r="I273">
+        <v>6524</v>
+      </c>
+      <c r="J273">
+        <v>6263</v>
+      </c>
+      <c r="K273">
+        <v>3256</v>
+      </c>
+      <c r="L273">
+        <v>8926</v>
+      </c>
+      <c r="M273">
+        <v>5879</v>
+      </c>
+      <c r="N273">
+        <v>2670</v>
+      </c>
+      <c r="O273">
+        <v>3494</v>
+      </c>
+      <c r="P273">
+        <v>4797</v>
+      </c>
+      <c r="Q273">
+        <v>1727</v>
+      </c>
+      <c r="R273">
+        <v>2279</v>
+      </c>
+      <c r="S273">
+        <v>9514</v>
+      </c>
+      <c r="T273">
+        <v>714</v>
+      </c>
+      <c r="U273">
+        <v>6875</v>
+      </c>
+      <c r="V273">
+        <v>1148</v>
+      </c>
+      <c r="W273">
+        <v>2591</v>
+      </c>
+      <c r="X273">
+        <v>792</v>
+      </c>
+      <c r="Y273">
+        <v>4241</v>
+      </c>
+      <c r="Z273">
+        <v>4097</v>
+      </c>
+      <c r="AA273">
+        <v>1522</v>
+      </c>
+      <c r="AB273">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -43238,15 +45513,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -43254,7 +45529,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -43262,7 +45537,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -43270,7 +45545,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -43278,7 +45553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -43286,7 +45561,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -43294,7 +45569,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -43302,7 +45577,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -43310,7 +45585,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -43318,7 +45593,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -43326,7 +45601,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -43334,7 +45609,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -43342,7 +45617,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -43350,7 +45625,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -43358,7 +45633,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -43366,7 +45641,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -43374,7 +45649,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -43382,7 +45657,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -43390,7 +45665,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -43398,7 +45673,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -43406,7 +45681,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -43414,7 +45689,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -43422,7 +45697,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -43430,7 +45705,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -43438,7 +45713,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -43446,7 +45721,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -43454,7 +45729,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="312">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -837,6 +837,36 @@
     <t>2020-11-23</t>
   </si>
   <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1253,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB273"/>
+  <dimension ref="A1:AB283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23327,7 +23357,7 @@
         <v>257438</v>
       </c>
       <c r="N273">
-        <v>87158</v>
+        <v>87366</v>
       </c>
       <c r="O273">
         <v>327961</v>
@@ -23336,7 +23366,7 @@
         <v>173780</v>
       </c>
       <c r="Q273">
-        <v>92970</v>
+        <v>93747</v>
       </c>
       <c r="R273">
         <v>87477</v>
@@ -23351,7 +23381,7 @@
         <v>266780</v>
       </c>
       <c r="V273">
-        <v>79612</v>
+        <v>79894</v>
       </c>
       <c r="W273">
         <v>123378</v>
@@ -23369,7 +23399,867 @@
         <v>77615</v>
       </c>
       <c r="AB273">
-        <v>62015</v>
+        <v>62139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1215844</v>
+      </c>
+      <c r="C274">
+        <v>181306</v>
+      </c>
+      <c r="D274">
+        <v>340833</v>
+      </c>
+      <c r="E274">
+        <v>387786</v>
+      </c>
+      <c r="F274">
+        <v>225013</v>
+      </c>
+      <c r="G274">
+        <v>93708</v>
+      </c>
+      <c r="H274">
+        <v>399536</v>
+      </c>
+      <c r="I274">
+        <v>301766</v>
+      </c>
+      <c r="J274">
+        <v>275529</v>
+      </c>
+      <c r="K274">
+        <v>142898</v>
+      </c>
+      <c r="L274">
+        <v>176939</v>
+      </c>
+      <c r="M274">
+        <v>261018</v>
+      </c>
+      <c r="N274">
+        <v>88462</v>
+      </c>
+      <c r="O274">
+        <v>332076</v>
+      </c>
+      <c r="P274">
+        <v>174579</v>
+      </c>
+      <c r="Q274">
+        <v>94652</v>
+      </c>
+      <c r="R274">
+        <v>87800</v>
+      </c>
+      <c r="S274">
+        <v>294116</v>
+      </c>
+      <c r="T274">
+        <v>35053</v>
+      </c>
+      <c r="U274">
+        <v>267700</v>
+      </c>
+      <c r="V274">
+        <v>80218</v>
+      </c>
+      <c r="W274">
+        <v>124076</v>
+      </c>
+      <c r="X274">
+        <v>57343</v>
+      </c>
+      <c r="Y274">
+        <v>191721</v>
+      </c>
+      <c r="Z274">
+        <v>156177</v>
+      </c>
+      <c r="AA274">
+        <v>78189</v>
+      </c>
+      <c r="AB274">
+        <v>62414</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1224744</v>
+      </c>
+      <c r="C275">
+        <v>182855</v>
+      </c>
+      <c r="D275">
+        <v>343995</v>
+      </c>
+      <c r="E275">
+        <v>390909</v>
+      </c>
+      <c r="F275">
+        <v>225873</v>
+      </c>
+      <c r="G275">
+        <v>93915</v>
+      </c>
+      <c r="H275">
+        <v>403542</v>
+      </c>
+      <c r="I275">
+        <v>306335</v>
+      </c>
+      <c r="J275">
+        <v>276135</v>
+      </c>
+      <c r="K275">
+        <v>143615</v>
+      </c>
+      <c r="L275">
+        <v>178086</v>
+      </c>
+      <c r="M275">
+        <v>264821</v>
+      </c>
+      <c r="N275">
+        <v>89170</v>
+      </c>
+      <c r="O275">
+        <v>337009</v>
+      </c>
+      <c r="P275">
+        <v>175298</v>
+      </c>
+      <c r="Q275">
+        <v>95193</v>
+      </c>
+      <c r="R275">
+        <v>88100</v>
+      </c>
+      <c r="S275">
+        <v>295275</v>
+      </c>
+      <c r="T275">
+        <v>35188</v>
+      </c>
+      <c r="U275">
+        <v>268524</v>
+      </c>
+      <c r="V275">
+        <v>80450</v>
+      </c>
+      <c r="W275">
+        <v>124494</v>
+      </c>
+      <c r="X275">
+        <v>57698</v>
+      </c>
+      <c r="Y275">
+        <v>192129</v>
+      </c>
+      <c r="Z275">
+        <v>156937</v>
+      </c>
+      <c r="AA275">
+        <v>78470</v>
+      </c>
+      <c r="AB275">
+        <v>62603</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1229267</v>
+      </c>
+      <c r="C276">
+        <v>184801</v>
+      </c>
+      <c r="D276">
+        <v>346024</v>
+      </c>
+      <c r="E276">
+        <v>392381</v>
+      </c>
+      <c r="F276">
+        <v>226697</v>
+      </c>
+      <c r="G276">
+        <v>94060</v>
+      </c>
+      <c r="H276">
+        <v>406880</v>
+      </c>
+      <c r="I276">
+        <v>308647</v>
+      </c>
+      <c r="J276">
+        <v>276943</v>
+      </c>
+      <c r="K276">
+        <v>144378</v>
+      </c>
+      <c r="L276">
+        <v>178639</v>
+      </c>
+      <c r="M276">
+        <v>269258</v>
+      </c>
+      <c r="N276">
+        <v>93048</v>
+      </c>
+      <c r="O276">
+        <v>343007</v>
+      </c>
+      <c r="P276">
+        <v>176214</v>
+      </c>
+      <c r="Q276">
+        <v>95721</v>
+      </c>
+      <c r="R276">
+        <v>88661</v>
+      </c>
+      <c r="S276">
+        <v>297793</v>
+      </c>
+      <c r="T276">
+        <v>35304</v>
+      </c>
+      <c r="U276">
+        <v>269057</v>
+      </c>
+      <c r="V276">
+        <v>80717</v>
+      </c>
+      <c r="W276">
+        <v>125155</v>
+      </c>
+      <c r="X276">
+        <v>58043</v>
+      </c>
+      <c r="Y276">
+        <v>192501</v>
+      </c>
+      <c r="Z276">
+        <v>157524</v>
+      </c>
+      <c r="AA276">
+        <v>78788</v>
+      </c>
+      <c r="AB276">
+        <v>62757</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1233587</v>
+      </c>
+      <c r="C277">
+        <v>186574</v>
+      </c>
+      <c r="D277">
+        <v>347348</v>
+      </c>
+      <c r="E277">
+        <v>394300</v>
+      </c>
+      <c r="F277">
+        <v>227581</v>
+      </c>
+      <c r="G277">
+        <v>94392</v>
+      </c>
+      <c r="H277">
+        <v>409731</v>
+      </c>
+      <c r="I277">
+        <v>311123</v>
+      </c>
+      <c r="J277">
+        <v>278738</v>
+      </c>
+      <c r="K277">
+        <v>144741</v>
+      </c>
+      <c r="L277">
+        <v>179308</v>
+      </c>
+      <c r="M277">
+        <v>272984</v>
+      </c>
+      <c r="N277">
+        <v>93481</v>
+      </c>
+      <c r="O277">
+        <v>346427</v>
+      </c>
+      <c r="P277">
+        <v>177142</v>
+      </c>
+      <c r="Q277">
+        <v>97605</v>
+      </c>
+      <c r="R277">
+        <v>88999</v>
+      </c>
+      <c r="S277">
+        <v>298312</v>
+      </c>
+      <c r="T277">
+        <v>35756</v>
+      </c>
+      <c r="U277">
+        <v>269870</v>
+      </c>
+      <c r="V277">
+        <v>81266</v>
+      </c>
+      <c r="W277">
+        <v>125675</v>
+      </c>
+      <c r="X277">
+        <v>58300</v>
+      </c>
+      <c r="Y277">
+        <v>192845</v>
+      </c>
+      <c r="Z277">
+        <v>158084</v>
+      </c>
+      <c r="AA277">
+        <v>78788</v>
+      </c>
+      <c r="AB277">
+        <v>62816</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>1238094</v>
+      </c>
+      <c r="C278">
+        <v>188342</v>
+      </c>
+      <c r="D278">
+        <v>352760</v>
+      </c>
+      <c r="E278">
+        <v>398504</v>
+      </c>
+      <c r="F278">
+        <v>228075</v>
+      </c>
+      <c r="G278">
+        <v>94613</v>
+      </c>
+      <c r="H278">
+        <v>412996</v>
+      </c>
+      <c r="I278">
+        <v>318936</v>
+      </c>
+      <c r="J278">
+        <v>278880</v>
+      </c>
+      <c r="K278">
+        <v>145110</v>
+      </c>
+      <c r="L278">
+        <v>181392</v>
+      </c>
+      <c r="M278">
+        <v>276185</v>
+      </c>
+      <c r="N278">
+        <v>94482</v>
+      </c>
+      <c r="O278">
+        <v>355950</v>
+      </c>
+      <c r="P278">
+        <v>177800</v>
+      </c>
+      <c r="Q278">
+        <v>98363</v>
+      </c>
+      <c r="R278">
+        <v>89507</v>
+      </c>
+      <c r="S278">
+        <v>299590</v>
+      </c>
+      <c r="T278">
+        <v>35920</v>
+      </c>
+      <c r="U278">
+        <v>270368</v>
+      </c>
+      <c r="V278">
+        <v>81469</v>
+      </c>
+      <c r="W278">
+        <v>126721</v>
+      </c>
+      <c r="X278">
+        <v>58835</v>
+      </c>
+      <c r="Y278">
+        <v>193053</v>
+      </c>
+      <c r="Z278">
+        <v>158314</v>
+      </c>
+      <c r="AA278">
+        <v>79765</v>
+      </c>
+      <c r="AB278">
+        <v>63234</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1240473</v>
+      </c>
+      <c r="C279">
+        <v>188929</v>
+      </c>
+      <c r="D279">
+        <v>353316</v>
+      </c>
+      <c r="E279">
+        <v>401419</v>
+      </c>
+      <c r="F279">
+        <v>228702</v>
+      </c>
+      <c r="G279">
+        <v>94859</v>
+      </c>
+      <c r="H279">
+        <v>415247</v>
+      </c>
+      <c r="I279">
+        <v>320778</v>
+      </c>
+      <c r="J279">
+        <v>278960</v>
+      </c>
+      <c r="K279">
+        <v>145212</v>
+      </c>
+      <c r="L279">
+        <v>181841</v>
+      </c>
+      <c r="M279">
+        <v>277707</v>
+      </c>
+      <c r="N279">
+        <v>95556</v>
+      </c>
+      <c r="O279">
+        <v>358997</v>
+      </c>
+      <c r="P279">
+        <v>177991</v>
+      </c>
+      <c r="Q279">
+        <v>99061</v>
+      </c>
+      <c r="R279">
+        <v>89998</v>
+      </c>
+      <c r="S279">
+        <v>300134</v>
+      </c>
+      <c r="T279">
+        <v>36080</v>
+      </c>
+      <c r="U279">
+        <v>270548</v>
+      </c>
+      <c r="V279">
+        <v>81632</v>
+      </c>
+      <c r="W279">
+        <v>127014</v>
+      </c>
+      <c r="X279">
+        <v>58956</v>
+      </c>
+      <c r="Y279">
+        <v>193066</v>
+      </c>
+      <c r="Z279">
+        <v>158417</v>
+      </c>
+      <c r="AA279">
+        <v>80055</v>
+      </c>
+      <c r="AB279">
+        <v>63322</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1241653</v>
+      </c>
+      <c r="C280">
+        <v>190001</v>
+      </c>
+      <c r="D280">
+        <v>354354</v>
+      </c>
+      <c r="E280">
+        <v>403071</v>
+      </c>
+      <c r="F280">
+        <v>229146</v>
+      </c>
+      <c r="G280">
+        <v>94984</v>
+      </c>
+      <c r="H280">
+        <v>416335</v>
+      </c>
+      <c r="I280">
+        <v>322058</v>
+      </c>
+      <c r="J280">
+        <v>279892</v>
+      </c>
+      <c r="K280">
+        <v>145253</v>
+      </c>
+      <c r="L280">
+        <v>182406</v>
+      </c>
+      <c r="M280">
+        <v>280084</v>
+      </c>
+      <c r="N280">
+        <v>96096</v>
+      </c>
+      <c r="O280">
+        <v>364344</v>
+      </c>
+      <c r="P280">
+        <v>178200</v>
+      </c>
+      <c r="Q280">
+        <v>100151</v>
+      </c>
+      <c r="R280">
+        <v>90148</v>
+      </c>
+      <c r="S280">
+        <v>301251</v>
+      </c>
+      <c r="T280">
+        <v>36259</v>
+      </c>
+      <c r="U280">
+        <v>271228</v>
+      </c>
+      <c r="V280">
+        <v>81972</v>
+      </c>
+      <c r="W280">
+        <v>127686</v>
+      </c>
+      <c r="X280">
+        <v>59131</v>
+      </c>
+      <c r="Y280">
+        <v>193170</v>
+      </c>
+      <c r="Z280">
+        <v>158982</v>
+      </c>
+      <c r="AA280">
+        <v>80538</v>
+      </c>
+      <c r="AB280">
+        <v>63572</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1250590</v>
+      </c>
+      <c r="C281">
+        <v>191973</v>
+      </c>
+      <c r="D281">
+        <v>357982</v>
+      </c>
+      <c r="E281">
+        <v>406189</v>
+      </c>
+      <c r="F281">
+        <v>230122</v>
+      </c>
+      <c r="G281">
+        <v>95152</v>
+      </c>
+      <c r="H281">
+        <v>419655</v>
+      </c>
+      <c r="I281">
+        <v>326425</v>
+      </c>
+      <c r="J281">
+        <v>281635</v>
+      </c>
+      <c r="K281">
+        <v>145794</v>
+      </c>
+      <c r="L281">
+        <v>184259</v>
+      </c>
+      <c r="M281">
+        <v>285323</v>
+      </c>
+      <c r="N281">
+        <v>97132</v>
+      </c>
+      <c r="O281">
+        <v>372545</v>
+      </c>
+      <c r="P281">
+        <v>179265</v>
+      </c>
+      <c r="Q281">
+        <v>101102</v>
+      </c>
+      <c r="R281">
+        <v>90386</v>
+      </c>
+      <c r="S281">
+        <v>301606</v>
+      </c>
+      <c r="T281">
+        <v>36563</v>
+      </c>
+      <c r="U281">
+        <v>272125</v>
+      </c>
+      <c r="V281">
+        <v>82295</v>
+      </c>
+      <c r="W281">
+        <v>128432</v>
+      </c>
+      <c r="X281">
+        <v>59423</v>
+      </c>
+      <c r="Y281">
+        <v>193550</v>
+      </c>
+      <c r="Z281">
+        <v>159726</v>
+      </c>
+      <c r="AA281">
+        <v>80802</v>
+      </c>
+      <c r="AB281">
+        <v>63899</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>1259704</v>
+      </c>
+      <c r="C282">
+        <v>193825</v>
+      </c>
+      <c r="D282">
+        <v>361397</v>
+      </c>
+      <c r="E282">
+        <v>409417</v>
+      </c>
+      <c r="F282">
+        <v>230905</v>
+      </c>
+      <c r="G282">
+        <v>95388</v>
+      </c>
+      <c r="H282">
+        <v>424155</v>
+      </c>
+      <c r="I282">
+        <v>331279</v>
+      </c>
+      <c r="J282">
+        <v>283442</v>
+      </c>
+      <c r="K282">
+        <v>146528</v>
+      </c>
+      <c r="L282">
+        <v>185607</v>
+      </c>
+      <c r="M282">
+        <v>288546</v>
+      </c>
+      <c r="N282">
+        <v>97302</v>
+      </c>
+      <c r="O282">
+        <v>378621</v>
+      </c>
+      <c r="P282">
+        <v>179963</v>
+      </c>
+      <c r="Q282">
+        <v>102236</v>
+      </c>
+      <c r="R282">
+        <v>90920</v>
+      </c>
+      <c r="S282">
+        <v>301802</v>
+      </c>
+      <c r="T282">
+        <v>36746</v>
+      </c>
+      <c r="U282">
+        <v>273126</v>
+      </c>
+      <c r="V282">
+        <v>82651</v>
+      </c>
+      <c r="W282">
+        <v>129096</v>
+      </c>
+      <c r="X282">
+        <v>59850</v>
+      </c>
+      <c r="Y282">
+        <v>193883</v>
+      </c>
+      <c r="Z282">
+        <v>160540</v>
+      </c>
+      <c r="AA282">
+        <v>81322</v>
+      </c>
+      <c r="AB282">
+        <v>64174</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1267912</v>
+      </c>
+      <c r="C283">
+        <v>195437</v>
+      </c>
+      <c r="D283">
+        <v>365185</v>
+      </c>
+      <c r="E283">
+        <v>412685</v>
+      </c>
+      <c r="F283">
+        <v>231426</v>
+      </c>
+      <c r="G283">
+        <v>95643</v>
+      </c>
+      <c r="H283">
+        <v>428790</v>
+      </c>
+      <c r="I283">
+        <v>337003</v>
+      </c>
+      <c r="J283">
+        <v>284568</v>
+      </c>
+      <c r="K283">
+        <v>147274</v>
+      </c>
+      <c r="L283">
+        <v>187038</v>
+      </c>
+      <c r="M283">
+        <v>293969</v>
+      </c>
+      <c r="N283">
+        <v>97302</v>
+      </c>
+      <c r="O283">
+        <v>383577</v>
+      </c>
+      <c r="P283">
+        <v>180842</v>
+      </c>
+      <c r="Q283">
+        <v>102236</v>
+      </c>
+      <c r="R283">
+        <v>91718</v>
+      </c>
+      <c r="S283">
+        <v>303168</v>
+      </c>
+      <c r="T283">
+        <v>36899</v>
+      </c>
+      <c r="U283">
+        <v>273753</v>
+      </c>
+      <c r="V283">
+        <v>82651</v>
+      </c>
+      <c r="W283">
+        <v>129825</v>
+      </c>
+      <c r="X283">
+        <v>60391</v>
+      </c>
+      <c r="Y283">
+        <v>194320</v>
+      </c>
+      <c r="Z283">
+        <v>161116</v>
+      </c>
+      <c r="AA283">
+        <v>81733</v>
+      </c>
+      <c r="AB283">
+        <v>64317</v>
       </c>
     </row>
   </sheetData>
@@ -23379,7 +24269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB273"/>
+  <dimension ref="A1:AB283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45406,7 +46296,7 @@
         <v>4089</v>
       </c>
       <c r="AA272">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="AB272">
         <v>720</v>
@@ -45453,7 +46343,7 @@
         <v>5879</v>
       </c>
       <c r="N273">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="O273">
         <v>3494</v>
@@ -45462,7 +46352,7 @@
         <v>4797</v>
       </c>
       <c r="Q273">
-        <v>1727</v>
+        <v>1738</v>
       </c>
       <c r="R273">
         <v>2279</v>
@@ -45477,7 +46367,7 @@
         <v>6875</v>
       </c>
       <c r="V273">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="W273">
         <v>2591</v>
@@ -45495,7 +46385,867 @@
         <v>1522</v>
       </c>
       <c r="AB273">
-        <v>720</v>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>41455</v>
+      </c>
+      <c r="C274">
+        <v>4172</v>
+      </c>
+      <c r="D274">
+        <v>22141</v>
+      </c>
+      <c r="E274">
+        <v>8143</v>
+      </c>
+      <c r="F274">
+        <v>3898</v>
+      </c>
+      <c r="G274">
+        <v>2324</v>
+      </c>
+      <c r="H274">
+        <v>9804</v>
+      </c>
+      <c r="I274">
+        <v>6573</v>
+      </c>
+      <c r="J274">
+        <v>6281</v>
+      </c>
+      <c r="K274">
+        <v>3261</v>
+      </c>
+      <c r="L274">
+        <v>8951</v>
+      </c>
+      <c r="M274">
+        <v>5930</v>
+      </c>
+      <c r="N274">
+        <v>2675</v>
+      </c>
+      <c r="O274">
+        <v>3530</v>
+      </c>
+      <c r="P274">
+        <v>4818</v>
+      </c>
+      <c r="Q274">
+        <v>1742</v>
+      </c>
+      <c r="R274">
+        <v>2283</v>
+      </c>
+      <c r="S274">
+        <v>9522</v>
+      </c>
+      <c r="T274">
+        <v>715</v>
+      </c>
+      <c r="U274">
+        <v>6880</v>
+      </c>
+      <c r="V274">
+        <v>1153</v>
+      </c>
+      <c r="W274">
+        <v>2596</v>
+      </c>
+      <c r="X274">
+        <v>795</v>
+      </c>
+      <c r="Y274">
+        <v>4248</v>
+      </c>
+      <c r="Z274">
+        <v>4107</v>
+      </c>
+      <c r="AA274">
+        <v>1529</v>
+      </c>
+      <c r="AB274">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>41601</v>
+      </c>
+      <c r="C275">
+        <v>4186</v>
+      </c>
+      <c r="D275">
+        <v>22256</v>
+      </c>
+      <c r="E275">
+        <v>8165</v>
+      </c>
+      <c r="F275">
+        <v>3906</v>
+      </c>
+      <c r="G275">
+        <v>2326</v>
+      </c>
+      <c r="H275">
+        <v>9858</v>
+      </c>
+      <c r="I275">
+        <v>6639</v>
+      </c>
+      <c r="J275">
+        <v>6300</v>
+      </c>
+      <c r="K275">
+        <v>3268</v>
+      </c>
+      <c r="L275">
+        <v>8971</v>
+      </c>
+      <c r="M275">
+        <v>5977</v>
+      </c>
+      <c r="N275">
+        <v>2676</v>
+      </c>
+      <c r="O275">
+        <v>3561</v>
+      </c>
+      <c r="P275">
+        <v>4826</v>
+      </c>
+      <c r="Q275">
+        <v>1748</v>
+      </c>
+      <c r="R275">
+        <v>2288</v>
+      </c>
+      <c r="S275">
+        <v>9532</v>
+      </c>
+      <c r="T275">
+        <v>721</v>
+      </c>
+      <c r="U275">
+        <v>6884</v>
+      </c>
+      <c r="V275">
+        <v>1155</v>
+      </c>
+      <c r="W275">
+        <v>2603</v>
+      </c>
+      <c r="X275">
+        <v>799</v>
+      </c>
+      <c r="Y275">
+        <v>4256</v>
+      </c>
+      <c r="Z275">
+        <v>4111</v>
+      </c>
+      <c r="AA275">
+        <v>1534</v>
+      </c>
+      <c r="AB275">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>41773</v>
+      </c>
+      <c r="C276">
+        <v>4207</v>
+      </c>
+      <c r="D276">
+        <v>22394</v>
+      </c>
+      <c r="E276">
+        <v>8185</v>
+      </c>
+      <c r="F276">
+        <v>3910</v>
+      </c>
+      <c r="G276">
+        <v>2329</v>
+      </c>
+      <c r="H276">
+        <v>9904</v>
+      </c>
+      <c r="I276">
+        <v>6686</v>
+      </c>
+      <c r="J276">
+        <v>6305</v>
+      </c>
+      <c r="K276">
+        <v>3276</v>
+      </c>
+      <c r="L276">
+        <v>8987</v>
+      </c>
+      <c r="M276">
+        <v>6043</v>
+      </c>
+      <c r="N276">
+        <v>2688</v>
+      </c>
+      <c r="O276">
+        <v>3608</v>
+      </c>
+      <c r="P276">
+        <v>4856</v>
+      </c>
+      <c r="Q276">
+        <v>1754</v>
+      </c>
+      <c r="R276">
+        <v>2292</v>
+      </c>
+      <c r="S276">
+        <v>9565</v>
+      </c>
+      <c r="T276">
+        <v>722</v>
+      </c>
+      <c r="U276">
+        <v>6892</v>
+      </c>
+      <c r="V276">
+        <v>1157</v>
+      </c>
+      <c r="W276">
+        <v>2608</v>
+      </c>
+      <c r="X276">
+        <v>802</v>
+      </c>
+      <c r="Y276">
+        <v>4263</v>
+      </c>
+      <c r="Z276">
+        <v>4116</v>
+      </c>
+      <c r="AA276">
+        <v>1535</v>
+      </c>
+      <c r="AB276">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>41902</v>
+      </c>
+      <c r="C277">
+        <v>4224</v>
+      </c>
+      <c r="D277">
+        <v>22448</v>
+      </c>
+      <c r="E277">
+        <v>8207</v>
+      </c>
+      <c r="F277">
+        <v>3915</v>
+      </c>
+      <c r="G277">
+        <v>2331</v>
+      </c>
+      <c r="H277">
+        <v>9948</v>
+      </c>
+      <c r="I277">
+        <v>6725</v>
+      </c>
+      <c r="J277">
+        <v>6339</v>
+      </c>
+      <c r="K277">
+        <v>3283</v>
+      </c>
+      <c r="L277">
+        <v>8999</v>
+      </c>
+      <c r="M277">
+        <v>6078</v>
+      </c>
+      <c r="N277">
+        <v>2695</v>
+      </c>
+      <c r="O277">
+        <v>3667</v>
+      </c>
+      <c r="P277">
+        <v>4869</v>
+      </c>
+      <c r="Q277">
+        <v>1757</v>
+      </c>
+      <c r="R277">
+        <v>2296</v>
+      </c>
+      <c r="S277">
+        <v>9598</v>
+      </c>
+      <c r="T277">
+        <v>722</v>
+      </c>
+      <c r="U277">
+        <v>6901</v>
+      </c>
+      <c r="V277">
+        <v>1160</v>
+      </c>
+      <c r="W277">
+        <v>2617</v>
+      </c>
+      <c r="X277">
+        <v>805</v>
+      </c>
+      <c r="Y277">
+        <v>4272</v>
+      </c>
+      <c r="Z277">
+        <v>4120</v>
+      </c>
+      <c r="AA277">
+        <v>1535</v>
+      </c>
+      <c r="AB277">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>42048</v>
+      </c>
+      <c r="C278">
+        <v>4245</v>
+      </c>
+      <c r="D278">
+        <v>22539</v>
+      </c>
+      <c r="E278">
+        <v>8227</v>
+      </c>
+      <c r="F278">
+        <v>3920</v>
+      </c>
+      <c r="G278">
+        <v>2334</v>
+      </c>
+      <c r="H278">
+        <v>9990</v>
+      </c>
+      <c r="I278">
+        <v>6768</v>
+      </c>
+      <c r="J278">
+        <v>6348</v>
+      </c>
+      <c r="K278">
+        <v>3288</v>
+      </c>
+      <c r="L278">
+        <v>9019</v>
+      </c>
+      <c r="M278">
+        <v>6107</v>
+      </c>
+      <c r="N278">
+        <v>2695</v>
+      </c>
+      <c r="O278">
+        <v>3701</v>
+      </c>
+      <c r="P278">
+        <v>4876</v>
+      </c>
+      <c r="Q278">
+        <v>1766</v>
+      </c>
+      <c r="R278">
+        <v>2300</v>
+      </c>
+      <c r="S278">
+        <v>9607</v>
+      </c>
+      <c r="T278">
+        <v>723</v>
+      </c>
+      <c r="U278">
+        <v>6907</v>
+      </c>
+      <c r="V278">
+        <v>1162</v>
+      </c>
+      <c r="W278">
+        <v>2622</v>
+      </c>
+      <c r="X278">
+        <v>806</v>
+      </c>
+      <c r="Y278">
+        <v>4279</v>
+      </c>
+      <c r="Z278">
+        <v>4127</v>
+      </c>
+      <c r="AA278">
+        <v>1553</v>
+      </c>
+      <c r="AB278">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>42076</v>
+      </c>
+      <c r="C279">
+        <v>4252</v>
+      </c>
+      <c r="D279">
+        <v>22561</v>
+      </c>
+      <c r="E279">
+        <v>8247</v>
+      </c>
+      <c r="F279">
+        <v>3925</v>
+      </c>
+      <c r="G279">
+        <v>2336</v>
+      </c>
+      <c r="H279">
+        <v>10031</v>
+      </c>
+      <c r="I279">
+        <v>6776</v>
+      </c>
+      <c r="J279">
+        <v>6349</v>
+      </c>
+      <c r="K279">
+        <v>3292</v>
+      </c>
+      <c r="L279">
+        <v>9030</v>
+      </c>
+      <c r="M279">
+        <v>6122</v>
+      </c>
+      <c r="N279">
+        <v>2699</v>
+      </c>
+      <c r="O279">
+        <v>3721</v>
+      </c>
+      <c r="P279">
+        <v>4885</v>
+      </c>
+      <c r="Q279">
+        <v>1769</v>
+      </c>
+      <c r="R279">
+        <v>2304</v>
+      </c>
+      <c r="S279">
+        <v>9607</v>
+      </c>
+      <c r="T279">
+        <v>723</v>
+      </c>
+      <c r="U279">
+        <v>6915</v>
+      </c>
+      <c r="V279">
+        <v>1164</v>
+      </c>
+      <c r="W279">
+        <v>2624</v>
+      </c>
+      <c r="X279">
+        <v>806</v>
+      </c>
+      <c r="Y279">
+        <v>4287</v>
+      </c>
+      <c r="Z279">
+        <v>4134</v>
+      </c>
+      <c r="AA279">
+        <v>1555</v>
+      </c>
+      <c r="AB279">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>42095</v>
+      </c>
+      <c r="C280">
+        <v>4279</v>
+      </c>
+      <c r="D280">
+        <v>22590</v>
+      </c>
+      <c r="E280">
+        <v>8268</v>
+      </c>
+      <c r="F280">
+        <v>3930</v>
+      </c>
+      <c r="G280">
+        <v>2339</v>
+      </c>
+      <c r="H280">
+        <v>10041</v>
+      </c>
+      <c r="I280">
+        <v>6813</v>
+      </c>
+      <c r="J280">
+        <v>6373</v>
+      </c>
+      <c r="K280">
+        <v>3295</v>
+      </c>
+      <c r="L280">
+        <v>9037</v>
+      </c>
+      <c r="M280">
+        <v>6154</v>
+      </c>
+      <c r="N280">
+        <v>2706</v>
+      </c>
+      <c r="O280">
+        <v>3762</v>
+      </c>
+      <c r="P280">
+        <v>4894</v>
+      </c>
+      <c r="Q280">
+        <v>1780</v>
+      </c>
+      <c r="R280">
+        <v>2308</v>
+      </c>
+      <c r="S280">
+        <v>9628</v>
+      </c>
+      <c r="T280">
+        <v>723</v>
+      </c>
+      <c r="U280">
+        <v>6918</v>
+      </c>
+      <c r="V280">
+        <v>1167</v>
+      </c>
+      <c r="W280">
+        <v>2634</v>
+      </c>
+      <c r="X280">
+        <v>807</v>
+      </c>
+      <c r="Y280">
+        <v>4296</v>
+      </c>
+      <c r="Z280">
+        <v>4142</v>
+      </c>
+      <c r="AA280">
+        <v>1561</v>
+      </c>
+      <c r="AB280">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>42290</v>
+      </c>
+      <c r="C281">
+        <v>4296</v>
+      </c>
+      <c r="D281">
+        <v>22683</v>
+      </c>
+      <c r="E281">
+        <v>8293</v>
+      </c>
+      <c r="F281">
+        <v>3939</v>
+      </c>
+      <c r="G281">
+        <v>2341</v>
+      </c>
+      <c r="H281">
+        <v>10051</v>
+      </c>
+      <c r="I281">
+        <v>6900</v>
+      </c>
+      <c r="J281">
+        <v>6386</v>
+      </c>
+      <c r="K281">
+        <v>3305</v>
+      </c>
+      <c r="L281">
+        <v>9056</v>
+      </c>
+      <c r="M281">
+        <v>6215</v>
+      </c>
+      <c r="N281">
+        <v>2715</v>
+      </c>
+      <c r="O281">
+        <v>3809</v>
+      </c>
+      <c r="P281">
+        <v>4896</v>
+      </c>
+      <c r="Q281">
+        <v>1793</v>
+      </c>
+      <c r="R281">
+        <v>2312</v>
+      </c>
+      <c r="S281">
+        <v>9638</v>
+      </c>
+      <c r="T281">
+        <v>726</v>
+      </c>
+      <c r="U281">
+        <v>6927</v>
+      </c>
+      <c r="V281">
+        <v>1170</v>
+      </c>
+      <c r="W281">
+        <v>2644</v>
+      </c>
+      <c r="X281">
+        <v>810</v>
+      </c>
+      <c r="Y281">
+        <v>4305</v>
+      </c>
+      <c r="Z281">
+        <v>4152</v>
+      </c>
+      <c r="AA281">
+        <v>1567</v>
+      </c>
+      <c r="AB281">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>42456</v>
+      </c>
+      <c r="C282">
+        <v>4322</v>
+      </c>
+      <c r="D282">
+        <v>22764</v>
+      </c>
+      <c r="E282">
+        <v>8315</v>
+      </c>
+      <c r="F282">
+        <v>3955</v>
+      </c>
+      <c r="G282">
+        <v>2344</v>
+      </c>
+      <c r="H282">
+        <v>10121</v>
+      </c>
+      <c r="I282">
+        <v>6973</v>
+      </c>
+      <c r="J282">
+        <v>6401</v>
+      </c>
+      <c r="K282">
+        <v>3316</v>
+      </c>
+      <c r="L282">
+        <v>9082</v>
+      </c>
+      <c r="M282">
+        <v>6243</v>
+      </c>
+      <c r="N282">
+        <v>2722</v>
+      </c>
+      <c r="O282">
+        <v>3855</v>
+      </c>
+      <c r="P282">
+        <v>4912</v>
+      </c>
+      <c r="Q282">
+        <v>1804</v>
+      </c>
+      <c r="R282">
+        <v>2316</v>
+      </c>
+      <c r="S282">
+        <v>9640</v>
+      </c>
+      <c r="T282">
+        <v>727</v>
+      </c>
+      <c r="U282">
+        <v>6933</v>
+      </c>
+      <c r="V282">
+        <v>1173</v>
+      </c>
+      <c r="W282">
+        <v>2650</v>
+      </c>
+      <c r="X282">
+        <v>814</v>
+      </c>
+      <c r="Y282">
+        <v>4313</v>
+      </c>
+      <c r="Z282">
+        <v>4161</v>
+      </c>
+      <c r="AA282">
+        <v>1579</v>
+      </c>
+      <c r="AB282">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>42637</v>
+      </c>
+      <c r="C283">
+        <v>4349</v>
+      </c>
+      <c r="D283">
+        <v>22891</v>
+      </c>
+      <c r="E283">
+        <v>8336</v>
+      </c>
+      <c r="F283">
+        <v>3962</v>
+      </c>
+      <c r="G283">
+        <v>2346</v>
+      </c>
+      <c r="H283">
+        <v>10187</v>
+      </c>
+      <c r="I283">
+        <v>7043</v>
+      </c>
+      <c r="J283">
+        <v>6420</v>
+      </c>
+      <c r="K283">
+        <v>3326</v>
+      </c>
+      <c r="L283">
+        <v>9098</v>
+      </c>
+      <c r="M283">
+        <v>6314</v>
+      </c>
+      <c r="N283">
+        <v>2722</v>
+      </c>
+      <c r="O283">
+        <v>3898</v>
+      </c>
+      <c r="P283">
+        <v>4932</v>
+      </c>
+      <c r="Q283">
+        <v>1804</v>
+      </c>
+      <c r="R283">
+        <v>2320</v>
+      </c>
+      <c r="S283">
+        <v>9657</v>
+      </c>
+      <c r="T283">
+        <v>730</v>
+      </c>
+      <c r="U283">
+        <v>6939</v>
+      </c>
+      <c r="V283">
+        <v>1173</v>
+      </c>
+      <c r="W283">
+        <v>2658</v>
+      </c>
+      <c r="X283">
+        <v>819</v>
+      </c>
+      <c r="Y283">
+        <v>4322</v>
+      </c>
+      <c r="Z283">
+        <v>4164</v>
+      </c>
+      <c r="AA283">
+        <v>1586</v>
+      </c>
+      <c r="AB283">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -45513,15 +47263,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -45529,7 +47279,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -45537,7 +47287,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -45545,7 +47295,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -45553,7 +47303,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -45561,7 +47311,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -45569,7 +47319,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -45577,7 +47327,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -45585,7 +47335,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -45593,7 +47343,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -45601,7 +47351,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -45609,7 +47359,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -45617,7 +47367,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -45625,7 +47375,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -45633,7 +47383,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -45641,7 +47391,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -45649,7 +47399,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -45657,7 +47407,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -45665,7 +47415,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -45673,7 +47423,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -45681,7 +47431,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -45689,7 +47439,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -45697,7 +47447,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -45705,7 +47455,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -45713,7 +47463,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -45721,7 +47471,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -45729,7 +47479,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="318">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -867,6 +867,24 @@
     <t>2020-12-03</t>
   </si>
   <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1283,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB283"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19798,7 +19816,7 @@
         <v>1039029</v>
       </c>
       <c r="C232">
-        <v>140701</v>
+        <v>140238</v>
       </c>
       <c r="D232">
         <v>284053</v>
@@ -21607,7 +21625,7 @@
         <v>157750</v>
       </c>
       <c r="D253">
-        <v>313089</v>
+        <v>311775</v>
       </c>
       <c r="E253">
         <v>354983</v>
@@ -24217,7 +24235,7 @@
         <v>293969</v>
       </c>
       <c r="N283">
-        <v>97302</v>
+        <v>97547</v>
       </c>
       <c r="O283">
         <v>383577</v>
@@ -24226,7 +24244,7 @@
         <v>180842</v>
       </c>
       <c r="Q283">
-        <v>102236</v>
+        <v>103433</v>
       </c>
       <c r="R283">
         <v>91718</v>
@@ -24241,7 +24259,7 @@
         <v>273753</v>
       </c>
       <c r="V283">
-        <v>82651</v>
+        <v>82995</v>
       </c>
       <c r="W283">
         <v>129825</v>
@@ -24260,6 +24278,522 @@
       </c>
       <c r="AB283">
         <v>64317</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1276149</v>
+      </c>
+      <c r="C284">
+        <v>197104</v>
+      </c>
+      <c r="D284">
+        <v>367641</v>
+      </c>
+      <c r="E284">
+        <v>416734</v>
+      </c>
+      <c r="F284">
+        <v>232781</v>
+      </c>
+      <c r="G284">
+        <v>95898</v>
+      </c>
+      <c r="H284">
+        <v>433081</v>
+      </c>
+      <c r="I284">
+        <v>342035</v>
+      </c>
+      <c r="J284">
+        <v>285824</v>
+      </c>
+      <c r="K284">
+        <v>148003</v>
+      </c>
+      <c r="L284">
+        <v>188132</v>
+      </c>
+      <c r="M284">
+        <v>297411</v>
+      </c>
+      <c r="N284">
+        <v>98035</v>
+      </c>
+      <c r="O284">
+        <v>389751</v>
+      </c>
+      <c r="P284">
+        <v>181631</v>
+      </c>
+      <c r="Q284">
+        <v>104727</v>
+      </c>
+      <c r="R284">
+        <v>91793</v>
+      </c>
+      <c r="S284">
+        <v>303868</v>
+      </c>
+      <c r="T284">
+        <v>37152</v>
+      </c>
+      <c r="U284">
+        <v>274545</v>
+      </c>
+      <c r="V284">
+        <v>83300</v>
+      </c>
+      <c r="W284">
+        <v>130539</v>
+      </c>
+      <c r="X284">
+        <v>60751</v>
+      </c>
+      <c r="Y284">
+        <v>194800</v>
+      </c>
+      <c r="Z284">
+        <v>161801</v>
+      </c>
+      <c r="AA284">
+        <v>82064</v>
+      </c>
+      <c r="AB284">
+        <v>64685</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1285087</v>
+      </c>
+      <c r="C285">
+        <v>198947</v>
+      </c>
+      <c r="D285">
+        <v>370267</v>
+      </c>
+      <c r="E285">
+        <v>419044</v>
+      </c>
+      <c r="F285">
+        <v>233376</v>
+      </c>
+      <c r="G285">
+        <v>96300</v>
+      </c>
+      <c r="H285">
+        <v>438304</v>
+      </c>
+      <c r="I285">
+        <v>346801</v>
+      </c>
+      <c r="J285">
+        <v>285971</v>
+      </c>
+      <c r="K285">
+        <v>148712</v>
+      </c>
+      <c r="L285">
+        <v>189650</v>
+      </c>
+      <c r="M285">
+        <v>300271</v>
+      </c>
+      <c r="N285">
+        <v>98035</v>
+      </c>
+      <c r="O285">
+        <v>393602</v>
+      </c>
+      <c r="P285">
+        <v>182337</v>
+      </c>
+      <c r="Q285">
+        <v>105223</v>
+      </c>
+      <c r="R285">
+        <v>91854</v>
+      </c>
+      <c r="S285">
+        <v>304443</v>
+      </c>
+      <c r="T285">
+        <v>37277</v>
+      </c>
+      <c r="U285">
+        <v>275049</v>
+      </c>
+      <c r="V285">
+        <v>83411</v>
+      </c>
+      <c r="W285">
+        <v>130984</v>
+      </c>
+      <c r="X285">
+        <v>61053</v>
+      </c>
+      <c r="Y285">
+        <v>195020</v>
+      </c>
+      <c r="Z285">
+        <v>162186</v>
+      </c>
+      <c r="AA285">
+        <v>82408</v>
+      </c>
+      <c r="AB285">
+        <v>64905</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1287762</v>
+      </c>
+      <c r="C286">
+        <v>200257</v>
+      </c>
+      <c r="D286">
+        <v>371075</v>
+      </c>
+      <c r="E286">
+        <v>423124</v>
+      </c>
+      <c r="F286">
+        <v>233731</v>
+      </c>
+      <c r="G286">
+        <v>96632</v>
+      </c>
+      <c r="H286">
+        <v>441315</v>
+      </c>
+      <c r="I286">
+        <v>349035</v>
+      </c>
+      <c r="J286">
+        <v>286044</v>
+      </c>
+      <c r="K286">
+        <v>149385</v>
+      </c>
+      <c r="L286">
+        <v>190415</v>
+      </c>
+      <c r="M286">
+        <v>301510</v>
+      </c>
+      <c r="N286">
+        <v>99023</v>
+      </c>
+      <c r="O286">
+        <v>396188</v>
+      </c>
+      <c r="P286">
+        <v>182668</v>
+      </c>
+      <c r="Q286">
+        <v>105246</v>
+      </c>
+      <c r="R286">
+        <v>94451</v>
+      </c>
+      <c r="S286">
+        <v>304640</v>
+      </c>
+      <c r="T286">
+        <v>37321</v>
+      </c>
+      <c r="U286">
+        <v>275551</v>
+      </c>
+      <c r="V286">
+        <v>83544</v>
+      </c>
+      <c r="W286">
+        <v>131454</v>
+      </c>
+      <c r="X286">
+        <v>61177</v>
+      </c>
+      <c r="Y286">
+        <v>195086</v>
+      </c>
+      <c r="Z286">
+        <v>162389</v>
+      </c>
+      <c r="AA286">
+        <v>82909</v>
+      </c>
+      <c r="AB286">
+        <v>65015</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1288878</v>
+      </c>
+      <c r="C287">
+        <v>202147</v>
+      </c>
+      <c r="D287">
+        <v>371376</v>
+      </c>
+      <c r="E287">
+        <v>424704</v>
+      </c>
+      <c r="F287">
+        <v>234376</v>
+      </c>
+      <c r="G287">
+        <v>96784</v>
+      </c>
+      <c r="H287">
+        <v>442186</v>
+      </c>
+      <c r="I287">
+        <v>350569</v>
+      </c>
+      <c r="J287">
+        <v>287245</v>
+      </c>
+      <c r="K287">
+        <v>149989</v>
+      </c>
+      <c r="L287">
+        <v>191161</v>
+      </c>
+      <c r="M287">
+        <v>304220</v>
+      </c>
+      <c r="N287">
+        <v>99304</v>
+      </c>
+      <c r="O287">
+        <v>399691</v>
+      </c>
+      <c r="P287">
+        <v>182875</v>
+      </c>
+      <c r="Q287">
+        <v>107235</v>
+      </c>
+      <c r="R287">
+        <v>95174</v>
+      </c>
+      <c r="S287">
+        <v>308273</v>
+      </c>
+      <c r="T287">
+        <v>37428</v>
+      </c>
+      <c r="U287">
+        <v>276221</v>
+      </c>
+      <c r="V287">
+        <v>83948</v>
+      </c>
+      <c r="W287">
+        <v>132095</v>
+      </c>
+      <c r="X287">
+        <v>61393</v>
+      </c>
+      <c r="Y287">
+        <v>195221</v>
+      </c>
+      <c r="Z287">
+        <v>163002</v>
+      </c>
+      <c r="AA287">
+        <v>83392</v>
+      </c>
+      <c r="AB287">
+        <v>65084</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1296801</v>
+      </c>
+      <c r="C288">
+        <v>204565</v>
+      </c>
+      <c r="D288">
+        <v>374753</v>
+      </c>
+      <c r="E288">
+        <v>428034</v>
+      </c>
+      <c r="F288">
+        <v>235480</v>
+      </c>
+      <c r="G288">
+        <v>96973</v>
+      </c>
+      <c r="H288">
+        <v>444800</v>
+      </c>
+      <c r="I288">
+        <v>354683</v>
+      </c>
+      <c r="J288">
+        <v>288822</v>
+      </c>
+      <c r="K288">
+        <v>150575</v>
+      </c>
+      <c r="L288">
+        <v>192397</v>
+      </c>
+      <c r="M288">
+        <v>308811</v>
+      </c>
+      <c r="N288">
+        <v>100318</v>
+      </c>
+      <c r="O288">
+        <v>406003</v>
+      </c>
+      <c r="P288">
+        <v>183830</v>
+      </c>
+      <c r="Q288">
+        <v>108549</v>
+      </c>
+      <c r="R288">
+        <v>95493</v>
+      </c>
+      <c r="S288">
+        <v>309168</v>
+      </c>
+      <c r="T288">
+        <v>37556</v>
+      </c>
+      <c r="U288">
+        <v>277020</v>
+      </c>
+      <c r="V288">
+        <v>84281</v>
+      </c>
+      <c r="W288">
+        <v>132718</v>
+      </c>
+      <c r="X288">
+        <v>61607</v>
+      </c>
+      <c r="Y288">
+        <v>195589</v>
+      </c>
+      <c r="Z288">
+        <v>163764</v>
+      </c>
+      <c r="AA288">
+        <v>83959</v>
+      </c>
+      <c r="AB288">
+        <v>65218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>1306585</v>
+      </c>
+      <c r="C289">
+        <v>206984</v>
+      </c>
+      <c r="D289">
+        <v>378084</v>
+      </c>
+      <c r="E289">
+        <v>431786</v>
+      </c>
+      <c r="F289">
+        <v>236322</v>
+      </c>
+      <c r="G289">
+        <v>97248</v>
+      </c>
+      <c r="H289">
+        <v>448880</v>
+      </c>
+      <c r="I289">
+        <v>359544</v>
+      </c>
+      <c r="J289">
+        <v>290107</v>
+      </c>
+      <c r="K289">
+        <v>151312</v>
+      </c>
+      <c r="L289">
+        <v>193530</v>
+      </c>
+      <c r="M289">
+        <v>313880</v>
+      </c>
+      <c r="N289">
+        <v>100318</v>
+      </c>
+      <c r="O289">
+        <v>411631</v>
+      </c>
+      <c r="P289">
+        <v>184268</v>
+      </c>
+      <c r="Q289">
+        <v>108549</v>
+      </c>
+      <c r="R289">
+        <v>96346</v>
+      </c>
+      <c r="S289">
+        <v>312068</v>
+      </c>
+      <c r="T289">
+        <v>37672</v>
+      </c>
+      <c r="U289">
+        <v>278066</v>
+      </c>
+      <c r="V289">
+        <v>84281</v>
+      </c>
+      <c r="W289">
+        <v>133336</v>
+      </c>
+      <c r="X289">
+        <v>61925</v>
+      </c>
+      <c r="Y289">
+        <v>195958</v>
+      </c>
+      <c r="Z289">
+        <v>164712</v>
+      </c>
+      <c r="AA289">
+        <v>84405</v>
+      </c>
+      <c r="AB289">
+        <v>65218</v>
       </c>
     </row>
   </sheetData>
@@ -24269,7 +24803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB283"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42784,7 +43318,7 @@
         <v>37314</v>
       </c>
       <c r="C232">
-        <v>3680</v>
+        <v>3662</v>
       </c>
       <c r="D232">
         <v>19336</v>
@@ -47203,7 +47737,7 @@
         <v>6314</v>
       </c>
       <c r="N283">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="O283">
         <v>3898</v>
@@ -47212,7 +47746,7 @@
         <v>4932</v>
       </c>
       <c r="Q283">
-        <v>1804</v>
+        <v>1818</v>
       </c>
       <c r="R283">
         <v>2320</v>
@@ -47227,7 +47761,7 @@
         <v>6939</v>
       </c>
       <c r="V283">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="W283">
         <v>2658</v>
@@ -47246,6 +47780,522 @@
       </c>
       <c r="AB283">
         <v>740</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>42788</v>
+      </c>
+      <c r="C284">
+        <v>4373</v>
+      </c>
+      <c r="D284">
+        <v>23017</v>
+      </c>
+      <c r="E284">
+        <v>8360</v>
+      </c>
+      <c r="F284">
+        <v>3968</v>
+      </c>
+      <c r="G284">
+        <v>2349</v>
+      </c>
+      <c r="H284">
+        <v>10227</v>
+      </c>
+      <c r="I284">
+        <v>7104</v>
+      </c>
+      <c r="J284">
+        <v>6438</v>
+      </c>
+      <c r="K284">
+        <v>3338</v>
+      </c>
+      <c r="L284">
+        <v>9119</v>
+      </c>
+      <c r="M284">
+        <v>6359</v>
+      </c>
+      <c r="N284">
+        <v>2736</v>
+      </c>
+      <c r="O284">
+        <v>3939</v>
+      </c>
+      <c r="P284">
+        <v>4936</v>
+      </c>
+      <c r="Q284">
+        <v>1827</v>
+      </c>
+      <c r="R284">
+        <v>2324</v>
+      </c>
+      <c r="S284">
+        <v>9683</v>
+      </c>
+      <c r="T284">
+        <v>731</v>
+      </c>
+      <c r="U284">
+        <v>6944</v>
+      </c>
+      <c r="V284">
+        <v>1179</v>
+      </c>
+      <c r="W284">
+        <v>2666</v>
+      </c>
+      <c r="X284">
+        <v>823</v>
+      </c>
+      <c r="Y284">
+        <v>4330</v>
+      </c>
+      <c r="Z284">
+        <v>4179</v>
+      </c>
+      <c r="AA284">
+        <v>1589</v>
+      </c>
+      <c r="AB284">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>42969</v>
+      </c>
+      <c r="C285">
+        <v>4385</v>
+      </c>
+      <c r="D285">
+        <v>23099</v>
+      </c>
+      <c r="E285">
+        <v>8388</v>
+      </c>
+      <c r="F285">
+        <v>3978</v>
+      </c>
+      <c r="G285">
+        <v>2351</v>
+      </c>
+      <c r="H285">
+        <v>10283</v>
+      </c>
+      <c r="I285">
+        <v>7166</v>
+      </c>
+      <c r="J285">
+        <v>6455</v>
+      </c>
+      <c r="K285">
+        <v>3345</v>
+      </c>
+      <c r="L285">
+        <v>9140</v>
+      </c>
+      <c r="M285">
+        <v>6421</v>
+      </c>
+      <c r="N285">
+        <v>2736</v>
+      </c>
+      <c r="O285">
+        <v>3980</v>
+      </c>
+      <c r="P285">
+        <v>4946</v>
+      </c>
+      <c r="Q285">
+        <v>1833</v>
+      </c>
+      <c r="R285">
+        <v>2329</v>
+      </c>
+      <c r="S285">
+        <v>9693</v>
+      </c>
+      <c r="T285">
+        <v>732</v>
+      </c>
+      <c r="U285">
+        <v>6950</v>
+      </c>
+      <c r="V285">
+        <v>1182</v>
+      </c>
+      <c r="W285">
+        <v>2673</v>
+      </c>
+      <c r="X285">
+        <v>826</v>
+      </c>
+      <c r="Y285">
+        <v>4335</v>
+      </c>
+      <c r="Z285">
+        <v>4186</v>
+      </c>
+      <c r="AA285">
+        <v>1593</v>
+      </c>
+      <c r="AB285">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>43015</v>
+      </c>
+      <c r="C286">
+        <v>4397</v>
+      </c>
+      <c r="D286">
+        <v>23131</v>
+      </c>
+      <c r="E286">
+        <v>8418</v>
+      </c>
+      <c r="F286">
+        <v>3985</v>
+      </c>
+      <c r="G286">
+        <v>2354</v>
+      </c>
+      <c r="H286">
+        <v>10336</v>
+      </c>
+      <c r="I286">
+        <v>7183</v>
+      </c>
+      <c r="J286">
+        <v>6460</v>
+      </c>
+      <c r="K286">
+        <v>3359</v>
+      </c>
+      <c r="L286">
+        <v>9148</v>
+      </c>
+      <c r="M286">
+        <v>6433</v>
+      </c>
+      <c r="N286">
+        <v>2752</v>
+      </c>
+      <c r="O286">
+        <v>4011</v>
+      </c>
+      <c r="P286">
+        <v>4951</v>
+      </c>
+      <c r="Q286">
+        <v>1841</v>
+      </c>
+      <c r="R286">
+        <v>2333</v>
+      </c>
+      <c r="S286">
+        <v>9704</v>
+      </c>
+      <c r="T286">
+        <v>732</v>
+      </c>
+      <c r="U286">
+        <v>6954</v>
+      </c>
+      <c r="V286">
+        <v>1184</v>
+      </c>
+      <c r="W286">
+        <v>2680</v>
+      </c>
+      <c r="X286">
+        <v>826</v>
+      </c>
+      <c r="Y286">
+        <v>4339</v>
+      </c>
+      <c r="Z286">
+        <v>4191</v>
+      </c>
+      <c r="AA286">
+        <v>1596</v>
+      </c>
+      <c r="AB286">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>43040</v>
+      </c>
+      <c r="C287">
+        <v>4431</v>
+      </c>
+      <c r="D287">
+        <v>23151</v>
+      </c>
+      <c r="E287">
+        <v>8445</v>
+      </c>
+      <c r="F287">
+        <v>4001</v>
+      </c>
+      <c r="G287">
+        <v>2357</v>
+      </c>
+      <c r="H287">
+        <v>10341</v>
+      </c>
+      <c r="I287">
+        <v>7235</v>
+      </c>
+      <c r="J287">
+        <v>6480</v>
+      </c>
+      <c r="K287">
+        <v>3367</v>
+      </c>
+      <c r="L287">
+        <v>9170</v>
+      </c>
+      <c r="M287">
+        <v>6471</v>
+      </c>
+      <c r="N287">
+        <v>2764</v>
+      </c>
+      <c r="O287">
+        <v>4041</v>
+      </c>
+      <c r="P287">
+        <v>4964</v>
+      </c>
+      <c r="Q287">
+        <v>1852</v>
+      </c>
+      <c r="R287">
+        <v>2337</v>
+      </c>
+      <c r="S287">
+        <v>9737</v>
+      </c>
+      <c r="T287">
+        <v>736</v>
+      </c>
+      <c r="U287">
+        <v>6959</v>
+      </c>
+      <c r="V287">
+        <v>1187</v>
+      </c>
+      <c r="W287">
+        <v>2691</v>
+      </c>
+      <c r="X287">
+        <v>830</v>
+      </c>
+      <c r="Y287">
+        <v>4344</v>
+      </c>
+      <c r="Z287">
+        <v>4203</v>
+      </c>
+      <c r="AA287">
+        <v>1604</v>
+      </c>
+      <c r="AB287">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>43282</v>
+      </c>
+      <c r="C288">
+        <v>4455</v>
+      </c>
+      <c r="D288">
+        <v>23270</v>
+      </c>
+      <c r="E288">
+        <v>8474</v>
+      </c>
+      <c r="F288">
+        <v>4011</v>
+      </c>
+      <c r="G288">
+        <v>2360</v>
+      </c>
+      <c r="H288">
+        <v>10345</v>
+      </c>
+      <c r="I288">
+        <v>7316</v>
+      </c>
+      <c r="J288">
+        <v>6504</v>
+      </c>
+      <c r="K288">
+        <v>3380</v>
+      </c>
+      <c r="L288">
+        <v>9186</v>
+      </c>
+      <c r="M288">
+        <v>6539</v>
+      </c>
+      <c r="N288">
+        <v>2770</v>
+      </c>
+      <c r="O288">
+        <v>4132</v>
+      </c>
+      <c r="P288">
+        <v>4969</v>
+      </c>
+      <c r="Q288">
+        <v>1870</v>
+      </c>
+      <c r="R288">
+        <v>2341</v>
+      </c>
+      <c r="S288">
+        <v>9738</v>
+      </c>
+      <c r="T288">
+        <v>737</v>
+      </c>
+      <c r="U288">
+        <v>6963</v>
+      </c>
+      <c r="V288">
+        <v>1190</v>
+      </c>
+      <c r="W288">
+        <v>2695</v>
+      </c>
+      <c r="X288">
+        <v>833</v>
+      </c>
+      <c r="Y288">
+        <v>4349</v>
+      </c>
+      <c r="Z288">
+        <v>4216</v>
+      </c>
+      <c r="AA288">
+        <v>1610</v>
+      </c>
+      <c r="AB288">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>43461</v>
+      </c>
+      <c r="C289">
+        <v>4485</v>
+      </c>
+      <c r="D289">
+        <v>23430</v>
+      </c>
+      <c r="E289">
+        <v>8502</v>
+      </c>
+      <c r="F289">
+        <v>4032</v>
+      </c>
+      <c r="G289">
+        <v>2363</v>
+      </c>
+      <c r="H289">
+        <v>10429</v>
+      </c>
+      <c r="I289">
+        <v>7388</v>
+      </c>
+      <c r="J289">
+        <v>6520</v>
+      </c>
+      <c r="K289">
+        <v>3391</v>
+      </c>
+      <c r="L289">
+        <v>9200</v>
+      </c>
+      <c r="M289">
+        <v>6608</v>
+      </c>
+      <c r="N289">
+        <v>2770</v>
+      </c>
+      <c r="O289">
+        <v>4183</v>
+      </c>
+      <c r="P289">
+        <v>4972</v>
+      </c>
+      <c r="Q289">
+        <v>1870</v>
+      </c>
+      <c r="R289">
+        <v>2346</v>
+      </c>
+      <c r="S289">
+        <v>9762</v>
+      </c>
+      <c r="T289">
+        <v>742</v>
+      </c>
+      <c r="U289">
+        <v>6972</v>
+      </c>
+      <c r="V289">
+        <v>1190</v>
+      </c>
+      <c r="W289">
+        <v>2704</v>
+      </c>
+      <c r="X289">
+        <v>838</v>
+      </c>
+      <c r="Y289">
+        <v>4355</v>
+      </c>
+      <c r="Z289">
+        <v>4222</v>
+      </c>
+      <c r="AA289">
+        <v>1617</v>
+      </c>
+      <c r="AB289">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -47263,15 +48313,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -47279,7 +48329,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -47287,7 +48337,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -47295,7 +48345,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -47303,7 +48353,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -47311,7 +48361,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -47319,7 +48369,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -47327,7 +48377,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -47335,7 +48385,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -47343,7 +48393,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -47351,7 +48401,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -47359,7 +48409,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -47367,7 +48417,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -47375,7 +48425,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -47383,7 +48433,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -47391,7 +48441,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -47399,7 +48449,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -47407,7 +48457,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -47415,7 +48465,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -47423,7 +48473,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -47431,7 +48481,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -47439,7 +48489,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -47447,7 +48497,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -47455,7 +48505,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -47463,7 +48513,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -47471,7 +48521,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -47479,7 +48529,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="324">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -885,6 +885,24 @@
     <t>2020-12-09</t>
   </si>
   <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1301,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB289"/>
+  <dimension ref="A1:AB295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6973,7 +6991,7 @@
         <v>13464</v>
       </c>
       <c r="V82">
-        <v>1279</v>
+        <v>1382</v>
       </c>
       <c r="W82">
         <v>2252</v>
@@ -7661,7 +7679,7 @@
         <v>24815</v>
       </c>
       <c r="V90">
-        <v>2430</v>
+        <v>2696</v>
       </c>
       <c r="W90">
         <v>3550</v>
@@ -7919,7 +7937,7 @@
         <v>31671</v>
       </c>
       <c r="V93">
-        <v>2858</v>
+        <v>3277</v>
       </c>
       <c r="W93">
         <v>4243</v>
@@ -8607,7 +8625,7 @@
         <v>49473</v>
       </c>
       <c r="V101">
-        <v>4698</v>
+        <v>5182</v>
       </c>
       <c r="W101">
         <v>6717</v>
@@ -19816,7 +19834,7 @@
         <v>1039029</v>
       </c>
       <c r="C232">
-        <v>140238</v>
+        <v>140701</v>
       </c>
       <c r="D232">
         <v>284053</v>
@@ -24751,7 +24769,7 @@
         <v>313880</v>
       </c>
       <c r="N289">
-        <v>100318</v>
+        <v>101692</v>
       </c>
       <c r="O289">
         <v>411631</v>
@@ -24760,7 +24778,7 @@
         <v>184268</v>
       </c>
       <c r="Q289">
-        <v>108549</v>
+        <v>109785</v>
       </c>
       <c r="R289">
         <v>96346</v>
@@ -24775,7 +24793,7 @@
         <v>278066</v>
       </c>
       <c r="V289">
-        <v>84281</v>
+        <v>84637</v>
       </c>
       <c r="W289">
         <v>133336</v>
@@ -24793,7 +24811,523 @@
         <v>84405</v>
       </c>
       <c r="AB289">
-        <v>65218</v>
+        <v>65595</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1316371</v>
+      </c>
+      <c r="C290">
+        <v>208508</v>
+      </c>
+      <c r="D290">
+        <v>381644</v>
+      </c>
+      <c r="E290">
+        <v>436662</v>
+      </c>
+      <c r="F290">
+        <v>237114</v>
+      </c>
+      <c r="G290">
+        <v>97562</v>
+      </c>
+      <c r="H290">
+        <v>453364</v>
+      </c>
+      <c r="I290">
+        <v>363979</v>
+      </c>
+      <c r="J290">
+        <v>292282</v>
+      </c>
+      <c r="K290">
+        <v>152073</v>
+      </c>
+      <c r="L290">
+        <v>195118</v>
+      </c>
+      <c r="M290">
+        <v>317861</v>
+      </c>
+      <c r="N290">
+        <v>102836</v>
+      </c>
+      <c r="O290">
+        <v>416752</v>
+      </c>
+      <c r="P290">
+        <v>185089</v>
+      </c>
+      <c r="Q290">
+        <v>111335</v>
+      </c>
+      <c r="R290">
+        <v>96990</v>
+      </c>
+      <c r="S290">
+        <v>313761</v>
+      </c>
+      <c r="T290">
+        <v>37902</v>
+      </c>
+      <c r="U290">
+        <v>278858</v>
+      </c>
+      <c r="V290">
+        <v>84963</v>
+      </c>
+      <c r="W290">
+        <v>133870</v>
+      </c>
+      <c r="X290">
+        <v>62221</v>
+      </c>
+      <c r="Y290">
+        <v>196446</v>
+      </c>
+      <c r="Z290">
+        <v>165454</v>
+      </c>
+      <c r="AA290">
+        <v>84919</v>
+      </c>
+      <c r="AB290">
+        <v>65974</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1325162</v>
+      </c>
+      <c r="C291">
+        <v>210584</v>
+      </c>
+      <c r="D291">
+        <v>384942</v>
+      </c>
+      <c r="E291">
+        <v>440545</v>
+      </c>
+      <c r="F291">
+        <v>237945</v>
+      </c>
+      <c r="G291">
+        <v>97948</v>
+      </c>
+      <c r="H291">
+        <v>459537</v>
+      </c>
+      <c r="I291">
+        <v>369142</v>
+      </c>
+      <c r="J291">
+        <v>293418</v>
+      </c>
+      <c r="K291">
+        <v>152962</v>
+      </c>
+      <c r="L291">
+        <v>197063</v>
+      </c>
+      <c r="M291">
+        <v>322920</v>
+      </c>
+      <c r="N291">
+        <v>103355</v>
+      </c>
+      <c r="O291">
+        <v>421044</v>
+      </c>
+      <c r="P291">
+        <v>185932</v>
+      </c>
+      <c r="Q291">
+        <v>112876</v>
+      </c>
+      <c r="R291">
+        <v>97562</v>
+      </c>
+      <c r="S291">
+        <v>314674</v>
+      </c>
+      <c r="T291">
+        <v>38150</v>
+      </c>
+      <c r="U291">
+        <v>279600</v>
+      </c>
+      <c r="V291">
+        <v>85272</v>
+      </c>
+      <c r="W291">
+        <v>134429</v>
+      </c>
+      <c r="X291">
+        <v>62764</v>
+      </c>
+      <c r="Y291">
+        <v>196848</v>
+      </c>
+      <c r="Z291">
+        <v>166310</v>
+      </c>
+      <c r="AA291">
+        <v>85252</v>
+      </c>
+      <c r="AB291">
+        <v>66221</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1333763</v>
+      </c>
+      <c r="C292">
+        <v>212304</v>
+      </c>
+      <c r="D292">
+        <v>388431</v>
+      </c>
+      <c r="E292">
+        <v>443465</v>
+      </c>
+      <c r="F292">
+        <v>238634</v>
+      </c>
+      <c r="G292">
+        <v>98177</v>
+      </c>
+      <c r="H292">
+        <v>464545</v>
+      </c>
+      <c r="I292">
+        <v>372699</v>
+      </c>
+      <c r="J292">
+        <v>293418</v>
+      </c>
+      <c r="K292">
+        <v>153556</v>
+      </c>
+      <c r="L292">
+        <v>198426</v>
+      </c>
+      <c r="M292">
+        <v>327299</v>
+      </c>
+      <c r="N292">
+        <v>103916</v>
+      </c>
+      <c r="O292">
+        <v>426095</v>
+      </c>
+      <c r="P292">
+        <v>186274</v>
+      </c>
+      <c r="Q292">
+        <v>113298</v>
+      </c>
+      <c r="R292">
+        <v>98472</v>
+      </c>
+      <c r="S292">
+        <v>314674</v>
+      </c>
+      <c r="T292">
+        <v>38363</v>
+      </c>
+      <c r="U292">
+        <v>280272</v>
+      </c>
+      <c r="V292">
+        <v>85385</v>
+      </c>
+      <c r="W292">
+        <v>134717</v>
+      </c>
+      <c r="X292">
+        <v>63042</v>
+      </c>
+      <c r="Y292">
+        <v>197006</v>
+      </c>
+      <c r="Z292">
+        <v>166734</v>
+      </c>
+      <c r="AA292">
+        <v>85410</v>
+      </c>
+      <c r="AB292">
+        <v>66407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1334703</v>
+      </c>
+      <c r="C293">
+        <v>213124</v>
+      </c>
+      <c r="D293">
+        <v>389125</v>
+      </c>
+      <c r="E293">
+        <v>444661</v>
+      </c>
+      <c r="F293">
+        <v>239096</v>
+      </c>
+      <c r="G293">
+        <v>98612</v>
+      </c>
+      <c r="H293">
+        <v>468023</v>
+      </c>
+      <c r="I293">
+        <v>376590</v>
+      </c>
+      <c r="J293">
+        <v>293418</v>
+      </c>
+      <c r="K293">
+        <v>153649</v>
+      </c>
+      <c r="L293">
+        <v>198684</v>
+      </c>
+      <c r="M293">
+        <v>329782</v>
+      </c>
+      <c r="N293">
+        <v>104829</v>
+      </c>
+      <c r="O293">
+        <v>427401</v>
+      </c>
+      <c r="P293">
+        <v>186828</v>
+      </c>
+      <c r="Q293">
+        <v>113981</v>
+      </c>
+      <c r="R293">
+        <v>99151</v>
+      </c>
+      <c r="S293">
+        <v>315936</v>
+      </c>
+      <c r="T293">
+        <v>38412</v>
+      </c>
+      <c r="U293">
+        <v>280714</v>
+      </c>
+      <c r="V293">
+        <v>85549</v>
+      </c>
+      <c r="W293">
+        <v>134892</v>
+      </c>
+      <c r="X293">
+        <v>63313</v>
+      </c>
+      <c r="Y293">
+        <v>197056</v>
+      </c>
+      <c r="Z293">
+        <v>166974</v>
+      </c>
+      <c r="AA293">
+        <v>85854</v>
+      </c>
+      <c r="AB293">
+        <v>66454</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1337016</v>
+      </c>
+      <c r="C294">
+        <v>215538</v>
+      </c>
+      <c r="D294">
+        <v>389893</v>
+      </c>
+      <c r="E294">
+        <v>447126</v>
+      </c>
+      <c r="F294">
+        <v>240132</v>
+      </c>
+      <c r="G294">
+        <v>98928</v>
+      </c>
+      <c r="H294">
+        <v>469003</v>
+      </c>
+      <c r="I294">
+        <v>378893</v>
+      </c>
+      <c r="J294">
+        <v>294282</v>
+      </c>
+      <c r="K294">
+        <v>153917</v>
+      </c>
+      <c r="L294">
+        <v>199046</v>
+      </c>
+      <c r="M294">
+        <v>332158</v>
+      </c>
+      <c r="N294">
+        <v>105388</v>
+      </c>
+      <c r="O294">
+        <v>432050</v>
+      </c>
+      <c r="P294">
+        <v>187279</v>
+      </c>
+      <c r="Q294">
+        <v>114631</v>
+      </c>
+      <c r="R294">
+        <v>99753</v>
+      </c>
+      <c r="S294">
+        <v>316681</v>
+      </c>
+      <c r="T294">
+        <v>38628</v>
+      </c>
+      <c r="U294">
+        <v>281667</v>
+      </c>
+      <c r="V294">
+        <v>85731</v>
+      </c>
+      <c r="W294">
+        <v>135239</v>
+      </c>
+      <c r="X294">
+        <v>63601</v>
+      </c>
+      <c r="Y294">
+        <v>197267</v>
+      </c>
+      <c r="Z294">
+        <v>167711</v>
+      </c>
+      <c r="AA294">
+        <v>86118</v>
+      </c>
+      <c r="AB294">
+        <v>66515</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>1341428</v>
+      </c>
+      <c r="C295">
+        <v>217938</v>
+      </c>
+      <c r="D295">
+        <v>391350</v>
+      </c>
+      <c r="E295">
+        <v>451240</v>
+      </c>
+      <c r="F295">
+        <v>240869</v>
+      </c>
+      <c r="G295">
+        <v>99238</v>
+      </c>
+      <c r="H295">
+        <v>473225</v>
+      </c>
+      <c r="I295">
+        <v>382251</v>
+      </c>
+      <c r="J295">
+        <v>296190</v>
+      </c>
+      <c r="K295">
+        <v>154734</v>
+      </c>
+      <c r="L295">
+        <v>199780</v>
+      </c>
+      <c r="M295">
+        <v>339695</v>
+      </c>
+      <c r="N295">
+        <v>105388</v>
+      </c>
+      <c r="O295">
+        <v>435547</v>
+      </c>
+      <c r="P295">
+        <v>187930</v>
+      </c>
+      <c r="Q295">
+        <v>114631</v>
+      </c>
+      <c r="R295">
+        <v>100371</v>
+      </c>
+      <c r="S295">
+        <v>319989</v>
+      </c>
+      <c r="T295">
+        <v>38712</v>
+      </c>
+      <c r="U295">
+        <v>282719</v>
+      </c>
+      <c r="V295">
+        <v>85731</v>
+      </c>
+      <c r="W295">
+        <v>135769</v>
+      </c>
+      <c r="X295">
+        <v>63989</v>
+      </c>
+      <c r="Y295">
+        <v>197684</v>
+      </c>
+      <c r="Z295">
+        <v>168657</v>
+      </c>
+      <c r="AA295">
+        <v>86909</v>
+      </c>
+      <c r="AB295">
+        <v>66515</v>
       </c>
     </row>
   </sheetData>
@@ -24803,7 +25337,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB289"/>
+  <dimension ref="A1:AB295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30475,7 +31009,7 @@
         <v>1223</v>
       </c>
       <c r="V82">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W82">
         <v>72</v>
@@ -31163,7 +31697,7 @@
         <v>2290</v>
       </c>
       <c r="V90">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="W90">
         <v>110</v>
@@ -31421,7 +31955,7 @@
         <v>2605</v>
       </c>
       <c r="V93">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W93">
         <v>138</v>
@@ -32109,7 +32643,7 @@
         <v>3492</v>
       </c>
       <c r="V101">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W101">
         <v>217</v>
@@ -43318,7 +43852,7 @@
         <v>37314</v>
       </c>
       <c r="C232">
-        <v>3662</v>
+        <v>3680</v>
       </c>
       <c r="D232">
         <v>19336</v>
@@ -48253,7 +48787,7 @@
         <v>6608</v>
       </c>
       <c r="N289">
-        <v>2770</v>
+        <v>2781</v>
       </c>
       <c r="O289">
         <v>4183</v>
@@ -48262,7 +48796,7 @@
         <v>4972</v>
       </c>
       <c r="Q289">
-        <v>1870</v>
+        <v>1888</v>
       </c>
       <c r="R289">
         <v>2346</v>
@@ -48277,7 +48811,7 @@
         <v>6972</v>
       </c>
       <c r="V289">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="W289">
         <v>2704</v>
@@ -48295,7 +48829,523 @@
         <v>1617</v>
       </c>
       <c r="AB289">
-        <v>745</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>43661</v>
+      </c>
+      <c r="C290">
+        <v>4514</v>
+      </c>
+      <c r="D290">
+        <v>23546</v>
+      </c>
+      <c r="E290">
+        <v>8531</v>
+      </c>
+      <c r="F290">
+        <v>4043</v>
+      </c>
+      <c r="G290">
+        <v>2366</v>
+      </c>
+      <c r="H290">
+        <v>10499</v>
+      </c>
+      <c r="I290">
+        <v>7452</v>
+      </c>
+      <c r="J290">
+        <v>6531</v>
+      </c>
+      <c r="K290">
+        <v>3407</v>
+      </c>
+      <c r="L290">
+        <v>9229</v>
+      </c>
+      <c r="M290">
+        <v>6653</v>
+      </c>
+      <c r="N290">
+        <v>2798</v>
+      </c>
+      <c r="O290">
+        <v>4224</v>
+      </c>
+      <c r="P290">
+        <v>4978</v>
+      </c>
+      <c r="Q290">
+        <v>1897</v>
+      </c>
+      <c r="R290">
+        <v>2351</v>
+      </c>
+      <c r="S290">
+        <v>9772</v>
+      </c>
+      <c r="T290">
+        <v>744</v>
+      </c>
+      <c r="U290">
+        <v>6980</v>
+      </c>
+      <c r="V290">
+        <v>1195</v>
+      </c>
+      <c r="W290">
+        <v>2714</v>
+      </c>
+      <c r="X290">
+        <v>841</v>
+      </c>
+      <c r="Y290">
+        <v>4362</v>
+      </c>
+      <c r="Z290">
+        <v>4233</v>
+      </c>
+      <c r="AA290">
+        <v>1628</v>
+      </c>
+      <c r="AB290">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>43802</v>
+      </c>
+      <c r="C291">
+        <v>4543</v>
+      </c>
+      <c r="D291">
+        <v>23630</v>
+      </c>
+      <c r="E291">
+        <v>8561</v>
+      </c>
+      <c r="F291">
+        <v>4051</v>
+      </c>
+      <c r="G291">
+        <v>2369</v>
+      </c>
+      <c r="H291">
+        <v>10565</v>
+      </c>
+      <c r="I291">
+        <v>7513</v>
+      </c>
+      <c r="J291">
+        <v>6549</v>
+      </c>
+      <c r="K291">
+        <v>3420</v>
+      </c>
+      <c r="L291">
+        <v>9244</v>
+      </c>
+      <c r="M291">
+        <v>6700</v>
+      </c>
+      <c r="N291">
+        <v>2803</v>
+      </c>
+      <c r="O291">
+        <v>4284</v>
+      </c>
+      <c r="P291">
+        <v>4987</v>
+      </c>
+      <c r="Q291">
+        <v>1913</v>
+      </c>
+      <c r="R291">
+        <v>2356</v>
+      </c>
+      <c r="S291">
+        <v>9774</v>
+      </c>
+      <c r="T291">
+        <v>747</v>
+      </c>
+      <c r="U291">
+        <v>6989</v>
+      </c>
+      <c r="V291">
+        <v>1198</v>
+      </c>
+      <c r="W291">
+        <v>2720</v>
+      </c>
+      <c r="X291">
+        <v>846</v>
+      </c>
+      <c r="Y291">
+        <v>4368</v>
+      </c>
+      <c r="Z291">
+        <v>4242</v>
+      </c>
+      <c r="AA291">
+        <v>1633</v>
+      </c>
+      <c r="AB291">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>43971</v>
+      </c>
+      <c r="C292">
+        <v>4560</v>
+      </c>
+      <c r="D292">
+        <v>23718</v>
+      </c>
+      <c r="E292">
+        <v>8589</v>
+      </c>
+      <c r="F292">
+        <v>4059</v>
+      </c>
+      <c r="G292">
+        <v>2372</v>
+      </c>
+      <c r="H292">
+        <v>10645</v>
+      </c>
+      <c r="I292">
+        <v>7578</v>
+      </c>
+      <c r="J292">
+        <v>6549</v>
+      </c>
+      <c r="K292">
+        <v>3430</v>
+      </c>
+      <c r="L292">
+        <v>9271</v>
+      </c>
+      <c r="M292">
+        <v>6760</v>
+      </c>
+      <c r="N292">
+        <v>2803</v>
+      </c>
+      <c r="O292">
+        <v>4334</v>
+      </c>
+      <c r="P292">
+        <v>4998</v>
+      </c>
+      <c r="Q292">
+        <v>1931</v>
+      </c>
+      <c r="R292">
+        <v>2361</v>
+      </c>
+      <c r="S292">
+        <v>9774</v>
+      </c>
+      <c r="T292">
+        <v>749</v>
+      </c>
+      <c r="U292">
+        <v>6998</v>
+      </c>
+      <c r="V292">
+        <v>1201</v>
+      </c>
+      <c r="W292">
+        <v>2722</v>
+      </c>
+      <c r="X292">
+        <v>849</v>
+      </c>
+      <c r="Y292">
+        <v>4375</v>
+      </c>
+      <c r="Z292">
+        <v>4251</v>
+      </c>
+      <c r="AA292">
+        <v>1638</v>
+      </c>
+      <c r="AB292">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>44018</v>
+      </c>
+      <c r="C293">
+        <v>4571</v>
+      </c>
+      <c r="D293">
+        <v>23722</v>
+      </c>
+      <c r="E293">
+        <v>8610</v>
+      </c>
+      <c r="F293">
+        <v>4066</v>
+      </c>
+      <c r="G293">
+        <v>2376</v>
+      </c>
+      <c r="H293">
+        <v>10701</v>
+      </c>
+      <c r="I293">
+        <v>7587</v>
+      </c>
+      <c r="J293">
+        <v>6549</v>
+      </c>
+      <c r="K293">
+        <v>3439</v>
+      </c>
+      <c r="L293">
+        <v>9284</v>
+      </c>
+      <c r="M293">
+        <v>6764</v>
+      </c>
+      <c r="N293">
+        <v>2819</v>
+      </c>
+      <c r="O293">
+        <v>4365</v>
+      </c>
+      <c r="P293">
+        <v>5001</v>
+      </c>
+      <c r="Q293">
+        <v>1949</v>
+      </c>
+      <c r="R293">
+        <v>2365</v>
+      </c>
+      <c r="S293">
+        <v>9786</v>
+      </c>
+      <c r="T293">
+        <v>750</v>
+      </c>
+      <c r="U293">
+        <v>7003</v>
+      </c>
+      <c r="V293">
+        <v>1203</v>
+      </c>
+      <c r="W293">
+        <v>2723</v>
+      </c>
+      <c r="X293">
+        <v>849</v>
+      </c>
+      <c r="Y293">
+        <v>4380</v>
+      </c>
+      <c r="Z293">
+        <v>4259</v>
+      </c>
+      <c r="AA293">
+        <v>1642</v>
+      </c>
+      <c r="AB293">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>44050</v>
+      </c>
+      <c r="C294">
+        <v>4609</v>
+      </c>
+      <c r="D294">
+        <v>23740</v>
+      </c>
+      <c r="E294">
+        <v>8635</v>
+      </c>
+      <c r="F294">
+        <v>4086</v>
+      </c>
+      <c r="G294">
+        <v>2380</v>
+      </c>
+      <c r="H294">
+        <v>10711</v>
+      </c>
+      <c r="I294">
+        <v>7681</v>
+      </c>
+      <c r="J294">
+        <v>6573</v>
+      </c>
+      <c r="K294">
+        <v>3452</v>
+      </c>
+      <c r="L294">
+        <v>9299</v>
+      </c>
+      <c r="M294">
+        <v>6803</v>
+      </c>
+      <c r="N294">
+        <v>2835</v>
+      </c>
+      <c r="O294">
+        <v>4420</v>
+      </c>
+      <c r="P294">
+        <v>5011</v>
+      </c>
+      <c r="Q294">
+        <v>1967</v>
+      </c>
+      <c r="R294">
+        <v>2370</v>
+      </c>
+      <c r="S294">
+        <v>9802</v>
+      </c>
+      <c r="T294">
+        <v>753</v>
+      </c>
+      <c r="U294">
+        <v>7013</v>
+      </c>
+      <c r="V294">
+        <v>1206</v>
+      </c>
+      <c r="W294">
+        <v>2735</v>
+      </c>
+      <c r="X294">
+        <v>854</v>
+      </c>
+      <c r="Y294">
+        <v>4386</v>
+      </c>
+      <c r="Z294">
+        <v>4272</v>
+      </c>
+      <c r="AA294">
+        <v>1645</v>
+      </c>
+      <c r="AB294">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>44282</v>
+      </c>
+      <c r="C295">
+        <v>4630</v>
+      </c>
+      <c r="D295">
+        <v>23887</v>
+      </c>
+      <c r="E295">
+        <v>8665</v>
+      </c>
+      <c r="F295">
+        <v>4095</v>
+      </c>
+      <c r="G295">
+        <v>2384</v>
+      </c>
+      <c r="H295">
+        <v>10719</v>
+      </c>
+      <c r="I295">
+        <v>7766</v>
+      </c>
+      <c r="J295">
+        <v>6586</v>
+      </c>
+      <c r="K295">
+        <v>3469</v>
+      </c>
+      <c r="L295">
+        <v>9324</v>
+      </c>
+      <c r="M295">
+        <v>6919</v>
+      </c>
+      <c r="N295">
+        <v>2835</v>
+      </c>
+      <c r="O295">
+        <v>4504</v>
+      </c>
+      <c r="P295">
+        <v>5026</v>
+      </c>
+      <c r="Q295">
+        <v>1967</v>
+      </c>
+      <c r="R295">
+        <v>2374</v>
+      </c>
+      <c r="S295">
+        <v>9857</v>
+      </c>
+      <c r="T295">
+        <v>755</v>
+      </c>
+      <c r="U295">
+        <v>7018</v>
+      </c>
+      <c r="V295">
+        <v>1206</v>
+      </c>
+      <c r="W295">
+        <v>2743</v>
+      </c>
+      <c r="X295">
+        <v>858</v>
+      </c>
+      <c r="Y295">
+        <v>4393</v>
+      </c>
+      <c r="Z295">
+        <v>4282</v>
+      </c>
+      <c r="AA295">
+        <v>1655</v>
+      </c>
+      <c r="AB295">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -48313,15 +49363,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -48329,7 +49379,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -48337,7 +49387,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -48345,7 +49395,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -48353,7 +49403,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -48361,7 +49411,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -48369,7 +49419,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -48377,7 +49427,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -48385,7 +49435,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -48393,7 +49443,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -48401,7 +49451,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -48409,7 +49459,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -48417,7 +49467,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -48425,7 +49475,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -48433,7 +49483,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -48441,7 +49491,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -48449,7 +49499,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -48457,7 +49507,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -48465,7 +49515,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -48473,7 +49523,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -48481,7 +49531,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -48489,7 +49539,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -48497,7 +49547,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -48505,7 +49555,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -48513,7 +49563,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -48521,7 +49571,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -48529,7 +49579,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="329">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -903,6 +903,21 @@
     <t>2020-12-15</t>
   </si>
   <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1319,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB295"/>
+  <dimension ref="A1:AB300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25285,7 +25300,7 @@
         <v>339695</v>
       </c>
       <c r="N295">
-        <v>105388</v>
+        <v>106643</v>
       </c>
       <c r="O295">
         <v>435547</v>
@@ -25294,7 +25309,7 @@
         <v>187930</v>
       </c>
       <c r="Q295">
-        <v>114631</v>
+        <v>116612</v>
       </c>
       <c r="R295">
         <v>100371</v>
@@ -25309,7 +25324,7 @@
         <v>282719</v>
       </c>
       <c r="V295">
-        <v>85731</v>
+        <v>86180</v>
       </c>
       <c r="W295">
         <v>135769</v>
@@ -25327,7 +25342,437 @@
         <v>86909</v>
       </c>
       <c r="AB295">
-        <v>66515</v>
+        <v>66574</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>1341428</v>
+      </c>
+      <c r="C296">
+        <v>220927</v>
+      </c>
+      <c r="D296">
+        <v>395386</v>
+      </c>
+      <c r="E296">
+        <v>456106</v>
+      </c>
+      <c r="F296">
+        <v>241400</v>
+      </c>
+      <c r="G296">
+        <v>100011</v>
+      </c>
+      <c r="H296">
+        <v>477697</v>
+      </c>
+      <c r="I296">
+        <v>388704</v>
+      </c>
+      <c r="J296">
+        <v>298211</v>
+      </c>
+      <c r="K296">
+        <v>156122</v>
+      </c>
+      <c r="L296">
+        <v>201851</v>
+      </c>
+      <c r="M296">
+        <v>359892</v>
+      </c>
+      <c r="N296">
+        <v>106920</v>
+      </c>
+      <c r="O296">
+        <v>442624</v>
+      </c>
+      <c r="P296">
+        <v>188918</v>
+      </c>
+      <c r="Q296">
+        <v>118003</v>
+      </c>
+      <c r="R296">
+        <v>101148</v>
+      </c>
+      <c r="S296">
+        <v>320685</v>
+      </c>
+      <c r="T296">
+        <v>38938</v>
+      </c>
+      <c r="U296">
+        <v>283839</v>
+      </c>
+      <c r="V296">
+        <v>86585</v>
+      </c>
+      <c r="W296">
+        <v>136423</v>
+      </c>
+      <c r="X296">
+        <v>64303</v>
+      </c>
+      <c r="Y296">
+        <v>198147</v>
+      </c>
+      <c r="Z296">
+        <v>169705</v>
+      </c>
+      <c r="AA296">
+        <v>87397</v>
+      </c>
+      <c r="AB296">
+        <v>66977</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>1361731</v>
+      </c>
+      <c r="C297">
+        <v>223219</v>
+      </c>
+      <c r="D297">
+        <v>398879</v>
+      </c>
+      <c r="E297">
+        <v>461026</v>
+      </c>
+      <c r="F297">
+        <v>242299</v>
+      </c>
+      <c r="G297">
+        <v>100307</v>
+      </c>
+      <c r="H297">
+        <v>483369</v>
+      </c>
+      <c r="I297">
+        <v>394816</v>
+      </c>
+      <c r="J297">
+        <v>299447</v>
+      </c>
+      <c r="K297">
+        <v>157396</v>
+      </c>
+      <c r="L297">
+        <v>203497</v>
+      </c>
+      <c r="M297">
+        <v>366281</v>
+      </c>
+      <c r="N297">
+        <v>107476</v>
+      </c>
+      <c r="O297">
+        <v>448162</v>
+      </c>
+      <c r="P297">
+        <v>189812</v>
+      </c>
+      <c r="Q297">
+        <v>119079</v>
+      </c>
+      <c r="R297">
+        <v>101706</v>
+      </c>
+      <c r="S297">
+        <v>321891</v>
+      </c>
+      <c r="T297">
+        <v>39166</v>
+      </c>
+      <c r="U297">
+        <v>284774</v>
+      </c>
+      <c r="V297">
+        <v>86971</v>
+      </c>
+      <c r="W297">
+        <v>137027</v>
+      </c>
+      <c r="X297">
+        <v>64549</v>
+      </c>
+      <c r="Y297">
+        <v>198500</v>
+      </c>
+      <c r="Z297">
+        <v>170619</v>
+      </c>
+      <c r="AA297">
+        <v>87863</v>
+      </c>
+      <c r="AB297">
+        <v>66977</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1371653</v>
+      </c>
+      <c r="C298">
+        <v>225358</v>
+      </c>
+      <c r="D298">
+        <v>402480</v>
+      </c>
+      <c r="E298">
+        <v>464083</v>
+      </c>
+      <c r="F298">
+        <v>243212</v>
+      </c>
+      <c r="G298">
+        <v>100619</v>
+      </c>
+      <c r="H298">
+        <v>488934</v>
+      </c>
+      <c r="I298">
+        <v>400537</v>
+      </c>
+      <c r="J298">
+        <v>300229</v>
+      </c>
+      <c r="K298">
+        <v>158449</v>
+      </c>
+      <c r="L298">
+        <v>205262</v>
+      </c>
+      <c r="M298">
+        <v>370775</v>
+      </c>
+      <c r="N298">
+        <v>108223</v>
+      </c>
+      <c r="O298">
+        <v>453322</v>
+      </c>
+      <c r="P298">
+        <v>190968</v>
+      </c>
+      <c r="Q298">
+        <v>120395</v>
+      </c>
+      <c r="R298">
+        <v>101810</v>
+      </c>
+      <c r="S298">
+        <v>322861</v>
+      </c>
+      <c r="T298">
+        <v>39341</v>
+      </c>
+      <c r="U298">
+        <v>285632</v>
+      </c>
+      <c r="V298">
+        <v>87295</v>
+      </c>
+      <c r="W298">
+        <v>137607</v>
+      </c>
+      <c r="X298">
+        <v>64549</v>
+      </c>
+      <c r="Y298">
+        <v>198843</v>
+      </c>
+      <c r="Z298">
+        <v>171490</v>
+      </c>
+      <c r="AA298">
+        <v>88410</v>
+      </c>
+      <c r="AB298">
+        <v>67359</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1384100</v>
+      </c>
+      <c r="C299">
+        <v>227245</v>
+      </c>
+      <c r="D299">
+        <v>403660</v>
+      </c>
+      <c r="E299">
+        <v>468003</v>
+      </c>
+      <c r="F299">
+        <v>243834</v>
+      </c>
+      <c r="G299">
+        <v>100978</v>
+      </c>
+      <c r="H299">
+        <v>494187</v>
+      </c>
+      <c r="I299">
+        <v>405598</v>
+      </c>
+      <c r="J299">
+        <v>300284</v>
+      </c>
+      <c r="K299">
+        <v>159109</v>
+      </c>
+      <c r="L299">
+        <v>207008</v>
+      </c>
+      <c r="M299">
+        <v>374349</v>
+      </c>
+      <c r="N299">
+        <v>108934</v>
+      </c>
+      <c r="O299">
+        <v>457335</v>
+      </c>
+      <c r="P299">
+        <v>191674</v>
+      </c>
+      <c r="Q299">
+        <v>121461</v>
+      </c>
+      <c r="R299">
+        <v>103042</v>
+      </c>
+      <c r="S299">
+        <v>323506</v>
+      </c>
+      <c r="T299">
+        <v>39869</v>
+      </c>
+      <c r="U299">
+        <v>286130</v>
+      </c>
+      <c r="V299">
+        <v>87478</v>
+      </c>
+      <c r="W299">
+        <v>137944</v>
+      </c>
+      <c r="X299">
+        <v>65109</v>
+      </c>
+      <c r="Y299">
+        <v>199094</v>
+      </c>
+      <c r="Z299">
+        <v>171959</v>
+      </c>
+      <c r="AA299">
+        <v>88822</v>
+      </c>
+      <c r="AB299">
+        <v>67429</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1384100</v>
+      </c>
+      <c r="C300">
+        <v>228741</v>
+      </c>
+      <c r="D300">
+        <v>406820</v>
+      </c>
+      <c r="E300">
+        <v>469660</v>
+      </c>
+      <c r="F300">
+        <v>244243</v>
+      </c>
+      <c r="G300">
+        <v>101285</v>
+      </c>
+      <c r="H300">
+        <v>497672</v>
+      </c>
+      <c r="I300">
+        <v>407755</v>
+      </c>
+      <c r="J300">
+        <v>300284</v>
+      </c>
+      <c r="K300">
+        <v>159436</v>
+      </c>
+      <c r="L300">
+        <v>207426</v>
+      </c>
+      <c r="M300">
+        <v>376009</v>
+      </c>
+      <c r="N300">
+        <v>108934</v>
+      </c>
+      <c r="O300">
+        <v>461244</v>
+      </c>
+      <c r="P300">
+        <v>191976</v>
+      </c>
+      <c r="Q300">
+        <v>121461</v>
+      </c>
+      <c r="R300">
+        <v>103955</v>
+      </c>
+      <c r="S300">
+        <v>323941</v>
+      </c>
+      <c r="T300">
+        <v>39996</v>
+      </c>
+      <c r="U300">
+        <v>286616</v>
+      </c>
+      <c r="V300">
+        <v>87478</v>
+      </c>
+      <c r="W300">
+        <v>138152</v>
+      </c>
+      <c r="X300">
+        <v>65215</v>
+      </c>
+      <c r="Y300">
+        <v>199105</v>
+      </c>
+      <c r="Z300">
+        <v>172251</v>
+      </c>
+      <c r="AA300">
+        <v>89047</v>
+      </c>
+      <c r="AB300">
+        <v>67531</v>
       </c>
     </row>
   </sheetData>
@@ -25337,7 +25782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB295"/>
+  <dimension ref="A1:AB300"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49303,7 +49748,7 @@
         <v>6919</v>
       </c>
       <c r="N295">
-        <v>2835</v>
+        <v>2842</v>
       </c>
       <c r="O295">
         <v>4504</v>
@@ -49312,7 +49757,7 @@
         <v>5026</v>
       </c>
       <c r="Q295">
-        <v>1967</v>
+        <v>1978</v>
       </c>
       <c r="R295">
         <v>2374</v>
@@ -49327,7 +49772,7 @@
         <v>7018</v>
       </c>
       <c r="V295">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="W295">
         <v>2743</v>
@@ -49345,7 +49790,437 @@
         <v>1655</v>
       </c>
       <c r="AB295">
-        <v>761</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>44282</v>
+      </c>
+      <c r="C296">
+        <v>4663</v>
+      </c>
+      <c r="D296">
+        <v>24109</v>
+      </c>
+      <c r="E296">
+        <v>8691</v>
+      </c>
+      <c r="F296">
+        <v>4107</v>
+      </c>
+      <c r="G296">
+        <v>2389</v>
+      </c>
+      <c r="H296">
+        <v>10855</v>
+      </c>
+      <c r="I296">
+        <v>7862</v>
+      </c>
+      <c r="J296">
+        <v>6631</v>
+      </c>
+      <c r="K296">
+        <v>3487</v>
+      </c>
+      <c r="L296">
+        <v>9339</v>
+      </c>
+      <c r="M296">
+        <v>7117</v>
+      </c>
+      <c r="N296">
+        <v>2853</v>
+      </c>
+      <c r="O296">
+        <v>4517</v>
+      </c>
+      <c r="P296">
+        <v>5036</v>
+      </c>
+      <c r="Q296">
+        <v>1993</v>
+      </c>
+      <c r="R296">
+        <v>2381</v>
+      </c>
+      <c r="S296">
+        <v>9875</v>
+      </c>
+      <c r="T296">
+        <v>756</v>
+      </c>
+      <c r="U296">
+        <v>7035</v>
+      </c>
+      <c r="V296">
+        <v>1210</v>
+      </c>
+      <c r="W296">
+        <v>2749</v>
+      </c>
+      <c r="X296">
+        <v>861</v>
+      </c>
+      <c r="Y296">
+        <v>4401</v>
+      </c>
+      <c r="Z296">
+        <v>4291</v>
+      </c>
+      <c r="AA296">
+        <v>1668</v>
+      </c>
+      <c r="AB296">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>44681</v>
+      </c>
+      <c r="C297">
+        <v>4696</v>
+      </c>
+      <c r="D297">
+        <v>24204</v>
+      </c>
+      <c r="E297">
+        <v>8720</v>
+      </c>
+      <c r="F297">
+        <v>4123</v>
+      </c>
+      <c r="G297">
+        <v>2394</v>
+      </c>
+      <c r="H297">
+        <v>10933</v>
+      </c>
+      <c r="I297">
+        <v>7944</v>
+      </c>
+      <c r="J297">
+        <v>6651</v>
+      </c>
+      <c r="K297">
+        <v>3507</v>
+      </c>
+      <c r="L297">
+        <v>9361</v>
+      </c>
+      <c r="M297">
+        <v>7172</v>
+      </c>
+      <c r="N297">
+        <v>2869</v>
+      </c>
+      <c r="O297">
+        <v>4598</v>
+      </c>
+      <c r="P297">
+        <v>5049</v>
+      </c>
+      <c r="Q297">
+        <v>2009</v>
+      </c>
+      <c r="R297">
+        <v>2387</v>
+      </c>
+      <c r="S297">
+        <v>9897</v>
+      </c>
+      <c r="T297">
+        <v>756</v>
+      </c>
+      <c r="U297">
+        <v>7042</v>
+      </c>
+      <c r="V297">
+        <v>1212</v>
+      </c>
+      <c r="W297">
+        <v>2755</v>
+      </c>
+      <c r="X297">
+        <v>864</v>
+      </c>
+      <c r="Y297">
+        <v>4408</v>
+      </c>
+      <c r="Z297">
+        <v>4303</v>
+      </c>
+      <c r="AA297">
+        <v>1681</v>
+      </c>
+      <c r="AB297">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>44878</v>
+      </c>
+      <c r="C298">
+        <v>4727</v>
+      </c>
+      <c r="D298">
+        <v>24351</v>
+      </c>
+      <c r="E298">
+        <v>8748</v>
+      </c>
+      <c r="F298">
+        <v>4132</v>
+      </c>
+      <c r="G298">
+        <v>2399</v>
+      </c>
+      <c r="H298">
+        <v>11009</v>
+      </c>
+      <c r="I298">
+        <v>8007</v>
+      </c>
+      <c r="J298">
+        <v>6659</v>
+      </c>
+      <c r="K298">
+        <v>3523</v>
+      </c>
+      <c r="L298">
+        <v>9383</v>
+      </c>
+      <c r="M298">
+        <v>7213</v>
+      </c>
+      <c r="N298">
+        <v>2878</v>
+      </c>
+      <c r="O298">
+        <v>4652</v>
+      </c>
+      <c r="P298">
+        <v>5062</v>
+      </c>
+      <c r="Q298">
+        <v>2032</v>
+      </c>
+      <c r="R298">
+        <v>2394</v>
+      </c>
+      <c r="S298">
+        <v>9909</v>
+      </c>
+      <c r="T298">
+        <v>757</v>
+      </c>
+      <c r="U298">
+        <v>7051</v>
+      </c>
+      <c r="V298">
+        <v>1214</v>
+      </c>
+      <c r="W298">
+        <v>2764</v>
+      </c>
+      <c r="X298">
+        <v>864</v>
+      </c>
+      <c r="Y298">
+        <v>4413</v>
+      </c>
+      <c r="Z298">
+        <v>4316</v>
+      </c>
+      <c r="AA298">
+        <v>1689</v>
+      </c>
+      <c r="AB298">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>45029</v>
+      </c>
+      <c r="C299">
+        <v>4747</v>
+      </c>
+      <c r="D299">
+        <v>24454</v>
+      </c>
+      <c r="E299">
+        <v>8777</v>
+      </c>
+      <c r="F299">
+        <v>4138</v>
+      </c>
+      <c r="G299">
+        <v>2404</v>
+      </c>
+      <c r="H299">
+        <v>11093</v>
+      </c>
+      <c r="I299">
+        <v>8072</v>
+      </c>
+      <c r="J299">
+        <v>6663</v>
+      </c>
+      <c r="K299">
+        <v>3529</v>
+      </c>
+      <c r="L299">
+        <v>9418</v>
+      </c>
+      <c r="M299">
+        <v>7271</v>
+      </c>
+      <c r="N299">
+        <v>2878</v>
+      </c>
+      <c r="O299">
+        <v>4668</v>
+      </c>
+      <c r="P299">
+        <v>5076</v>
+      </c>
+      <c r="Q299">
+        <v>2051</v>
+      </c>
+      <c r="R299">
+        <v>2401</v>
+      </c>
+      <c r="S299">
+        <v>9912</v>
+      </c>
+      <c r="T299">
+        <v>758</v>
+      </c>
+      <c r="U299">
+        <v>7057</v>
+      </c>
+      <c r="V299">
+        <v>1216</v>
+      </c>
+      <c r="W299">
+        <v>2765</v>
+      </c>
+      <c r="X299">
+        <v>875</v>
+      </c>
+      <c r="Y299">
+        <v>4420</v>
+      </c>
+      <c r="Z299">
+        <v>4320</v>
+      </c>
+      <c r="AA299">
+        <v>1697</v>
+      </c>
+      <c r="AB299">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>45029</v>
+      </c>
+      <c r="C300">
+        <v>4759</v>
+      </c>
+      <c r="D300">
+        <v>24473</v>
+      </c>
+      <c r="E300">
+        <v>8807</v>
+      </c>
+      <c r="F300">
+        <v>4145</v>
+      </c>
+      <c r="G300">
+        <v>2410</v>
+      </c>
+      <c r="H300">
+        <v>11225</v>
+      </c>
+      <c r="I300">
+        <v>8087</v>
+      </c>
+      <c r="J300">
+        <v>6663</v>
+      </c>
+      <c r="K300">
+        <v>3539</v>
+      </c>
+      <c r="L300">
+        <v>9435</v>
+      </c>
+      <c r="M300">
+        <v>7312</v>
+      </c>
+      <c r="N300">
+        <v>2878</v>
+      </c>
+      <c r="O300">
+        <v>4706</v>
+      </c>
+      <c r="P300">
+        <v>5085</v>
+      </c>
+      <c r="Q300">
+        <v>2051</v>
+      </c>
+      <c r="R300">
+        <v>2407</v>
+      </c>
+      <c r="S300">
+        <v>9916</v>
+      </c>
+      <c r="T300">
+        <v>765</v>
+      </c>
+      <c r="U300">
+        <v>7063</v>
+      </c>
+      <c r="V300">
+        <v>1216</v>
+      </c>
+      <c r="W300">
+        <v>2769</v>
+      </c>
+      <c r="X300">
+        <v>875</v>
+      </c>
+      <c r="Y300">
+        <v>4426</v>
+      </c>
+      <c r="Z300">
+        <v>4331</v>
+      </c>
+      <c r="AA300">
+        <v>1698</v>
+      </c>
+      <c r="AB300">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -49363,15 +50238,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -49379,7 +50254,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -49387,7 +50262,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -49395,7 +50270,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -49403,7 +50278,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -49411,7 +50286,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -49419,7 +50294,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -49427,7 +50302,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -49435,7 +50310,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -49443,7 +50318,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -49451,7 +50326,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -49459,7 +50334,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -49467,7 +50342,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -49475,7 +50350,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -49483,7 +50358,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -49491,7 +50366,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -49499,7 +50374,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -49507,7 +50382,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -49515,7 +50390,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -49523,7 +50398,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -49531,7 +50406,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -49539,7 +50414,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -49547,7 +50422,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -49555,7 +50430,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -49563,7 +50438,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -49571,7 +50446,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -49579,7 +50454,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="339">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -918,6 +918,36 @@
     <t>2020-12-20</t>
   </si>
   <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1334,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB300"/>
+  <dimension ref="A1:AB310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25514,7 +25544,7 @@
         <v>87863</v>
       </c>
       <c r="AB297">
-        <v>66977</v>
+        <v>67184</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -25588,7 +25618,7 @@
         <v>137607</v>
       </c>
       <c r="X298">
-        <v>64549</v>
+        <v>64752</v>
       </c>
       <c r="Y298">
         <v>198843</v>
@@ -25730,7 +25760,7 @@
         <v>376009</v>
       </c>
       <c r="N300">
-        <v>108934</v>
+        <v>110319</v>
       </c>
       <c r="O300">
         <v>461244</v>
@@ -25739,7 +25769,7 @@
         <v>191976</v>
       </c>
       <c r="Q300">
-        <v>121461</v>
+        <v>122187</v>
       </c>
       <c r="R300">
         <v>103955</v>
@@ -25754,7 +25784,7 @@
         <v>286616</v>
       </c>
       <c r="V300">
-        <v>87478</v>
+        <v>87695</v>
       </c>
       <c r="W300">
         <v>138152</v>
@@ -25766,13 +25796,873 @@
         <v>199105</v>
       </c>
       <c r="Z300">
-        <v>172251</v>
+        <v>172215</v>
       </c>
       <c r="AA300">
         <v>89047</v>
       </c>
       <c r="AB300">
         <v>67531</v>
+      </c>
+    </row>
+    <row r="301" spans="1:28">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1388043</v>
+      </c>
+      <c r="C301">
+        <v>230420</v>
+      </c>
+      <c r="D301">
+        <v>407575</v>
+      </c>
+      <c r="E301">
+        <v>471177</v>
+      </c>
+      <c r="F301">
+        <v>245243</v>
+      </c>
+      <c r="G301">
+        <v>101443</v>
+      </c>
+      <c r="H301">
+        <v>499499</v>
+      </c>
+      <c r="I301">
+        <v>409794</v>
+      </c>
+      <c r="J301">
+        <v>301502</v>
+      </c>
+      <c r="K301">
+        <v>159639</v>
+      </c>
+      <c r="L301">
+        <v>208135</v>
+      </c>
+      <c r="M301">
+        <v>378291</v>
+      </c>
+      <c r="N301">
+        <v>111090</v>
+      </c>
+      <c r="O301">
+        <v>463732</v>
+      </c>
+      <c r="P301">
+        <v>192327</v>
+      </c>
+      <c r="Q301">
+        <v>123529</v>
+      </c>
+      <c r="R301">
+        <v>104426</v>
+      </c>
+      <c r="S301">
+        <v>324894</v>
+      </c>
+      <c r="T301">
+        <v>40249</v>
+      </c>
+      <c r="U301">
+        <v>287535</v>
+      </c>
+      <c r="V301">
+        <v>88070</v>
+      </c>
+      <c r="W301">
+        <v>138586</v>
+      </c>
+      <c r="X301">
+        <v>65422</v>
+      </c>
+      <c r="Y301">
+        <v>199198</v>
+      </c>
+      <c r="Z301">
+        <v>173132</v>
+      </c>
+      <c r="AA301">
+        <v>89633</v>
+      </c>
+      <c r="AB301">
+        <v>67686</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>1398757</v>
+      </c>
+      <c r="C302">
+        <v>232760</v>
+      </c>
+      <c r="D302">
+        <v>411369</v>
+      </c>
+      <c r="E302">
+        <v>473865</v>
+      </c>
+      <c r="F302">
+        <v>245872</v>
+      </c>
+      <c r="G302">
+        <v>101745</v>
+      </c>
+      <c r="H302">
+        <v>503700</v>
+      </c>
+      <c r="I302">
+        <v>416000</v>
+      </c>
+      <c r="J302">
+        <v>302698</v>
+      </c>
+      <c r="K302">
+        <v>160611</v>
+      </c>
+      <c r="L302">
+        <v>210081</v>
+      </c>
+      <c r="M302">
+        <v>384393</v>
+      </c>
+      <c r="N302">
+        <v>112578</v>
+      </c>
+      <c r="O302">
+        <v>468403</v>
+      </c>
+      <c r="P302">
+        <v>193544</v>
+      </c>
+      <c r="Q302">
+        <v>125181</v>
+      </c>
+      <c r="R302">
+        <v>105018</v>
+      </c>
+      <c r="S302">
+        <v>325884</v>
+      </c>
+      <c r="T302">
+        <v>40314</v>
+      </c>
+      <c r="U302">
+        <v>288465</v>
+      </c>
+      <c r="V302">
+        <v>88376</v>
+      </c>
+      <c r="W302">
+        <v>139168</v>
+      </c>
+      <c r="X302">
+        <v>65712</v>
+      </c>
+      <c r="Y302">
+        <v>199535</v>
+      </c>
+      <c r="Z302">
+        <v>174162</v>
+      </c>
+      <c r="AA302">
+        <v>90835</v>
+      </c>
+      <c r="AB302">
+        <v>67909</v>
+      </c>
+    </row>
+    <row r="303" spans="1:28">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1409140</v>
+      </c>
+      <c r="C303">
+        <v>234494</v>
+      </c>
+      <c r="D303">
+        <v>414344</v>
+      </c>
+      <c r="E303">
+        <v>476955</v>
+      </c>
+      <c r="F303">
+        <v>246397</v>
+      </c>
+      <c r="G303">
+        <v>102178</v>
+      </c>
+      <c r="H303">
+        <v>510219</v>
+      </c>
+      <c r="I303">
+        <v>416098</v>
+      </c>
+      <c r="J303">
+        <v>303903</v>
+      </c>
+      <c r="K303">
+        <v>161539</v>
+      </c>
+      <c r="L303">
+        <v>211996</v>
+      </c>
+      <c r="M303">
+        <v>387686</v>
+      </c>
+      <c r="N303">
+        <v>113490</v>
+      </c>
+      <c r="O303">
+        <v>472199</v>
+      </c>
+      <c r="P303">
+        <v>194406</v>
+      </c>
+      <c r="Q303">
+        <v>126583</v>
+      </c>
+      <c r="R303">
+        <v>105673</v>
+      </c>
+      <c r="S303">
+        <v>326519</v>
+      </c>
+      <c r="T303">
+        <v>40399</v>
+      </c>
+      <c r="U303">
+        <v>289348</v>
+      </c>
+      <c r="V303">
+        <v>88739</v>
+      </c>
+      <c r="W303">
+        <v>139713</v>
+      </c>
+      <c r="X303">
+        <v>65938</v>
+      </c>
+      <c r="Y303">
+        <v>199754</v>
+      </c>
+      <c r="Z303">
+        <v>175223</v>
+      </c>
+      <c r="AA303">
+        <v>91574</v>
+      </c>
+      <c r="AB303">
+        <v>68107</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1418491</v>
+      </c>
+      <c r="C304">
+        <v>236238</v>
+      </c>
+      <c r="D304">
+        <v>418543</v>
+      </c>
+      <c r="E304">
+        <v>479553</v>
+      </c>
+      <c r="F304">
+        <v>246949</v>
+      </c>
+      <c r="G304">
+        <v>102569</v>
+      </c>
+      <c r="H304">
+        <v>516188</v>
+      </c>
+      <c r="I304">
+        <v>426531</v>
+      </c>
+      <c r="J304">
+        <v>304175</v>
+      </c>
+      <c r="K304">
+        <v>162149</v>
+      </c>
+      <c r="L304">
+        <v>213453</v>
+      </c>
+      <c r="M304">
+        <v>397479</v>
+      </c>
+      <c r="N304">
+        <v>114548</v>
+      </c>
+      <c r="O304">
+        <v>475200</v>
+      </c>
+      <c r="P304">
+        <v>195405</v>
+      </c>
+      <c r="Q304">
+        <v>127874</v>
+      </c>
+      <c r="R304">
+        <v>106896</v>
+      </c>
+      <c r="S304">
+        <v>327140</v>
+      </c>
+      <c r="T304">
+        <v>40638</v>
+      </c>
+      <c r="U304">
+        <v>289777</v>
+      </c>
+      <c r="V304">
+        <v>88979</v>
+      </c>
+      <c r="W304">
+        <v>139928</v>
+      </c>
+      <c r="X304">
+        <v>66132</v>
+      </c>
+      <c r="Y304">
+        <v>199906</v>
+      </c>
+      <c r="Z304">
+        <v>175790</v>
+      </c>
+      <c r="AA304">
+        <v>92099</v>
+      </c>
+      <c r="AB304">
+        <v>68195</v>
+      </c>
+    </row>
+    <row r="305" spans="1:28">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1422087</v>
+      </c>
+      <c r="C305">
+        <v>236978</v>
+      </c>
+      <c r="D305">
+        <v>419146</v>
+      </c>
+      <c r="E305">
+        <v>480764</v>
+      </c>
+      <c r="F305">
+        <v>247278</v>
+      </c>
+      <c r="G305">
+        <v>102827</v>
+      </c>
+      <c r="H305">
+        <v>520218</v>
+      </c>
+      <c r="I305">
+        <v>428633</v>
+      </c>
+      <c r="J305">
+        <v>304272</v>
+      </c>
+      <c r="K305">
+        <v>162380</v>
+      </c>
+      <c r="L305">
+        <v>214562</v>
+      </c>
+      <c r="M305">
+        <v>399065</v>
+      </c>
+      <c r="N305">
+        <v>114822</v>
+      </c>
+      <c r="O305">
+        <v>476681</v>
+      </c>
+      <c r="P305">
+        <v>195806</v>
+      </c>
+      <c r="Q305">
+        <v>128164</v>
+      </c>
+      <c r="R305">
+        <v>107721</v>
+      </c>
+      <c r="S305">
+        <v>327832</v>
+      </c>
+      <c r="T305">
+        <v>40723</v>
+      </c>
+      <c r="U305">
+        <v>289795</v>
+      </c>
+      <c r="V305">
+        <v>89140</v>
+      </c>
+      <c r="W305">
+        <v>140245</v>
+      </c>
+      <c r="X305">
+        <v>66221</v>
+      </c>
+      <c r="Y305">
+        <v>199986</v>
+      </c>
+      <c r="Z305">
+        <v>176044</v>
+      </c>
+      <c r="AA305">
+        <v>92381</v>
+      </c>
+      <c r="AB305">
+        <v>68237</v>
+      </c>
+    </row>
+    <row r="306" spans="1:28">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1423340</v>
+      </c>
+      <c r="C306">
+        <v>238426</v>
+      </c>
+      <c r="D306">
+        <v>420075</v>
+      </c>
+      <c r="E306">
+        <v>482113</v>
+      </c>
+      <c r="F306">
+        <v>247928</v>
+      </c>
+      <c r="G306">
+        <v>103125</v>
+      </c>
+      <c r="H306">
+        <v>522331</v>
+      </c>
+      <c r="I306">
+        <v>430780</v>
+      </c>
+      <c r="J306">
+        <v>304442</v>
+      </c>
+      <c r="K306">
+        <v>163107</v>
+      </c>
+      <c r="L306">
+        <v>214949</v>
+      </c>
+      <c r="M306">
+        <v>400288</v>
+      </c>
+      <c r="N306">
+        <v>114822</v>
+      </c>
+      <c r="O306">
+        <v>478242</v>
+      </c>
+      <c r="P306">
+        <v>196007</v>
+      </c>
+      <c r="Q306">
+        <v>129261</v>
+      </c>
+      <c r="R306">
+        <v>108166</v>
+      </c>
+      <c r="S306">
+        <v>327865</v>
+      </c>
+      <c r="T306">
+        <v>40736</v>
+      </c>
+      <c r="U306">
+        <v>290326</v>
+      </c>
+      <c r="V306">
+        <v>89289</v>
+      </c>
+      <c r="W306">
+        <v>140496</v>
+      </c>
+      <c r="X306">
+        <v>66293</v>
+      </c>
+      <c r="Y306">
+        <v>200043</v>
+      </c>
+      <c r="Z306">
+        <v>176240</v>
+      </c>
+      <c r="AA306">
+        <v>92587</v>
+      </c>
+      <c r="AB306">
+        <v>68240</v>
+      </c>
+    </row>
+    <row r="307" spans="1:28">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1426176</v>
+      </c>
+      <c r="C307">
+        <v>239036</v>
+      </c>
+      <c r="D307">
+        <v>421069</v>
+      </c>
+      <c r="E307">
+        <v>483737</v>
+      </c>
+      <c r="F307">
+        <v>248543</v>
+      </c>
+      <c r="G307">
+        <v>103551</v>
+      </c>
+      <c r="H307">
+        <v>523548</v>
+      </c>
+      <c r="I307">
+        <v>431603</v>
+      </c>
+      <c r="J307">
+        <v>304505</v>
+      </c>
+      <c r="K307">
+        <v>163415</v>
+      </c>
+      <c r="L307">
+        <v>215552</v>
+      </c>
+      <c r="M307">
+        <v>401860</v>
+      </c>
+      <c r="N307">
+        <v>115422</v>
+      </c>
+      <c r="O307">
+        <v>479947</v>
+      </c>
+      <c r="P307">
+        <v>196436</v>
+      </c>
+      <c r="Q307">
+        <v>129484</v>
+      </c>
+      <c r="R307">
+        <v>108943</v>
+      </c>
+      <c r="S307">
+        <v>327982</v>
+      </c>
+      <c r="T307">
+        <v>40900</v>
+      </c>
+      <c r="U307">
+        <v>290821</v>
+      </c>
+      <c r="V307">
+        <v>89410</v>
+      </c>
+      <c r="W307">
+        <v>140749</v>
+      </c>
+      <c r="X307">
+        <v>66724</v>
+      </c>
+      <c r="Y307">
+        <v>200127</v>
+      </c>
+      <c r="Z307">
+        <v>176545</v>
+      </c>
+      <c r="AA307">
+        <v>92775</v>
+      </c>
+      <c r="AB307">
+        <v>68295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:28">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1427752</v>
+      </c>
+      <c r="C308">
+        <v>242553</v>
+      </c>
+      <c r="D308">
+        <v>421674</v>
+      </c>
+      <c r="E308">
+        <v>484485</v>
+      </c>
+      <c r="F308">
+        <v>249736</v>
+      </c>
+      <c r="G308">
+        <v>103748</v>
+      </c>
+      <c r="H308">
+        <v>524658</v>
+      </c>
+      <c r="I308">
+        <v>432241</v>
+      </c>
+      <c r="J308">
+        <v>306395</v>
+      </c>
+      <c r="K308">
+        <v>163993</v>
+      </c>
+      <c r="L308">
+        <v>215994</v>
+      </c>
+      <c r="M308">
+        <v>404695</v>
+      </c>
+      <c r="N308">
+        <v>116377</v>
+      </c>
+      <c r="O308">
+        <v>482129</v>
+      </c>
+      <c r="P308">
+        <v>196754</v>
+      </c>
+      <c r="Q308">
+        <v>130850</v>
+      </c>
+      <c r="R308">
+        <v>110001</v>
+      </c>
+      <c r="S308">
+        <v>329896</v>
+      </c>
+      <c r="T308">
+        <v>41010</v>
+      </c>
+      <c r="U308">
+        <v>291907</v>
+      </c>
+      <c r="V308">
+        <v>89794</v>
+      </c>
+      <c r="W308">
+        <v>141258</v>
+      </c>
+      <c r="X308">
+        <v>67149</v>
+      </c>
+      <c r="Y308">
+        <v>200220</v>
+      </c>
+      <c r="Z308">
+        <v>177293</v>
+      </c>
+      <c r="AA308">
+        <v>93667</v>
+      </c>
+      <c r="AB308">
+        <v>68363</v>
+      </c>
+    </row>
+    <row r="309" spans="1:28">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1440229</v>
+      </c>
+      <c r="C309">
+        <v>244251</v>
+      </c>
+      <c r="D309">
+        <v>426259</v>
+      </c>
+      <c r="E309">
+        <v>487691</v>
+      </c>
+      <c r="F309">
+        <v>250457</v>
+      </c>
+      <c r="G309">
+        <v>104119</v>
+      </c>
+      <c r="H309">
+        <v>529653</v>
+      </c>
+      <c r="I309">
+        <v>438458</v>
+      </c>
+      <c r="J309">
+        <v>307686</v>
+      </c>
+      <c r="K309">
+        <v>164416</v>
+      </c>
+      <c r="L309">
+        <v>217772</v>
+      </c>
+      <c r="M309">
+        <v>408731</v>
+      </c>
+      <c r="N309">
+        <v>117542</v>
+      </c>
+      <c r="O309">
+        <v>485935</v>
+      </c>
+      <c r="P309">
+        <v>198201</v>
+      </c>
+      <c r="Q309">
+        <v>132431</v>
+      </c>
+      <c r="R309">
+        <v>110804</v>
+      </c>
+      <c r="S309">
+        <v>330986</v>
+      </c>
+      <c r="T309">
+        <v>41232</v>
+      </c>
+      <c r="U309">
+        <v>292712</v>
+      </c>
+      <c r="V309">
+        <v>90047</v>
+      </c>
+      <c r="W309">
+        <v>141951</v>
+      </c>
+      <c r="X309">
+        <v>67405</v>
+      </c>
+      <c r="Y309">
+        <v>200564</v>
+      </c>
+      <c r="Z309">
+        <v>178568</v>
+      </c>
+      <c r="AA309">
+        <v>94354</v>
+      </c>
+      <c r="AB309">
+        <v>68509</v>
+      </c>
+    </row>
+    <row r="310" spans="1:28">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>1452078</v>
+      </c>
+      <c r="C310">
+        <v>246927</v>
+      </c>
+      <c r="D310">
+        <v>428373</v>
+      </c>
+      <c r="E310">
+        <v>490538</v>
+      </c>
+      <c r="F310">
+        <v>251135</v>
+      </c>
+      <c r="G310">
+        <v>104499</v>
+      </c>
+      <c r="H310">
+        <v>536044</v>
+      </c>
+      <c r="I310">
+        <v>444212</v>
+      </c>
+      <c r="J310">
+        <v>308840</v>
+      </c>
+      <c r="K310">
+        <v>165426</v>
+      </c>
+      <c r="L310">
+        <v>220284</v>
+      </c>
+      <c r="M310">
+        <v>412627</v>
+      </c>
+      <c r="N310">
+        <v>117542</v>
+      </c>
+      <c r="O310">
+        <v>489069</v>
+      </c>
+      <c r="P310">
+        <v>199570</v>
+      </c>
+      <c r="Q310">
+        <v>132431</v>
+      </c>
+      <c r="R310">
+        <v>111735</v>
+      </c>
+      <c r="S310">
+        <v>332907</v>
+      </c>
+      <c r="T310">
+        <v>41355</v>
+      </c>
+      <c r="U310">
+        <v>293540</v>
+      </c>
+      <c r="V310">
+        <v>90047</v>
+      </c>
+      <c r="W310">
+        <v>142672</v>
+      </c>
+      <c r="X310">
+        <v>67702</v>
+      </c>
+      <c r="Y310">
+        <v>200749</v>
+      </c>
+      <c r="Z310">
+        <v>179710</v>
+      </c>
+      <c r="AA310">
+        <v>95035</v>
+      </c>
+      <c r="AB310">
+        <v>68728</v>
       </c>
     </row>
   </sheetData>
@@ -25782,7 +26672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB300"/>
+  <dimension ref="A1:AB310"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49962,7 +50852,7 @@
         <v>1681</v>
       </c>
       <c r="AB297">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -50036,7 +50926,7 @@
         <v>2764</v>
       </c>
       <c r="X298">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="Y298">
         <v>4413</v>
@@ -50178,7 +51068,7 @@
         <v>7312</v>
       </c>
       <c r="N300">
-        <v>2878</v>
+        <v>2888</v>
       </c>
       <c r="O300">
         <v>4706</v>
@@ -50187,7 +51077,7 @@
         <v>5085</v>
       </c>
       <c r="Q300">
-        <v>2051</v>
+        <v>2077</v>
       </c>
       <c r="R300">
         <v>2407</v>
@@ -50202,7 +51092,7 @@
         <v>7063</v>
       </c>
       <c r="V300">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="W300">
         <v>2769</v>
@@ -50221,6 +51111,866 @@
       </c>
       <c r="AB300">
         <v>772</v>
+      </c>
+    </row>
+    <row r="301" spans="1:28">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>45136</v>
+      </c>
+      <c r="C301">
+        <v>4796</v>
+      </c>
+      <c r="D301">
+        <v>24479</v>
+      </c>
+      <c r="E301">
+        <v>8835</v>
+      </c>
+      <c r="F301">
+        <v>4156</v>
+      </c>
+      <c r="G301">
+        <v>2417</v>
+      </c>
+      <c r="H301">
+        <v>11235</v>
+      </c>
+      <c r="I301">
+        <v>8159</v>
+      </c>
+      <c r="J301">
+        <v>6668</v>
+      </c>
+      <c r="K301">
+        <v>3552</v>
+      </c>
+      <c r="L301">
+        <v>9443</v>
+      </c>
+      <c r="M301">
+        <v>7331</v>
+      </c>
+      <c r="N301">
+        <v>2900</v>
+      </c>
+      <c r="O301">
+        <v>4771</v>
+      </c>
+      <c r="P301">
+        <v>5094</v>
+      </c>
+      <c r="Q301">
+        <v>2108</v>
+      </c>
+      <c r="R301">
+        <v>2413</v>
+      </c>
+      <c r="S301">
+        <v>9927</v>
+      </c>
+      <c r="T301">
+        <v>767</v>
+      </c>
+      <c r="U301">
+        <v>7069</v>
+      </c>
+      <c r="V301">
+        <v>1218</v>
+      </c>
+      <c r="W301">
+        <v>2779</v>
+      </c>
+      <c r="X301">
+        <v>880</v>
+      </c>
+      <c r="Y301">
+        <v>4433</v>
+      </c>
+      <c r="Z301">
+        <v>4395</v>
+      </c>
+      <c r="AA301">
+        <v>1708</v>
+      </c>
+      <c r="AB301">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>45395</v>
+      </c>
+      <c r="C302">
+        <v>4839</v>
+      </c>
+      <c r="D302">
+        <v>24594</v>
+      </c>
+      <c r="E302">
+        <v>8865</v>
+      </c>
+      <c r="F302">
+        <v>4169</v>
+      </c>
+      <c r="G302">
+        <v>2425</v>
+      </c>
+      <c r="H302">
+        <v>11285</v>
+      </c>
+      <c r="I302">
+        <v>8260</v>
+      </c>
+      <c r="J302">
+        <v>6685</v>
+      </c>
+      <c r="K302">
+        <v>3563</v>
+      </c>
+      <c r="L302">
+        <v>9459</v>
+      </c>
+      <c r="M302">
+        <v>7460</v>
+      </c>
+      <c r="N302">
+        <v>2927</v>
+      </c>
+      <c r="O302">
+        <v>4836</v>
+      </c>
+      <c r="P302">
+        <v>5111</v>
+      </c>
+      <c r="Q302">
+        <v>2130</v>
+      </c>
+      <c r="R302">
+        <v>2420</v>
+      </c>
+      <c r="S302">
+        <v>9939</v>
+      </c>
+      <c r="T302">
+        <v>769</v>
+      </c>
+      <c r="U302">
+        <v>7078</v>
+      </c>
+      <c r="V302">
+        <v>1219</v>
+      </c>
+      <c r="W302">
+        <v>2788</v>
+      </c>
+      <c r="X302">
+        <v>885</v>
+      </c>
+      <c r="Y302">
+        <v>4438</v>
+      </c>
+      <c r="Z302">
+        <v>4405</v>
+      </c>
+      <c r="AA302">
+        <v>1721</v>
+      </c>
+      <c r="AB302">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="1:28">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>45576</v>
+      </c>
+      <c r="C303">
+        <v>4866</v>
+      </c>
+      <c r="D303">
+        <v>24773</v>
+      </c>
+      <c r="E303">
+        <v>8893</v>
+      </c>
+      <c r="F303">
+        <v>4181</v>
+      </c>
+      <c r="G303">
+        <v>2433</v>
+      </c>
+      <c r="H303">
+        <v>11355</v>
+      </c>
+      <c r="I303">
+        <v>8345</v>
+      </c>
+      <c r="J303">
+        <v>6740</v>
+      </c>
+      <c r="K303">
+        <v>3573</v>
+      </c>
+      <c r="L303">
+        <v>9487</v>
+      </c>
+      <c r="M303">
+        <v>7528</v>
+      </c>
+      <c r="N303">
+        <v>2932</v>
+      </c>
+      <c r="O303">
+        <v>4885</v>
+      </c>
+      <c r="P303">
+        <v>5133</v>
+      </c>
+      <c r="Q303">
+        <v>2160</v>
+      </c>
+      <c r="R303">
+        <v>2427</v>
+      </c>
+      <c r="S303">
+        <v>9947</v>
+      </c>
+      <c r="T303">
+        <v>776</v>
+      </c>
+      <c r="U303">
+        <v>7095</v>
+      </c>
+      <c r="V303">
+        <v>1221</v>
+      </c>
+      <c r="W303">
+        <v>2792</v>
+      </c>
+      <c r="X303">
+        <v>891</v>
+      </c>
+      <c r="Y303">
+        <v>4445</v>
+      </c>
+      <c r="Z303">
+        <v>4420</v>
+      </c>
+      <c r="AA303">
+        <v>1728</v>
+      </c>
+      <c r="AB303">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>45758</v>
+      </c>
+      <c r="C304">
+        <v>4898</v>
+      </c>
+      <c r="D304">
+        <v>24827</v>
+      </c>
+      <c r="E304">
+        <v>8924</v>
+      </c>
+      <c r="F304">
+        <v>4188</v>
+      </c>
+      <c r="G304">
+        <v>2440</v>
+      </c>
+      <c r="H304">
+        <v>11475</v>
+      </c>
+      <c r="I304">
+        <v>8403</v>
+      </c>
+      <c r="J304">
+        <v>6744</v>
+      </c>
+      <c r="K304">
+        <v>3582</v>
+      </c>
+      <c r="L304">
+        <v>9523</v>
+      </c>
+      <c r="M304">
+        <v>7600</v>
+      </c>
+      <c r="N304">
+        <v>2935</v>
+      </c>
+      <c r="O304">
+        <v>4939</v>
+      </c>
+      <c r="P304">
+        <v>5151</v>
+      </c>
+      <c r="Q304">
+        <v>2183</v>
+      </c>
+      <c r="R304">
+        <v>2434</v>
+      </c>
+      <c r="S304">
+        <v>9952</v>
+      </c>
+      <c r="T304">
+        <v>779</v>
+      </c>
+      <c r="U304">
+        <v>7108</v>
+      </c>
+      <c r="V304">
+        <v>1223</v>
+      </c>
+      <c r="W304">
+        <v>2794</v>
+      </c>
+      <c r="X304">
+        <v>897</v>
+      </c>
+      <c r="Y304">
+        <v>4451</v>
+      </c>
+      <c r="Z304">
+        <v>4422</v>
+      </c>
+      <c r="AA304">
+        <v>1732</v>
+      </c>
+      <c r="AB304">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="305" spans="1:28">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>45795</v>
+      </c>
+      <c r="C305">
+        <v>4915</v>
+      </c>
+      <c r="D305">
+        <v>24900</v>
+      </c>
+      <c r="E305">
+        <v>8954</v>
+      </c>
+      <c r="F305">
+        <v>4192</v>
+      </c>
+      <c r="G305">
+        <v>2447</v>
+      </c>
+      <c r="H305">
+        <v>11562</v>
+      </c>
+      <c r="I305">
+        <v>8434</v>
+      </c>
+      <c r="J305">
+        <v>6748</v>
+      </c>
+      <c r="K305">
+        <v>3592</v>
+      </c>
+      <c r="L305">
+        <v>9544</v>
+      </c>
+      <c r="M305">
+        <v>7634</v>
+      </c>
+      <c r="N305">
+        <v>2937</v>
+      </c>
+      <c r="O305">
+        <v>4973</v>
+      </c>
+      <c r="P305">
+        <v>5161</v>
+      </c>
+      <c r="Q305">
+        <v>2207</v>
+      </c>
+      <c r="R305">
+        <v>2441</v>
+      </c>
+      <c r="S305">
+        <v>9952</v>
+      </c>
+      <c r="T305">
+        <v>780</v>
+      </c>
+      <c r="U305">
+        <v>7124</v>
+      </c>
+      <c r="V305">
+        <v>1224</v>
+      </c>
+      <c r="W305">
+        <v>2802</v>
+      </c>
+      <c r="X305">
+        <v>899</v>
+      </c>
+      <c r="Y305">
+        <v>4458</v>
+      </c>
+      <c r="Z305">
+        <v>4435</v>
+      </c>
+      <c r="AA305">
+        <v>1734</v>
+      </c>
+      <c r="AB305">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="306" spans="1:28">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>45808</v>
+      </c>
+      <c r="C306">
+        <v>4928</v>
+      </c>
+      <c r="D306">
+        <v>24905</v>
+      </c>
+      <c r="E306">
+        <v>8983</v>
+      </c>
+      <c r="F306">
+        <v>4198</v>
+      </c>
+      <c r="G306">
+        <v>2454</v>
+      </c>
+      <c r="H306">
+        <v>11585</v>
+      </c>
+      <c r="I306">
+        <v>8452</v>
+      </c>
+      <c r="J306">
+        <v>6752</v>
+      </c>
+      <c r="K306">
+        <v>3604</v>
+      </c>
+      <c r="L306">
+        <v>9560</v>
+      </c>
+      <c r="M306">
+        <v>7656</v>
+      </c>
+      <c r="N306">
+        <v>2937</v>
+      </c>
+      <c r="O306">
+        <v>5007</v>
+      </c>
+      <c r="P306">
+        <v>5173</v>
+      </c>
+      <c r="Q306">
+        <v>2229</v>
+      </c>
+      <c r="R306">
+        <v>2448</v>
+      </c>
+      <c r="S306">
+        <v>9952</v>
+      </c>
+      <c r="T306">
+        <v>780</v>
+      </c>
+      <c r="U306">
+        <v>7130</v>
+      </c>
+      <c r="V306">
+        <v>1225</v>
+      </c>
+      <c r="W306">
+        <v>2814</v>
+      </c>
+      <c r="X306">
+        <v>901</v>
+      </c>
+      <c r="Y306">
+        <v>4466</v>
+      </c>
+      <c r="Z306">
+        <v>4450</v>
+      </c>
+      <c r="AA306">
+        <v>1743</v>
+      </c>
+      <c r="AB306">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="307" spans="1:28">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>45863</v>
+      </c>
+      <c r="C307">
+        <v>4941</v>
+      </c>
+      <c r="D307">
+        <v>24918</v>
+      </c>
+      <c r="E307">
+        <v>9011</v>
+      </c>
+      <c r="F307">
+        <v>4201</v>
+      </c>
+      <c r="G307">
+        <v>2461</v>
+      </c>
+      <c r="H307">
+        <v>11592</v>
+      </c>
+      <c r="I307">
+        <v>8492</v>
+      </c>
+      <c r="J307">
+        <v>6753</v>
+      </c>
+      <c r="K307">
+        <v>3619</v>
+      </c>
+      <c r="L307">
+        <v>9571</v>
+      </c>
+      <c r="M307">
+        <v>7682</v>
+      </c>
+      <c r="N307">
+        <v>2947</v>
+      </c>
+      <c r="O307">
+        <v>5039</v>
+      </c>
+      <c r="P307">
+        <v>5190</v>
+      </c>
+      <c r="Q307">
+        <v>2245</v>
+      </c>
+      <c r="R307">
+        <v>2454</v>
+      </c>
+      <c r="S307">
+        <v>9952</v>
+      </c>
+      <c r="T307">
+        <v>785</v>
+      </c>
+      <c r="U307">
+        <v>7142</v>
+      </c>
+      <c r="V307">
+        <v>1226</v>
+      </c>
+      <c r="W307">
+        <v>2815</v>
+      </c>
+      <c r="X307">
+        <v>901</v>
+      </c>
+      <c r="Y307">
+        <v>4473</v>
+      </c>
+      <c r="Z307">
+        <v>4457</v>
+      </c>
+      <c r="AA307">
+        <v>1747</v>
+      </c>
+      <c r="AB307">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="308" spans="1:28">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>45902</v>
+      </c>
+      <c r="C308">
+        <v>4996</v>
+      </c>
+      <c r="D308">
+        <v>24942</v>
+      </c>
+      <c r="E308">
+        <v>9041</v>
+      </c>
+      <c r="F308">
+        <v>4223</v>
+      </c>
+      <c r="G308">
+        <v>2468</v>
+      </c>
+      <c r="H308">
+        <v>11605</v>
+      </c>
+      <c r="I308">
+        <v>8536</v>
+      </c>
+      <c r="J308">
+        <v>6776</v>
+      </c>
+      <c r="K308">
+        <v>3635</v>
+      </c>
+      <c r="L308">
+        <v>9588</v>
+      </c>
+      <c r="M308">
+        <v>7733</v>
+      </c>
+      <c r="N308">
+        <v>2984</v>
+      </c>
+      <c r="O308">
+        <v>5082</v>
+      </c>
+      <c r="P308">
+        <v>5206</v>
+      </c>
+      <c r="Q308">
+        <v>2270</v>
+      </c>
+      <c r="R308">
+        <v>2461</v>
+      </c>
+      <c r="S308">
+        <v>9960</v>
+      </c>
+      <c r="T308">
+        <v>789</v>
+      </c>
+      <c r="U308">
+        <v>7149</v>
+      </c>
+      <c r="V308">
+        <v>1229</v>
+      </c>
+      <c r="W308">
+        <v>2821</v>
+      </c>
+      <c r="X308">
+        <v>907</v>
+      </c>
+      <c r="Y308">
+        <v>4479</v>
+      </c>
+      <c r="Z308">
+        <v>4468</v>
+      </c>
+      <c r="AA308">
+        <v>1765</v>
+      </c>
+      <c r="AB308">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="309" spans="1:28">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>46195</v>
+      </c>
+      <c r="C309">
+        <v>5031</v>
+      </c>
+      <c r="D309">
+        <v>25078</v>
+      </c>
+      <c r="E309">
+        <v>9072</v>
+      </c>
+      <c r="F309">
+        <v>4241</v>
+      </c>
+      <c r="G309">
+        <v>2475</v>
+      </c>
+      <c r="H309">
+        <v>11615</v>
+      </c>
+      <c r="I309">
+        <v>8680</v>
+      </c>
+      <c r="J309">
+        <v>6789</v>
+      </c>
+      <c r="K309">
+        <v>3647</v>
+      </c>
+      <c r="L309">
+        <v>9612</v>
+      </c>
+      <c r="M309">
+        <v>7810</v>
+      </c>
+      <c r="N309">
+        <v>2998</v>
+      </c>
+      <c r="O309">
+        <v>5161</v>
+      </c>
+      <c r="P309">
+        <v>5232</v>
+      </c>
+      <c r="Q309">
+        <v>2300</v>
+      </c>
+      <c r="R309">
+        <v>2468</v>
+      </c>
+      <c r="S309">
+        <v>9971</v>
+      </c>
+      <c r="T309">
+        <v>791</v>
+      </c>
+      <c r="U309">
+        <v>7169</v>
+      </c>
+      <c r="V309">
+        <v>1232</v>
+      </c>
+      <c r="W309">
+        <v>2827</v>
+      </c>
+      <c r="X309">
+        <v>913</v>
+      </c>
+      <c r="Y309">
+        <v>4488</v>
+      </c>
+      <c r="Z309">
+        <v>4486</v>
+      </c>
+      <c r="AA309">
+        <v>1785</v>
+      </c>
+      <c r="AB309">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="310" spans="1:28">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>46477</v>
+      </c>
+      <c r="C310">
+        <v>5066</v>
+      </c>
+      <c r="D310">
+        <v>25303</v>
+      </c>
+      <c r="E310">
+        <v>9100</v>
+      </c>
+      <c r="F310">
+        <v>4248</v>
+      </c>
+      <c r="G310">
+        <v>2482</v>
+      </c>
+      <c r="H310">
+        <v>11784</v>
+      </c>
+      <c r="I310">
+        <v>8793</v>
+      </c>
+      <c r="J310">
+        <v>6805</v>
+      </c>
+      <c r="K310">
+        <v>3660</v>
+      </c>
+      <c r="L310">
+        <v>9632</v>
+      </c>
+      <c r="M310">
+        <v>7886</v>
+      </c>
+      <c r="N310">
+        <v>2998</v>
+      </c>
+      <c r="O310">
+        <v>5206</v>
+      </c>
+      <c r="P310">
+        <v>5258</v>
+      </c>
+      <c r="Q310">
+        <v>2300</v>
+      </c>
+      <c r="R310">
+        <v>2476</v>
+      </c>
+      <c r="S310">
+        <v>9986</v>
+      </c>
+      <c r="T310">
+        <v>793</v>
+      </c>
+      <c r="U310">
+        <v>7188</v>
+      </c>
+      <c r="V310">
+        <v>1232</v>
+      </c>
+      <c r="W310">
+        <v>2837</v>
+      </c>
+      <c r="X310">
+        <v>919</v>
+      </c>
+      <c r="Y310">
+        <v>4495</v>
+      </c>
+      <c r="Z310">
+        <v>4506</v>
+      </c>
+      <c r="AA310">
+        <v>1805</v>
+      </c>
+      <c r="AB310">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -50238,15 +51988,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -50254,7 +52004,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -50262,7 +52012,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -50270,7 +52020,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -50278,7 +52028,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -50286,7 +52036,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -50294,7 +52044,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -50302,7 +52052,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -50310,7 +52060,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -50318,7 +52068,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -50326,7 +52076,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -50334,7 +52084,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -50342,7 +52092,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -50350,7 +52100,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -50358,7 +52108,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -50366,7 +52116,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -50374,7 +52124,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -50382,7 +52132,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -50390,7 +52140,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -50398,7 +52148,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -50406,7 +52156,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -50414,7 +52164,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -50422,7 +52172,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -50430,7 +52180,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -50438,7 +52188,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -50446,7 +52196,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -50454,7 +52204,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="342">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -948,6 +948,15 @@
     <t>2020-12-30</t>
   </si>
   <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1364,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB310"/>
+  <dimension ref="A1:AB313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26318,7 +26327,7 @@
         <v>92587</v>
       </c>
       <c r="AB306">
-        <v>68240</v>
+        <v>68264</v>
       </c>
     </row>
     <row r="307" spans="1:28">
@@ -26620,7 +26629,7 @@
         <v>412627</v>
       </c>
       <c r="N310">
-        <v>117542</v>
+        <v>118728</v>
       </c>
       <c r="O310">
         <v>489069</v>
@@ -26629,7 +26638,7 @@
         <v>199570</v>
       </c>
       <c r="Q310">
-        <v>132431</v>
+        <v>133761</v>
       </c>
       <c r="R310">
         <v>111735</v>
@@ -26644,7 +26653,7 @@
         <v>293540</v>
       </c>
       <c r="V310">
-        <v>90047</v>
+        <v>90358</v>
       </c>
       <c r="W310">
         <v>142672</v>
@@ -26662,7 +26671,265 @@
         <v>95035</v>
       </c>
       <c r="AB310">
-        <v>68728</v>
+        <v>68689</v>
+      </c>
+    </row>
+    <row r="311" spans="1:28">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1462297</v>
+      </c>
+      <c r="C311">
+        <v>248251</v>
+      </c>
+      <c r="D311">
+        <v>434648</v>
+      </c>
+      <c r="E311">
+        <v>493400</v>
+      </c>
+      <c r="F311">
+        <v>251701</v>
+      </c>
+      <c r="G311">
+        <v>104818</v>
+      </c>
+      <c r="H311">
+        <v>542909</v>
+      </c>
+      <c r="I311">
+        <v>449674</v>
+      </c>
+      <c r="J311">
+        <v>309110</v>
+      </c>
+      <c r="K311">
+        <v>166484</v>
+      </c>
+      <c r="L311">
+        <v>222166</v>
+      </c>
+      <c r="M311">
+        <v>416566</v>
+      </c>
+      <c r="N311">
+        <v>118728</v>
+      </c>
+      <c r="O311">
+        <v>492583</v>
+      </c>
+      <c r="P311">
+        <v>201013</v>
+      </c>
+      <c r="Q311">
+        <v>134750</v>
+      </c>
+      <c r="R311">
+        <v>112505</v>
+      </c>
+      <c r="S311">
+        <v>335992</v>
+      </c>
+      <c r="T311">
+        <v>41620</v>
+      </c>
+      <c r="U311">
+        <v>293802</v>
+      </c>
+      <c r="V311">
+        <v>90536</v>
+      </c>
+      <c r="W311">
+        <v>143179</v>
+      </c>
+      <c r="X311">
+        <v>68201</v>
+      </c>
+      <c r="Y311">
+        <v>200938</v>
+      </c>
+      <c r="Z311">
+        <v>180451</v>
+      </c>
+      <c r="AA311">
+        <v>95729</v>
+      </c>
+      <c r="AB311">
+        <v>68804</v>
+      </c>
+    </row>
+    <row r="312" spans="1:28">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>1466191</v>
+      </c>
+      <c r="C312">
+        <v>249271</v>
+      </c>
+      <c r="D312">
+        <v>435390</v>
+      </c>
+      <c r="E312">
+        <v>494684</v>
+      </c>
+      <c r="F312">
+        <v>252077</v>
+      </c>
+      <c r="G312">
+        <v>105091</v>
+      </c>
+      <c r="H312">
+        <v>546884</v>
+      </c>
+      <c r="I312">
+        <v>451912</v>
+      </c>
+      <c r="J312">
+        <v>309191</v>
+      </c>
+      <c r="K312">
+        <v>167062</v>
+      </c>
+      <c r="L312">
+        <v>222993</v>
+      </c>
+      <c r="M312">
+        <v>418323</v>
+      </c>
+      <c r="N312">
+        <v>119338</v>
+      </c>
+      <c r="O312">
+        <v>494447</v>
+      </c>
+      <c r="P312">
+        <v>201574</v>
+      </c>
+      <c r="Q312">
+        <v>135361</v>
+      </c>
+      <c r="R312">
+        <v>113544</v>
+      </c>
+      <c r="S312">
+        <v>336504</v>
+      </c>
+      <c r="T312">
+        <v>41689</v>
+      </c>
+      <c r="U312">
+        <v>293807</v>
+      </c>
+      <c r="V312">
+        <v>90592</v>
+      </c>
+      <c r="W312">
+        <v>143210</v>
+      </c>
+      <c r="X312">
+        <v>68361</v>
+      </c>
+      <c r="Y312">
+        <v>200959</v>
+      </c>
+      <c r="Z312">
+        <v>180659</v>
+      </c>
+      <c r="AA312">
+        <v>95999</v>
+      </c>
+      <c r="AB312">
+        <v>68827</v>
+      </c>
+    </row>
+    <row r="313" spans="1:28">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1467953</v>
+      </c>
+      <c r="C313">
+        <v>250244</v>
+      </c>
+      <c r="D313">
+        <v>435604</v>
+      </c>
+      <c r="E313">
+        <v>495286</v>
+      </c>
+      <c r="F313">
+        <v>252873</v>
+      </c>
+      <c r="G313">
+        <v>105361</v>
+      </c>
+      <c r="H313">
+        <v>549302</v>
+      </c>
+      <c r="I313">
+        <v>452920</v>
+      </c>
+      <c r="J313">
+        <v>309320</v>
+      </c>
+      <c r="K313">
+        <v>167615</v>
+      </c>
+      <c r="L313">
+        <v>223325</v>
+      </c>
+      <c r="M313">
+        <v>419615</v>
+      </c>
+      <c r="N313">
+        <v>119338</v>
+      </c>
+      <c r="O313">
+        <v>496524</v>
+      </c>
+      <c r="P313">
+        <v>201867</v>
+      </c>
+      <c r="Q313">
+        <v>135361</v>
+      </c>
+      <c r="R313">
+        <v>113916</v>
+      </c>
+      <c r="S313">
+        <v>336574</v>
+      </c>
+      <c r="T313">
+        <v>41941</v>
+      </c>
+      <c r="U313">
+        <v>294010</v>
+      </c>
+      <c r="V313">
+        <v>90592</v>
+      </c>
+      <c r="W313">
+        <v>143489</v>
+      </c>
+      <c r="X313">
+        <v>68441</v>
+      </c>
+      <c r="Y313">
+        <v>200976</v>
+      </c>
+      <c r="Z313">
+        <v>180901</v>
+      </c>
+      <c r="AA313">
+        <v>96433</v>
+      </c>
+      <c r="AB313">
+        <v>68875</v>
       </c>
     </row>
   </sheetData>
@@ -26672,7 +26939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB310"/>
+  <dimension ref="A1:AB313"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51928,7 +52195,7 @@
         <v>7886</v>
       </c>
       <c r="N310">
-        <v>2998</v>
+        <v>3007</v>
       </c>
       <c r="O310">
         <v>5206</v>
@@ -51937,7 +52204,7 @@
         <v>5258</v>
       </c>
       <c r="Q310">
-        <v>2300</v>
+        <v>2329</v>
       </c>
       <c r="R310">
         <v>2476</v>
@@ -51952,7 +52219,7 @@
         <v>7188</v>
       </c>
       <c r="V310">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="W310">
         <v>2837</v>
@@ -51970,7 +52237,265 @@
         <v>1805</v>
       </c>
       <c r="AB310">
-        <v>773</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="311" spans="1:28">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>46717</v>
+      </c>
+      <c r="C311">
+        <v>5081</v>
+      </c>
+      <c r="D311">
+        <v>25530</v>
+      </c>
+      <c r="E311">
+        <v>9129</v>
+      </c>
+      <c r="F311">
+        <v>4259</v>
+      </c>
+      <c r="G311">
+        <v>2489</v>
+      </c>
+      <c r="H311">
+        <v>11902</v>
+      </c>
+      <c r="I311">
+        <v>8872</v>
+      </c>
+      <c r="J311">
+        <v>6805</v>
+      </c>
+      <c r="K311">
+        <v>3672</v>
+      </c>
+      <c r="L311">
+        <v>9654</v>
+      </c>
+      <c r="M311">
+        <v>7974</v>
+      </c>
+      <c r="N311">
+        <v>3007</v>
+      </c>
+      <c r="O311">
+        <v>5253</v>
+      </c>
+      <c r="P311">
+        <v>5285</v>
+      </c>
+      <c r="Q311">
+        <v>2347</v>
+      </c>
+      <c r="R311">
+        <v>2484</v>
+      </c>
+      <c r="S311">
+        <v>9993</v>
+      </c>
+      <c r="T311">
+        <v>795</v>
+      </c>
+      <c r="U311">
+        <v>7199</v>
+      </c>
+      <c r="V311">
+        <v>1236</v>
+      </c>
+      <c r="W311">
+        <v>2840</v>
+      </c>
+      <c r="X311">
+        <v>925</v>
+      </c>
+      <c r="Y311">
+        <v>4500</v>
+      </c>
+      <c r="Z311">
+        <v>4520</v>
+      </c>
+      <c r="AA311">
+        <v>1817</v>
+      </c>
+      <c r="AB311">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="312" spans="1:28">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>46775</v>
+      </c>
+      <c r="C312">
+        <v>5093</v>
+      </c>
+      <c r="D312">
+        <v>25600</v>
+      </c>
+      <c r="E312">
+        <v>9159</v>
+      </c>
+      <c r="F312">
+        <v>4263</v>
+      </c>
+      <c r="G312">
+        <v>2496</v>
+      </c>
+      <c r="H312">
+        <v>12001</v>
+      </c>
+      <c r="I312">
+        <v>8917</v>
+      </c>
+      <c r="J312">
+        <v>6805</v>
+      </c>
+      <c r="K312">
+        <v>3680</v>
+      </c>
+      <c r="L312">
+        <v>9666</v>
+      </c>
+      <c r="M312">
+        <v>7993</v>
+      </c>
+      <c r="N312">
+        <v>3009</v>
+      </c>
+      <c r="O312">
+        <v>5270</v>
+      </c>
+      <c r="P312">
+        <v>5295</v>
+      </c>
+      <c r="Q312">
+        <v>2360</v>
+      </c>
+      <c r="R312">
+        <v>2492</v>
+      </c>
+      <c r="S312">
+        <v>10004</v>
+      </c>
+      <c r="T312">
+        <v>796</v>
+      </c>
+      <c r="U312">
+        <v>7209</v>
+      </c>
+      <c r="V312">
+        <v>1239</v>
+      </c>
+      <c r="W312">
+        <v>2848</v>
+      </c>
+      <c r="X312">
+        <v>926</v>
+      </c>
+      <c r="Y312">
+        <v>4506</v>
+      </c>
+      <c r="Z312">
+        <v>4530</v>
+      </c>
+      <c r="AA312">
+        <v>1822</v>
+      </c>
+      <c r="AB312">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="313" spans="1:28">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>46808</v>
+      </c>
+      <c r="C313">
+        <v>5115</v>
+      </c>
+      <c r="D313">
+        <v>25608</v>
+      </c>
+      <c r="E313">
+        <v>9187</v>
+      </c>
+      <c r="F313">
+        <v>4265</v>
+      </c>
+      <c r="G313">
+        <v>2502</v>
+      </c>
+      <c r="H313">
+        <v>12023</v>
+      </c>
+      <c r="I313">
+        <v>8934</v>
+      </c>
+      <c r="J313">
+        <v>6805</v>
+      </c>
+      <c r="K313">
+        <v>3692</v>
+      </c>
+      <c r="L313">
+        <v>9674</v>
+      </c>
+      <c r="M313">
+        <v>8001</v>
+      </c>
+      <c r="N313">
+        <v>3009</v>
+      </c>
+      <c r="O313">
+        <v>5294</v>
+      </c>
+      <c r="P313">
+        <v>5325</v>
+      </c>
+      <c r="Q313">
+        <v>2360</v>
+      </c>
+      <c r="R313">
+        <v>2500</v>
+      </c>
+      <c r="S313">
+        <v>10015</v>
+      </c>
+      <c r="T313">
+        <v>798</v>
+      </c>
+      <c r="U313">
+        <v>7217</v>
+      </c>
+      <c r="V313">
+        <v>1239</v>
+      </c>
+      <c r="W313">
+        <v>2854</v>
+      </c>
+      <c r="X313">
+        <v>927</v>
+      </c>
+      <c r="Y313">
+        <v>4513</v>
+      </c>
+      <c r="Z313">
+        <v>4539</v>
+      </c>
+      <c r="AA313">
+        <v>1825</v>
+      </c>
+      <c r="AB313">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -51988,15 +52513,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -52004,7 +52529,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -52012,7 +52537,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -52020,7 +52545,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -52028,7 +52553,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -52036,7 +52561,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -52044,7 +52569,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -52052,7 +52577,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -52060,7 +52585,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -52068,7 +52593,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -52076,7 +52601,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -52084,7 +52609,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -52092,7 +52617,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -52100,7 +52625,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -52108,7 +52633,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -52116,7 +52641,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -52124,7 +52649,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -52132,7 +52657,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -52140,7 +52665,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -52148,7 +52673,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -52156,7 +52681,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -52164,7 +52689,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -52172,7 +52697,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -52180,7 +52705,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -52188,7 +52713,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -52196,7 +52721,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -52204,7 +52729,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="347">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -957,6 +957,21 @@
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1373,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB313"/>
+  <dimension ref="A1:AB318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5859,7 +5874,7 @@
         <v>654</v>
       </c>
       <c r="AB68">
-        <v>519</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -26757,7 +26772,7 @@
         <v>95729</v>
       </c>
       <c r="AB311">
-        <v>68804</v>
+        <v>68710</v>
       </c>
     </row>
     <row r="312" spans="1:28">
@@ -26843,7 +26858,7 @@
         <v>95999</v>
       </c>
       <c r="AB312">
-        <v>68827</v>
+        <v>68858</v>
       </c>
     </row>
     <row r="313" spans="1:28">
@@ -26863,7 +26878,7 @@
         <v>495286</v>
       </c>
       <c r="F313">
-        <v>252873</v>
+        <v>252874</v>
       </c>
       <c r="G313">
         <v>105361</v>
@@ -26896,7 +26911,7 @@
         <v>201867</v>
       </c>
       <c r="Q313">
-        <v>135361</v>
+        <v>135917</v>
       </c>
       <c r="R313">
         <v>113916</v>
@@ -26911,7 +26926,7 @@
         <v>294010</v>
       </c>
       <c r="V313">
-        <v>90592</v>
+        <v>90703</v>
       </c>
       <c r="W313">
         <v>143489</v>
@@ -26930,6 +26945,436 @@
       </c>
       <c r="AB313">
         <v>68875</v>
+      </c>
+    </row>
+    <row r="314" spans="1:28">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>1471422</v>
+      </c>
+      <c r="C314">
+        <v>251649</v>
+      </c>
+      <c r="D314">
+        <v>435739</v>
+      </c>
+      <c r="E314">
+        <v>496008</v>
+      </c>
+      <c r="F314">
+        <v>253355</v>
+      </c>
+      <c r="G314">
+        <v>105714</v>
+      </c>
+      <c r="H314">
+        <v>550672</v>
+      </c>
+      <c r="I314">
+        <v>454757</v>
+      </c>
+      <c r="J314">
+        <v>309454</v>
+      </c>
+      <c r="K314">
+        <v>168044</v>
+      </c>
+      <c r="L314">
+        <v>223540</v>
+      </c>
+      <c r="M314">
+        <v>421315</v>
+      </c>
+      <c r="N314">
+        <v>119835</v>
+      </c>
+      <c r="O314">
+        <v>497345</v>
+      </c>
+      <c r="P314">
+        <v>202413</v>
+      </c>
+      <c r="Q314">
+        <v>136250</v>
+      </c>
+      <c r="R314">
+        <v>114685</v>
+      </c>
+      <c r="S314">
+        <v>336763</v>
+      </c>
+      <c r="T314">
+        <v>42046</v>
+      </c>
+      <c r="U314">
+        <v>294224</v>
+      </c>
+      <c r="V314">
+        <v>90860</v>
+      </c>
+      <c r="W314">
+        <v>143651</v>
+      </c>
+      <c r="X314">
+        <v>68568</v>
+      </c>
+      <c r="Y314">
+        <v>201017</v>
+      </c>
+      <c r="Z314">
+        <v>181335</v>
+      </c>
+      <c r="AA314">
+        <v>96906</v>
+      </c>
+      <c r="AB314">
+        <v>68947</v>
+      </c>
+    </row>
+    <row r="315" spans="1:28">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1473670</v>
+      </c>
+      <c r="C315">
+        <v>253115</v>
+      </c>
+      <c r="D315">
+        <v>439345</v>
+      </c>
+      <c r="E315">
+        <v>496823</v>
+      </c>
+      <c r="F315">
+        <v>254310</v>
+      </c>
+      <c r="G315">
+        <v>106032</v>
+      </c>
+      <c r="H315">
+        <v>552104</v>
+      </c>
+      <c r="I315">
+        <v>455326</v>
+      </c>
+      <c r="J315">
+        <v>311067</v>
+      </c>
+      <c r="K315">
+        <v>168179</v>
+      </c>
+      <c r="L315">
+        <v>223845</v>
+      </c>
+      <c r="M315">
+        <v>423041</v>
+      </c>
+      <c r="N315">
+        <v>120676</v>
+      </c>
+      <c r="O315">
+        <v>498910</v>
+      </c>
+      <c r="P315">
+        <v>202972</v>
+      </c>
+      <c r="Q315">
+        <v>137570</v>
+      </c>
+      <c r="R315">
+        <v>115636</v>
+      </c>
+      <c r="S315">
+        <v>336975</v>
+      </c>
+      <c r="T315">
+        <v>42117</v>
+      </c>
+      <c r="U315">
+        <v>295439</v>
+      </c>
+      <c r="V315">
+        <v>91230</v>
+      </c>
+      <c r="W315">
+        <v>144200</v>
+      </c>
+      <c r="X315">
+        <v>68775</v>
+      </c>
+      <c r="Y315">
+        <v>201093</v>
+      </c>
+      <c r="Z315">
+        <v>182877</v>
+      </c>
+      <c r="AA315">
+        <v>97197</v>
+      </c>
+      <c r="AB315">
+        <v>69029</v>
+      </c>
+    </row>
+    <row r="316" spans="1:28">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1486551</v>
+      </c>
+      <c r="C316">
+        <v>255611</v>
+      </c>
+      <c r="D316">
+        <v>443607</v>
+      </c>
+      <c r="E316">
+        <v>499900</v>
+      </c>
+      <c r="F316">
+        <v>255875</v>
+      </c>
+      <c r="G316">
+        <v>106410</v>
+      </c>
+      <c r="H316">
+        <v>556692</v>
+      </c>
+      <c r="I316">
+        <v>460609</v>
+      </c>
+      <c r="J316">
+        <v>312124</v>
+      </c>
+      <c r="K316">
+        <v>168545</v>
+      </c>
+      <c r="L316">
+        <v>225336</v>
+      </c>
+      <c r="M316">
+        <v>427789</v>
+      </c>
+      <c r="N316">
+        <v>121495</v>
+      </c>
+      <c r="O316">
+        <v>502785</v>
+      </c>
+      <c r="P316">
+        <v>204900</v>
+      </c>
+      <c r="Q316">
+        <v>139152</v>
+      </c>
+      <c r="R316">
+        <v>116779</v>
+      </c>
+      <c r="S316">
+        <v>339043</v>
+      </c>
+      <c r="T316">
+        <v>42170</v>
+      </c>
+      <c r="U316">
+        <v>296752</v>
+      </c>
+      <c r="V316">
+        <v>91596</v>
+      </c>
+      <c r="W316">
+        <v>144857</v>
+      </c>
+      <c r="X316">
+        <v>69096</v>
+      </c>
+      <c r="Y316">
+        <v>201255</v>
+      </c>
+      <c r="Z316">
+        <v>183673</v>
+      </c>
+      <c r="AA316">
+        <v>97854</v>
+      </c>
+      <c r="AB316">
+        <v>69180</v>
+      </c>
+    </row>
+    <row r="317" spans="1:28">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1501085</v>
+      </c>
+      <c r="C317">
+        <v>257295</v>
+      </c>
+      <c r="D317">
+        <v>448089</v>
+      </c>
+      <c r="E317">
+        <v>502938</v>
+      </c>
+      <c r="F317">
+        <v>255875</v>
+      </c>
+      <c r="G317">
+        <v>106881</v>
+      </c>
+      <c r="H317">
+        <v>564407</v>
+      </c>
+      <c r="I317">
+        <v>465337</v>
+      </c>
+      <c r="J317">
+        <v>313755</v>
+      </c>
+      <c r="K317">
+        <v>169646</v>
+      </c>
+      <c r="L317">
+        <v>226940</v>
+      </c>
+      <c r="M317">
+        <v>430873</v>
+      </c>
+      <c r="N317">
+        <v>122099</v>
+      </c>
+      <c r="O317">
+        <v>506897</v>
+      </c>
+      <c r="P317">
+        <v>207092</v>
+      </c>
+      <c r="Q317">
+        <v>140463</v>
+      </c>
+      <c r="R317">
+        <v>117818</v>
+      </c>
+      <c r="S317">
+        <v>340312</v>
+      </c>
+      <c r="T317">
+        <v>42378</v>
+      </c>
+      <c r="U317">
+        <v>297974</v>
+      </c>
+      <c r="V317">
+        <v>92000</v>
+      </c>
+      <c r="W317">
+        <v>145384</v>
+      </c>
+      <c r="X317">
+        <v>69469</v>
+      </c>
+      <c r="Y317">
+        <v>201454</v>
+      </c>
+      <c r="Z317">
+        <v>185745</v>
+      </c>
+      <c r="AA317">
+        <v>98811</v>
+      </c>
+      <c r="AB317">
+        <v>69326</v>
+      </c>
+    </row>
+    <row r="318" spans="1:28">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>1515158</v>
+      </c>
+      <c r="C318">
+        <v>258941</v>
+      </c>
+      <c r="D318">
+        <v>452758</v>
+      </c>
+      <c r="E318">
+        <v>505918</v>
+      </c>
+      <c r="F318">
+        <v>256682</v>
+      </c>
+      <c r="G318">
+        <v>107279</v>
+      </c>
+      <c r="H318">
+        <v>571657</v>
+      </c>
+      <c r="I318">
+        <v>470138</v>
+      </c>
+      <c r="J318">
+        <v>315563</v>
+      </c>
+      <c r="K318">
+        <v>170611</v>
+      </c>
+      <c r="L318">
+        <v>228451</v>
+      </c>
+      <c r="M318">
+        <v>463309</v>
+      </c>
+      <c r="N318">
+        <v>122099</v>
+      </c>
+      <c r="O318">
+        <v>511329</v>
+      </c>
+      <c r="P318">
+        <v>208798</v>
+      </c>
+      <c r="Q318">
+        <v>140463</v>
+      </c>
+      <c r="R318">
+        <v>119045</v>
+      </c>
+      <c r="S318">
+        <v>342201</v>
+      </c>
+      <c r="T318">
+        <v>42478</v>
+      </c>
+      <c r="U318">
+        <v>299045</v>
+      </c>
+      <c r="V318">
+        <v>92000</v>
+      </c>
+      <c r="W318">
+        <v>145997</v>
+      </c>
+      <c r="X318">
+        <v>69874</v>
+      </c>
+      <c r="Y318">
+        <v>201641</v>
+      </c>
+      <c r="Z318">
+        <v>186831</v>
+      </c>
+      <c r="AA318">
+        <v>99595</v>
+      </c>
+      <c r="AB318">
+        <v>69461</v>
       </c>
     </row>
   </sheetData>
@@ -26939,7 +27384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB313"/>
+  <dimension ref="A1:AB318"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31425,7 +31870,7 @@
         <v>23</v>
       </c>
       <c r="AB68">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -51489,7 +51934,7 @@
         <v>2425</v>
       </c>
       <c r="H302">
-        <v>11285</v>
+        <v>11258</v>
       </c>
       <c r="I302">
         <v>8260</v>
@@ -52429,7 +52874,7 @@
         <v>9187</v>
       </c>
       <c r="F313">
-        <v>4265</v>
+        <v>4268</v>
       </c>
       <c r="G313">
         <v>2502</v>
@@ -52462,7 +52907,7 @@
         <v>5325</v>
       </c>
       <c r="Q313">
-        <v>2360</v>
+        <v>2372</v>
       </c>
       <c r="R313">
         <v>2500</v>
@@ -52477,7 +52922,7 @@
         <v>7217</v>
       </c>
       <c r="V313">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="W313">
         <v>2854</v>
@@ -52496,6 +52941,436 @@
       </c>
       <c r="AB313">
         <v>787</v>
+      </c>
+    </row>
+    <row r="314" spans="1:28">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>46845</v>
+      </c>
+      <c r="C314">
+        <v>5124</v>
+      </c>
+      <c r="D314">
+        <v>25616</v>
+      </c>
+      <c r="E314">
+        <v>9218</v>
+      </c>
+      <c r="F314">
+        <v>4269</v>
+      </c>
+      <c r="G314">
+        <v>2509</v>
+      </c>
+      <c r="H314">
+        <v>12037</v>
+      </c>
+      <c r="I314">
+        <v>8954</v>
+      </c>
+      <c r="J314">
+        <v>6805</v>
+      </c>
+      <c r="K314">
+        <v>3706</v>
+      </c>
+      <c r="L314">
+        <v>9679</v>
+      </c>
+      <c r="M314">
+        <v>8028</v>
+      </c>
+      <c r="N314">
+        <v>3025</v>
+      </c>
+      <c r="O314">
+        <v>5314</v>
+      </c>
+      <c r="P314">
+        <v>5345</v>
+      </c>
+      <c r="Q314">
+        <v>2398</v>
+      </c>
+      <c r="R314">
+        <v>2508</v>
+      </c>
+      <c r="S314">
+        <v>10024</v>
+      </c>
+      <c r="T314">
+        <v>802</v>
+      </c>
+      <c r="U314">
+        <v>7223</v>
+      </c>
+      <c r="V314">
+        <v>1244</v>
+      </c>
+      <c r="W314">
+        <v>2856</v>
+      </c>
+      <c r="X314">
+        <v>927</v>
+      </c>
+      <c r="Y314">
+        <v>4518</v>
+      </c>
+      <c r="Z314">
+        <v>4552</v>
+      </c>
+      <c r="AA314">
+        <v>1832</v>
+      </c>
+      <c r="AB314">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="315" spans="1:28">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>46888</v>
+      </c>
+      <c r="C315">
+        <v>5176</v>
+      </c>
+      <c r="D315">
+        <v>25617</v>
+      </c>
+      <c r="E315">
+        <v>9246</v>
+      </c>
+      <c r="F315">
+        <v>4289</v>
+      </c>
+      <c r="G315">
+        <v>2515</v>
+      </c>
+      <c r="H315">
+        <v>12063</v>
+      </c>
+      <c r="I315">
+        <v>9018</v>
+      </c>
+      <c r="J315">
+        <v>6857</v>
+      </c>
+      <c r="K315">
+        <v>3722</v>
+      </c>
+      <c r="L315">
+        <v>9691</v>
+      </c>
+      <c r="M315">
+        <v>8060</v>
+      </c>
+      <c r="N315">
+        <v>3060</v>
+      </c>
+      <c r="O315">
+        <v>5376</v>
+      </c>
+      <c r="P315">
+        <v>5368</v>
+      </c>
+      <c r="Q315">
+        <v>2431</v>
+      </c>
+      <c r="R315">
+        <v>2516</v>
+      </c>
+      <c r="S315">
+        <v>10025</v>
+      </c>
+      <c r="T315">
+        <v>806</v>
+      </c>
+      <c r="U315">
+        <v>7235</v>
+      </c>
+      <c r="V315">
+        <v>1248</v>
+      </c>
+      <c r="W315">
+        <v>2863</v>
+      </c>
+      <c r="X315">
+        <v>935</v>
+      </c>
+      <c r="Y315">
+        <v>4524</v>
+      </c>
+      <c r="Z315">
+        <v>4583</v>
+      </c>
+      <c r="AA315">
+        <v>1840</v>
+      </c>
+      <c r="AB315">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="316" spans="1:28">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>47222</v>
+      </c>
+      <c r="C316">
+        <v>5202</v>
+      </c>
+      <c r="D316">
+        <v>25837</v>
+      </c>
+      <c r="E316">
+        <v>9276</v>
+      </c>
+      <c r="F316">
+        <v>4328</v>
+      </c>
+      <c r="G316">
+        <v>2521</v>
+      </c>
+      <c r="H316">
+        <v>12083</v>
+      </c>
+      <c r="I316">
+        <v>9125</v>
+      </c>
+      <c r="J316">
+        <v>6898</v>
+      </c>
+      <c r="K316">
+        <v>3740</v>
+      </c>
+      <c r="L316">
+        <v>9709</v>
+      </c>
+      <c r="M316">
+        <v>8155</v>
+      </c>
+      <c r="N316">
+        <v>3073</v>
+      </c>
+      <c r="O316">
+        <v>5420</v>
+      </c>
+      <c r="P316">
+        <v>5414</v>
+      </c>
+      <c r="Q316">
+        <v>2459</v>
+      </c>
+      <c r="R316">
+        <v>2524</v>
+      </c>
+      <c r="S316">
+        <v>10053</v>
+      </c>
+      <c r="T316">
+        <v>808</v>
+      </c>
+      <c r="U316">
+        <v>7247</v>
+      </c>
+      <c r="V316">
+        <v>1252</v>
+      </c>
+      <c r="W316">
+        <v>2873</v>
+      </c>
+      <c r="X316">
+        <v>943</v>
+      </c>
+      <c r="Y316">
+        <v>4531</v>
+      </c>
+      <c r="Z316">
+        <v>4596</v>
+      </c>
+      <c r="AA316">
+        <v>1852</v>
+      </c>
+      <c r="AB316">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="317" spans="1:28">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>47511</v>
+      </c>
+      <c r="C317">
+        <v>5231</v>
+      </c>
+      <c r="D317">
+        <v>26068</v>
+      </c>
+      <c r="E317">
+        <v>9304</v>
+      </c>
+      <c r="F317">
+        <v>4328</v>
+      </c>
+      <c r="G317">
+        <v>2529</v>
+      </c>
+      <c r="H317">
+        <v>12211</v>
+      </c>
+      <c r="I317">
+        <v>9226</v>
+      </c>
+      <c r="J317">
+        <v>6901</v>
+      </c>
+      <c r="K317">
+        <v>3755</v>
+      </c>
+      <c r="L317">
+        <v>9731</v>
+      </c>
+      <c r="M317">
+        <v>8233</v>
+      </c>
+      <c r="N317">
+        <v>3081</v>
+      </c>
+      <c r="O317">
+        <v>5482</v>
+      </c>
+      <c r="P317">
+        <v>5500</v>
+      </c>
+      <c r="Q317">
+        <v>2486</v>
+      </c>
+      <c r="R317">
+        <v>2532</v>
+      </c>
+      <c r="S317">
+        <v>10062</v>
+      </c>
+      <c r="T317">
+        <v>814</v>
+      </c>
+      <c r="U317">
+        <v>7263</v>
+      </c>
+      <c r="V317">
+        <v>1257</v>
+      </c>
+      <c r="W317">
+        <v>2882</v>
+      </c>
+      <c r="X317">
+        <v>950</v>
+      </c>
+      <c r="Y317">
+        <v>4537</v>
+      </c>
+      <c r="Z317">
+        <v>4619</v>
+      </c>
+      <c r="AA317">
+        <v>1875</v>
+      </c>
+      <c r="AB317">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="318" spans="1:28">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>47768</v>
+      </c>
+      <c r="C318">
+        <v>5265</v>
+      </c>
+      <c r="D318">
+        <v>26292</v>
+      </c>
+      <c r="E318">
+        <v>9333</v>
+      </c>
+      <c r="F318">
+        <v>4337</v>
+      </c>
+      <c r="G318">
+        <v>2537</v>
+      </c>
+      <c r="H318">
+        <v>12366</v>
+      </c>
+      <c r="I318">
+        <v>9293</v>
+      </c>
+      <c r="J318">
+        <v>6933</v>
+      </c>
+      <c r="K318">
+        <v>3773</v>
+      </c>
+      <c r="L318">
+        <v>9763</v>
+      </c>
+      <c r="M318">
+        <v>8630</v>
+      </c>
+      <c r="N318">
+        <v>3081</v>
+      </c>
+      <c r="O318">
+        <v>5522</v>
+      </c>
+      <c r="P318">
+        <v>5546</v>
+      </c>
+      <c r="Q318">
+        <v>2486</v>
+      </c>
+      <c r="R318">
+        <v>2544</v>
+      </c>
+      <c r="S318">
+        <v>10106</v>
+      </c>
+      <c r="T318">
+        <v>821</v>
+      </c>
+      <c r="U318">
+        <v>7280</v>
+      </c>
+      <c r="V318">
+        <v>1257</v>
+      </c>
+      <c r="W318">
+        <v>2891</v>
+      </c>
+      <c r="X318">
+        <v>956</v>
+      </c>
+      <c r="Y318">
+        <v>4542</v>
+      </c>
+      <c r="Z318">
+        <v>4632</v>
+      </c>
+      <c r="AA318">
+        <v>1890</v>
+      </c>
+      <c r="AB318">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -52513,15 +53388,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -52529,7 +53404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -52537,7 +53412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -52545,7 +53420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -52553,7 +53428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -52561,7 +53436,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -52569,7 +53444,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -52577,7 +53452,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -52585,7 +53460,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -52593,7 +53468,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -52601,7 +53476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -52609,7 +53484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -52617,7 +53492,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -52625,7 +53500,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -52633,7 +53508,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -52641,7 +53516,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -52649,7 +53524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -52657,7 +53532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -52665,7 +53540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -52673,7 +53548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -52681,7 +53556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -52689,7 +53564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -52697,7 +53572,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -52705,7 +53580,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -52713,7 +53588,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -52721,7 +53596,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -52729,7 +53604,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="354">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -972,6 +972,27 @@
     <t>2021-01-07</t>
   </si>
   <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1388,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB318"/>
+  <dimension ref="A1:AB325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26730,7 +26751,7 @@
         <v>416566</v>
       </c>
       <c r="N311">
-        <v>118728</v>
+        <v>118999</v>
       </c>
       <c r="O311">
         <v>492583</v>
@@ -27332,7 +27353,7 @@
         <v>463309</v>
       </c>
       <c r="N318">
-        <v>122099</v>
+        <v>123257</v>
       </c>
       <c r="O318">
         <v>511329</v>
@@ -27341,7 +27362,7 @@
         <v>208798</v>
       </c>
       <c r="Q318">
-        <v>140463</v>
+        <v>141649</v>
       </c>
       <c r="R318">
         <v>119045</v>
@@ -27356,7 +27377,7 @@
         <v>299045</v>
       </c>
       <c r="V318">
-        <v>92000</v>
+        <v>92446</v>
       </c>
       <c r="W318">
         <v>145997</v>
@@ -27375,6 +27396,608 @@
       </c>
       <c r="AB318">
         <v>69461</v>
+      </c>
+    </row>
+    <row r="319" spans="1:28">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1528952</v>
+      </c>
+      <c r="C319">
+        <v>260970</v>
+      </c>
+      <c r="D319">
+        <v>454275</v>
+      </c>
+      <c r="E319">
+        <v>508695</v>
+      </c>
+      <c r="F319">
+        <v>257355</v>
+      </c>
+      <c r="G319">
+        <v>107628</v>
+      </c>
+      <c r="H319">
+        <v>579469</v>
+      </c>
+      <c r="I319">
+        <v>474917</v>
+      </c>
+      <c r="J319">
+        <v>316852</v>
+      </c>
+      <c r="K319">
+        <v>171547</v>
+      </c>
+      <c r="L319">
+        <v>229701</v>
+      </c>
+      <c r="M319">
+        <v>471639</v>
+      </c>
+      <c r="N319">
+        <v>124467</v>
+      </c>
+      <c r="O319">
+        <v>515209</v>
+      </c>
+      <c r="P319">
+        <v>211140</v>
+      </c>
+      <c r="Q319">
+        <v>142765</v>
+      </c>
+      <c r="R319">
+        <v>120262</v>
+      </c>
+      <c r="S319">
+        <v>343887</v>
+      </c>
+      <c r="T319">
+        <v>42814</v>
+      </c>
+      <c r="U319">
+        <v>300454</v>
+      </c>
+      <c r="V319">
+        <v>92916</v>
+      </c>
+      <c r="W319">
+        <v>146779</v>
+      </c>
+      <c r="X319">
+        <v>70344</v>
+      </c>
+      <c r="Y319">
+        <v>201745</v>
+      </c>
+      <c r="Z319">
+        <v>188199</v>
+      </c>
+      <c r="AA319">
+        <v>100343</v>
+      </c>
+      <c r="AB319">
+        <v>69640</v>
+      </c>
+    </row>
+    <row r="320" spans="1:28">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1540513</v>
+      </c>
+      <c r="C320">
+        <v>262157</v>
+      </c>
+      <c r="D320">
+        <v>459866</v>
+      </c>
+      <c r="E320">
+        <v>511192</v>
+      </c>
+      <c r="F320">
+        <v>258153</v>
+      </c>
+      <c r="G320">
+        <v>108109</v>
+      </c>
+      <c r="H320">
+        <v>587868</v>
+      </c>
+      <c r="I320">
+        <v>478501</v>
+      </c>
+      <c r="J320">
+        <v>317166</v>
+      </c>
+      <c r="K320">
+        <v>172261</v>
+      </c>
+      <c r="L320">
+        <v>230891</v>
+      </c>
+      <c r="M320">
+        <v>471639</v>
+      </c>
+      <c r="N320">
+        <v>124467</v>
+      </c>
+      <c r="O320">
+        <v>518805</v>
+      </c>
+      <c r="P320">
+        <v>212996</v>
+      </c>
+      <c r="Q320">
+        <v>143596</v>
+      </c>
+      <c r="R320">
+        <v>121222</v>
+      </c>
+      <c r="S320">
+        <v>344677</v>
+      </c>
+      <c r="T320">
+        <v>42908</v>
+      </c>
+      <c r="U320">
+        <v>301501</v>
+      </c>
+      <c r="V320">
+        <v>93099</v>
+      </c>
+      <c r="W320">
+        <v>147038</v>
+      </c>
+      <c r="X320">
+        <v>70676</v>
+      </c>
+      <c r="Y320">
+        <v>201915</v>
+      </c>
+      <c r="Z320">
+        <v>189119</v>
+      </c>
+      <c r="AA320">
+        <v>101024</v>
+      </c>
+      <c r="AB320">
+        <v>69732</v>
+      </c>
+    </row>
+    <row r="321" spans="1:28">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1546132</v>
+      </c>
+      <c r="C321">
+        <v>263504</v>
+      </c>
+      <c r="D321">
+        <v>460927</v>
+      </c>
+      <c r="E321">
+        <v>512841</v>
+      </c>
+      <c r="F321">
+        <v>258811</v>
+      </c>
+      <c r="G321">
+        <v>108542</v>
+      </c>
+      <c r="H321">
+        <v>592311</v>
+      </c>
+      <c r="I321">
+        <v>480480</v>
+      </c>
+      <c r="J321">
+        <v>317477</v>
+      </c>
+      <c r="K321">
+        <v>172776</v>
+      </c>
+      <c r="L321">
+        <v>232037</v>
+      </c>
+      <c r="M321">
+        <v>473279</v>
+      </c>
+      <c r="N321">
+        <v>125215</v>
+      </c>
+      <c r="O321">
+        <v>520577</v>
+      </c>
+      <c r="P321">
+        <v>213961</v>
+      </c>
+      <c r="Q321">
+        <v>144051</v>
+      </c>
+      <c r="R321">
+        <v>122594</v>
+      </c>
+      <c r="S321">
+        <v>345002</v>
+      </c>
+      <c r="T321">
+        <v>43127</v>
+      </c>
+      <c r="U321">
+        <v>302125</v>
+      </c>
+      <c r="V321">
+        <v>93261</v>
+      </c>
+      <c r="W321">
+        <v>147509</v>
+      </c>
+      <c r="X321">
+        <v>70902</v>
+      </c>
+      <c r="Y321">
+        <v>201945</v>
+      </c>
+      <c r="Z321">
+        <v>189359</v>
+      </c>
+      <c r="AA321">
+        <v>101588</v>
+      </c>
+      <c r="AB321">
+        <v>69785</v>
+      </c>
+    </row>
+    <row r="322" spans="1:28">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1549142</v>
+      </c>
+      <c r="C322">
+        <v>265556</v>
+      </c>
+      <c r="D322">
+        <v>461561</v>
+      </c>
+      <c r="E322">
+        <v>513756</v>
+      </c>
+      <c r="F322">
+        <v>259797</v>
+      </c>
+      <c r="G322">
+        <v>108820</v>
+      </c>
+      <c r="H322">
+        <v>595007</v>
+      </c>
+      <c r="I322">
+        <v>482062</v>
+      </c>
+      <c r="J322">
+        <v>319768</v>
+      </c>
+      <c r="K322">
+        <v>173299</v>
+      </c>
+      <c r="L322">
+        <v>232756</v>
+      </c>
+      <c r="M322">
+        <v>474949</v>
+      </c>
+      <c r="N322">
+        <v>126049</v>
+      </c>
+      <c r="O322">
+        <v>522478</v>
+      </c>
+      <c r="P322">
+        <v>216112</v>
+      </c>
+      <c r="Q322">
+        <v>145048</v>
+      </c>
+      <c r="R322">
+        <v>123836</v>
+      </c>
+      <c r="S322">
+        <v>345235</v>
+      </c>
+      <c r="T322">
+        <v>43346</v>
+      </c>
+      <c r="U322">
+        <v>303512</v>
+      </c>
+      <c r="V322">
+        <v>93895</v>
+      </c>
+      <c r="W322">
+        <v>148032</v>
+      </c>
+      <c r="X322">
+        <v>71287</v>
+      </c>
+      <c r="Y322">
+        <v>202050</v>
+      </c>
+      <c r="Z322">
+        <v>191106</v>
+      </c>
+      <c r="AA322">
+        <v>102518</v>
+      </c>
+      <c r="AB322">
+        <v>69888</v>
+      </c>
+    </row>
+    <row r="323" spans="1:28">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1561844</v>
+      </c>
+      <c r="C323">
+        <v>267451</v>
+      </c>
+      <c r="D323">
+        <v>465150</v>
+      </c>
+      <c r="E323">
+        <v>515861</v>
+      </c>
+      <c r="F323">
+        <v>260797</v>
+      </c>
+      <c r="G323">
+        <v>109319</v>
+      </c>
+      <c r="H323">
+        <v>602833</v>
+      </c>
+      <c r="I323">
+        <v>485757</v>
+      </c>
+      <c r="J323">
+        <v>321948</v>
+      </c>
+      <c r="K323">
+        <v>173518</v>
+      </c>
+      <c r="L323">
+        <v>234238</v>
+      </c>
+      <c r="M323">
+        <v>483932</v>
+      </c>
+      <c r="N323">
+        <v>126261</v>
+      </c>
+      <c r="O323">
+        <v>526024</v>
+      </c>
+      <c r="P323">
+        <v>218070</v>
+      </c>
+      <c r="Q323">
+        <v>146143</v>
+      </c>
+      <c r="R323">
+        <v>124276</v>
+      </c>
+      <c r="S323">
+        <v>347518</v>
+      </c>
+      <c r="T323">
+        <v>43432</v>
+      </c>
+      <c r="U323">
+        <v>305012</v>
+      </c>
+      <c r="V323">
+        <v>94381</v>
+      </c>
+      <c r="W323">
+        <v>148867</v>
+      </c>
+      <c r="X323">
+        <v>71689</v>
+      </c>
+      <c r="Y323">
+        <v>202314</v>
+      </c>
+      <c r="Z323">
+        <v>192353</v>
+      </c>
+      <c r="AA323">
+        <v>103798</v>
+      </c>
+      <c r="AB323">
+        <v>70086</v>
+      </c>
+    </row>
+    <row r="324" spans="1:28">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1577119</v>
+      </c>
+      <c r="C324">
+        <v>269223</v>
+      </c>
+      <c r="D324">
+        <v>469437</v>
+      </c>
+      <c r="E324">
+        <v>518955</v>
+      </c>
+      <c r="F324">
+        <v>261456</v>
+      </c>
+      <c r="G324">
+        <v>109720</v>
+      </c>
+      <c r="H324">
+        <v>611152</v>
+      </c>
+      <c r="I324">
+        <v>490980</v>
+      </c>
+      <c r="J324">
+        <v>324064</v>
+      </c>
+      <c r="K324">
+        <v>174199</v>
+      </c>
+      <c r="L324">
+        <v>236041</v>
+      </c>
+      <c r="M324">
+        <v>486843</v>
+      </c>
+      <c r="N324">
+        <v>127627</v>
+      </c>
+      <c r="O324">
+        <v>529389</v>
+      </c>
+      <c r="P324">
+        <v>219544</v>
+      </c>
+      <c r="Q324">
+        <v>147249</v>
+      </c>
+      <c r="R324">
+        <v>124942</v>
+      </c>
+      <c r="S324">
+        <v>348912</v>
+      </c>
+      <c r="T324">
+        <v>43785</v>
+      </c>
+      <c r="U324">
+        <v>306029</v>
+      </c>
+      <c r="V324">
+        <v>94945</v>
+      </c>
+      <c r="W324">
+        <v>149686</v>
+      </c>
+      <c r="X324">
+        <v>72049</v>
+      </c>
+      <c r="Y324">
+        <v>202574</v>
+      </c>
+      <c r="Z324">
+        <v>194113</v>
+      </c>
+      <c r="AA324">
+        <v>104737</v>
+      </c>
+      <c r="AB324">
+        <v>70346</v>
+      </c>
+    </row>
+    <row r="325" spans="1:28">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1590829</v>
+      </c>
+      <c r="C325">
+        <v>271041</v>
+      </c>
+      <c r="D325">
+        <v>473648</v>
+      </c>
+      <c r="E325">
+        <v>523068</v>
+      </c>
+      <c r="F325">
+        <v>262222</v>
+      </c>
+      <c r="G325">
+        <v>110112</v>
+      </c>
+      <c r="H325">
+        <v>619846</v>
+      </c>
+      <c r="I325">
+        <v>495585</v>
+      </c>
+      <c r="J325">
+        <v>326130</v>
+      </c>
+      <c r="K325">
+        <v>175227</v>
+      </c>
+      <c r="L325">
+        <v>237453</v>
+      </c>
+      <c r="M325">
+        <v>492654</v>
+      </c>
+      <c r="N325">
+        <v>127627</v>
+      </c>
+      <c r="O325">
+        <v>533338</v>
+      </c>
+      <c r="P325">
+        <v>223360</v>
+      </c>
+      <c r="Q325">
+        <v>147249</v>
+      </c>
+      <c r="R325">
+        <v>126204</v>
+      </c>
+      <c r="S325">
+        <v>350571</v>
+      </c>
+      <c r="T325">
+        <v>44068</v>
+      </c>
+      <c r="U325">
+        <v>307520</v>
+      </c>
+      <c r="V325">
+        <v>94945</v>
+      </c>
+      <c r="W325">
+        <v>150374</v>
+      </c>
+      <c r="X325">
+        <v>72422</v>
+      </c>
+      <c r="Y325">
+        <v>202839</v>
+      </c>
+      <c r="Z325">
+        <v>195988</v>
+      </c>
+      <c r="AA325">
+        <v>105952</v>
+      </c>
+      <c r="AB325">
+        <v>70346</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +28007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB318"/>
+  <dimension ref="A1:AB325"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -53325,10 +53948,10 @@
         <v>9763</v>
       </c>
       <c r="M318">
-        <v>8630</v>
+        <v>8629</v>
       </c>
       <c r="N318">
-        <v>3081</v>
+        <v>3092</v>
       </c>
       <c r="O318">
         <v>5522</v>
@@ -53337,7 +53960,7 @@
         <v>5546</v>
       </c>
       <c r="Q318">
-        <v>2486</v>
+        <v>2511</v>
       </c>
       <c r="R318">
         <v>2544</v>
@@ -53352,7 +53975,7 @@
         <v>7280</v>
       </c>
       <c r="V318">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="W318">
         <v>2891</v>
@@ -53371,6 +53994,608 @@
       </c>
       <c r="AB318">
         <v>793</v>
+      </c>
+    </row>
+    <row r="319" spans="1:28">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>48029</v>
+      </c>
+      <c r="C319">
+        <v>5287</v>
+      </c>
+      <c r="D319">
+        <v>26480</v>
+      </c>
+      <c r="E319">
+        <v>9364</v>
+      </c>
+      <c r="F319">
+        <v>4345</v>
+      </c>
+      <c r="G319">
+        <v>2545</v>
+      </c>
+      <c r="H319">
+        <v>12469</v>
+      </c>
+      <c r="I319">
+        <v>9359</v>
+      </c>
+      <c r="J319">
+        <v>6946</v>
+      </c>
+      <c r="K319">
+        <v>3788</v>
+      </c>
+      <c r="L319">
+        <v>9789</v>
+      </c>
+      <c r="M319">
+        <v>8742</v>
+      </c>
+      <c r="N319">
+        <v>3100</v>
+      </c>
+      <c r="O319">
+        <v>5584</v>
+      </c>
+      <c r="P319">
+        <v>5615</v>
+      </c>
+      <c r="Q319">
+        <v>2525</v>
+      </c>
+      <c r="R319">
+        <v>2554</v>
+      </c>
+      <c r="S319">
+        <v>10137</v>
+      </c>
+      <c r="T319">
+        <v>823</v>
+      </c>
+      <c r="U319">
+        <v>7292</v>
+      </c>
+      <c r="V319">
+        <v>1267</v>
+      </c>
+      <c r="W319">
+        <v>2895</v>
+      </c>
+      <c r="X319">
+        <v>962</v>
+      </c>
+      <c r="Y319">
+        <v>4549</v>
+      </c>
+      <c r="Z319">
+        <v>4648</v>
+      </c>
+      <c r="AA319">
+        <v>1899</v>
+      </c>
+      <c r="AB319">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="320" spans="1:28">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>48298</v>
+      </c>
+      <c r="C320">
+        <v>5307</v>
+      </c>
+      <c r="D320">
+        <v>26704</v>
+      </c>
+      <c r="E320">
+        <v>9392</v>
+      </c>
+      <c r="F320">
+        <v>4351</v>
+      </c>
+      <c r="G320">
+        <v>2553</v>
+      </c>
+      <c r="H320">
+        <v>12594</v>
+      </c>
+      <c r="I320">
+        <v>9413</v>
+      </c>
+      <c r="J320">
+        <v>6964</v>
+      </c>
+      <c r="K320">
+        <v>3800</v>
+      </c>
+      <c r="L320">
+        <v>9826</v>
+      </c>
+      <c r="M320">
+        <v>8742</v>
+      </c>
+      <c r="N320">
+        <v>3100</v>
+      </c>
+      <c r="O320">
+        <v>5611</v>
+      </c>
+      <c r="P320">
+        <v>5669</v>
+      </c>
+      <c r="Q320">
+        <v>2546</v>
+      </c>
+      <c r="R320">
+        <v>2563</v>
+      </c>
+      <c r="S320">
+        <v>10150</v>
+      </c>
+      <c r="T320">
+        <v>823</v>
+      </c>
+      <c r="U320">
+        <v>7304</v>
+      </c>
+      <c r="V320">
+        <v>1270</v>
+      </c>
+      <c r="W320">
+        <v>2897</v>
+      </c>
+      <c r="X320">
+        <v>969</v>
+      </c>
+      <c r="Y320">
+        <v>4555</v>
+      </c>
+      <c r="Z320">
+        <v>4667</v>
+      </c>
+      <c r="AA320">
+        <v>1908</v>
+      </c>
+      <c r="AB320">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="321" spans="1:28">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>48351</v>
+      </c>
+      <c r="C321">
+        <v>5321</v>
+      </c>
+      <c r="D321">
+        <v>26749</v>
+      </c>
+      <c r="E321">
+        <v>9424</v>
+      </c>
+      <c r="F321">
+        <v>4356</v>
+      </c>
+      <c r="G321">
+        <v>2561</v>
+      </c>
+      <c r="H321">
+        <v>12709</v>
+      </c>
+      <c r="I321">
+        <v>9439</v>
+      </c>
+      <c r="J321">
+        <v>6965</v>
+      </c>
+      <c r="K321">
+        <v>3808</v>
+      </c>
+      <c r="L321">
+        <v>9840</v>
+      </c>
+      <c r="M321">
+        <v>8749</v>
+      </c>
+      <c r="N321">
+        <v>3112</v>
+      </c>
+      <c r="O321">
+        <v>5637</v>
+      </c>
+      <c r="P321">
+        <v>5701</v>
+      </c>
+      <c r="Q321">
+        <v>2565</v>
+      </c>
+      <c r="R321">
+        <v>2574</v>
+      </c>
+      <c r="S321">
+        <v>10159</v>
+      </c>
+      <c r="T321">
+        <v>825</v>
+      </c>
+      <c r="U321">
+        <v>7315</v>
+      </c>
+      <c r="V321">
+        <v>1274</v>
+      </c>
+      <c r="W321">
+        <v>2906</v>
+      </c>
+      <c r="X321">
+        <v>969</v>
+      </c>
+      <c r="Y321">
+        <v>4562</v>
+      </c>
+      <c r="Z321">
+        <v>4684</v>
+      </c>
+      <c r="AA321">
+        <v>1911</v>
+      </c>
+      <c r="AB321">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="322" spans="1:28">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>48379</v>
+      </c>
+      <c r="C322">
+        <v>5353</v>
+      </c>
+      <c r="D322">
+        <v>26771</v>
+      </c>
+      <c r="E322">
+        <v>9453</v>
+      </c>
+      <c r="F322">
+        <v>4368</v>
+      </c>
+      <c r="G322">
+        <v>2569</v>
+      </c>
+      <c r="H322">
+        <v>12736</v>
+      </c>
+      <c r="I322">
+        <v>9498</v>
+      </c>
+      <c r="J322">
+        <v>6965</v>
+      </c>
+      <c r="K322">
+        <v>3824</v>
+      </c>
+      <c r="L322">
+        <v>9851</v>
+      </c>
+      <c r="M322">
+        <v>8768</v>
+      </c>
+      <c r="N322">
+        <v>3130</v>
+      </c>
+      <c r="O322">
+        <v>5677</v>
+      </c>
+      <c r="P322">
+        <v>5756</v>
+      </c>
+      <c r="Q322">
+        <v>2587</v>
+      </c>
+      <c r="R322">
+        <v>2585</v>
+      </c>
+      <c r="S322">
+        <v>10162</v>
+      </c>
+      <c r="T322">
+        <v>826</v>
+      </c>
+      <c r="U322">
+        <v>7339</v>
+      </c>
+      <c r="V322">
+        <v>1278</v>
+      </c>
+      <c r="W322">
+        <v>2915</v>
+      </c>
+      <c r="X322">
+        <v>976</v>
+      </c>
+      <c r="Y322">
+        <v>4568</v>
+      </c>
+      <c r="Z322">
+        <v>4694</v>
+      </c>
+      <c r="AA322">
+        <v>1926</v>
+      </c>
+      <c r="AB322">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="323" spans="1:28">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>48662</v>
+      </c>
+      <c r="C323">
+        <v>5384</v>
+      </c>
+      <c r="D323">
+        <v>26976</v>
+      </c>
+      <c r="E323">
+        <v>9480</v>
+      </c>
+      <c r="F323">
+        <v>4375</v>
+      </c>
+      <c r="G323">
+        <v>2577</v>
+      </c>
+      <c r="H323">
+        <v>12750</v>
+      </c>
+      <c r="I323">
+        <v>9619</v>
+      </c>
+      <c r="J323">
+        <v>7007</v>
+      </c>
+      <c r="K323">
+        <v>3836</v>
+      </c>
+      <c r="L323">
+        <v>9889</v>
+      </c>
+      <c r="M323">
+        <v>8885</v>
+      </c>
+      <c r="N323">
+        <v>3140</v>
+      </c>
+      <c r="O323">
+        <v>5707</v>
+      </c>
+      <c r="P323">
+        <v>5810</v>
+      </c>
+      <c r="Q323">
+        <v>2609</v>
+      </c>
+      <c r="R323">
+        <v>2595</v>
+      </c>
+      <c r="S323">
+        <v>10175</v>
+      </c>
+      <c r="T323">
+        <v>827</v>
+      </c>
+      <c r="U323">
+        <v>7349</v>
+      </c>
+      <c r="V323">
+        <v>1286</v>
+      </c>
+      <c r="W323">
+        <v>2922</v>
+      </c>
+      <c r="X323">
+        <v>981</v>
+      </c>
+      <c r="Y323">
+        <v>4575</v>
+      </c>
+      <c r="Z323">
+        <v>4708</v>
+      </c>
+      <c r="AA323">
+        <v>1951</v>
+      </c>
+      <c r="AB323">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="324" spans="1:28">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>48985</v>
+      </c>
+      <c r="C324">
+        <v>5419</v>
+      </c>
+      <c r="D324">
+        <v>27241</v>
+      </c>
+      <c r="E324">
+        <v>9512</v>
+      </c>
+      <c r="F324">
+        <v>4388</v>
+      </c>
+      <c r="G324">
+        <v>2585</v>
+      </c>
+      <c r="H324">
+        <v>12894</v>
+      </c>
+      <c r="I324">
+        <v>9699</v>
+      </c>
+      <c r="J324">
+        <v>7020</v>
+      </c>
+      <c r="K324">
+        <v>3845</v>
+      </c>
+      <c r="L324">
+        <v>9919</v>
+      </c>
+      <c r="M324">
+        <v>8916</v>
+      </c>
+      <c r="N324">
+        <v>3154</v>
+      </c>
+      <c r="O324">
+        <v>5765</v>
+      </c>
+      <c r="P324">
+        <v>5879</v>
+      </c>
+      <c r="Q324">
+        <v>2625</v>
+      </c>
+      <c r="R324">
+        <v>2607</v>
+      </c>
+      <c r="S324">
+        <v>10204</v>
+      </c>
+      <c r="T324">
+        <v>829</v>
+      </c>
+      <c r="U324">
+        <v>7366</v>
+      </c>
+      <c r="V324">
+        <v>1294</v>
+      </c>
+      <c r="W324">
+        <v>2930</v>
+      </c>
+      <c r="X324">
+        <v>987</v>
+      </c>
+      <c r="Y324">
+        <v>4583</v>
+      </c>
+      <c r="Z324">
+        <v>4727</v>
+      </c>
+      <c r="AA324">
+        <v>1966</v>
+      </c>
+      <c r="AB324">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="325" spans="1:28">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>49289</v>
+      </c>
+      <c r="C325">
+        <v>5450</v>
+      </c>
+      <c r="D325">
+        <v>27441</v>
+      </c>
+      <c r="E325">
+        <v>9543</v>
+      </c>
+      <c r="F325">
+        <v>4399</v>
+      </c>
+      <c r="G325">
+        <v>2593</v>
+      </c>
+      <c r="H325">
+        <v>13028</v>
+      </c>
+      <c r="I325">
+        <v>9790</v>
+      </c>
+      <c r="J325">
+        <v>7065</v>
+      </c>
+      <c r="K325">
+        <v>3857</v>
+      </c>
+      <c r="L325">
+        <v>9946</v>
+      </c>
+      <c r="M325">
+        <v>8977</v>
+      </c>
+      <c r="N325">
+        <v>3154</v>
+      </c>
+      <c r="O325">
+        <v>5794</v>
+      </c>
+      <c r="P325">
+        <v>5930</v>
+      </c>
+      <c r="Q325">
+        <v>2625</v>
+      </c>
+      <c r="R325">
+        <v>2617</v>
+      </c>
+      <c r="S325">
+        <v>10209</v>
+      </c>
+      <c r="T325">
+        <v>832</v>
+      </c>
+      <c r="U325">
+        <v>7376</v>
+      </c>
+      <c r="V325">
+        <v>1294</v>
+      </c>
+      <c r="W325">
+        <v>2935</v>
+      </c>
+      <c r="X325">
+        <v>991</v>
+      </c>
+      <c r="Y325">
+        <v>4588</v>
+      </c>
+      <c r="Z325">
+        <v>4747</v>
+      </c>
+      <c r="AA325">
+        <v>1976</v>
+      </c>
+      <c r="AB325">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -53388,15 +54613,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -53404,7 +54629,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -53412,7 +54637,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -53420,7 +54645,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -53428,7 +54653,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -53436,7 +54661,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -53444,7 +54669,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -53452,7 +54677,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -53460,7 +54685,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -53468,7 +54693,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -53476,7 +54701,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -53484,7 +54709,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -53492,7 +54717,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -53500,7 +54725,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -53508,7 +54733,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -53516,7 +54741,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -53524,7 +54749,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -53532,7 +54757,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -53540,7 +54765,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -53548,7 +54773,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -53556,7 +54781,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -53564,7 +54789,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -53572,7 +54797,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -53580,7 +54805,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -53588,7 +54813,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -53596,7 +54821,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -53604,7 +54829,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="360">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -993,6 +993,24 @@
     <t>2021-01-14</t>
   </si>
   <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1409,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB325"/>
+  <dimension ref="A1:AB331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10536,7 +10554,7 @@
         <v>12601</v>
       </c>
       <c r="AA122">
-        <v>17424</v>
+        <v>18173</v>
       </c>
       <c r="AB122">
         <v>12911</v>
@@ -27955,7 +27973,7 @@
         <v>492654</v>
       </c>
       <c r="N325">
-        <v>127627</v>
+        <v>128601</v>
       </c>
       <c r="O325">
         <v>533338</v>
@@ -27964,7 +27982,7 @@
         <v>223360</v>
       </c>
       <c r="Q325">
-        <v>147249</v>
+        <v>148415</v>
       </c>
       <c r="R325">
         <v>126204</v>
@@ -27979,7 +27997,7 @@
         <v>307520</v>
       </c>
       <c r="V325">
-        <v>94945</v>
+        <v>95503</v>
       </c>
       <c r="W325">
         <v>150374</v>
@@ -27997,7 +28015,523 @@
         <v>105952</v>
       </c>
       <c r="AB325">
-        <v>70346</v>
+        <v>70475</v>
+      </c>
+    </row>
+    <row r="326" spans="1:28">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1605845</v>
+      </c>
+      <c r="C326">
+        <v>273031</v>
+      </c>
+      <c r="D326">
+        <v>477044</v>
+      </c>
+      <c r="E326">
+        <v>528539</v>
+      </c>
+      <c r="F326">
+        <v>262928</v>
+      </c>
+      <c r="G326">
+        <v>110572</v>
+      </c>
+      <c r="H326">
+        <v>628966</v>
+      </c>
+      <c r="I326">
+        <v>500792</v>
+      </c>
+      <c r="J326">
+        <v>327821</v>
+      </c>
+      <c r="K326">
+        <v>175997</v>
+      </c>
+      <c r="L326">
+        <v>239155</v>
+      </c>
+      <c r="M326">
+        <v>497505</v>
+      </c>
+      <c r="N326">
+        <v>130335</v>
+      </c>
+      <c r="O326">
+        <v>537036</v>
+      </c>
+      <c r="P326">
+        <v>226511</v>
+      </c>
+      <c r="Q326">
+        <v>149731</v>
+      </c>
+      <c r="R326">
+        <v>127349</v>
+      </c>
+      <c r="S326">
+        <v>351731</v>
+      </c>
+      <c r="T326">
+        <v>44156</v>
+      </c>
+      <c r="U326">
+        <v>308936</v>
+      </c>
+      <c r="V326">
+        <v>96058</v>
+      </c>
+      <c r="W326">
+        <v>151046</v>
+      </c>
+      <c r="X326">
+        <v>72824</v>
+      </c>
+      <c r="Y326">
+        <v>203156</v>
+      </c>
+      <c r="Z326">
+        <v>197394</v>
+      </c>
+      <c r="AA326">
+        <v>107332</v>
+      </c>
+      <c r="AB326">
+        <v>70752</v>
+      </c>
+    </row>
+    <row r="327" spans="1:28">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1619619</v>
+      </c>
+      <c r="C327">
+        <v>274509</v>
+      </c>
+      <c r="D327">
+        <v>481111</v>
+      </c>
+      <c r="E327">
+        <v>534371</v>
+      </c>
+      <c r="F327">
+        <v>263756</v>
+      </c>
+      <c r="G327">
+        <v>110968</v>
+      </c>
+      <c r="H327">
+        <v>636797</v>
+      </c>
+      <c r="I327">
+        <v>505021</v>
+      </c>
+      <c r="J327">
+        <v>328062</v>
+      </c>
+      <c r="K327">
+        <v>176835</v>
+      </c>
+      <c r="L327">
+        <v>240605</v>
+      </c>
+      <c r="M327">
+        <v>501036</v>
+      </c>
+      <c r="N327">
+        <v>130350</v>
+      </c>
+      <c r="O327">
+        <v>540342</v>
+      </c>
+      <c r="P327">
+        <v>229367</v>
+      </c>
+      <c r="Q327">
+        <v>150498</v>
+      </c>
+      <c r="R327">
+        <v>127715</v>
+      </c>
+      <c r="S327">
+        <v>352340</v>
+      </c>
+      <c r="T327">
+        <v>44621</v>
+      </c>
+      <c r="U327">
+        <v>309526</v>
+      </c>
+      <c r="V327">
+        <v>96390</v>
+      </c>
+      <c r="W327">
+        <v>151397</v>
+      </c>
+      <c r="X327">
+        <v>73213</v>
+      </c>
+      <c r="Y327">
+        <v>203334</v>
+      </c>
+      <c r="Z327">
+        <v>198444</v>
+      </c>
+      <c r="AA327">
+        <v>108173</v>
+      </c>
+      <c r="AB327">
+        <v>70948</v>
+      </c>
+    </row>
+    <row r="328" spans="1:28">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1625339</v>
+      </c>
+      <c r="C328">
+        <v>275504</v>
+      </c>
+      <c r="D328">
+        <v>482058</v>
+      </c>
+      <c r="E328">
+        <v>537772</v>
+      </c>
+      <c r="F328">
+        <v>264227</v>
+      </c>
+      <c r="G328">
+        <v>111443</v>
+      </c>
+      <c r="H328">
+        <v>643609</v>
+      </c>
+      <c r="I328">
+        <v>506885</v>
+      </c>
+      <c r="J328">
+        <v>328197</v>
+      </c>
+      <c r="K328">
+        <v>177843</v>
+      </c>
+      <c r="L328">
+        <v>241087</v>
+      </c>
+      <c r="M328">
+        <v>502599</v>
+      </c>
+      <c r="N328">
+        <v>131375</v>
+      </c>
+      <c r="O328">
+        <v>541745</v>
+      </c>
+      <c r="P328">
+        <v>230644</v>
+      </c>
+      <c r="Q328">
+        <v>150944</v>
+      </c>
+      <c r="R328">
+        <v>128395</v>
+      </c>
+      <c r="S328">
+        <v>353979</v>
+      </c>
+      <c r="T328">
+        <v>44767</v>
+      </c>
+      <c r="U328">
+        <v>309816</v>
+      </c>
+      <c r="V328">
+        <v>96589</v>
+      </c>
+      <c r="W328">
+        <v>151619</v>
+      </c>
+      <c r="X328">
+        <v>73417</v>
+      </c>
+      <c r="Y328">
+        <v>203423</v>
+      </c>
+      <c r="Z328">
+        <v>199006</v>
+      </c>
+      <c r="AA328">
+        <v>109056</v>
+      </c>
+      <c r="AB328">
+        <v>71065</v>
+      </c>
+    </row>
+    <row r="329" spans="1:28">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>1628272</v>
+      </c>
+      <c r="C329">
+        <v>277357</v>
+      </c>
+      <c r="D329">
+        <v>482431</v>
+      </c>
+      <c r="E329">
+        <v>540320</v>
+      </c>
+      <c r="F329">
+        <v>265274</v>
+      </c>
+      <c r="G329">
+        <v>111724</v>
+      </c>
+      <c r="H329">
+        <v>646091</v>
+      </c>
+      <c r="I329">
+        <v>508058</v>
+      </c>
+      <c r="J329">
+        <v>330106</v>
+      </c>
+      <c r="K329">
+        <v>177843</v>
+      </c>
+      <c r="L329">
+        <v>241409</v>
+      </c>
+      <c r="M329">
+        <v>503712</v>
+      </c>
+      <c r="N329">
+        <v>131770</v>
+      </c>
+      <c r="O329">
+        <v>543389</v>
+      </c>
+      <c r="P329">
+        <v>232434</v>
+      </c>
+      <c r="Q329">
+        <v>152026</v>
+      </c>
+      <c r="R329">
+        <v>128854</v>
+      </c>
+      <c r="S329">
+        <v>353979</v>
+      </c>
+      <c r="T329">
+        <v>44775</v>
+      </c>
+      <c r="U329">
+        <v>311063</v>
+      </c>
+      <c r="V329">
+        <v>97196</v>
+      </c>
+      <c r="W329">
+        <v>152211</v>
+      </c>
+      <c r="X329">
+        <v>73626</v>
+      </c>
+      <c r="Y329">
+        <v>203581</v>
+      </c>
+      <c r="Z329">
+        <v>200134</v>
+      </c>
+      <c r="AA329">
+        <v>110331</v>
+      </c>
+      <c r="AB329">
+        <v>71232</v>
+      </c>
+    </row>
+    <row r="330" spans="1:28">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1644225</v>
+      </c>
+      <c r="C330">
+        <v>279039</v>
+      </c>
+      <c r="D330">
+        <v>486806</v>
+      </c>
+      <c r="E330">
+        <v>544324</v>
+      </c>
+      <c r="F330">
+        <v>265886</v>
+      </c>
+      <c r="G330">
+        <v>112097</v>
+      </c>
+      <c r="H330">
+        <v>651956</v>
+      </c>
+      <c r="I330">
+        <v>512343</v>
+      </c>
+      <c r="J330">
+        <v>332391</v>
+      </c>
+      <c r="K330">
+        <v>178081</v>
+      </c>
+      <c r="L330">
+        <v>243044</v>
+      </c>
+      <c r="M330">
+        <v>508570</v>
+      </c>
+      <c r="N330">
+        <v>133099</v>
+      </c>
+      <c r="O330">
+        <v>546522</v>
+      </c>
+      <c r="P330">
+        <v>233971</v>
+      </c>
+      <c r="Q330">
+        <v>153057</v>
+      </c>
+      <c r="R330">
+        <v>129505</v>
+      </c>
+      <c r="S330">
+        <v>356985</v>
+      </c>
+      <c r="T330">
+        <v>45208</v>
+      </c>
+      <c r="U330">
+        <v>312632</v>
+      </c>
+      <c r="V330">
+        <v>97790</v>
+      </c>
+      <c r="W330">
+        <v>152997</v>
+      </c>
+      <c r="X330">
+        <v>74045</v>
+      </c>
+      <c r="Y330">
+        <v>203964</v>
+      </c>
+      <c r="Z330">
+        <v>202125</v>
+      </c>
+      <c r="AA330">
+        <v>111372</v>
+      </c>
+      <c r="AB330">
+        <v>71451</v>
+      </c>
+    </row>
+    <row r="331" spans="1:28">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1658636</v>
+      </c>
+      <c r="C331">
+        <v>280426</v>
+      </c>
+      <c r="D331">
+        <v>490821</v>
+      </c>
+      <c r="E331">
+        <v>549315</v>
+      </c>
+      <c r="F331">
+        <v>266506</v>
+      </c>
+      <c r="G331">
+        <v>112476</v>
+      </c>
+      <c r="H331">
+        <v>659385</v>
+      </c>
+      <c r="I331">
+        <v>516288</v>
+      </c>
+      <c r="J331">
+        <v>334271</v>
+      </c>
+      <c r="K331">
+        <v>179353</v>
+      </c>
+      <c r="L331">
+        <v>244814</v>
+      </c>
+      <c r="M331">
+        <v>512337</v>
+      </c>
+      <c r="N331">
+        <v>133099</v>
+      </c>
+      <c r="O331">
+        <v>549579</v>
+      </c>
+      <c r="P331">
+        <v>238980</v>
+      </c>
+      <c r="Q331">
+        <v>153057</v>
+      </c>
+      <c r="R331">
+        <v>130286</v>
+      </c>
+      <c r="S331">
+        <v>358404</v>
+      </c>
+      <c r="T331">
+        <v>45429</v>
+      </c>
+      <c r="U331">
+        <v>314119</v>
+      </c>
+      <c r="V331">
+        <v>97790</v>
+      </c>
+      <c r="W331">
+        <v>153771</v>
+      </c>
+      <c r="X331">
+        <v>74310</v>
+      </c>
+      <c r="Y331">
+        <v>204300</v>
+      </c>
+      <c r="Z331">
+        <v>203734</v>
+      </c>
+      <c r="AA331">
+        <v>112468</v>
+      </c>
+      <c r="AB331">
+        <v>71583</v>
       </c>
     </row>
   </sheetData>
@@ -28007,7 +28541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB325"/>
+  <dimension ref="A1:AB331"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37134,7 +37668,7 @@
         <v>476</v>
       </c>
       <c r="AA122">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="AB122">
         <v>273</v>
@@ -54553,7 +55087,7 @@
         <v>8977</v>
       </c>
       <c r="N325">
-        <v>3154</v>
+        <v>3166</v>
       </c>
       <c r="O325">
         <v>5794</v>
@@ -54562,7 +55096,7 @@
         <v>5930</v>
       </c>
       <c r="Q325">
-        <v>2625</v>
+        <v>2648</v>
       </c>
       <c r="R325">
         <v>2617</v>
@@ -54577,13 +55111,13 @@
         <v>7376</v>
       </c>
       <c r="V325">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="W325">
         <v>2935</v>
       </c>
       <c r="X325">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Y325">
         <v>4588</v>
@@ -54595,7 +55129,523 @@
         <v>1976</v>
       </c>
       <c r="AB325">
-        <v>800</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="326" spans="1:28">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>49600</v>
+      </c>
+      <c r="C326">
+        <v>5474</v>
+      </c>
+      <c r="D326">
+        <v>27591</v>
+      </c>
+      <c r="E326">
+        <v>9575</v>
+      </c>
+      <c r="F326">
+        <v>4406</v>
+      </c>
+      <c r="G326">
+        <v>2602</v>
+      </c>
+      <c r="H326">
+        <v>13182</v>
+      </c>
+      <c r="I326">
+        <v>9838</v>
+      </c>
+      <c r="J326">
+        <v>7077</v>
+      </c>
+      <c r="K326">
+        <v>3869</v>
+      </c>
+      <c r="L326">
+        <v>9964</v>
+      </c>
+      <c r="M326">
+        <v>9042</v>
+      </c>
+      <c r="N326">
+        <v>3190</v>
+      </c>
+      <c r="O326">
+        <v>5836</v>
+      </c>
+      <c r="P326">
+        <v>6043</v>
+      </c>
+      <c r="Q326">
+        <v>2661</v>
+      </c>
+      <c r="R326">
+        <v>2629</v>
+      </c>
+      <c r="S326">
+        <v>10220</v>
+      </c>
+      <c r="T326">
+        <v>835</v>
+      </c>
+      <c r="U326">
+        <v>7388</v>
+      </c>
+      <c r="V326">
+        <v>1308</v>
+      </c>
+      <c r="W326">
+        <v>2945</v>
+      </c>
+      <c r="X326">
+        <v>995</v>
+      </c>
+      <c r="Y326">
+        <v>4594</v>
+      </c>
+      <c r="Z326">
+        <v>4761</v>
+      </c>
+      <c r="AA326">
+        <v>1993</v>
+      </c>
+      <c r="AB326">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="327" spans="1:28">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>49885</v>
+      </c>
+      <c r="C327">
+        <v>5493</v>
+      </c>
+      <c r="D327">
+        <v>27755</v>
+      </c>
+      <c r="E327">
+        <v>9606</v>
+      </c>
+      <c r="F327">
+        <v>4412</v>
+      </c>
+      <c r="G327">
+        <v>2611</v>
+      </c>
+      <c r="H327">
+        <v>13355</v>
+      </c>
+      <c r="I327">
+        <v>9876</v>
+      </c>
+      <c r="J327">
+        <v>7102</v>
+      </c>
+      <c r="K327">
+        <v>3880</v>
+      </c>
+      <c r="L327">
+        <v>9993</v>
+      </c>
+      <c r="M327">
+        <v>9073</v>
+      </c>
+      <c r="N327">
+        <v>3190</v>
+      </c>
+      <c r="O327">
+        <v>5867</v>
+      </c>
+      <c r="P327">
+        <v>6123</v>
+      </c>
+      <c r="Q327">
+        <v>2674</v>
+      </c>
+      <c r="R327">
+        <v>2640</v>
+      </c>
+      <c r="S327">
+        <v>10223</v>
+      </c>
+      <c r="T327">
+        <v>835</v>
+      </c>
+      <c r="U327">
+        <v>7397</v>
+      </c>
+      <c r="V327">
+        <v>1313</v>
+      </c>
+      <c r="W327">
+        <v>2950</v>
+      </c>
+      <c r="X327">
+        <v>996</v>
+      </c>
+      <c r="Y327">
+        <v>4601</v>
+      </c>
+      <c r="Z327">
+        <v>4782</v>
+      </c>
+      <c r="AA327">
+        <v>1999</v>
+      </c>
+      <c r="AB327">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="328" spans="1:28">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>49945</v>
+      </c>
+      <c r="C328">
+        <v>5506</v>
+      </c>
+      <c r="D328">
+        <v>27791</v>
+      </c>
+      <c r="E328">
+        <v>9638</v>
+      </c>
+      <c r="F328">
+        <v>4421</v>
+      </c>
+      <c r="G328">
+        <v>2620</v>
+      </c>
+      <c r="H328">
+        <v>13465</v>
+      </c>
+      <c r="I328">
+        <v>9921</v>
+      </c>
+      <c r="J328">
+        <v>7102</v>
+      </c>
+      <c r="K328">
+        <v>3902</v>
+      </c>
+      <c r="L328">
+        <v>10020</v>
+      </c>
+      <c r="M328">
+        <v>9092</v>
+      </c>
+      <c r="N328">
+        <v>3196</v>
+      </c>
+      <c r="O328">
+        <v>5886</v>
+      </c>
+      <c r="P328">
+        <v>6191</v>
+      </c>
+      <c r="Q328">
+        <v>2686</v>
+      </c>
+      <c r="R328">
+        <v>2652</v>
+      </c>
+      <c r="S328">
+        <v>10223</v>
+      </c>
+      <c r="T328">
+        <v>836</v>
+      </c>
+      <c r="U328">
+        <v>7412</v>
+      </c>
+      <c r="V328">
+        <v>1316</v>
+      </c>
+      <c r="W328">
+        <v>2961</v>
+      </c>
+      <c r="X328">
+        <v>996</v>
+      </c>
+      <c r="Y328">
+        <v>4606</v>
+      </c>
+      <c r="Z328">
+        <v>4793</v>
+      </c>
+      <c r="AA328">
+        <v>2005</v>
+      </c>
+      <c r="AB328">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="329" spans="1:28">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>49987</v>
+      </c>
+      <c r="C329">
+        <v>5536</v>
+      </c>
+      <c r="D329">
+        <v>27805</v>
+      </c>
+      <c r="E329">
+        <v>9667</v>
+      </c>
+      <c r="F329">
+        <v>4427</v>
+      </c>
+      <c r="G329">
+        <v>2629</v>
+      </c>
+      <c r="H329">
+        <v>13483</v>
+      </c>
+      <c r="I329">
+        <v>9967</v>
+      </c>
+      <c r="J329">
+        <v>7107</v>
+      </c>
+      <c r="K329">
+        <v>3902</v>
+      </c>
+      <c r="L329">
+        <v>10031</v>
+      </c>
+      <c r="M329">
+        <v>9054</v>
+      </c>
+      <c r="N329">
+        <v>3205</v>
+      </c>
+      <c r="O329">
+        <v>5919</v>
+      </c>
+      <c r="P329">
+        <v>6308</v>
+      </c>
+      <c r="Q329">
+        <v>2705</v>
+      </c>
+      <c r="R329">
+        <v>2662</v>
+      </c>
+      <c r="S329">
+        <v>10223</v>
+      </c>
+      <c r="T329">
+        <v>837</v>
+      </c>
+      <c r="U329">
+        <v>7427</v>
+      </c>
+      <c r="V329">
+        <v>1323</v>
+      </c>
+      <c r="W329">
+        <v>2968</v>
+      </c>
+      <c r="X329">
+        <v>1005</v>
+      </c>
+      <c r="Y329">
+        <v>4613</v>
+      </c>
+      <c r="Z329">
+        <v>4815</v>
+      </c>
+      <c r="AA329">
+        <v>2031</v>
+      </c>
+      <c r="AB329">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="330" spans="1:28">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>50318</v>
+      </c>
+      <c r="C330">
+        <v>5565</v>
+      </c>
+      <c r="D330">
+        <v>28026</v>
+      </c>
+      <c r="E330">
+        <v>9697</v>
+      </c>
+      <c r="F330">
+        <v>4436</v>
+      </c>
+      <c r="G330">
+        <v>2638</v>
+      </c>
+      <c r="H330">
+        <v>13507</v>
+      </c>
+      <c r="I330">
+        <v>10051</v>
+      </c>
+      <c r="J330">
+        <v>7107</v>
+      </c>
+      <c r="K330">
+        <v>3912</v>
+      </c>
+      <c r="L330">
+        <v>10059</v>
+      </c>
+      <c r="M330">
+        <v>9132</v>
+      </c>
+      <c r="N330">
+        <v>3209</v>
+      </c>
+      <c r="O330">
+        <v>5969</v>
+      </c>
+      <c r="P330">
+        <v>6450</v>
+      </c>
+      <c r="Q330">
+        <v>2723</v>
+      </c>
+      <c r="R330">
+        <v>2674</v>
+      </c>
+      <c r="S330">
+        <v>10243</v>
+      </c>
+      <c r="T330">
+        <v>839</v>
+      </c>
+      <c r="U330">
+        <v>7434</v>
+      </c>
+      <c r="V330">
+        <v>1330</v>
+      </c>
+      <c r="W330">
+        <v>2976</v>
+      </c>
+      <c r="X330">
+        <v>1010</v>
+      </c>
+      <c r="Y330">
+        <v>4618</v>
+      </c>
+      <c r="Z330">
+        <v>4846</v>
+      </c>
+      <c r="AA330">
+        <v>2044</v>
+      </c>
+      <c r="AB330">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="331" spans="1:28">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>50652</v>
+      </c>
+      <c r="C331">
+        <v>5590</v>
+      </c>
+      <c r="D331">
+        <v>28215</v>
+      </c>
+      <c r="E331">
+        <v>9728</v>
+      </c>
+      <c r="F331">
+        <v>4442</v>
+      </c>
+      <c r="G331">
+        <v>2647</v>
+      </c>
+      <c r="H331">
+        <v>13721</v>
+      </c>
+      <c r="I331">
+        <v>10123</v>
+      </c>
+      <c r="J331">
+        <v>7194</v>
+      </c>
+      <c r="K331">
+        <v>3926</v>
+      </c>
+      <c r="L331">
+        <v>10098</v>
+      </c>
+      <c r="M331">
+        <v>9186</v>
+      </c>
+      <c r="N331">
+        <v>3209</v>
+      </c>
+      <c r="O331">
+        <v>5988</v>
+      </c>
+      <c r="P331">
+        <v>6598</v>
+      </c>
+      <c r="Q331">
+        <v>2723</v>
+      </c>
+      <c r="R331">
+        <v>2685</v>
+      </c>
+      <c r="S331">
+        <v>10261</v>
+      </c>
+      <c r="T331">
+        <v>840</v>
+      </c>
+      <c r="U331">
+        <v>7458</v>
+      </c>
+      <c r="V331">
+        <v>1330</v>
+      </c>
+      <c r="W331">
+        <v>2985</v>
+      </c>
+      <c r="X331">
+        <v>1016</v>
+      </c>
+      <c r="Y331">
+        <v>4624</v>
+      </c>
+      <c r="Z331">
+        <v>4877</v>
+      </c>
+      <c r="AA331">
+        <v>2056</v>
+      </c>
+      <c r="AB331">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -54613,15 +55663,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -54629,7 +55679,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -54637,7 +55687,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -54645,7 +55695,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -54653,7 +55703,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -54661,7 +55711,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -54669,7 +55719,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -54677,7 +55727,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -54685,7 +55735,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -54693,7 +55743,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -54701,7 +55751,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -54709,7 +55759,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -54717,7 +55767,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -54725,7 +55775,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -54733,7 +55783,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -54741,7 +55791,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -54749,7 +55799,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -54757,7 +55807,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -54765,7 +55815,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -54773,7 +55823,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -54781,7 +55831,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -54789,7 +55839,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -54797,7 +55847,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -54805,7 +55855,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -54813,7 +55863,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -54821,7 +55871,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -54829,7 +55879,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B28">
         <v>3015268</v>

--- a/data/Brasil.xlsx
+++ b/data/Brasil.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="364">
   <si>
     <t>2020-02-25</t>
   </si>
@@ -1011,6 +1011,18 @@
     <t>2021-01-20</t>
   </si>
   <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1427,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB331"/>
+  <dimension ref="A1:AB335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28160,7 +28172,7 @@
         <v>127715</v>
       </c>
       <c r="S327">
-        <v>352340</v>
+        <v>353979</v>
       </c>
       <c r="T327">
         <v>44621</v>
@@ -28332,7 +28344,7 @@
         <v>128854</v>
       </c>
       <c r="S329">
-        <v>353979</v>
+        <v>356117</v>
       </c>
       <c r="T329">
         <v>44775</v>
@@ -28489,7 +28501,7 @@
         <v>512337</v>
       </c>
       <c r="N331">
-        <v>133099</v>
+        <v>133998</v>
       </c>
       <c r="O331">
         <v>549579</v>
@@ -28498,7 +28510,7 @@
         <v>238980</v>
       </c>
       <c r="Q331">
-        <v>153057</v>
+        <v>154121</v>
       </c>
       <c r="R331">
         <v>130286</v>
@@ -28513,7 +28525,7 @@
         <v>314119</v>
       </c>
       <c r="V331">
-        <v>97790</v>
+        <v>98252</v>
       </c>
       <c r="W331">
         <v>153771</v>
@@ -28532,6 +28544,350 @@
       </c>
       <c r="AB331">
         <v>71583</v>
+      </c>
+    </row>
+    <row r="332" spans="1:28">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1670754</v>
+      </c>
+      <c r="C332">
+        <v>282044</v>
+      </c>
+      <c r="D332">
+        <v>494127</v>
+      </c>
+      <c r="E332">
+        <v>553770</v>
+      </c>
+      <c r="F332">
+        <v>267340</v>
+      </c>
+      <c r="G332">
+        <v>112854</v>
+      </c>
+      <c r="H332">
+        <v>668216</v>
+      </c>
+      <c r="I332">
+        <v>520313</v>
+      </c>
+      <c r="J332">
+        <v>335649</v>
+      </c>
+      <c r="K332">
+        <v>180464</v>
+      </c>
+      <c r="L332">
+        <v>246799</v>
+      </c>
+      <c r="M332">
+        <v>515464</v>
+      </c>
+      <c r="N332">
+        <v>134844</v>
+      </c>
+      <c r="O332">
+        <v>552310</v>
+      </c>
+      <c r="P332">
+        <v>241182</v>
+      </c>
+      <c r="Q332">
+        <v>155010</v>
+      </c>
+      <c r="R332">
+        <v>131023</v>
+      </c>
+      <c r="S332">
+        <v>359678</v>
+      </c>
+      <c r="T332">
+        <v>45729</v>
+      </c>
+      <c r="U332">
+        <v>316176</v>
+      </c>
+      <c r="V332">
+        <v>98787</v>
+      </c>
+      <c r="W332">
+        <v>154397</v>
+      </c>
+      <c r="X332">
+        <v>74535</v>
+      </c>
+      <c r="Y332">
+        <v>204767</v>
+      </c>
+      <c r="Z332">
+        <v>205162</v>
+      </c>
+      <c r="AA332">
+        <v>113778</v>
+      </c>
+      <c r="AB332">
+        <v>71740</v>
+      </c>
+    </row>
+    <row r="333" spans="1:28">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1679759</v>
+      </c>
+      <c r="C333">
+        <v>283996</v>
+      </c>
+      <c r="D333">
+        <v>494796</v>
+      </c>
+      <c r="E333">
+        <v>557900</v>
+      </c>
+      <c r="F333">
+        <v>268394</v>
+      </c>
+      <c r="G333">
+        <v>113205</v>
+      </c>
+      <c r="H333">
+        <v>677809</v>
+      </c>
+      <c r="I333">
+        <v>523367</v>
+      </c>
+      <c r="J333">
+        <v>337857</v>
+      </c>
+      <c r="K333">
+        <v>181773</v>
+      </c>
+      <c r="L333">
+        <v>248513</v>
+      </c>
+      <c r="M333">
+        <v>519042</v>
+      </c>
+      <c r="N333">
+        <v>134881</v>
+      </c>
+      <c r="O333">
+        <v>555148</v>
+      </c>
+      <c r="P333">
+        <v>245157</v>
+      </c>
+      <c r="Q333">
+        <v>155972</v>
+      </c>
+      <c r="R333">
+        <v>131835</v>
+      </c>
+      <c r="S333">
+        <v>360973</v>
+      </c>
+      <c r="T333">
+        <v>45987</v>
+      </c>
+      <c r="U333">
+        <v>317876</v>
+      </c>
+      <c r="V333">
+        <v>99290</v>
+      </c>
+      <c r="W333">
+        <v>155105</v>
+      </c>
+      <c r="X333">
+        <v>74874</v>
+      </c>
+      <c r="Y333">
+        <v>205065</v>
+      </c>
+      <c r="Z333">
+        <v>206761</v>
+      </c>
+      <c r="AA333">
+        <v>115200</v>
+      </c>
+      <c r="AB333">
+        <v>72127</v>
+      </c>
+    </row>
+    <row r="334" spans="1:28">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>1694355</v>
+      </c>
+      <c r="C334">
+        <v>284854</v>
+      </c>
+      <c r="D334">
+        <v>500185</v>
+      </c>
+      <c r="E334">
+        <v>562466</v>
+      </c>
+      <c r="F334">
+        <v>269350</v>
+      </c>
+      <c r="G334">
+        <v>113662</v>
+      </c>
+      <c r="H334">
+        <v>686682</v>
+      </c>
+      <c r="I334">
+        <v>527182</v>
+      </c>
+      <c r="J334">
+        <v>338076</v>
+      </c>
+      <c r="K334">
+        <v>182907</v>
+      </c>
+      <c r="L334">
+        <v>250165</v>
+      </c>
+      <c r="M334">
+        <v>522169</v>
+      </c>
+      <c r="N334">
+        <v>135774</v>
+      </c>
+      <c r="O334">
+        <v>557774</v>
+      </c>
+      <c r="P334">
+        <v>248561</v>
+      </c>
+      <c r="Q334">
+        <v>156459</v>
+      </c>
+      <c r="R334">
+        <v>132337</v>
+      </c>
+      <c r="S334">
+        <v>362351</v>
+      </c>
+      <c r="T334">
+        <v>46239</v>
+      </c>
+      <c r="U334">
+        <v>318777</v>
+      </c>
+      <c r="V334">
+        <v>99485</v>
+      </c>
+      <c r="W334">
+        <v>155362</v>
+      </c>
+      <c r="X334">
+        <v>75054</v>
+      </c>
+      <c r="Y334">
+        <v>205396</v>
+      </c>
+      <c r="Z334">
+        <v>207747</v>
+      </c>
+      <c r="AA334">
+        <v>116133</v>
+      </c>
+      <c r="AB334">
+        <v>72313</v>
+      </c>
+    </row>
+    <row r="335" spans="1:28">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1699427</v>
+      </c>
+      <c r="C335">
+        <v>285654</v>
+      </c>
+      <c r="D335">
+        <v>501202</v>
+      </c>
+      <c r="E335">
+        <v>565320</v>
+      </c>
+      <c r="F335">
+        <v>270171</v>
+      </c>
+      <c r="G335">
+        <v>114169</v>
+      </c>
+      <c r="H335">
+        <v>690853</v>
+      </c>
+      <c r="I335">
+        <v>528045</v>
+      </c>
+      <c r="J335">
+        <v>338155</v>
+      </c>
+      <c r="K335">
+        <v>183726</v>
+      </c>
+      <c r="L335">
+        <v>250702</v>
+      </c>
+      <c r="M335">
+        <v>523990</v>
+      </c>
+      <c r="N335">
+        <v>135774</v>
+      </c>
+      <c r="O335">
+        <v>558975</v>
+      </c>
+      <c r="P335">
+        <v>249713</v>
+      </c>
+      <c r="Q335">
+        <v>156459</v>
+      </c>
+      <c r="R335">
+        <v>132829</v>
+      </c>
+      <c r="S335">
+        <v>363967</v>
+      </c>
+      <c r="T335">
+        <v>46429</v>
+      </c>
+      <c r="U335">
+        <v>319545</v>
+      </c>
+      <c r="V335">
+        <v>99485</v>
+      </c>
+      <c r="W335">
+        <v>155723</v>
+      </c>
+      <c r="X335">
+        <v>75249</v>
+      </c>
+      <c r="Y335">
+        <v>205481</v>
+      </c>
+      <c r="Z335">
+        <v>208088</v>
+      </c>
+      <c r="AA335">
+        <v>117101</v>
+      </c>
+      <c r="AB335">
+        <v>72462</v>
       </c>
     </row>
   </sheetData>
@@ -28541,7 +28897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB331"/>
+  <dimension ref="A1:AB335"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55289,7 +55645,7 @@
         <v>2950</v>
       </c>
       <c r="X327">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Y327">
         <v>4601</v>
@@ -55375,7 +55731,7 @@
         <v>2961</v>
       </c>
       <c r="X328">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Y328">
         <v>4606</v>
@@ -55446,7 +55802,7 @@
         <v>2662</v>
       </c>
       <c r="S329">
-        <v>10223</v>
+        <v>10240</v>
       </c>
       <c r="T329">
         <v>837</v>
@@ -55461,7 +55817,7 @@
         <v>2968</v>
       </c>
       <c r="X329">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Y329">
         <v>4613</v>
@@ -55547,7 +55903,7 @@
         <v>2976</v>
       </c>
       <c r="X330">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Y330">
         <v>4618</v>
@@ -55603,7 +55959,7 @@
         <v>9186</v>
       </c>
       <c r="N331">
-        <v>3209</v>
+        <v>3220</v>
       </c>
       <c r="O331">
         <v>5988</v>
@@ -55612,7 +55968,7 @@
         <v>6598</v>
       </c>
       <c r="Q331">
-        <v>2723</v>
+        <v>2741</v>
       </c>
       <c r="R331">
         <v>2685</v>
@@ -55627,13 +55983,13 @@
         <v>7458</v>
       </c>
       <c r="V331">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="W331">
         <v>2985</v>
       </c>
       <c r="X331">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Y331">
         <v>4624</v>
@@ -55646,6 +56002,350 @@
       </c>
       <c r="AB331">
         <v>819</v>
+      </c>
+    </row>
+    <row r="332" spans="1:28">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>50938</v>
+      </c>
+      <c r="C332">
+        <v>5615</v>
+      </c>
+      <c r="D332">
+        <v>28440</v>
+      </c>
+      <c r="E332">
+        <v>9760</v>
+      </c>
+      <c r="F332">
+        <v>4452</v>
+      </c>
+      <c r="G332">
+        <v>2656</v>
+      </c>
+      <c r="H332">
+        <v>13891</v>
+      </c>
+      <c r="I332">
+        <v>10196</v>
+      </c>
+      <c r="J332">
+        <v>7226</v>
+      </c>
+      <c r="K332">
+        <v>3939</v>
+      </c>
+      <c r="L332">
+        <v>10133</v>
+      </c>
+      <c r="M332">
+        <v>9243</v>
+      </c>
+      <c r="N332">
+        <v>3240</v>
+      </c>
+      <c r="O332">
+        <v>6036</v>
+      </c>
+      <c r="P332">
+        <v>6757</v>
+      </c>
+      <c r="Q332">
+        <v>2771</v>
+      </c>
+      <c r="R332">
+        <v>2697</v>
+      </c>
+      <c r="S332">
+        <v>10299</v>
+      </c>
+      <c r="T332">
+        <v>844</v>
+      </c>
+      <c r="U332">
+        <v>7470</v>
+      </c>
+      <c r="V332">
+        <v>1338</v>
+      </c>
+      <c r="W332">
+        <v>2989</v>
+      </c>
+      <c r="X332">
+        <v>1020</v>
+      </c>
+      <c r="Y332">
+        <v>4631</v>
+      </c>
+      <c r="Z332">
+        <v>4902</v>
+      </c>
+      <c r="AA332">
+        <v>2070</v>
+      </c>
+      <c r="AB332">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="333" spans="1:28">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>51192</v>
+      </c>
+      <c r="C333">
+        <v>5634</v>
+      </c>
+      <c r="D333">
+        <v>28592</v>
+      </c>
+      <c r="E333">
+        <v>9794</v>
+      </c>
+      <c r="F333">
+        <v>4460</v>
+      </c>
+      <c r="G333">
+        <v>2665</v>
+      </c>
+      <c r="H333">
+        <v>14010</v>
+      </c>
+      <c r="I333">
+        <v>10241</v>
+      </c>
+      <c r="J333">
+        <v>7261</v>
+      </c>
+      <c r="K333">
+        <v>3955</v>
+      </c>
+      <c r="L333">
+        <v>10152</v>
+      </c>
+      <c r="M333">
+        <v>9292</v>
+      </c>
+      <c r="N333">
+        <v>3240</v>
+      </c>
+      <c r="O333">
+        <v>6061</v>
+      </c>
+      <c r="P333">
+        <v>6889</v>
+      </c>
+      <c r="Q333">
+        <v>2794</v>
+      </c>
+      <c r="R333">
+        <v>2710</v>
+      </c>
+      <c r="S333">
+        <v>10320</v>
+      </c>
+      <c r="T333">
+        <v>846</v>
+      </c>
+      <c r="U333">
+        <v>7487</v>
+      </c>
+      <c r="V333">
+        <v>1344</v>
+      </c>
+      <c r="W333">
+        <v>2999</v>
+      </c>
+      <c r="X333">
+        <v>1023</v>
+      </c>
+      <c r="Y333">
+        <v>4639</v>
+      </c>
+      <c r="Z333">
+        <v>4930</v>
+      </c>
+      <c r="AA333">
+        <v>2085</v>
+      </c>
+      <c r="AB333">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="334" spans="1:28">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>51423</v>
+      </c>
+      <c r="C334">
+        <v>5658</v>
+      </c>
+      <c r="D334">
+        <v>28812</v>
+      </c>
+      <c r="E334">
+        <v>9827</v>
+      </c>
+      <c r="F334">
+        <v>4468</v>
+      </c>
+      <c r="G334">
+        <v>2674</v>
+      </c>
+      <c r="H334">
+        <v>14148</v>
+      </c>
+      <c r="I334">
+        <v>10299</v>
+      </c>
+      <c r="J334">
+        <v>7282</v>
+      </c>
+      <c r="K334">
+        <v>3968</v>
+      </c>
+      <c r="L334">
+        <v>10177</v>
+      </c>
+      <c r="M334">
+        <v>9355</v>
+      </c>
+      <c r="N334">
+        <v>3247</v>
+      </c>
+      <c r="O334">
+        <v>6097</v>
+      </c>
+      <c r="P334">
+        <v>7051</v>
+      </c>
+      <c r="Q334">
+        <v>2812</v>
+      </c>
+      <c r="R334">
+        <v>2719</v>
+      </c>
+      <c r="S334">
+        <v>10331</v>
+      </c>
+      <c r="T334">
+        <v>848</v>
+      </c>
+      <c r="U334">
+        <v>7499</v>
+      </c>
+      <c r="V334">
+        <v>1347</v>
+      </c>
+      <c r="W334">
+        <v>3004</v>
+      </c>
+      <c r="X334">
+        <v>1025</v>
+      </c>
+      <c r="Y334">
+        <v>4644</v>
+      </c>
+      <c r="Z334">
+        <v>4954</v>
+      </c>
+      <c r="AA334">
+        <v>2097</v>
+      </c>
+      <c r="AB334">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="335" spans="1:28">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>51502</v>
+      </c>
+      <c r="C335">
+        <v>5668</v>
+      </c>
+      <c r="D335">
+        <v>28833</v>
+      </c>
+      <c r="E335">
+        <v>9857</v>
+      </c>
+      <c r="F335">
+        <v>4476</v>
+      </c>
+      <c r="G335">
+        <v>2683</v>
+      </c>
+      <c r="H335">
+        <v>14279</v>
+      </c>
+      <c r="I335">
+        <v>10311</v>
+      </c>
+      <c r="J335">
+        <v>7286</v>
+      </c>
+      <c r="K335">
+        <v>3980</v>
+      </c>
+      <c r="L335">
+        <v>10193</v>
+      </c>
+      <c r="M335">
+        <v>9395</v>
+      </c>
+      <c r="N335">
+        <v>3247</v>
+      </c>
+      <c r="O335">
+        <v>6124</v>
+      </c>
+      <c r="P335">
+        <v>7146</v>
+      </c>
+      <c r="Q335">
+        <v>2812</v>
+      </c>
+      <c r="R335">
+        <v>2727</v>
+      </c>
+      <c r="S335">
+        <v>10332</v>
+      </c>
+      <c r="T335">
+        <v>850</v>
+      </c>
+      <c r="U335">
+        <v>7530</v>
+      </c>
+      <c r="V335">
+        <v>1347</v>
+      </c>
+      <c r="W335">
+        <v>3012</v>
+      </c>
+      <c r="X335">
+        <v>1025</v>
+      </c>
+      <c r="Y335">
+        <v>4649</v>
+      </c>
+      <c r="Z335">
+        <v>4968</v>
+      </c>
+      <c r="AA335">
+        <v>2111</v>
+      </c>
+      <c r="AB335">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -55663,15 +56363,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B2">
         <v>1777225</v>
@@ -55679,7 +56379,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>881935</v>
@@ -55687,7 +56387,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B4">
         <v>4144597</v>
@@ -55695,7 +56395,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B5">
         <v>605761</v>
@@ -55703,7 +56403,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B6">
         <v>8602865</v>
@@ -55711,7 +56411,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B7">
         <v>845731</v>
@@ -55719,7 +56419,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B8">
         <v>1572866</v>
@@ -55727,7 +56427,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B9">
         <v>7075181</v>
@@ -55735,7 +56435,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B10">
         <v>3273227</v>
@@ -55743,7 +56443,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B11">
         <v>9132078</v>
@@ -55751,7 +56451,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B12">
         <v>3506853</v>
@@ -55759,7 +56459,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B13">
         <v>4018127</v>
@@ -55767,7 +56467,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B14">
         <v>9557071</v>
@@ -55775,7 +56475,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B15">
         <v>3337357</v>
@@ -55783,7 +56483,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B16">
         <v>2298696</v>
@@ -55791,7 +56491,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B17">
         <v>14873064</v>
@@ -55799,7 +56499,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B18">
         <v>21168791</v>
@@ -55807,7 +56507,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B19">
         <v>4018650</v>
@@ -55815,7 +56515,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B20">
         <v>17264943</v>
@@ -55823,7 +56523,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B21">
         <v>45919049</v>
@@ -55831,7 +56531,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B22">
         <v>11433957</v>
@@ -55839,7 +56539,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B23">
         <v>7164788</v>
@@ -55847,7 +56547,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B24">
         <v>11377239</v>
@@ -55855,7 +56555,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B25">
         <v>2778986</v>
@@ -55863,7 +56563,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B26">
         <v>3484466</v>
@@ -55871,7 +56571,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B27">
         <v>7018354</v>
@@ -55879,7 +56579,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B28">
         <v>3015268</v>
